--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="22830" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -172,6 +172,15 @@
       </rPr>
       <t>base</t>
     </r>
+  </si>
+  <si>
+    <t>NpcType</t>
+  </si>
+  <si>
+    <t>NpcType_Normal</t>
+  </si>
+  <si>
+    <t>普通Npc</t>
   </si>
 </sst>
 </file>
@@ -1175,21 +1184,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="31.75" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="5.25" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="15.125" customWidth="1"/>
   </cols>
@@ -1342,6 +1351,24 @@
       </c>
       <c r="K8" s="6" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22830" windowHeight="9495"/>
+    <workbookView windowWidth="23070" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -181,6 +181,39 @@
   </si>
   <si>
     <t>普通Npc</t>
+  </si>
+  <si>
+    <t>TaskType</t>
+  </si>
+  <si>
+    <t>TaskType_Main</t>
+  </si>
+  <si>
+    <t>主线任务</t>
+  </si>
+  <si>
+    <t>TaskType_Branch</t>
+  </si>
+  <si>
+    <t>支线任务</t>
+  </si>
+  <si>
+    <t>TaskType_Sub</t>
+  </si>
+  <si>
+    <t>子任务</t>
+  </si>
+  <si>
+    <t>TaskType_Daily</t>
+  </si>
+  <si>
+    <t>日常任务</t>
+  </si>
+  <si>
+    <t>TaskType_Weeky</t>
+  </si>
+  <si>
+    <t>周常任务</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1363,12 +1396,72 @@
       <c r="H10" t="s">
         <v>31</v>
       </c>
-      <c r="I10"/>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="8:11">
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="8:11">
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="8:11">
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="8:11">
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -92,86 +92,31 @@
     <t>Base</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8"/>
-        <color rgb="FF85C46C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基础类型（用于以场景，玩法类基础的类型组）</t>
-    </r>
+    <t>基础类型（用于以场景，玩法类基础的类型组）</t>
   </si>
   <si>
     <t>BaseFixed</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8"/>
-        <color rgb="FF85C46C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基础类型 基础上附加</t>
-    </r>
+    <t>基础类型 基础上附加</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8"/>
-        <color rgb="FF85C46C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>常规组类型</t>
-    </r>
+    <t>常规组类型</t>
   </si>
   <si>
     <t>NormalFixed</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8"/>
-        <color rgb="FF85C46C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>追加类型（组的基础上追加另一个组）</t>
-    </r>
+    <t>追加类型（组的基础上追加另一个组）</t>
   </si>
   <si>
     <t>GeneralBase</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8"/>
-        <color rgb="FF85C46C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通用</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8"/>
-        <color rgb="FF85C46C"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>base</t>
-    </r>
+    <t>通用base</t>
   </si>
   <si>
     <t>NpcType</t>
@@ -214,6 +159,45 @@
   </si>
   <si>
     <t>周常任务</t>
+  </si>
+  <si>
+    <t>GameItemType</t>
+  </si>
+  <si>
+    <t>GameItemType_Normal</t>
+  </si>
+  <si>
+    <t>普通道具</t>
+  </si>
+  <si>
+    <t>GameItemType_Money</t>
+  </si>
+  <si>
+    <t>货币道具</t>
+  </si>
+  <si>
+    <t>GameItemType_Equipment</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>GameItemType_Medicine</t>
+  </si>
+  <si>
+    <t>药品</t>
+  </si>
+  <si>
+    <t>GameItemType_Material</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>GameItemType_Fragment</t>
+  </si>
+  <si>
+    <t>碎片</t>
   </si>
 </sst>
 </file>
@@ -235,22 +219,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <name val="Courier New"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9.8"/>
       <color theme="1"/>
-      <name val="Courier New"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="9.8"/>
       <color rgb="FF85C46C"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -396,13 +386,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9.8"/>
-      <color rgb="FF85C46C"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -746,156 +729,168 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1217,251 +1212,325 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="31.75" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="31.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="14.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="99" customHeight="1" spans="1:12">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="b">
+      <c r="C4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="8:11">
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="8:11">
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="8:11">
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>4</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="8:11">
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>99</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="b">
+      <c r="D10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="b">
+      <c r="D12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="8:11">
-      <c r="H13" t="s">
+      <c r="H13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>2</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="8:11">
-      <c r="H14" t="s">
+      <c r="H14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>3</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="8:11">
-      <c r="H15" t="s">
+      <c r="H15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>4</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="8:11">
-      <c r="H16" t="s">
+      <c r="H16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>5</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="8" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11">
+      <c r="H20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11">
+      <c r="H21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11">
+      <c r="H22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11">
+      <c r="H23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="1">
+        <v>6</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23070" windowHeight="10080"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -159,6 +159,27 @@
   </si>
   <si>
     <t>周常任务</t>
+  </si>
+  <si>
+    <t>SubTaskType</t>
+  </si>
+  <si>
+    <t>SubTaskType_Interactive</t>
+  </si>
+  <si>
+    <t>交互</t>
+  </si>
+  <si>
+    <t>SubTaskType_Hunt</t>
+  </si>
+  <si>
+    <t>猎杀</t>
+  </si>
+  <si>
+    <t>SubTaskType_Gather</t>
+  </si>
+  <si>
+    <t>采集</t>
   </si>
   <si>
     <t>GameItemType</t>
@@ -859,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,9 +893,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -883,12 +901,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1212,10 +1224,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1258,21 +1270,21 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1296,15 +1308,15 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1317,10 +1329,10 @@
       <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1" t="b">
@@ -1329,146 +1341,143 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="8:11">
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="8:11">
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="8:11">
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="1">
         <v>4</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="8:11">
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="1">
         <v>99</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="8:11">
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="8:11">
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J14" s="1">
         <v>3</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="8:11">
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J15" s="1">
         <v>4</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="8:11">
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="1">
         <v>5</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="J18" s="1">
@@ -1479,7 +1488,7 @@
       </c>
     </row>
     <row r="19" spans="8:11">
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J19" s="1">
@@ -1490,7 +1499,7 @@
       </c>
     </row>
     <row r="20" spans="8:11">
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J20" s="1">
@@ -1500,37 +1509,76 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="8:11">
-      <c r="H21" s="1" t="s">
+    <row r="25" spans="2:11">
+      <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="1">
+      <c r="D25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="8:11">
+      <c r="H26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="8:11">
+      <c r="H27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="8:11">
+      <c r="H28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="1">
         <v>4</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="8:11">
-      <c r="H22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="K28" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="8:11">
+      <c r="H29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="1">
         <v>5</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="8:11">
-      <c r="H23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="K29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11">
+      <c r="H30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="1">
         <v>6</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>56</v>
+      <c r="K30" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="23550" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -219,6 +219,45 @@
   </si>
   <si>
     <t>碎片</t>
+  </si>
+  <si>
+    <t>PropertyType</t>
+  </si>
+  <si>
+    <t>PropertyType_Hp</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>PropertyType_MaxHp</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>最大生命值</t>
+  </si>
+  <si>
+    <t>PropertyType_Atk</t>
+  </si>
+  <si>
+    <t>Atk</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>PropertyType_Def</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>防御</t>
   </si>
 </sst>
 </file>
@@ -1224,10 +1263,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1581,6 +1620,65 @@
         <v>63</v>
       </c>
     </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1001</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11">
+      <c r="H33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1002</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11">
+      <c r="H34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1003</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11">
+      <c r="H35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1004</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="107">
   <si>
     <t>##var</t>
   </si>
@@ -224,6 +224,78 @@
     <t>PropertyType</t>
   </si>
   <si>
+    <t>PropertyType_Level</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>PropertyType_Exp</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>经验值</t>
+  </si>
+  <si>
+    <t>PropertyType_MaxExp</t>
+  </si>
+  <si>
+    <t>MaxExp</t>
+  </si>
+  <si>
+    <t>最大经验值</t>
+  </si>
+  <si>
+    <t>PropertyType_Silver</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>银币</t>
+  </si>
+  <si>
+    <t>PropertyType_Gold</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>PropertyType_Diamond</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>PropertyType_Speed</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>PropertyType_AOI</t>
+  </si>
+  <si>
+    <t>AOI</t>
+  </si>
+  <si>
+    <t>视野范围</t>
+  </si>
+  <si>
     <t>PropertyType_Hp</t>
   </si>
   <si>
@@ -258,6 +330,24 @@
   </si>
   <si>
     <t>防御</t>
+  </si>
+  <si>
+    <t>PropertyType_Hit</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>命中</t>
+  </si>
+  <si>
+    <t>PropertyType_Crit</t>
+  </si>
+  <si>
+    <t>Crit</t>
+  </si>
+  <si>
+    <t>暴击</t>
   </si>
 </sst>
 </file>
@@ -919,18 +1009,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -938,11 +1031,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1263,10 +1356,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1277,101 +1370,102 @@
     <col min="4" max="5" width="14.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="26.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="99" customHeight="1" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1" t="b">
@@ -1380,57 +1474,57 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="8:11">
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="8:11">
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>3</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="8:11">
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>4</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="8:11">
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>99</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1441,13 +1535,13 @@
       <c r="D10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1458,57 +1552,57 @@
       <c r="D12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>1</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="8:11">
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>2</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="8:11">
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>3</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="8:11">
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>4</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="8:11">
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>5</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1516,35 +1610,35 @@
       <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <v>1</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="8:11">
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="2">
         <v>2</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="8:11">
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>3</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1555,68 +1649,68 @@
       <c r="D25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <v>1</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="8:11">
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="2">
         <v>2</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="8:11">
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="2">
         <v>3</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="8:11">
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="2">
         <v>4</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="8:11">
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="2">
         <v>5</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="8:11">
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="2">
         <v>6</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1624,59 +1718,199 @@
       <c r="B32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="2">
         <v>1001</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="8:11">
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="2">
         <v>1002</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="8:11">
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="2">
         <v>1003</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="8:11">
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="2">
         <v>1004</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="2" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11">
+      <c r="H36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1005</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11">
+      <c r="H37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1006</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11">
+      <c r="H38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1007</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="8:11">
+      <c r="H39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1008</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="8:11">
+      <c r="H40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1101</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="8:11">
+      <c r="H41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1102</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="8:11">
+      <c r="H42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1103</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="8:11">
+      <c r="H43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1104</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="8:11">
+      <c r="H44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1105</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="8:11">
+      <c r="H45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1106</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="156">
   <si>
     <t>##var</t>
   </si>
@@ -221,10 +221,58 @@
     <t>碎片</t>
   </si>
   <si>
-    <t>PropertyType</t>
-  </si>
-  <si>
-    <t>PropertyType_Level</t>
+    <t>GameItemQualityType</t>
+  </si>
+  <si>
+    <t>GameItemQualityType_White</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>白色品质</t>
+  </si>
+  <si>
+    <t>GameItemQualityType_Green</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>绿色品质</t>
+  </si>
+  <si>
+    <t>GameItemQualityType_Blue</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>蓝色品质</t>
+  </si>
+  <si>
+    <t>GameItemQualityType_Purple</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
+    <t>紫色品质</t>
+  </si>
+  <si>
+    <t>GameItemQualityType_Orange</t>
+  </si>
+  <si>
+    <t>橙</t>
+  </si>
+  <si>
+    <t>橙色品质</t>
+  </si>
+  <si>
+    <t>GamePropertyType</t>
+  </si>
+  <si>
+    <t>GamePropertyType_Level</t>
   </si>
   <si>
     <t>Level</t>
@@ -233,7 +281,7 @@
     <t>等级</t>
   </si>
   <si>
-    <t>PropertyType_Exp</t>
+    <t>GamePropertyType_Exp</t>
   </si>
   <si>
     <t>Exp</t>
@@ -242,7 +290,7 @@
     <t>经验值</t>
   </si>
   <si>
-    <t>PropertyType_MaxExp</t>
+    <t>GamePropertyType_MaxExp</t>
   </si>
   <si>
     <t>MaxExp</t>
@@ -251,7 +299,7 @@
     <t>最大经验值</t>
   </si>
   <si>
-    <t>PropertyType_Silver</t>
+    <t>GamePropertyType_Silver</t>
   </si>
   <si>
     <t>Silver</t>
@@ -260,7 +308,7 @@
     <t>银币</t>
   </si>
   <si>
-    <t>PropertyType_Gold</t>
+    <t>GamePropertyType_Gold</t>
   </si>
   <si>
     <t>Gold</t>
@@ -269,7 +317,7 @@
     <t>金币</t>
   </si>
   <si>
-    <t>PropertyType_Diamond</t>
+    <t>GamePropertyType_Diamond</t>
   </si>
   <si>
     <t>Diamond</t>
@@ -278,7 +326,7 @@
     <t>钻石</t>
   </si>
   <si>
-    <t>PropertyType_Speed</t>
+    <t>GamePropertyType_Speed</t>
   </si>
   <si>
     <t>Speed</t>
@@ -287,7 +335,7 @@
     <t>移动速度</t>
   </si>
   <si>
-    <t>PropertyType_AOI</t>
+    <t>GamePropertyType_AOI</t>
   </si>
   <si>
     <t>AOI</t>
@@ -296,7 +344,7 @@
     <t>视野范围</t>
   </si>
   <si>
-    <t>PropertyType_Hp</t>
+    <t>GamePropertyType_Hp</t>
   </si>
   <si>
     <t>Hp</t>
@@ -305,7 +353,7 @@
     <t>生命值</t>
   </si>
   <si>
-    <t>PropertyType_MaxHp</t>
+    <t>GamePropertyType_MaxHp</t>
   </si>
   <si>
     <t>MaxHp</t>
@@ -314,7 +362,7 @@
     <t>最大生命值</t>
   </si>
   <si>
-    <t>PropertyType_Atk</t>
+    <t>GamePropertyType_Atk</t>
   </si>
   <si>
     <t>Atk</t>
@@ -323,7 +371,7 @@
     <t>攻击</t>
   </si>
   <si>
-    <t>PropertyType_Def</t>
+    <t>GamePropertyType_Def</t>
   </si>
   <si>
     <t>Def</t>
@@ -332,7 +380,7 @@
     <t>防御</t>
   </si>
   <si>
-    <t>PropertyType_Hit</t>
+    <t>GamePropertyType_Hit</t>
   </si>
   <si>
     <t>Hit</t>
@@ -341,13 +389,112 @@
     <t>命中</t>
   </si>
   <si>
-    <t>PropertyType_Crit</t>
+    <t>GamePropertyType_Crit</t>
   </si>
   <si>
     <t>Crit</t>
   </si>
   <si>
     <t>暴击</t>
+  </si>
+  <si>
+    <t>BuffType</t>
+  </si>
+  <si>
+    <t>BuffType_ModifyProperty</t>
+  </si>
+  <si>
+    <t>ModifyProperty</t>
+  </si>
+  <si>
+    <t>修改属性值</t>
+  </si>
+  <si>
+    <t>BuffType_Control</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>控制类</t>
+  </si>
+  <si>
+    <t>BuffType_ContinueDamage</t>
+  </si>
+  <si>
+    <t>ContinueDamage</t>
+  </si>
+  <si>
+    <t>持续伤害</t>
+  </si>
+  <si>
+    <t>BuffType_Action</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>响应行动</t>
+  </si>
+  <si>
+    <t>EquipmentType</t>
+  </si>
+  <si>
+    <t>EquipmentType_Head</t>
+  </si>
+  <si>
+    <t>头</t>
+  </si>
+  <si>
+    <t>头部</t>
+  </si>
+  <si>
+    <t>EquipmentType_Necklace</t>
+  </si>
+  <si>
+    <t>项链</t>
+  </si>
+  <si>
+    <t>EquipmentType_Shoulder</t>
+  </si>
+  <si>
+    <t>肩膀</t>
+  </si>
+  <si>
+    <t>EquipmentType_Chest</t>
+  </si>
+  <si>
+    <t>胸</t>
+  </si>
+  <si>
+    <t>EquipmentType_Belt</t>
+  </si>
+  <si>
+    <t>腰带</t>
+  </si>
+  <si>
+    <t>EquipmentType_Trousers</t>
+  </si>
+  <si>
+    <t>裤子</t>
+  </si>
+  <si>
+    <t>EquipmentType_Shoes</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>EquipmentType_Ring</t>
+  </si>
+  <si>
+    <t>戒指</t>
+  </si>
+  <si>
+    <t>EquipmentType_Jewelry</t>
+  </si>
+  <si>
+    <t>饰品</t>
   </si>
 </sst>
 </file>
@@ -1356,10 +1503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1370,8 +1517,8 @@
     <col min="4" max="5" width="14.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="37.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.875" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
@@ -1725,7 +1872,7 @@
         <v>66</v>
       </c>
       <c r="J32" s="2">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>67</v>
@@ -1739,7 +1886,7 @@
         <v>69</v>
       </c>
       <c r="J33" s="2">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>70</v>
@@ -1753,7 +1900,7 @@
         <v>72</v>
       </c>
       <c r="J34" s="2">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>73</v>
@@ -1767,7 +1914,7 @@
         <v>75</v>
       </c>
       <c r="J35" s="2">
-        <v>1004</v>
+        <v>4</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>76</v>
@@ -1781,136 +1928,757 @@
         <v>78</v>
       </c>
       <c r="J36" s="2">
-        <v>1005</v>
+        <v>5</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="8:11">
-      <c r="H37" s="2" t="s">
+    <row r="42" spans="2:11">
+      <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J37" s="2">
-        <v>1006</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="8:11">
-      <c r="H38" s="2" t="s">
+      <c r="J42" s="2">
+        <v>1001</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1007</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="8:11">
-      <c r="H39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J39" s="2">
-        <v>1008</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="8:11">
-      <c r="H40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1101</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="8:11">
-      <c r="H41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1102</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="8:11">
-      <c r="H42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1103</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="43" spans="8:11">
       <c r="H43" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="J43" s="2">
-        <v>1104</v>
+        <v>1002</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="8:11">
       <c r="H44" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J44" s="2">
-        <v>1105</v>
+        <v>1003</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="8:11">
       <c r="H45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1004</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="8:11">
+      <c r="H46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1005</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="8:11">
+      <c r="H47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1006</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="8:11">
+      <c r="H48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1007</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11">
+      <c r="H49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1008</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I45" s="2" t="s">
+    </row>
+    <row r="51" spans="8:11">
+      <c r="H51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J45" s="2">
+      <c r="I51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1101</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11">
+      <c r="H52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1102</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11">
+      <c r="H53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1103</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11">
+      <c r="H54" s="2" t="str">
+        <f>(_xlfn.CONCAT(H53,"Base"))</f>
+        <v>GamePropertyType_AtkBase</v>
+      </c>
+      <c r="I54" s="2" t="str">
+        <f>_xlfn.CONCAT(I53,"Base")</f>
+        <v>AtkBase</v>
+      </c>
+      <c r="J54" s="2">
+        <f>J53*10+1</f>
+        <v>11031</v>
+      </c>
+      <c r="K54" s="2" t="str">
+        <f>_xlfn.CONCAT(K53,"基础值")</f>
+        <v>攻击基础值</v>
+      </c>
+    </row>
+    <row r="55" spans="8:11">
+      <c r="H55" s="2" t="str">
+        <f t="shared" ref="H55:H57" si="0">_xlfn.CONCAT(H53,"Add")</f>
+        <v>GamePropertyType_AtkAdd</v>
+      </c>
+      <c r="I55" s="2" t="str">
+        <f>_xlfn.CONCAT(I53,"Add")</f>
+        <v>AtkAdd</v>
+      </c>
+      <c r="J55" s="2">
+        <f>J53*10+2</f>
+        <v>11032</v>
+      </c>
+      <c r="K55" s="2" t="str">
+        <f>_xlfn.CONCAT(K53,"附加值")</f>
+        <v>攻击附加值</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11">
+      <c r="H56" s="2" t="str">
+        <f>_xlfn.CONCAT(H53,"Pct")</f>
+        <v>GamePropertyType_AtkPct</v>
+      </c>
+      <c r="I56" s="2" t="str">
+        <f>_xlfn.CONCAT(I53,"Pct")</f>
+        <v>AtkPct</v>
+      </c>
+      <c r="J56" s="2">
+        <f>J53*10+3</f>
+        <v>11033</v>
+      </c>
+      <c r="K56" s="2" t="str">
+        <f>_xlfn.CONCAT(K53,"百分比")</f>
+        <v>攻击百分比</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11">
+      <c r="H57" s="2" t="str">
+        <f>_xlfn.CONCAT(H53,"FinalAdd")</f>
+        <v>GamePropertyType_AtkFinalAdd</v>
+      </c>
+      <c r="I57" s="2" t="str">
+        <f>_xlfn.CONCAT(I53,"FinalAdd")</f>
+        <v>AtkFinalAdd</v>
+      </c>
+      <c r="J57" s="2">
+        <f>J53*10+4</f>
+        <v>11034</v>
+      </c>
+      <c r="K57" s="2" t="str">
+        <f>_xlfn.CONCAT(K53,"最终附加值")</f>
+        <v>攻击最终附加值</v>
+      </c>
+    </row>
+    <row r="58" spans="8:11">
+      <c r="H58" s="2" t="str">
+        <f>_xlfn.CONCAT(H53,"FinalPct")</f>
+        <v>GamePropertyType_AtkFinalPct</v>
+      </c>
+      <c r="I58" s="2" t="str">
+        <f>_xlfn.CONCAT(I53,"FinalPct")</f>
+        <v>AtkFinalPct</v>
+      </c>
+      <c r="J58" s="2">
+        <f>J53*10+5</f>
+        <v>11035</v>
+      </c>
+      <c r="K58" s="2" t="str">
+        <f>_xlfn.CONCAT(K53,"最终百分比")</f>
+        <v>攻击最终百分比</v>
+      </c>
+    </row>
+    <row r="59" spans="8:11">
+      <c r="H59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1104</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="8:11">
+      <c r="H60" s="2" t="str">
+        <f>(_xlfn.CONCAT(H59,"Base"))</f>
+        <v>GamePropertyType_DefBase</v>
+      </c>
+      <c r="I60" s="2" t="str">
+        <f>_xlfn.CONCAT(I59,"Base")</f>
+        <v>DefBase</v>
+      </c>
+      <c r="J60" s="2">
+        <f>J59*10+1</f>
+        <v>11041</v>
+      </c>
+      <c r="K60" s="2" t="str">
+        <f>_xlfn.CONCAT(K59,"基础值")</f>
+        <v>防御基础值</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11">
+      <c r="H61" s="2" t="str">
+        <f>_xlfn.CONCAT(H59,"Add")</f>
+        <v>GamePropertyType_DefAdd</v>
+      </c>
+      <c r="I61" s="2" t="str">
+        <f>_xlfn.CONCAT(I59,"Add")</f>
+        <v>DefAdd</v>
+      </c>
+      <c r="J61" s="2">
+        <f>J59*10+2</f>
+        <v>11042</v>
+      </c>
+      <c r="K61" s="2" t="str">
+        <f>_xlfn.CONCAT(K59,"附加值")</f>
+        <v>防御附加值</v>
+      </c>
+    </row>
+    <row r="62" spans="8:11">
+      <c r="H62" s="2" t="str">
+        <f>_xlfn.CONCAT(H59,"Pct")</f>
+        <v>GamePropertyType_DefPct</v>
+      </c>
+      <c r="I62" s="2" t="str">
+        <f>_xlfn.CONCAT(I59,"Pct")</f>
+        <v>DefPct</v>
+      </c>
+      <c r="J62" s="2">
+        <f>J59*10+3</f>
+        <v>11043</v>
+      </c>
+      <c r="K62" s="2" t="str">
+        <f>_xlfn.CONCAT(K59,"百分比")</f>
+        <v>防御百分比</v>
+      </c>
+    </row>
+    <row r="63" spans="8:11">
+      <c r="H63" s="2" t="str">
+        <f>_xlfn.CONCAT(H59,"FinalAdd")</f>
+        <v>GamePropertyType_DefFinalAdd</v>
+      </c>
+      <c r="I63" s="2" t="str">
+        <f>_xlfn.CONCAT(I59,"FinalAdd")</f>
+        <v>DefFinalAdd</v>
+      </c>
+      <c r="J63" s="2">
+        <f>J59*10+4</f>
+        <v>11044</v>
+      </c>
+      <c r="K63" s="2" t="str">
+        <f>_xlfn.CONCAT(K59,"最终附加值")</f>
+        <v>防御最终附加值</v>
+      </c>
+    </row>
+    <row r="64" spans="8:11">
+      <c r="H64" s="2" t="str">
+        <f>_xlfn.CONCAT(H59,"FinalPct")</f>
+        <v>GamePropertyType_DefFinalPct</v>
+      </c>
+      <c r="I64" s="2" t="str">
+        <f>_xlfn.CONCAT(I59,"FinalPct")</f>
+        <v>DefFinalPct</v>
+      </c>
+      <c r="J64" s="2">
+        <f>J59*10+5</f>
+        <v>11045</v>
+      </c>
+      <c r="K64" s="2" t="str">
+        <f>_xlfn.CONCAT(K59,"最终百分比")</f>
+        <v>防御最终百分比</v>
+      </c>
+    </row>
+    <row r="65" spans="8:11">
+      <c r="H65" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1105</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="8:11">
+      <c r="H66" s="2" t="str">
+        <f>(_xlfn.CONCAT(H65,"Base"))</f>
+        <v>GamePropertyType_HitBase</v>
+      </c>
+      <c r="I66" s="2" t="str">
+        <f>_xlfn.CONCAT(I65,"Base")</f>
+        <v>HitBase</v>
+      </c>
+      <c r="J66" s="2">
+        <f>J65*10+1</f>
+        <v>11051</v>
+      </c>
+      <c r="K66" s="2" t="str">
+        <f>_xlfn.CONCAT(K65,"基础值")</f>
+        <v>命中基础值</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11">
+      <c r="H67" s="2" t="str">
+        <f>_xlfn.CONCAT(H65,"Add")</f>
+        <v>GamePropertyType_HitAdd</v>
+      </c>
+      <c r="I67" s="2" t="str">
+        <f>_xlfn.CONCAT(I65,"Add")</f>
+        <v>HitAdd</v>
+      </c>
+      <c r="J67" s="2">
+        <f>J65*10+2</f>
+        <v>11052</v>
+      </c>
+      <c r="K67" s="2" t="str">
+        <f>_xlfn.CONCAT(K65,"附加值")</f>
+        <v>命中附加值</v>
+      </c>
+    </row>
+    <row r="68" spans="8:11">
+      <c r="H68" s="2" t="str">
+        <f>_xlfn.CONCAT(H65,"Pct")</f>
+        <v>GamePropertyType_HitPct</v>
+      </c>
+      <c r="I68" s="2" t="str">
+        <f>_xlfn.CONCAT(I65,"Pct")</f>
+        <v>HitPct</v>
+      </c>
+      <c r="J68" s="2">
+        <f>J65*10+3</f>
+        <v>11053</v>
+      </c>
+      <c r="K68" s="2" t="str">
+        <f>_xlfn.CONCAT(K65,"百分比")</f>
+        <v>命中百分比</v>
+      </c>
+    </row>
+    <row r="69" spans="8:11">
+      <c r="H69" s="2" t="str">
+        <f>_xlfn.CONCAT(H65,"FinalAdd")</f>
+        <v>GamePropertyType_HitFinalAdd</v>
+      </c>
+      <c r="I69" s="2" t="str">
+        <f>_xlfn.CONCAT(I65,"FinalAdd")</f>
+        <v>HitFinalAdd</v>
+      </c>
+      <c r="J69" s="2">
+        <f>J65*10+4</f>
+        <v>11054</v>
+      </c>
+      <c r="K69" s="2" t="str">
+        <f>_xlfn.CONCAT(K65,"最终附加值")</f>
+        <v>命中最终附加值</v>
+      </c>
+    </row>
+    <row r="70" spans="8:11">
+      <c r="H70" s="2" t="str">
+        <f>_xlfn.CONCAT(H65,"FinalPct")</f>
+        <v>GamePropertyType_HitFinalPct</v>
+      </c>
+      <c r="I70" s="2" t="str">
+        <f>_xlfn.CONCAT(I65,"FinalPct")</f>
+        <v>HitFinalPct</v>
+      </c>
+      <c r="J70" s="2">
+        <f>J65*10+5</f>
+        <v>11055</v>
+      </c>
+      <c r="K70" s="2" t="str">
+        <f>_xlfn.CONCAT(K65,"最终百分比")</f>
+        <v>命中最终百分比</v>
+      </c>
+    </row>
+    <row r="71" spans="8:11">
+      <c r="H71" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J71" s="2">
         <v>1106</v>
       </c>
-      <c r="K45" s="2" t="s">
-        <v>106</v>
+      <c r="K71" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="8:11">
+      <c r="H72" s="2" t="str">
+        <f>(_xlfn.CONCAT(H71,"Base"))</f>
+        <v>GamePropertyType_CritBase</v>
+      </c>
+      <c r="I72" s="2" t="str">
+        <f>_xlfn.CONCAT(I71,"Base")</f>
+        <v>CritBase</v>
+      </c>
+      <c r="J72" s="2">
+        <f>J71*10+1</f>
+        <v>11061</v>
+      </c>
+      <c r="K72" s="2" t="str">
+        <f>_xlfn.CONCAT(K71,"基础值")</f>
+        <v>暴击基础值</v>
+      </c>
+    </row>
+    <row r="73" spans="8:11">
+      <c r="H73" s="2" t="str">
+        <f>_xlfn.CONCAT(H71,"Add")</f>
+        <v>GamePropertyType_CritAdd</v>
+      </c>
+      <c r="I73" s="2" t="str">
+        <f>_xlfn.CONCAT(I71,"Add")</f>
+        <v>CritAdd</v>
+      </c>
+      <c r="J73" s="2">
+        <f>J71*10+2</f>
+        <v>11062</v>
+      </c>
+      <c r="K73" s="2" t="str">
+        <f>_xlfn.CONCAT(K71,"附加值")</f>
+        <v>暴击附加值</v>
+      </c>
+    </row>
+    <row r="74" spans="8:11">
+      <c r="H74" s="2" t="str">
+        <f>_xlfn.CONCAT(H71,"Pct")</f>
+        <v>GamePropertyType_CritPct</v>
+      </c>
+      <c r="I74" s="2" t="str">
+        <f>_xlfn.CONCAT(I71,"Pct")</f>
+        <v>CritPct</v>
+      </c>
+      <c r="J74" s="2">
+        <f>J71*10+3</f>
+        <v>11063</v>
+      </c>
+      <c r="K74" s="2" t="str">
+        <f>_xlfn.CONCAT(K71,"百分比")</f>
+        <v>暴击百分比</v>
+      </c>
+    </row>
+    <row r="75" spans="8:11">
+      <c r="H75" s="2" t="str">
+        <f>_xlfn.CONCAT(H71,"FinalAdd")</f>
+        <v>GamePropertyType_CritFinalAdd</v>
+      </c>
+      <c r="I75" s="2" t="str">
+        <f>_xlfn.CONCAT(I71,"FinalAdd")</f>
+        <v>CritFinalAdd</v>
+      </c>
+      <c r="J75" s="2">
+        <f>J71*10+4</f>
+        <v>11064</v>
+      </c>
+      <c r="K75" s="2" t="str">
+        <f>_xlfn.CONCAT(K71,"最终附加值")</f>
+        <v>暴击最终附加值</v>
+      </c>
+    </row>
+    <row r="76" spans="8:11">
+      <c r="H76" s="2" t="str">
+        <f>_xlfn.CONCAT(H71,"FinalPct")</f>
+        <v>GamePropertyType_CritFinalPct</v>
+      </c>
+      <c r="I76" s="2" t="str">
+        <f>_xlfn.CONCAT(I71,"FinalPct")</f>
+        <v>CritFinalPct</v>
+      </c>
+      <c r="J76" s="2">
+        <f>J71*10+5</f>
+        <v>11065</v>
+      </c>
+      <c r="K76" s="2" t="str">
+        <f>_xlfn.CONCAT(K71,"最终百分比")</f>
+        <v>暴击最终百分比</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="8:11">
+      <c r="H79" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J79" s="2">
+        <v>2</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="8:11">
+      <c r="H80" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J80" s="2">
+        <v>3</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="8:11">
+      <c r="H81" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J81" s="2">
+        <v>4</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J83" s="2">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="8:11">
+      <c r="H84" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J84" s="2">
+        <v>2</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="8:11">
+      <c r="H85" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J85" s="2">
+        <v>3</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="8:11">
+      <c r="H86" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J86" s="2">
+        <v>4</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="8:11">
+      <c r="H87" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J87" s="2">
+        <v>5</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="8:11">
+      <c r="H88" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J88" s="2">
+        <v>6</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="8:11">
+      <c r="H89" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J89" s="2">
+        <v>7</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="8:11">
+      <c r="H90" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J90" s="2">
+        <v>8</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="8:11">
+      <c r="H91" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J91" s="2">
+        <v>9</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23550" windowHeight="11250"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,28 +89,28 @@
     <t>UIGroupType</t>
   </si>
   <si>
+    <t>GeneralFixed</t>
+  </si>
+  <si>
+    <t>通用base修改（和通用变化不大）</t>
+  </si>
+  <si>
     <t>Base</t>
   </si>
   <si>
-    <t>基础类型（用于以场景，玩法类基础的类型组）</t>
-  </si>
-  <si>
-    <t>BaseFixed</t>
-  </si>
-  <si>
-    <t>基础类型 基础上附加</t>
+    <t>场景、玩法（和通用变化比较大）</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
-    <t>常规组类型</t>
-  </si>
-  <si>
-    <t>NormalFixed</t>
-  </si>
-  <si>
-    <t>追加类型（组的基础上追加另一个组）</t>
+    <t>常规组</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>追加（例如弹出界面也参与界面回朔）</t>
   </si>
   <si>
     <t>GeneralBase</t>
@@ -507,7 +507,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,16 +527,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.8"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
-      <sz val="9.8"/>
-      <color rgb="FF85C46C"/>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1026,137 +1018,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,9 +1171,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1505,8 +1494,8 @@
   <sheetPr/>
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1621,57 +1610,58 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="8:11">
-      <c r="H5" s="7" t="s">
+    <row r="5" spans="2:11">
+      <c r="B5" s="6"/>
+      <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="8:11">
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="2">
         <v>3</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="8:11">
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="2">
         <v>4</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="8:11">
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="2">
         <v>99</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="161">
   <si>
     <t>##var</t>
   </si>
@@ -495,6 +495,21 @@
   </si>
   <si>
     <t>饰品</t>
+  </si>
+  <si>
+    <t>GuildMemberType</t>
+  </si>
+  <si>
+    <t>GuildMemberType_Leader</t>
+  </si>
+  <si>
+    <t>工会会长</t>
+  </si>
+  <si>
+    <t>GuildMemberType_Member</t>
+  </si>
+  <si>
+    <t>工会成员</t>
   </si>
 </sst>
 </file>
@@ -1492,10 +1507,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2671,6 +2686,37 @@
         <v>155</v>
       </c>
     </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="8:11">
+      <c r="H94" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J94" s="2">
+        <v>2</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="23790" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="180">
   <si>
     <t>##var</t>
   </si>
@@ -510,6 +510,63 @@
   </si>
   <si>
     <t>工会成员</t>
+  </si>
+  <si>
+    <t>DailyType</t>
+  </si>
+  <si>
+    <t>DailyType_Daily</t>
+  </si>
+  <si>
+    <t>每日</t>
+  </si>
+  <si>
+    <t>DailyType_Weeky</t>
+  </si>
+  <si>
+    <t>每周</t>
+  </si>
+  <si>
+    <t>DailyType_Monthy</t>
+  </si>
+  <si>
+    <t>每月</t>
+  </si>
+  <si>
+    <t>DailyType_Days</t>
+  </si>
+  <si>
+    <t>指定天</t>
+  </si>
+  <si>
+    <t>指定一周内的某几天</t>
+  </si>
+  <si>
+    <t>ActivityType</t>
+  </si>
+  <si>
+    <t>ActivityType_Signin</t>
+  </si>
+  <si>
+    <t>签到</t>
+  </si>
+  <si>
+    <t>ActivityType_DailyGift1</t>
+  </si>
+  <si>
+    <t>每日礼包1</t>
+  </si>
+  <si>
+    <t>ActivityType_WeekyGift1</t>
+  </si>
+  <si>
+    <t>每周礼包1</t>
+  </si>
+  <si>
+    <t>ActivityType_WorldBoss1</t>
+  </si>
+  <si>
+    <t>世界boss1</t>
   </si>
 </sst>
 </file>
@@ -1507,10 +1564,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1524,7 +1581,7 @@
     <col min="8" max="8" width="37.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.875" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.875" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
@@ -2715,6 +2772,124 @@
       </c>
       <c r="K94" s="2" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="8:11">
+      <c r="H97" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J97" s="2">
+        <v>2</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="8:11">
+      <c r="H98" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J98" s="2">
+        <v>3</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="8:11">
+      <c r="H99" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J99" s="2">
+        <v>4</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J101" s="2">
+        <v>1</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="8:11">
+      <c r="H102" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J102" s="2">
+        <v>2</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="8:11">
+      <c r="H103" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J103" s="2">
+        <v>3</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="8:11">
+      <c r="H104" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J104" s="2">
+        <v>4</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23790" windowHeight="11835"/>
+    <workbookView windowWidth="21825" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="187">
   <si>
     <t>##var</t>
   </si>
@@ -567,6 +567,27 @@
   </si>
   <si>
     <t>世界boss1</t>
+  </si>
+  <si>
+    <t>ChatChannel</t>
+  </si>
+  <si>
+    <t>ChatChannel_World</t>
+  </si>
+  <si>
+    <t>世界频道</t>
+  </si>
+  <si>
+    <t>ChatChannel_Guild</t>
+  </si>
+  <si>
+    <t>工会频道</t>
+  </si>
+  <si>
+    <t>ChatChannel_Max</t>
+  </si>
+  <si>
+    <t>聊天频道最大值</t>
   </si>
 </sst>
 </file>
@@ -1564,10 +1585,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
+      <selection activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2892,6 +2913,51 @@
         <v>179</v>
       </c>
     </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J106" s="2">
+        <v>1</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="107" spans="8:11">
+      <c r="H107" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J107" s="2">
+        <v>2</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="108" spans="8:11">
+      <c r="H108" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J108" s="2">
+        <v>3</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21825" windowHeight="8715"/>
+    <workbookView windowWidth="25140" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="198">
   <si>
     <t>##var</t>
   </si>
@@ -588,6 +588,39 @@
   </si>
   <si>
     <t>聊天频道最大值</t>
+  </si>
+  <si>
+    <t>SkillRange</t>
+  </si>
+  <si>
+    <t>SkillRange_Single</t>
+  </si>
+  <si>
+    <t>单体</t>
+  </si>
+  <si>
+    <t>SkillRange_SelfRound</t>
+  </si>
+  <si>
+    <t>自身周围圆形</t>
+  </si>
+  <si>
+    <t>SkillRange_ForwardRect</t>
+  </si>
+  <si>
+    <t>前方矩形</t>
+  </si>
+  <si>
+    <t>SkillRange_ForwardSector180</t>
+  </si>
+  <si>
+    <t>前方180度扇形</t>
+  </si>
+  <si>
+    <t>SkillRange_ForwardSector90</t>
+  </si>
+  <si>
+    <t>前方90度扇形</t>
   </si>
 </sst>
 </file>
@@ -1585,10 +1618,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
-      <selection activeCell="K111" sqref="K111"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2958,6 +2991,79 @@
         <v>186</v>
       </c>
     </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J110" s="2">
+        <v>1</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="111" spans="8:11">
+      <c r="H111" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J111" s="2">
+        <v>2</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="112" spans="8:11">
+      <c r="H112" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J112" s="2">
+        <v>3</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="113" spans="8:11">
+      <c r="H113" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J113" s="2">
+        <v>4</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="8:11">
+      <c r="H114" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J114" s="2">
+        <v>5</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="204">
   <si>
     <t>##var</t>
   </si>
@@ -360,6 +360,24 @@
   </si>
   <si>
     <t>最大生命值</t>
+  </si>
+  <si>
+    <t>GamePropertyType_Mp</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>魔法值</t>
+  </si>
+  <si>
+    <t>GamePropertyType_MaxMp</t>
+  </si>
+  <si>
+    <t>MaxMp</t>
+  </si>
+  <si>
+    <t>最大魔法值</t>
   </si>
   <si>
     <t>GamePropertyType_Atk</t>
@@ -1618,10 +1636,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2208,439 +2226,439 @@
       </c>
     </row>
     <row r="54" spans="8:11">
-      <c r="H54" s="2" t="str">
-        <f>(_xlfn.CONCAT(H53,"Base"))</f>
-        <v>GamePropertyType_AtkBase</v>
-      </c>
-      <c r="I54" s="2" t="str">
-        <f>_xlfn.CONCAT(I53,"Base")</f>
-        <v>AtkBase</v>
+      <c r="H54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="J54" s="2">
-        <f>J53*10+1</f>
-        <v>11031</v>
-      </c>
-      <c r="K54" s="2" t="str">
-        <f>_xlfn.CONCAT(K53,"基础值")</f>
-        <v>攻击基础值</v>
+        <v>1104</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="8:11">
-      <c r="H55" s="2" t="str">
-        <f t="shared" ref="H55:H57" si="0">_xlfn.CONCAT(H53,"Add")</f>
-        <v>GamePropertyType_AtkAdd</v>
-      </c>
-      <c r="I55" s="2" t="str">
-        <f>_xlfn.CONCAT(I53,"Add")</f>
-        <v>AtkAdd</v>
+      <c r="H55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="J55" s="2">
-        <f>J53*10+2</f>
-        <v>11032</v>
-      </c>
-      <c r="K55" s="2" t="str">
-        <f>_xlfn.CONCAT(K53,"附加值")</f>
-        <v>攻击附加值</v>
+        <v>1105</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="8:11">
       <c r="H56" s="2" t="str">
-        <f>_xlfn.CONCAT(H53,"Pct")</f>
-        <v>GamePropertyType_AtkPct</v>
+        <f>(_xlfn.CONCAT(H55,"Base"))</f>
+        <v>GamePropertyType_AtkBase</v>
       </c>
       <c r="I56" s="2" t="str">
-        <f>_xlfn.CONCAT(I53,"Pct")</f>
-        <v>AtkPct</v>
+        <f>_xlfn.CONCAT(I55,"Base")</f>
+        <v>AtkBase</v>
       </c>
       <c r="J56" s="2">
-        <f>J53*10+3</f>
-        <v>11033</v>
+        <f>J55*10+1</f>
+        <v>11051</v>
       </c>
       <c r="K56" s="2" t="str">
-        <f>_xlfn.CONCAT(K53,"百分比")</f>
-        <v>攻击百分比</v>
+        <f>_xlfn.CONCAT(K55,"基础值")</f>
+        <v>攻击基础值</v>
       </c>
     </row>
     <row r="57" spans="8:11">
       <c r="H57" s="2" t="str">
-        <f>_xlfn.CONCAT(H53,"FinalAdd")</f>
-        <v>GamePropertyType_AtkFinalAdd</v>
+        <f t="shared" ref="H57:H59" si="0">_xlfn.CONCAT(H55,"Add")</f>
+        <v>GamePropertyType_AtkAdd</v>
       </c>
       <c r="I57" s="2" t="str">
-        <f>_xlfn.CONCAT(I53,"FinalAdd")</f>
-        <v>AtkFinalAdd</v>
+        <f>_xlfn.CONCAT(I55,"Add")</f>
+        <v>AtkAdd</v>
       </c>
       <c r="J57" s="2">
-        <f>J53*10+4</f>
-        <v>11034</v>
+        <f>J55*10+2</f>
+        <v>11052</v>
       </c>
       <c r="K57" s="2" t="str">
-        <f>_xlfn.CONCAT(K53,"最终附加值")</f>
-        <v>攻击最终附加值</v>
+        <f>_xlfn.CONCAT(K55,"附加值")</f>
+        <v>攻击附加值</v>
       </c>
     </row>
     <row r="58" spans="8:11">
       <c r="H58" s="2" t="str">
-        <f>_xlfn.CONCAT(H53,"FinalPct")</f>
-        <v>GamePropertyType_AtkFinalPct</v>
+        <f>_xlfn.CONCAT(H55,"Pct")</f>
+        <v>GamePropertyType_AtkPct</v>
       </c>
       <c r="I58" s="2" t="str">
-        <f>_xlfn.CONCAT(I53,"FinalPct")</f>
-        <v>AtkFinalPct</v>
+        <f>_xlfn.CONCAT(I55,"Pct")</f>
+        <v>AtkPct</v>
       </c>
       <c r="J58" s="2">
-        <f>J53*10+5</f>
-        <v>11035</v>
+        <f>J55*10+3</f>
+        <v>11053</v>
       </c>
       <c r="K58" s="2" t="str">
-        <f>_xlfn.CONCAT(K53,"最终百分比")</f>
-        <v>攻击最终百分比</v>
+        <f>_xlfn.CONCAT(K55,"百分比")</f>
+        <v>攻击百分比</v>
       </c>
     </row>
     <row r="59" spans="8:11">
-      <c r="H59" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>115</v>
+      <c r="H59" s="2" t="str">
+        <f>_xlfn.CONCAT(H55,"FinalAdd")</f>
+        <v>GamePropertyType_AtkFinalAdd</v>
+      </c>
+      <c r="I59" s="2" t="str">
+        <f>_xlfn.CONCAT(I55,"FinalAdd")</f>
+        <v>AtkFinalAdd</v>
       </c>
       <c r="J59" s="2">
-        <v>1104</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>116</v>
+        <f>J55*10+4</f>
+        <v>11054</v>
+      </c>
+      <c r="K59" s="2" t="str">
+        <f>_xlfn.CONCAT(K55,"最终附加值")</f>
+        <v>攻击最终附加值</v>
       </c>
     </row>
     <row r="60" spans="8:11">
       <c r="H60" s="2" t="str">
-        <f>(_xlfn.CONCAT(H59,"Base"))</f>
-        <v>GamePropertyType_DefBase</v>
+        <f>_xlfn.CONCAT(H55,"FinalPct")</f>
+        <v>GamePropertyType_AtkFinalPct</v>
       </c>
       <c r="I60" s="2" t="str">
-        <f>_xlfn.CONCAT(I59,"Base")</f>
-        <v>DefBase</v>
+        <f>_xlfn.CONCAT(I55,"FinalPct")</f>
+        <v>AtkFinalPct</v>
       </c>
       <c r="J60" s="2">
-        <f>J59*10+1</f>
-        <v>11041</v>
+        <f>J55*10+5</f>
+        <v>11055</v>
       </c>
       <c r="K60" s="2" t="str">
-        <f>_xlfn.CONCAT(K59,"基础值")</f>
-        <v>防御基础值</v>
+        <f>_xlfn.CONCAT(K55,"最终百分比")</f>
+        <v>攻击最终百分比</v>
       </c>
     </row>
     <row r="61" spans="8:11">
-      <c r="H61" s="2" t="str">
-        <f>_xlfn.CONCAT(H59,"Add")</f>
-        <v>GamePropertyType_DefAdd</v>
-      </c>
-      <c r="I61" s="2" t="str">
-        <f>_xlfn.CONCAT(I59,"Add")</f>
-        <v>DefAdd</v>
+      <c r="H61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="J61" s="2">
-        <f>J59*10+2</f>
-        <v>11042</v>
-      </c>
-      <c r="K61" s="2" t="str">
-        <f>_xlfn.CONCAT(K59,"附加值")</f>
-        <v>防御附加值</v>
+        <v>1106</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="8:11">
       <c r="H62" s="2" t="str">
-        <f>_xlfn.CONCAT(H59,"Pct")</f>
-        <v>GamePropertyType_DefPct</v>
+        <f>(_xlfn.CONCAT(H61,"Base"))</f>
+        <v>GamePropertyType_DefBase</v>
       </c>
       <c r="I62" s="2" t="str">
-        <f>_xlfn.CONCAT(I59,"Pct")</f>
-        <v>DefPct</v>
+        <f>_xlfn.CONCAT(I61,"Base")</f>
+        <v>DefBase</v>
       </c>
       <c r="J62" s="2">
-        <f>J59*10+3</f>
-        <v>11043</v>
+        <f>J61*10+1</f>
+        <v>11061</v>
       </c>
       <c r="K62" s="2" t="str">
-        <f>_xlfn.CONCAT(K59,"百分比")</f>
-        <v>防御百分比</v>
+        <f>_xlfn.CONCAT(K61,"基础值")</f>
+        <v>防御基础值</v>
       </c>
     </row>
     <row r="63" spans="8:11">
       <c r="H63" s="2" t="str">
-        <f>_xlfn.CONCAT(H59,"FinalAdd")</f>
-        <v>GamePropertyType_DefFinalAdd</v>
+        <f>_xlfn.CONCAT(H61,"Add")</f>
+        <v>GamePropertyType_DefAdd</v>
       </c>
       <c r="I63" s="2" t="str">
-        <f>_xlfn.CONCAT(I59,"FinalAdd")</f>
-        <v>DefFinalAdd</v>
+        <f>_xlfn.CONCAT(I61,"Add")</f>
+        <v>DefAdd</v>
       </c>
       <c r="J63" s="2">
-        <f>J59*10+4</f>
-        <v>11044</v>
+        <f>J61*10+2</f>
+        <v>11062</v>
       </c>
       <c r="K63" s="2" t="str">
-        <f>_xlfn.CONCAT(K59,"最终附加值")</f>
-        <v>防御最终附加值</v>
+        <f>_xlfn.CONCAT(K61,"附加值")</f>
+        <v>防御附加值</v>
       </c>
     </row>
     <row r="64" spans="8:11">
       <c r="H64" s="2" t="str">
-        <f>_xlfn.CONCAT(H59,"FinalPct")</f>
-        <v>GamePropertyType_DefFinalPct</v>
+        <f>_xlfn.CONCAT(H61,"Pct")</f>
+        <v>GamePropertyType_DefPct</v>
       </c>
       <c r="I64" s="2" t="str">
-        <f>_xlfn.CONCAT(I59,"FinalPct")</f>
-        <v>DefFinalPct</v>
+        <f>_xlfn.CONCAT(I61,"Pct")</f>
+        <v>DefPct</v>
       </c>
       <c r="J64" s="2">
-        <f>J59*10+5</f>
-        <v>11045</v>
+        <f>J61*10+3</f>
+        <v>11063</v>
       </c>
       <c r="K64" s="2" t="str">
-        <f>_xlfn.CONCAT(K59,"最终百分比")</f>
-        <v>防御最终百分比</v>
+        <f>_xlfn.CONCAT(K61,"百分比")</f>
+        <v>防御百分比</v>
       </c>
     </row>
     <row r="65" spans="8:11">
-      <c r="H65" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>118</v>
+      <c r="H65" s="2" t="str">
+        <f>_xlfn.CONCAT(H61,"FinalAdd")</f>
+        <v>GamePropertyType_DefFinalAdd</v>
+      </c>
+      <c r="I65" s="2" t="str">
+        <f>_xlfn.CONCAT(I61,"FinalAdd")</f>
+        <v>DefFinalAdd</v>
       </c>
       <c r="J65" s="2">
-        <v>1105</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>119</v>
+        <f>J61*10+4</f>
+        <v>11064</v>
+      </c>
+      <c r="K65" s="2" t="str">
+        <f>_xlfn.CONCAT(K61,"最终附加值")</f>
+        <v>防御最终附加值</v>
       </c>
     </row>
     <row r="66" spans="8:11">
       <c r="H66" s="2" t="str">
-        <f>(_xlfn.CONCAT(H65,"Base"))</f>
-        <v>GamePropertyType_HitBase</v>
+        <f>_xlfn.CONCAT(H61,"FinalPct")</f>
+        <v>GamePropertyType_DefFinalPct</v>
       </c>
       <c r="I66" s="2" t="str">
-        <f>_xlfn.CONCAT(I65,"Base")</f>
-        <v>HitBase</v>
+        <f>_xlfn.CONCAT(I61,"FinalPct")</f>
+        <v>DefFinalPct</v>
       </c>
       <c r="J66" s="2">
-        <f>J65*10+1</f>
-        <v>11051</v>
+        <f>J61*10+5</f>
+        <v>11065</v>
       </c>
       <c r="K66" s="2" t="str">
-        <f>_xlfn.CONCAT(K65,"基础值")</f>
-        <v>命中基础值</v>
+        <f>_xlfn.CONCAT(K61,"最终百分比")</f>
+        <v>防御最终百分比</v>
       </c>
     </row>
     <row r="67" spans="8:11">
-      <c r="H67" s="2" t="str">
-        <f>_xlfn.CONCAT(H65,"Add")</f>
-        <v>GamePropertyType_HitAdd</v>
-      </c>
-      <c r="I67" s="2" t="str">
-        <f>_xlfn.CONCAT(I65,"Add")</f>
-        <v>HitAdd</v>
+      <c r="H67" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="J67" s="2">
-        <f>J65*10+2</f>
-        <v>11052</v>
-      </c>
-      <c r="K67" s="2" t="str">
-        <f>_xlfn.CONCAT(K65,"附加值")</f>
-        <v>命中附加值</v>
+        <v>1107</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="8:11">
       <c r="H68" s="2" t="str">
-        <f>_xlfn.CONCAT(H65,"Pct")</f>
-        <v>GamePropertyType_HitPct</v>
+        <f>(_xlfn.CONCAT(H67,"Base"))</f>
+        <v>GamePropertyType_HitBase</v>
       </c>
       <c r="I68" s="2" t="str">
-        <f>_xlfn.CONCAT(I65,"Pct")</f>
-        <v>HitPct</v>
+        <f>_xlfn.CONCAT(I67,"Base")</f>
+        <v>HitBase</v>
       </c>
       <c r="J68" s="2">
-        <f>J65*10+3</f>
-        <v>11053</v>
+        <f>J67*10+1</f>
+        <v>11071</v>
       </c>
       <c r="K68" s="2" t="str">
-        <f>_xlfn.CONCAT(K65,"百分比")</f>
-        <v>命中百分比</v>
+        <f>_xlfn.CONCAT(K67,"基础值")</f>
+        <v>命中基础值</v>
       </c>
     </row>
     <row r="69" spans="8:11">
       <c r="H69" s="2" t="str">
-        <f>_xlfn.CONCAT(H65,"FinalAdd")</f>
-        <v>GamePropertyType_HitFinalAdd</v>
+        <f>_xlfn.CONCAT(H67,"Add")</f>
+        <v>GamePropertyType_HitAdd</v>
       </c>
       <c r="I69" s="2" t="str">
-        <f>_xlfn.CONCAT(I65,"FinalAdd")</f>
-        <v>HitFinalAdd</v>
+        <f>_xlfn.CONCAT(I67,"Add")</f>
+        <v>HitAdd</v>
       </c>
       <c r="J69" s="2">
-        <f>J65*10+4</f>
-        <v>11054</v>
+        <f>J67*10+2</f>
+        <v>11072</v>
       </c>
       <c r="K69" s="2" t="str">
-        <f>_xlfn.CONCAT(K65,"最终附加值")</f>
-        <v>命中最终附加值</v>
+        <f>_xlfn.CONCAT(K67,"附加值")</f>
+        <v>命中附加值</v>
       </c>
     </row>
     <row r="70" spans="8:11">
       <c r="H70" s="2" t="str">
-        <f>_xlfn.CONCAT(H65,"FinalPct")</f>
-        <v>GamePropertyType_HitFinalPct</v>
+        <f>_xlfn.CONCAT(H67,"Pct")</f>
+        <v>GamePropertyType_HitPct</v>
       </c>
       <c r="I70" s="2" t="str">
-        <f>_xlfn.CONCAT(I65,"FinalPct")</f>
-        <v>HitFinalPct</v>
+        <f>_xlfn.CONCAT(I67,"Pct")</f>
+        <v>HitPct</v>
       </c>
       <c r="J70" s="2">
-        <f>J65*10+5</f>
-        <v>11055</v>
+        <f>J67*10+3</f>
+        <v>11073</v>
       </c>
       <c r="K70" s="2" t="str">
-        <f>_xlfn.CONCAT(K65,"最终百分比")</f>
-        <v>命中最终百分比</v>
+        <f>_xlfn.CONCAT(K67,"百分比")</f>
+        <v>命中百分比</v>
       </c>
     </row>
     <row r="71" spans="8:11">
-      <c r="H71" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>121</v>
+      <c r="H71" s="2" t="str">
+        <f>_xlfn.CONCAT(H67,"FinalAdd")</f>
+        <v>GamePropertyType_HitFinalAdd</v>
+      </c>
+      <c r="I71" s="2" t="str">
+        <f>_xlfn.CONCAT(I67,"FinalAdd")</f>
+        <v>HitFinalAdd</v>
       </c>
       <c r="J71" s="2">
-        <v>1106</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>122</v>
+        <f>J67*10+4</f>
+        <v>11074</v>
+      </c>
+      <c r="K71" s="2" t="str">
+        <f>_xlfn.CONCAT(K67,"最终附加值")</f>
+        <v>命中最终附加值</v>
       </c>
     </row>
     <row r="72" spans="8:11">
       <c r="H72" s="2" t="str">
-        <f>(_xlfn.CONCAT(H71,"Base"))</f>
-        <v>GamePropertyType_CritBase</v>
+        <f>_xlfn.CONCAT(H67,"FinalPct")</f>
+        <v>GamePropertyType_HitFinalPct</v>
       </c>
       <c r="I72" s="2" t="str">
-        <f>_xlfn.CONCAT(I71,"Base")</f>
-        <v>CritBase</v>
+        <f>_xlfn.CONCAT(I67,"FinalPct")</f>
+        <v>HitFinalPct</v>
       </c>
       <c r="J72" s="2">
-        <f>J71*10+1</f>
-        <v>11061</v>
+        <f>J67*10+5</f>
+        <v>11075</v>
       </c>
       <c r="K72" s="2" t="str">
-        <f>_xlfn.CONCAT(K71,"基础值")</f>
-        <v>暴击基础值</v>
+        <f>_xlfn.CONCAT(K67,"最终百分比")</f>
+        <v>命中最终百分比</v>
       </c>
     </row>
     <row r="73" spans="8:11">
-      <c r="H73" s="2" t="str">
-        <f>_xlfn.CONCAT(H71,"Add")</f>
-        <v>GamePropertyType_CritAdd</v>
-      </c>
-      <c r="I73" s="2" t="str">
-        <f>_xlfn.CONCAT(I71,"Add")</f>
-        <v>CritAdd</v>
+      <c r="H73" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="J73" s="2">
-        <f>J71*10+2</f>
-        <v>11062</v>
-      </c>
-      <c r="K73" s="2" t="str">
-        <f>_xlfn.CONCAT(K71,"附加值")</f>
-        <v>暴击附加值</v>
+        <v>1108</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="8:11">
       <c r="H74" s="2" t="str">
-        <f>_xlfn.CONCAT(H71,"Pct")</f>
-        <v>GamePropertyType_CritPct</v>
+        <f>(_xlfn.CONCAT(H73,"Base"))</f>
+        <v>GamePropertyType_CritBase</v>
       </c>
       <c r="I74" s="2" t="str">
-        <f>_xlfn.CONCAT(I71,"Pct")</f>
-        <v>CritPct</v>
+        <f>_xlfn.CONCAT(I73,"Base")</f>
+        <v>CritBase</v>
       </c>
       <c r="J74" s="2">
-        <f>J71*10+3</f>
-        <v>11063</v>
+        <f>J73*10+1</f>
+        <v>11081</v>
       </c>
       <c r="K74" s="2" t="str">
-        <f>_xlfn.CONCAT(K71,"百分比")</f>
-        <v>暴击百分比</v>
+        <f>_xlfn.CONCAT(K73,"基础值")</f>
+        <v>暴击基础值</v>
       </c>
     </row>
     <row r="75" spans="8:11">
       <c r="H75" s="2" t="str">
-        <f>_xlfn.CONCAT(H71,"FinalAdd")</f>
-        <v>GamePropertyType_CritFinalAdd</v>
+        <f>_xlfn.CONCAT(H73,"Add")</f>
+        <v>GamePropertyType_CritAdd</v>
       </c>
       <c r="I75" s="2" t="str">
-        <f>_xlfn.CONCAT(I71,"FinalAdd")</f>
-        <v>CritFinalAdd</v>
+        <f>_xlfn.CONCAT(I73,"Add")</f>
+        <v>CritAdd</v>
       </c>
       <c r="J75" s="2">
-        <f>J71*10+4</f>
-        <v>11064</v>
+        <f>J73*10+2</f>
+        <v>11082</v>
       </c>
       <c r="K75" s="2" t="str">
-        <f>_xlfn.CONCAT(K71,"最终附加值")</f>
-        <v>暴击最终附加值</v>
+        <f>_xlfn.CONCAT(K73,"附加值")</f>
+        <v>暴击附加值</v>
       </c>
     </row>
     <row r="76" spans="8:11">
       <c r="H76" s="2" t="str">
-        <f>_xlfn.CONCAT(H71,"FinalPct")</f>
+        <f>_xlfn.CONCAT(H73,"Pct")</f>
+        <v>GamePropertyType_CritPct</v>
+      </c>
+      <c r="I76" s="2" t="str">
+        <f>_xlfn.CONCAT(I73,"Pct")</f>
+        <v>CritPct</v>
+      </c>
+      <c r="J76" s="2">
+        <f>J73*10+3</f>
+        <v>11083</v>
+      </c>
+      <c r="K76" s="2" t="str">
+        <f>_xlfn.CONCAT(K73,"百分比")</f>
+        <v>暴击百分比</v>
+      </c>
+    </row>
+    <row r="77" spans="8:11">
+      <c r="H77" s="2" t="str">
+        <f>_xlfn.CONCAT(H73,"FinalAdd")</f>
+        <v>GamePropertyType_CritFinalAdd</v>
+      </c>
+      <c r="I77" s="2" t="str">
+        <f>_xlfn.CONCAT(I73,"FinalAdd")</f>
+        <v>CritFinalAdd</v>
+      </c>
+      <c r="J77" s="2">
+        <f>J73*10+4</f>
+        <v>11084</v>
+      </c>
+      <c r="K77" s="2" t="str">
+        <f>_xlfn.CONCAT(K73,"最终附加值")</f>
+        <v>暴击最终附加值</v>
+      </c>
+    </row>
+    <row r="78" spans="8:11">
+      <c r="H78" s="2" t="str">
+        <f>_xlfn.CONCAT(H73,"FinalPct")</f>
         <v>GamePropertyType_CritFinalPct</v>
       </c>
-      <c r="I76" s="2" t="str">
-        <f>_xlfn.CONCAT(I71,"FinalPct")</f>
+      <c r="I78" s="2" t="str">
+        <f>_xlfn.CONCAT(I73,"FinalPct")</f>
         <v>CritFinalPct</v>
       </c>
-      <c r="J76" s="2">
-        <f>J71*10+5</f>
-        <v>11065</v>
-      </c>
-      <c r="K76" s="2" t="str">
-        <f>_xlfn.CONCAT(K71,"最终百分比")</f>
+      <c r="J78" s="2">
+        <f>J73*10+5</f>
+        <v>11085</v>
+      </c>
+      <c r="K78" s="2" t="str">
+        <f>_xlfn.CONCAT(K73,"最终百分比")</f>
         <v>暴击最终百分比</v>
       </c>
     </row>
-    <row r="78" spans="2:11">
-      <c r="B78" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J78" s="2">
-        <v>1</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="8:11">
-      <c r="H79" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J79" s="2">
-        <v>2</v>
-      </c>
-      <c r="K79" s="2" t="s">
+    <row r="80" spans="2:11">
+      <c r="B80" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="80" spans="8:11">
       <c r="H80" s="2" t="s">
         <v>130</v>
       </c>
@@ -2648,7 +2666,7 @@
         <v>131</v>
       </c>
       <c r="J80" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>132</v>
@@ -2662,406 +2680,434 @@
         <v>134</v>
       </c>
       <c r="J81" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
-      <c r="B83" s="1" t="s">
+    <row r="82" spans="8:11">
+      <c r="H82" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="I82" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J82" s="2">
+        <v>3</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="8:11">
       <c r="H83" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J83" s="2">
+        <v>4</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J85" s="2">
         <v>1</v>
       </c>
-      <c r="K83" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="8:11">
-      <c r="H84" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J84" s="2">
-        <v>2</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="8:11">
-      <c r="H85" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J85" s="2">
-        <v>3</v>
-      </c>
       <c r="K85" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="8:11">
       <c r="H86" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J86" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="8:11">
       <c r="H87" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J87" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="8:11">
       <c r="H88" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J88" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="8:11">
       <c r="H89" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J89" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="8:11">
       <c r="H90" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J90" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="8:11">
       <c r="H91" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J91" s="2">
+        <v>7</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="8:11">
+      <c r="H92" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J92" s="2">
+        <v>8</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="8:11">
+      <c r="H93" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J93" s="2">
         <v>9</v>
       </c>
-      <c r="K91" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J93" s="2">
+      <c r="K93" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J95" s="2">
         <v>1</v>
       </c>
-      <c r="K93" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="94" spans="8:11">
-      <c r="H94" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J94" s="2">
+      <c r="K95" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="8:11">
+      <c r="H96" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J96" s="2">
         <v>2</v>
       </c>
-      <c r="K94" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11">
-      <c r="B96" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J96" s="2">
+      <c r="K96" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J98" s="2">
         <v>1</v>
       </c>
-      <c r="K96" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="97" spans="8:11">
-      <c r="H97" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J97" s="2">
-        <v>2</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="98" spans="8:11">
-      <c r="H98" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J98" s="2">
-        <v>3</v>
-      </c>
       <c r="K98" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="8:11">
       <c r="H99" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J99" s="2">
+        <v>2</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="8:11">
+      <c r="H100" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J100" s="2">
+        <v>3</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="8:11">
+      <c r="H101" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J101" s="2">
         <v>4</v>
       </c>
-      <c r="K99" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11">
-      <c r="B101" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J101" s="2">
+      <c r="K101" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J103" s="2">
         <v>1</v>
       </c>
-      <c r="K101" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="102" spans="8:11">
-      <c r="H102" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J102" s="2">
-        <v>2</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="103" spans="8:11">
-      <c r="H103" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J103" s="2">
-        <v>3</v>
-      </c>
       <c r="K103" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="8:11">
       <c r="H104" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J104" s="2">
+        <v>2</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="105" spans="8:11">
+      <c r="H105" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J105" s="2">
+        <v>3</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="106" spans="8:11">
+      <c r="H106" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J106" s="2">
         <v>4</v>
       </c>
-      <c r="K104" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11">
-      <c r="B106" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J106" s="2">
+      <c r="K106" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J108" s="2">
         <v>1</v>
       </c>
-      <c r="K106" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="107" spans="8:11">
-      <c r="H107" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J107" s="2">
+      <c r="K108" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="8:11">
+      <c r="H109" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J109" s="2">
         <v>2</v>
       </c>
-      <c r="K107" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="108" spans="8:11">
-      <c r="H108" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J108" s="2">
+      <c r="K109" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="8:11">
+      <c r="H110" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J110" s="2">
         <v>3</v>
       </c>
-      <c r="K108" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11">
-      <c r="B110" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J110" s="2">
+      <c r="K110" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J112" s="2">
         <v>1</v>
       </c>
-      <c r="K110" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="111" spans="8:11">
-      <c r="H111" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J111" s="2">
-        <v>2</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="112" spans="8:11">
-      <c r="H112" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J112" s="2">
-        <v>3</v>
-      </c>
       <c r="K112" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="8:11">
       <c r="H113" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J113" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="114" spans="8:11">
       <c r="H114" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J114" s="2">
+        <v>3</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="8:11">
+      <c r="H115" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J115" s="2">
+        <v>4</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="116" spans="8:11">
+      <c r="H116" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J116" s="2">
         <v>5</v>
       </c>
-      <c r="K114" s="2" t="s">
-        <v>197</v>
+      <c r="K116" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -1638,8 +1638,8 @@
   <sheetPr/>
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="25140" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="202">
   <si>
     <t>##var</t>
   </si>
@@ -128,6 +128,27 @@
     <t>普通Npc</t>
   </si>
   <si>
+    <t>CurrencyType</t>
+  </si>
+  <si>
+    <t>CurrencyType_Silver</t>
+  </si>
+  <si>
+    <t>银币</t>
+  </si>
+  <si>
+    <t>CurrencyType_Gold</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>CurrencyType_Diamond</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
     <t>TaskType</t>
   </si>
   <si>
@@ -297,33 +318,6 @@
   </si>
   <si>
     <t>最大经验值</t>
-  </si>
-  <si>
-    <t>GamePropertyType_Silver</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>银币</t>
-  </si>
-  <si>
-    <t>GamePropertyType_Gold</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>GamePropertyType_Diamond</t>
-  </si>
-  <si>
-    <t>Diamond</t>
-  </si>
-  <si>
-    <t>钻石</t>
   </si>
   <si>
     <t>GamePropertyType_Speed</t>
@@ -1636,10 +1630,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1836,6 +1830,9 @@
       <c r="H12" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="I12" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
@@ -1847,6 +1844,9 @@
       <c r="H13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J13" s="2">
         <v>2</v>
       </c>
@@ -1858,6 +1858,9 @@
       <c r="H14" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="I14" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="J14" s="2">
         <v>3</v>
       </c>
@@ -1865,1249 +1868,1246 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="8:11">
-      <c r="H15" s="2" t="s">
+    <row r="17" spans="2:11">
+      <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="2">
-        <v>4</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="8:11">
-      <c r="H16" s="2" t="s">
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="2">
-        <v>5</v>
-      </c>
-      <c r="K16" s="2" t="s">
+    </row>
+    <row r="18" spans="8:11">
+      <c r="H18" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="1" t="s">
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="8:11">
       <c r="H20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="2">
+        <v>4</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11">
+      <c r="H21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J21" s="2">
+        <v>5</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11">
+      <c r="H24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="8:11">
+      <c r="H25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="2">
         <v>3</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="1" t="b">
+      <c r="K25" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="H30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="2">
         <v>1</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="8:11">
-      <c r="H26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="K30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11">
+      <c r="H31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="2">
         <v>2</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="8:11">
-      <c r="H27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="2">
+      <c r="K31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="8:11">
+      <c r="H32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="2">
         <v>3</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="8:11">
-      <c r="H28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" s="2">
-        <v>4</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="8:11">
-      <c r="H29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J29" s="2">
-        <v>5</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="8:11">
-      <c r="H30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J30" s="2">
-        <v>6</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="1" t="s">
+      <c r="K32" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="33" spans="8:11">
       <c r="H33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J33" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="8:11">
       <c r="H34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J34" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="8:11">
       <c r="H35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="2">
+        <v>6</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="2" t="s">
+    </row>
+    <row r="38" spans="8:11">
+      <c r="H38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J35" s="2">
+      <c r="I38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="2">
+        <v>2</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="8:11">
+      <c r="H39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" s="2">
+        <v>3</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="8:11">
+      <c r="H40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J40" s="2">
         <v>4</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="8:11">
-      <c r="H36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="K40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="8:11">
+      <c r="H41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J41" s="2">
         <v>5</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J42" s="2">
+      <c r="K41" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J47" s="2">
         <v>1001</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="8:11">
-      <c r="H43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1002</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="8:11">
-      <c r="H44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J44" s="2">
-        <v>1003</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="8:11">
-      <c r="H45" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J45" s="2">
-        <v>1004</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="8:11">
-      <c r="H46" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1005</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="8:11">
-      <c r="H47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J47" s="2">
-        <v>1006</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="48" spans="8:11">
       <c r="H48" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J48" s="2">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="8:11">
       <c r="H49" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J49" s="2">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11">
+      <c r="H50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1004</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="8:11">
       <c r="H51" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J51" s="2">
-        <v>1101</v>
+        <v>1005</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="8:11">
-      <c r="H52" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J52" s="2">
-        <v>1102</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="8:11">
       <c r="H53" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J53" s="2">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="8:11">
       <c r="H54" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J54" s="2">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="8:11">
       <c r="H55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1103</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11">
+      <c r="H56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1104</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11">
+      <c r="H57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1105</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J55" s="2">
-        <v>1105</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="8:11">
-      <c r="H56" s="2" t="str">
-        <f>(_xlfn.CONCAT(H55,"Base"))</f>
-        <v>GamePropertyType_AtkBase</v>
-      </c>
-      <c r="I56" s="2" t="str">
-        <f>_xlfn.CONCAT(I55,"Base")</f>
-        <v>AtkBase</v>
-      </c>
-      <c r="J56" s="2">
-        <f>J55*10+1</f>
-        <v>11051</v>
-      </c>
-      <c r="K56" s="2" t="str">
-        <f>_xlfn.CONCAT(K55,"基础值")</f>
-        <v>攻击基础值</v>
-      </c>
-    </row>
-    <row r="57" spans="8:11">
-      <c r="H57" s="2" t="str">
-        <f t="shared" ref="H57:H59" si="0">_xlfn.CONCAT(H55,"Add")</f>
-        <v>GamePropertyType_AtkAdd</v>
-      </c>
-      <c r="I57" s="2" t="str">
-        <f>_xlfn.CONCAT(I55,"Add")</f>
-        <v>AtkAdd</v>
-      </c>
-      <c r="J57" s="2">
-        <f>J55*10+2</f>
-        <v>11052</v>
-      </c>
-      <c r="K57" s="2" t="str">
-        <f>_xlfn.CONCAT(K55,"附加值")</f>
-        <v>攻击附加值</v>
       </c>
     </row>
     <row r="58" spans="8:11">
       <c r="H58" s="2" t="str">
-        <f>_xlfn.CONCAT(H55,"Pct")</f>
-        <v>GamePropertyType_AtkPct</v>
+        <f>(_xlfn.CONCAT(H57,"Base"))</f>
+        <v>GamePropertyType_AtkBase</v>
       </c>
       <c r="I58" s="2" t="str">
-        <f>_xlfn.CONCAT(I55,"Pct")</f>
-        <v>AtkPct</v>
+        <f>_xlfn.CONCAT(I57,"Base")</f>
+        <v>AtkBase</v>
       </c>
       <c r="J58" s="2">
-        <f>J55*10+3</f>
-        <v>11053</v>
+        <f>J57*10+1</f>
+        <v>11051</v>
       </c>
       <c r="K58" s="2" t="str">
-        <f>_xlfn.CONCAT(K55,"百分比")</f>
-        <v>攻击百分比</v>
+        <f>_xlfn.CONCAT(K57,"基础值")</f>
+        <v>攻击基础值</v>
       </c>
     </row>
     <row r="59" spans="8:11">
       <c r="H59" s="2" t="str">
-        <f>_xlfn.CONCAT(H55,"FinalAdd")</f>
-        <v>GamePropertyType_AtkFinalAdd</v>
+        <f t="shared" ref="H59:H61" si="0">_xlfn.CONCAT(H57,"Add")</f>
+        <v>GamePropertyType_AtkAdd</v>
       </c>
       <c r="I59" s="2" t="str">
-        <f>_xlfn.CONCAT(I55,"FinalAdd")</f>
-        <v>AtkFinalAdd</v>
+        <f>_xlfn.CONCAT(I57,"Add")</f>
+        <v>AtkAdd</v>
       </c>
       <c r="J59" s="2">
-        <f>J55*10+4</f>
-        <v>11054</v>
+        <f>J57*10+2</f>
+        <v>11052</v>
       </c>
       <c r="K59" s="2" t="str">
-        <f>_xlfn.CONCAT(K55,"最终附加值")</f>
-        <v>攻击最终附加值</v>
+        <f>_xlfn.CONCAT(K57,"附加值")</f>
+        <v>攻击附加值</v>
       </c>
     </row>
     <row r="60" spans="8:11">
       <c r="H60" s="2" t="str">
-        <f>_xlfn.CONCAT(H55,"FinalPct")</f>
-        <v>GamePropertyType_AtkFinalPct</v>
+        <f>_xlfn.CONCAT(H57,"Pct")</f>
+        <v>GamePropertyType_AtkPct</v>
       </c>
       <c r="I60" s="2" t="str">
-        <f>_xlfn.CONCAT(I55,"FinalPct")</f>
-        <v>AtkFinalPct</v>
+        <f>_xlfn.CONCAT(I57,"Pct")</f>
+        <v>AtkPct</v>
       </c>
       <c r="J60" s="2">
-        <f>J55*10+5</f>
-        <v>11055</v>
+        <f>J57*10+3</f>
+        <v>11053</v>
       </c>
       <c r="K60" s="2" t="str">
-        <f>_xlfn.CONCAT(K55,"最终百分比")</f>
-        <v>攻击最终百分比</v>
+        <f>_xlfn.CONCAT(K57,"百分比")</f>
+        <v>攻击百分比</v>
       </c>
     </row>
     <row r="61" spans="8:11">
-      <c r="H61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>121</v>
+      <c r="H61" s="2" t="str">
+        <f>_xlfn.CONCAT(H57,"FinalAdd")</f>
+        <v>GamePropertyType_AtkFinalAdd</v>
+      </c>
+      <c r="I61" s="2" t="str">
+        <f>_xlfn.CONCAT(I57,"FinalAdd")</f>
+        <v>AtkFinalAdd</v>
       </c>
       <c r="J61" s="2">
-        <v>1106</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>122</v>
+        <f>J57*10+4</f>
+        <v>11054</v>
+      </c>
+      <c r="K61" s="2" t="str">
+        <f>_xlfn.CONCAT(K57,"最终附加值")</f>
+        <v>攻击最终附加值</v>
       </c>
     </row>
     <row r="62" spans="8:11">
       <c r="H62" s="2" t="str">
-        <f>(_xlfn.CONCAT(H61,"Base"))</f>
-        <v>GamePropertyType_DefBase</v>
+        <f>_xlfn.CONCAT(H57,"FinalPct")</f>
+        <v>GamePropertyType_AtkFinalPct</v>
       </c>
       <c r="I62" s="2" t="str">
-        <f>_xlfn.CONCAT(I61,"Base")</f>
-        <v>DefBase</v>
+        <f>_xlfn.CONCAT(I57,"FinalPct")</f>
+        <v>AtkFinalPct</v>
       </c>
       <c r="J62" s="2">
-        <f>J61*10+1</f>
-        <v>11061</v>
+        <f>J57*10+5</f>
+        <v>11055</v>
       </c>
       <c r="K62" s="2" t="str">
-        <f>_xlfn.CONCAT(K61,"基础值")</f>
-        <v>防御基础值</v>
+        <f>_xlfn.CONCAT(K57,"最终百分比")</f>
+        <v>攻击最终百分比</v>
       </c>
     </row>
     <row r="63" spans="8:11">
-      <c r="H63" s="2" t="str">
-        <f>_xlfn.CONCAT(H61,"Add")</f>
-        <v>GamePropertyType_DefAdd</v>
-      </c>
-      <c r="I63" s="2" t="str">
-        <f>_xlfn.CONCAT(I61,"Add")</f>
-        <v>DefAdd</v>
+      <c r="H63" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="J63" s="2">
-        <f>J61*10+2</f>
-        <v>11062</v>
-      </c>
-      <c r="K63" s="2" t="str">
-        <f>_xlfn.CONCAT(K61,"附加值")</f>
-        <v>防御附加值</v>
+        <v>1106</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="8:11">
       <c r="H64" s="2" t="str">
-        <f>_xlfn.CONCAT(H61,"Pct")</f>
-        <v>GamePropertyType_DefPct</v>
+        <f>(_xlfn.CONCAT(H63,"Base"))</f>
+        <v>GamePropertyType_DefBase</v>
       </c>
       <c r="I64" s="2" t="str">
-        <f>_xlfn.CONCAT(I61,"Pct")</f>
-        <v>DefPct</v>
+        <f>_xlfn.CONCAT(I63,"Base")</f>
+        <v>DefBase</v>
       </c>
       <c r="J64" s="2">
-        <f>J61*10+3</f>
-        <v>11063</v>
+        <f>J63*10+1</f>
+        <v>11061</v>
       </c>
       <c r="K64" s="2" t="str">
-        <f>_xlfn.CONCAT(K61,"百分比")</f>
-        <v>防御百分比</v>
+        <f>_xlfn.CONCAT(K63,"基础值")</f>
+        <v>防御基础值</v>
       </c>
     </row>
     <row r="65" spans="8:11">
       <c r="H65" s="2" t="str">
-        <f>_xlfn.CONCAT(H61,"FinalAdd")</f>
-        <v>GamePropertyType_DefFinalAdd</v>
+        <f>_xlfn.CONCAT(H63,"Add")</f>
+        <v>GamePropertyType_DefAdd</v>
       </c>
       <c r="I65" s="2" t="str">
-        <f>_xlfn.CONCAT(I61,"FinalAdd")</f>
-        <v>DefFinalAdd</v>
+        <f>_xlfn.CONCAT(I63,"Add")</f>
+        <v>DefAdd</v>
       </c>
       <c r="J65" s="2">
-        <f>J61*10+4</f>
-        <v>11064</v>
+        <f>J63*10+2</f>
+        <v>11062</v>
       </c>
       <c r="K65" s="2" t="str">
-        <f>_xlfn.CONCAT(K61,"最终附加值")</f>
-        <v>防御最终附加值</v>
+        <f>_xlfn.CONCAT(K63,"附加值")</f>
+        <v>防御附加值</v>
       </c>
     </row>
     <row r="66" spans="8:11">
       <c r="H66" s="2" t="str">
-        <f>_xlfn.CONCAT(H61,"FinalPct")</f>
-        <v>GamePropertyType_DefFinalPct</v>
+        <f>_xlfn.CONCAT(H63,"Pct")</f>
+        <v>GamePropertyType_DefPct</v>
       </c>
       <c r="I66" s="2" t="str">
-        <f>_xlfn.CONCAT(I61,"FinalPct")</f>
-        <v>DefFinalPct</v>
+        <f>_xlfn.CONCAT(I63,"Pct")</f>
+        <v>DefPct</v>
       </c>
       <c r="J66" s="2">
-        <f>J61*10+5</f>
-        <v>11065</v>
+        <f>J63*10+3</f>
+        <v>11063</v>
       </c>
       <c r="K66" s="2" t="str">
-        <f>_xlfn.CONCAT(K61,"最终百分比")</f>
-        <v>防御最终百分比</v>
+        <f>_xlfn.CONCAT(K63,"百分比")</f>
+        <v>防御百分比</v>
       </c>
     </row>
     <row r="67" spans="8:11">
-      <c r="H67" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>124</v>
+      <c r="H67" s="2" t="str">
+        <f>_xlfn.CONCAT(H63,"FinalAdd")</f>
+        <v>GamePropertyType_DefFinalAdd</v>
+      </c>
+      <c r="I67" s="2" t="str">
+        <f>_xlfn.CONCAT(I63,"FinalAdd")</f>
+        <v>DefFinalAdd</v>
       </c>
       <c r="J67" s="2">
-        <v>1107</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>125</v>
+        <f>J63*10+4</f>
+        <v>11064</v>
+      </c>
+      <c r="K67" s="2" t="str">
+        <f>_xlfn.CONCAT(K63,"最终附加值")</f>
+        <v>防御最终附加值</v>
       </c>
     </row>
     <row r="68" spans="8:11">
       <c r="H68" s="2" t="str">
-        <f>(_xlfn.CONCAT(H67,"Base"))</f>
-        <v>GamePropertyType_HitBase</v>
+        <f>_xlfn.CONCAT(H63,"FinalPct")</f>
+        <v>GamePropertyType_DefFinalPct</v>
       </c>
       <c r="I68" s="2" t="str">
-        <f>_xlfn.CONCAT(I67,"Base")</f>
-        <v>HitBase</v>
+        <f>_xlfn.CONCAT(I63,"FinalPct")</f>
+        <v>DefFinalPct</v>
       </c>
       <c r="J68" s="2">
-        <f>J67*10+1</f>
-        <v>11071</v>
+        <f>J63*10+5</f>
+        <v>11065</v>
       </c>
       <c r="K68" s="2" t="str">
-        <f>_xlfn.CONCAT(K67,"基础值")</f>
-        <v>命中基础值</v>
+        <f>_xlfn.CONCAT(K63,"最终百分比")</f>
+        <v>防御最终百分比</v>
       </c>
     </row>
     <row r="69" spans="8:11">
-      <c r="H69" s="2" t="str">
-        <f>_xlfn.CONCAT(H67,"Add")</f>
-        <v>GamePropertyType_HitAdd</v>
-      </c>
-      <c r="I69" s="2" t="str">
-        <f>_xlfn.CONCAT(I67,"Add")</f>
-        <v>HitAdd</v>
+      <c r="H69" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="J69" s="2">
-        <f>J67*10+2</f>
-        <v>11072</v>
-      </c>
-      <c r="K69" s="2" t="str">
-        <f>_xlfn.CONCAT(K67,"附加值")</f>
-        <v>命中附加值</v>
+        <v>1107</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="8:11">
       <c r="H70" s="2" t="str">
-        <f>_xlfn.CONCAT(H67,"Pct")</f>
-        <v>GamePropertyType_HitPct</v>
+        <f>(_xlfn.CONCAT(H69,"Base"))</f>
+        <v>GamePropertyType_HitBase</v>
       </c>
       <c r="I70" s="2" t="str">
-        <f>_xlfn.CONCAT(I67,"Pct")</f>
-        <v>HitPct</v>
+        <f>_xlfn.CONCAT(I69,"Base")</f>
+        <v>HitBase</v>
       </c>
       <c r="J70" s="2">
-        <f>J67*10+3</f>
-        <v>11073</v>
+        <f>J69*10+1</f>
+        <v>11071</v>
       </c>
       <c r="K70" s="2" t="str">
-        <f>_xlfn.CONCAT(K67,"百分比")</f>
-        <v>命中百分比</v>
+        <f>_xlfn.CONCAT(K69,"基础值")</f>
+        <v>命中基础值</v>
       </c>
     </row>
     <row r="71" spans="8:11">
       <c r="H71" s="2" t="str">
-        <f>_xlfn.CONCAT(H67,"FinalAdd")</f>
-        <v>GamePropertyType_HitFinalAdd</v>
+        <f>_xlfn.CONCAT(H69,"Add")</f>
+        <v>GamePropertyType_HitAdd</v>
       </c>
       <c r="I71" s="2" t="str">
-        <f>_xlfn.CONCAT(I67,"FinalAdd")</f>
-        <v>HitFinalAdd</v>
+        <f>_xlfn.CONCAT(I69,"Add")</f>
+        <v>HitAdd</v>
       </c>
       <c r="J71" s="2">
-        <f>J67*10+4</f>
-        <v>11074</v>
+        <f>J69*10+2</f>
+        <v>11072</v>
       </c>
       <c r="K71" s="2" t="str">
-        <f>_xlfn.CONCAT(K67,"最终附加值")</f>
-        <v>命中最终附加值</v>
+        <f>_xlfn.CONCAT(K69,"附加值")</f>
+        <v>命中附加值</v>
       </c>
     </row>
     <row r="72" spans="8:11">
       <c r="H72" s="2" t="str">
-        <f>_xlfn.CONCAT(H67,"FinalPct")</f>
-        <v>GamePropertyType_HitFinalPct</v>
+        <f>_xlfn.CONCAT(H69,"Pct")</f>
+        <v>GamePropertyType_HitPct</v>
       </c>
       <c r="I72" s="2" t="str">
-        <f>_xlfn.CONCAT(I67,"FinalPct")</f>
-        <v>HitFinalPct</v>
+        <f>_xlfn.CONCAT(I69,"Pct")</f>
+        <v>HitPct</v>
       </c>
       <c r="J72" s="2">
-        <f>J67*10+5</f>
-        <v>11075</v>
+        <f>J69*10+3</f>
+        <v>11073</v>
       </c>
       <c r="K72" s="2" t="str">
-        <f>_xlfn.CONCAT(K67,"最终百分比")</f>
-        <v>命中最终百分比</v>
+        <f>_xlfn.CONCAT(K69,"百分比")</f>
+        <v>命中百分比</v>
       </c>
     </row>
     <row r="73" spans="8:11">
-      <c r="H73" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>127</v>
+      <c r="H73" s="2" t="str">
+        <f>_xlfn.CONCAT(H69,"FinalAdd")</f>
+        <v>GamePropertyType_HitFinalAdd</v>
+      </c>
+      <c r="I73" s="2" t="str">
+        <f>_xlfn.CONCAT(I69,"FinalAdd")</f>
+        <v>HitFinalAdd</v>
       </c>
       <c r="J73" s="2">
-        <v>1108</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>128</v>
+        <f>J69*10+4</f>
+        <v>11074</v>
+      </c>
+      <c r="K73" s="2" t="str">
+        <f>_xlfn.CONCAT(K69,"最终附加值")</f>
+        <v>命中最终附加值</v>
       </c>
     </row>
     <row r="74" spans="8:11">
       <c r="H74" s="2" t="str">
-        <f>(_xlfn.CONCAT(H73,"Base"))</f>
-        <v>GamePropertyType_CritBase</v>
+        <f>_xlfn.CONCAT(H69,"FinalPct")</f>
+        <v>GamePropertyType_HitFinalPct</v>
       </c>
       <c r="I74" s="2" t="str">
-        <f>_xlfn.CONCAT(I73,"Base")</f>
-        <v>CritBase</v>
+        <f>_xlfn.CONCAT(I69,"FinalPct")</f>
+        <v>HitFinalPct</v>
       </c>
       <c r="J74" s="2">
-        <f>J73*10+1</f>
-        <v>11081</v>
+        <f>J69*10+5</f>
+        <v>11075</v>
       </c>
       <c r="K74" s="2" t="str">
-        <f>_xlfn.CONCAT(K73,"基础值")</f>
-        <v>暴击基础值</v>
+        <f>_xlfn.CONCAT(K69,"最终百分比")</f>
+        <v>命中最终百分比</v>
       </c>
     </row>
     <row r="75" spans="8:11">
-      <c r="H75" s="2" t="str">
-        <f>_xlfn.CONCAT(H73,"Add")</f>
-        <v>GamePropertyType_CritAdd</v>
-      </c>
-      <c r="I75" s="2" t="str">
-        <f>_xlfn.CONCAT(I73,"Add")</f>
-        <v>CritAdd</v>
+      <c r="H75" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="J75" s="2">
-        <f>J73*10+2</f>
-        <v>11082</v>
-      </c>
-      <c r="K75" s="2" t="str">
-        <f>_xlfn.CONCAT(K73,"附加值")</f>
-        <v>暴击附加值</v>
+        <v>1108</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="8:11">
       <c r="H76" s="2" t="str">
-        <f>_xlfn.CONCAT(H73,"Pct")</f>
-        <v>GamePropertyType_CritPct</v>
+        <f>(_xlfn.CONCAT(H75,"Base"))</f>
+        <v>GamePropertyType_CritBase</v>
       </c>
       <c r="I76" s="2" t="str">
-        <f>_xlfn.CONCAT(I73,"Pct")</f>
-        <v>CritPct</v>
+        <f>_xlfn.CONCAT(I75,"Base")</f>
+        <v>CritBase</v>
       </c>
       <c r="J76" s="2">
-        <f>J73*10+3</f>
-        <v>11083</v>
+        <f>J75*10+1</f>
+        <v>11081</v>
       </c>
       <c r="K76" s="2" t="str">
-        <f>_xlfn.CONCAT(K73,"百分比")</f>
-        <v>暴击百分比</v>
+        <f>_xlfn.CONCAT(K75,"基础值")</f>
+        <v>暴击基础值</v>
       </c>
     </row>
     <row r="77" spans="8:11">
       <c r="H77" s="2" t="str">
-        <f>_xlfn.CONCAT(H73,"FinalAdd")</f>
-        <v>GamePropertyType_CritFinalAdd</v>
+        <f>_xlfn.CONCAT(H75,"Add")</f>
+        <v>GamePropertyType_CritAdd</v>
       </c>
       <c r="I77" s="2" t="str">
-        <f>_xlfn.CONCAT(I73,"FinalAdd")</f>
-        <v>CritFinalAdd</v>
+        <f>_xlfn.CONCAT(I75,"Add")</f>
+        <v>CritAdd</v>
       </c>
       <c r="J77" s="2">
-        <f>J73*10+4</f>
-        <v>11084</v>
+        <f>J75*10+2</f>
+        <v>11082</v>
       </c>
       <c r="K77" s="2" t="str">
-        <f>_xlfn.CONCAT(K73,"最终附加值")</f>
-        <v>暴击最终附加值</v>
+        <f>_xlfn.CONCAT(K75,"附加值")</f>
+        <v>暴击附加值</v>
       </c>
     </row>
     <row r="78" spans="8:11">
       <c r="H78" s="2" t="str">
-        <f>_xlfn.CONCAT(H73,"FinalPct")</f>
+        <f>_xlfn.CONCAT(H75,"Pct")</f>
+        <v>GamePropertyType_CritPct</v>
+      </c>
+      <c r="I78" s="2" t="str">
+        <f>_xlfn.CONCAT(I75,"Pct")</f>
+        <v>CritPct</v>
+      </c>
+      <c r="J78" s="2">
+        <f>J75*10+3</f>
+        <v>11083</v>
+      </c>
+      <c r="K78" s="2" t="str">
+        <f>_xlfn.CONCAT(K75,"百分比")</f>
+        <v>暴击百分比</v>
+      </c>
+    </row>
+    <row r="79" spans="8:11">
+      <c r="H79" s="2" t="str">
+        <f>_xlfn.CONCAT(H75,"FinalAdd")</f>
+        <v>GamePropertyType_CritFinalAdd</v>
+      </c>
+      <c r="I79" s="2" t="str">
+        <f>_xlfn.CONCAT(I75,"FinalAdd")</f>
+        <v>CritFinalAdd</v>
+      </c>
+      <c r="J79" s="2">
+        <f>J75*10+4</f>
+        <v>11084</v>
+      </c>
+      <c r="K79" s="2" t="str">
+        <f>_xlfn.CONCAT(K75,"最终附加值")</f>
+        <v>暴击最终附加值</v>
+      </c>
+    </row>
+    <row r="80" spans="8:11">
+      <c r="H80" s="2" t="str">
+        <f>_xlfn.CONCAT(H75,"FinalPct")</f>
         <v>GamePropertyType_CritFinalPct</v>
       </c>
-      <c r="I78" s="2" t="str">
-        <f>_xlfn.CONCAT(I73,"FinalPct")</f>
+      <c r="I80" s="2" t="str">
+        <f>_xlfn.CONCAT(I75,"FinalPct")</f>
         <v>CritFinalPct</v>
       </c>
-      <c r="J78" s="2">
-        <f>J73*10+5</f>
+      <c r="J80" s="2">
+        <f>J75*10+5</f>
         <v>11085</v>
       </c>
-      <c r="K78" s="2" t="str">
-        <f>_xlfn.CONCAT(K73,"最终百分比")</f>
+      <c r="K80" s="2" t="str">
+        <f>_xlfn.CONCAT(K75,"最终百分比")</f>
         <v>暴击最终百分比</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
-      <c r="B80" s="1" t="s">
+    <row r="82" spans="2:11">
+      <c r="B82" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J80" s="2">
-        <v>1</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="8:11">
-      <c r="H81" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J81" s="2">
-        <v>2</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="82" spans="8:11">
-      <c r="H82" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J82" s="2">
-        <v>3</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="83" spans="8:11">
       <c r="H83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J83" s="2">
+        <v>2</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="8:11">
+      <c r="H84" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J84" s="2">
+        <v>3</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="8:11">
+      <c r="H85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J85" s="2">
+        <v>4</v>
+      </c>
+      <c r="K85" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I83" s="2" t="s">
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J83" s="2">
-        <v>4</v>
-      </c>
-      <c r="K83" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="85" spans="2:11">
-      <c r="B85" s="1" t="s">
+      <c r="I87" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J85" s="2">
-        <v>1</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="86" spans="8:11">
-      <c r="H86" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J86" s="2">
-        <v>2</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="87" spans="8:11">
-      <c r="H87" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J87" s="2">
-        <v>3</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="88" spans="8:11">
       <c r="H88" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J88" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="8:11">
       <c r="H89" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J89" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="8:11">
       <c r="H90" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J90" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="8:11">
       <c r="H91" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J91" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="8:11">
       <c r="H92" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J92" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="8:11">
       <c r="H93" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J93" s="2">
+        <v>7</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="8:11">
+      <c r="H94" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J94" s="2">
+        <v>8</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="8:11">
+      <c r="H95" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J95" s="2">
+        <v>9</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J93" s="2">
-        <v>9</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11">
-      <c r="B95" s="1" t="s">
+      <c r="I97" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="8:11">
+      <c r="H98" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J95" s="2">
+      <c r="J98" s="2">
+        <v>2</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J100" s="2">
         <v>1</v>
       </c>
-      <c r="K95" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="96" spans="8:11">
-      <c r="H96" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J96" s="2">
-        <v>2</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11">
-      <c r="B98" s="1" t="s">
+      <c r="K100" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J98" s="2">
-        <v>1</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="99" spans="8:11">
-      <c r="H99" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J99" s="2">
-        <v>2</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="100" spans="8:11">
-      <c r="H100" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J100" s="2">
-        <v>3</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="101" spans="8:11">
       <c r="H101" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J101" s="2">
+        <v>2</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="8:11">
+      <c r="H102" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J102" s="2">
+        <v>3</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="8:11">
+      <c r="H103" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J103" s="2">
+        <v>4</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I101" s="2" t="s">
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J101" s="2">
-        <v>4</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="H105" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="103" spans="2:11">
-      <c r="B103" s="1" t="s">
+      <c r="I105" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J103" s="2">
+      <c r="J105" s="2">
         <v>1</v>
       </c>
-      <c r="K103" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="104" spans="8:11">
-      <c r="H104" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J104" s="2">
-        <v>2</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="105" spans="8:11">
-      <c r="H105" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J105" s="2">
-        <v>3</v>
-      </c>
       <c r="K105" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" spans="8:11">
       <c r="H106" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J106" s="2">
+        <v>2</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="8:11">
+      <c r="H107" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J107" s="2">
+        <v>3</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="108" spans="8:11">
+      <c r="H108" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J108" s="2">
+        <v>4</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J106" s="2">
-        <v>4</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11">
-      <c r="B108" s="1" t="s">
+      <c r="I110" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="J110" s="2">
+        <v>1</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="111" spans="8:11">
+      <c r="H111" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J108" s="2">
+      <c r="J111" s="2">
+        <v>2</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="8:11">
+      <c r="H112" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J112" s="2">
+        <v>3</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11">
+      <c r="B114" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J114" s="2">
         <v>1</v>
       </c>
-      <c r="K108" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="109" spans="8:11">
-      <c r="H109" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J109" s="2">
-        <v>2</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="110" spans="8:11">
-      <c r="H110" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J110" s="2">
-        <v>3</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11">
-      <c r="B112" s="1" t="s">
+      <c r="K114" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J112" s="2">
-        <v>1</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="113" spans="8:11">
-      <c r="H113" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J113" s="2">
-        <v>2</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="114" spans="8:11">
-      <c r="H114" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J114" s="2">
-        <v>3</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="115" spans="8:11">
       <c r="H115" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J115" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116" spans="8:11">
       <c r="H116" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J116" s="2">
+        <v>3</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="8:11">
+      <c r="H117" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J117" s="2">
+        <v>4</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="8:11">
+      <c r="H118" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J118" s="2">
         <v>5</v>
       </c>
-      <c r="K116" s="2" t="s">
-        <v>203</v>
+      <c r="K118" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="209">
   <si>
     <t>##var</t>
   </si>
@@ -633,6 +633,27 @@
   </si>
   <si>
     <t>前方90度扇形</t>
+  </si>
+  <si>
+    <t>AvocationType</t>
+  </si>
+  <si>
+    <t>AvocationType_Fishing</t>
+  </si>
+  <si>
+    <t>钓鱼</t>
+  </si>
+  <si>
+    <t>AvocationType_Archaeology</t>
+  </si>
+  <si>
+    <t>考古</t>
+  </si>
+  <si>
+    <t>AvocationType_Cooking</t>
+  </si>
+  <si>
+    <t>烹饪</t>
   </si>
 </sst>
 </file>
@@ -1630,10 +1651,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1878,6 +1899,9 @@
       <c r="H17" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="I17" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="J17" s="2">
         <v>1</v>
       </c>
@@ -1889,6 +1913,9 @@
       <c r="H18" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="I18" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J18" s="2">
         <v>2</v>
       </c>
@@ -1900,6 +1927,9 @@
       <c r="H19" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="I19" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="J19" s="2">
         <v>3</v>
       </c>
@@ -1911,6 +1941,9 @@
       <c r="H20" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="I20" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="J20" s="2">
         <v>4</v>
       </c>
@@ -1922,6 +1955,9 @@
       <c r="H21" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="I21" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J21" s="2">
         <v>5</v>
       </c>
@@ -1936,6 +1972,9 @@
       <c r="H23" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="I23" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
@@ -1947,6 +1986,9 @@
       <c r="H24" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="I24" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="J24" s="2">
         <v>2</v>
       </c>
@@ -1958,6 +2000,9 @@
       <c r="H25" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="I25" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="J25" s="2">
         <v>3</v>
       </c>
@@ -1975,6 +2020,9 @@
       <c r="H30" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="I30" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="J30" s="2">
         <v>1</v>
       </c>
@@ -1986,6 +2034,9 @@
       <c r="H31" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="I31" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="J31" s="2">
         <v>2</v>
       </c>
@@ -1997,6 +2048,9 @@
       <c r="H32" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="I32" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="J32" s="2">
         <v>3</v>
       </c>
@@ -2008,6 +2062,9 @@
       <c r="H33" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="I33" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="J33" s="2">
         <v>4</v>
       </c>
@@ -2019,6 +2076,9 @@
       <c r="H34" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="I34" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="J34" s="2">
         <v>5</v>
       </c>
@@ -2029,6 +2089,9 @@
     <row r="35" spans="8:11">
       <c r="H35" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="J35" s="2">
         <v>6</v>
@@ -3108,6 +3171,51 @@
       </c>
       <c r="K118" s="2" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11">
+      <c r="B120" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J120" s="2">
+        <v>1</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="121" spans="8:11">
+      <c r="H121" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J121" s="2">
+        <v>2</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="8:11">
+      <c r="H122" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J122" s="2">
+        <v>3</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,13 +209,13 @@
     <t>GameItemType_Normal</t>
   </si>
   <si>
-    <t>普通道具</t>
+    <t>普通</t>
   </si>
   <si>
     <t>GameItemType_Money</t>
   </si>
   <si>
-    <t>货币道具</t>
+    <t>货币</t>
   </si>
   <si>
     <t>GameItemType_Equipment</t>
@@ -1653,8 +1653,8 @@
   <sheetPr/>
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="25140" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="210">
   <si>
     <t>##var</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>EquipmentType</t>
+  </si>
+  <si>
+    <t>EquipmentType_None</t>
   </si>
   <si>
     <t>EquipmentType_Head</t>
@@ -1651,10 +1654,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2777,445 +2780,453 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:10">
       <c r="B87" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I87" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="J87" s="2">
-        <v>1</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="8:11">
       <c r="H88" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J88" s="2">
+        <v>1</v>
+      </c>
+      <c r="K88" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J88" s="2">
-        <v>2</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="89" spans="8:11">
       <c r="H89" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="J89" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="8:11">
       <c r="H90" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I90" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I90" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="J90" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="8:11">
       <c r="H91" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I91" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="J91" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="8:11">
       <c r="H92" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I92" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="J92" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="8:11">
       <c r="H93" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I93" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I93" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="J93" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="8:11">
       <c r="H94" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I94" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I94" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="J94" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="8:11">
       <c r="H95" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="J95" s="2">
+        <v>8</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="8:11">
+      <c r="H96" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J95" s="2">
+      <c r="I96" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J96" s="2">
         <v>9</v>
       </c>
-      <c r="K95" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11">
-      <c r="B97" s="1" t="s">
+      <c r="K96" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H97" s="2" t="s">
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J97" s="2">
+      <c r="I98" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J98" s="2">
         <v>1</v>
       </c>
-      <c r="K97" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="98" spans="8:11">
-      <c r="H98" s="2" t="s">
+      <c r="K98" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I98" s="2" t="s">
+    </row>
+    <row r="99" spans="8:11">
+      <c r="H99" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J98" s="2">
+      <c r="I99" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J99" s="2">
         <v>2</v>
       </c>
-      <c r="K98" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11">
-      <c r="B100" s="1" t="s">
+      <c r="K99" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H100" s="2" t="s">
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J100" s="2">
+      <c r="I101" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J101" s="2">
         <v>1</v>
       </c>
-      <c r="K100" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="101" spans="8:11">
-      <c r="H101" s="2" t="s">
+      <c r="K101" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J101" s="2">
-        <v>2</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="102" spans="8:11">
       <c r="H102" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I102" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I102" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="J102" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="8:11">
       <c r="H103" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I103" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="J103" s="2">
+        <v>3</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="8:11">
+      <c r="H104" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J103" s="2">
+      <c r="I104" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J104" s="2">
         <v>4</v>
       </c>
-      <c r="K103" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11">
-      <c r="B105" s="1" t="s">
+      <c r="K104" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H105" s="1" t="s">
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="H106" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J105" s="2">
+      <c r="I106" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J106" s="2">
         <v>1</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="106" spans="8:11">
-      <c r="H106" s="1" t="s">
+      <c r="K106" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J106" s="2">
-        <v>2</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="107" spans="8:11">
       <c r="H107" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I107" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I107" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="J107" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="8:11">
       <c r="H108" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I108" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="J108" s="2">
+        <v>3</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="109" spans="8:11">
+      <c r="H109" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J108" s="2">
+      <c r="I109" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J109" s="2">
         <v>4</v>
       </c>
-      <c r="K108" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11">
-      <c r="B110" s="1" t="s">
+      <c r="K109" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H110" s="2" t="s">
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="J110" s="2">
+      <c r="I111" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J111" s="2">
         <v>1</v>
       </c>
-      <c r="K110" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="111" spans="8:11">
-      <c r="H111" s="2" t="s">
+      <c r="K111" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J111" s="2">
-        <v>2</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="112" spans="8:11">
       <c r="H112" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="J112" s="2">
+        <v>2</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="8:11">
+      <c r="H113" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J112" s="2">
+      <c r="I113" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J113" s="2">
         <v>3</v>
       </c>
-      <c r="K112" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11">
-      <c r="B114" s="1" t="s">
+      <c r="K113" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H114" s="2" t="s">
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J114" s="2">
+      <c r="I115" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J115" s="2">
         <v>1</v>
       </c>
-      <c r="K114" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="115" spans="8:11">
-      <c r="H115" s="2" t="s">
+      <c r="K115" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J115" s="2">
-        <v>2</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="116" spans="8:11">
       <c r="H116" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I116" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I116" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="J116" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="8:11">
       <c r="H117" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I117" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I117" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="J117" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="8:11">
       <c r="H118" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="J118" s="2">
+        <v>4</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="8:11">
+      <c r="H119" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J118" s="2">
+      <c r="I119" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J119" s="2">
         <v>5</v>
       </c>
-      <c r="K118" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11">
-      <c r="B120" s="1" t="s">
+      <c r="K119" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H120" s="2" t="s">
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="H121" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J120" s="2">
+      <c r="I121" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J121" s="2">
         <v>1</v>
       </c>
-      <c r="K120" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="121" spans="8:11">
-      <c r="H121" s="2" t="s">
+      <c r="K121" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J121" s="2">
-        <v>2</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="122" spans="8:11">
       <c r="H122" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I122" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="J122" s="2">
+        <v>2</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="123" spans="8:11">
+      <c r="H123" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="J122" s="2">
+      <c r="I123" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J123" s="2">
         <v>3</v>
       </c>
-      <c r="K122" s="2" t="s">
-        <v>208</v>
+      <c r="K123" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="252">
   <si>
     <t>##var</t>
   </si>
@@ -657,6 +657,132 @@
   </si>
   <si>
     <t>烹饪</t>
+  </si>
+  <si>
+    <t>RaceType</t>
+  </si>
+  <si>
+    <t>RaceType_Human</t>
+  </si>
+  <si>
+    <t>人类</t>
+  </si>
+  <si>
+    <t>RaceType_NightElf</t>
+  </si>
+  <si>
+    <t>暗夜精灵</t>
+  </si>
+  <si>
+    <t>RaceType_Dwarf</t>
+  </si>
+  <si>
+    <t>矮人</t>
+  </si>
+  <si>
+    <t>RaceType_Draenei</t>
+  </si>
+  <si>
+    <t>德莱尼</t>
+  </si>
+  <si>
+    <t>RaceType_Orc</t>
+  </si>
+  <si>
+    <t>兽人</t>
+  </si>
+  <si>
+    <t>RaceType_Troll</t>
+  </si>
+  <si>
+    <t>巨魔</t>
+  </si>
+  <si>
+    <t>RaceType_Undead</t>
+  </si>
+  <si>
+    <t>亡灵</t>
+  </si>
+  <si>
+    <t>RaceType_Tauren</t>
+  </si>
+  <si>
+    <t>牛头人</t>
+  </si>
+  <si>
+    <t>RaceType_BloodElf</t>
+  </si>
+  <si>
+    <t>血精灵</t>
+  </si>
+  <si>
+    <t>RaceType_Gnome</t>
+  </si>
+  <si>
+    <t>侏儒</t>
+  </si>
+  <si>
+    <t>CharacterType</t>
+  </si>
+  <si>
+    <t>CharacterType_Warrior</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>CharacterType_Paladin</t>
+  </si>
+  <si>
+    <t>骑士</t>
+  </si>
+  <si>
+    <t>CharacterType_Mage</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
+    <t>CharacterType_Priest</t>
+  </si>
+  <si>
+    <t>牧师</t>
+  </si>
+  <si>
+    <t>CharacterType_Rogue</t>
+  </si>
+  <si>
+    <t>盗贼</t>
+  </si>
+  <si>
+    <t>CharacterType_Druid</t>
+  </si>
+  <si>
+    <t>德鲁伊</t>
+  </si>
+  <si>
+    <t>CharacterType_Hunter</t>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <t>CharacterType_Warlock</t>
+  </si>
+  <si>
+    <t>术士</t>
+  </si>
+  <si>
+    <t>CharacterType_Shaman</t>
+  </si>
+  <si>
+    <t>萨满</t>
+  </si>
+  <si>
+    <t>CharacterType_DarkKnight</t>
+  </si>
+  <si>
+    <t>死亡骑士</t>
   </si>
 </sst>
 </file>
@@ -1654,10 +1780,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L123"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="J135" sqref="J135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3229,6 +3355,295 @@
         <v>209</v>
       </c>
     </row>
+    <row r="125" spans="2:11">
+      <c r="B125" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J125" s="2">
+        <v>1</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="126" spans="8:11">
+      <c r="H126" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J126" s="2">
+        <v>2</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="127" spans="8:11">
+      <c r="H127" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J127" s="2">
+        <v>4</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="8:11">
+      <c r="H128" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J128" s="2">
+        <v>8</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="129" spans="8:11">
+      <c r="H129" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J129" s="2">
+        <v>16</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="8:11">
+      <c r="H130" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J130" s="2">
+        <v>32</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="131" spans="8:11">
+      <c r="H131" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J131" s="2">
+        <v>64</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="132" spans="8:11">
+      <c r="H132" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J132" s="2">
+        <v>128</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="133" spans="8:11">
+      <c r="H133" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J133" s="2">
+        <v>256</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="134" spans="8:11">
+      <c r="H134" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J134" s="2">
+        <v>512</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11">
+      <c r="B136" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J136" s="2">
+        <v>1</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="137" spans="8:11">
+      <c r="H137" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J137" s="2">
+        <v>2</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="138" spans="8:11">
+      <c r="H138" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J138" s="2">
+        <v>3</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="139" spans="8:11">
+      <c r="H139" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J139" s="2">
+        <v>4</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="8:11">
+      <c r="H140" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J140" s="2">
+        <v>5</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="141" spans="8:11">
+      <c r="H141" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J141" s="2">
+        <v>6</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="142" spans="8:11">
+      <c r="H142" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J142" s="2">
+        <v>7</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="143" spans="8:11">
+      <c r="H143" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J143" s="2">
+        <v>8</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="144" spans="8:11">
+      <c r="H144" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J144" s="2">
+        <v>9</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="145" spans="8:11">
+      <c r="H145" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J145" s="2">
+        <v>10</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="253">
   <si>
     <t>##var</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>钻石</t>
+  </si>
+  <si>
+    <t>CurrencyType_Max</t>
   </si>
   <si>
     <t>TaskType</t>
@@ -1782,8 +1785,8 @@
   <sheetPr/>
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="J135" sqref="J135"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2018,431 +2021,436 @@
         <v>39</v>
       </c>
     </row>
+    <row r="15" spans="8:8">
+      <c r="H15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="17" spans="2:11">
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="8:11">
       <c r="H18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J18" s="2">
         <v>2</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J19" s="2">
         <v>3</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="8:11">
       <c r="H20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20" s="2">
         <v>4</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="8:11">
       <c r="H21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J21" s="2">
         <v>5</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="8:11">
       <c r="H24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J24" s="2">
         <v>2</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="8:11">
       <c r="H25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J25" s="2">
         <v>3</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="8:11">
       <c r="H31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J31" s="2">
         <v>2</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="8:11">
       <c r="H32" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J32" s="2">
         <v>3</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="8:11">
       <c r="H33" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J33" s="2">
         <v>4</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="8:11">
       <c r="H34" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J34" s="2">
         <v>5</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="8:11">
       <c r="H35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J35" s="2">
         <v>6</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="8:11">
       <c r="H38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J38" s="2">
         <v>2</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="8:11">
       <c r="H39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J39" s="2">
         <v>3</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="8:11">
       <c r="H40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J40" s="2">
         <v>4</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="8:11">
       <c r="H41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J41" s="2">
         <v>5</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J47" s="2">
         <v>1001</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="8:11">
       <c r="H48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J48" s="2">
         <v>1002</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="8:11">
       <c r="H49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J49" s="2">
         <v>1003</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="8:11">
       <c r="H50" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J50" s="2">
         <v>1004</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="8:11">
       <c r="H51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J51" s="2">
         <v>1005</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="8:11">
       <c r="H53" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J53" s="2">
         <v>1101</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="8:11">
       <c r="H54" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J54" s="2">
         <v>1102</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="8:11">
       <c r="H55" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J55" s="2">
         <v>1103</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="8:11">
       <c r="H56" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J56" s="2">
         <v>1104</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="8:11">
       <c r="H57" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J57" s="2">
         <v>1105</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="8:11">
@@ -2537,16 +2545,16 @@
     </row>
     <row r="63" spans="8:11">
       <c r="H63" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J63" s="2">
         <v>1106</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="8:11">
@@ -2641,16 +2649,16 @@
     </row>
     <row r="69" spans="8:11">
       <c r="H69" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J69" s="2">
         <v>1107</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="8:11">
@@ -2745,16 +2753,16 @@
     </row>
     <row r="75" spans="8:11">
       <c r="H75" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J75" s="2">
         <v>1108</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="8:11">
@@ -2849,69 +2857,69 @@
     </row>
     <row r="82" spans="2:11">
       <c r="B82" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="8:11">
       <c r="H83" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J83" s="2">
         <v>2</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="8:11">
       <c r="H84" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J84" s="2">
         <v>3</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="8:11">
       <c r="H85" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J85" s="2">
         <v>4</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J87" s="2">
         <v>0</v>
@@ -2919,729 +2927,729 @@
     </row>
     <row r="88" spans="8:11">
       <c r="H88" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J88" s="2">
         <v>1</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="8:11">
       <c r="H89" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J89" s="2">
         <v>2</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="8:11">
       <c r="H90" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J90" s="2">
         <v>3</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="8:11">
       <c r="H91" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J91" s="2">
         <v>4</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="8:11">
       <c r="H92" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J92" s="2">
         <v>5</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="8:11">
       <c r="H93" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J93" s="2">
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="8:11">
       <c r="H94" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J94" s="2">
         <v>7</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="8:11">
       <c r="H95" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J95" s="2">
         <v>8</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="8:11">
       <c r="H96" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J96" s="2">
         <v>9</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J98" s="2">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="8:11">
       <c r="H99" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J99" s="2">
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="2:11">
       <c r="B101" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J101" s="2">
         <v>1</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="8:11">
       <c r="H102" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J102" s="2">
         <v>2</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="8:11">
       <c r="H103" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J103" s="2">
         <v>3</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="8:11">
       <c r="H104" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J104" s="2">
         <v>4</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="106" spans="2:11">
       <c r="B106" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J106" s="2">
         <v>1</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="8:11">
       <c r="H107" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J107" s="2">
         <v>2</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="8:11">
       <c r="H108" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J108" s="2">
         <v>3</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="8:11">
       <c r="H109" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J109" s="2">
         <v>4</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="2:11">
       <c r="B111" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J111" s="2">
         <v>1</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="8:11">
       <c r="H112" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J112" s="2">
         <v>2</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="8:11">
       <c r="H113" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J113" s="2">
         <v>3</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="2:11">
       <c r="B115" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J115" s="2">
         <v>1</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116" spans="8:11">
       <c r="H116" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J116" s="2">
         <v>2</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117" spans="8:11">
       <c r="H117" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J117" s="2">
         <v>3</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="118" spans="8:11">
       <c r="H118" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J118" s="2">
         <v>4</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="8:11">
       <c r="H119" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J119" s="2">
         <v>5</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="2:11">
       <c r="B121" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J121" s="2">
         <v>1</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="122" spans="8:11">
       <c r="H122" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J122" s="2">
         <v>2</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="123" spans="8:11">
       <c r="H123" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J123" s="2">
         <v>3</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="125" spans="2:11">
       <c r="B125" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C125" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J125" s="2">
         <v>1</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="126" spans="8:11">
       <c r="H126" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J126" s="2">
         <v>2</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="127" spans="8:11">
       <c r="H127" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J127" s="2">
         <v>4</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="8:11">
       <c r="H128" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J128" s="2">
         <v>8</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="129" spans="8:11">
       <c r="H129" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J129" s="2">
         <v>16</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130" spans="8:11">
       <c r="H130" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J130" s="2">
         <v>32</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="131" spans="8:11">
       <c r="H131" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J131" s="2">
         <v>64</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132" spans="8:11">
       <c r="H132" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J132" s="2">
         <v>128</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133" spans="8:11">
       <c r="H133" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J133" s="2">
         <v>256</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="8:11">
       <c r="H134" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J134" s="2">
         <v>512</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J136" s="2">
         <v>1</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="137" spans="8:11">
       <c r="H137" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J137" s="2">
         <v>2</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="8:11">
       <c r="H138" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J138" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="8:11">
       <c r="H139" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J139" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="8:11">
       <c r="H140" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J140" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="8:11">
       <c r="H141" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J141" s="2">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="142" spans="8:11">
       <c r="H142" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J142" s="2">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="143" spans="8:11">
       <c r="H143" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J143" s="2">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="144" spans="8:11">
       <c r="H144" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J144" s="2">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="145" spans="8:11">
       <c r="H145" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J145" s="2">
-        <v>10</v>
+        <v>512</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="25140" windowHeight="10065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="255">
   <si>
     <t>##var</t>
   </si>
@@ -600,6 +600,12 @@
   </si>
   <si>
     <t>工会频道</t>
+  </si>
+  <si>
+    <t>ChatChannel_Team</t>
+  </si>
+  <si>
+    <t>小队频道</t>
   </si>
   <si>
     <t>ChatChannel_Max</t>
@@ -1783,10 +1789,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L145"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="J146" sqref="J146"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3245,24 +3251,24 @@
         <v>192</v>
       </c>
     </row>
-    <row r="115" spans="2:11">
-      <c r="B115" s="1" t="s">
+    <row r="114" spans="8:11">
+      <c r="H114" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="I114" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="J114" s="2">
+        <v>4</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11">
+      <c r="B116" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J115" s="2">
-        <v>1</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="116" spans="8:11">
       <c r="H116" s="2" t="s">
         <v>196</v>
       </c>
@@ -3270,7 +3276,7 @@
         <v>197</v>
       </c>
       <c r="J116" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>197</v>
@@ -3284,7 +3290,7 @@
         <v>199</v>
       </c>
       <c r="J117" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>199</v>
@@ -3298,7 +3304,7 @@
         <v>201</v>
       </c>
       <c r="J118" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>201</v>
@@ -3312,30 +3318,30 @@
         <v>203</v>
       </c>
       <c r="J119" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="2:11">
-      <c r="B121" s="1" t="s">
+    <row r="120" spans="8:11">
+      <c r="H120" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="I120" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="J120" s="2">
+        <v>5</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J121" s="2">
-        <v>1</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="122" spans="8:11">
       <c r="H122" s="2" t="s">
         <v>207</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>208</v>
       </c>
       <c r="J122" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>208</v>
@@ -3357,33 +3363,33 @@
         <v>210</v>
       </c>
       <c r="J123" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="125" spans="2:11">
-      <c r="B125" s="1" t="s">
+    <row r="124" spans="8:11">
+      <c r="H124" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C125" s="1" t="b">
+      <c r="I124" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J124" s="2">
+        <v>3</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11">
+      <c r="B126" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C126" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H125" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J125" s="2">
-        <v>1</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="126" spans="8:11">
       <c r="H126" s="2" t="s">
         <v>214</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>215</v>
       </c>
       <c r="J126" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>215</v>
@@ -3405,7 +3411,7 @@
         <v>217</v>
       </c>
       <c r="J127" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>217</v>
@@ -3419,7 +3425,7 @@
         <v>219</v>
       </c>
       <c r="J128" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>219</v>
@@ -3433,7 +3439,7 @@
         <v>221</v>
       </c>
       <c r="J129" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>221</v>
@@ -3447,7 +3453,7 @@
         <v>223</v>
       </c>
       <c r="J130" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>223</v>
@@ -3461,7 +3467,7 @@
         <v>225</v>
       </c>
       <c r="J131" s="2">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>225</v>
@@ -3475,7 +3481,7 @@
         <v>227</v>
       </c>
       <c r="J132" s="2">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>227</v>
@@ -3489,7 +3495,7 @@
         <v>229</v>
       </c>
       <c r="J133" s="2">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>229</v>
@@ -3503,30 +3509,33 @@
         <v>231</v>
       </c>
       <c r="J134" s="2">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="136" spans="2:11">
-      <c r="B136" s="1" t="s">
+    <row r="135" spans="8:11">
+      <c r="H135" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H136" s="2" t="s">
+      <c r="I135" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="J135" s="2">
+        <v>512</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11">
+      <c r="B137" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J136" s="2">
+      <c r="C137" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K136" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="137" spans="8:11">
       <c r="H137" s="2" t="s">
         <v>235</v>
       </c>
@@ -3534,7 +3543,7 @@
         <v>236</v>
       </c>
       <c r="J137" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K137" s="2" t="s">
         <v>236</v>
@@ -3548,7 +3557,7 @@
         <v>238</v>
       </c>
       <c r="J138" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>238</v>
@@ -3562,7 +3571,7 @@
         <v>240</v>
       </c>
       <c r="J139" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>240</v>
@@ -3576,7 +3585,7 @@
         <v>242</v>
       </c>
       <c r="J140" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>242</v>
@@ -3590,7 +3599,7 @@
         <v>244</v>
       </c>
       <c r="J141" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K141" s="2" t="s">
         <v>244</v>
@@ -3604,7 +3613,7 @@
         <v>246</v>
       </c>
       <c r="J142" s="2">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>246</v>
@@ -3618,7 +3627,7 @@
         <v>248</v>
       </c>
       <c r="J143" s="2">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="K143" s="2" t="s">
         <v>248</v>
@@ -3632,7 +3641,7 @@
         <v>250</v>
       </c>
       <c r="J144" s="2">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>250</v>
@@ -3646,10 +3655,24 @@
         <v>252</v>
       </c>
       <c r="J145" s="2">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="146" spans="8:11">
+      <c r="H146" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J146" s="2">
+        <v>512</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065"/>
+    <workbookView windowWidth="22095" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="266">
   <si>
     <t>##var</t>
   </si>
@@ -245,6 +245,12 @@
     <t>碎片</t>
   </si>
   <si>
+    <t>GameItemType_Gem</t>
+  </si>
+  <si>
+    <t>宝石</t>
+  </si>
+  <si>
     <t>GameItemQualityType</t>
   </si>
   <si>
@@ -792,6 +798,33 @@
   </si>
   <si>
     <t>死亡骑士</t>
+  </si>
+  <si>
+    <t>GemColor</t>
+  </si>
+  <si>
+    <t>GemColor_Red</t>
+  </si>
+  <si>
+    <t>红色宝石</t>
+  </si>
+  <si>
+    <t>GemColor_Yellow</t>
+  </si>
+  <si>
+    <t>黄色宝石</t>
+  </si>
+  <si>
+    <t>GemColor_Blue</t>
+  </si>
+  <si>
+    <t>蓝色宝石</t>
+  </si>
+  <si>
+    <t>GemColor_Colorful</t>
+  </si>
+  <si>
+    <t>多彩宝石</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1186,6 +1219,123 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1321,7 +1471,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1333,34 +1483,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1445,7 +1595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1464,10 +1614,115 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1789,25 +2044,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L146"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="31.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="14.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="37.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2"/>
+    <col min="10" max="10" width="14.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="36.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1867,7 +2123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="99" customHeight="1" spans="1:12">
+    <row r="3" ht="182" customHeight="1" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1877,7 +2133,7 @@
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="3"/>
@@ -1897,109 +2153,132 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="6" t="s">
+    <row r="4" ht="33" spans="2:11">
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="b">
+      <c r="C4" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="b">
+      <c r="D4" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="2">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9">
         <v>1</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="6"/>
+    <row r="5" ht="33" spans="2:11">
+      <c r="B5" s="10"/>
       <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="8:11">
+    <row r="6" spans="2:11">
+      <c r="B6" s="10"/>
       <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="2">
         <v>3</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="8:11">
+    <row r="7" ht="33" spans="2:11">
+      <c r="B7" s="10"/>
       <c r="H7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="2">
         <v>4</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="8:11">
-      <c r="H8" s="2" t="s">
+    <row r="8" spans="2:11">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="2">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13">
         <v>99</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="b">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="2">
+      <c r="I10" s="16"/>
+      <c r="J10" s="16">
         <v>1</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1" t="b">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="9">
         <v>1</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="8:11">
+    <row r="13" spans="2:11">
+      <c r="B13" s="18"/>
       <c r="H13" s="2" t="s">
         <v>36</v>
       </c>
@@ -2009,11 +2288,12 @@
       <c r="J13" s="2">
         <v>2</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="8:11">
+    <row r="14" spans="2:11">
+      <c r="B14" s="18"/>
       <c r="H14" s="2" t="s">
         <v>38</v>
       </c>
@@ -2023,36 +2303,50 @@
       <c r="J14" s="2">
         <v>3</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="8:8">
-      <c r="H15" s="2" t="s">
+    <row r="15" spans="2:11">
+      <c r="B15" s="19"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="1" t="b">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="9">
         <v>1</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="8:11">
+    <row r="18" spans="2:11">
+      <c r="B18" s="18"/>
       <c r="H18" s="2" t="s">
         <v>44</v>
       </c>
@@ -2062,11 +2356,12 @@
       <c r="J18" s="2">
         <v>2</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="8:11">
+    <row r="19" spans="2:11">
+      <c r="B19" s="18"/>
       <c r="H19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2076,11 +2371,12 @@
       <c r="J19" s="2">
         <v>3</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="8:11">
+    <row r="20" spans="2:11">
+      <c r="B20" s="18"/>
       <c r="H20" s="2" t="s">
         <v>48</v>
       </c>
@@ -2090,42 +2386,54 @@
       <c r="J20" s="2">
         <v>4</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="8:11">
-      <c r="H21" s="2" t="s">
+    <row r="21" spans="2:11">
+      <c r="B21" s="19"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="13">
         <v>5</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="27" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="9">
         <v>1</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="8:11">
+    <row r="24" spans="2:11">
+      <c r="B24" s="18"/>
       <c r="H24" s="2" t="s">
         <v>55</v>
       </c>
@@ -2135,1549 +2443,1916 @@
       <c r="J24" s="2">
         <v>2</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="8:11">
-      <c r="H25" s="2" t="s">
+    <row r="25" spans="2:11">
+      <c r="B25" s="19"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="13">
         <v>3</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="27" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="9">
+        <v>1</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="18"/>
+      <c r="H28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="18"/>
+      <c r="H29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="2">
+        <v>3</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="1" t="b">
+      <c r="B30" s="18"/>
+      <c r="H30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="2">
+        <v>4</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="18"/>
+      <c r="H31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="2">
+        <v>5</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="18"/>
+      <c r="H32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="2">
+        <v>6</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="19"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" s="13">
+        <v>7</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" s="9">
         <v>1</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="8:11">
-      <c r="H31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="K35" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="18"/>
+      <c r="H36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36" s="2">
         <v>2</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="8:11">
-      <c r="H32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="K36" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="18"/>
+      <c r="H37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" s="2">
         <v>3</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="8:11">
-      <c r="H33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J33" s="2">
+      <c r="K37" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="18"/>
+      <c r="H38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J38" s="2">
         <v>4</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="8:11">
-      <c r="H34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J34" s="2">
+      <c r="K38" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="19"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39" s="13">
         <v>5</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="8:11">
-      <c r="H35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J35" s="2">
-        <v>6</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J37" s="2">
-        <v>1</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="8:11">
-      <c r="H38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J38" s="2">
-        <v>2</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="8:11">
-      <c r="H39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J39" s="2">
-        <v>3</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="8:11">
-      <c r="H40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J40" s="2">
-        <v>4</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="8:11">
-      <c r="H41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" s="2">
-        <v>5</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="K39" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" s="9">
+        <v>1001</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="18"/>
+      <c r="H42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1002</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="18"/>
+      <c r="H43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1003</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="18"/>
+      <c r="H44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1004</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="18"/>
+      <c r="H45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1005</v>
+      </c>
+      <c r="K45" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="18"/>
+      <c r="K46" s="26"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="B47" s="18"/>
       <c r="H47" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="J47" s="2">
-        <v>1001</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="8:11">
+        <v>1101</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="18"/>
       <c r="H48" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="J48" s="2">
-        <v>1002</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="8:11">
+        <v>1102</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="18"/>
       <c r="H49" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="J49" s="2">
-        <v>1003</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="8:11">
+        <v>1103</v>
+      </c>
+      <c r="K49" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="18"/>
       <c r="H50" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="J50" s="2">
-        <v>1004</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="8:11">
+        <v>1104</v>
+      </c>
+      <c r="K50" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="18"/>
       <c r="H51" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="J51" s="2">
-        <v>1005</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="8:11">
-      <c r="H53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>105</v>
+        <v>1105</v>
+      </c>
+      <c r="K51" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="18"/>
+      <c r="H52" s="2" t="str">
+        <f>(_xlfn.CONCAT(H51,"Base"))</f>
+        <v>GamePropertyType_AtkBase</v>
+      </c>
+      <c r="I52" s="2" t="str">
+        <f>_xlfn.CONCAT(I51,"Base")</f>
+        <v>AtkBase</v>
+      </c>
+      <c r="J52" s="2">
+        <f>J51*10+1</f>
+        <v>11051</v>
+      </c>
+      <c r="K52" s="26" t="str">
+        <f>_xlfn.CONCAT(K51,"基础值")</f>
+        <v>攻击基础值</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="18"/>
+      <c r="H53" s="2" t="str">
+        <f t="shared" ref="H53:H55" si="0">_xlfn.CONCAT(H51,"Add")</f>
+        <v>GamePropertyType_AtkAdd</v>
+      </c>
+      <c r="I53" s="2" t="str">
+        <f>_xlfn.CONCAT(I51,"Add")</f>
+        <v>AtkAdd</v>
       </c>
       <c r="J53" s="2">
-        <v>1101</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="8:11">
-      <c r="H54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>108</v>
+        <f>J51*10+2</f>
+        <v>11052</v>
+      </c>
+      <c r="K53" s="26" t="str">
+        <f>_xlfn.CONCAT(K51,"附加值")</f>
+        <v>攻击附加值</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="18"/>
+      <c r="H54" s="2" t="str">
+        <f>_xlfn.CONCAT(H51,"Pct")</f>
+        <v>GamePropertyType_AtkPct</v>
+      </c>
+      <c r="I54" s="2" t="str">
+        <f>_xlfn.CONCAT(I51,"Pct")</f>
+        <v>AtkPct</v>
       </c>
       <c r="J54" s="2">
-        <v>1102</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="8:11">
-      <c r="H55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>111</v>
+        <f>J51*10+3</f>
+        <v>11053</v>
+      </c>
+      <c r="K54" s="26" t="str">
+        <f>_xlfn.CONCAT(K51,"百分比")</f>
+        <v>攻击百分比</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="18"/>
+      <c r="H55" s="2" t="str">
+        <f>_xlfn.CONCAT(H51,"FinalAdd")</f>
+        <v>GamePropertyType_AtkFinalAdd</v>
+      </c>
+      <c r="I55" s="2" t="str">
+        <f>_xlfn.CONCAT(I51,"FinalAdd")</f>
+        <v>AtkFinalAdd</v>
       </c>
       <c r="J55" s="2">
-        <v>1103</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="8:11">
-      <c r="H56" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>114</v>
+        <f>J51*10+4</f>
+        <v>11054</v>
+      </c>
+      <c r="K55" s="26" t="str">
+        <f>_xlfn.CONCAT(K51,"最终附加值")</f>
+        <v>攻击最终附加值</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="18"/>
+      <c r="H56" s="2" t="str">
+        <f>_xlfn.CONCAT(H51,"FinalPct")</f>
+        <v>GamePropertyType_AtkFinalPct</v>
+      </c>
+      <c r="I56" s="2" t="str">
+        <f>_xlfn.CONCAT(I51,"FinalPct")</f>
+        <v>AtkFinalPct</v>
       </c>
       <c r="J56" s="2">
-        <v>1104</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="8:11">
+        <f>J51*10+5</f>
+        <v>11055</v>
+      </c>
+      <c r="K56" s="26" t="str">
+        <f>_xlfn.CONCAT(K51,"最终百分比")</f>
+        <v>攻击最终百分比</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="18"/>
       <c r="H57" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J57" s="2">
-        <v>1105</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="8:11">
+        <v>1106</v>
+      </c>
+      <c r="K57" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="18"/>
       <c r="H58" s="2" t="str">
         <f>(_xlfn.CONCAT(H57,"Base"))</f>
-        <v>GamePropertyType_AtkBase</v>
+        <v>GamePropertyType_DefBase</v>
       </c>
       <c r="I58" s="2" t="str">
         <f>_xlfn.CONCAT(I57,"Base")</f>
-        <v>AtkBase</v>
+        <v>DefBase</v>
       </c>
       <c r="J58" s="2">
         <f>J57*10+1</f>
-        <v>11051</v>
-      </c>
-      <c r="K58" s="2" t="str">
+        <v>11061</v>
+      </c>
+      <c r="K58" s="26" t="str">
         <f>_xlfn.CONCAT(K57,"基础值")</f>
-        <v>攻击基础值</v>
-      </c>
-    </row>
-    <row r="59" spans="8:11">
+        <v>防御基础值</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="18"/>
       <c r="H59" s="2" t="str">
-        <f t="shared" ref="H59:H61" si="0">_xlfn.CONCAT(H57,"Add")</f>
-        <v>GamePropertyType_AtkAdd</v>
+        <f>_xlfn.CONCAT(H57,"Add")</f>
+        <v>GamePropertyType_DefAdd</v>
       </c>
       <c r="I59" s="2" t="str">
         <f>_xlfn.CONCAT(I57,"Add")</f>
-        <v>AtkAdd</v>
+        <v>DefAdd</v>
       </c>
       <c r="J59" s="2">
         <f>J57*10+2</f>
-        <v>11052</v>
-      </c>
-      <c r="K59" s="2" t="str">
+        <v>11062</v>
+      </c>
+      <c r="K59" s="26" t="str">
         <f>_xlfn.CONCAT(K57,"附加值")</f>
-        <v>攻击附加值</v>
-      </c>
-    </row>
-    <row r="60" spans="8:11">
+        <v>防御附加值</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="18"/>
       <c r="H60" s="2" t="str">
         <f>_xlfn.CONCAT(H57,"Pct")</f>
-        <v>GamePropertyType_AtkPct</v>
+        <v>GamePropertyType_DefPct</v>
       </c>
       <c r="I60" s="2" t="str">
         <f>_xlfn.CONCAT(I57,"Pct")</f>
-        <v>AtkPct</v>
+        <v>DefPct</v>
       </c>
       <c r="J60" s="2">
         <f>J57*10+3</f>
-        <v>11053</v>
-      </c>
-      <c r="K60" s="2" t="str">
+        <v>11063</v>
+      </c>
+      <c r="K60" s="26" t="str">
         <f>_xlfn.CONCAT(K57,"百分比")</f>
-        <v>攻击百分比</v>
-      </c>
-    </row>
-    <row r="61" spans="8:11">
+        <v>防御百分比</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="18"/>
       <c r="H61" s="2" t="str">
         <f>_xlfn.CONCAT(H57,"FinalAdd")</f>
-        <v>GamePropertyType_AtkFinalAdd</v>
+        <v>GamePropertyType_DefFinalAdd</v>
       </c>
       <c r="I61" s="2" t="str">
         <f>_xlfn.CONCAT(I57,"FinalAdd")</f>
-        <v>AtkFinalAdd</v>
+        <v>DefFinalAdd</v>
       </c>
       <c r="J61" s="2">
         <f>J57*10+4</f>
-        <v>11054</v>
-      </c>
-      <c r="K61" s="2" t="str">
+        <v>11064</v>
+      </c>
+      <c r="K61" s="26" t="str">
         <f>_xlfn.CONCAT(K57,"最终附加值")</f>
-        <v>攻击最终附加值</v>
-      </c>
-    </row>
-    <row r="62" spans="8:11">
+        <v>防御最终附加值</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="18"/>
       <c r="H62" s="2" t="str">
         <f>_xlfn.CONCAT(H57,"FinalPct")</f>
-        <v>GamePropertyType_AtkFinalPct</v>
+        <v>GamePropertyType_DefFinalPct</v>
       </c>
       <c r="I62" s="2" t="str">
         <f>_xlfn.CONCAT(I57,"FinalPct")</f>
-        <v>AtkFinalPct</v>
+        <v>DefFinalPct</v>
       </c>
       <c r="J62" s="2">
         <f>J57*10+5</f>
-        <v>11055</v>
-      </c>
-      <c r="K62" s="2" t="str">
+        <v>11065</v>
+      </c>
+      <c r="K62" s="26" t="str">
         <f>_xlfn.CONCAT(K57,"最终百分比")</f>
-        <v>攻击最终百分比</v>
-      </c>
-    </row>
-    <row r="63" spans="8:11">
+        <v>防御最终百分比</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="18"/>
       <c r="H63" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J63" s="2">
-        <v>1106</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="8:11">
+        <v>1107</v>
+      </c>
+      <c r="K63" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="18"/>
       <c r="H64" s="2" t="str">
         <f>(_xlfn.CONCAT(H63,"Base"))</f>
-        <v>GamePropertyType_DefBase</v>
+        <v>GamePropertyType_HitBase</v>
       </c>
       <c r="I64" s="2" t="str">
         <f>_xlfn.CONCAT(I63,"Base")</f>
-        <v>DefBase</v>
+        <v>HitBase</v>
       </c>
       <c r="J64" s="2">
         <f>J63*10+1</f>
-        <v>11061</v>
-      </c>
-      <c r="K64" s="2" t="str">
+        <v>11071</v>
+      </c>
+      <c r="K64" s="26" t="str">
         <f>_xlfn.CONCAT(K63,"基础值")</f>
-        <v>防御基础值</v>
-      </c>
-    </row>
-    <row r="65" spans="8:11">
+        <v>命中基础值</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" s="18"/>
       <c r="H65" s="2" t="str">
         <f>_xlfn.CONCAT(H63,"Add")</f>
-        <v>GamePropertyType_DefAdd</v>
+        <v>GamePropertyType_HitAdd</v>
       </c>
       <c r="I65" s="2" t="str">
         <f>_xlfn.CONCAT(I63,"Add")</f>
-        <v>DefAdd</v>
+        <v>HitAdd</v>
       </c>
       <c r="J65" s="2">
         <f>J63*10+2</f>
-        <v>11062</v>
-      </c>
-      <c r="K65" s="2" t="str">
+        <v>11072</v>
+      </c>
+      <c r="K65" s="26" t="str">
         <f>_xlfn.CONCAT(K63,"附加值")</f>
-        <v>防御附加值</v>
-      </c>
-    </row>
-    <row r="66" spans="8:11">
+        <v>命中附加值</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" s="18"/>
       <c r="H66" s="2" t="str">
         <f>_xlfn.CONCAT(H63,"Pct")</f>
-        <v>GamePropertyType_DefPct</v>
+        <v>GamePropertyType_HitPct</v>
       </c>
       <c r="I66" s="2" t="str">
         <f>_xlfn.CONCAT(I63,"Pct")</f>
-        <v>DefPct</v>
+        <v>HitPct</v>
       </c>
       <c r="J66" s="2">
         <f>J63*10+3</f>
-        <v>11063</v>
-      </c>
-      <c r="K66" s="2" t="str">
+        <v>11073</v>
+      </c>
+      <c r="K66" s="26" t="str">
         <f>_xlfn.CONCAT(K63,"百分比")</f>
-        <v>防御百分比</v>
-      </c>
-    </row>
-    <row r="67" spans="8:11">
+        <v>命中百分比</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" s="18"/>
       <c r="H67" s="2" t="str">
         <f>_xlfn.CONCAT(H63,"FinalAdd")</f>
-        <v>GamePropertyType_DefFinalAdd</v>
+        <v>GamePropertyType_HitFinalAdd</v>
       </c>
       <c r="I67" s="2" t="str">
         <f>_xlfn.CONCAT(I63,"FinalAdd")</f>
-        <v>DefFinalAdd</v>
+        <v>HitFinalAdd</v>
       </c>
       <c r="J67" s="2">
         <f>J63*10+4</f>
-        <v>11064</v>
-      </c>
-      <c r="K67" s="2" t="str">
+        <v>11074</v>
+      </c>
+      <c r="K67" s="26" t="str">
         <f>_xlfn.CONCAT(K63,"最终附加值")</f>
-        <v>防御最终附加值</v>
-      </c>
-    </row>
-    <row r="68" spans="8:11">
+        <v>命中最终附加值</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" s="18"/>
       <c r="H68" s="2" t="str">
         <f>_xlfn.CONCAT(H63,"FinalPct")</f>
-        <v>GamePropertyType_DefFinalPct</v>
+        <v>GamePropertyType_HitFinalPct</v>
       </c>
       <c r="I68" s="2" t="str">
         <f>_xlfn.CONCAT(I63,"FinalPct")</f>
-        <v>DefFinalPct</v>
+        <v>HitFinalPct</v>
       </c>
       <c r="J68" s="2">
         <f>J63*10+5</f>
-        <v>11065</v>
-      </c>
-      <c r="K68" s="2" t="str">
+        <v>11075</v>
+      </c>
+      <c r="K68" s="26" t="str">
         <f>_xlfn.CONCAT(K63,"最终百分比")</f>
-        <v>防御最终百分比</v>
-      </c>
-    </row>
-    <row r="69" spans="8:11">
+        <v>命中最终百分比</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" s="18"/>
       <c r="H69" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J69" s="2">
-        <v>1107</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="8:11">
+        <v>1108</v>
+      </c>
+      <c r="K69" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" s="18"/>
       <c r="H70" s="2" t="str">
         <f>(_xlfn.CONCAT(H69,"Base"))</f>
-        <v>GamePropertyType_HitBase</v>
+        <v>GamePropertyType_CritBase</v>
       </c>
       <c r="I70" s="2" t="str">
         <f>_xlfn.CONCAT(I69,"Base")</f>
-        <v>HitBase</v>
+        <v>CritBase</v>
       </c>
       <c r="J70" s="2">
         <f>J69*10+1</f>
-        <v>11071</v>
-      </c>
-      <c r="K70" s="2" t="str">
+        <v>11081</v>
+      </c>
+      <c r="K70" s="26" t="str">
         <f>_xlfn.CONCAT(K69,"基础值")</f>
-        <v>命中基础值</v>
-      </c>
-    </row>
-    <row r="71" spans="8:11">
+        <v>暴击基础值</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71" s="18"/>
       <c r="H71" s="2" t="str">
         <f>_xlfn.CONCAT(H69,"Add")</f>
-        <v>GamePropertyType_HitAdd</v>
+        <v>GamePropertyType_CritAdd</v>
       </c>
       <c r="I71" s="2" t="str">
         <f>_xlfn.CONCAT(I69,"Add")</f>
-        <v>HitAdd</v>
+        <v>CritAdd</v>
       </c>
       <c r="J71" s="2">
         <f>J69*10+2</f>
-        <v>11072</v>
-      </c>
-      <c r="K71" s="2" t="str">
+        <v>11082</v>
+      </c>
+      <c r="K71" s="26" t="str">
         <f>_xlfn.CONCAT(K69,"附加值")</f>
-        <v>命中附加值</v>
-      </c>
-    </row>
-    <row r="72" spans="8:11">
+        <v>暴击附加值</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72" s="18"/>
       <c r="H72" s="2" t="str">
         <f>_xlfn.CONCAT(H69,"Pct")</f>
-        <v>GamePropertyType_HitPct</v>
+        <v>GamePropertyType_CritPct</v>
       </c>
       <c r="I72" s="2" t="str">
         <f>_xlfn.CONCAT(I69,"Pct")</f>
-        <v>HitPct</v>
+        <v>CritPct</v>
       </c>
       <c r="J72" s="2">
         <f>J69*10+3</f>
-        <v>11073</v>
-      </c>
-      <c r="K72" s="2" t="str">
+        <v>11083</v>
+      </c>
+      <c r="K72" s="26" t="str">
         <f>_xlfn.CONCAT(K69,"百分比")</f>
-        <v>命中百分比</v>
-      </c>
-    </row>
-    <row r="73" spans="8:11">
+        <v>暴击百分比</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73" s="18"/>
       <c r="H73" s="2" t="str">
         <f>_xlfn.CONCAT(H69,"FinalAdd")</f>
-        <v>GamePropertyType_HitFinalAdd</v>
+        <v>GamePropertyType_CritFinalAdd</v>
       </c>
       <c r="I73" s="2" t="str">
         <f>_xlfn.CONCAT(I69,"FinalAdd")</f>
-        <v>HitFinalAdd</v>
+        <v>CritFinalAdd</v>
       </c>
       <c r="J73" s="2">
         <f>J69*10+4</f>
-        <v>11074</v>
-      </c>
-      <c r="K73" s="2" t="str">
+        <v>11084</v>
+      </c>
+      <c r="K73" s="26" t="str">
         <f>_xlfn.CONCAT(K69,"最终附加值")</f>
-        <v>命中最终附加值</v>
-      </c>
-    </row>
-    <row r="74" spans="8:11">
-      <c r="H74" s="2" t="str">
+        <v>暴击最终附加值</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74" s="19"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="13" t="str">
         <f>_xlfn.CONCAT(H69,"FinalPct")</f>
-        <v>GamePropertyType_HitFinalPct</v>
-      </c>
-      <c r="I74" s="2" t="str">
+        <v>GamePropertyType_CritFinalPct</v>
+      </c>
+      <c r="I74" s="13" t="str">
         <f>_xlfn.CONCAT(I69,"FinalPct")</f>
-        <v>HitFinalPct</v>
-      </c>
-      <c r="J74" s="2">
+        <v>CritFinalPct</v>
+      </c>
+      <c r="J74" s="13">
         <f>J69*10+5</f>
-        <v>11075</v>
-      </c>
-      <c r="K74" s="2" t="str">
+        <v>11085</v>
+      </c>
+      <c r="K74" s="27" t="str">
         <f>_xlfn.CONCAT(K69,"最终百分比")</f>
-        <v>命中最终百分比</v>
-      </c>
-    </row>
-    <row r="75" spans="8:11">
-      <c r="H75" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J75" s="2">
-        <v>1108</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="8:11">
-      <c r="H76" s="2" t="str">
-        <f>(_xlfn.CONCAT(H75,"Base"))</f>
-        <v>GamePropertyType_CritBase</v>
-      </c>
-      <c r="I76" s="2" t="str">
-        <f>_xlfn.CONCAT(I75,"Base")</f>
-        <v>CritBase</v>
-      </c>
-      <c r="J76" s="2">
-        <f>J75*10+1</f>
-        <v>11081</v>
-      </c>
-      <c r="K76" s="2" t="str">
-        <f>_xlfn.CONCAT(K75,"基础值")</f>
-        <v>暴击基础值</v>
-      </c>
-    </row>
-    <row r="77" spans="8:11">
-      <c r="H77" s="2" t="str">
-        <f>_xlfn.CONCAT(H75,"Add")</f>
-        <v>GamePropertyType_CritAdd</v>
-      </c>
-      <c r="I77" s="2" t="str">
-        <f>_xlfn.CONCAT(I75,"Add")</f>
-        <v>CritAdd</v>
+        <v>暴击最终百分比</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J76" s="9">
+        <v>1</v>
+      </c>
+      <c r="K76" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77" s="18"/>
+      <c r="H77" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="J77" s="2">
-        <f>J75*10+2</f>
-        <v>11082</v>
-      </c>
-      <c r="K77" s="2" t="str">
-        <f>_xlfn.CONCAT(K75,"附加值")</f>
-        <v>暴击附加值</v>
-      </c>
-    </row>
-    <row r="78" spans="8:11">
-      <c r="H78" s="2" t="str">
-        <f>_xlfn.CONCAT(H75,"Pct")</f>
-        <v>GamePropertyType_CritPct</v>
-      </c>
-      <c r="I78" s="2" t="str">
-        <f>_xlfn.CONCAT(I75,"Pct")</f>
-        <v>CritPct</v>
+        <v>2</v>
+      </c>
+      <c r="K77" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" s="18"/>
+      <c r="H78" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="J78" s="2">
-        <f>J75*10+3</f>
-        <v>11083</v>
-      </c>
-      <c r="K78" s="2" t="str">
-        <f>_xlfn.CONCAT(K75,"百分比")</f>
-        <v>暴击百分比</v>
-      </c>
-    </row>
-    <row r="79" spans="8:11">
-      <c r="H79" s="2" t="str">
-        <f>_xlfn.CONCAT(H75,"FinalAdd")</f>
-        <v>GamePropertyType_CritFinalAdd</v>
-      </c>
-      <c r="I79" s="2" t="str">
-        <f>_xlfn.CONCAT(I75,"FinalAdd")</f>
-        <v>CritFinalAdd</v>
-      </c>
-      <c r="J79" s="2">
-        <f>J75*10+4</f>
-        <v>11084</v>
-      </c>
-      <c r="K79" s="2" t="str">
-        <f>_xlfn.CONCAT(K75,"最终附加值")</f>
-        <v>暴击最终附加值</v>
-      </c>
-    </row>
-    <row r="80" spans="8:11">
-      <c r="H80" s="2" t="str">
-        <f>_xlfn.CONCAT(H75,"FinalPct")</f>
-        <v>GamePropertyType_CritFinalPct</v>
-      </c>
-      <c r="I80" s="2" t="str">
-        <f>_xlfn.CONCAT(I75,"FinalPct")</f>
-        <v>CritFinalPct</v>
-      </c>
-      <c r="J80" s="2">
-        <f>J75*10+5</f>
-        <v>11085</v>
-      </c>
-      <c r="K80" s="2" t="str">
-        <f>_xlfn.CONCAT(K75,"最终百分比")</f>
-        <v>暴击最终百分比</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K78" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79" s="19"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J79" s="13">
+        <v>4</v>
+      </c>
+      <c r="K79" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9">
+        <v>0</v>
+      </c>
+      <c r="K81" s="25"/>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="B82" s="18"/>
       <c r="H82" s="2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
       </c>
-      <c r="K82" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" spans="8:11">
+      <c r="K82" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" s="18"/>
       <c r="H83" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="J83" s="2">
         <v>2</v>
       </c>
-      <c r="K83" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="8:11">
+      <c r="K83" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84" s="18"/>
       <c r="H84" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="J84" s="2">
         <v>3</v>
       </c>
-      <c r="K84" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="85" spans="8:11">
+      <c r="K84" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85" s="18"/>
       <c r="H85" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="J85" s="2">
         <v>4</v>
       </c>
-      <c r="K85" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10">
-      <c r="B87" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="K85" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" s="18"/>
+      <c r="H86" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J86" s="2">
+        <v>5</v>
+      </c>
+      <c r="K86" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" s="18"/>
       <c r="H87" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="J87" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="8:11">
+        <v>6</v>
+      </c>
+      <c r="K87" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="18"/>
       <c r="H88" s="2" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="J88" s="2">
+        <v>7</v>
+      </c>
+      <c r="K88" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" s="18"/>
+      <c r="H89" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J89" s="2">
+        <v>8</v>
+      </c>
+      <c r="K89" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" s="19"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J90" s="13">
+        <v>9</v>
+      </c>
+      <c r="K90" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="B92" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J92" s="9">
         <v>1</v>
       </c>
-      <c r="K88" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="8:11">
-      <c r="H89" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J89" s="2">
+      <c r="K92" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="19"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J93" s="13">
         <v>2</v>
       </c>
-      <c r="K89" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="90" spans="8:11">
-      <c r="H90" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J90" s="2">
+      <c r="K93" s="27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J95" s="9">
+        <v>1</v>
+      </c>
+      <c r="K95" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="18"/>
+      <c r="H96" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J96" s="2">
+        <v>2</v>
+      </c>
+      <c r="K96" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="18"/>
+      <c r="H97" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J97" s="2">
         <v>3</v>
       </c>
-      <c r="K90" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="91" spans="8:11">
-      <c r="H91" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J91" s="2">
+      <c r="K97" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="19"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="J98" s="13">
         <v>4</v>
       </c>
-      <c r="K91" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="92" spans="8:11">
-      <c r="H92" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J92" s="2">
+      <c r="K98" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J100" s="9">
+        <v>1</v>
+      </c>
+      <c r="K100" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="18"/>
+      <c r="H101" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J101" s="2">
+        <v>2</v>
+      </c>
+      <c r="K101" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="18"/>
+      <c r="H102" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J102" s="2">
+        <v>3</v>
+      </c>
+      <c r="K102" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="19"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="J103" s="13">
+        <v>4</v>
+      </c>
+      <c r="K103" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="J105" s="9">
+        <v>1</v>
+      </c>
+      <c r="K105" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="18"/>
+      <c r="H106" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J106" s="2">
+        <v>2</v>
+      </c>
+      <c r="K106" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="18"/>
+      <c r="H107" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J107" s="2">
+        <v>3</v>
+      </c>
+      <c r="K107" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="19"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J108" s="13">
+        <v>4</v>
+      </c>
+      <c r="K108" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="J110" s="9">
+        <v>1</v>
+      </c>
+      <c r="K110" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="18"/>
+      <c r="H111" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J111" s="2">
+        <v>2</v>
+      </c>
+      <c r="K111" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" s="18"/>
+      <c r="H112" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J112" s="2">
+        <v>3</v>
+      </c>
+      <c r="K112" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11">
+      <c r="B113" s="18"/>
+      <c r="H113" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J113" s="2">
+        <v>4</v>
+      </c>
+      <c r="K113" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11">
+      <c r="B114" s="19"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="J114" s="13">
         <v>5</v>
       </c>
-      <c r="K92" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="93" spans="8:11">
-      <c r="H93" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J93" s="2">
-        <v>6</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="94" spans="8:11">
-      <c r="H94" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J94" s="2">
-        <v>7</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="95" spans="8:11">
-      <c r="H95" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J95" s="2">
-        <v>8</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="96" spans="8:11">
-      <c r="H96" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J96" s="2">
-        <v>9</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11">
-      <c r="B98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J98" s="2">
+      <c r="K114" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11">
+      <c r="B116" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J116" s="9">
         <v>1</v>
       </c>
-      <c r="K98" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="99" spans="8:11">
-      <c r="H99" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J99" s="2">
-        <v>2</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11">
-      <c r="B101" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J101" s="2">
-        <v>1</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="102" spans="8:11">
-      <c r="H102" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J102" s="2">
-        <v>2</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="103" spans="8:11">
-      <c r="H103" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J103" s="2">
-        <v>3</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="104" spans="8:11">
-      <c r="H104" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J104" s="2">
-        <v>4</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11">
-      <c r="B106" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J106" s="2">
-        <v>1</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="107" spans="8:11">
-      <c r="H107" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J107" s="2">
-        <v>2</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="108" spans="8:11">
-      <c r="H108" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J108" s="2">
-        <v>3</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="109" spans="8:11">
-      <c r="H109" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J109" s="2">
-        <v>4</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11">
-      <c r="B111" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J111" s="2">
-        <v>1</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="112" spans="8:11">
-      <c r="H112" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J112" s="2">
-        <v>2</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="113" spans="8:11">
-      <c r="H113" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J113" s="2">
-        <v>3</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="114" spans="8:11">
-      <c r="H114" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J114" s="2">
-        <v>4</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11">
-      <c r="B116" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J116" s="2">
-        <v>1</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="117" spans="8:11">
+      <c r="K116" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117" s="18"/>
       <c r="H117" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="J117" s="2">
         <v>2</v>
       </c>
-      <c r="K117" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="118" spans="8:11">
-      <c r="H118" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J118" s="2">
+      <c r="K117" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="19"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="J118" s="13">
         <v>3</v>
       </c>
-      <c r="K118" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="119" spans="8:11">
-      <c r="H119" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J119" s="2">
+      <c r="K118" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11">
+      <c r="B120" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C120" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J120" s="9">
+        <f>POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K120" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="18"/>
+      <c r="H121" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J121" s="2">
+        <f>POWER(2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K121" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="18"/>
+      <c r="H122" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J122" s="2">
+        <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K119" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="120" spans="8:11">
-      <c r="H120" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J120" s="2">
-        <v>5</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11">
-      <c r="B122" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J122" s="2">
+      <c r="K122" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11">
+      <c r="B123" s="18"/>
+      <c r="H123" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J123" s="2">
+        <f>POWER(2,3)</f>
+        <v>8</v>
+      </c>
+      <c r="K123" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124" s="18"/>
+      <c r="H124" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J124" s="2">
+        <f>POWER(2,4)</f>
+        <v>16</v>
+      </c>
+      <c r="K124" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11">
+      <c r="B125" s="18"/>
+      <c r="H125" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J125" s="2">
+        <f>POWER(2,5)</f>
+        <v>32</v>
+      </c>
+      <c r="K125" s="26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11">
+      <c r="B126" s="18"/>
+      <c r="H126" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J126" s="2">
+        <f>POWER(2,6)</f>
+        <v>64</v>
+      </c>
+      <c r="K126" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11">
+      <c r="B127" s="18"/>
+      <c r="H127" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J127" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K127" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11">
+      <c r="B128" s="18"/>
+      <c r="H128" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J128" s="2">
+        <f>POWER(2,8)</f>
+        <v>256</v>
+      </c>
+      <c r="K128" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="19"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="J129" s="13">
+        <f>POWER(2,9)</f>
+        <v>512</v>
+      </c>
+      <c r="K129" s="27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="B131" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C131" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="K122" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="123" spans="8:11">
-      <c r="H123" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="J123" s="2">
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J131" s="9">
+        <f>POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K131" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132" s="18"/>
+      <c r="H132" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J132" s="2">
+        <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K123" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="124" spans="8:11">
-      <c r="H124" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J124" s="2">
-        <v>3</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11">
-      <c r="B126" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C126" s="1" t="b">
+      <c r="K132" s="26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="18"/>
+      <c r="H133" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J133" s="2">
+        <f>POWER(2,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K133" s="26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11">
+      <c r="B134" s="18"/>
+      <c r="H134" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J134" s="2">
+        <f>POWER(2,3)</f>
+        <v>8</v>
+      </c>
+      <c r="K134" s="26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11">
+      <c r="B135" s="18"/>
+      <c r="H135" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J135" s="2">
+        <f>POWER(2,4)</f>
+        <v>16</v>
+      </c>
+      <c r="K135" s="26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11">
+      <c r="B136" s="18"/>
+      <c r="H136" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J136" s="2">
+        <f>POWER(2,5)</f>
+        <v>32</v>
+      </c>
+      <c r="K136" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11">
+      <c r="B137" s="18"/>
+      <c r="H137" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J137" s="2">
+        <f>POWER(2,6)</f>
+        <v>64</v>
+      </c>
+      <c r="K137" s="26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="18"/>
+      <c r="H138" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J138" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K138" s="26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11">
+      <c r="B139" s="18"/>
+      <c r="H139" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J139" s="2">
+        <f>POWER(2,8)</f>
+        <v>256</v>
+      </c>
+      <c r="K139" s="26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11">
+      <c r="B140" s="19"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="I140" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="J140" s="13">
+        <f>POWER(2,9)</f>
+        <v>512</v>
+      </c>
+      <c r="K140" s="27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C142" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H126" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J126" s="2">
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="I142" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J142" s="30">
+        <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K126" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="127" spans="8:11">
-      <c r="H127" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J127" s="2">
+      <c r="K142" s="39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11">
+      <c r="B143" s="31"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="I143" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="J143" s="33">
+        <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K127" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="128" spans="8:11">
-      <c r="H128" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J128" s="2">
+      <c r="K143" s="40" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11">
+      <c r="B144" s="31"/>
+      <c r="C144" s="34"/>
+      <c r="D144" s="34"/>
+      <c r="E144" s="34"/>
+      <c r="F144" s="34"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="I144" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="J144" s="33">
+        <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K128" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="129" spans="8:11">
-      <c r="H129" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J129" s="2">
+      <c r="K144" s="41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11">
+      <c r="B145" s="36"/>
+      <c r="C145" s="37"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="37"/>
+      <c r="F145" s="37"/>
+      <c r="G145" s="37"/>
+      <c r="H145" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="I145" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="J145" s="38">
+        <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K129" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="130" spans="8:11">
-      <c r="H130" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="J130" s="2">
-        <v>16</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="131" spans="8:11">
-      <c r="H131" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J131" s="2">
-        <v>32</v>
-      </c>
-      <c r="K131" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="132" spans="8:11">
-      <c r="H132" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J132" s="2">
-        <v>64</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="133" spans="8:11">
-      <c r="H133" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J133" s="2">
-        <v>128</v>
-      </c>
-      <c r="K133" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="134" spans="8:11">
-      <c r="H134" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J134" s="2">
-        <v>256</v>
-      </c>
-      <c r="K134" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="135" spans="8:11">
-      <c r="H135" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J135" s="2">
-        <v>512</v>
-      </c>
-      <c r="K135" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11">
-      <c r="B137" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C137" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J137" s="2">
-        <v>1</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="138" spans="8:11">
-      <c r="H138" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J138" s="2">
-        <v>2</v>
-      </c>
-      <c r="K138" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="139" spans="8:11">
-      <c r="H139" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J139" s="2">
-        <v>4</v>
-      </c>
-      <c r="K139" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="140" spans="8:11">
-      <c r="H140" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="J140" s="2">
-        <v>8</v>
-      </c>
-      <c r="K140" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="141" spans="8:11">
-      <c r="H141" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J141" s="2">
-        <v>16</v>
-      </c>
-      <c r="K141" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="142" spans="8:11">
-      <c r="H142" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J142" s="2">
-        <v>32</v>
-      </c>
-      <c r="K142" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="143" spans="8:11">
-      <c r="H143" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J143" s="2">
-        <v>64</v>
-      </c>
-      <c r="K143" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="144" spans="8:11">
-      <c r="H144" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="J144" s="2">
-        <v>128</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="145" spans="8:11">
-      <c r="H145" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J145" s="2">
-        <v>256</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="146" spans="8:11">
-      <c r="H146" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="J146" s="2">
-        <v>512</v>
-      </c>
-      <c r="K146" s="2" t="s">
-        <v>254</v>
+      <c r="K145" s="42" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="19">
     <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B41:B74"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B81:B90"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B120:B129"/>
+    <mergeCell ref="B131:B140"/>
+    <mergeCell ref="B142:B145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22095" windowHeight="7740"/>
+    <workbookView windowWidth="18465" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="275">
   <si>
     <t>##var</t>
   </si>
@@ -825,6 +825,33 @@
   </si>
   <si>
     <t>多彩宝石</t>
+  </si>
+  <si>
+    <t>ShopType</t>
+  </si>
+  <si>
+    <t>ShopType_Common</t>
+  </si>
+  <si>
+    <t>通用商店</t>
+  </si>
+  <si>
+    <t>ShopType_Dungeons</t>
+  </si>
+  <si>
+    <t>地下城商店</t>
+  </si>
+  <si>
+    <t>ShopType_Diamond</t>
+  </si>
+  <si>
+    <t>钻石商店</t>
+  </si>
+  <si>
+    <t>ShopType_Mijing</t>
+  </si>
+  <si>
+    <t>秘境商店</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1614,9 +1641,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1680,6 +1704,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1692,18 +1722,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1714,9 +1732,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2044,9 +2059,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L145"/>
+  <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
       <selection activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
@@ -2133,7 +2148,7 @@
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="3"/>
@@ -2153,132 +2168,132 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" ht="33" spans="2:11">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:11">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8" t="b">
+      <c r="C4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="b">
+      <c r="D4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="33" spans="2:11">
-      <c r="B5" s="10"/>
+    <row r="5" spans="2:11">
+      <c r="B5" s="9"/>
       <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="2">
         <v>3</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="33" spans="2:11">
-      <c r="B7" s="10"/>
+    <row r="7" spans="2:11">
+      <c r="B7" s="9"/>
       <c r="H7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="2">
         <v>4</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12">
         <v>99</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="b">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16">
+      <c r="I10" s="15"/>
+      <c r="J10" s="15">
         <v>1</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="b">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>1</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="18"/>
+      <c r="B13" s="17"/>
       <c r="H13" s="2" t="s">
         <v>36</v>
       </c>
@@ -2288,12 +2303,12 @@
       <c r="J13" s="2">
         <v>2</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="18"/>
+      <c r="B14" s="17"/>
       <c r="H14" s="2" t="s">
         <v>38</v>
       </c>
@@ -2303,50 +2318,50 @@
       <c r="J14" s="2">
         <v>3</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="19"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="27"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="b">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>1</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="18"/>
+      <c r="B18" s="17"/>
       <c r="H18" s="2" t="s">
         <v>44</v>
       </c>
@@ -2356,12 +2371,12 @@
       <c r="J18" s="2">
         <v>2</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="18"/>
+      <c r="B19" s="17"/>
       <c r="H19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2371,12 +2386,12 @@
       <c r="J19" s="2">
         <v>3</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="18"/>
+      <c r="B20" s="17"/>
       <c r="H20" s="2" t="s">
         <v>48</v>
       </c>
@@ -2386,54 +2401,54 @@
       <c r="J20" s="2">
         <v>4</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="19"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="12">
         <v>5</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <v>1</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="18"/>
+      <c r="B24" s="17"/>
       <c r="H24" s="2" t="s">
         <v>55</v>
       </c>
@@ -2443,56 +2458,56 @@
       <c r="J24" s="2">
         <v>2</v>
       </c>
-      <c r="K24" s="26" t="s">
+      <c r="K24" s="25" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="19"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="12">
         <v>3</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="b">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="8">
         <v>1</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="18"/>
+      <c r="B28" s="17"/>
       <c r="H28" s="2" t="s">
         <v>62</v>
       </c>
@@ -2502,12 +2517,12 @@
       <c r="J28" s="2">
         <v>2</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="18"/>
+      <c r="B29" s="17"/>
       <c r="H29" s="2" t="s">
         <v>64</v>
       </c>
@@ -2517,12 +2532,12 @@
       <c r="J29" s="2">
         <v>3</v>
       </c>
-      <c r="K29" s="26" t="s">
+      <c r="K29" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="18"/>
+      <c r="B30" s="17"/>
       <c r="H30" s="2" t="s">
         <v>66</v>
       </c>
@@ -2532,12 +2547,12 @@
       <c r="J30" s="2">
         <v>4</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="18"/>
+      <c r="B31" s="17"/>
       <c r="H31" s="2" t="s">
         <v>68</v>
       </c>
@@ -2547,12 +2562,12 @@
       <c r="J31" s="2">
         <v>5</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="18"/>
+      <c r="B32" s="17"/>
       <c r="H32" s="2" t="s">
         <v>70</v>
       </c>
@@ -2562,54 +2577,54 @@
       <c r="J32" s="2">
         <v>6</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="19"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="12">
         <v>7</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="26" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="8">
         <v>1</v>
       </c>
-      <c r="K35" s="25" t="s">
+      <c r="K35" s="24" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="18"/>
+      <c r="B36" s="17"/>
       <c r="H36" s="2" t="s">
         <v>78</v>
       </c>
@@ -2619,12 +2634,12 @@
       <c r="J36" s="2">
         <v>2</v>
       </c>
-      <c r="K36" s="26" t="s">
+      <c r="K36" s="25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="18"/>
+      <c r="B37" s="17"/>
       <c r="H37" s="2" t="s">
         <v>81</v>
       </c>
@@ -2634,12 +2649,12 @@
       <c r="J37" s="2">
         <v>3</v>
       </c>
-      <c r="K37" s="26" t="s">
+      <c r="K37" s="25" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="18"/>
+      <c r="B38" s="17"/>
       <c r="H38" s="2" t="s">
         <v>84</v>
       </c>
@@ -2649,54 +2664,54 @@
       <c r="J38" s="2">
         <v>4</v>
       </c>
-      <c r="K38" s="26" t="s">
+      <c r="K38" s="25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="19"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="12">
         <v>5</v>
       </c>
-      <c r="K39" s="27" t="s">
+      <c r="K39" s="26" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="8">
         <v>1001</v>
       </c>
-      <c r="K41" s="25" t="s">
+      <c r="K41" s="24" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="18"/>
+      <c r="B42" s="17"/>
       <c r="H42" s="2" t="s">
         <v>94</v>
       </c>
@@ -2706,12 +2721,12 @@
       <c r="J42" s="2">
         <v>1002</v>
       </c>
-      <c r="K42" s="26" t="s">
+      <c r="K42" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="18"/>
+      <c r="B43" s="17"/>
       <c r="H43" s="2" t="s">
         <v>97</v>
       </c>
@@ -2721,12 +2736,12 @@
       <c r="J43" s="2">
         <v>1003</v>
       </c>
-      <c r="K43" s="26" t="s">
+      <c r="K43" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="18"/>
+      <c r="B44" s="17"/>
       <c r="H44" s="2" t="s">
         <v>100</v>
       </c>
@@ -2736,12 +2751,12 @@
       <c r="J44" s="2">
         <v>1004</v>
       </c>
-      <c r="K44" s="26" t="s">
+      <c r="K44" s="25" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="18"/>
+      <c r="B45" s="17"/>
       <c r="H45" s="2" t="s">
         <v>103</v>
       </c>
@@ -2751,16 +2766,16 @@
       <c r="J45" s="2">
         <v>1005</v>
       </c>
-      <c r="K45" s="26" t="s">
+      <c r="K45" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="18"/>
-      <c r="K46" s="26"/>
+      <c r="B46" s="17"/>
+      <c r="K46" s="25"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="18"/>
+      <c r="B47" s="17"/>
       <c r="H47" s="2" t="s">
         <v>106</v>
       </c>
@@ -2770,12 +2785,12 @@
       <c r="J47" s="2">
         <v>1101</v>
       </c>
-      <c r="K47" s="26" t="s">
+      <c r="K47" s="25" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="18"/>
+      <c r="B48" s="17"/>
       <c r="H48" s="2" t="s">
         <v>109</v>
       </c>
@@ -2785,12 +2800,12 @@
       <c r="J48" s="2">
         <v>1102</v>
       </c>
-      <c r="K48" s="26" t="s">
+      <c r="K48" s="25" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="18"/>
+      <c r="B49" s="17"/>
       <c r="H49" s="2" t="s">
         <v>112</v>
       </c>
@@ -2800,12 +2815,12 @@
       <c r="J49" s="2">
         <v>1103</v>
       </c>
-      <c r="K49" s="26" t="s">
+      <c r="K49" s="25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="18"/>
+      <c r="B50" s="17"/>
       <c r="H50" s="2" t="s">
         <v>115</v>
       </c>
@@ -2815,12 +2830,12 @@
       <c r="J50" s="2">
         <v>1104</v>
       </c>
-      <c r="K50" s="26" t="s">
+      <c r="K50" s="25" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="18"/>
+      <c r="B51" s="17"/>
       <c r="H51" s="2" t="s">
         <v>118</v>
       </c>
@@ -2830,12 +2845,12 @@
       <c r="J51" s="2">
         <v>1105</v>
       </c>
-      <c r="K51" s="26" t="s">
+      <c r="K51" s="25" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="18"/>
+      <c r="B52" s="17"/>
       <c r="H52" s="2" t="str">
         <f>(_xlfn.CONCAT(H51,"Base"))</f>
         <v>GamePropertyType_AtkBase</v>
@@ -2848,13 +2863,13 @@
         <f>J51*10+1</f>
         <v>11051</v>
       </c>
-      <c r="K52" s="26" t="str">
+      <c r="K52" s="25" t="str">
         <f>_xlfn.CONCAT(K51,"基础值")</f>
         <v>攻击基础值</v>
       </c>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="18"/>
+      <c r="B53" s="17"/>
       <c r="H53" s="2" t="str">
         <f t="shared" ref="H53:H55" si="0">_xlfn.CONCAT(H51,"Add")</f>
         <v>GamePropertyType_AtkAdd</v>
@@ -2867,13 +2882,13 @@
         <f>J51*10+2</f>
         <v>11052</v>
       </c>
-      <c r="K53" s="26" t="str">
+      <c r="K53" s="25" t="str">
         <f>_xlfn.CONCAT(K51,"附加值")</f>
         <v>攻击附加值</v>
       </c>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="18"/>
+      <c r="B54" s="17"/>
       <c r="H54" s="2" t="str">
         <f>_xlfn.CONCAT(H51,"Pct")</f>
         <v>GamePropertyType_AtkPct</v>
@@ -2886,13 +2901,13 @@
         <f>J51*10+3</f>
         <v>11053</v>
       </c>
-      <c r="K54" s="26" t="str">
+      <c r="K54" s="25" t="str">
         <f>_xlfn.CONCAT(K51,"百分比")</f>
         <v>攻击百分比</v>
       </c>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="18"/>
+      <c r="B55" s="17"/>
       <c r="H55" s="2" t="str">
         <f>_xlfn.CONCAT(H51,"FinalAdd")</f>
         <v>GamePropertyType_AtkFinalAdd</v>
@@ -2905,13 +2920,13 @@
         <f>J51*10+4</f>
         <v>11054</v>
       </c>
-      <c r="K55" s="26" t="str">
+      <c r="K55" s="25" t="str">
         <f>_xlfn.CONCAT(K51,"最终附加值")</f>
         <v>攻击最终附加值</v>
       </c>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="18"/>
+      <c r="B56" s="17"/>
       <c r="H56" s="2" t="str">
         <f>_xlfn.CONCAT(H51,"FinalPct")</f>
         <v>GamePropertyType_AtkFinalPct</v>
@@ -2924,13 +2939,13 @@
         <f>J51*10+5</f>
         <v>11055</v>
       </c>
-      <c r="K56" s="26" t="str">
+      <c r="K56" s="25" t="str">
         <f>_xlfn.CONCAT(K51,"最终百分比")</f>
         <v>攻击最终百分比</v>
       </c>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="18"/>
+      <c r="B57" s="17"/>
       <c r="H57" s="2" t="s">
         <v>121</v>
       </c>
@@ -2940,12 +2955,12 @@
       <c r="J57" s="2">
         <v>1106</v>
       </c>
-      <c r="K57" s="26" t="s">
+      <c r="K57" s="25" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="18"/>
+      <c r="B58" s="17"/>
       <c r="H58" s="2" t="str">
         <f>(_xlfn.CONCAT(H57,"Base"))</f>
         <v>GamePropertyType_DefBase</v>
@@ -2958,13 +2973,13 @@
         <f>J57*10+1</f>
         <v>11061</v>
       </c>
-      <c r="K58" s="26" t="str">
+      <c r="K58" s="25" t="str">
         <f>_xlfn.CONCAT(K57,"基础值")</f>
         <v>防御基础值</v>
       </c>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="18"/>
+      <c r="B59" s="17"/>
       <c r="H59" s="2" t="str">
         <f>_xlfn.CONCAT(H57,"Add")</f>
         <v>GamePropertyType_DefAdd</v>
@@ -2977,13 +2992,13 @@
         <f>J57*10+2</f>
         <v>11062</v>
       </c>
-      <c r="K59" s="26" t="str">
+      <c r="K59" s="25" t="str">
         <f>_xlfn.CONCAT(K57,"附加值")</f>
         <v>防御附加值</v>
       </c>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="18"/>
+      <c r="B60" s="17"/>
       <c r="H60" s="2" t="str">
         <f>_xlfn.CONCAT(H57,"Pct")</f>
         <v>GamePropertyType_DefPct</v>
@@ -2996,13 +3011,13 @@
         <f>J57*10+3</f>
         <v>11063</v>
       </c>
-      <c r="K60" s="26" t="str">
+      <c r="K60" s="25" t="str">
         <f>_xlfn.CONCAT(K57,"百分比")</f>
         <v>防御百分比</v>
       </c>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="18"/>
+      <c r="B61" s="17"/>
       <c r="H61" s="2" t="str">
         <f>_xlfn.CONCAT(H57,"FinalAdd")</f>
         <v>GamePropertyType_DefFinalAdd</v>
@@ -3015,13 +3030,13 @@
         <f>J57*10+4</f>
         <v>11064</v>
       </c>
-      <c r="K61" s="26" t="str">
+      <c r="K61" s="25" t="str">
         <f>_xlfn.CONCAT(K57,"最终附加值")</f>
         <v>防御最终附加值</v>
       </c>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="18"/>
+      <c r="B62" s="17"/>
       <c r="H62" s="2" t="str">
         <f>_xlfn.CONCAT(H57,"FinalPct")</f>
         <v>GamePropertyType_DefFinalPct</v>
@@ -3034,13 +3049,13 @@
         <f>J57*10+5</f>
         <v>11065</v>
       </c>
-      <c r="K62" s="26" t="str">
+      <c r="K62" s="25" t="str">
         <f>_xlfn.CONCAT(K57,"最终百分比")</f>
         <v>防御最终百分比</v>
       </c>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="18"/>
+      <c r="B63" s="17"/>
       <c r="H63" s="2" t="s">
         <v>124</v>
       </c>
@@ -3050,12 +3065,12 @@
       <c r="J63" s="2">
         <v>1107</v>
       </c>
-      <c r="K63" s="26" t="s">
+      <c r="K63" s="25" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="18"/>
+      <c r="B64" s="17"/>
       <c r="H64" s="2" t="str">
         <f>(_xlfn.CONCAT(H63,"Base"))</f>
         <v>GamePropertyType_HitBase</v>
@@ -3068,13 +3083,13 @@
         <f>J63*10+1</f>
         <v>11071</v>
       </c>
-      <c r="K64" s="26" t="str">
+      <c r="K64" s="25" t="str">
         <f>_xlfn.CONCAT(K63,"基础值")</f>
         <v>命中基础值</v>
       </c>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="18"/>
+      <c r="B65" s="17"/>
       <c r="H65" s="2" t="str">
         <f>_xlfn.CONCAT(H63,"Add")</f>
         <v>GamePropertyType_HitAdd</v>
@@ -3087,13 +3102,13 @@
         <f>J63*10+2</f>
         <v>11072</v>
       </c>
-      <c r="K65" s="26" t="str">
+      <c r="K65" s="25" t="str">
         <f>_xlfn.CONCAT(K63,"附加值")</f>
         <v>命中附加值</v>
       </c>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="18"/>
+      <c r="B66" s="17"/>
       <c r="H66" s="2" t="str">
         <f>_xlfn.CONCAT(H63,"Pct")</f>
         <v>GamePropertyType_HitPct</v>
@@ -3106,13 +3121,13 @@
         <f>J63*10+3</f>
         <v>11073</v>
       </c>
-      <c r="K66" s="26" t="str">
+      <c r="K66" s="25" t="str">
         <f>_xlfn.CONCAT(K63,"百分比")</f>
         <v>命中百分比</v>
       </c>
     </row>
     <row r="67" spans="2:11">
-      <c r="B67" s="18"/>
+      <c r="B67" s="17"/>
       <c r="H67" s="2" t="str">
         <f>_xlfn.CONCAT(H63,"FinalAdd")</f>
         <v>GamePropertyType_HitFinalAdd</v>
@@ -3125,13 +3140,13 @@
         <f>J63*10+4</f>
         <v>11074</v>
       </c>
-      <c r="K67" s="26" t="str">
+      <c r="K67" s="25" t="str">
         <f>_xlfn.CONCAT(K63,"最终附加值")</f>
         <v>命中最终附加值</v>
       </c>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="18"/>
+      <c r="B68" s="17"/>
       <c r="H68" s="2" t="str">
         <f>_xlfn.CONCAT(H63,"FinalPct")</f>
         <v>GamePropertyType_HitFinalPct</v>
@@ -3144,13 +3159,13 @@
         <f>J63*10+5</f>
         <v>11075</v>
       </c>
-      <c r="K68" s="26" t="str">
+      <c r="K68" s="25" t="str">
         <f>_xlfn.CONCAT(K63,"最终百分比")</f>
         <v>命中最终百分比</v>
       </c>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="18"/>
+      <c r="B69" s="17"/>
       <c r="H69" s="2" t="s">
         <v>127</v>
       </c>
@@ -3160,12 +3175,12 @@
       <c r="J69" s="2">
         <v>1108</v>
       </c>
-      <c r="K69" s="26" t="s">
+      <c r="K69" s="25" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="18"/>
+      <c r="B70" s="17"/>
       <c r="H70" s="2" t="str">
         <f>(_xlfn.CONCAT(H69,"Base"))</f>
         <v>GamePropertyType_CritBase</v>
@@ -3178,13 +3193,13 @@
         <f>J69*10+1</f>
         <v>11081</v>
       </c>
-      <c r="K70" s="26" t="str">
+      <c r="K70" s="25" t="str">
         <f>_xlfn.CONCAT(K69,"基础值")</f>
         <v>暴击基础值</v>
       </c>
     </row>
     <row r="71" spans="2:11">
-      <c r="B71" s="18"/>
+      <c r="B71" s="17"/>
       <c r="H71" s="2" t="str">
         <f>_xlfn.CONCAT(H69,"Add")</f>
         <v>GamePropertyType_CritAdd</v>
@@ -3197,13 +3212,13 @@
         <f>J69*10+2</f>
         <v>11082</v>
       </c>
-      <c r="K71" s="26" t="str">
+      <c r="K71" s="25" t="str">
         <f>_xlfn.CONCAT(K69,"附加值")</f>
         <v>暴击附加值</v>
       </c>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="18"/>
+      <c r="B72" s="17"/>
       <c r="H72" s="2" t="str">
         <f>_xlfn.CONCAT(H69,"Pct")</f>
         <v>GamePropertyType_CritPct</v>
@@ -3216,13 +3231,13 @@
         <f>J69*10+3</f>
         <v>11083</v>
       </c>
-      <c r="K72" s="26" t="str">
+      <c r="K72" s="25" t="str">
         <f>_xlfn.CONCAT(K69,"百分比")</f>
         <v>暴击百分比</v>
       </c>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="18"/>
+      <c r="B73" s="17"/>
       <c r="H73" s="2" t="str">
         <f>_xlfn.CONCAT(H69,"FinalAdd")</f>
         <v>GamePropertyType_CritFinalAdd</v>
@@ -3235,59 +3250,59 @@
         <f>J69*10+4</f>
         <v>11084</v>
       </c>
-      <c r="K73" s="26" t="str">
+      <c r="K73" s="25" t="str">
         <f>_xlfn.CONCAT(K69,"最终附加值")</f>
         <v>暴击最终附加值</v>
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="19"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="13" t="str">
+      <c r="B74" s="18"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="12" t="str">
         <f>_xlfn.CONCAT(H69,"FinalPct")</f>
         <v>GamePropertyType_CritFinalPct</v>
       </c>
-      <c r="I74" s="13" t="str">
+      <c r="I74" s="12" t="str">
         <f>_xlfn.CONCAT(I69,"FinalPct")</f>
         <v>CritFinalPct</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J74" s="12">
         <f>J69*10+5</f>
         <v>11085</v>
       </c>
-      <c r="K74" s="27" t="str">
+      <c r="K74" s="26" t="str">
         <f>_xlfn.CONCAT(K69,"最终百分比")</f>
         <v>暴击最终百分比</v>
       </c>
     </row>
     <row r="76" spans="2:11">
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="9" t="s">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I76" s="9" t="s">
+      <c r="I76" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J76" s="9">
+      <c r="J76" s="8">
         <v>1</v>
       </c>
-      <c r="K76" s="25" t="s">
+      <c r="K76" s="24" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="18"/>
+      <c r="B77" s="17"/>
       <c r="H77" s="2" t="s">
         <v>134</v>
       </c>
@@ -3297,12 +3312,12 @@
       <c r="J77" s="2">
         <v>2</v>
       </c>
-      <c r="K77" s="26" t="s">
+      <c r="K77" s="25" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="78" spans="2:11">
-      <c r="B78" s="18"/>
+      <c r="B78" s="17"/>
       <c r="H78" s="2" t="s">
         <v>137</v>
       </c>
@@ -3312,50 +3327,50 @@
       <c r="J78" s="2">
         <v>3</v>
       </c>
-      <c r="K78" s="26" t="s">
+      <c r="K78" s="25" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="19"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="13" t="s">
+      <c r="B79" s="18"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="I79" s="13" t="s">
+      <c r="I79" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J79" s="12">
         <v>4</v>
       </c>
-      <c r="K79" s="27" t="s">
+      <c r="K79" s="26" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="9" t="s">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9">
+      <c r="I81" s="8"/>
+      <c r="J81" s="8">
         <v>0</v>
       </c>
-      <c r="K81" s="25"/>
+      <c r="K81" s="24"/>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="18"/>
+      <c r="B82" s="17"/>
       <c r="H82" s="2" t="s">
         <v>145</v>
       </c>
@@ -3365,12 +3380,12 @@
       <c r="J82" s="2">
         <v>1</v>
       </c>
-      <c r="K82" s="26" t="s">
+      <c r="K82" s="25" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="18"/>
+      <c r="B83" s="17"/>
       <c r="H83" s="2" t="s">
         <v>148</v>
       </c>
@@ -3380,12 +3395,12 @@
       <c r="J83" s="2">
         <v>2</v>
       </c>
-      <c r="K83" s="26" t="s">
+      <c r="K83" s="25" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" s="18"/>
+      <c r="B84" s="17"/>
       <c r="H84" s="2" t="s">
         <v>150</v>
       </c>
@@ -3395,12 +3410,12 @@
       <c r="J84" s="2">
         <v>3</v>
       </c>
-      <c r="K84" s="26" t="s">
+      <c r="K84" s="25" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="18"/>
+      <c r="B85" s="17"/>
       <c r="H85" s="2" t="s">
         <v>152</v>
       </c>
@@ -3410,12 +3425,12 @@
       <c r="J85" s="2">
         <v>4</v>
       </c>
-      <c r="K85" s="26" t="s">
+      <c r="K85" s="25" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="18"/>
+      <c r="B86" s="17"/>
       <c r="H86" s="2" t="s">
         <v>154</v>
       </c>
@@ -3425,12 +3440,12 @@
       <c r="J86" s="2">
         <v>5</v>
       </c>
-      <c r="K86" s="26" t="s">
+      <c r="K86" s="25" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="87" spans="2:11">
-      <c r="B87" s="18"/>
+      <c r="B87" s="17"/>
       <c r="H87" s="2" t="s">
         <v>156</v>
       </c>
@@ -3440,12 +3455,12 @@
       <c r="J87" s="2">
         <v>6</v>
       </c>
-      <c r="K87" s="26" t="s">
+      <c r="K87" s="25" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="88" spans="2:11">
-      <c r="B88" s="18"/>
+      <c r="B88" s="17"/>
       <c r="H88" s="2" t="s">
         <v>158</v>
       </c>
@@ -3455,12 +3470,12 @@
       <c r="J88" s="2">
         <v>7</v>
       </c>
-      <c r="K88" s="26" t="s">
+      <c r="K88" s="25" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="89" spans="2:11">
-      <c r="B89" s="18"/>
+      <c r="B89" s="17"/>
       <c r="H89" s="2" t="s">
         <v>160</v>
       </c>
@@ -3470,96 +3485,96 @@
       <c r="J89" s="2">
         <v>8</v>
       </c>
-      <c r="K89" s="26" t="s">
+      <c r="K89" s="25" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="90" spans="2:11">
-      <c r="B90" s="19"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="13" t="s">
+      <c r="B90" s="18"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="I90" s="13" t="s">
+      <c r="I90" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J90" s="12">
         <v>9</v>
       </c>
-      <c r="K90" s="27" t="s">
+      <c r="K90" s="26" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="9" t="s">
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="I92" s="9" t="s">
+      <c r="I92" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="J92" s="9">
+      <c r="J92" s="8">
         <v>1</v>
       </c>
-      <c r="K92" s="25" t="s">
+      <c r="K92" s="24" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="93" spans="2:11">
-      <c r="B93" s="19"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="13" t="s">
+      <c r="B93" s="18"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="I93" s="13" t="s">
+      <c r="I93" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="J93" s="13">
+      <c r="J93" s="12">
         <v>2</v>
       </c>
-      <c r="K93" s="27" t="s">
+      <c r="K93" s="26" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="95" spans="2:11">
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="9" t="s">
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I95" s="9" t="s">
+      <c r="I95" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="J95" s="9">
+      <c r="J95" s="8">
         <v>1</v>
       </c>
-      <c r="K95" s="25" t="s">
+      <c r="K95" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="18"/>
+      <c r="B96" s="17"/>
       <c r="H96" s="2" t="s">
         <v>172</v>
       </c>
@@ -3569,12 +3584,12 @@
       <c r="J96" s="2">
         <v>2</v>
       </c>
-      <c r="K96" s="26" t="s">
+      <c r="K96" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="97" spans="2:11">
-      <c r="B97" s="18"/>
+      <c r="B97" s="17"/>
       <c r="H97" s="2" t="s">
         <v>174</v>
       </c>
@@ -3584,54 +3599,54 @@
       <c r="J97" s="2">
         <v>3</v>
       </c>
-      <c r="K97" s="26" t="s">
+      <c r="K97" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="98" spans="2:11">
-      <c r="B98" s="19"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="13" t="s">
+      <c r="B98" s="18"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="I98" s="13" t="s">
+      <c r="I98" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="J98" s="13">
+      <c r="J98" s="12">
         <v>4</v>
       </c>
-      <c r="K98" s="27" t="s">
+      <c r="K98" s="26" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="100" spans="2:11">
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8" t="s">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I100" s="9" t="s">
+      <c r="I100" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="J100" s="9">
+      <c r="J100" s="8">
         <v>1</v>
       </c>
-      <c r="K100" s="25" t="s">
+      <c r="K100" s="24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="101" spans="2:11">
-      <c r="B101" s="18"/>
+      <c r="B101" s="17"/>
       <c r="H101" s="1" t="s">
         <v>182</v>
       </c>
@@ -3641,12 +3656,12 @@
       <c r="J101" s="2">
         <v>2</v>
       </c>
-      <c r="K101" s="26" t="s">
+      <c r="K101" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="102" spans="2:11">
-      <c r="B102" s="18"/>
+      <c r="B102" s="17"/>
       <c r="H102" s="1" t="s">
         <v>184</v>
       </c>
@@ -3656,54 +3671,54 @@
       <c r="J102" s="2">
         <v>3</v>
       </c>
-      <c r="K102" s="26" t="s">
+      <c r="K102" s="25" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="103" spans="2:11">
-      <c r="B103" s="19"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12" t="s">
+      <c r="B103" s="18"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I103" s="13" t="s">
+      <c r="I103" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="J103" s="13">
+      <c r="J103" s="12">
         <v>4</v>
       </c>
-      <c r="K103" s="27" t="s">
+      <c r="K103" s="26" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="105" spans="2:11">
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="9" t="s">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="I105" s="9" t="s">
+      <c r="I105" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="J105" s="9">
+      <c r="J105" s="8">
         <v>1</v>
       </c>
-      <c r="K105" s="25" t="s">
+      <c r="K105" s="24" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="106" spans="2:11">
-      <c r="B106" s="18"/>
+      <c r="B106" s="17"/>
       <c r="H106" s="2" t="s">
         <v>191</v>
       </c>
@@ -3713,12 +3728,12 @@
       <c r="J106" s="2">
         <v>2</v>
       </c>
-      <c r="K106" s="26" t="s">
+      <c r="K106" s="25" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="107" spans="2:11">
-      <c r="B107" s="18"/>
+      <c r="B107" s="17"/>
       <c r="H107" s="2" t="s">
         <v>193</v>
       </c>
@@ -3728,54 +3743,54 @@
       <c r="J107" s="2">
         <v>3</v>
       </c>
-      <c r="K107" s="26" t="s">
+      <c r="K107" s="25" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" s="19"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="13" t="s">
+      <c r="B108" s="18"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="I108" s="13" t="s">
+      <c r="I108" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="J108" s="13">
+      <c r="J108" s="12">
         <v>4</v>
       </c>
-      <c r="K108" s="27" t="s">
+      <c r="K108" s="26" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="110" spans="2:11">
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="9" t="s">
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="I110" s="9" t="s">
+      <c r="I110" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="J110" s="9">
+      <c r="J110" s="8">
         <v>1</v>
       </c>
-      <c r="K110" s="25" t="s">
+      <c r="K110" s="24" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="111" spans="2:11">
-      <c r="B111" s="18"/>
+      <c r="B111" s="17"/>
       <c r="H111" s="2" t="s">
         <v>200</v>
       </c>
@@ -3785,12 +3800,12 @@
       <c r="J111" s="2">
         <v>2</v>
       </c>
-      <c r="K111" s="26" t="s">
+      <c r="K111" s="25" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="112" spans="2:11">
-      <c r="B112" s="18"/>
+      <c r="B112" s="17"/>
       <c r="H112" s="2" t="s">
         <v>202</v>
       </c>
@@ -3800,12 +3815,12 @@
       <c r="J112" s="2">
         <v>3</v>
       </c>
-      <c r="K112" s="26" t="s">
+      <c r="K112" s="25" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="113" spans="2:11">
-      <c r="B113" s="18"/>
+      <c r="B113" s="17"/>
       <c r="H113" s="2" t="s">
         <v>204</v>
       </c>
@@ -3815,54 +3830,54 @@
       <c r="J113" s="2">
         <v>4</v>
       </c>
-      <c r="K113" s="26" t="s">
+      <c r="K113" s="25" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" s="19"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="13" t="s">
+      <c r="B114" s="18"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="I114" s="13" t="s">
+      <c r="I114" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="J114" s="13">
+      <c r="J114" s="12">
         <v>5</v>
       </c>
-      <c r="K114" s="27" t="s">
+      <c r="K114" s="26" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="116" spans="2:11">
-      <c r="B116" s="17" t="s">
+      <c r="B116" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="9" t="s">
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="I116" s="9" t="s">
+      <c r="I116" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="J116" s="9">
+      <c r="J116" s="8">
         <v>1</v>
       </c>
-      <c r="K116" s="25" t="s">
+      <c r="K116" s="24" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="117" spans="2:11">
-      <c r="B117" s="18"/>
+      <c r="B117" s="17"/>
       <c r="H117" s="2" t="s">
         <v>211</v>
       </c>
@@ -3872,57 +3887,57 @@
       <c r="J117" s="2">
         <v>2</v>
       </c>
-      <c r="K117" s="26" t="s">
+      <c r="K117" s="25" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="118" spans="2:11">
-      <c r="B118" s="19"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="13" t="s">
+      <c r="B118" s="18"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="I118" s="13" t="s">
+      <c r="I118" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="J118" s="13">
+      <c r="J118" s="12">
         <v>3</v>
       </c>
-      <c r="K118" s="27" t="s">
+      <c r="K118" s="26" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="120" spans="2:11">
-      <c r="B120" s="17" t="s">
+      <c r="B120" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C120" s="8" t="b">
+      <c r="C120" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="9" t="s">
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="I120" s="9" t="s">
+      <c r="I120" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="J120" s="9">
+      <c r="J120" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K120" s="25" t="s">
+      <c r="K120" s="24" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="121" spans="2:11">
-      <c r="B121" s="18"/>
+      <c r="B121" s="17"/>
       <c r="H121" s="2" t="s">
         <v>218</v>
       </c>
@@ -3933,12 +3948,12 @@
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K121" s="26" t="s">
+      <c r="K121" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="122" spans="2:11">
-      <c r="B122" s="18"/>
+      <c r="B122" s="17"/>
       <c r="H122" s="2" t="s">
         <v>220</v>
       </c>
@@ -3949,12 +3964,12 @@
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K122" s="26" t="s">
+      <c r="K122" s="25" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="123" spans="2:11">
-      <c r="B123" s="18"/>
+      <c r="B123" s="17"/>
       <c r="H123" s="2" t="s">
         <v>222</v>
       </c>
@@ -3965,12 +3980,12 @@
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K123" s="26" t="s">
+      <c r="K123" s="25" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="124" spans="2:11">
-      <c r="B124" s="18"/>
+      <c r="B124" s="17"/>
       <c r="H124" s="2" t="s">
         <v>224</v>
       </c>
@@ -3981,12 +3996,12 @@
         <f>POWER(2,4)</f>
         <v>16</v>
       </c>
-      <c r="K124" s="26" t="s">
+      <c r="K124" s="25" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="125" spans="2:11">
-      <c r="B125" s="18"/>
+      <c r="B125" s="17"/>
       <c r="H125" s="2" t="s">
         <v>226</v>
       </c>
@@ -3997,12 +4012,12 @@
         <f>POWER(2,5)</f>
         <v>32</v>
       </c>
-      <c r="K125" s="26" t="s">
+      <c r="K125" s="25" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="126" spans="2:11">
-      <c r="B126" s="18"/>
+      <c r="B126" s="17"/>
       <c r="H126" s="2" t="s">
         <v>228</v>
       </c>
@@ -4013,12 +4028,12 @@
         <f>POWER(2,6)</f>
         <v>64</v>
       </c>
-      <c r="K126" s="26" t="s">
+      <c r="K126" s="25" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="127" spans="2:11">
-      <c r="B127" s="18"/>
+      <c r="B127" s="17"/>
       <c r="H127" s="2" t="s">
         <v>230</v>
       </c>
@@ -4029,12 +4044,12 @@
         <f>POWER(2,7)</f>
         <v>128</v>
       </c>
-      <c r="K127" s="26" t="s">
+      <c r="K127" s="25" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="128" spans="2:11">
-      <c r="B128" s="18"/>
+      <c r="B128" s="17"/>
       <c r="H128" s="2" t="s">
         <v>232</v>
       </c>
@@ -4045,58 +4060,58 @@
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K128" s="26" t="s">
+      <c r="K128" s="25" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="129" spans="2:11">
-      <c r="B129" s="19"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="13" t="s">
+      <c r="B129" s="18"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="I129" s="13" t="s">
+      <c r="I129" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="J129" s="13">
+      <c r="J129" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K129" s="27" t="s">
+      <c r="K129" s="26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="131" spans="2:11">
-      <c r="B131" s="17" t="s">
+      <c r="B131" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C131" s="8" t="b">
+      <c r="C131" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="9" t="s">
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="I131" s="9" t="s">
+      <c r="I131" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="J131" s="9">
+      <c r="J131" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K131" s="25" t="s">
+      <c r="K131" s="24" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="132" spans="2:11">
-      <c r="B132" s="18"/>
+      <c r="B132" s="17"/>
       <c r="H132" s="2" t="s">
         <v>239</v>
       </c>
@@ -4107,12 +4122,12 @@
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K132" s="26" t="s">
+      <c r="K132" s="25" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="133" spans="2:11">
-      <c r="B133" s="18"/>
+      <c r="B133" s="17"/>
       <c r="H133" s="2" t="s">
         <v>241</v>
       </c>
@@ -4123,12 +4138,12 @@
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K133" s="26" t="s">
+      <c r="K133" s="25" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="134" spans="2:11">
-      <c r="B134" s="18"/>
+      <c r="B134" s="17"/>
       <c r="H134" s="2" t="s">
         <v>243</v>
       </c>
@@ -4139,12 +4154,12 @@
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K134" s="26" t="s">
+      <c r="K134" s="25" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="135" spans="2:11">
-      <c r="B135" s="18"/>
+      <c r="B135" s="17"/>
       <c r="H135" s="2" t="s">
         <v>245</v>
       </c>
@@ -4155,12 +4170,12 @@
         <f>POWER(2,4)</f>
         <v>16</v>
       </c>
-      <c r="K135" s="26" t="s">
+      <c r="K135" s="25" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="136" spans="2:11">
-      <c r="B136" s="18"/>
+      <c r="B136" s="17"/>
       <c r="H136" s="2" t="s">
         <v>247</v>
       </c>
@@ -4171,12 +4186,12 @@
         <f>POWER(2,5)</f>
         <v>32</v>
       </c>
-      <c r="K136" s="26" t="s">
+      <c r="K136" s="25" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="137" spans="2:11">
-      <c r="B137" s="18"/>
+      <c r="B137" s="17"/>
       <c r="H137" s="2" t="s">
         <v>249</v>
       </c>
@@ -4187,12 +4202,12 @@
         <f>POWER(2,6)</f>
         <v>64</v>
       </c>
-      <c r="K137" s="26" t="s">
+      <c r="K137" s="25" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="138" spans="2:11">
-      <c r="B138" s="18"/>
+      <c r="B138" s="17"/>
       <c r="H138" s="2" t="s">
         <v>251</v>
       </c>
@@ -4203,12 +4218,12 @@
         <f>POWER(2,7)</f>
         <v>128</v>
       </c>
-      <c r="K138" s="26" t="s">
+      <c r="K138" s="25" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="139" spans="2:11">
-      <c r="B139" s="18"/>
+      <c r="B139" s="17"/>
       <c r="H139" s="2" t="s">
         <v>253</v>
       </c>
@@ -4219,121 +4234,195 @@
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K139" s="26" t="s">
+      <c r="K139" s="25" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="140" spans="2:11">
-      <c r="B140" s="19"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="13" t="s">
+      <c r="B140" s="18"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="I140" s="13" t="s">
+      <c r="I140" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="J140" s="13">
+      <c r="J140" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K140" s="27" t="s">
+      <c r="K140" s="26" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="142" spans="2:11">
-      <c r="B142" s="28" t="s">
+      <c r="B142" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C142" s="29" t="b">
+      <c r="C142" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D142" s="29"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="29"/>
-      <c r="H142" s="30" t="s">
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="I142" s="30" t="s">
+      <c r="I142" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="J142" s="30">
+      <c r="J142" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K142" s="39" t="s">
+      <c r="K142" s="24" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="143" spans="2:11">
-      <c r="B143" s="31"/>
-      <c r="C143" s="32"/>
-      <c r="D143" s="32"/>
-      <c r="E143" s="32"/>
-      <c r="F143" s="32"/>
-      <c r="G143" s="32"/>
-      <c r="H143" s="33" t="s">
+      <c r="B143" s="17"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="I143" s="33" t="s">
+      <c r="I143" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="J143" s="33">
+      <c r="J143" s="28">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K143" s="40" t="s">
+      <c r="K143" s="25" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="144" spans="2:11">
-      <c r="B144" s="31"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="34"/>
-      <c r="E144" s="34"/>
-      <c r="F144" s="34"/>
-      <c r="G144" s="34"/>
-      <c r="H144" s="35" t="s">
+      <c r="B144" s="17"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="I144" s="35" t="s">
+      <c r="I144" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="J144" s="33">
+      <c r="J144" s="28">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K144" s="41" t="s">
+      <c r="K144" s="25" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="145" spans="2:11">
-      <c r="B145" s="36"/>
-      <c r="C145" s="37"/>
-      <c r="D145" s="37"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="38" t="s">
+      <c r="B145" s="18"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="I145" s="38" t="s">
+      <c r="I145" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="J145" s="38">
+      <c r="J145" s="12">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K145" s="42" t="s">
+      <c r="K145" s="26" t="s">
         <v>265</v>
       </c>
     </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C147" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="I147" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="J147" s="31">
+        <v>1</v>
+      </c>
+      <c r="K147" s="36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" s="32"/>
+      <c r="H148" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J148" s="2">
+        <v>2</v>
+      </c>
+      <c r="K148" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11">
+      <c r="B149" s="32"/>
+      <c r="H149" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J149" s="2">
+        <v>3</v>
+      </c>
+      <c r="K149" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="B150" s="33"/>
+      <c r="C150" s="34"/>
+      <c r="D150" s="34"/>
+      <c r="E150" s="34"/>
+      <c r="F150" s="34"/>
+      <c r="G150" s="34"/>
+      <c r="H150" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="I150" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="J150" s="35">
+        <v>4</v>
+      </c>
+      <c r="K150" s="38" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B12:B15"/>
@@ -4353,6 +4442,7 @@
     <mergeCell ref="B120:B129"/>
     <mergeCell ref="B131:B140"/>
     <mergeCell ref="B142:B145"/>
+    <mergeCell ref="B147:B150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18465" windowHeight="8325"/>
+    <workbookView windowWidth="20175" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="277">
   <si>
     <t>##var</t>
   </si>
@@ -591,6 +591,12 @@
   </si>
   <si>
     <t>世界boss1</t>
+  </si>
+  <si>
+    <t>ActivityType_Shop</t>
+  </si>
+  <si>
+    <t>随身商店</t>
   </si>
   <si>
     <t>ChatChannel</t>
@@ -1622,7 +1628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1704,12 +1710,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1725,19 +1755,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2059,10 +2080,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L150"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="I150" sqref="I150"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3624,7 +3645,7 @@
       </c>
     </row>
     <row r="100" spans="2:11">
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="27" t="s">
         <v>179</v>
       </c>
       <c r="C100" s="7"/>
@@ -3646,14 +3667,19 @@
       </c>
     </row>
     <row r="101" spans="2:11">
-      <c r="B101" s="17"/>
-      <c r="H101" s="1" t="s">
+      <c r="B101" s="28"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="I101" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="J101" s="2">
+      <c r="J101" s="34">
         <v>2</v>
       </c>
       <c r="K101" s="25" t="s">
@@ -3661,14 +3687,19 @@
       </c>
     </row>
     <row r="102" spans="2:11">
-      <c r="B102" s="17"/>
-      <c r="H102" s="1" t="s">
+      <c r="B102" s="28"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="I102" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="J102" s="2">
+      <c r="J102" s="34">
         <v>3</v>
       </c>
       <c r="K102" s="25" t="s">
@@ -3676,59 +3707,64 @@
       </c>
     </row>
     <row r="103" spans="2:11">
-      <c r="B103" s="18"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11" t="s">
+      <c r="B103" s="28"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="I103" s="12" t="s">
+      <c r="I103" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="J103" s="12">
+      <c r="J103" s="35">
         <v>4</v>
       </c>
-      <c r="K103" s="26" t="s">
+      <c r="K103" s="25" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
-      <c r="B105" s="16" t="s">
+    <row r="104" spans="2:11">
+      <c r="B104" s="31"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="8" t="s">
+      <c r="I104" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="I105" s="8" t="s">
+      <c r="J104" s="33">
+        <v>5</v>
+      </c>
+      <c r="K104" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="J105" s="8">
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J106" s="8">
         <v>1</v>
       </c>
-      <c r="K105" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11">
-      <c r="B106" s="17"/>
-      <c r="H106" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J106" s="2">
-        <v>2</v>
-      </c>
-      <c r="K106" s="25" t="s">
+      <c r="K106" s="24" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3741,66 +3777,66 @@
         <v>194</v>
       </c>
       <c r="J107" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K107" s="25" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" s="18"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="12" t="s">
+      <c r="B108" s="17"/>
+      <c r="H108" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I108" s="12" t="s">
+      <c r="I108" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J108" s="12">
+      <c r="J108" s="2">
+        <v>3</v>
+      </c>
+      <c r="K108" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="18"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="J109" s="12">
         <v>4</v>
       </c>
-      <c r="K108" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11">
-      <c r="B110" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="8" t="s">
+      <c r="K109" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="I110" s="8" t="s">
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="J110" s="8">
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="J111" s="8">
         <v>1</v>
       </c>
-      <c r="K110" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11">
-      <c r="B111" s="17"/>
-      <c r="H111" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J111" s="2">
-        <v>2</v>
-      </c>
-      <c r="K111" s="25" t="s">
+      <c r="K111" s="24" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3813,7 +3849,7 @@
         <v>203</v>
       </c>
       <c r="J112" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K112" s="25" t="s">
         <v>203</v>
@@ -3828,127 +3864,126 @@
         <v>205</v>
       </c>
       <c r="J113" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K113" s="25" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" s="18"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="12" t="s">
+      <c r="B114" s="17"/>
+      <c r="H114" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I114" s="12" t="s">
+      <c r="I114" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J114" s="12">
+      <c r="J114" s="2">
+        <v>4</v>
+      </c>
+      <c r="K114" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115" s="18"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="J115" s="12">
         <v>5</v>
       </c>
-      <c r="K114" s="26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11">
-      <c r="B116" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="8" t="s">
+      <c r="K115" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="I116" s="8" t="s">
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="J116" s="8">
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J117" s="8">
         <v>1</v>
       </c>
-      <c r="K116" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11">
-      <c r="B117" s="17"/>
-      <c r="H117" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I117" s="2" t="s">
+      <c r="K117" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="J117" s="2">
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="17"/>
+      <c r="H118" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J118" s="2">
         <v>2</v>
       </c>
-      <c r="K117" s="25" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11">
-      <c r="B118" s="18"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I118" s="12" t="s">
+      <c r="K118" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="J118" s="12">
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119" s="18"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J119" s="12">
         <v>3</v>
       </c>
-      <c r="K118" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11">
-      <c r="B120" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C120" s="7" t="b">
+      <c r="K119" s="26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C121" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I120" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="J120" s="8">
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="J121" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K120" s="24" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11">
-      <c r="B121" s="17"/>
-      <c r="H121" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J121" s="2">
-        <f>POWER(2,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K121" s="25" t="s">
+      <c r="K121" s="24" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3961,8 +3996,8 @@
         <v>221</v>
       </c>
       <c r="J122" s="2">
-        <f>POWER(2,2)</f>
-        <v>4</v>
+        <f>POWER(2,1)</f>
+        <v>2</v>
       </c>
       <c r="K122" s="25" t="s">
         <v>221</v>
@@ -3977,8 +4012,8 @@
         <v>223</v>
       </c>
       <c r="J123" s="2">
-        <f>POWER(2,3)</f>
-        <v>8</v>
+        <f>POWER(2,2)</f>
+        <v>4</v>
       </c>
       <c r="K123" s="25" t="s">
         <v>223</v>
@@ -3993,8 +4028,8 @@
         <v>225</v>
       </c>
       <c r="J124" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
+        <f>POWER(2,3)</f>
+        <v>8</v>
       </c>
       <c r="K124" s="25" t="s">
         <v>225</v>
@@ -4009,8 +4044,8 @@
         <v>227</v>
       </c>
       <c r="J125" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
+        <f>POWER(2,4)</f>
+        <v>16</v>
       </c>
       <c r="K125" s="25" t="s">
         <v>227</v>
@@ -4025,8 +4060,8 @@
         <v>229</v>
       </c>
       <c r="J126" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
+        <f>POWER(2,5)</f>
+        <v>32</v>
       </c>
       <c r="K126" s="25" t="s">
         <v>229</v>
@@ -4041,8 +4076,8 @@
         <v>231</v>
       </c>
       <c r="J127" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
+        <f>POWER(2,6)</f>
+        <v>64</v>
       </c>
       <c r="K127" s="25" t="s">
         <v>231</v>
@@ -4057,72 +4092,72 @@
         <v>233</v>
       </c>
       <c r="J128" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K128" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="17"/>
+      <c r="H129" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J129" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K128" s="25" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="129" spans="2:11">
-      <c r="B129" s="18"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="I129" s="12" t="s">
+      <c r="K129" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="J129" s="12">
+    </row>
+    <row r="130" spans="2:11">
+      <c r="B130" s="18"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="J130" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K129" s="26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11">
-      <c r="B131" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C131" s="7" t="b">
+      <c r="K130" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C132" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I131" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="J131" s="8">
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J132" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K131" s="24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11">
-      <c r="B132" s="17"/>
-      <c r="H132" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J132" s="2">
-        <f>POWER(2,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K132" s="25" t="s">
+      <c r="K132" s="24" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4135,8 +4170,8 @@
         <v>242</v>
       </c>
       <c r="J133" s="2">
-        <f>POWER(2,2)</f>
-        <v>4</v>
+        <f>POWER(2,1)</f>
+        <v>2</v>
       </c>
       <c r="K133" s="25" t="s">
         <v>242</v>
@@ -4151,8 +4186,8 @@
         <v>244</v>
       </c>
       <c r="J134" s="2">
-        <f>POWER(2,3)</f>
-        <v>8</v>
+        <f>POWER(2,2)</f>
+        <v>4</v>
       </c>
       <c r="K134" s="25" t="s">
         <v>244</v>
@@ -4167,8 +4202,8 @@
         <v>246</v>
       </c>
       <c r="J135" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
+        <f>POWER(2,3)</f>
+        <v>8</v>
       </c>
       <c r="K135" s="25" t="s">
         <v>246</v>
@@ -4183,8 +4218,8 @@
         <v>248</v>
       </c>
       <c r="J136" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
+        <f>POWER(2,4)</f>
+        <v>16</v>
       </c>
       <c r="K136" s="25" t="s">
         <v>248</v>
@@ -4199,8 +4234,8 @@
         <v>250</v>
       </c>
       <c r="J137" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
+        <f>POWER(2,5)</f>
+        <v>32</v>
       </c>
       <c r="K137" s="25" t="s">
         <v>250</v>
@@ -4215,8 +4250,8 @@
         <v>252</v>
       </c>
       <c r="J138" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
+        <f>POWER(2,6)</f>
+        <v>64</v>
       </c>
       <c r="K138" s="25" t="s">
         <v>252</v>
@@ -4231,163 +4266,164 @@
         <v>254</v>
       </c>
       <c r="J139" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K139" s="25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11">
+      <c r="B140" s="17"/>
+      <c r="H140" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J140" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K139" s="25" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="140" spans="2:11">
-      <c r="B140" s="18"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="I140" s="12" t="s">
+      <c r="K140" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="J140" s="12">
+    </row>
+    <row r="141" spans="2:11">
+      <c r="B141" s="18"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J141" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K140" s="26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11">
-      <c r="B142" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="C142" s="7" t="b">
+      <c r="K141" s="26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11">
+      <c r="B143" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C143" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="I142" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="J142" s="8">
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="J143" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K142" s="24" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11">
-      <c r="B143" s="17"/>
-      <c r="C143" s="27"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="27"/>
-      <c r="H143" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="I143" s="28" t="s">
+      <c r="K143" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="J143" s="28">
+    </row>
+    <row r="144" spans="2:11">
+      <c r="B144" s="17"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="30"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="I144" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="J144" s="35">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K143" s="25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11">
-      <c r="B144" s="17"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="I144" s="28" t="s">
+      <c r="K144" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="J144" s="28">
+    </row>
+    <row r="145" spans="2:11">
+      <c r="B145" s="17"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="I145" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="J145" s="35">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K144" s="25" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11">
-      <c r="B145" s="18"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="I145" s="12" t="s">
+      <c r="K145" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="J145" s="12">
+    </row>
+    <row r="146" spans="2:11">
+      <c r="B146" s="18"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="I146" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="J146" s="12">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K145" s="26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11">
-      <c r="B147" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="C147" s="30" t="b">
+      <c r="K146" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="C148" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="D147" s="30"/>
-      <c r="E147" s="30"/>
-      <c r="F147" s="30"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="I147" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="J147" s="31">
+      <c r="D148" s="38"/>
+      <c r="E148" s="38"/>
+      <c r="F148" s="38"/>
+      <c r="G148" s="38"/>
+      <c r="H148" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="I148" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="J148" s="39">
         <v>1</v>
       </c>
-      <c r="K147" s="36" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11">
-      <c r="B148" s="32"/>
-      <c r="H148" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="I148" s="2" t="s">
+      <c r="K148" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="J148" s="2">
-        <v>2</v>
-      </c>
-      <c r="K148" s="37" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="149" spans="2:11">
-      <c r="B149" s="32"/>
+      <c r="B149" s="40"/>
       <c r="H149" s="2" t="s">
         <v>271</v>
       </c>
@@ -4395,30 +4431,45 @@
         <v>272</v>
       </c>
       <c r="J149" s="2">
+        <v>2</v>
+      </c>
+      <c r="K149" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="B150" s="40"/>
+      <c r="H150" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J150" s="2">
         <v>3</v>
       </c>
-      <c r="K149" s="37" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11">
-      <c r="B150" s="33"/>
-      <c r="C150" s="34"/>
-      <c r="D150" s="34"/>
-      <c r="E150" s="34"/>
-      <c r="F150" s="34"/>
-      <c r="G150" s="34"/>
-      <c r="H150" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="I150" s="35" t="s">
+      <c r="K150" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="J150" s="35">
+    </row>
+    <row r="151" spans="2:11">
+      <c r="B151" s="41"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="32"/>
+      <c r="G151" s="32"/>
+      <c r="H151" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="I151" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="J151" s="33">
         <v>4</v>
       </c>
-      <c r="K150" s="38" t="s">
-        <v>274</v>
+      <c r="K151" s="36" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4435,14 +4486,14 @@
     <mergeCell ref="B81:B90"/>
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B120:B129"/>
-    <mergeCell ref="B131:B140"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B121:B130"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="B148:B151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -1628,7 +1628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1710,55 +1710,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2082,8 +2037,8 @@
   <sheetPr/>
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3645,7 +3600,7 @@
       </c>
     </row>
     <row r="100" spans="2:11">
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="16" t="s">
         <v>179</v>
       </c>
       <c r="C100" s="7"/>
@@ -3667,19 +3622,19 @@
       </c>
     </row>
     <row r="101" spans="2:11">
-      <c r="B101" s="28"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29" t="s">
+      <c r="B101" s="17"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="I101" s="34" t="s">
+      <c r="I101" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="J101" s="34">
+      <c r="J101" s="28">
         <v>2</v>
       </c>
       <c r="K101" s="25" t="s">
@@ -3687,19 +3642,19 @@
       </c>
     </row>
     <row r="102" spans="2:11">
-      <c r="B102" s="28"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29" t="s">
+      <c r="B102" s="17"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="I102" s="34" t="s">
+      <c r="I102" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="J102" s="34">
+      <c r="J102" s="28">
         <v>3</v>
       </c>
       <c r="K102" s="25" t="s">
@@ -3707,19 +3662,19 @@
       </c>
     </row>
     <row r="103" spans="2:11">
-      <c r="B103" s="28"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30" t="s">
+      <c r="B103" s="17"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="I103" s="35" t="s">
+      <c r="I103" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="J103" s="35">
+      <c r="J103" s="28">
         <v>4</v>
       </c>
       <c r="K103" s="25" t="s">
@@ -3727,22 +3682,22 @@
       </c>
     </row>
     <row r="104" spans="2:11">
-      <c r="B104" s="31"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="33" t="s">
+      <c r="B104" s="18"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="I104" s="33" t="s">
+      <c r="I104" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="J104" s="33">
+      <c r="J104" s="12">
         <v>5</v>
       </c>
-      <c r="K104" s="36" t="s">
+      <c r="K104" s="26" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4337,18 +4292,18 @@
     </row>
     <row r="144" spans="2:11">
       <c r="B144" s="17"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="30"/>
-      <c r="F144" s="30"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="35" t="s">
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="I144" s="35" t="s">
+      <c r="I144" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="J144" s="35">
+      <c r="J144" s="28">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
@@ -4358,18 +4313,18 @@
     </row>
     <row r="145" spans="2:11">
       <c r="B145" s="17"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="35" t="s">
+      <c r="C145" s="27"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="27"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="I145" s="35" t="s">
+      <c r="I145" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="J145" s="35">
+      <c r="J145" s="28">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
@@ -4399,31 +4354,31 @@
       </c>
     </row>
     <row r="148" spans="2:11">
-      <c r="B148" s="37" t="s">
+      <c r="B148" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C148" s="38" t="b">
+      <c r="C148" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D148" s="38"/>
-      <c r="E148" s="38"/>
-      <c r="F148" s="38"/>
-      <c r="G148" s="38"/>
-      <c r="H148" s="39" t="s">
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="I148" s="39" t="s">
+      <c r="I148" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="J148" s="39">
+      <c r="J148" s="8">
         <v>1</v>
       </c>
-      <c r="K148" s="42" t="s">
+      <c r="K148" s="24" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="149" spans="2:11">
-      <c r="B149" s="40"/>
+      <c r="B149" s="17"/>
       <c r="H149" s="2" t="s">
         <v>271</v>
       </c>
@@ -4433,12 +4388,12 @@
       <c r="J149" s="2">
         <v>2</v>
       </c>
-      <c r="K149" s="43" t="s">
+      <c r="K149" s="25" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="150" spans="2:11">
-      <c r="B150" s="40"/>
+      <c r="B150" s="17"/>
       <c r="H150" s="2" t="s">
         <v>273</v>
       </c>
@@ -4448,27 +4403,27 @@
       <c r="J150" s="2">
         <v>3</v>
       </c>
-      <c r="K150" s="43" t="s">
+      <c r="K150" s="25" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="151" spans="2:11">
-      <c r="B151" s="41"/>
-      <c r="C151" s="32"/>
-      <c r="D151" s="32"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="32"/>
-      <c r="G151" s="32"/>
-      <c r="H151" s="33" t="s">
+      <c r="B151" s="18"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="I151" s="33" t="s">
+      <c r="I151" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="J151" s="33">
+      <c r="J151" s="12">
         <v>4</v>
       </c>
-      <c r="K151" s="36" t="s">
+      <c r="K151" s="26" t="s">
         <v>276</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20175" windowHeight="8325"/>
+    <workbookView windowWidth="18465" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2037,8 +2037,8 @@
   <sheetPr/>
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="C116" workbookViewId="0">
+      <selection activeCell="K130" sqref="K130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18465" windowHeight="8325"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="282">
   <si>
     <t>##var</t>
   </si>
@@ -858,6 +858,21 @@
   </si>
   <si>
     <t>秘境商店</t>
+  </si>
+  <si>
+    <t>AchievementType</t>
+  </si>
+  <si>
+    <t>AchievementType_PropertyCompare</t>
+  </si>
+  <si>
+    <t>属性比较</t>
+  </si>
+  <si>
+    <t>AchievementType_Currency</t>
+  </si>
+  <si>
+    <t>货币比较</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1714,6 +1729,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2035,10 +2074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C116" workbookViewId="0">
-      <selection activeCell="K130" sqref="K130"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4427,8 +4466,52 @@
         <v>276</v>
       </c>
     </row>
+    <row r="153" spans="2:11">
+      <c r="B153" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C153" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D153" s="30"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="30"/>
+      <c r="G153" s="30"/>
+      <c r="H153" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="I153" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J153" s="31">
+        <v>1</v>
+      </c>
+      <c r="K153" s="35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11">
+      <c r="B154" s="32"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="33"/>
+      <c r="F154" s="33"/>
+      <c r="G154" s="33"/>
+      <c r="H154" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="I154" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="J154" s="34">
+        <v>2</v>
+      </c>
+      <c r="K154" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B12:B15"/>
@@ -4449,6 +4532,7 @@
     <mergeCell ref="B132:B141"/>
     <mergeCell ref="B143:B146"/>
     <mergeCell ref="B148:B151"/>
+    <mergeCell ref="B153:B154"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="291">
   <si>
     <t>##var</t>
   </si>
@@ -873,6 +873,33 @@
   </si>
   <si>
     <t>货币比较</t>
+  </si>
+  <si>
+    <t>PackType</t>
+  </si>
+  <si>
+    <t>PackType_Normal</t>
+  </si>
+  <si>
+    <t>固定物品</t>
+  </si>
+  <si>
+    <t>PackType_Choose</t>
+  </si>
+  <si>
+    <t>可选物品</t>
+  </si>
+  <si>
+    <t>PackType_Random</t>
+  </si>
+  <si>
+    <t>随机物品</t>
+  </si>
+  <si>
+    <t>PackType_RandomCount</t>
+  </si>
+  <si>
+    <t>随机数量物品</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1740,6 +1767,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1750,6 +1780,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2074,10 +2107,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:L159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4467,51 +4500,125 @@
       </c>
     </row>
     <row r="153" spans="2:11">
-      <c r="B153" s="29" t="s">
+      <c r="B153" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C153" s="30" t="b">
+      <c r="C153" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D153" s="30"/>
-      <c r="E153" s="30"/>
-      <c r="F153" s="30"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="31" t="s">
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="I153" s="31" t="s">
+      <c r="I153" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="J153" s="31">
+      <c r="J153" s="8">
         <v>1</v>
       </c>
-      <c r="K153" s="35" t="s">
+      <c r="K153" s="24" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="154" spans="2:11">
-      <c r="B154" s="32"/>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
-      <c r="G154" s="33"/>
-      <c r="H154" s="34" t="s">
+      <c r="B154" s="18"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="I154" s="34" t="s">
+      <c r="I154" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="J154" s="34">
+      <c r="J154" s="12">
         <v>2</v>
       </c>
-      <c r="K154" s="36" t="s">
+      <c r="K154" s="26" t="s">
         <v>281</v>
       </c>
     </row>
+    <row r="156" spans="2:11">
+      <c r="B156" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="C156" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D156" s="30"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="30"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="I156" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="J156" s="31">
+        <v>1</v>
+      </c>
+      <c r="K156" s="36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11">
+      <c r="B157" s="32"/>
+      <c r="H157" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J157" s="2">
+        <v>2</v>
+      </c>
+      <c r="K157" s="37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11">
+      <c r="B158" s="32"/>
+      <c r="H158" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J158" s="2">
+        <v>3</v>
+      </c>
+      <c r="K158" s="37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11">
+      <c r="B159" s="33"/>
+      <c r="C159" s="34"/>
+      <c r="D159" s="34"/>
+      <c r="E159" s="34"/>
+      <c r="F159" s="34"/>
+      <c r="G159" s="34"/>
+      <c r="H159" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="I159" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="J159" s="35">
+        <v>4</v>
+      </c>
+      <c r="K159" s="38" t="s">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B12:B15"/>
@@ -4533,6 +4640,7 @@
     <mergeCell ref="B143:B146"/>
     <mergeCell ref="B148:B151"/>
     <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B156:B159"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24645" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="306">
   <si>
     <t>##var</t>
   </si>
@@ -299,6 +299,15 @@
     <t>橙色品质</t>
   </si>
   <si>
+    <t>GameItemQualityType_Red</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>红色品质</t>
+  </si>
+  <si>
     <t>GamePropertyType</t>
   </si>
   <si>
@@ -900,6 +909,42 @@
   </si>
   <si>
     <t>随机数量物品</t>
+  </si>
+  <si>
+    <t>LotteryQuality</t>
+  </si>
+  <si>
+    <t>LotteryQuality_Gray</t>
+  </si>
+  <si>
+    <t>LotteryQuality_Green</t>
+  </si>
+  <si>
+    <t>优秀</t>
+  </si>
+  <si>
+    <t>LotteryQuality_Blue</t>
+  </si>
+  <si>
+    <t>精良</t>
+  </si>
+  <si>
+    <t>LotteryQuality_Purple</t>
+  </si>
+  <si>
+    <t>史诗</t>
+  </si>
+  <si>
+    <t>LotteryQuality_Orange</t>
+  </si>
+  <si>
+    <t>传说</t>
+  </si>
+  <si>
+    <t>LotteryQuality_Red</t>
+  </si>
+  <si>
+    <t>神话</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1728,6 +1773,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1752,14 +1824,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1768,10 +1837,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2107,10 +2176,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L159"/>
+  <dimension ref="A1:L167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="I159" sqref="I159"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2236,7 +2305,7 @@
       <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="28" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2248,7 +2317,7 @@
       <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2260,7 +2329,7 @@
       <c r="J6" s="2">
         <v>3</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="30" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2272,7 +2341,7 @@
       <c r="J7" s="2">
         <v>4</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="30" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2290,7 +2359,7 @@
       <c r="J8" s="12">
         <v>99</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="31" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2312,7 +2381,7 @@
       <c r="J10" s="15">
         <v>1</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="32" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2336,7 +2405,7 @@
       <c r="J12" s="8">
         <v>1</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="33" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2351,7 +2420,7 @@
       <c r="J13" s="2">
         <v>2</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="34" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2366,7 +2435,7 @@
       <c r="J14" s="2">
         <v>3</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2382,7 +2451,7 @@
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="26"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="16" t="s">
@@ -2404,7 +2473,7 @@
       <c r="J17" s="8">
         <v>1</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="33" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2419,7 +2488,7 @@
       <c r="J18" s="2">
         <v>2</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="34" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2434,7 +2503,7 @@
       <c r="J19" s="2">
         <v>3</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="34" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2449,7 +2518,7 @@
       <c r="J20" s="2">
         <v>4</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="34" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2469,7 +2538,7 @@
       <c r="J21" s="12">
         <v>5</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="35" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2491,7 +2560,7 @@
       <c r="J23" s="8">
         <v>1</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="33" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2506,7 +2575,7 @@
       <c r="J24" s="2">
         <v>2</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="34" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2526,7 +2595,7 @@
       <c r="J25" s="12">
         <v>3</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="K25" s="35" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2550,7 +2619,7 @@
       <c r="J27" s="8">
         <v>1</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="33" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2565,7 +2634,7 @@
       <c r="J28" s="2">
         <v>2</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="34" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2580,7 +2649,7 @@
       <c r="J29" s="2">
         <v>3</v>
       </c>
-      <c r="K29" s="25" t="s">
+      <c r="K29" s="34" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2595,7 +2664,7 @@
       <c r="J30" s="2">
         <v>4</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="34" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2610,7 +2679,7 @@
       <c r="J31" s="2">
         <v>5</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="K31" s="34" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2625,7 +2694,7 @@
       <c r="J32" s="2">
         <v>6</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="34" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2645,12 +2714,12 @@
       <c r="J33" s="12">
         <v>7</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C35" s="7"/>
@@ -2667,109 +2736,129 @@
       <c r="J35" s="8">
         <v>1</v>
       </c>
-      <c r="K35" s="24" t="s">
+      <c r="K35" s="33" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="17"/>
-      <c r="H36" s="2" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="22">
         <v>2</v>
       </c>
-      <c r="K36" s="25" t="s">
+      <c r="K36" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="17"/>
-      <c r="H37" s="2" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="22">
         <v>3</v>
       </c>
-      <c r="K37" s="25" t="s">
+      <c r="K37" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="17"/>
-      <c r="H38" s="2" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="22">
         <v>4</v>
       </c>
-      <c r="K38" s="25" t="s">
+      <c r="K38" s="34" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="18"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="24">
         <v>5</v>
       </c>
-      <c r="K39" s="26" t="s">
+      <c r="K39" s="34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="16" t="s">
+    <row r="40" spans="2:11">
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8" t="s">
+      <c r="I40" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="J40" s="27">
+        <v>6</v>
+      </c>
+      <c r="K40" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="J41" s="8">
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J42" s="8">
         <v>1001</v>
       </c>
-      <c r="K41" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="17"/>
-      <c r="H42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1002</v>
-      </c>
-      <c r="K42" s="25" t="s">
+      <c r="K42" s="33" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2782,9 +2871,9 @@
         <v>98</v>
       </c>
       <c r="J43" s="2">
-        <v>1003</v>
-      </c>
-      <c r="K43" s="25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K43" s="34" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2797,9 +2886,9 @@
         <v>101</v>
       </c>
       <c r="J44" s="2">
-        <v>1004</v>
-      </c>
-      <c r="K44" s="25" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K44" s="34" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2812,30 +2901,30 @@
         <v>104</v>
       </c>
       <c r="J45" s="2">
-        <v>1005</v>
-      </c>
-      <c r="K45" s="25" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K45" s="34" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="17"/>
-      <c r="K46" s="25"/>
+      <c r="H46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1005</v>
+      </c>
+      <c r="K46" s="34" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="17"/>
-      <c r="H47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J47" s="2">
-        <v>1101</v>
-      </c>
-      <c r="K47" s="25" t="s">
-        <v>108</v>
-      </c>
+      <c r="K47" s="34"/>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="17"/>
@@ -2846,9 +2935,9 @@
         <v>110</v>
       </c>
       <c r="J48" s="2">
-        <v>1102</v>
-      </c>
-      <c r="K48" s="25" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K48" s="34" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2861,9 +2950,9 @@
         <v>113</v>
       </c>
       <c r="J49" s="2">
-        <v>1103</v>
-      </c>
-      <c r="K49" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K49" s="34" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2876,9 +2965,9 @@
         <v>116</v>
       </c>
       <c r="J50" s="2">
-        <v>1104</v>
-      </c>
-      <c r="K50" s="25" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K50" s="34" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2891,476 +2980,476 @@
         <v>119</v>
       </c>
       <c r="J51" s="2">
-        <v>1105</v>
-      </c>
-      <c r="K51" s="25" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K51" s="34" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="17"/>
-      <c r="H52" s="2" t="str">
-        <f>(_xlfn.CONCAT(H51,"Base"))</f>
-        <v>GamePropertyType_AtkBase</v>
-      </c>
-      <c r="I52" s="2" t="str">
-        <f>_xlfn.CONCAT(I51,"Base")</f>
-        <v>AtkBase</v>
+      <c r="H52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="J52" s="2">
-        <f>J51*10+1</f>
-        <v>11051</v>
-      </c>
-      <c r="K52" s="25" t="str">
-        <f>_xlfn.CONCAT(K51,"基础值")</f>
-        <v>攻击基础值</v>
+        <v>1105</v>
+      </c>
+      <c r="K52" s="34" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="17"/>
       <c r="H53" s="2" t="str">
-        <f t="shared" ref="H53:H55" si="0">_xlfn.CONCAT(H51,"Add")</f>
-        <v>GamePropertyType_AtkAdd</v>
+        <f>(_xlfn.CONCAT(H52,"Base"))</f>
+        <v>GamePropertyType_AtkBase</v>
       </c>
       <c r="I53" s="2" t="str">
-        <f>_xlfn.CONCAT(I51,"Add")</f>
-        <v>AtkAdd</v>
+        <f>_xlfn.CONCAT(I52,"Base")</f>
+        <v>AtkBase</v>
       </c>
       <c r="J53" s="2">
-        <f>J51*10+2</f>
-        <v>11052</v>
-      </c>
-      <c r="K53" s="25" t="str">
-        <f>_xlfn.CONCAT(K51,"附加值")</f>
-        <v>攻击附加值</v>
+        <f>J52*10+1</f>
+        <v>11051</v>
+      </c>
+      <c r="K53" s="34" t="str">
+        <f>_xlfn.CONCAT(K52,"基础值")</f>
+        <v>攻击基础值</v>
       </c>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="17"/>
       <c r="H54" s="2" t="str">
-        <f>_xlfn.CONCAT(H51,"Pct")</f>
-        <v>GamePropertyType_AtkPct</v>
+        <f t="shared" ref="H54:H56" si="0">_xlfn.CONCAT(H52,"Add")</f>
+        <v>GamePropertyType_AtkAdd</v>
       </c>
       <c r="I54" s="2" t="str">
-        <f>_xlfn.CONCAT(I51,"Pct")</f>
-        <v>AtkPct</v>
+        <f>_xlfn.CONCAT(I52,"Add")</f>
+        <v>AtkAdd</v>
       </c>
       <c r="J54" s="2">
-        <f>J51*10+3</f>
-        <v>11053</v>
-      </c>
-      <c r="K54" s="25" t="str">
-        <f>_xlfn.CONCAT(K51,"百分比")</f>
-        <v>攻击百分比</v>
+        <f>J52*10+2</f>
+        <v>11052</v>
+      </c>
+      <c r="K54" s="34" t="str">
+        <f>_xlfn.CONCAT(K52,"附加值")</f>
+        <v>攻击附加值</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="17"/>
       <c r="H55" s="2" t="str">
-        <f>_xlfn.CONCAT(H51,"FinalAdd")</f>
-        <v>GamePropertyType_AtkFinalAdd</v>
+        <f>_xlfn.CONCAT(H52,"Pct")</f>
+        <v>GamePropertyType_AtkPct</v>
       </c>
       <c r="I55" s="2" t="str">
-        <f>_xlfn.CONCAT(I51,"FinalAdd")</f>
-        <v>AtkFinalAdd</v>
+        <f>_xlfn.CONCAT(I52,"Pct")</f>
+        <v>AtkPct</v>
       </c>
       <c r="J55" s="2">
-        <f>J51*10+4</f>
-        <v>11054</v>
-      </c>
-      <c r="K55" s="25" t="str">
-        <f>_xlfn.CONCAT(K51,"最终附加值")</f>
-        <v>攻击最终附加值</v>
+        <f>J52*10+3</f>
+        <v>11053</v>
+      </c>
+      <c r="K55" s="34" t="str">
+        <f>_xlfn.CONCAT(K52,"百分比")</f>
+        <v>攻击百分比</v>
       </c>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="17"/>
       <c r="H56" s="2" t="str">
-        <f>_xlfn.CONCAT(H51,"FinalPct")</f>
-        <v>GamePropertyType_AtkFinalPct</v>
+        <f>_xlfn.CONCAT(H52,"FinalAdd")</f>
+        <v>GamePropertyType_AtkFinalAdd</v>
       </c>
       <c r="I56" s="2" t="str">
-        <f>_xlfn.CONCAT(I51,"FinalPct")</f>
-        <v>AtkFinalPct</v>
+        <f>_xlfn.CONCAT(I52,"FinalAdd")</f>
+        <v>AtkFinalAdd</v>
       </c>
       <c r="J56" s="2">
-        <f>J51*10+5</f>
-        <v>11055</v>
-      </c>
-      <c r="K56" s="25" t="str">
-        <f>_xlfn.CONCAT(K51,"最终百分比")</f>
-        <v>攻击最终百分比</v>
+        <f>J52*10+4</f>
+        <v>11054</v>
+      </c>
+      <c r="K56" s="34" t="str">
+        <f>_xlfn.CONCAT(K52,"最终附加值")</f>
+        <v>攻击最终附加值</v>
       </c>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="17"/>
-      <c r="H57" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>122</v>
+      <c r="H57" s="2" t="str">
+        <f>_xlfn.CONCAT(H52,"FinalPct")</f>
+        <v>GamePropertyType_AtkFinalPct</v>
+      </c>
+      <c r="I57" s="2" t="str">
+        <f>_xlfn.CONCAT(I52,"FinalPct")</f>
+        <v>AtkFinalPct</v>
       </c>
       <c r="J57" s="2">
-        <v>1106</v>
-      </c>
-      <c r="K57" s="25" t="s">
-        <v>123</v>
+        <f>J52*10+5</f>
+        <v>11055</v>
+      </c>
+      <c r="K57" s="34" t="str">
+        <f>_xlfn.CONCAT(K52,"最终百分比")</f>
+        <v>攻击最终百分比</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="17"/>
-      <c r="H58" s="2" t="str">
-        <f>(_xlfn.CONCAT(H57,"Base"))</f>
-        <v>GamePropertyType_DefBase</v>
-      </c>
-      <c r="I58" s="2" t="str">
-        <f>_xlfn.CONCAT(I57,"Base")</f>
-        <v>DefBase</v>
+      <c r="H58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="J58" s="2">
-        <f>J57*10+1</f>
-        <v>11061</v>
-      </c>
-      <c r="K58" s="25" t="str">
-        <f>_xlfn.CONCAT(K57,"基础值")</f>
-        <v>防御基础值</v>
+        <v>1106</v>
+      </c>
+      <c r="K58" s="34" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="17"/>
       <c r="H59" s="2" t="str">
-        <f>_xlfn.CONCAT(H57,"Add")</f>
-        <v>GamePropertyType_DefAdd</v>
+        <f>(_xlfn.CONCAT(H58,"Base"))</f>
+        <v>GamePropertyType_DefBase</v>
       </c>
       <c r="I59" s="2" t="str">
-        <f>_xlfn.CONCAT(I57,"Add")</f>
-        <v>DefAdd</v>
+        <f>_xlfn.CONCAT(I58,"Base")</f>
+        <v>DefBase</v>
       </c>
       <c r="J59" s="2">
-        <f>J57*10+2</f>
-        <v>11062</v>
-      </c>
-      <c r="K59" s="25" t="str">
-        <f>_xlfn.CONCAT(K57,"附加值")</f>
-        <v>防御附加值</v>
+        <f>J58*10+1</f>
+        <v>11061</v>
+      </c>
+      <c r="K59" s="34" t="str">
+        <f>_xlfn.CONCAT(K58,"基础值")</f>
+        <v>防御基础值</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="17"/>
       <c r="H60" s="2" t="str">
-        <f>_xlfn.CONCAT(H57,"Pct")</f>
-        <v>GamePropertyType_DefPct</v>
+        <f>_xlfn.CONCAT(H58,"Add")</f>
+        <v>GamePropertyType_DefAdd</v>
       </c>
       <c r="I60" s="2" t="str">
-        <f>_xlfn.CONCAT(I57,"Pct")</f>
-        <v>DefPct</v>
+        <f>_xlfn.CONCAT(I58,"Add")</f>
+        <v>DefAdd</v>
       </c>
       <c r="J60" s="2">
-        <f>J57*10+3</f>
-        <v>11063</v>
-      </c>
-      <c r="K60" s="25" t="str">
-        <f>_xlfn.CONCAT(K57,"百分比")</f>
-        <v>防御百分比</v>
+        <f>J58*10+2</f>
+        <v>11062</v>
+      </c>
+      <c r="K60" s="34" t="str">
+        <f>_xlfn.CONCAT(K58,"附加值")</f>
+        <v>防御附加值</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="17"/>
       <c r="H61" s="2" t="str">
-        <f>_xlfn.CONCAT(H57,"FinalAdd")</f>
-        <v>GamePropertyType_DefFinalAdd</v>
+        <f>_xlfn.CONCAT(H58,"Pct")</f>
+        <v>GamePropertyType_DefPct</v>
       </c>
       <c r="I61" s="2" t="str">
-        <f>_xlfn.CONCAT(I57,"FinalAdd")</f>
-        <v>DefFinalAdd</v>
+        <f>_xlfn.CONCAT(I58,"Pct")</f>
+        <v>DefPct</v>
       </c>
       <c r="J61" s="2">
-        <f>J57*10+4</f>
-        <v>11064</v>
-      </c>
-      <c r="K61" s="25" t="str">
-        <f>_xlfn.CONCAT(K57,"最终附加值")</f>
-        <v>防御最终附加值</v>
+        <f>J58*10+3</f>
+        <v>11063</v>
+      </c>
+      <c r="K61" s="34" t="str">
+        <f>_xlfn.CONCAT(K58,"百分比")</f>
+        <v>防御百分比</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="17"/>
       <c r="H62" s="2" t="str">
-        <f>_xlfn.CONCAT(H57,"FinalPct")</f>
-        <v>GamePropertyType_DefFinalPct</v>
+        <f>_xlfn.CONCAT(H58,"FinalAdd")</f>
+        <v>GamePropertyType_DefFinalAdd</v>
       </c>
       <c r="I62" s="2" t="str">
-        <f>_xlfn.CONCAT(I57,"FinalPct")</f>
-        <v>DefFinalPct</v>
+        <f>_xlfn.CONCAT(I58,"FinalAdd")</f>
+        <v>DefFinalAdd</v>
       </c>
       <c r="J62" s="2">
-        <f>J57*10+5</f>
-        <v>11065</v>
-      </c>
-      <c r="K62" s="25" t="str">
-        <f>_xlfn.CONCAT(K57,"最终百分比")</f>
-        <v>防御最终百分比</v>
+        <f>J58*10+4</f>
+        <v>11064</v>
+      </c>
+      <c r="K62" s="34" t="str">
+        <f>_xlfn.CONCAT(K58,"最终附加值")</f>
+        <v>防御最终附加值</v>
       </c>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="17"/>
-      <c r="H63" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>125</v>
+      <c r="H63" s="2" t="str">
+        <f>_xlfn.CONCAT(H58,"FinalPct")</f>
+        <v>GamePropertyType_DefFinalPct</v>
+      </c>
+      <c r="I63" s="2" t="str">
+        <f>_xlfn.CONCAT(I58,"FinalPct")</f>
+        <v>DefFinalPct</v>
       </c>
       <c r="J63" s="2">
-        <v>1107</v>
-      </c>
-      <c r="K63" s="25" t="s">
-        <v>126</v>
+        <f>J58*10+5</f>
+        <v>11065</v>
+      </c>
+      <c r="K63" s="34" t="str">
+        <f>_xlfn.CONCAT(K58,"最终百分比")</f>
+        <v>防御最终百分比</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="17"/>
-      <c r="H64" s="2" t="str">
-        <f>(_xlfn.CONCAT(H63,"Base"))</f>
-        <v>GamePropertyType_HitBase</v>
-      </c>
-      <c r="I64" s="2" t="str">
-        <f>_xlfn.CONCAT(I63,"Base")</f>
-        <v>HitBase</v>
+      <c r="H64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="J64" s="2">
-        <f>J63*10+1</f>
-        <v>11071</v>
-      </c>
-      <c r="K64" s="25" t="str">
-        <f>_xlfn.CONCAT(K63,"基础值")</f>
-        <v>命中基础值</v>
+        <v>1107</v>
+      </c>
+      <c r="K64" s="34" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="17"/>
       <c r="H65" s="2" t="str">
-        <f>_xlfn.CONCAT(H63,"Add")</f>
-        <v>GamePropertyType_HitAdd</v>
+        <f>(_xlfn.CONCAT(H64,"Base"))</f>
+        <v>GamePropertyType_HitBase</v>
       </c>
       <c r="I65" s="2" t="str">
-        <f>_xlfn.CONCAT(I63,"Add")</f>
-        <v>HitAdd</v>
+        <f>_xlfn.CONCAT(I64,"Base")</f>
+        <v>HitBase</v>
       </c>
       <c r="J65" s="2">
-        <f>J63*10+2</f>
-        <v>11072</v>
-      </c>
-      <c r="K65" s="25" t="str">
-        <f>_xlfn.CONCAT(K63,"附加值")</f>
-        <v>命中附加值</v>
+        <f>J64*10+1</f>
+        <v>11071</v>
+      </c>
+      <c r="K65" s="34" t="str">
+        <f>_xlfn.CONCAT(K64,"基础值")</f>
+        <v>命中基础值</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="17"/>
       <c r="H66" s="2" t="str">
-        <f>_xlfn.CONCAT(H63,"Pct")</f>
-        <v>GamePropertyType_HitPct</v>
+        <f>_xlfn.CONCAT(H64,"Add")</f>
+        <v>GamePropertyType_HitAdd</v>
       </c>
       <c r="I66" s="2" t="str">
-        <f>_xlfn.CONCAT(I63,"Pct")</f>
-        <v>HitPct</v>
+        <f>_xlfn.CONCAT(I64,"Add")</f>
+        <v>HitAdd</v>
       </c>
       <c r="J66" s="2">
-        <f>J63*10+3</f>
-        <v>11073</v>
-      </c>
-      <c r="K66" s="25" t="str">
-        <f>_xlfn.CONCAT(K63,"百分比")</f>
-        <v>命中百分比</v>
+        <f>J64*10+2</f>
+        <v>11072</v>
+      </c>
+      <c r="K66" s="34" t="str">
+        <f>_xlfn.CONCAT(K64,"附加值")</f>
+        <v>命中附加值</v>
       </c>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="17"/>
       <c r="H67" s="2" t="str">
-        <f>_xlfn.CONCAT(H63,"FinalAdd")</f>
-        <v>GamePropertyType_HitFinalAdd</v>
+        <f>_xlfn.CONCAT(H64,"Pct")</f>
+        <v>GamePropertyType_HitPct</v>
       </c>
       <c r="I67" s="2" t="str">
-        <f>_xlfn.CONCAT(I63,"FinalAdd")</f>
-        <v>HitFinalAdd</v>
+        <f>_xlfn.CONCAT(I64,"Pct")</f>
+        <v>HitPct</v>
       </c>
       <c r="J67" s="2">
-        <f>J63*10+4</f>
-        <v>11074</v>
-      </c>
-      <c r="K67" s="25" t="str">
-        <f>_xlfn.CONCAT(K63,"最终附加值")</f>
-        <v>命中最终附加值</v>
+        <f>J64*10+3</f>
+        <v>11073</v>
+      </c>
+      <c r="K67" s="34" t="str">
+        <f>_xlfn.CONCAT(K64,"百分比")</f>
+        <v>命中百分比</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="17"/>
       <c r="H68" s="2" t="str">
-        <f>_xlfn.CONCAT(H63,"FinalPct")</f>
-        <v>GamePropertyType_HitFinalPct</v>
+        <f>_xlfn.CONCAT(H64,"FinalAdd")</f>
+        <v>GamePropertyType_HitFinalAdd</v>
       </c>
       <c r="I68" s="2" t="str">
-        <f>_xlfn.CONCAT(I63,"FinalPct")</f>
-        <v>HitFinalPct</v>
+        <f>_xlfn.CONCAT(I64,"FinalAdd")</f>
+        <v>HitFinalAdd</v>
       </c>
       <c r="J68" s="2">
-        <f>J63*10+5</f>
-        <v>11075</v>
-      </c>
-      <c r="K68" s="25" t="str">
-        <f>_xlfn.CONCAT(K63,"最终百分比")</f>
-        <v>命中最终百分比</v>
+        <f>J64*10+4</f>
+        <v>11074</v>
+      </c>
+      <c r="K68" s="34" t="str">
+        <f>_xlfn.CONCAT(K64,"最终附加值")</f>
+        <v>命中最终附加值</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="17"/>
-      <c r="H69" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>128</v>
+      <c r="H69" s="2" t="str">
+        <f>_xlfn.CONCAT(H64,"FinalPct")</f>
+        <v>GamePropertyType_HitFinalPct</v>
+      </c>
+      <c r="I69" s="2" t="str">
+        <f>_xlfn.CONCAT(I64,"FinalPct")</f>
+        <v>HitFinalPct</v>
       </c>
       <c r="J69" s="2">
-        <v>1108</v>
-      </c>
-      <c r="K69" s="25" t="s">
-        <v>129</v>
+        <f>J64*10+5</f>
+        <v>11075</v>
+      </c>
+      <c r="K69" s="34" t="str">
+        <f>_xlfn.CONCAT(K64,"最终百分比")</f>
+        <v>命中最终百分比</v>
       </c>
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="17"/>
-      <c r="H70" s="2" t="str">
-        <f>(_xlfn.CONCAT(H69,"Base"))</f>
-        <v>GamePropertyType_CritBase</v>
-      </c>
-      <c r="I70" s="2" t="str">
-        <f>_xlfn.CONCAT(I69,"Base")</f>
-        <v>CritBase</v>
+      <c r="H70" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="J70" s="2">
-        <f>J69*10+1</f>
-        <v>11081</v>
-      </c>
-      <c r="K70" s="25" t="str">
-        <f>_xlfn.CONCAT(K69,"基础值")</f>
-        <v>暴击基础值</v>
+        <v>1108</v>
+      </c>
+      <c r="K70" s="34" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="17"/>
       <c r="H71" s="2" t="str">
-        <f>_xlfn.CONCAT(H69,"Add")</f>
-        <v>GamePropertyType_CritAdd</v>
+        <f>(_xlfn.CONCAT(H70,"Base"))</f>
+        <v>GamePropertyType_CritBase</v>
       </c>
       <c r="I71" s="2" t="str">
-        <f>_xlfn.CONCAT(I69,"Add")</f>
-        <v>CritAdd</v>
+        <f>_xlfn.CONCAT(I70,"Base")</f>
+        <v>CritBase</v>
       </c>
       <c r="J71" s="2">
-        <f>J69*10+2</f>
-        <v>11082</v>
-      </c>
-      <c r="K71" s="25" t="str">
-        <f>_xlfn.CONCAT(K69,"附加值")</f>
-        <v>暴击附加值</v>
+        <f>J70*10+1</f>
+        <v>11081</v>
+      </c>
+      <c r="K71" s="34" t="str">
+        <f>_xlfn.CONCAT(K70,"基础值")</f>
+        <v>暴击基础值</v>
       </c>
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="17"/>
       <c r="H72" s="2" t="str">
-        <f>_xlfn.CONCAT(H69,"Pct")</f>
-        <v>GamePropertyType_CritPct</v>
+        <f>_xlfn.CONCAT(H70,"Add")</f>
+        <v>GamePropertyType_CritAdd</v>
       </c>
       <c r="I72" s="2" t="str">
-        <f>_xlfn.CONCAT(I69,"Pct")</f>
-        <v>CritPct</v>
+        <f>_xlfn.CONCAT(I70,"Add")</f>
+        <v>CritAdd</v>
       </c>
       <c r="J72" s="2">
-        <f>J69*10+3</f>
-        <v>11083</v>
-      </c>
-      <c r="K72" s="25" t="str">
-        <f>_xlfn.CONCAT(K69,"百分比")</f>
-        <v>暴击百分比</v>
+        <f>J70*10+2</f>
+        <v>11082</v>
+      </c>
+      <c r="K72" s="34" t="str">
+        <f>_xlfn.CONCAT(K70,"附加值")</f>
+        <v>暴击附加值</v>
       </c>
     </row>
     <row r="73" spans="2:11">
       <c r="B73" s="17"/>
       <c r="H73" s="2" t="str">
-        <f>_xlfn.CONCAT(H69,"FinalAdd")</f>
+        <f>_xlfn.CONCAT(H70,"Pct")</f>
+        <v>GamePropertyType_CritPct</v>
+      </c>
+      <c r="I73" s="2" t="str">
+        <f>_xlfn.CONCAT(I70,"Pct")</f>
+        <v>CritPct</v>
+      </c>
+      <c r="J73" s="2">
+        <f>J70*10+3</f>
+        <v>11083</v>
+      </c>
+      <c r="K73" s="34" t="str">
+        <f>_xlfn.CONCAT(K70,"百分比")</f>
+        <v>暴击百分比</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74" s="17"/>
+      <c r="H74" s="2" t="str">
+        <f>_xlfn.CONCAT(H70,"FinalAdd")</f>
         <v>GamePropertyType_CritFinalAdd</v>
       </c>
-      <c r="I73" s="2" t="str">
-        <f>_xlfn.CONCAT(I69,"FinalAdd")</f>
+      <c r="I74" s="2" t="str">
+        <f>_xlfn.CONCAT(I70,"FinalAdd")</f>
         <v>CritFinalAdd</v>
       </c>
-      <c r="J73" s="2">
-        <f>J69*10+4</f>
+      <c r="J74" s="2">
+        <f>J70*10+4</f>
         <v>11084</v>
       </c>
-      <c r="K73" s="25" t="str">
-        <f>_xlfn.CONCAT(K69,"最终附加值")</f>
+      <c r="K74" s="34" t="str">
+        <f>_xlfn.CONCAT(K70,"最终附加值")</f>
         <v>暴击最终附加值</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
-      <c r="B74" s="18"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="12" t="str">
-        <f>_xlfn.CONCAT(H69,"FinalPct")</f>
+    <row r="75" spans="2:11">
+      <c r="B75" s="18"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="12" t="str">
+        <f>_xlfn.CONCAT(H70,"FinalPct")</f>
         <v>GamePropertyType_CritFinalPct</v>
       </c>
-      <c r="I74" s="12" t="str">
-        <f>_xlfn.CONCAT(I69,"FinalPct")</f>
+      <c r="I75" s="12" t="str">
+        <f>_xlfn.CONCAT(I70,"FinalPct")</f>
         <v>CritFinalPct</v>
       </c>
-      <c r="J74" s="12">
-        <f>J69*10+5</f>
+      <c r="J75" s="12">
+        <f>J70*10+5</f>
         <v>11085</v>
       </c>
-      <c r="K74" s="26" t="str">
-        <f>_xlfn.CONCAT(K69,"最终百分比")</f>
+      <c r="K75" s="35" t="str">
+        <f>_xlfn.CONCAT(K70,"最终百分比")</f>
         <v>暴击最终百分比</v>
       </c>
     </row>
-    <row r="76" spans="2:11">
-      <c r="B76" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J76" s="8">
+    <row r="77" spans="2:11">
+      <c r="B77" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J77" s="8">
         <v>1</v>
       </c>
-      <c r="K76" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11">
-      <c r="B77" s="17"/>
-      <c r="H77" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J77" s="2">
-        <v>2</v>
-      </c>
-      <c r="K77" s="25" t="s">
+      <c r="K77" s="33" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3373,64 +3462,64 @@
         <v>138</v>
       </c>
       <c r="J78" s="2">
+        <v>2</v>
+      </c>
+      <c r="K78" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79" s="17"/>
+      <c r="H79" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J79" s="2">
         <v>3</v>
       </c>
-      <c r="K78" s="25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="B79" s="18"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="J79" s="12">
+      <c r="K79" s="34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" s="18"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J80" s="12">
         <v>4</v>
       </c>
-      <c r="K79" s="26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="B81" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8">
+      <c r="K80" s="35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8">
         <v>0</v>
       </c>
-      <c r="K81" s="24"/>
-    </row>
-    <row r="82" spans="2:11">
-      <c r="B82" s="17"/>
-      <c r="H82" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J82" s="2">
-        <v>1</v>
-      </c>
-      <c r="K82" s="25" t="s">
-        <v>147</v>
-      </c>
+      <c r="K82" s="33"/>
     </row>
     <row r="83" spans="2:11">
       <c r="B83" s="17"/>
@@ -3441,1206 +3530,1326 @@
         <v>149</v>
       </c>
       <c r="J83" s="2">
-        <v>2</v>
-      </c>
-      <c r="K83" s="25" t="s">
-        <v>149</v>
+        <v>1</v>
+      </c>
+      <c r="K83" s="34" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="2:11">
       <c r="B84" s="17"/>
       <c r="H84" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J84" s="2">
-        <v>3</v>
-      </c>
-      <c r="K84" s="25" t="s">
-        <v>151</v>
+        <v>2</v>
+      </c>
+      <c r="K84" s="34" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="17"/>
       <c r="H85" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J85" s="2">
-        <v>4</v>
-      </c>
-      <c r="K85" s="25" t="s">
-        <v>153</v>
+        <v>3</v>
+      </c>
+      <c r="K85" s="34" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="2:11">
       <c r="B86" s="17"/>
       <c r="H86" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J86" s="2">
-        <v>5</v>
-      </c>
-      <c r="K86" s="25" t="s">
-        <v>155</v>
+        <v>4</v>
+      </c>
+      <c r="K86" s="34" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="2:11">
       <c r="B87" s="17"/>
       <c r="H87" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J87" s="2">
-        <v>6</v>
-      </c>
-      <c r="K87" s="25" t="s">
-        <v>157</v>
+        <v>5</v>
+      </c>
+      <c r="K87" s="34" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="2:11">
       <c r="B88" s="17"/>
       <c r="H88" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J88" s="2">
-        <v>7</v>
-      </c>
-      <c r="K88" s="25" t="s">
-        <v>159</v>
+        <v>6</v>
+      </c>
+      <c r="K88" s="34" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="2:11">
       <c r="B89" s="17"/>
       <c r="H89" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J89" s="2">
+        <v>7</v>
+      </c>
+      <c r="K89" s="34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" s="17"/>
+      <c r="H90" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J90" s="2">
         <v>8</v>
       </c>
-      <c r="K89" s="25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11">
-      <c r="B90" s="18"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="I90" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="J90" s="12">
+      <c r="K90" s="34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" s="18"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="J91" s="12">
         <v>9</v>
       </c>
-      <c r="K90" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11">
-      <c r="B92" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="I92" s="8" t="s">
+      <c r="K91" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="J92" s="8">
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J93" s="8">
         <v>1</v>
       </c>
-      <c r="K92" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93" s="18"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="I93" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="J93" s="12">
+      <c r="K93" s="33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" s="18"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="J94" s="12">
         <v>2</v>
       </c>
-      <c r="K93" s="26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11">
-      <c r="B95" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I95" s="8" t="s">
+      <c r="K94" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="J95" s="8">
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="J96" s="8">
         <v>1</v>
       </c>
-      <c r="K95" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11">
-      <c r="B96" s="17"/>
-      <c r="H96" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J96" s="2">
-        <v>2</v>
-      </c>
-      <c r="K96" s="25" t="s">
-        <v>173</v>
+      <c r="K96" s="33" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="17"/>
       <c r="H97" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J97" s="2">
+        <v>2</v>
+      </c>
+      <c r="K97" s="34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="17"/>
+      <c r="H98" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J98" s="2">
         <v>3</v>
       </c>
-      <c r="K97" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11">
-      <c r="B98" s="18"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="I98" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J98" s="12">
+      <c r="K98" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="18"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J99" s="12">
         <v>4</v>
       </c>
-      <c r="K98" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11">
-      <c r="B100" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I100" s="8" t="s">
+      <c r="K99" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="J100" s="8">
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J101" s="8">
         <v>1</v>
       </c>
-      <c r="K100" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11">
-      <c r="B101" s="17"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="I101" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="J101" s="28">
-        <v>2</v>
-      </c>
-      <c r="K101" s="25" t="s">
-        <v>183</v>
+      <c r="K101" s="33" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="2:11">
       <c r="B102" s="17"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="I102" s="28" t="s">
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="J102" s="28">
-        <v>3</v>
-      </c>
-      <c r="K102" s="25" t="s">
-        <v>185</v>
+      <c r="I102" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J102" s="24">
+        <v>2</v>
+      </c>
+      <c r="K102" s="34" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="2:11">
       <c r="B103" s="17"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="I103" s="28" t="s">
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="J103" s="28">
+      <c r="I103" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J103" s="24">
+        <v>3</v>
+      </c>
+      <c r="K103" s="34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" s="17"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="I104" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J104" s="24">
         <v>4</v>
       </c>
-      <c r="K103" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11">
-      <c r="B104" s="18"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="I104" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="J104" s="12">
+      <c r="K104" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="18"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="J105" s="12">
         <v>5</v>
       </c>
-      <c r="K104" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11">
-      <c r="B106" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="I106" s="8" t="s">
+      <c r="K105" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="J106" s="8">
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J107" s="8">
         <v>1</v>
       </c>
-      <c r="K106" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11">
-      <c r="B107" s="17"/>
-      <c r="H107" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J107" s="2">
-        <v>2</v>
-      </c>
-      <c r="K107" s="25" t="s">
-        <v>194</v>
+      <c r="K107" s="33" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="2:11">
       <c r="B108" s="17"/>
       <c r="H108" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J108" s="2">
+        <v>2</v>
+      </c>
+      <c r="K108" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="17"/>
+      <c r="H109" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J109" s="2">
         <v>3</v>
       </c>
-      <c r="K108" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11">
-      <c r="B109" s="18"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="I109" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="J109" s="12">
+      <c r="K109" s="34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="18"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="J110" s="12">
         <v>4</v>
       </c>
-      <c r="K109" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11">
-      <c r="B111" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="I111" s="8" t="s">
+      <c r="K110" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="J111" s="8">
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J112" s="8">
         <v>1</v>
       </c>
-      <c r="K111" s="24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11">
-      <c r="B112" s="17"/>
-      <c r="H112" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J112" s="2">
-        <v>2</v>
-      </c>
-      <c r="K112" s="25" t="s">
-        <v>203</v>
+      <c r="K112" s="33" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="2:11">
       <c r="B113" s="17"/>
       <c r="H113" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J113" s="2">
-        <v>3</v>
-      </c>
-      <c r="K113" s="25" t="s">
-        <v>205</v>
+        <v>2</v>
+      </c>
+      <c r="K113" s="34" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="114" spans="2:11">
       <c r="B114" s="17"/>
       <c r="H114" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J114" s="2">
+        <v>3</v>
+      </c>
+      <c r="K114" s="34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115" s="17"/>
+      <c r="H115" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J115" s="2">
         <v>4</v>
       </c>
-      <c r="K114" s="25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11">
-      <c r="B115" s="18"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="I115" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="J115" s="12">
+      <c r="K115" s="34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11">
+      <c r="B116" s="18"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I116" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J116" s="12">
         <v>5</v>
       </c>
-      <c r="K115" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11">
-      <c r="B117" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I117" s="8" t="s">
+      <c r="K116" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="J117" s="8">
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="J118" s="8">
         <v>1</v>
       </c>
-      <c r="K117" s="24" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11">
-      <c r="B118" s="17"/>
-      <c r="H118" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J118" s="2">
+      <c r="K118" s="33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119" s="17"/>
+      <c r="H119" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J119" s="2">
         <v>2</v>
       </c>
-      <c r="K118" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11">
-      <c r="B119" s="18"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="I119" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="J119" s="12">
+      <c r="K119" s="34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11">
+      <c r="B120" s="18"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="I120" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="J120" s="12">
         <v>3</v>
       </c>
-      <c r="K119" s="26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11">
-      <c r="B121" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C121" s="7" t="b">
+      <c r="K120" s="35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C122" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I121" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="J121" s="8">
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J122" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K121" s="24" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11">
-      <c r="B122" s="17"/>
-      <c r="H122" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J122" s="2">
-        <f>POWER(2,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K122" s="25" t="s">
-        <v>221</v>
+      <c r="K122" s="33" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="2:11">
       <c r="B123" s="17"/>
       <c r="H123" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J123" s="2">
-        <f>POWER(2,2)</f>
-        <v>4</v>
-      </c>
-      <c r="K123" s="25" t="s">
-        <v>223</v>
+        <f>POWER(2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K123" s="34" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="2:11">
       <c r="B124" s="17"/>
       <c r="H124" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J124" s="2">
-        <f>POWER(2,3)</f>
-        <v>8</v>
-      </c>
-      <c r="K124" s="25" t="s">
-        <v>225</v>
+        <f>POWER(2,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K124" s="34" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="125" spans="2:11">
       <c r="B125" s="17"/>
       <c r="H125" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J125" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
-      </c>
-      <c r="K125" s="25" t="s">
-        <v>227</v>
+        <f>POWER(2,3)</f>
+        <v>8</v>
+      </c>
+      <c r="K125" s="34" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="2:11">
       <c r="B126" s="17"/>
       <c r="H126" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J126" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
-      </c>
-      <c r="K126" s="25" t="s">
-        <v>229</v>
+        <f>POWER(2,4)</f>
+        <v>16</v>
+      </c>
+      <c r="K126" s="34" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="2:11">
       <c r="B127" s="17"/>
       <c r="H127" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J127" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
-      </c>
-      <c r="K127" s="25" t="s">
-        <v>231</v>
+        <f>POWER(2,5)</f>
+        <v>32</v>
+      </c>
+      <c r="K127" s="34" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="2:11">
       <c r="B128" s="17"/>
       <c r="H128" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J128" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
-      </c>
-      <c r="K128" s="25" t="s">
-        <v>233</v>
+        <f>POWER(2,6)</f>
+        <v>64</v>
+      </c>
+      <c r="K128" s="34" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="129" spans="2:11">
       <c r="B129" s="17"/>
       <c r="H129" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J129" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K129" s="34" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11">
+      <c r="B130" s="17"/>
+      <c r="H130" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J130" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K129" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11">
-      <c r="B130" s="18"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="I130" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="J130" s="12">
+      <c r="K130" s="34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="B131" s="18"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="J131" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K130" s="26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11">
-      <c r="B132" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="C132" s="7" t="b">
+      <c r="K131" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C133" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="J132" s="8">
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J133" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K132" s="24" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="133" spans="2:11">
-      <c r="B133" s="17"/>
-      <c r="H133" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="J133" s="2">
-        <f>POWER(2,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K133" s="25" t="s">
-        <v>242</v>
+      <c r="K133" s="33" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="2:11">
       <c r="B134" s="17"/>
       <c r="H134" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J134" s="2">
-        <f>POWER(2,2)</f>
-        <v>4</v>
-      </c>
-      <c r="K134" s="25" t="s">
-        <v>244</v>
+        <f>POWER(2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K134" s="34" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="2:11">
       <c r="B135" s="17"/>
       <c r="H135" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J135" s="2">
-        <f>POWER(2,3)</f>
-        <v>8</v>
-      </c>
-      <c r="K135" s="25" t="s">
-        <v>246</v>
+        <f>POWER(2,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K135" s="34" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="17"/>
       <c r="H136" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J136" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
-      </c>
-      <c r="K136" s="25" t="s">
-        <v>248</v>
+        <f>POWER(2,3)</f>
+        <v>8</v>
+      </c>
+      <c r="K136" s="34" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="137" spans="2:11">
       <c r="B137" s="17"/>
       <c r="H137" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J137" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
-      </c>
-      <c r="K137" s="25" t="s">
-        <v>250</v>
+        <f>POWER(2,4)</f>
+        <v>16</v>
+      </c>
+      <c r="K137" s="34" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="2:11">
       <c r="B138" s="17"/>
       <c r="H138" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J138" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
-      </c>
-      <c r="K138" s="25" t="s">
-        <v>252</v>
+        <f>POWER(2,5)</f>
+        <v>32</v>
+      </c>
+      <c r="K138" s="34" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="139" spans="2:11">
       <c r="B139" s="17"/>
       <c r="H139" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J139" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
-      </c>
-      <c r="K139" s="25" t="s">
-        <v>254</v>
+        <f>POWER(2,6)</f>
+        <v>64</v>
+      </c>
+      <c r="K139" s="34" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="140" spans="2:11">
       <c r="B140" s="17"/>
       <c r="H140" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J140" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K140" s="34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11">
+      <c r="B141" s="17"/>
+      <c r="H141" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J141" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K140" s="25" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11">
-      <c r="B141" s="18"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="I141" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="J141" s="12">
+      <c r="K141" s="34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" s="18"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J142" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K141" s="26" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11">
-      <c r="B143" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="C143" s="7" t="b">
+      <c r="K142" s="35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11">
+      <c r="B144" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C144" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="I143" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="J143" s="8">
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="J144" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K143" s="24" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11">
-      <c r="B144" s="17"/>
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="I144" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="J144" s="28">
+      <c r="K144" s="33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11">
+      <c r="B145" s="17"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="23"/>
+      <c r="G145" s="23"/>
+      <c r="H145" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="I145" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="J145" s="24">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K144" s="25" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11">
-      <c r="B145" s="17"/>
-      <c r="C145" s="27"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27"/>
-      <c r="G145" s="27"/>
-      <c r="H145" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="I145" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="J145" s="28">
+      <c r="K145" s="34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11">
+      <c r="B146" s="17"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="I146" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="J146" s="24">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K145" s="25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11">
-      <c r="B146" s="18"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="I146" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="J146" s="12">
+      <c r="K146" s="34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="18"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="J147" s="12">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K146" s="26" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11">
-      <c r="B148" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="C148" s="7" t="b">
+      <c r="K147" s="35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11">
+      <c r="B149" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C149" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="I148" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="J148" s="8">
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J149" s="8">
         <v>1</v>
       </c>
-      <c r="K148" s="24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11">
-      <c r="B149" s="17"/>
-      <c r="H149" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="J149" s="2">
-        <v>2</v>
-      </c>
-      <c r="K149" s="25" t="s">
-        <v>272</v>
+      <c r="K149" s="33" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="2:11">
       <c r="B150" s="17"/>
       <c r="H150" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J150" s="2">
+        <v>2</v>
+      </c>
+      <c r="K150" s="34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11">
+      <c r="B151" s="17"/>
+      <c r="H151" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J151" s="2">
         <v>3</v>
       </c>
-      <c r="K150" s="25" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11">
-      <c r="B151" s="18"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="I151" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="J151" s="12">
+      <c r="K151" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="B152" s="18"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="I152" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J152" s="12">
         <v>4</v>
       </c>
-      <c r="K151" s="26" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11">
-      <c r="B153" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C153" s="7" t="b">
+      <c r="K152" s="35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11">
+      <c r="B154" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C154" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="I153" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="J153" s="8">
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I154" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J154" s="8">
         <v>1</v>
       </c>
-      <c r="K153" s="24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11">
-      <c r="B154" s="18"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-      <c r="E154" s="11"/>
-      <c r="F154" s="11"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="I154" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="J154" s="12">
+      <c r="K154" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11">
+      <c r="B155" s="18"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="J155" s="12">
         <v>2</v>
       </c>
-      <c r="K154" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11">
-      <c r="B156" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="C156" s="30" t="b">
+      <c r="K155" s="35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11">
+      <c r="B157" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C157" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D156" s="30"/>
-      <c r="E156" s="30"/>
-      <c r="F156" s="30"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="I156" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="J156" s="31">
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="I157" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J157" s="8">
         <v>1</v>
       </c>
-      <c r="K156" s="36" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="157" spans="2:11">
-      <c r="B157" s="32"/>
-      <c r="H157" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="J157" s="2">
+      <c r="K157" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11">
+      <c r="B158" s="17"/>
+      <c r="H158" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J158" s="2">
         <v>2</v>
       </c>
-      <c r="K157" s="37" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="158" spans="2:11">
-      <c r="B158" s="32"/>
-      <c r="H158" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J158" s="2">
+      <c r="K158" s="34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11">
+      <c r="B159" s="17"/>
+      <c r="H159" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J159" s="2">
         <v>3</v>
       </c>
-      <c r="K158" s="37" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="159" spans="2:11">
-      <c r="B159" s="33"/>
-      <c r="C159" s="34"/>
-      <c r="D159" s="34"/>
-      <c r="E159" s="34"/>
-      <c r="F159" s="34"/>
-      <c r="G159" s="34"/>
-      <c r="H159" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="I159" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="J159" s="35">
+      <c r="K159" s="34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11">
+      <c r="B160" s="18"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="J160" s="12">
         <v>4</v>
       </c>
-      <c r="K159" s="38" t="s">
-        <v>290</v>
+      <c r="K160" s="35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11">
+      <c r="B162" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="C162" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D162" s="38"/>
+      <c r="E162" s="38"/>
+      <c r="F162" s="38"/>
+      <c r="G162" s="38"/>
+      <c r="H162" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="I162" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="J162" s="39">
+        <v>1</v>
+      </c>
+      <c r="K162" s="44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11">
+      <c r="B163" s="40"/>
+      <c r="H163" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J163" s="2">
+        <v>2</v>
+      </c>
+      <c r="K163" s="45" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11">
+      <c r="B164" s="40"/>
+      <c r="H164" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J164" s="2">
+        <v>3</v>
+      </c>
+      <c r="K164" s="45" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11">
+      <c r="B165" s="40"/>
+      <c r="H165" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J165" s="2">
+        <v>4</v>
+      </c>
+      <c r="K165" s="45" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11">
+      <c r="B166" s="40"/>
+      <c r="H166" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J166" s="2">
+        <v>5</v>
+      </c>
+      <c r="K166" s="45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11">
+      <c r="B167" s="41"/>
+      <c r="C167" s="42"/>
+      <c r="D167" s="42"/>
+      <c r="E167" s="42"/>
+      <c r="F167" s="42"/>
+      <c r="G167" s="42"/>
+      <c r="H167" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="I167" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="J167" s="43">
+        <v>6</v>
+      </c>
+      <c r="K167" s="46" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B41:B74"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B81:B90"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B121:B130"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B42:B75"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B82:B91"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B122:B131"/>
+    <mergeCell ref="B133:B142"/>
+    <mergeCell ref="B144:B147"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="B162:B167"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="314">
   <si>
     <t>##var</t>
   </si>
@@ -434,36 +434,24 @@
     <t>BuffType_ModifyProperty</t>
   </si>
   <si>
-    <t>ModifyProperty</t>
-  </si>
-  <si>
     <t>修改属性值</t>
   </si>
   <si>
     <t>BuffType_Control</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
     <t>控制类</t>
   </si>
   <si>
     <t>BuffType_ContinueDamage</t>
   </si>
   <si>
-    <t>ContinueDamage</t>
-  </si>
-  <si>
     <t>持续伤害</t>
   </si>
   <si>
     <t>BuffType_Action</t>
   </si>
   <si>
-    <t>Action</t>
-  </si>
-  <si>
     <t>响应行动</t>
   </si>
   <si>
@@ -945,6 +933,42 @@
   </si>
   <si>
     <t>神话</t>
+  </si>
+  <si>
+    <t>BuffControlType</t>
+  </si>
+  <si>
+    <t>BuffControlType_Xuanyun</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>BuffControlType_Chenmo</t>
+  </si>
+  <si>
+    <t>沉默</t>
+  </si>
+  <si>
+    <t>BuffControlType_Zhimang</t>
+  </si>
+  <si>
+    <t>致盲</t>
+  </si>
+  <si>
+    <t>BuffActionType</t>
+  </si>
+  <si>
+    <t>BuffActionType_Yang</t>
+  </si>
+  <si>
+    <t>变羊</t>
+  </si>
+  <si>
+    <t>BuffActionType_Volume</t>
+  </si>
+  <si>
+    <t>修改后处理</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1847,6 +1871,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2176,10 +2203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L167"/>
+  <dimension ref="A1:L174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3450,37 +3477,37 @@
         <v>1</v>
       </c>
       <c r="K77" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="17"/>
       <c r="H78" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="J78" s="2">
         <v>2</v>
       </c>
       <c r="K78" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="17"/>
       <c r="H79" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J79" s="2">
         <v>3</v>
       </c>
       <c r="K79" s="34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="2:11">
@@ -3491,21 +3518,21 @@
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J80" s="12">
         <v>4</v>
       </c>
       <c r="K80" s="35" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3513,7 +3540,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8">
@@ -3524,121 +3551,121 @@
     <row r="83" spans="2:11">
       <c r="B83" s="17"/>
       <c r="H83" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J83" s="2">
         <v>1</v>
       </c>
       <c r="K83" s="34" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="2:11">
       <c r="B84" s="17"/>
       <c r="H84" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J84" s="2">
         <v>2</v>
       </c>
       <c r="K84" s="34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="17"/>
       <c r="H85" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J85" s="2">
         <v>3</v>
       </c>
       <c r="K85" s="34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="2:11">
       <c r="B86" s="17"/>
       <c r="H86" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J86" s="2">
         <v>4</v>
       </c>
       <c r="K86" s="34" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="2:11">
       <c r="B87" s="17"/>
       <c r="H87" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J87" s="2">
         <v>5</v>
       </c>
       <c r="K87" s="34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="2:11">
       <c r="B88" s="17"/>
       <c r="H88" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J88" s="2">
         <v>6</v>
       </c>
       <c r="K88" s="34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="2:11">
       <c r="B89" s="17"/>
       <c r="H89" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J89" s="2">
         <v>7</v>
       </c>
       <c r="K89" s="34" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="2:11">
       <c r="B90" s="17"/>
       <c r="H90" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J90" s="2">
         <v>8</v>
       </c>
       <c r="K90" s="34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="2:11">
@@ -3649,21 +3676,21 @@
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J91" s="12">
         <v>9</v>
       </c>
       <c r="K91" s="35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="2:11">
       <c r="B93" s="16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3671,16 +3698,16 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J93" s="8">
         <v>1</v>
       </c>
       <c r="K93" s="33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="2:11">
@@ -3691,21 +3718,21 @@
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J94" s="12">
         <v>2</v>
       </c>
       <c r="K94" s="35" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="2:11">
       <c r="B96" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3713,46 +3740,46 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J96" s="8">
         <v>1</v>
       </c>
       <c r="K96" s="33" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="17"/>
       <c r="H97" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J97" s="2">
         <v>2</v>
       </c>
       <c r="K97" s="34" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="17"/>
       <c r="H98" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J98" s="2">
         <v>3</v>
       </c>
       <c r="K98" s="34" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="2:11">
@@ -3763,21 +3790,21 @@
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J99" s="12">
         <v>4</v>
       </c>
       <c r="K99" s="35" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="2:11">
       <c r="B101" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3785,16 +3812,16 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J101" s="8">
         <v>1</v>
       </c>
       <c r="K101" s="33" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="2:11">
@@ -3805,16 +3832,16 @@
       <c r="F102" s="23"/>
       <c r="G102" s="23"/>
       <c r="H102" s="23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J102" s="24">
         <v>2</v>
       </c>
       <c r="K102" s="34" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="2:11">
@@ -3825,16 +3852,16 @@
       <c r="F103" s="23"/>
       <c r="G103" s="23"/>
       <c r="H103" s="23" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I103" s="24" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J103" s="24">
         <v>3</v>
       </c>
       <c r="K103" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="2:11">
@@ -3845,16 +3872,16 @@
       <c r="F104" s="23"/>
       <c r="G104" s="23"/>
       <c r="H104" s="23" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I104" s="24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J104" s="24">
         <v>4</v>
       </c>
       <c r="K104" s="34" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="2:11">
@@ -3865,21 +3892,21 @@
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J105" s="12">
         <v>5</v>
       </c>
       <c r="K105" s="35" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="2:11">
       <c r="B107" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3887,46 +3914,46 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J107" s="8">
         <v>1</v>
       </c>
       <c r="K107" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="2:11">
       <c r="B108" s="17"/>
       <c r="H108" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J108" s="2">
         <v>2</v>
       </c>
       <c r="K108" s="34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="2:11">
       <c r="B109" s="17"/>
       <c r="H109" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J109" s="2">
         <v>3</v>
       </c>
       <c r="K109" s="34" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" spans="2:11">
@@ -3937,21 +3964,21 @@
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
       <c r="H110" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I110" s="12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J110" s="12">
         <v>4</v>
       </c>
       <c r="K110" s="35" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="112" spans="2:11">
       <c r="B112" s="16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3959,61 +3986,61 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J112" s="8">
         <v>1</v>
       </c>
       <c r="K112" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="2:11">
       <c r="B113" s="17"/>
       <c r="H113" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J113" s="2">
         <v>2</v>
       </c>
       <c r="K113" s="34" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="2:11">
       <c r="B114" s="17"/>
       <c r="H114" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J114" s="2">
         <v>3</v>
       </c>
       <c r="K114" s="34" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="2:11">
       <c r="B115" s="17"/>
       <c r="H115" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J115" s="2">
         <v>4</v>
       </c>
       <c r="K115" s="34" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="2:11">
@@ -4024,21 +4051,21 @@
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
       <c r="H116" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I116" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J116" s="12">
         <v>5</v>
       </c>
       <c r="K116" s="35" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="2:11">
       <c r="B118" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4046,31 +4073,31 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J118" s="8">
         <v>1</v>
       </c>
       <c r="K118" s="33" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="2:11">
       <c r="B119" s="17"/>
       <c r="H119" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J119" s="2">
         <v>2</v>
       </c>
       <c r="K119" s="34" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="2:11">
@@ -4081,21 +4108,21 @@
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
       <c r="H120" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I120" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J120" s="12">
         <v>3</v>
       </c>
       <c r="K120" s="35" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="2:11">
       <c r="B122" s="16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C122" s="7" t="b">
         <v>1</v>
@@ -4105,145 +4132,145 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J122" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
       <c r="K122" s="33" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="2:11">
       <c r="B123" s="17"/>
       <c r="H123" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J123" s="2">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
       <c r="K123" s="34" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="2:11">
       <c r="B124" s="17"/>
       <c r="H124" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J124" s="2">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
       <c r="K124" s="34" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="2:11">
       <c r="B125" s="17"/>
       <c r="H125" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J125" s="2">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
       <c r="K125" s="34" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="2:11">
       <c r="B126" s="17"/>
       <c r="H126" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J126" s="2">
         <f>POWER(2,4)</f>
         <v>16</v>
       </c>
       <c r="K126" s="34" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="2:11">
       <c r="B127" s="17"/>
       <c r="H127" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J127" s="2">
         <f>POWER(2,5)</f>
         <v>32</v>
       </c>
       <c r="K127" s="34" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="2:11">
       <c r="B128" s="17"/>
       <c r="H128" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J128" s="2">
         <f>POWER(2,6)</f>
         <v>64</v>
       </c>
       <c r="K128" s="34" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="129" spans="2:11">
       <c r="B129" s="17"/>
       <c r="H129" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J129" s="2">
         <f>POWER(2,7)</f>
         <v>128</v>
       </c>
       <c r="K129" s="34" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="2:11">
       <c r="B130" s="17"/>
       <c r="H130" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J130" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
       <c r="K130" s="34" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="2:11">
@@ -4254,22 +4281,22 @@
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
       <c r="H131" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I131" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J131" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
       <c r="K131" s="35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="2:11">
       <c r="B133" s="16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C133" s="7" t="b">
         <v>1</v>
@@ -4279,145 +4306,145 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J133" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
       <c r="K133" s="33" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134" spans="2:11">
       <c r="B134" s="17"/>
       <c r="H134" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J134" s="2">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
       <c r="K134" s="34" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" spans="2:11">
       <c r="B135" s="17"/>
       <c r="H135" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J135" s="2">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
       <c r="K135" s="34" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="17"/>
       <c r="H136" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J136" s="2">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
       <c r="K136" s="34" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" spans="2:11">
       <c r="B137" s="17"/>
       <c r="H137" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J137" s="2">
         <f>POWER(2,4)</f>
         <v>16</v>
       </c>
       <c r="K137" s="34" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="2:11">
       <c r="B138" s="17"/>
       <c r="H138" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J138" s="2">
         <f>POWER(2,5)</f>
         <v>32</v>
       </c>
       <c r="K138" s="34" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="139" spans="2:11">
       <c r="B139" s="17"/>
       <c r="H139" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J139" s="2">
         <f>POWER(2,6)</f>
         <v>64</v>
       </c>
       <c r="K139" s="34" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="140" spans="2:11">
       <c r="B140" s="17"/>
       <c r="H140" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J140" s="2">
         <f>POWER(2,7)</f>
         <v>128</v>
       </c>
       <c r="K140" s="34" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="141" spans="2:11">
       <c r="B141" s="17"/>
       <c r="H141" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J141" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
       <c r="K141" s="34" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142" spans="2:11">
@@ -4428,22 +4455,22 @@
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
       <c r="H142" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J142" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
       <c r="K142" s="35" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="2:11">
       <c r="B144" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C144" s="7" t="b">
         <v>1</v>
@@ -4453,17 +4480,17 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J144" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
       <c r="K144" s="33" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="145" spans="2:11">
@@ -4474,17 +4501,17 @@
       <c r="F145" s="23"/>
       <c r="G145" s="23"/>
       <c r="H145" s="24" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I145" s="24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J145" s="24">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
       <c r="K145" s="34" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="2:11">
@@ -4495,17 +4522,17 @@
       <c r="F146" s="23"/>
       <c r="G146" s="23"/>
       <c r="H146" s="24" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I146" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J146" s="24">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
       <c r="K146" s="34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="2:11">
@@ -4516,22 +4543,22 @@
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
       <c r="H147" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I147" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J147" s="12">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
       <c r="K147" s="35" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="149" spans="2:11">
       <c r="B149" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C149" s="7" t="b">
         <v>1</v>
@@ -4541,46 +4568,46 @@
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J149" s="8">
         <v>1</v>
       </c>
       <c r="K149" s="33" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" spans="2:11">
       <c r="B150" s="17"/>
       <c r="H150" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J150" s="2">
         <v>2</v>
       </c>
       <c r="K150" s="34" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="151" spans="2:11">
       <c r="B151" s="17"/>
       <c r="H151" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J151" s="2">
         <v>3</v>
       </c>
       <c r="K151" s="34" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="152" spans="2:11">
@@ -4591,21 +4618,21 @@
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
       <c r="H152" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J152" s="12">
         <v>4</v>
       </c>
       <c r="K152" s="35" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="154" spans="2:11">
       <c r="B154" s="16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C154" s="7" t="b">
         <v>1</v>
@@ -4615,16 +4642,16 @@
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J154" s="8">
         <v>1</v>
       </c>
       <c r="K154" s="33" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="155" spans="2:11">
@@ -4635,21 +4662,21 @@
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
       <c r="H155" s="12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J155" s="12">
         <v>2</v>
       </c>
       <c r="K155" s="35" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="2:11">
       <c r="B157" s="16" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C157" s="7" t="b">
         <v>1</v>
@@ -4659,46 +4686,46 @@
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J157" s="8">
         <v>1</v>
       </c>
       <c r="K157" s="33" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="158" spans="2:11">
       <c r="B158" s="17"/>
       <c r="H158" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J158" s="2">
         <v>2</v>
       </c>
       <c r="K158" s="34" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="2:11">
       <c r="B159" s="17"/>
       <c r="H159" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J159" s="2">
         <v>3</v>
       </c>
       <c r="K159" s="34" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="160" spans="2:11">
@@ -4709,21 +4736,21 @@
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
       <c r="H160" s="12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="J160" s="12">
         <v>4</v>
       </c>
       <c r="K160" s="35" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="162" spans="2:11">
       <c r="B162" s="37" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C162" s="38" t="b">
         <v>1</v>
@@ -4733,7 +4760,7 @@
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
       <c r="H162" s="39" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I162" s="39" t="s">
         <v>61</v>
@@ -4741,68 +4768,68 @@
       <c r="J162" s="39">
         <v>1</v>
       </c>
-      <c r="K162" s="44" t="s">
+      <c r="K162" s="45" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="163" spans="2:11">
       <c r="B163" s="40"/>
       <c r="H163" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J163" s="2">
         <v>2</v>
       </c>
-      <c r="K163" s="45" t="s">
-        <v>297</v>
+      <c r="K163" s="46" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="164" spans="2:11">
       <c r="B164" s="40"/>
       <c r="H164" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J164" s="2">
         <v>3</v>
       </c>
-      <c r="K164" s="45" t="s">
-        <v>299</v>
+      <c r="K164" s="46" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="165" spans="2:11">
       <c r="B165" s="40"/>
       <c r="H165" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J165" s="2">
         <v>4</v>
       </c>
-      <c r="K165" s="45" t="s">
-        <v>301</v>
+      <c r="K165" s="46" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="166" spans="2:11">
       <c r="B166" s="40"/>
       <c r="H166" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J166" s="2">
         <v>5</v>
       </c>
-      <c r="K166" s="45" t="s">
-        <v>303</v>
+      <c r="K166" s="46" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="2:11">
@@ -4813,16 +4840,98 @@
       <c r="F167" s="42"/>
       <c r="G167" s="42"/>
       <c r="H167" s="43" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I167" s="43" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J167" s="43">
         <v>6</v>
       </c>
-      <c r="K167" s="46" t="s">
+      <c r="K167" s="47" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11">
+      <c r="B169" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C169" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J169" s="2">
+        <v>1</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="170" spans="8:11">
+      <c r="H170" s="2" t="s">
         <v>305</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J170" s="2">
+        <v>2</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="171" spans="8:11">
+      <c r="H171" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J171" s="2">
+        <v>3</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11">
+      <c r="B173" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C173" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J173" s="2">
+        <v>1</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="174" spans="8:11">
+      <c r="H174" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="J174" s="2">
+        <v>2</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="300">
   <si>
     <t>##var</t>
   </si>
@@ -341,9 +341,6 @@
     <t>GamePropertyType_Speed</t>
   </si>
   <si>
-    <t>Speed</t>
-  </si>
-  <si>
     <t>移动速度</t>
   </si>
   <si>
@@ -428,33 +425,6 @@
     <t>暴击</t>
   </si>
   <si>
-    <t>BuffType</t>
-  </si>
-  <si>
-    <t>BuffType_ModifyProperty</t>
-  </si>
-  <si>
-    <t>修改属性值</t>
-  </si>
-  <si>
-    <t>BuffType_Control</t>
-  </si>
-  <si>
-    <t>控制类</t>
-  </si>
-  <si>
-    <t>BuffType_ContinueDamage</t>
-  </si>
-  <si>
-    <t>持续伤害</t>
-  </si>
-  <si>
-    <t>BuffType_Action</t>
-  </si>
-  <si>
-    <t>响应行动</t>
-  </si>
-  <si>
     <t>EquipmentType</t>
   </si>
   <si>
@@ -623,352 +593,340 @@
     <t>聊天频道最大值</t>
   </si>
   <si>
-    <t>SkillRange</t>
-  </si>
-  <si>
-    <t>SkillRange_Single</t>
+    <t>AvocationType</t>
+  </si>
+  <si>
+    <t>AvocationType_Fishing</t>
+  </si>
+  <si>
+    <t>钓鱼</t>
+  </si>
+  <si>
+    <t>AvocationType_Archaeology</t>
+  </si>
+  <si>
+    <t>考古</t>
+  </si>
+  <si>
+    <t>AvocationType_Cooking</t>
+  </si>
+  <si>
+    <t>烹饪</t>
+  </si>
+  <si>
+    <t>RaceType</t>
+  </si>
+  <si>
+    <t>RaceType_Human</t>
+  </si>
+  <si>
+    <t>人类</t>
+  </si>
+  <si>
+    <t>RaceType_NightElf</t>
+  </si>
+  <si>
+    <t>暗夜精灵</t>
+  </si>
+  <si>
+    <t>RaceType_Dwarf</t>
+  </si>
+  <si>
+    <t>矮人</t>
+  </si>
+  <si>
+    <t>RaceType_Draenei</t>
+  </si>
+  <si>
+    <t>德莱尼</t>
+  </si>
+  <si>
+    <t>RaceType_Orc</t>
+  </si>
+  <si>
+    <t>兽人</t>
+  </si>
+  <si>
+    <t>RaceType_Troll</t>
+  </si>
+  <si>
+    <t>巨魔</t>
+  </si>
+  <si>
+    <t>RaceType_Undead</t>
+  </si>
+  <si>
+    <t>亡灵</t>
+  </si>
+  <si>
+    <t>RaceType_Tauren</t>
+  </si>
+  <si>
+    <t>牛头人</t>
+  </si>
+  <si>
+    <t>RaceType_BloodElf</t>
+  </si>
+  <si>
+    <t>血精灵</t>
+  </si>
+  <si>
+    <t>RaceType_Gnome</t>
+  </si>
+  <si>
+    <t>侏儒</t>
+  </si>
+  <si>
+    <t>CharacterType</t>
+  </si>
+  <si>
+    <t>CharacterType_Warrior</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>CharacterType_Paladin</t>
+  </si>
+  <si>
+    <t>骑士</t>
+  </si>
+  <si>
+    <t>CharacterType_Mage</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
+    <t>CharacterType_Priest</t>
+  </si>
+  <si>
+    <t>牧师</t>
+  </si>
+  <si>
+    <t>CharacterType_Rogue</t>
+  </si>
+  <si>
+    <t>盗贼</t>
+  </si>
+  <si>
+    <t>CharacterType_Druid</t>
+  </si>
+  <si>
+    <t>德鲁伊</t>
+  </si>
+  <si>
+    <t>CharacterType_Hunter</t>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <t>CharacterType_Warlock</t>
+  </si>
+  <si>
+    <t>术士</t>
+  </si>
+  <si>
+    <t>CharacterType_Shaman</t>
+  </si>
+  <si>
+    <t>萨满</t>
+  </si>
+  <si>
+    <t>CharacterType_DarkKnight</t>
+  </si>
+  <si>
+    <t>死亡骑士</t>
+  </si>
+  <si>
+    <t>GemColor</t>
+  </si>
+  <si>
+    <t>GemColor_Red</t>
+  </si>
+  <si>
+    <t>红色宝石</t>
+  </si>
+  <si>
+    <t>GemColor_Yellow</t>
+  </si>
+  <si>
+    <t>黄色宝石</t>
+  </si>
+  <si>
+    <t>GemColor_Blue</t>
+  </si>
+  <si>
+    <t>蓝色宝石</t>
+  </si>
+  <si>
+    <t>GemColor_Colorful</t>
+  </si>
+  <si>
+    <t>多彩宝石</t>
+  </si>
+  <si>
+    <t>ShopType</t>
+  </si>
+  <si>
+    <t>ShopType_Common</t>
+  </si>
+  <si>
+    <t>通用商店</t>
+  </si>
+  <si>
+    <t>ShopType_Dungeons</t>
+  </si>
+  <si>
+    <t>地下城商店</t>
+  </si>
+  <si>
+    <t>ShopType_Diamond</t>
+  </si>
+  <si>
+    <t>钻石商店</t>
+  </si>
+  <si>
+    <t>ShopType_Mijing</t>
+  </si>
+  <si>
+    <t>秘境商店</t>
+  </si>
+  <si>
+    <t>AchievementType</t>
+  </si>
+  <si>
+    <t>AchievementType_PropertyCompare</t>
+  </si>
+  <si>
+    <t>属性比较</t>
+  </si>
+  <si>
+    <t>AchievementType_Currency</t>
+  </si>
+  <si>
+    <t>货币比较</t>
+  </si>
+  <si>
+    <t>PackType</t>
+  </si>
+  <si>
+    <t>PackType_Normal</t>
+  </si>
+  <si>
+    <t>固定物品</t>
+  </si>
+  <si>
+    <t>PackType_Choose</t>
+  </si>
+  <si>
+    <t>可选物品</t>
+  </si>
+  <si>
+    <t>PackType_Random</t>
+  </si>
+  <si>
+    <t>随机物品</t>
+  </si>
+  <si>
+    <t>PackType_RandomCount</t>
+  </si>
+  <si>
+    <t>随机数量物品</t>
+  </si>
+  <si>
+    <t>LotteryQuality</t>
+  </si>
+  <si>
+    <t>LotteryQuality_Gray</t>
+  </si>
+  <si>
+    <t>LotteryQuality_Green</t>
+  </si>
+  <si>
+    <t>优秀</t>
+  </si>
+  <si>
+    <t>LotteryQuality_Blue</t>
+  </si>
+  <si>
+    <t>精良</t>
+  </si>
+  <si>
+    <t>LotteryQuality_Purple</t>
+  </si>
+  <si>
+    <t>史诗</t>
+  </si>
+  <si>
+    <t>LotteryQuality_Orange</t>
+  </si>
+  <si>
+    <t>传说</t>
+  </si>
+  <si>
+    <t>LotteryQuality_Red</t>
+  </si>
+  <si>
+    <t>神话</t>
+  </si>
+  <si>
+    <t>SelectTargetType</t>
+  </si>
+  <si>
+    <t>SelectTargetType_Single</t>
   </si>
   <si>
     <t>单体</t>
   </si>
   <si>
-    <t>SkillRange_SelfRound</t>
+    <t>SelectTargetType_Cycle</t>
   </si>
   <si>
     <t>自身周围圆形</t>
   </si>
   <si>
-    <t>SkillRange_ForwardRect</t>
-  </si>
-  <si>
-    <t>前方矩形</t>
-  </si>
-  <si>
-    <t>SkillRange_ForwardSector180</t>
-  </si>
-  <si>
-    <t>前方180度扇形</t>
-  </si>
-  <si>
-    <t>SkillRange_ForwardSector90</t>
-  </si>
-  <si>
-    <t>前方90度扇形</t>
-  </si>
-  <si>
-    <t>AvocationType</t>
-  </si>
-  <si>
-    <t>AvocationType_Fishing</t>
-  </si>
-  <si>
-    <t>钓鱼</t>
-  </si>
-  <si>
-    <t>AvocationType_Archaeology</t>
-  </si>
-  <si>
-    <t>考古</t>
-  </si>
-  <si>
-    <t>AvocationType_Cooking</t>
-  </si>
-  <si>
-    <t>烹饪</t>
-  </si>
-  <si>
-    <t>RaceType</t>
-  </si>
-  <si>
-    <t>RaceType_Human</t>
-  </si>
-  <si>
-    <t>人类</t>
-  </si>
-  <si>
-    <t>RaceType_NightElf</t>
-  </si>
-  <si>
-    <t>暗夜精灵</t>
-  </si>
-  <si>
-    <t>RaceType_Dwarf</t>
-  </si>
-  <si>
-    <t>矮人</t>
-  </si>
-  <si>
-    <t>RaceType_Draenei</t>
-  </si>
-  <si>
-    <t>德莱尼</t>
-  </si>
-  <si>
-    <t>RaceType_Orc</t>
-  </si>
-  <si>
-    <t>兽人</t>
-  </si>
-  <si>
-    <t>RaceType_Troll</t>
-  </si>
-  <si>
-    <t>巨魔</t>
-  </si>
-  <si>
-    <t>RaceType_Undead</t>
-  </si>
-  <si>
-    <t>亡灵</t>
-  </si>
-  <si>
-    <t>RaceType_Tauren</t>
-  </si>
-  <si>
-    <t>牛头人</t>
-  </si>
-  <si>
-    <t>RaceType_BloodElf</t>
-  </si>
-  <si>
-    <t>血精灵</t>
-  </si>
-  <si>
-    <t>RaceType_Gnome</t>
-  </si>
-  <si>
-    <t>侏儒</t>
-  </si>
-  <si>
-    <t>CharacterType</t>
-  </si>
-  <si>
-    <t>CharacterType_Warrior</t>
-  </si>
-  <si>
-    <t>战士</t>
-  </si>
-  <si>
-    <t>CharacterType_Paladin</t>
-  </si>
-  <si>
-    <t>骑士</t>
-  </si>
-  <si>
-    <t>CharacterType_Mage</t>
-  </si>
-  <si>
-    <t>法师</t>
-  </si>
-  <si>
-    <t>CharacterType_Priest</t>
-  </si>
-  <si>
-    <t>牧师</t>
-  </si>
-  <si>
-    <t>CharacterType_Rogue</t>
-  </si>
-  <si>
-    <t>盗贼</t>
-  </si>
-  <si>
-    <t>CharacterType_Druid</t>
-  </si>
-  <si>
-    <t>德鲁伊</t>
-  </si>
-  <si>
-    <t>CharacterType_Hunter</t>
-  </si>
-  <si>
-    <t>猎人</t>
-  </si>
-  <si>
-    <t>CharacterType_Warlock</t>
-  </si>
-  <si>
-    <t>术士</t>
-  </si>
-  <si>
-    <t>CharacterType_Shaman</t>
-  </si>
-  <si>
-    <t>萨满</t>
-  </si>
-  <si>
-    <t>CharacterType_DarkKnight</t>
-  </si>
-  <si>
-    <t>死亡骑士</t>
-  </si>
-  <si>
-    <t>GemColor</t>
-  </si>
-  <si>
-    <t>GemColor_Red</t>
-  </si>
-  <si>
-    <t>红色宝石</t>
-  </si>
-  <si>
-    <t>GemColor_Yellow</t>
-  </si>
-  <si>
-    <t>黄色宝石</t>
-  </si>
-  <si>
-    <t>GemColor_Blue</t>
-  </si>
-  <si>
-    <t>蓝色宝石</t>
-  </si>
-  <si>
-    <t>GemColor_Colorful</t>
-  </si>
-  <si>
-    <t>多彩宝石</t>
-  </si>
-  <si>
-    <t>ShopType</t>
-  </si>
-  <si>
-    <t>ShopType_Common</t>
-  </si>
-  <si>
-    <t>通用商店</t>
-  </si>
-  <si>
-    <t>ShopType_Dungeons</t>
-  </si>
-  <si>
-    <t>地下城商店</t>
-  </si>
-  <si>
-    <t>ShopType_Diamond</t>
-  </si>
-  <si>
-    <t>钻石商店</t>
-  </si>
-  <si>
-    <t>ShopType_Mijing</t>
-  </si>
-  <si>
-    <t>秘境商店</t>
-  </si>
-  <si>
-    <t>AchievementType</t>
-  </si>
-  <si>
-    <t>AchievementType_PropertyCompare</t>
-  </si>
-  <si>
-    <t>属性比较</t>
-  </si>
-  <si>
-    <t>AchievementType_Currency</t>
-  </si>
-  <si>
-    <t>货币比较</t>
-  </si>
-  <si>
-    <t>PackType</t>
-  </si>
-  <si>
-    <t>PackType_Normal</t>
-  </si>
-  <si>
-    <t>固定物品</t>
-  </si>
-  <si>
-    <t>PackType_Choose</t>
-  </si>
-  <si>
-    <t>可选物品</t>
-  </si>
-  <si>
-    <t>PackType_Random</t>
-  </si>
-  <si>
-    <t>随机物品</t>
-  </si>
-  <si>
-    <t>PackType_RandomCount</t>
-  </si>
-  <si>
-    <t>随机数量物品</t>
-  </si>
-  <si>
-    <t>LotteryQuality</t>
-  </si>
-  <si>
-    <t>LotteryQuality_Gray</t>
-  </si>
-  <si>
-    <t>LotteryQuality_Green</t>
-  </si>
-  <si>
-    <t>优秀</t>
-  </si>
-  <si>
-    <t>LotteryQuality_Blue</t>
-  </si>
-  <si>
-    <t>精良</t>
-  </si>
-  <si>
-    <t>LotteryQuality_Purple</t>
-  </si>
-  <si>
-    <t>史诗</t>
-  </si>
-  <si>
-    <t>LotteryQuality_Orange</t>
-  </si>
-  <si>
-    <t>传说</t>
-  </si>
-  <si>
-    <t>LotteryQuality_Red</t>
-  </si>
-  <si>
-    <t>神话</t>
-  </si>
-  <si>
-    <t>BuffControlType</t>
-  </si>
-  <si>
-    <t>BuffControlType_Xuanyun</t>
-  </si>
-  <si>
-    <t>眩晕</t>
-  </si>
-  <si>
-    <t>BuffControlType_Chenmo</t>
-  </si>
-  <si>
-    <t>沉默</t>
-  </si>
-  <si>
-    <t>BuffControlType_Zhimang</t>
-  </si>
-  <si>
-    <t>致盲</t>
-  </si>
-  <si>
-    <t>BuffActionType</t>
-  </si>
-  <si>
-    <t>BuffActionType_Yang</t>
-  </si>
-  <si>
-    <t>变羊</t>
-  </si>
-  <si>
-    <t>BuffActionType_Volume</t>
-  </si>
-  <si>
-    <t>修改后处理</t>
+    <t>SelectTargetType_ForwardRect</t>
+  </si>
+  <si>
+    <t>自身前方矩形</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>ActionType_ModifyProperty</t>
+  </si>
+  <si>
+    <t>修改属性行为</t>
+  </si>
+  <si>
+    <t>ActionType_Damage</t>
+  </si>
+  <si>
+    <t>伤害行为</t>
+  </si>
+  <si>
+    <t>MessageNotifyType</t>
+  </si>
+  <si>
+    <t>MessageNotifyType_Self</t>
+  </si>
+  <si>
+    <t>通知当前玩家</t>
+  </si>
+  <si>
+    <t>MessageNotifyType_Broadcast</t>
+  </si>
+  <si>
+    <t>通知视野内所有玩家</t>
+  </si>
+  <si>
+    <t>MessageNotifyType_BroadcastExceptMe</t>
+  </si>
+  <si>
+    <t>通知视野内所有玩家除了自己</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1872,7 +1830,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2203,10 +2167,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L174"/>
+  <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2218,8 +2182,8 @@
     <col min="5" max="5" width="3.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="3" style="1" customWidth="1"/>
     <col min="7" max="7" width="4.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="42.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.25" style="2" customWidth="1"/>
     <col min="11" max="11" width="36.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="2" customWidth="1"/>
@@ -2931,22 +2895,22 @@
         <v>1004</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="17"/>
       <c r="H46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="J46" s="2">
         <v>1005</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="2:11">
@@ -2956,76 +2920,76 @@
     <row r="48" spans="2:11">
       <c r="B48" s="17"/>
       <c r="H48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="J48" s="2">
         <v>1101</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="17"/>
       <c r="H49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="J49" s="2">
         <v>1102</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="17"/>
       <c r="H50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="J50" s="2">
         <v>1103</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="17"/>
       <c r="H51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="J51" s="2">
         <v>1104</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="17"/>
       <c r="H52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="J52" s="2">
         <v>1105</v>
       </c>
       <c r="K52" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="2:11">
@@ -3126,16 +3090,16 @@
     <row r="58" spans="2:11">
       <c r="B58" s="17"/>
       <c r="H58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="J58" s="2">
         <v>1106</v>
       </c>
       <c r="K58" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -3236,16 +3200,16 @@
     <row r="64" spans="2:11">
       <c r="B64" s="17"/>
       <c r="H64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="J64" s="2">
         <v>1107</v>
       </c>
       <c r="K64" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -3346,16 +3310,16 @@
     <row r="70" spans="2:11">
       <c r="B70" s="17"/>
       <c r="H70" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="J70" s="2">
         <v>1108</v>
       </c>
       <c r="K70" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -3460,7 +3424,7 @@
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -3468,96 +3432,99 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>135</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="I77" s="8"/>
       <c r="J77" s="8">
-        <v>1</v>
-      </c>
-      <c r="K77" s="33" t="s">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K77" s="33"/>
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="17"/>
       <c r="H78" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1</v>
+      </c>
+      <c r="K78" s="34" t="s">
         <v>136</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J78" s="2">
-        <v>2</v>
-      </c>
-      <c r="K78" s="34" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="17"/>
       <c r="H79" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="J79" s="2">
+        <v>2</v>
+      </c>
+      <c r="K79" s="34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" s="17"/>
+      <c r="H80" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J79" s="2">
+      <c r="I80" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J80" s="2">
         <v>3</v>
       </c>
-      <c r="K79" s="34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80" s="18"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="12" t="s">
+      <c r="K80" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I80" s="12" t="s">
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" s="17"/>
+      <c r="H81" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J80" s="12">
+      <c r="I81" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J81" s="2">
         <v>4</v>
       </c>
-      <c r="K80" s="35" t="s">
-        <v>141</v>
+      <c r="K81" s="34" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="8" t="s">
+      <c r="B82" s="17"/>
+      <c r="H82" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8">
-        <v>0</v>
-      </c>
-      <c r="K82" s="33"/>
+      <c r="I82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J82" s="2">
+        <v>5</v>
+      </c>
+      <c r="K82" s="34" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="83" spans="2:11">
       <c r="B83" s="17"/>
       <c r="H83" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J83" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K83" s="34" t="s">
         <v>146</v>
@@ -3572,7 +3539,7 @@
         <v>148</v>
       </c>
       <c r="J84" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K84" s="34" t="s">
         <v>148</v>
@@ -3587,127 +3554,124 @@
         <v>150</v>
       </c>
       <c r="J85" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K85" s="34" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="17"/>
-      <c r="H86" s="2" t="s">
+      <c r="B86" s="18"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I86" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="J86" s="2">
-        <v>4</v>
-      </c>
-      <c r="K86" s="34" t="s">
+      <c r="J86" s="12">
+        <v>9</v>
+      </c>
+      <c r="K86" s="35" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="2:11">
-      <c r="B87" s="17"/>
-      <c r="H87" s="2" t="s">
+    <row r="88" spans="2:11">
+      <c r="B88" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="J87" s="2">
-        <v>5</v>
-      </c>
-      <c r="K87" s="34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11">
-      <c r="B88" s="17"/>
-      <c r="H88" s="2" t="s">
+      <c r="I88" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="J88" s="8">
+        <v>1</v>
+      </c>
+      <c r="K88" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" s="18"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="J88" s="2">
-        <v>6</v>
-      </c>
-      <c r="K88" s="34" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11">
-      <c r="B89" s="17"/>
-      <c r="H89" s="2" t="s">
+      <c r="I89" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="J89" s="12">
+        <v>2</v>
+      </c>
+      <c r="K89" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="J89" s="2">
-        <v>7</v>
-      </c>
-      <c r="K89" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11">
-      <c r="B90" s="17"/>
-      <c r="H90" s="2" t="s">
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="I91" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="J90" s="2">
-        <v>8</v>
-      </c>
-      <c r="K90" s="34" t="s">
+      <c r="J91" s="8">
+        <v>1</v>
+      </c>
+      <c r="K91" s="33" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="2:11">
-      <c r="B91" s="18"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="12" t="s">
+    <row r="92" spans="2:11">
+      <c r="B92" s="17"/>
+      <c r="H92" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I91" s="12" t="s">
+      <c r="I92" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J91" s="12">
-        <v>9</v>
-      </c>
-      <c r="K91" s="35" t="s">
+      <c r="J92" s="2">
+        <v>2</v>
+      </c>
+      <c r="K92" s="34" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="93" spans="2:11">
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="17"/>
+      <c r="H93" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="8" t="s">
+      <c r="I93" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I93" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="J93" s="8">
-        <v>1</v>
-      </c>
-      <c r="K93" s="33" t="s">
-        <v>165</v>
+      <c r="J93" s="2">
+        <v>3</v>
+      </c>
+      <c r="K93" s="34" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="2:11">
@@ -3718,13 +3682,13 @@
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I94" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="I94" s="12" t="s">
-        <v>167</v>
-      </c>
       <c r="J94" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K94" s="35" t="s">
         <v>167</v>
@@ -3739,7 +3703,7 @@
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="8" t="s">
+      <c r="H96" s="7" t="s">
         <v>169</v>
       </c>
       <c r="I96" s="8" t="s">
@@ -3754,13 +3718,18 @@
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="17"/>
-      <c r="H97" s="2" t="s">
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="I97" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="J97" s="2">
+      <c r="J97" s="24">
         <v>2</v>
       </c>
       <c r="K97" s="34" t="s">
@@ -3769,13 +3738,18 @@
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="17"/>
-      <c r="H98" s="2" t="s">
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="I98" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="J98" s="2">
+      <c r="J98" s="24">
         <v>3</v>
       </c>
       <c r="K98" s="34" t="s">
@@ -3783,105 +3757,95 @@
       </c>
     </row>
     <row r="99" spans="2:11">
-      <c r="B99" s="18"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="12" t="s">
+      <c r="B99" s="17"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="I99" s="12" t="s">
+      <c r="I99" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="J99" s="12">
+      <c r="J99" s="24">
         <v>4</v>
       </c>
-      <c r="K99" s="35" t="s">
+      <c r="K99" s="34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="18"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="12" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="101" spans="2:11">
-      <c r="B101" s="16" t="s">
+      <c r="I100" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7" t="s">
+      <c r="J100" s="12">
+        <v>5</v>
+      </c>
+      <c r="K100" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="I101" s="8" t="s">
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="J101" s="8">
+      <c r="I102" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J102" s="8">
         <v>1</v>
       </c>
-      <c r="K101" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11">
-      <c r="B102" s="17"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23" t="s">
+      <c r="K102" s="33" t="s">
         <v>181</v>
-      </c>
-      <c r="I102" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="J102" s="24">
-        <v>2</v>
-      </c>
-      <c r="K102" s="34" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="103" spans="2:11">
       <c r="B103" s="17"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23" t="s">
+      <c r="H103" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I103" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I103" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="J103" s="24">
-        <v>3</v>
+      <c r="J103" s="2">
+        <v>2</v>
       </c>
       <c r="K103" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="104" spans="2:11">
       <c r="B104" s="17"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23" t="s">
+      <c r="H104" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I104" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I104" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="J104" s="24">
-        <v>4</v>
+      <c r="J104" s="2">
+        <v>3</v>
       </c>
       <c r="K104" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="2:11">
@@ -3892,21 +3856,21 @@
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I105" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="I105" s="12" t="s">
-        <v>188</v>
-      </c>
       <c r="J105" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K105" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="2:11">
       <c r="B107" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3914,174 +3878,187 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I107" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="I107" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="J107" s="8">
         <v>1</v>
       </c>
       <c r="K107" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="2:11">
       <c r="B108" s="17"/>
       <c r="H108" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I108" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="J108" s="2">
         <v>2</v>
       </c>
       <c r="K108" s="34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="18"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="12" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="109" spans="2:11">
-      <c r="B109" s="17"/>
-      <c r="H109" s="2" t="s">
+      <c r="I109" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="J109" s="12">
+        <v>3</v>
+      </c>
+      <c r="K109" s="35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="J109" s="2">
-        <v>3</v>
-      </c>
-      <c r="K109" s="34" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11">
-      <c r="B110" s="18"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="12" t="s">
+      <c r="C111" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="I110" s="12" t="s">
+      <c r="I111" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="J110" s="12">
-        <v>4</v>
-      </c>
-      <c r="K110" s="35" t="s">
+      <c r="J111" s="8">
+        <f>POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K111" s="33" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="112" spans="2:11">
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="17"/>
+      <c r="H112" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="8" t="s">
+      <c r="I112" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I112" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J112" s="8">
-        <v>1</v>
-      </c>
-      <c r="K112" s="33" t="s">
-        <v>200</v>
+      <c r="J112" s="2">
+        <f>POWER(2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K112" s="34" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="2:11">
       <c r="B113" s="17"/>
       <c r="H113" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I113" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I113" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="J113" s="2">
-        <v>2</v>
+        <f>POWER(2,2)</f>
+        <v>4</v>
       </c>
       <c r="K113" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="114" spans="2:11">
       <c r="B114" s="17"/>
       <c r="H114" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I114" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I114" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="J114" s="2">
-        <v>3</v>
+        <f>POWER(2,3)</f>
+        <v>8</v>
       </c>
       <c r="K114" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="2:11">
       <c r="B115" s="17"/>
       <c r="H115" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I115" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="J115" s="2">
+        <f>POWER(2,4)</f>
+        <v>16</v>
+      </c>
+      <c r="K115" s="34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11">
+      <c r="B116" s="17"/>
+      <c r="H116" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J115" s="2">
-        <v>4</v>
-      </c>
-      <c r="K115" s="34" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11">
-      <c r="B116" s="18"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="12" t="s">
+      <c r="I116" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="I116" s="12" t="s">
+      <c r="J116" s="2">
+        <f>POWER(2,5)</f>
+        <v>32</v>
+      </c>
+      <c r="K116" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117" s="17"/>
+      <c r="H117" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="J116" s="12">
-        <v>5</v>
-      </c>
-      <c r="K116" s="35" t="s">
-        <v>208</v>
+      <c r="I117" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J117" s="2">
+        <f>POWER(2,6)</f>
+        <v>64</v>
+      </c>
+      <c r="K117" s="34" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="118" spans="2:11">
-      <c r="B118" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="8" t="s">
+      <c r="B118" s="17"/>
+      <c r="H118" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I118" s="8" t="s">
+      <c r="I118" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J118" s="8">
-        <v>1</v>
-      </c>
-      <c r="K118" s="33" t="s">
+      <c r="J118" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K118" s="34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4094,7 +4071,8 @@
         <v>213</v>
       </c>
       <c r="J119" s="2">
-        <v>2</v>
+        <f>POWER(2,8)</f>
+        <v>256</v>
       </c>
       <c r="K119" s="34" t="s">
         <v>213</v>
@@ -4114,7 +4092,8 @@
         <v>215</v>
       </c>
       <c r="J120" s="12">
-        <v>3</v>
+        <f>POWER(2,9)</f>
+        <v>512</v>
       </c>
       <c r="K120" s="35" t="s">
         <v>215</v>
@@ -4321,13 +4300,18 @@
     </row>
     <row r="134" spans="2:11">
       <c r="B134" s="17"/>
-      <c r="H134" s="2" t="s">
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23"/>
+      <c r="H134" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="I134" s="2" t="s">
+      <c r="I134" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="J134" s="2">
+      <c r="J134" s="24">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
@@ -4337,13 +4321,18 @@
     </row>
     <row r="135" spans="2:11">
       <c r="B135" s="17"/>
-      <c r="H135" s="2" t="s">
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="I135" s="2" t="s">
+      <c r="I135" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="J135" s="2">
+      <c r="J135" s="24">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
@@ -4352,590 +4341,465 @@
       </c>
     </row>
     <row r="136" spans="2:11">
-      <c r="B136" s="17"/>
-      <c r="H136" s="2" t="s">
+      <c r="B136" s="18"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="I136" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="J136" s="2">
+      <c r="J136" s="12">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K136" s="34" t="s">
+      <c r="K136" s="35" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="137" spans="2:11">
-      <c r="B137" s="17"/>
-      <c r="H137" s="2" t="s">
+    <row r="138" spans="2:11">
+      <c r="B138" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="I137" s="2" t="s">
+      <c r="C138" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="J137" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
-      </c>
-      <c r="K137" s="34" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="138" spans="2:11">
-      <c r="B138" s="17"/>
-      <c r="H138" s="2" t="s">
+      <c r="I138" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="I138" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J138" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
-      </c>
-      <c r="K138" s="34" t="s">
-        <v>249</v>
+      <c r="J138" s="8">
+        <v>1</v>
+      </c>
+      <c r="K138" s="33" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="2:11">
       <c r="B139" s="17"/>
       <c r="H139" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I139" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="I139" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="J139" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="K139" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="2:11">
       <c r="B140" s="17"/>
       <c r="H140" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I140" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="I140" s="2" t="s">
+      <c r="J140" s="2">
+        <v>3</v>
+      </c>
+      <c r="K140" s="34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11">
+      <c r="B141" s="18"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="J140" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
-      </c>
-      <c r="K140" s="34" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11">
-      <c r="B141" s="17"/>
-      <c r="H141" s="2" t="s">
+      <c r="I141" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="I141" s="2" t="s">
+      <c r="J141" s="12">
+        <v>4</v>
+      </c>
+      <c r="K141" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11">
+      <c r="B143" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="J141" s="2">
-        <f>POWER(2,8)</f>
+      <c r="C143" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="K141" s="34" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11">
-      <c r="B142" s="18"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="I142" s="12" t="s">
+      <c r="I143" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="J142" s="12">
-        <f>POWER(2,9)</f>
-        <v>512</v>
-      </c>
-      <c r="K142" s="35" t="s">
+      <c r="J143" s="8">
+        <v>1</v>
+      </c>
+      <c r="K143" s="33" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="144" spans="2:11">
-      <c r="B144" s="16" t="s">
+      <c r="B144" s="18"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C144" s="7" t="b">
+      <c r="I144" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J144" s="12">
+        <v>2</v>
+      </c>
+      <c r="K144" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11">
+      <c r="B146" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C146" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="I144" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="J144" s="8">
-        <f>POWER(2,0)</f>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I146" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="J146" s="8">
         <v>1</v>
       </c>
-      <c r="K144" s="33" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11">
-      <c r="B145" s="17"/>
-      <c r="C145" s="23"/>
-      <c r="D145" s="23"/>
-      <c r="E145" s="23"/>
-      <c r="F145" s="23"/>
-      <c r="G145" s="23"/>
-      <c r="H145" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="I145" s="24" t="s">
+      <c r="K146" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="J145" s="24">
-        <f>POWER(2,1)</f>
+    </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="17"/>
+      <c r="H147" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J147" s="2">
         <v>2</v>
       </c>
-      <c r="K145" s="34" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11">
-      <c r="B146" s="17"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="23"/>
-      <c r="G146" s="23"/>
-      <c r="H146" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="I146" s="24" t="s">
+      <c r="K147" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="J146" s="24">
-        <f>POWER(2,2)</f>
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" s="17"/>
+      <c r="H148" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J148" s="2">
+        <v>3</v>
+      </c>
+      <c r="K148" s="34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11">
+      <c r="B149" s="18"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="I149" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="J149" s="12">
         <v>4</v>
       </c>
-      <c r="K146" s="34" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11">
-      <c r="B147" s="18"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="I147" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="J147" s="12">
-        <f>POWER(2,3)</f>
-        <v>8</v>
-      </c>
-      <c r="K147" s="35" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11">
-      <c r="B149" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C149" s="7" t="b">
+      <c r="K149" s="35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11">
+      <c r="B151" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C151" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="I149" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="J149" s="8">
+      <c r="D151" s="38"/>
+      <c r="E151" s="38"/>
+      <c r="F151" s="38"/>
+      <c r="G151" s="38"/>
+      <c r="H151" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="I151" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="J151" s="39">
         <v>1</v>
       </c>
-      <c r="K149" s="33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11">
-      <c r="B150" s="17"/>
-      <c r="H150" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I150" s="2" t="s">
+      <c r="K151" s="47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="B152" s="40"/>
+      <c r="H152" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="J150" s="2">
+      <c r="I152" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J152" s="2">
         <v>2</v>
       </c>
-      <c r="K150" s="34" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11">
-      <c r="B151" s="17"/>
-      <c r="H151" s="2" t="s">
+      <c r="K152" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="I151" s="2" t="s">
+    </row>
+    <row r="153" spans="2:11">
+      <c r="B153" s="40"/>
+      <c r="H153" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J151" s="2">
+      <c r="I153" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J153" s="2">
         <v>3</v>
       </c>
-      <c r="K151" s="34" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11">
-      <c r="B152" s="18"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="12" t="s">
+      <c r="K153" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="I152" s="12" t="s">
+    </row>
+    <row r="154" spans="2:11">
+      <c r="B154" s="40"/>
+      <c r="H154" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J152" s="12">
+      <c r="I154" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J154" s="2">
         <v>4</v>
       </c>
-      <c r="K152" s="35" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11">
-      <c r="B154" s="16" t="s">
+      <c r="K154" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="C154" s="7" t="b">
+    </row>
+    <row r="155" spans="2:11">
+      <c r="B155" s="40"/>
+      <c r="H155" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J155" s="2">
+        <v>5</v>
+      </c>
+      <c r="K155" s="48" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11">
+      <c r="B156" s="41"/>
+      <c r="C156" s="42"/>
+      <c r="D156" s="42"/>
+      <c r="E156" s="42"/>
+      <c r="F156" s="42"/>
+      <c r="G156" s="42"/>
+      <c r="H156" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="I156" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="J156" s="43">
+        <v>6</v>
+      </c>
+      <c r="K156" s="49" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11">
+      <c r="B158" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="C158" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="I154" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="J154" s="8">
+      <c r="D158" s="38"/>
+      <c r="E158" s="38"/>
+      <c r="F158" s="38"/>
+      <c r="G158" s="38"/>
+      <c r="H158" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="I158" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="J158" s="39">
         <v>1</v>
       </c>
-      <c r="K154" s="33" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11">
-      <c r="B155" s="18"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="11"/>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="I155" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="J155" s="12">
+      <c r="K158" s="47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11">
+      <c r="B159" s="45"/>
+      <c r="H159" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J159" s="2">
         <v>2</v>
       </c>
-      <c r="K155" s="35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="157" spans="2:11">
-      <c r="B157" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="C157" s="7" t="b">
+      <c r="K159" s="48" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11">
+      <c r="B160" s="46"/>
+      <c r="C160" s="42"/>
+      <c r="D160" s="42"/>
+      <c r="E160" s="42"/>
+      <c r="F160" s="42"/>
+      <c r="G160" s="42"/>
+      <c r="H160" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="I160" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="J160" s="43">
+        <v>3</v>
+      </c>
+      <c r="K160" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11">
+      <c r="B163" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C163" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="I157" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="J157" s="8">
+      <c r="H163" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J163" s="2">
         <v>1</v>
       </c>
-      <c r="K157" s="33" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="158" spans="2:11">
-      <c r="B158" s="17"/>
-      <c r="H158" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="J158" s="2">
+      <c r="K163" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="164" spans="8:11">
+      <c r="H164" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J164" s="2">
         <v>2</v>
       </c>
-      <c r="K158" s="34" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="159" spans="2:11">
-      <c r="B159" s="17"/>
-      <c r="H159" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J159" s="2">
+      <c r="K164" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11">
+      <c r="B171" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C171" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J171" s="2">
+        <v>1</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="172" spans="8:11">
+      <c r="H172" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J172" s="2">
+        <v>2</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="173" spans="8:11">
+      <c r="H173" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J173" s="2">
         <v>3</v>
       </c>
-      <c r="K159" s="34" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11">
-      <c r="B160" s="18"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="I160" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="J160" s="12">
-        <v>4</v>
-      </c>
-      <c r="K160" s="35" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11">
-      <c r="B162" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="C162" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D162" s="38"/>
-      <c r="E162" s="38"/>
-      <c r="F162" s="38"/>
-      <c r="G162" s="38"/>
-      <c r="H162" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="I162" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="J162" s="39">
-        <v>1</v>
-      </c>
-      <c r="K162" s="45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="163" spans="2:11">
-      <c r="B163" s="40"/>
-      <c r="H163" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I163" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="J163" s="2">
-        <v>2</v>
-      </c>
-      <c r="K163" s="46" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="164" spans="2:11">
-      <c r="B164" s="40"/>
-      <c r="H164" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="I164" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="J164" s="2">
-        <v>3</v>
-      </c>
-      <c r="K164" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="165" spans="2:11">
-      <c r="B165" s="40"/>
-      <c r="H165" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I165" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="J165" s="2">
-        <v>4</v>
-      </c>
-      <c r="K165" s="46" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="166" spans="2:11">
-      <c r="B166" s="40"/>
-      <c r="H166" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="I166" s="2" t="s">
+      <c r="K173" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="J166" s="2">
-        <v>5</v>
-      </c>
-      <c r="K166" s="46" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="167" spans="2:11">
-      <c r="B167" s="41"/>
-      <c r="C167" s="42"/>
-      <c r="D167" s="42"/>
-      <c r="E167" s="42"/>
-      <c r="F167" s="42"/>
-      <c r="G167" s="42"/>
-      <c r="H167" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="I167" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="J167" s="43">
-        <v>6</v>
-      </c>
-      <c r="K167" s="47" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="169" spans="2:11">
-      <c r="B169" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C169" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I169" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J169" s="2">
-        <v>1</v>
-      </c>
-      <c r="K169" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="170" spans="8:11">
-      <c r="H170" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="J170" s="2">
-        <v>2</v>
-      </c>
-      <c r="K170" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="171" spans="8:11">
-      <c r="H171" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="I171" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="J171" s="2">
-        <v>3</v>
-      </c>
-      <c r="K171" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="173" spans="2:11">
-      <c r="B173" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C173" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J173" s="2">
-        <v>1</v>
-      </c>
-      <c r="K173" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="174" spans="8:11">
-      <c r="H174" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="J174" s="2">
-        <v>2</v>
-      </c>
-      <c r="K174" s="2" t="s">
-        <v>313</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="21">
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B12:B15"/>
@@ -4944,21 +4808,19 @@
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="B35:B40"/>
     <mergeCell ref="B42:B75"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B82:B91"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B111:B120"/>
     <mergeCell ref="B122:B131"/>
-    <mergeCell ref="B133:B142"/>
-    <mergeCell ref="B144:B147"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B151:B156"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="311">
   <si>
     <t>##var</t>
   </si>
@@ -119,6 +119,33 @@
     <t>通用base</t>
   </si>
   <si>
+    <t>UnitType</t>
+  </si>
+  <si>
+    <t>UnitType_Player</t>
+  </si>
+  <si>
+    <t>玩家</t>
+  </si>
+  <si>
+    <t>UnitType_Monster</t>
+  </si>
+  <si>
+    <t>怪物</t>
+  </si>
+  <si>
+    <t>UnitType_Npc</t>
+  </si>
+  <si>
+    <t>Npc</t>
+  </si>
+  <si>
+    <t>UnitType_Bullet</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
     <t>NpcType</t>
   </si>
   <si>
@@ -906,6 +933,12 @@
   </si>
   <si>
     <t>伤害行为</t>
+  </si>
+  <si>
+    <t>ActionType_CastBullet</t>
+  </si>
+  <si>
+    <t>子弹行为</t>
   </si>
   <si>
     <t>MessageNotifyType</t>
@@ -1697,7 +1730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1737,6 +1770,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1794,6 +1848,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1812,24 +1875,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1838,15 +1889,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2167,10 +2209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L173"/>
+  <dimension ref="A1:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="H165" sqref="H165"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2296,7 +2338,7 @@
       <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="35" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2308,7 +2350,7 @@
       <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="36" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2320,7 +2362,7 @@
       <c r="J6" s="2">
         <v>3</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="37" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2332,7 +2374,7 @@
       <c r="J7" s="2">
         <v>4</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="37" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2350,7 +2392,7 @@
       <c r="J8" s="12">
         <v>99</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="38" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2368,85 +2410,93 @@
       <c r="H10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="J10" s="15">
         <v>1</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="39" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="16"/>
+      <c r="H11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="B12" s="16"/>
+      <c r="H12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="8">
-        <v>1</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>35</v>
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="17"/>
-      <c r="H13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="2">
-        <v>2</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="17"/>
-      <c r="H14" s="2" t="s">
+      <c r="I13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J13" s="19">
+        <v>4</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="2">
-        <v>3</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="18"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="35"/>
+      <c r="I15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="22">
+        <v>1</v>
+      </c>
+      <c r="K15" s="42" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="16" t="s">
-        <v>41</v>
+      <c r="B17" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="b">
@@ -2456,107 +2506,103 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J17" s="8">
         <v>1</v>
       </c>
-      <c r="K17" s="33" t="s">
-        <v>43</v>
+      <c r="K17" s="43" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="17"/>
+      <c r="B18" s="24"/>
       <c r="H18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J18" s="2">
         <v>2</v>
       </c>
-      <c r="K18" s="34" t="s">
-        <v>45</v>
+      <c r="K18" s="44" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="17"/>
+      <c r="B19" s="24"/>
       <c r="H19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J19" s="2">
         <v>3</v>
       </c>
-      <c r="K19" s="34" t="s">
-        <v>47</v>
+      <c r="K19" s="44" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="17"/>
-      <c r="H20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="2">
-        <v>4</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="18"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12" t="s">
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="45"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="12">
-        <v>5</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>51</v>
+      <c r="I22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="8">
+        <v>1</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8" t="s">
+      <c r="B23" s="24"/>
+      <c r="H23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="8">
-        <v>1</v>
-      </c>
-      <c r="K23" s="33" t="s">
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+      <c r="K23" s="44" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="17"/>
+      <c r="B24" s="24"/>
       <c r="H24" s="2" t="s">
         <v>55</v>
       </c>
@@ -2564,73 +2610,71 @@
         <v>56</v>
       </c>
       <c r="J24" s="2">
-        <v>2</v>
-      </c>
-      <c r="K24" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="44" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="18"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12" t="s">
+      <c r="B25" s="24"/>
+      <c r="H25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="12">
-        <v>3</v>
-      </c>
-      <c r="K25" s="35" t="s">
+      <c r="J25" s="2">
+        <v>4</v>
+      </c>
+      <c r="K25" s="44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="16" t="s">
+    <row r="26" spans="2:11">
+      <c r="B26" s="25"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="b">
+      <c r="I26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="12">
+        <v>5</v>
+      </c>
+      <c r="K26" s="45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="8">
-        <v>1</v>
-      </c>
-      <c r="K27" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="17"/>
-      <c r="H28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="K28" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="J28" s="2">
-        <v>2</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="17"/>
+      <c r="B29" s="24"/>
       <c r="H29" s="2" t="s">
         <v>64</v>
       </c>
@@ -2638,1044 +2682,1046 @@
         <v>65</v>
       </c>
       <c r="J29" s="2">
+        <v>2</v>
+      </c>
+      <c r="K29" s="44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="25"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="12">
         <v>3</v>
       </c>
-      <c r="K29" s="34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="17"/>
-      <c r="H30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="K30" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="2">
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+      <c r="K32" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="24"/>
+      <c r="H33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2</v>
+      </c>
+      <c r="K33" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="24"/>
+      <c r="H34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="2">
+        <v>3</v>
+      </c>
+      <c r="K34" s="44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="24"/>
+      <c r="H35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" s="2">
         <v>4</v>
       </c>
-      <c r="K30" s="34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="17"/>
-      <c r="H31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="K35" s="44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="24"/>
+      <c r="H36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J36" s="2">
         <v>5</v>
       </c>
-      <c r="K31" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="17"/>
-      <c r="H32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="K36" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="24"/>
+      <c r="H37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37" s="2">
         <v>6</v>
       </c>
-      <c r="K32" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="18"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J33" s="12">
+      <c r="K37" s="44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="25"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J38" s="12">
         <v>7</v>
       </c>
-      <c r="K33" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J35" s="8">
+      <c r="K38" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J40" s="8">
         <v>1</v>
       </c>
-      <c r="K35" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J36" s="22">
+      <c r="K40" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="27"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="J41" s="29">
         <v>2</v>
       </c>
-      <c r="K36" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J37" s="22">
+      <c r="K41" s="44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="27"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="29">
         <v>3</v>
       </c>
-      <c r="K37" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J38" s="22">
+      <c r="K42" s="44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="J43" s="29">
         <v>4</v>
       </c>
-      <c r="K38" s="34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="20"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="J39" s="24">
+      <c r="K43" s="44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="27"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="J44" s="31">
         <v>5</v>
       </c>
-      <c r="K39" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="J40" s="27">
+      <c r="K44" s="44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="J45" s="34">
         <v>6</v>
       </c>
-      <c r="K40" s="36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J42" s="8">
+      <c r="K45" s="46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J47" s="8">
         <v>1001</v>
       </c>
-      <c r="K42" s="33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="17"/>
-      <c r="H43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J43" s="2">
+      <c r="K47" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="24"/>
+      <c r="H48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J48" s="2">
         <v>1002</v>
       </c>
-      <c r="K43" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="17"/>
-      <c r="H44" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J44" s="2">
+      <c r="K48" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="24"/>
+      <c r="H49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J49" s="2">
         <v>1003</v>
       </c>
-      <c r="K44" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="17"/>
-      <c r="H45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J45" s="2">
+      <c r="K49" s="44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="24"/>
+      <c r="H50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J50" s="2">
         <v>1004</v>
       </c>
-      <c r="K45" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="17"/>
-      <c r="H46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J46" s="2">
+      <c r="K50" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="24"/>
+      <c r="H51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J51" s="2">
         <v>1005</v>
       </c>
-      <c r="K46" s="34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="17"/>
-      <c r="K47" s="34"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="17"/>
-      <c r="H48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J48" s="2">
+      <c r="K51" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="24"/>
+      <c r="K52" s="44"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="24"/>
+      <c r="H53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J53" s="2">
         <v>1101</v>
       </c>
-      <c r="K48" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="17"/>
-      <c r="H49" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J49" s="2">
+      <c r="K53" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="24"/>
+      <c r="H54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J54" s="2">
         <v>1102</v>
       </c>
-      <c r="K49" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="17"/>
-      <c r="H50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J50" s="2">
+      <c r="K54" s="44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="24"/>
+      <c r="H55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J55" s="2">
         <v>1103</v>
       </c>
-      <c r="K50" s="34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="17"/>
-      <c r="H51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J51" s="2">
+      <c r="K55" s="44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="24"/>
+      <c r="H56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J56" s="2">
         <v>1104</v>
       </c>
-      <c r="K51" s="34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="17"/>
-      <c r="H52" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J52" s="2">
+      <c r="K56" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="24"/>
+      <c r="H57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J57" s="2">
         <v>1105</v>
       </c>
-      <c r="K52" s="34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="17"/>
-      <c r="H53" s="2" t="str">
-        <f>(_xlfn.CONCAT(H52,"Base"))</f>
+      <c r="K57" s="44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="24"/>
+      <c r="H58" s="2" t="str">
+        <f>(_xlfn.CONCAT(H57,"Base"))</f>
         <v>GamePropertyType_AtkBase</v>
       </c>
-      <c r="I53" s="2" t="str">
-        <f>_xlfn.CONCAT(I52,"Base")</f>
+      <c r="I58" s="2" t="str">
+        <f>_xlfn.CONCAT(I57,"Base")</f>
         <v>AtkBase</v>
       </c>
-      <c r="J53" s="2">
-        <f>J52*10+1</f>
+      <c r="J58" s="2">
+        <f>J57*10+1</f>
         <v>11051</v>
       </c>
-      <c r="K53" s="34" t="str">
-        <f>_xlfn.CONCAT(K52,"基础值")</f>
+      <c r="K58" s="44" t="str">
+        <f>_xlfn.CONCAT(K57,"基础值")</f>
         <v>攻击基础值</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="17"/>
-      <c r="H54" s="2" t="str">
-        <f t="shared" ref="H54:H56" si="0">_xlfn.CONCAT(H52,"Add")</f>
+    <row r="59" spans="2:11">
+      <c r="B59" s="24"/>
+      <c r="H59" s="2" t="str">
+        <f t="shared" ref="H59:H61" si="0">_xlfn.CONCAT(H57,"Add")</f>
         <v>GamePropertyType_AtkAdd</v>
       </c>
-      <c r="I54" s="2" t="str">
-        <f>_xlfn.CONCAT(I52,"Add")</f>
+      <c r="I59" s="2" t="str">
+        <f>_xlfn.CONCAT(I57,"Add")</f>
         <v>AtkAdd</v>
       </c>
-      <c r="J54" s="2">
-        <f>J52*10+2</f>
+      <c r="J59" s="2">
+        <f>J57*10+2</f>
         <v>11052</v>
       </c>
-      <c r="K54" s="34" t="str">
-        <f>_xlfn.CONCAT(K52,"附加值")</f>
+      <c r="K59" s="44" t="str">
+        <f>_xlfn.CONCAT(K57,"附加值")</f>
         <v>攻击附加值</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="17"/>
-      <c r="H55" s="2" t="str">
-        <f>_xlfn.CONCAT(H52,"Pct")</f>
+    <row r="60" spans="2:11">
+      <c r="B60" s="24"/>
+      <c r="H60" s="2" t="str">
+        <f>_xlfn.CONCAT(H57,"Pct")</f>
         <v>GamePropertyType_AtkPct</v>
       </c>
-      <c r="I55" s="2" t="str">
-        <f>_xlfn.CONCAT(I52,"Pct")</f>
+      <c r="I60" s="2" t="str">
+        <f>_xlfn.CONCAT(I57,"Pct")</f>
         <v>AtkPct</v>
       </c>
-      <c r="J55" s="2">
-        <f>J52*10+3</f>
+      <c r="J60" s="2">
+        <f>J57*10+3</f>
         <v>11053</v>
       </c>
-      <c r="K55" s="34" t="str">
-        <f>_xlfn.CONCAT(K52,"百分比")</f>
+      <c r="K60" s="44" t="str">
+        <f>_xlfn.CONCAT(K57,"百分比")</f>
         <v>攻击百分比</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="17"/>
-      <c r="H56" s="2" t="str">
-        <f>_xlfn.CONCAT(H52,"FinalAdd")</f>
+    <row r="61" spans="2:11">
+      <c r="B61" s="24"/>
+      <c r="H61" s="2" t="str">
+        <f>_xlfn.CONCAT(H57,"FinalAdd")</f>
         <v>GamePropertyType_AtkFinalAdd</v>
       </c>
-      <c r="I56" s="2" t="str">
-        <f>_xlfn.CONCAT(I52,"FinalAdd")</f>
+      <c r="I61" s="2" t="str">
+        <f>_xlfn.CONCAT(I57,"FinalAdd")</f>
         <v>AtkFinalAdd</v>
       </c>
-      <c r="J56" s="2">
-        <f>J52*10+4</f>
+      <c r="J61" s="2">
+        <f>J57*10+4</f>
         <v>11054</v>
       </c>
-      <c r="K56" s="34" t="str">
-        <f>_xlfn.CONCAT(K52,"最终附加值")</f>
+      <c r="K61" s="44" t="str">
+        <f>_xlfn.CONCAT(K57,"最终附加值")</f>
         <v>攻击最终附加值</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="17"/>
-      <c r="H57" s="2" t="str">
-        <f>_xlfn.CONCAT(H52,"FinalPct")</f>
+    <row r="62" spans="2:11">
+      <c r="B62" s="24"/>
+      <c r="H62" s="2" t="str">
+        <f>_xlfn.CONCAT(H57,"FinalPct")</f>
         <v>GamePropertyType_AtkFinalPct</v>
       </c>
-      <c r="I57" s="2" t="str">
-        <f>_xlfn.CONCAT(I52,"FinalPct")</f>
+      <c r="I62" s="2" t="str">
+        <f>_xlfn.CONCAT(I57,"FinalPct")</f>
         <v>AtkFinalPct</v>
       </c>
-      <c r="J57" s="2">
-        <f>J52*10+5</f>
+      <c r="J62" s="2">
+        <f>J57*10+5</f>
         <v>11055</v>
       </c>
-      <c r="K57" s="34" t="str">
-        <f>_xlfn.CONCAT(K52,"最终百分比")</f>
+      <c r="K62" s="44" t="str">
+        <f>_xlfn.CONCAT(K57,"最终百分比")</f>
         <v>攻击最终百分比</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="17"/>
-      <c r="H58" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J58" s="2">
+    <row r="63" spans="2:11">
+      <c r="B63" s="24"/>
+      <c r="H63" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J63" s="2">
         <v>1106</v>
       </c>
-      <c r="K58" s="34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="17"/>
-      <c r="H59" s="2" t="str">
-        <f>(_xlfn.CONCAT(H58,"Base"))</f>
+      <c r="K63" s="44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="24"/>
+      <c r="H64" s="2" t="str">
+        <f>(_xlfn.CONCAT(H63,"Base"))</f>
         <v>GamePropertyType_DefBase</v>
       </c>
-      <c r="I59" s="2" t="str">
-        <f>_xlfn.CONCAT(I58,"Base")</f>
+      <c r="I64" s="2" t="str">
+        <f>_xlfn.CONCAT(I63,"Base")</f>
         <v>DefBase</v>
       </c>
-      <c r="J59" s="2">
-        <f>J58*10+1</f>
+      <c r="J64" s="2">
+        <f>J63*10+1</f>
         <v>11061</v>
       </c>
-      <c r="K59" s="34" t="str">
-        <f>_xlfn.CONCAT(K58,"基础值")</f>
+      <c r="K64" s="44" t="str">
+        <f>_xlfn.CONCAT(K63,"基础值")</f>
         <v>防御基础值</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
-      <c r="B60" s="17"/>
-      <c r="H60" s="2" t="str">
-        <f>_xlfn.CONCAT(H58,"Add")</f>
+    <row r="65" spans="2:11">
+      <c r="B65" s="24"/>
+      <c r="H65" s="2" t="str">
+        <f>_xlfn.CONCAT(H63,"Add")</f>
         <v>GamePropertyType_DefAdd</v>
       </c>
-      <c r="I60" s="2" t="str">
-        <f>_xlfn.CONCAT(I58,"Add")</f>
+      <c r="I65" s="2" t="str">
+        <f>_xlfn.CONCAT(I63,"Add")</f>
         <v>DefAdd</v>
       </c>
-      <c r="J60" s="2">
-        <f>J58*10+2</f>
+      <c r="J65" s="2">
+        <f>J63*10+2</f>
         <v>11062</v>
       </c>
-      <c r="K60" s="34" t="str">
-        <f>_xlfn.CONCAT(K58,"附加值")</f>
+      <c r="K65" s="44" t="str">
+        <f>_xlfn.CONCAT(K63,"附加值")</f>
         <v>防御附加值</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
-      <c r="B61" s="17"/>
-      <c r="H61" s="2" t="str">
-        <f>_xlfn.CONCAT(H58,"Pct")</f>
+    <row r="66" spans="2:11">
+      <c r="B66" s="24"/>
+      <c r="H66" s="2" t="str">
+        <f>_xlfn.CONCAT(H63,"Pct")</f>
         <v>GamePropertyType_DefPct</v>
       </c>
-      <c r="I61" s="2" t="str">
-        <f>_xlfn.CONCAT(I58,"Pct")</f>
+      <c r="I66" s="2" t="str">
+        <f>_xlfn.CONCAT(I63,"Pct")</f>
         <v>DefPct</v>
       </c>
-      <c r="J61" s="2">
-        <f>J58*10+3</f>
+      <c r="J66" s="2">
+        <f>J63*10+3</f>
         <v>11063</v>
       </c>
-      <c r="K61" s="34" t="str">
-        <f>_xlfn.CONCAT(K58,"百分比")</f>
+      <c r="K66" s="44" t="str">
+        <f>_xlfn.CONCAT(K63,"百分比")</f>
         <v>防御百分比</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
-      <c r="B62" s="17"/>
-      <c r="H62" s="2" t="str">
-        <f>_xlfn.CONCAT(H58,"FinalAdd")</f>
+    <row r="67" spans="2:11">
+      <c r="B67" s="24"/>
+      <c r="H67" s="2" t="str">
+        <f>_xlfn.CONCAT(H63,"FinalAdd")</f>
         <v>GamePropertyType_DefFinalAdd</v>
       </c>
-      <c r="I62" s="2" t="str">
-        <f>_xlfn.CONCAT(I58,"FinalAdd")</f>
+      <c r="I67" s="2" t="str">
+        <f>_xlfn.CONCAT(I63,"FinalAdd")</f>
         <v>DefFinalAdd</v>
       </c>
-      <c r="J62" s="2">
-        <f>J58*10+4</f>
+      <c r="J67" s="2">
+        <f>J63*10+4</f>
         <v>11064</v>
       </c>
-      <c r="K62" s="34" t="str">
-        <f>_xlfn.CONCAT(K58,"最终附加值")</f>
+      <c r="K67" s="44" t="str">
+        <f>_xlfn.CONCAT(K63,"最终附加值")</f>
         <v>防御最终附加值</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
-      <c r="B63" s="17"/>
-      <c r="H63" s="2" t="str">
-        <f>_xlfn.CONCAT(H58,"FinalPct")</f>
+    <row r="68" spans="2:11">
+      <c r="B68" s="24"/>
+      <c r="H68" s="2" t="str">
+        <f>_xlfn.CONCAT(H63,"FinalPct")</f>
         <v>GamePropertyType_DefFinalPct</v>
       </c>
-      <c r="I63" s="2" t="str">
-        <f>_xlfn.CONCAT(I58,"FinalPct")</f>
+      <c r="I68" s="2" t="str">
+        <f>_xlfn.CONCAT(I63,"FinalPct")</f>
         <v>DefFinalPct</v>
       </c>
-      <c r="J63" s="2">
-        <f>J58*10+5</f>
+      <c r="J68" s="2">
+        <f>J63*10+5</f>
         <v>11065</v>
       </c>
-      <c r="K63" s="34" t="str">
-        <f>_xlfn.CONCAT(K58,"最终百分比")</f>
+      <c r="K68" s="44" t="str">
+        <f>_xlfn.CONCAT(K63,"最终百分比")</f>
         <v>防御最终百分比</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
-      <c r="B64" s="17"/>
-      <c r="H64" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J64" s="2">
+    <row r="69" spans="2:11">
+      <c r="B69" s="24"/>
+      <c r="H69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J69" s="2">
         <v>1107</v>
       </c>
-      <c r="K64" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="B65" s="17"/>
-      <c r="H65" s="2" t="str">
-        <f>(_xlfn.CONCAT(H64,"Base"))</f>
+      <c r="K69" s="44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" s="24"/>
+      <c r="H70" s="2" t="str">
+        <f>(_xlfn.CONCAT(H69,"Base"))</f>
         <v>GamePropertyType_HitBase</v>
       </c>
-      <c r="I65" s="2" t="str">
-        <f>_xlfn.CONCAT(I64,"Base")</f>
+      <c r="I70" s="2" t="str">
+        <f>_xlfn.CONCAT(I69,"Base")</f>
         <v>HitBase</v>
       </c>
-      <c r="J65" s="2">
-        <f>J64*10+1</f>
+      <c r="J70" s="2">
+        <f>J69*10+1</f>
         <v>11071</v>
       </c>
-      <c r="K65" s="34" t="str">
-        <f>_xlfn.CONCAT(K64,"基础值")</f>
+      <c r="K70" s="44" t="str">
+        <f>_xlfn.CONCAT(K69,"基础值")</f>
         <v>命中基础值</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
-      <c r="B66" s="17"/>
-      <c r="H66" s="2" t="str">
-        <f>_xlfn.CONCAT(H64,"Add")</f>
+    <row r="71" spans="2:11">
+      <c r="B71" s="24"/>
+      <c r="H71" s="2" t="str">
+        <f>_xlfn.CONCAT(H69,"Add")</f>
         <v>GamePropertyType_HitAdd</v>
       </c>
-      <c r="I66" s="2" t="str">
-        <f>_xlfn.CONCAT(I64,"Add")</f>
+      <c r="I71" s="2" t="str">
+        <f>_xlfn.CONCAT(I69,"Add")</f>
         <v>HitAdd</v>
       </c>
-      <c r="J66" s="2">
-        <f>J64*10+2</f>
+      <c r="J71" s="2">
+        <f>J69*10+2</f>
         <v>11072</v>
       </c>
-      <c r="K66" s="34" t="str">
-        <f>_xlfn.CONCAT(K64,"附加值")</f>
+      <c r="K71" s="44" t="str">
+        <f>_xlfn.CONCAT(K69,"附加值")</f>
         <v>命中附加值</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
-      <c r="B67" s="17"/>
-      <c r="H67" s="2" t="str">
-        <f>_xlfn.CONCAT(H64,"Pct")</f>
+    <row r="72" spans="2:11">
+      <c r="B72" s="24"/>
+      <c r="H72" s="2" t="str">
+        <f>_xlfn.CONCAT(H69,"Pct")</f>
         <v>GamePropertyType_HitPct</v>
       </c>
-      <c r="I67" s="2" t="str">
-        <f>_xlfn.CONCAT(I64,"Pct")</f>
+      <c r="I72" s="2" t="str">
+        <f>_xlfn.CONCAT(I69,"Pct")</f>
         <v>HitPct</v>
       </c>
-      <c r="J67" s="2">
-        <f>J64*10+3</f>
+      <c r="J72" s="2">
+        <f>J69*10+3</f>
         <v>11073</v>
       </c>
-      <c r="K67" s="34" t="str">
-        <f>_xlfn.CONCAT(K64,"百分比")</f>
+      <c r="K72" s="44" t="str">
+        <f>_xlfn.CONCAT(K69,"百分比")</f>
         <v>命中百分比</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
-      <c r="B68" s="17"/>
-      <c r="H68" s="2" t="str">
-        <f>_xlfn.CONCAT(H64,"FinalAdd")</f>
+    <row r="73" spans="2:11">
+      <c r="B73" s="24"/>
+      <c r="H73" s="2" t="str">
+        <f>_xlfn.CONCAT(H69,"FinalAdd")</f>
         <v>GamePropertyType_HitFinalAdd</v>
       </c>
-      <c r="I68" s="2" t="str">
-        <f>_xlfn.CONCAT(I64,"FinalAdd")</f>
+      <c r="I73" s="2" t="str">
+        <f>_xlfn.CONCAT(I69,"FinalAdd")</f>
         <v>HitFinalAdd</v>
       </c>
-      <c r="J68" s="2">
-        <f>J64*10+4</f>
+      <c r="J73" s="2">
+        <f>J69*10+4</f>
         <v>11074</v>
       </c>
-      <c r="K68" s="34" t="str">
-        <f>_xlfn.CONCAT(K64,"最终附加值")</f>
+      <c r="K73" s="44" t="str">
+        <f>_xlfn.CONCAT(K69,"最终附加值")</f>
         <v>命中最终附加值</v>
       </c>
     </row>
-    <row r="69" spans="2:11">
-      <c r="B69" s="17"/>
-      <c r="H69" s="2" t="str">
-        <f>_xlfn.CONCAT(H64,"FinalPct")</f>
+    <row r="74" spans="2:11">
+      <c r="B74" s="24"/>
+      <c r="H74" s="2" t="str">
+        <f>_xlfn.CONCAT(H69,"FinalPct")</f>
         <v>GamePropertyType_HitFinalPct</v>
       </c>
-      <c r="I69" s="2" t="str">
-        <f>_xlfn.CONCAT(I64,"FinalPct")</f>
+      <c r="I74" s="2" t="str">
+        <f>_xlfn.CONCAT(I69,"FinalPct")</f>
         <v>HitFinalPct</v>
       </c>
-      <c r="J69" s="2">
-        <f>J64*10+5</f>
+      <c r="J74" s="2">
+        <f>J69*10+5</f>
         <v>11075</v>
       </c>
-      <c r="K69" s="34" t="str">
-        <f>_xlfn.CONCAT(K64,"最终百分比")</f>
+      <c r="K74" s="44" t="str">
+        <f>_xlfn.CONCAT(K69,"最终百分比")</f>
         <v>命中最终百分比</v>
       </c>
     </row>
-    <row r="70" spans="2:11">
-      <c r="B70" s="17"/>
-      <c r="H70" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J70" s="2">
+    <row r="75" spans="2:11">
+      <c r="B75" s="24"/>
+      <c r="H75" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J75" s="2">
         <v>1108</v>
       </c>
-      <c r="K70" s="34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11">
-      <c r="B71" s="17"/>
-      <c r="H71" s="2" t="str">
-        <f>(_xlfn.CONCAT(H70,"Base"))</f>
+      <c r="K75" s="44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76" s="24"/>
+      <c r="H76" s="2" t="str">
+        <f>(_xlfn.CONCAT(H75,"Base"))</f>
         <v>GamePropertyType_CritBase</v>
       </c>
-      <c r="I71" s="2" t="str">
-        <f>_xlfn.CONCAT(I70,"Base")</f>
+      <c r="I76" s="2" t="str">
+        <f>_xlfn.CONCAT(I75,"Base")</f>
         <v>CritBase</v>
       </c>
-      <c r="J71" s="2">
-        <f>J70*10+1</f>
+      <c r="J76" s="2">
+        <f>J75*10+1</f>
         <v>11081</v>
       </c>
-      <c r="K71" s="34" t="str">
-        <f>_xlfn.CONCAT(K70,"基础值")</f>
+      <c r="K76" s="44" t="str">
+        <f>_xlfn.CONCAT(K75,"基础值")</f>
         <v>暴击基础值</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
-      <c r="B72" s="17"/>
-      <c r="H72" s="2" t="str">
-        <f>_xlfn.CONCAT(H70,"Add")</f>
+    <row r="77" spans="2:11">
+      <c r="B77" s="24"/>
+      <c r="H77" s="2" t="str">
+        <f>_xlfn.CONCAT(H75,"Add")</f>
         <v>GamePropertyType_CritAdd</v>
       </c>
-      <c r="I72" s="2" t="str">
-        <f>_xlfn.CONCAT(I70,"Add")</f>
+      <c r="I77" s="2" t="str">
+        <f>_xlfn.CONCAT(I75,"Add")</f>
         <v>CritAdd</v>
       </c>
-      <c r="J72" s="2">
-        <f>J70*10+2</f>
+      <c r="J77" s="2">
+        <f>J75*10+2</f>
         <v>11082</v>
       </c>
-      <c r="K72" s="34" t="str">
-        <f>_xlfn.CONCAT(K70,"附加值")</f>
+      <c r="K77" s="44" t="str">
+        <f>_xlfn.CONCAT(K75,"附加值")</f>
         <v>暴击附加值</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
-      <c r="B73" s="17"/>
-      <c r="H73" s="2" t="str">
-        <f>_xlfn.CONCAT(H70,"Pct")</f>
+    <row r="78" spans="2:11">
+      <c r="B78" s="24"/>
+      <c r="H78" s="2" t="str">
+        <f>_xlfn.CONCAT(H75,"Pct")</f>
         <v>GamePropertyType_CritPct</v>
       </c>
-      <c r="I73" s="2" t="str">
-        <f>_xlfn.CONCAT(I70,"Pct")</f>
+      <c r="I78" s="2" t="str">
+        <f>_xlfn.CONCAT(I75,"Pct")</f>
         <v>CritPct</v>
       </c>
-      <c r="J73" s="2">
-        <f>J70*10+3</f>
+      <c r="J78" s="2">
+        <f>J75*10+3</f>
         <v>11083</v>
       </c>
-      <c r="K73" s="34" t="str">
-        <f>_xlfn.CONCAT(K70,"百分比")</f>
+      <c r="K78" s="44" t="str">
+        <f>_xlfn.CONCAT(K75,"百分比")</f>
         <v>暴击百分比</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
-      <c r="B74" s="17"/>
-      <c r="H74" s="2" t="str">
-        <f>_xlfn.CONCAT(H70,"FinalAdd")</f>
+    <row r="79" spans="2:11">
+      <c r="B79" s="24"/>
+      <c r="H79" s="2" t="str">
+        <f>_xlfn.CONCAT(H75,"FinalAdd")</f>
         <v>GamePropertyType_CritFinalAdd</v>
       </c>
-      <c r="I74" s="2" t="str">
-        <f>_xlfn.CONCAT(I70,"FinalAdd")</f>
+      <c r="I79" s="2" t="str">
+        <f>_xlfn.CONCAT(I75,"FinalAdd")</f>
         <v>CritFinalAdd</v>
       </c>
-      <c r="J74" s="2">
-        <f>J70*10+4</f>
+      <c r="J79" s="2">
+        <f>J75*10+4</f>
         <v>11084</v>
       </c>
-      <c r="K74" s="34" t="str">
-        <f>_xlfn.CONCAT(K70,"最终附加值")</f>
+      <c r="K79" s="44" t="str">
+        <f>_xlfn.CONCAT(K75,"最终附加值")</f>
         <v>暴击最终附加值</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
-      <c r="B75" s="18"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="12" t="str">
-        <f>_xlfn.CONCAT(H70,"FinalPct")</f>
+    <row r="80" spans="2:11">
+      <c r="B80" s="25"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="12" t="str">
+        <f>_xlfn.CONCAT(H75,"FinalPct")</f>
         <v>GamePropertyType_CritFinalPct</v>
       </c>
-      <c r="I75" s="12" t="str">
-        <f>_xlfn.CONCAT(I70,"FinalPct")</f>
+      <c r="I80" s="12" t="str">
+        <f>_xlfn.CONCAT(I75,"FinalPct")</f>
         <v>CritFinalPct</v>
       </c>
-      <c r="J75" s="12">
-        <f>J70*10+5</f>
+      <c r="J80" s="12">
+        <f>J75*10+5</f>
         <v>11085</v>
       </c>
-      <c r="K75" s="35" t="str">
-        <f>_xlfn.CONCAT(K70,"最终百分比")</f>
+      <c r="K80" s="45" t="str">
+        <f>_xlfn.CONCAT(K75,"最终百分比")</f>
         <v>暴击最终百分比</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
-      <c r="B77" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8">
+    <row r="82" spans="2:11">
+      <c r="B82" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8">
         <v>0</v>
       </c>
-      <c r="K77" s="33"/>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="B78" s="17"/>
-      <c r="H78" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J78" s="2">
+      <c r="K82" s="43"/>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" s="24"/>
+      <c r="H83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J83" s="2">
         <v>1</v>
       </c>
-      <c r="K78" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="B79" s="17"/>
-      <c r="H79" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J79" s="2">
+      <c r="K83" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84" s="24"/>
+      <c r="H84" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J84" s="2">
         <v>2</v>
       </c>
-      <c r="K79" s="34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80" s="17"/>
-      <c r="H80" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K84" s="44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85" s="24"/>
+      <c r="H85" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J85" s="2">
         <v>3</v>
       </c>
-      <c r="K80" s="34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="B81" s="17"/>
-      <c r="H81" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J81" s="2">
+      <c r="K85" s="44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" s="24"/>
+      <c r="H86" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J86" s="2">
         <v>4</v>
       </c>
-      <c r="K81" s="34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11">
-      <c r="B82" s="17"/>
-      <c r="H82" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J82" s="2">
+      <c r="K86" s="44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" s="24"/>
+      <c r="H87" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J87" s="2">
         <v>5</v>
       </c>
-      <c r="K82" s="34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11">
-      <c r="B83" s="17"/>
-      <c r="H83" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J83" s="2">
+      <c r="K87" s="44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="24"/>
+      <c r="H88" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J88" s="2">
         <v>6</v>
       </c>
-      <c r="K83" s="34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11">
-      <c r="B84" s="17"/>
-      <c r="H84" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J84" s="2">
+      <c r="K88" s="44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" s="24"/>
+      <c r="H89" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J89" s="2">
         <v>7</v>
       </c>
-      <c r="K84" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11">
-      <c r="B85" s="17"/>
-      <c r="H85" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J85" s="2">
+      <c r="K89" s="44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" s="24"/>
+      <c r="H90" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J90" s="2">
         <v>8</v>
       </c>
-      <c r="K85" s="34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11">
-      <c r="B86" s="18"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="I86" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="J86" s="12">
+      <c r="K90" s="44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" s="25"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="J91" s="12">
         <v>9</v>
       </c>
-      <c r="K86" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11">
-      <c r="B88" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="I88" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="J88" s="8">
+      <c r="K91" s="45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J93" s="8">
         <v>1</v>
       </c>
-      <c r="K88" s="33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11">
-      <c r="B89" s="18"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="J89" s="12">
-        <v>2</v>
-      </c>
-      <c r="K89" s="35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11">
-      <c r="B91" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="J91" s="8">
-        <v>1</v>
-      </c>
-      <c r="K91" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11">
-      <c r="B92" s="17"/>
-      <c r="H92" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J92" s="2">
-        <v>2</v>
-      </c>
-      <c r="K92" s="34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93" s="17"/>
-      <c r="H93" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I93" s="2" t="s">
+      <c r="K93" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="J93" s="2">
-        <v>3</v>
-      </c>
-      <c r="K93" s="34" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="94" spans="2:11">
-      <c r="B94" s="18"/>
+      <c r="B94" s="25"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
@@ -3688,168 +3734,168 @@
         <v>166</v>
       </c>
       <c r="J94" s="12">
-        <v>4</v>
-      </c>
-      <c r="K94" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K94" s="45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="23" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11">
-      <c r="B96" s="16" t="s">
-        <v>168</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="7" t="s">
+      <c r="H96" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I96" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="J96" s="8">
         <v>1</v>
       </c>
-      <c r="K96" s="33" t="s">
+      <c r="K96" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="24"/>
+      <c r="H97" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="97" spans="2:11">
-      <c r="B97" s="17"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23" t="s">
+      <c r="I97" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I97" s="24" t="s">
+      <c r="J97" s="2">
+        <v>2</v>
+      </c>
+      <c r="K97" s="44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="24"/>
+      <c r="H98" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="J97" s="24">
+      <c r="I98" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J98" s="2">
+        <v>3</v>
+      </c>
+      <c r="K98" s="44" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="25"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J99" s="12">
+        <v>4</v>
+      </c>
+      <c r="K99" s="45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J101" s="8">
+        <v>1</v>
+      </c>
+      <c r="K101" s="43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="24"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="I102" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="J102" s="31">
         <v>2</v>
       </c>
-      <c r="K97" s="34" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11">
-      <c r="B98" s="17"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="I98" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="J98" s="24">
+      <c r="K102" s="44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="24"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="I103" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="J103" s="31">
         <v>3</v>
       </c>
-      <c r="K98" s="34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11">
-      <c r="B99" s="17"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I99" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="J99" s="24">
+      <c r="K103" s="44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" s="24"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="I104" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="J104" s="31">
         <v>4</v>
       </c>
-      <c r="K99" s="34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11">
-      <c r="B100" s="18"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="J100" s="12">
-        <v>5</v>
-      </c>
-      <c r="K100" s="35" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11">
-      <c r="B102" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="J102" s="8">
-        <v>1</v>
-      </c>
-      <c r="K102" s="33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11">
-      <c r="B103" s="17"/>
-      <c r="H103" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J103" s="2">
-        <v>2</v>
-      </c>
-      <c r="K103" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11">
-      <c r="B104" s="17"/>
-      <c r="H104" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I104" s="2" t="s">
+      <c r="K104" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="J104" s="2">
-        <v>3</v>
-      </c>
-      <c r="K104" s="34" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="105" spans="2:11">
-      <c r="B105" s="18"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
@@ -3862,14 +3908,14 @@
         <v>187</v>
       </c>
       <c r="J105" s="12">
-        <v>4</v>
-      </c>
-      <c r="K105" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K105" s="45" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="107" spans="2:11">
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="23" t="s">
         <v>188</v>
       </c>
       <c r="C107" s="7"/>
@@ -3886,12 +3932,12 @@
       <c r="J107" s="8">
         <v>1</v>
       </c>
-      <c r="K107" s="33" t="s">
+      <c r="K107" s="43" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" s="17"/>
+      <c r="B108" s="24"/>
       <c r="H108" s="2" t="s">
         <v>191</v>
       </c>
@@ -3901,447 +3947,431 @@
       <c r="J108" s="2">
         <v>2</v>
       </c>
-      <c r="K108" s="34" t="s">
+      <c r="K108" s="44" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="109" spans="2:11">
-      <c r="B109" s="18"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="12" t="s">
+      <c r="B109" s="24"/>
+      <c r="H109" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I109" s="12" t="s">
+      <c r="I109" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J109" s="12">
+      <c r="J109" s="2">
         <v>3</v>
       </c>
-      <c r="K109" s="35" t="s">
+      <c r="K109" s="44" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="111" spans="2:11">
-      <c r="B111" s="16" t="s">
+    <row r="110" spans="2:11">
+      <c r="B110" s="25"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C111" s="7" t="b">
+      <c r="I110" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="J110" s="12">
+        <v>4</v>
+      </c>
+      <c r="K110" s="45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J112" s="8">
         <v>1</v>
       </c>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="I111" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="J111" s="8">
+      <c r="K112" s="43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11">
+      <c r="B113" s="24"/>
+      <c r="H113" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J113" s="2">
+        <v>2</v>
+      </c>
+      <c r="K113" s="44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11">
+      <c r="B114" s="25"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="J114" s="12">
+        <v>3</v>
+      </c>
+      <c r="K114" s="45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11">
+      <c r="B116" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C116" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J116" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K111" s="33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11">
-      <c r="B112" s="17"/>
-      <c r="H112" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J112" s="2">
+      <c r="K116" s="43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117" s="24"/>
+      <c r="H117" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J117" s="2">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K112" s="34" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11">
-      <c r="B113" s="17"/>
-      <c r="H113" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J113" s="2">
+      <c r="K117" s="44" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="24"/>
+      <c r="H118" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J118" s="2">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K113" s="34" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11">
-      <c r="B114" s="17"/>
-      <c r="H114" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J114" s="2">
+      <c r="K118" s="44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119" s="24"/>
+      <c r="H119" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J119" s="2">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K114" s="34" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11">
-      <c r="B115" s="17"/>
-      <c r="H115" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J115" s="2">
+      <c r="K119" s="44" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11">
+      <c r="B120" s="24"/>
+      <c r="H120" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J120" s="2">
         <f>POWER(2,4)</f>
         <v>16</v>
       </c>
-      <c r="K115" s="34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11">
-      <c r="B116" s="17"/>
-      <c r="H116" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J116" s="2">
+      <c r="K120" s="44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="24"/>
+      <c r="H121" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J121" s="2">
         <f>POWER(2,5)</f>
         <v>32</v>
       </c>
-      <c r="K116" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11">
-      <c r="B117" s="17"/>
-      <c r="H117" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J117" s="2">
+      <c r="K121" s="44" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="24"/>
+      <c r="H122" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J122" s="2">
         <f>POWER(2,6)</f>
         <v>64</v>
       </c>
-      <c r="K117" s="34" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11">
-      <c r="B118" s="17"/>
-      <c r="H118" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J118" s="2">
+      <c r="K122" s="44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11">
+      <c r="B123" s="24"/>
+      <c r="H123" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J123" s="2">
         <f>POWER(2,7)</f>
         <v>128</v>
       </c>
-      <c r="K118" s="34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11">
-      <c r="B119" s="17"/>
-      <c r="H119" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J119" s="2">
+      <c r="K123" s="44" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124" s="24"/>
+      <c r="H124" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J124" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K119" s="34" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11">
-      <c r="B120" s="18"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="I120" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="J120" s="12">
+      <c r="K124" s="44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11">
+      <c r="B125" s="25"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="J125" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K120" s="35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11">
-      <c r="B122" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C122" s="7" t="b">
+      <c r="K125" s="45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11">
+      <c r="B127" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C127" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="I122" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="J122" s="8">
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="J127" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K122" s="33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11">
-      <c r="B123" s="17"/>
-      <c r="H123" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J123" s="2">
+      <c r="K127" s="43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11">
+      <c r="B128" s="24"/>
+      <c r="H128" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J128" s="2">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K123" s="34" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11">
-      <c r="B124" s="17"/>
-      <c r="H124" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="J124" s="2">
+      <c r="K128" s="44" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="24"/>
+      <c r="H129" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J129" s="2">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K124" s="34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11">
-      <c r="B125" s="17"/>
-      <c r="H125" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J125" s="2">
+      <c r="K129" s="44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11">
+      <c r="B130" s="24"/>
+      <c r="H130" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J130" s="2">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K125" s="34" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11">
-      <c r="B126" s="17"/>
-      <c r="H126" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J126" s="2">
+      <c r="K130" s="44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="B131" s="24"/>
+      <c r="H131" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J131" s="2">
         <f>POWER(2,4)</f>
         <v>16</v>
       </c>
-      <c r="K126" s="34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11">
-      <c r="B127" s="17"/>
-      <c r="H127" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J127" s="2">
+      <c r="K131" s="44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132" s="24"/>
+      <c r="H132" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J132" s="2">
         <f>POWER(2,5)</f>
         <v>32</v>
       </c>
-      <c r="K127" s="34" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11">
-      <c r="B128" s="17"/>
-      <c r="H128" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J128" s="2">
+      <c r="K132" s="44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="24"/>
+      <c r="H133" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J133" s="2">
         <f>POWER(2,6)</f>
         <v>64</v>
       </c>
-      <c r="K128" s="34" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="129" spans="2:11">
-      <c r="B129" s="17"/>
-      <c r="H129" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J129" s="2">
+      <c r="K133" s="44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11">
+      <c r="B134" s="24"/>
+      <c r="H134" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J134" s="2">
         <f>POWER(2,7)</f>
         <v>128</v>
       </c>
-      <c r="K129" s="34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11">
-      <c r="B130" s="17"/>
-      <c r="H130" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J130" s="2">
+      <c r="K134" s="44" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11">
+      <c r="B135" s="24"/>
+      <c r="H135" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J135" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K130" s="34" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11">
-      <c r="B131" s="18"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="I131" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="J131" s="12">
-        <f>POWER(2,9)</f>
-        <v>512</v>
-      </c>
-      <c r="K131" s="35" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="133" spans="2:11">
-      <c r="B133" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="C133" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="I133" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="J133" s="8">
-        <f>POWER(2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K133" s="33" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11">
-      <c r="B134" s="17"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="23"/>
-      <c r="F134" s="23"/>
-      <c r="G134" s="23"/>
-      <c r="H134" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="I134" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="J134" s="24">
-        <f>POWER(2,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K134" s="34" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11">
-      <c r="B135" s="17"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="23"/>
-      <c r="H135" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="I135" s="24" t="s">
+      <c r="K135" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="J135" s="24">
-        <f>POWER(2,2)</f>
-        <v>4</v>
-      </c>
-      <c r="K135" s="34" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="136" spans="2:11">
-      <c r="B136" s="18"/>
+      <c r="B136" s="25"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
@@ -4354,15 +4384,15 @@
         <v>245</v>
       </c>
       <c r="J136" s="12">
-        <f>POWER(2,3)</f>
-        <v>8</v>
-      </c>
-      <c r="K136" s="35" t="s">
+        <f>POWER(2,9)</f>
+        <v>512</v>
+      </c>
+      <c r="K136" s="45" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="138" spans="2:11">
-      <c r="B138" s="16" t="s">
+      <c r="B138" s="23" t="s">
         <v>246</v>
       </c>
       <c r="C138" s="7" t="b">
@@ -4379,44 +4409,57 @@
         <v>248</v>
       </c>
       <c r="J138" s="8">
+        <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K138" s="33" t="s">
+      <c r="K138" s="43" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="139" spans="2:11">
-      <c r="B139" s="17"/>
-      <c r="H139" s="2" t="s">
+      <c r="B139" s="24"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="30"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="I139" s="2" t="s">
+      <c r="I139" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="J139" s="2">
+      <c r="J139" s="31">
+        <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K139" s="34" t="s">
+      <c r="K139" s="44" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="140" spans="2:11">
-      <c r="B140" s="17"/>
-      <c r="H140" s="2" t="s">
+      <c r="B140" s="24"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="I140" s="2" t="s">
+      <c r="I140" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="J140" s="2">
-        <v>3</v>
-      </c>
-      <c r="K140" s="34" t="s">
+      <c r="J140" s="31">
+        <f>POWER(2,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K140" s="44" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="141" spans="2:11">
-      <c r="B141" s="18"/>
+      <c r="B141" s="25"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
@@ -4429,14 +4472,15 @@
         <v>254</v>
       </c>
       <c r="J141" s="12">
-        <v>4</v>
-      </c>
-      <c r="K141" s="35" t="s">
+        <f>POWER(2,3)</f>
+        <v>8</v>
+      </c>
+      <c r="K141" s="45" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="143" spans="2:11">
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="23" t="s">
         <v>255</v>
       </c>
       <c r="C143" s="7" t="b">
@@ -4455,86 +4499,86 @@
       <c r="J143" s="8">
         <v>1</v>
       </c>
-      <c r="K143" s="33" t="s">
+      <c r="K143" s="43" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="144" spans="2:11">
-      <c r="B144" s="18"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="12" t="s">
+      <c r="B144" s="24"/>
+      <c r="H144" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="I144" s="12" t="s">
+      <c r="I144" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="J144" s="12">
+      <c r="J144" s="2">
         <v>2</v>
       </c>
-      <c r="K144" s="35" t="s">
+      <c r="K144" s="44" t="s">
         <v>259</v>
       </c>
     </row>
+    <row r="145" spans="2:11">
+      <c r="B145" s="24"/>
+      <c r="H145" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J145" s="2">
+        <v>3</v>
+      </c>
+      <c r="K145" s="44" t="s">
+        <v>261</v>
+      </c>
+    </row>
     <row r="146" spans="2:11">
-      <c r="B146" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C146" s="7" t="b">
+      <c r="B146" s="25"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I146" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J146" s="12">
+        <v>4</v>
+      </c>
+      <c r="K146" s="45" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C148" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="I146" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="J146" s="8">
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I148" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J148" s="8">
         <v>1</v>
       </c>
-      <c r="K146" s="33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11">
-      <c r="B147" s="17"/>
-      <c r="H147" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="J147" s="2">
-        <v>2</v>
-      </c>
-      <c r="K147" s="34" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11">
-      <c r="B148" s="17"/>
-      <c r="H148" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="I148" s="2" t="s">
+      <c r="K148" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="J148" s="2">
-        <v>3</v>
-      </c>
-      <c r="K148" s="34" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="149" spans="2:11">
-      <c r="B149" s="18"/>
+      <c r="B149" s="25"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
       <c r="E149" s="11"/>
@@ -4547,142 +4591,142 @@
         <v>268</v>
       </c>
       <c r="J149" s="12">
-        <v>4</v>
-      </c>
-      <c r="K149" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K149" s="45" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="151" spans="2:11">
-      <c r="B151" s="37" t="s">
+      <c r="B151" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="C151" s="38" t="b">
+      <c r="C151" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D151" s="38"/>
-      <c r="E151" s="38"/>
-      <c r="F151" s="38"/>
-      <c r="G151" s="38"/>
-      <c r="H151" s="39" t="s">
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="I151" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="J151" s="39">
+      <c r="I151" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="J151" s="8">
         <v>1</v>
       </c>
-      <c r="K151" s="47" t="s">
-        <v>61</v>
+      <c r="K151" s="43" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="152" spans="2:11">
-      <c r="B152" s="40"/>
+      <c r="B152" s="24"/>
       <c r="H152" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J152" s="2">
         <v>2</v>
       </c>
-      <c r="K152" s="48" t="s">
-        <v>272</v>
+      <c r="K152" s="44" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="153" spans="2:11">
-      <c r="B153" s="40"/>
+      <c r="B153" s="24"/>
       <c r="H153" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J153" s="2">
         <v>3</v>
       </c>
-      <c r="K153" s="48" t="s">
-        <v>274</v>
+      <c r="K153" s="44" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="154" spans="2:11">
-      <c r="B154" s="40"/>
-      <c r="H154" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I154" s="2" t="s">
+      <c r="B154" s="25"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="J154" s="2">
+      <c r="I154" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="J154" s="12">
         <v>4</v>
       </c>
-      <c r="K154" s="48" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11">
-      <c r="B155" s="40"/>
-      <c r="H155" s="2" t="s">
+      <c r="K154" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="I155" s="2" t="s">
+    </row>
+    <row r="156" spans="2:11">
+      <c r="B156" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="J155" s="2">
-        <v>5</v>
-      </c>
-      <c r="K155" s="48" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11">
-      <c r="B156" s="41"/>
-      <c r="C156" s="42"/>
-      <c r="D156" s="42"/>
-      <c r="E156" s="42"/>
-      <c r="F156" s="42"/>
-      <c r="G156" s="42"/>
-      <c r="H156" s="43" t="s">
+      <c r="C156" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="I156" s="43" t="s">
+      <c r="I156" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J156" s="15">
+        <v>1</v>
+      </c>
+      <c r="K156" s="39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11">
+      <c r="B157" s="48"/>
+      <c r="H157" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J156" s="43">
-        <v>6</v>
-      </c>
-      <c r="K156" s="49" t="s">
-        <v>280</v>
+      <c r="I157" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J157" s="2">
+        <v>2</v>
+      </c>
+      <c r="K157" s="40" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="2:11">
-      <c r="B158" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="C158" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D158" s="38"/>
-      <c r="E158" s="38"/>
-      <c r="F158" s="38"/>
-      <c r="G158" s="38"/>
-      <c r="H158" s="39" t="s">
+      <c r="B158" s="48"/>
+      <c r="H158" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I158" s="39" t="s">
+      <c r="I158" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="J158" s="39">
-        <v>1</v>
-      </c>
-      <c r="K158" s="47" t="s">
+      <c r="J158" s="2">
+        <v>3</v>
+      </c>
+      <c r="K158" s="40" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="159" spans="2:11">
-      <c r="B159" s="45"/>
+      <c r="B159" s="48"/>
       <c r="H159" s="2" t="s">
         <v>284</v>
       </c>
@@ -4690,137 +4734,226 @@
         <v>285</v>
       </c>
       <c r="J159" s="2">
-        <v>2</v>
-      </c>
-      <c r="K159" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="K159" s="40" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="160" spans="2:11">
-      <c r="B160" s="46"/>
-      <c r="C160" s="42"/>
-      <c r="D160" s="42"/>
-      <c r="E160" s="42"/>
-      <c r="F160" s="42"/>
-      <c r="G160" s="42"/>
-      <c r="H160" s="43" t="s">
+      <c r="B160" s="48"/>
+      <c r="H160" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="I160" s="43" t="s">
+      <c r="I160" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="J160" s="43">
-        <v>3</v>
-      </c>
-      <c r="K160" s="49" t="s">
+      <c r="J160" s="2">
+        <v>5</v>
+      </c>
+      <c r="K160" s="40" t="s">
         <v>287</v>
       </c>
     </row>
+    <row r="161" spans="2:11">
+      <c r="B161" s="49"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="18"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="I161" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="J161" s="19">
+        <v>6</v>
+      </c>
+      <c r="K161" s="41" t="s">
+        <v>289</v>
+      </c>
+    </row>
     <row r="163" spans="2:11">
-      <c r="B163" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C163" s="1" t="b">
+      <c r="B163" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="C163" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="H163" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="I163" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J163" s="2">
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="I163" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="J163" s="15">
         <v>1</v>
       </c>
-      <c r="K163" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="164" spans="8:11">
+      <c r="K163" s="39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11">
+      <c r="B164" s="51"/>
       <c r="H164" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J164" s="2">
         <v>2</v>
       </c>
-      <c r="K164" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="171" spans="2:11">
-      <c r="B171" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C171" s="1" t="b">
+      <c r="K164" s="40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11">
+      <c r="B165" s="52"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="18"/>
+      <c r="H165" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="I165" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="J165" s="19">
+        <v>3</v>
+      </c>
+      <c r="K165" s="41" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11">
+      <c r="B168" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C168" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H171" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="I171" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="J171" s="2">
+      <c r="H168" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J168" s="2">
         <v>1</v>
       </c>
-      <c r="K171" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="172" spans="8:11">
-      <c r="H172" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="J172" s="2">
+      <c r="K168" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="169" spans="8:11">
+      <c r="H169" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J169" s="2">
         <v>2</v>
       </c>
-      <c r="K172" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="173" spans="8:11">
-      <c r="H173" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J173" s="2">
+      <c r="K169" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="170" spans="8:11">
+      <c r="H170" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J170" s="2">
         <v>3</v>
       </c>
-      <c r="K173" s="2" t="s">
-        <v>299</v>
+      <c r="K170" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11">
+      <c r="B176" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C176" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J176" s="2">
+        <v>1</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="177" spans="8:11">
+      <c r="H177" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J177" s="2">
+        <v>2</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="178" spans="8:11">
+      <c r="H178" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J178" s="2">
+        <v>3</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B42:B75"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B111:B120"/>
-    <mergeCell ref="B122:B131"/>
-    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B47:B80"/>
+    <mergeCell ref="B82:B91"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="B127:B136"/>
     <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B151:B156"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="B156:B161"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="10455"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2211,8 +2211,8 @@
   <sheetPr/>
   <dimension ref="A1:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24645" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="333">
   <si>
     <t>##var</t>
   </si>
@@ -380,6 +380,27 @@
     <t>视野范围</t>
   </si>
   <si>
+    <t>GamePropertyType_Silent</t>
+  </si>
+  <si>
+    <t>Silent</t>
+  </si>
+  <si>
+    <t>沉默</t>
+  </si>
+  <si>
+    <t>GamePropertyType_CantMove</t>
+  </si>
+  <si>
+    <t>禁止移动</t>
+  </si>
+  <si>
+    <t>GamePropertyType_CantRotate</t>
+  </si>
+  <si>
+    <t>禁止转向</t>
+  </si>
+  <si>
     <t>GamePropertyType_Hp</t>
   </si>
   <si>
@@ -941,6 +962,30 @@
     <t>子弹行为</t>
   </si>
   <si>
+    <t>ActionType_MoveToTarget</t>
+  </si>
+  <si>
+    <t>移动到目标行为</t>
+  </si>
+  <si>
+    <t>ActionType_CastSubcast</t>
+  </si>
+  <si>
+    <t>释放子技能行为</t>
+  </si>
+  <si>
+    <t>ActionType_Attract</t>
+  </si>
+  <si>
+    <t>吸引行为</t>
+  </si>
+  <si>
+    <t>ActionType_HitFly</t>
+  </si>
+  <si>
+    <t>击飞行为</t>
+  </si>
+  <si>
     <t>MessageNotifyType</t>
   </si>
   <si>
@@ -960,6 +1005,27 @@
   </si>
   <si>
     <t>通知视野内所有玩家除了自己</t>
+  </si>
+  <si>
+    <t>AIType</t>
+  </si>
+  <si>
+    <t>AIType_XunLuo</t>
+  </si>
+  <si>
+    <t>巡逻</t>
+  </si>
+  <si>
+    <t>AIType_AutoSkill</t>
+  </si>
+  <si>
+    <t>自动释放技能</t>
+  </si>
+  <si>
+    <t>AIType_Stand</t>
+  </si>
+  <si>
+    <t>发呆</t>
   </si>
 </sst>
 </file>
@@ -2209,10 +2275,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L178"/>
+  <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3033,978 +3099,970 @@
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="24"/>
-      <c r="K52" s="44"/>
+      <c r="H52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1006</v>
+      </c>
+      <c r="K52" s="44" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="24"/>
       <c r="H53" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J53" s="2">
-        <v>1101</v>
-      </c>
-      <c r="K53" s="44" t="s">
-        <v>119</v>
+        <v>1007</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="24"/>
       <c r="H54" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J54" s="2">
-        <v>1102</v>
-      </c>
-      <c r="K54" s="44" t="s">
-        <v>122</v>
+        <v>1008</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="24"/>
-      <c r="H55" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J55" s="2">
-        <v>1103</v>
-      </c>
-      <c r="K55" s="44" t="s">
-        <v>125</v>
-      </c>
+      <c r="K55" s="44"/>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="24"/>
-      <c r="H56" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J56" s="2">
-        <v>1104</v>
-      </c>
-      <c r="K56" s="44" t="s">
-        <v>128</v>
-      </c>
+      <c r="K56" s="44"/>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="24"/>
       <c r="H57" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J57" s="2">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="K57" s="44" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="24"/>
-      <c r="H58" s="2" t="str">
-        <f>(_xlfn.CONCAT(H57,"Base"))</f>
-        <v>GamePropertyType_AtkBase</v>
-      </c>
-      <c r="I58" s="2" t="str">
-        <f>_xlfn.CONCAT(I57,"Base")</f>
-        <v>AtkBase</v>
+      <c r="H58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="J58" s="2">
-        <f>J57*10+1</f>
-        <v>11051</v>
-      </c>
-      <c r="K58" s="44" t="str">
-        <f>_xlfn.CONCAT(K57,"基础值")</f>
-        <v>攻击基础值</v>
+        <v>1102</v>
+      </c>
+      <c r="K58" s="44" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="24"/>
-      <c r="H59" s="2" t="str">
-        <f t="shared" ref="H59:H61" si="0">_xlfn.CONCAT(H57,"Add")</f>
-        <v>GamePropertyType_AtkAdd</v>
-      </c>
-      <c r="I59" s="2" t="str">
-        <f>_xlfn.CONCAT(I57,"Add")</f>
-        <v>AtkAdd</v>
+      <c r="H59" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="J59" s="2">
-        <f>J57*10+2</f>
-        <v>11052</v>
-      </c>
-      <c r="K59" s="44" t="str">
-        <f>_xlfn.CONCAT(K57,"附加值")</f>
-        <v>攻击附加值</v>
+        <v>1103</v>
+      </c>
+      <c r="K59" s="44" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="24"/>
-      <c r="H60" s="2" t="str">
-        <f>_xlfn.CONCAT(H57,"Pct")</f>
-        <v>GamePropertyType_AtkPct</v>
-      </c>
-      <c r="I60" s="2" t="str">
-        <f>_xlfn.CONCAT(I57,"Pct")</f>
-        <v>AtkPct</v>
+      <c r="H60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="J60" s="2">
-        <f>J57*10+3</f>
-        <v>11053</v>
-      </c>
-      <c r="K60" s="44" t="str">
-        <f>_xlfn.CONCAT(K57,"百分比")</f>
-        <v>攻击百分比</v>
+        <v>1104</v>
+      </c>
+      <c r="K60" s="44" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="24"/>
-      <c r="H61" s="2" t="str">
-        <f>_xlfn.CONCAT(H57,"FinalAdd")</f>
-        <v>GamePropertyType_AtkFinalAdd</v>
-      </c>
-      <c r="I61" s="2" t="str">
-        <f>_xlfn.CONCAT(I57,"FinalAdd")</f>
-        <v>AtkFinalAdd</v>
+      <c r="H61" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="J61" s="2">
-        <f>J57*10+4</f>
-        <v>11054</v>
-      </c>
-      <c r="K61" s="44" t="str">
-        <f>_xlfn.CONCAT(K57,"最终附加值")</f>
-        <v>攻击最终附加值</v>
+        <v>1105</v>
+      </c>
+      <c r="K61" s="44" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="24"/>
       <c r="H62" s="2" t="str">
-        <f>_xlfn.CONCAT(H57,"FinalPct")</f>
-        <v>GamePropertyType_AtkFinalPct</v>
+        <f>(_xlfn.CONCAT(H61,"Base"))</f>
+        <v>GamePropertyType_AtkBase</v>
       </c>
       <c r="I62" s="2" t="str">
-        <f>_xlfn.CONCAT(I57,"FinalPct")</f>
-        <v>AtkFinalPct</v>
+        <f>_xlfn.CONCAT(I61,"Base")</f>
+        <v>AtkBase</v>
       </c>
       <c r="J62" s="2">
-        <f>J57*10+5</f>
-        <v>11055</v>
+        <f>J61*10+1</f>
+        <v>11051</v>
       </c>
       <c r="K62" s="44" t="str">
-        <f>_xlfn.CONCAT(K57,"最终百分比")</f>
-        <v>攻击最终百分比</v>
+        <f>_xlfn.CONCAT(K61,"基础值")</f>
+        <v>攻击基础值</v>
       </c>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="24"/>
-      <c r="H63" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>133</v>
+      <c r="H63" s="2" t="str">
+        <f t="shared" ref="H63:H65" si="0">_xlfn.CONCAT(H61,"Add")</f>
+        <v>GamePropertyType_AtkAdd</v>
+      </c>
+      <c r="I63" s="2" t="str">
+        <f>_xlfn.CONCAT(I61,"Add")</f>
+        <v>AtkAdd</v>
       </c>
       <c r="J63" s="2">
-        <v>1106</v>
-      </c>
-      <c r="K63" s="44" t="s">
-        <v>134</v>
+        <f>J61*10+2</f>
+        <v>11052</v>
+      </c>
+      <c r="K63" s="44" t="str">
+        <f>_xlfn.CONCAT(K61,"附加值")</f>
+        <v>攻击附加值</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="24"/>
       <c r="H64" s="2" t="str">
-        <f>(_xlfn.CONCAT(H63,"Base"))</f>
-        <v>GamePropertyType_DefBase</v>
+        <f>_xlfn.CONCAT(H61,"Pct")</f>
+        <v>GamePropertyType_AtkPct</v>
       </c>
       <c r="I64" s="2" t="str">
-        <f>_xlfn.CONCAT(I63,"Base")</f>
-        <v>DefBase</v>
+        <f>_xlfn.CONCAT(I61,"Pct")</f>
+        <v>AtkPct</v>
       </c>
       <c r="J64" s="2">
-        <f>J63*10+1</f>
-        <v>11061</v>
+        <f>J61*10+3</f>
+        <v>11053</v>
       </c>
       <c r="K64" s="44" t="str">
-        <f>_xlfn.CONCAT(K63,"基础值")</f>
-        <v>防御基础值</v>
+        <f>_xlfn.CONCAT(K61,"百分比")</f>
+        <v>攻击百分比</v>
       </c>
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="24"/>
       <c r="H65" s="2" t="str">
-        <f>_xlfn.CONCAT(H63,"Add")</f>
-        <v>GamePropertyType_DefAdd</v>
+        <f>_xlfn.CONCAT(H61,"FinalAdd")</f>
+        <v>GamePropertyType_AtkFinalAdd</v>
       </c>
       <c r="I65" s="2" t="str">
-        <f>_xlfn.CONCAT(I63,"Add")</f>
-        <v>DefAdd</v>
+        <f>_xlfn.CONCAT(I61,"FinalAdd")</f>
+        <v>AtkFinalAdd</v>
       </c>
       <c r="J65" s="2">
-        <f>J63*10+2</f>
-        <v>11062</v>
+        <f>J61*10+4</f>
+        <v>11054</v>
       </c>
       <c r="K65" s="44" t="str">
-        <f>_xlfn.CONCAT(K63,"附加值")</f>
-        <v>防御附加值</v>
+        <f>_xlfn.CONCAT(K61,"最终附加值")</f>
+        <v>攻击最终附加值</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="24"/>
       <c r="H66" s="2" t="str">
-        <f>_xlfn.CONCAT(H63,"Pct")</f>
-        <v>GamePropertyType_DefPct</v>
+        <f>_xlfn.CONCAT(H61,"FinalPct")</f>
+        <v>GamePropertyType_AtkFinalPct</v>
       </c>
       <c r="I66" s="2" t="str">
-        <f>_xlfn.CONCAT(I63,"Pct")</f>
-        <v>DefPct</v>
+        <f>_xlfn.CONCAT(I61,"FinalPct")</f>
+        <v>AtkFinalPct</v>
       </c>
       <c r="J66" s="2">
-        <f>J63*10+3</f>
-        <v>11063</v>
+        <f>J61*10+5</f>
+        <v>11055</v>
       </c>
       <c r="K66" s="44" t="str">
-        <f>_xlfn.CONCAT(K63,"百分比")</f>
-        <v>防御百分比</v>
+        <f>_xlfn.CONCAT(K61,"最终百分比")</f>
+        <v>攻击最终百分比</v>
       </c>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="24"/>
-      <c r="H67" s="2" t="str">
-        <f>_xlfn.CONCAT(H63,"FinalAdd")</f>
-        <v>GamePropertyType_DefFinalAdd</v>
-      </c>
-      <c r="I67" s="2" t="str">
-        <f>_xlfn.CONCAT(I63,"FinalAdd")</f>
-        <v>DefFinalAdd</v>
+      <c r="H67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="J67" s="2">
-        <f>J63*10+4</f>
-        <v>11064</v>
-      </c>
-      <c r="K67" s="44" t="str">
-        <f>_xlfn.CONCAT(K63,"最终附加值")</f>
-        <v>防御最终附加值</v>
+        <v>1106</v>
+      </c>
+      <c r="K67" s="44" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="24"/>
       <c r="H68" s="2" t="str">
-        <f>_xlfn.CONCAT(H63,"FinalPct")</f>
-        <v>GamePropertyType_DefFinalPct</v>
+        <f>(_xlfn.CONCAT(H67,"Base"))</f>
+        <v>GamePropertyType_DefBase</v>
       </c>
       <c r="I68" s="2" t="str">
-        <f>_xlfn.CONCAT(I63,"FinalPct")</f>
-        <v>DefFinalPct</v>
+        <f>_xlfn.CONCAT(I67,"Base")</f>
+        <v>DefBase</v>
       </c>
       <c r="J68" s="2">
-        <f>J63*10+5</f>
-        <v>11065</v>
+        <f>J67*10+1</f>
+        <v>11061</v>
       </c>
       <c r="K68" s="44" t="str">
-        <f>_xlfn.CONCAT(K63,"最终百分比")</f>
-        <v>防御最终百分比</v>
+        <f>_xlfn.CONCAT(K67,"基础值")</f>
+        <v>防御基础值</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="24"/>
-      <c r="H69" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>136</v>
+      <c r="H69" s="2" t="str">
+        <f>_xlfn.CONCAT(H67,"Add")</f>
+        <v>GamePropertyType_DefAdd</v>
+      </c>
+      <c r="I69" s="2" t="str">
+        <f>_xlfn.CONCAT(I67,"Add")</f>
+        <v>DefAdd</v>
       </c>
       <c r="J69" s="2">
-        <v>1107</v>
-      </c>
-      <c r="K69" s="44" t="s">
-        <v>137</v>
+        <f>J67*10+2</f>
+        <v>11062</v>
+      </c>
+      <c r="K69" s="44" t="str">
+        <f>_xlfn.CONCAT(K67,"附加值")</f>
+        <v>防御附加值</v>
       </c>
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="24"/>
       <c r="H70" s="2" t="str">
-        <f>(_xlfn.CONCAT(H69,"Base"))</f>
-        <v>GamePropertyType_HitBase</v>
+        <f>_xlfn.CONCAT(H67,"Pct")</f>
+        <v>GamePropertyType_DefPct</v>
       </c>
       <c r="I70" s="2" t="str">
-        <f>_xlfn.CONCAT(I69,"Base")</f>
-        <v>HitBase</v>
+        <f>_xlfn.CONCAT(I67,"Pct")</f>
+        <v>DefPct</v>
       </c>
       <c r="J70" s="2">
-        <f>J69*10+1</f>
-        <v>11071</v>
+        <f>J67*10+3</f>
+        <v>11063</v>
       </c>
       <c r="K70" s="44" t="str">
-        <f>_xlfn.CONCAT(K69,"基础值")</f>
-        <v>命中基础值</v>
+        <f>_xlfn.CONCAT(K67,"百分比")</f>
+        <v>防御百分比</v>
       </c>
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="24"/>
       <c r="H71" s="2" t="str">
-        <f>_xlfn.CONCAT(H69,"Add")</f>
-        <v>GamePropertyType_HitAdd</v>
+        <f>_xlfn.CONCAT(H67,"FinalAdd")</f>
+        <v>GamePropertyType_DefFinalAdd</v>
       </c>
       <c r="I71" s="2" t="str">
-        <f>_xlfn.CONCAT(I69,"Add")</f>
-        <v>HitAdd</v>
+        <f>_xlfn.CONCAT(I67,"FinalAdd")</f>
+        <v>DefFinalAdd</v>
       </c>
       <c r="J71" s="2">
-        <f>J69*10+2</f>
-        <v>11072</v>
+        <f>J67*10+4</f>
+        <v>11064</v>
       </c>
       <c r="K71" s="44" t="str">
-        <f>_xlfn.CONCAT(K69,"附加值")</f>
-        <v>命中附加值</v>
+        <f>_xlfn.CONCAT(K67,"最终附加值")</f>
+        <v>防御最终附加值</v>
       </c>
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="24"/>
       <c r="H72" s="2" t="str">
-        <f>_xlfn.CONCAT(H69,"Pct")</f>
-        <v>GamePropertyType_HitPct</v>
+        <f>_xlfn.CONCAT(H67,"FinalPct")</f>
+        <v>GamePropertyType_DefFinalPct</v>
       </c>
       <c r="I72" s="2" t="str">
-        <f>_xlfn.CONCAT(I69,"Pct")</f>
-        <v>HitPct</v>
+        <f>_xlfn.CONCAT(I67,"FinalPct")</f>
+        <v>DefFinalPct</v>
       </c>
       <c r="J72" s="2">
-        <f>J69*10+3</f>
-        <v>11073</v>
+        <f>J67*10+5</f>
+        <v>11065</v>
       </c>
       <c r="K72" s="44" t="str">
-        <f>_xlfn.CONCAT(K69,"百分比")</f>
-        <v>命中百分比</v>
+        <f>_xlfn.CONCAT(K67,"最终百分比")</f>
+        <v>防御最终百分比</v>
       </c>
     </row>
     <row r="73" spans="2:11">
       <c r="B73" s="24"/>
-      <c r="H73" s="2" t="str">
-        <f>_xlfn.CONCAT(H69,"FinalAdd")</f>
-        <v>GamePropertyType_HitFinalAdd</v>
-      </c>
-      <c r="I73" s="2" t="str">
-        <f>_xlfn.CONCAT(I69,"FinalAdd")</f>
-        <v>HitFinalAdd</v>
+      <c r="H73" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="J73" s="2">
-        <f>J69*10+4</f>
-        <v>11074</v>
-      </c>
-      <c r="K73" s="44" t="str">
-        <f>_xlfn.CONCAT(K69,"最终附加值")</f>
-        <v>命中最终附加值</v>
+        <v>1107</v>
+      </c>
+      <c r="K73" s="44" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="24"/>
       <c r="H74" s="2" t="str">
-        <f>_xlfn.CONCAT(H69,"FinalPct")</f>
-        <v>GamePropertyType_HitFinalPct</v>
+        <f>(_xlfn.CONCAT(H73,"Base"))</f>
+        <v>GamePropertyType_HitBase</v>
       </c>
       <c r="I74" s="2" t="str">
-        <f>_xlfn.CONCAT(I69,"FinalPct")</f>
-        <v>HitFinalPct</v>
+        <f>_xlfn.CONCAT(I73,"Base")</f>
+        <v>HitBase</v>
       </c>
       <c r="J74" s="2">
-        <f>J69*10+5</f>
-        <v>11075</v>
+        <f>J73*10+1</f>
+        <v>11071</v>
       </c>
       <c r="K74" s="44" t="str">
-        <f>_xlfn.CONCAT(K69,"最终百分比")</f>
-        <v>命中最终百分比</v>
+        <f>_xlfn.CONCAT(K73,"基础值")</f>
+        <v>命中基础值</v>
       </c>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="24"/>
-      <c r="H75" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>139</v>
+      <c r="H75" s="2" t="str">
+        <f>_xlfn.CONCAT(H73,"Add")</f>
+        <v>GamePropertyType_HitAdd</v>
+      </c>
+      <c r="I75" s="2" t="str">
+        <f>_xlfn.CONCAT(I73,"Add")</f>
+        <v>HitAdd</v>
       </c>
       <c r="J75" s="2">
-        <v>1108</v>
-      </c>
-      <c r="K75" s="44" t="s">
-        <v>140</v>
+        <f>J73*10+2</f>
+        <v>11072</v>
+      </c>
+      <c r="K75" s="44" t="str">
+        <f>_xlfn.CONCAT(K73,"附加值")</f>
+        <v>命中附加值</v>
       </c>
     </row>
     <row r="76" spans="2:11">
       <c r="B76" s="24"/>
       <c r="H76" s="2" t="str">
-        <f>(_xlfn.CONCAT(H75,"Base"))</f>
-        <v>GamePropertyType_CritBase</v>
+        <f>_xlfn.CONCAT(H73,"Pct")</f>
+        <v>GamePropertyType_HitPct</v>
       </c>
       <c r="I76" s="2" t="str">
-        <f>_xlfn.CONCAT(I75,"Base")</f>
-        <v>CritBase</v>
+        <f>_xlfn.CONCAT(I73,"Pct")</f>
+        <v>HitPct</v>
       </c>
       <c r="J76" s="2">
-        <f>J75*10+1</f>
-        <v>11081</v>
+        <f>J73*10+3</f>
+        <v>11073</v>
       </c>
       <c r="K76" s="44" t="str">
-        <f>_xlfn.CONCAT(K75,"基础值")</f>
-        <v>暴击基础值</v>
+        <f>_xlfn.CONCAT(K73,"百分比")</f>
+        <v>命中百分比</v>
       </c>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="24"/>
       <c r="H77" s="2" t="str">
-        <f>_xlfn.CONCAT(H75,"Add")</f>
-        <v>GamePropertyType_CritAdd</v>
+        <f>_xlfn.CONCAT(H73,"FinalAdd")</f>
+        <v>GamePropertyType_HitFinalAdd</v>
       </c>
       <c r="I77" s="2" t="str">
-        <f>_xlfn.CONCAT(I75,"Add")</f>
-        <v>CritAdd</v>
+        <f>_xlfn.CONCAT(I73,"FinalAdd")</f>
+        <v>HitFinalAdd</v>
       </c>
       <c r="J77" s="2">
-        <f>J75*10+2</f>
-        <v>11082</v>
+        <f>J73*10+4</f>
+        <v>11074</v>
       </c>
       <c r="K77" s="44" t="str">
-        <f>_xlfn.CONCAT(K75,"附加值")</f>
-        <v>暴击附加值</v>
+        <f>_xlfn.CONCAT(K73,"最终附加值")</f>
+        <v>命中最终附加值</v>
       </c>
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="24"/>
       <c r="H78" s="2" t="str">
-        <f>_xlfn.CONCAT(H75,"Pct")</f>
-        <v>GamePropertyType_CritPct</v>
+        <f>_xlfn.CONCAT(H73,"FinalPct")</f>
+        <v>GamePropertyType_HitFinalPct</v>
       </c>
       <c r="I78" s="2" t="str">
-        <f>_xlfn.CONCAT(I75,"Pct")</f>
-        <v>CritPct</v>
+        <f>_xlfn.CONCAT(I73,"FinalPct")</f>
+        <v>HitFinalPct</v>
       </c>
       <c r="J78" s="2">
-        <f>J75*10+3</f>
-        <v>11083</v>
+        <f>J73*10+5</f>
+        <v>11075</v>
       </c>
       <c r="K78" s="44" t="str">
-        <f>_xlfn.CONCAT(K75,"百分比")</f>
-        <v>暴击百分比</v>
+        <f>_xlfn.CONCAT(K73,"最终百分比")</f>
+        <v>命中最终百分比</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="24"/>
-      <c r="H79" s="2" t="str">
-        <f>_xlfn.CONCAT(H75,"FinalAdd")</f>
-        <v>GamePropertyType_CritFinalAdd</v>
-      </c>
-      <c r="I79" s="2" t="str">
-        <f>_xlfn.CONCAT(I75,"FinalAdd")</f>
-        <v>CritFinalAdd</v>
+      <c r="H79" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="J79" s="2">
-        <f>J75*10+4</f>
-        <v>11084</v>
-      </c>
-      <c r="K79" s="44" t="str">
-        <f>_xlfn.CONCAT(K75,"最终附加值")</f>
-        <v>暴击最终附加值</v>
+        <v>1108</v>
+      </c>
+      <c r="K79" s="44" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="2:11">
-      <c r="B80" s="25"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="12" t="str">
-        <f>_xlfn.CONCAT(H75,"FinalPct")</f>
-        <v>GamePropertyType_CritFinalPct</v>
-      </c>
-      <c r="I80" s="12" t="str">
-        <f>_xlfn.CONCAT(I75,"FinalPct")</f>
-        <v>CritFinalPct</v>
-      </c>
-      <c r="J80" s="12">
-        <f>J75*10+5</f>
-        <v>11085</v>
-      </c>
-      <c r="K80" s="45" t="str">
-        <f>_xlfn.CONCAT(K75,"最终百分比")</f>
-        <v>暴击最终百分比</v>
+      <c r="B80" s="24"/>
+      <c r="H80" s="2" t="str">
+        <f>(_xlfn.CONCAT(H79,"Base"))</f>
+        <v>GamePropertyType_CritBase</v>
+      </c>
+      <c r="I80" s="2" t="str">
+        <f>_xlfn.CONCAT(I79,"Base")</f>
+        <v>CritBase</v>
+      </c>
+      <c r="J80" s="2">
+        <f>J79*10+1</f>
+        <v>11081</v>
+      </c>
+      <c r="K80" s="44" t="str">
+        <f>_xlfn.CONCAT(K79,"基础值")</f>
+        <v>暴击基础值</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" s="24"/>
+      <c r="H81" s="2" t="str">
+        <f>_xlfn.CONCAT(H79,"Add")</f>
+        <v>GamePropertyType_CritAdd</v>
+      </c>
+      <c r="I81" s="2" t="str">
+        <f>_xlfn.CONCAT(I79,"Add")</f>
+        <v>CritAdd</v>
+      </c>
+      <c r="J81" s="2">
+        <f>J79*10+2</f>
+        <v>11082</v>
+      </c>
+      <c r="K81" s="44" t="str">
+        <f>_xlfn.CONCAT(K79,"附加值")</f>
+        <v>暴击附加值</v>
       </c>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8">
-        <v>0</v>
-      </c>
-      <c r="K82" s="43"/>
+      <c r="B82" s="24"/>
+      <c r="H82" s="2" t="str">
+        <f>_xlfn.CONCAT(H79,"Pct")</f>
+        <v>GamePropertyType_CritPct</v>
+      </c>
+      <c r="I82" s="2" t="str">
+        <f>_xlfn.CONCAT(I79,"Pct")</f>
+        <v>CritPct</v>
+      </c>
+      <c r="J82" s="2">
+        <f>J79*10+3</f>
+        <v>11083</v>
+      </c>
+      <c r="K82" s="44" t="str">
+        <f>_xlfn.CONCAT(K79,"百分比")</f>
+        <v>暴击百分比</v>
+      </c>
     </row>
     <row r="83" spans="2:11">
       <c r="B83" s="24"/>
-      <c r="H83" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>144</v>
+      <c r="H83" s="2" t="str">
+        <f>_xlfn.CONCAT(H79,"FinalAdd")</f>
+        <v>GamePropertyType_CritFinalAdd</v>
+      </c>
+      <c r="I83" s="2" t="str">
+        <f>_xlfn.CONCAT(I79,"FinalAdd")</f>
+        <v>CritFinalAdd</v>
       </c>
       <c r="J83" s="2">
-        <v>1</v>
-      </c>
-      <c r="K83" s="44" t="s">
-        <v>145</v>
+        <f>J79*10+4</f>
+        <v>11084</v>
+      </c>
+      <c r="K83" s="44" t="str">
+        <f>_xlfn.CONCAT(K79,"最终附加值")</f>
+        <v>暴击最终附加值</v>
       </c>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" s="24"/>
-      <c r="H84" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J84" s="2">
-        <v>2</v>
-      </c>
-      <c r="K84" s="44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11">
-      <c r="B85" s="24"/>
-      <c r="H85" s="2" t="s">
+      <c r="B84" s="25"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="12" t="str">
+        <f>_xlfn.CONCAT(H79,"FinalPct")</f>
+        <v>GamePropertyType_CritFinalPct</v>
+      </c>
+      <c r="I84" s="12" t="str">
+        <f>_xlfn.CONCAT(I79,"FinalPct")</f>
+        <v>CritFinalPct</v>
+      </c>
+      <c r="J84" s="12">
+        <f>J79*10+5</f>
+        <v>11085</v>
+      </c>
+      <c r="K84" s="45" t="str">
+        <f>_xlfn.CONCAT(K79,"最终百分比")</f>
+        <v>暴击最终百分比</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="J85" s="2">
-        <v>3</v>
-      </c>
-      <c r="K85" s="44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11">
-      <c r="B86" s="24"/>
-      <c r="H86" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J86" s="2">
-        <v>4</v>
-      </c>
-      <c r="K86" s="44" t="s">
-        <v>151</v>
-      </c>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8">
+        <v>0</v>
+      </c>
+      <c r="K86" s="43"/>
     </row>
     <row r="87" spans="2:11">
       <c r="B87" s="24"/>
       <c r="H87" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" s="44" t="s">
         <v>152</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J87" s="2">
-        <v>5</v>
-      </c>
-      <c r="K87" s="44" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="88" spans="2:11">
       <c r="B88" s="24"/>
       <c r="H88" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I88" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I88" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="J88" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K88" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="2:11">
       <c r="B89" s="24"/>
       <c r="H89" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="J89" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K89" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="2:11">
       <c r="B90" s="24"/>
       <c r="H90" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I90" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="J90" s="2">
+        <v>4</v>
+      </c>
+      <c r="K90" s="44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" s="24"/>
+      <c r="H91" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J90" s="2">
+      <c r="I91" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J91" s="2">
+        <v>5</v>
+      </c>
+      <c r="K91" s="44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="B92" s="24"/>
+      <c r="H92" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J92" s="2">
+        <v>6</v>
+      </c>
+      <c r="K92" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="24"/>
+      <c r="H93" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J93" s="2">
+        <v>7</v>
+      </c>
+      <c r="K93" s="44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" s="24"/>
+      <c r="H94" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J94" s="2">
         <v>8</v>
       </c>
-      <c r="K90" s="44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11">
-      <c r="B91" s="25"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="I91" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="J91" s="12">
+      <c r="K94" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="25"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J95" s="12">
         <v>9</v>
       </c>
-      <c r="K91" s="45" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="J93" s="8">
+      <c r="K95" s="45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J97" s="8">
         <v>1</v>
       </c>
-      <c r="K93" s="43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11">
-      <c r="B94" s="25"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I94" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="J94" s="12">
+      <c r="K97" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="25"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J98" s="12">
         <v>2</v>
       </c>
-      <c r="K94" s="45" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11">
-      <c r="B96" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="J96" s="8">
+      <c r="K98" s="45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J100" s="8">
         <v>1</v>
       </c>
-      <c r="K96" s="43" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11">
-      <c r="B97" s="24"/>
-      <c r="H97" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J97" s="2">
+      <c r="K100" s="43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="24"/>
+      <c r="H101" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J101" s="2">
         <v>2</v>
       </c>
-      <c r="K97" s="44" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11">
-      <c r="B98" s="24"/>
-      <c r="H98" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J98" s="2">
-        <v>3</v>
-      </c>
-      <c r="K98" s="44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11">
-      <c r="B99" s="25"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I99" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="J99" s="12">
-        <v>4</v>
-      </c>
-      <c r="K99" s="45" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11">
-      <c r="B101" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7" t="s">
+      <c r="K101" s="44" t="s">
         <v>178</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="J101" s="8">
-        <v>1</v>
-      </c>
-      <c r="K101" s="43" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="102" spans="2:11">
       <c r="B102" s="24"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="30" t="s">
+      <c r="H102" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I102" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I102" s="31" t="s">
+      <c r="J102" s="2">
+        <v>3</v>
+      </c>
+      <c r="K102" s="44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="25"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="J102" s="31">
+      <c r="I103" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J103" s="12">
+        <v>4</v>
+      </c>
+      <c r="K103" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J105" s="8">
+        <v>1</v>
+      </c>
+      <c r="K105" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="24"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="I106" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="J106" s="31">
         <v>2</v>
       </c>
-      <c r="K102" s="44" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11">
-      <c r="B103" s="24"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="I103" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="J103" s="31">
+      <c r="K106" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="24"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="I107" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="J107" s="31">
         <v>3</v>
       </c>
-      <c r="K103" s="44" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11">
-      <c r="B104" s="24"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="I104" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="J104" s="31">
-        <v>4</v>
-      </c>
-      <c r="K104" s="44" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11">
-      <c r="B105" s="25"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="I105" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="J105" s="12">
-        <v>5</v>
-      </c>
-      <c r="K105" s="45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11">
-      <c r="B107" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="I107" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J107" s="8">
-        <v>1</v>
-      </c>
-      <c r="K107" s="43" t="s">
+      <c r="K107" s="44" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="108" spans="2:11">
       <c r="B108" s="24"/>
-      <c r="H108" s="2" t="s">
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="I108" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="J108" s="2">
-        <v>2</v>
+      <c r="J108" s="31">
+        <v>4</v>
       </c>
       <c r="K108" s="44" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="109" spans="2:11">
-      <c r="B109" s="24"/>
-      <c r="H109" s="2" t="s">
+      <c r="B109" s="25"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="I109" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="J109" s="2">
-        <v>3</v>
-      </c>
-      <c r="K109" s="44" t="s">
+      <c r="J109" s="12">
+        <v>5</v>
+      </c>
+      <c r="K109" s="45" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
-      <c r="B110" s="25"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="12" t="s">
+    <row r="111" spans="2:11">
+      <c r="B111" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="I110" s="12" t="s">
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="J110" s="12">
-        <v>4</v>
-      </c>
-      <c r="K110" s="45" t="s">
-        <v>196</v>
+      <c r="I111" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J111" s="8">
+        <v>1</v>
+      </c>
+      <c r="K111" s="43" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="112" spans="2:11">
-      <c r="B112" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="8" t="s">
+      <c r="B112" s="24"/>
+      <c r="H112" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I112" s="8" t="s">
+      <c r="I112" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J112" s="8">
-        <v>1</v>
-      </c>
-      <c r="K112" s="43" t="s">
+      <c r="J112" s="2">
+        <v>2</v>
+      </c>
+      <c r="K112" s="44" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4017,7 +4075,7 @@
         <v>201</v>
       </c>
       <c r="J113" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K113" s="44" t="s">
         <v>201</v>
@@ -4037,7 +4095,7 @@
         <v>203</v>
       </c>
       <c r="J114" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K114" s="45" t="s">
         <v>203</v>
@@ -4047,9 +4105,7 @@
       <c r="B116" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C116" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
@@ -4061,7 +4117,6 @@
         <v>206</v>
       </c>
       <c r="J116" s="8">
-        <f>POWER(2,0)</f>
         <v>1</v>
       </c>
       <c r="K116" s="43" t="s">
@@ -4077,7 +4132,6 @@
         <v>208</v>
       </c>
       <c r="J117" s="2">
-        <f>POWER(2,1)</f>
         <v>2</v>
       </c>
       <c r="K117" s="44" t="s">
@@ -4085,160 +4139,159 @@
       </c>
     </row>
     <row r="118" spans="2:11">
-      <c r="B118" s="24"/>
-      <c r="H118" s="2" t="s">
+      <c r="B118" s="25"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="I118" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="J118" s="2">
-        <f>POWER(2,2)</f>
-        <v>4</v>
-      </c>
-      <c r="K118" s="44" t="s">
+      <c r="J118" s="12">
+        <v>3</v>
+      </c>
+      <c r="K118" s="45" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="119" spans="2:11">
-      <c r="B119" s="24"/>
-      <c r="H119" s="2" t="s">
+    <row r="120" spans="2:11">
+      <c r="B120" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="C120" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="J119" s="2">
-        <f>POWER(2,3)</f>
-        <v>8</v>
-      </c>
-      <c r="K119" s="44" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11">
-      <c r="B120" s="24"/>
-      <c r="H120" s="2" t="s">
+      <c r="I120" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="I120" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J120" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
-      </c>
-      <c r="K120" s="44" t="s">
-        <v>214</v>
+      <c r="J120" s="8">
+        <f>POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K120" s="43" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="2:11">
       <c r="B121" s="24"/>
       <c r="H121" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I121" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I121" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="J121" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
+        <f>POWER(2,1)</f>
+        <v>2</v>
       </c>
       <c r="K121" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="2:11">
       <c r="B122" s="24"/>
       <c r="H122" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I122" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="I122" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="J122" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
+        <f>POWER(2,2)</f>
+        <v>4</v>
       </c>
       <c r="K122" s="44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="2:11">
       <c r="B123" s="24"/>
       <c r="H123" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I123" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="I123" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="J123" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
+        <f>POWER(2,3)</f>
+        <v>8</v>
       </c>
       <c r="K123" s="44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="2:11">
       <c r="B124" s="24"/>
       <c r="H124" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I124" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="J124" s="2">
+        <f>POWER(2,4)</f>
+        <v>16</v>
+      </c>
+      <c r="K124" s="44" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11">
+      <c r="B125" s="24"/>
+      <c r="H125" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="J124" s="2">
-        <f>POWER(2,8)</f>
-        <v>256</v>
-      </c>
-      <c r="K124" s="44" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11">
-      <c r="B125" s="25"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="12" t="s">
+      <c r="I125" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="I125" s="12" t="s">
+      <c r="J125" s="2">
+        <f>POWER(2,5)</f>
+        <v>32</v>
+      </c>
+      <c r="K125" s="44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11">
+      <c r="B126" s="24"/>
+      <c r="H126" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J125" s="12">
-        <f>POWER(2,9)</f>
-        <v>512</v>
-      </c>
-      <c r="K125" s="45" t="s">
-        <v>224</v>
+      <c r="I126" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J126" s="2">
+        <f>POWER(2,6)</f>
+        <v>64</v>
+      </c>
+      <c r="K126" s="44" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="127" spans="2:11">
-      <c r="B127" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C127" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="8" t="s">
+      <c r="B127" s="24"/>
+      <c r="H127" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I127" s="8" t="s">
+      <c r="I127" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J127" s="8">
-        <f>POWER(2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K127" s="43" t="s">
+      <c r="J127" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K127" s="44" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4251,556 +4304,559 @@
         <v>229</v>
       </c>
       <c r="J128" s="2">
-        <f>POWER(2,1)</f>
-        <v>2</v>
+        <f>POWER(2,8)</f>
+        <v>256</v>
       </c>
       <c r="K128" s="44" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="129" spans="2:11">
-      <c r="B129" s="24"/>
-      <c r="H129" s="2" t="s">
+      <c r="B129" s="25"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I129" s="2" t="s">
+      <c r="I129" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="J129" s="2">
-        <f>POWER(2,2)</f>
-        <v>4</v>
-      </c>
-      <c r="K129" s="44" t="s">
+      <c r="J129" s="12">
+        <f>POWER(2,9)</f>
+        <v>512</v>
+      </c>
+      <c r="K129" s="45" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="130" spans="2:11">
-      <c r="B130" s="24"/>
-      <c r="H130" s="2" t="s">
+    <row r="131" spans="2:11">
+      <c r="B131" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="C131" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="J130" s="2">
-        <f>POWER(2,3)</f>
-        <v>8</v>
-      </c>
-      <c r="K130" s="44" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11">
-      <c r="B131" s="24"/>
-      <c r="H131" s="2" t="s">
+      <c r="I131" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="I131" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J131" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
-      </c>
-      <c r="K131" s="44" t="s">
-        <v>235</v>
+      <c r="J131" s="8">
+        <f>POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K131" s="43" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="132" spans="2:11">
       <c r="B132" s="24"/>
       <c r="H132" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I132" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="I132" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="J132" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
+        <f>POWER(2,1)</f>
+        <v>2</v>
       </c>
       <c r="K132" s="44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="2:11">
       <c r="B133" s="24"/>
       <c r="H133" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I133" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="J133" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
+        <f>POWER(2,2)</f>
+        <v>4</v>
       </c>
       <c r="K133" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134" spans="2:11">
       <c r="B134" s="24"/>
       <c r="H134" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I134" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I134" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="J134" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
+        <f>POWER(2,3)</f>
+        <v>8</v>
       </c>
       <c r="K134" s="44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="2:11">
       <c r="B135" s="24"/>
       <c r="H135" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I135" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I135" s="2" t="s">
+      <c r="J135" s="2">
+        <f>POWER(2,4)</f>
+        <v>16</v>
+      </c>
+      <c r="K135" s="44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11">
+      <c r="B136" s="24"/>
+      <c r="H136" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J135" s="2">
+      <c r="I136" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J136" s="2">
+        <f>POWER(2,5)</f>
+        <v>32</v>
+      </c>
+      <c r="K136" s="44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11">
+      <c r="B137" s="24"/>
+      <c r="H137" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J137" s="2">
+        <f>POWER(2,6)</f>
+        <v>64</v>
+      </c>
+      <c r="K137" s="44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="24"/>
+      <c r="H138" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J138" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K138" s="44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11">
+      <c r="B139" s="24"/>
+      <c r="H139" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J139" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K135" s="44" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11">
-      <c r="B136" s="25"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="I136" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="J136" s="12">
+      <c r="K139" s="44" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11">
+      <c r="B140" s="25"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I140" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="J140" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K136" s="45" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="138" spans="2:11">
-      <c r="B138" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="C138" s="7" t="b">
+      <c r="K140" s="45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C142" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="I138" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="J138" s="8">
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="J142" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K138" s="43" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11">
-      <c r="B139" s="24"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="30"/>
-      <c r="E139" s="30"/>
-      <c r="F139" s="30"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="I139" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="J139" s="31">
+      <c r="K142" s="43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11">
+      <c r="B143" s="24"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="30"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="I143" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="J143" s="31">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K139" s="44" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="140" spans="2:11">
-      <c r="B140" s="24"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="30"/>
-      <c r="E140" s="30"/>
-      <c r="F140" s="30"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="I140" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="J140" s="31">
+      <c r="K143" s="44" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11">
+      <c r="B144" s="24"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="30"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="I144" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="J144" s="31">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K140" s="44" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11">
-      <c r="B141" s="25"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="I141" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="J141" s="12">
+      <c r="K144" s="44" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11">
+      <c r="B145" s="25"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J145" s="12">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K141" s="45" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11">
-      <c r="B143" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C143" s="7" t="b">
+      <c r="K145" s="45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C147" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="I143" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="J143" s="8">
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="J147" s="8">
         <v>1</v>
       </c>
-      <c r="K143" s="43" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11">
-      <c r="B144" s="24"/>
-      <c r="H144" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="J144" s="2">
+      <c r="K147" s="43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" s="24"/>
+      <c r="H148" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J148" s="2">
         <v>2</v>
       </c>
-      <c r="K144" s="44" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11">
-      <c r="B145" s="24"/>
-      <c r="H145" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J145" s="2">
+      <c r="K148" s="44" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11">
+      <c r="B149" s="24"/>
+      <c r="H149" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J149" s="2">
         <v>3</v>
       </c>
-      <c r="K145" s="44" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11">
-      <c r="B146" s="25"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="I146" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="J146" s="12">
+      <c r="K149" s="44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="B150" s="25"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="I150" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="J150" s="12">
         <v>4</v>
       </c>
-      <c r="K146" s="45" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11">
-      <c r="B148" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="C148" s="7" t="b">
+      <c r="K150" s="45" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="B152" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C152" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="I148" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="J148" s="8">
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I152" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J152" s="8">
         <v>1</v>
       </c>
-      <c r="K148" s="43" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11">
-      <c r="B149" s="25"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
-      <c r="E149" s="11"/>
-      <c r="F149" s="11"/>
-      <c r="G149" s="11"/>
-      <c r="H149" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="I149" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="J149" s="12">
+      <c r="K152" s="43" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11">
+      <c r="B153" s="25"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J153" s="12">
         <v>2</v>
       </c>
-      <c r="K149" s="45" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11">
-      <c r="B151" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="C151" s="7" t="b">
+      <c r="K153" s="45" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11">
+      <c r="B155" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C155" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="I151" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="J151" s="8">
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="J155" s="8">
         <v>1</v>
       </c>
-      <c r="K151" s="43" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11">
-      <c r="B152" s="24"/>
-      <c r="H152" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="J152" s="2">
+      <c r="K155" s="43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11">
+      <c r="B156" s="24"/>
+      <c r="H156" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J156" s="2">
         <v>2</v>
       </c>
-      <c r="K152" s="44" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11">
-      <c r="B153" s="24"/>
-      <c r="H153" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="J153" s="2">
+      <c r="K156" s="44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11">
+      <c r="B157" s="24"/>
+      <c r="H157" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J157" s="2">
         <v>3</v>
       </c>
-      <c r="K153" s="44" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11">
-      <c r="B154" s="25"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-      <c r="E154" s="11"/>
-      <c r="F154" s="11"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="I154" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="J154" s="12">
+      <c r="K157" s="44" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11">
+      <c r="B158" s="25"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="I158" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="J158" s="12">
         <v>4</v>
       </c>
-      <c r="K154" s="45" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11">
-      <c r="B156" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="C156" s="14" t="b">
+      <c r="K158" s="45" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11">
+      <c r="B160" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="C160" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="I156" s="15" t="s">
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="I160" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="J156" s="15">
+      <c r="J160" s="15">
         <v>1</v>
       </c>
-      <c r="K156" s="39" t="s">
+      <c r="K160" s="39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
-      <c r="B157" s="48"/>
-      <c r="H157" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="J157" s="2">
+    <row r="161" spans="2:11">
+      <c r="B161" s="48"/>
+      <c r="H161" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J161" s="2">
         <v>2</v>
       </c>
-      <c r="K157" s="40" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="158" spans="2:11">
-      <c r="B158" s="48"/>
-      <c r="H158" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="J158" s="2">
+      <c r="K161" s="40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11">
+      <c r="B162" s="48"/>
+      <c r="H162" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J162" s="2">
         <v>3</v>
       </c>
-      <c r="K158" s="40" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="159" spans="2:11">
-      <c r="B159" s="48"/>
-      <c r="H159" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="J159" s="2">
+      <c r="K162" s="40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11">
+      <c r="B163" s="48"/>
+      <c r="H163" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J163" s="2">
         <v>4</v>
       </c>
-      <c r="K159" s="40" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11">
-      <c r="B160" s="48"/>
-      <c r="H160" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J160" s="2">
-        <v>5</v>
-      </c>
-      <c r="K160" s="40" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="161" spans="2:11">
-      <c r="B161" s="49"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="18"/>
-      <c r="H161" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="I161" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="J161" s="19">
-        <v>6</v>
-      </c>
-      <c r="K161" s="41" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="163" spans="2:11">
-      <c r="B163" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="C163" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="I163" s="15" t="s">
+      <c r="K163" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="J163" s="15">
-        <v>1</v>
-      </c>
-      <c r="K163" s="39" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="164" spans="2:11">
-      <c r="B164" s="51"/>
+      <c r="B164" s="48"/>
       <c r="H164" s="2" t="s">
         <v>293</v>
       </c>
@@ -4808,14 +4864,14 @@
         <v>294</v>
       </c>
       <c r="J164" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K164" s="40" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="165" spans="2:11">
-      <c r="B165" s="52"/>
+      <c r="B165" s="49"/>
       <c r="C165" s="18"/>
       <c r="D165" s="18"/>
       <c r="E165" s="18"/>
@@ -4828,106 +4884,266 @@
         <v>296</v>
       </c>
       <c r="J165" s="19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K165" s="41" t="s">
         <v>296</v>
       </c>
     </row>
+    <row r="167" spans="2:11">
+      <c r="B167" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="C167" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="I167" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="J167" s="15">
+        <v>1</v>
+      </c>
+      <c r="K167" s="39" t="s">
+        <v>299</v>
+      </c>
+    </row>
     <row r="168" spans="2:11">
-      <c r="B168" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C168" s="1" t="b">
+      <c r="B168" s="51"/>
+      <c r="H168" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J168" s="2">
+        <v>2</v>
+      </c>
+      <c r="K168" s="40" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11">
+      <c r="B169" s="52"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="18"/>
+      <c r="F169" s="18"/>
+      <c r="G169" s="18"/>
+      <c r="H169" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="I169" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="J169" s="19">
+        <v>3</v>
+      </c>
+      <c r="K169" s="41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11">
+      <c r="B172" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C172" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H168" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J168" s="2">
+      <c r="H172" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J172" s="2">
         <v>1</v>
       </c>
-      <c r="K168" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="169" spans="8:11">
-      <c r="H169" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="I169" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="J169" s="2">
+      <c r="K172" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="173" spans="8:11">
+      <c r="H173" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J173" s="2">
         <v>2</v>
       </c>
-      <c r="K169" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="170" spans="8:11">
-      <c r="H170" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J170" s="2">
+      <c r="K173" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="174" spans="8:11">
+      <c r="H174" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J174" s="2">
         <v>3</v>
       </c>
-      <c r="K170" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="176" spans="2:11">
-      <c r="B176" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C176" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="K174" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="175" spans="8:11">
+      <c r="H175" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J175" s="2">
+        <v>4</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="176" spans="8:11">
       <c r="H176" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="J176" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177" spans="8:11">
       <c r="H177" s="2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="J177" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="178" spans="8:11">
       <c r="H178" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J178" s="2">
+        <v>7</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11">
+      <c r="B180" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C180" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="J180" s="2">
+        <v>1</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="181" spans="8:11">
+      <c r="H181" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J181" s="2">
+        <v>2</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="182" spans="8:11">
+      <c r="H182" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J182" s="2">
         <v>3</v>
       </c>
-      <c r="K178" s="2" t="s">
-        <v>310</v>
+      <c r="K182" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11">
+      <c r="B185" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J185" s="2">
+        <v>1</v>
+      </c>
+      <c r="K185" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="186" spans="8:11">
+      <c r="H186" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J186" s="2">
+        <v>2</v>
+      </c>
+      <c r="K186" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="187" spans="8:11">
+      <c r="H187" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J187" s="2">
+        <v>3</v>
+      </c>
+      <c r="K187" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4940,20 +5156,20 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B32:B38"/>
     <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B47:B80"/>
-    <mergeCell ref="B82:B91"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="B127:B136"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="B156:B161"/>
+    <mergeCell ref="B47:B84"/>
+    <mergeCell ref="B86:B95"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B120:B129"/>
+    <mergeCell ref="B131:B140"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B160:B165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="10455"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
     <t>GamePropertyType</t>
   </si>
   <si>
-    <t>GamePropertyType_Level</t>
+    <t>GP_Level</t>
   </si>
   <si>
     <t>Level</t>
@@ -338,7 +338,7 @@
     <t>等级</t>
   </si>
   <si>
-    <t>GamePropertyType_Exp</t>
+    <t>GP_Exp</t>
   </si>
   <si>
     <t>Exp</t>
@@ -347,7 +347,7 @@
     <t>经验值</t>
   </si>
   <si>
-    <t>GamePropertyType_MaxExp</t>
+    <t>GP_MaxExp</t>
   </si>
   <si>
     <t>MaxExp</t>
@@ -356,13 +356,13 @@
     <t>最大经验值</t>
   </si>
   <si>
-    <t>GamePropertyType_Speed</t>
+    <t>GP_Speed</t>
   </si>
   <si>
     <t>移动速度</t>
   </si>
   <si>
-    <t>GamePropertyType_AOI</t>
+    <t>GP_AOI</t>
   </si>
   <si>
     <t>AOI</t>
@@ -371,7 +371,7 @@
     <t>视野范围</t>
   </si>
   <si>
-    <t>GamePropertyType_Silent</t>
+    <t>GP_Silent</t>
   </si>
   <si>
     <t>Silent</t>
@@ -380,19 +380,19 @@
     <t>沉默</t>
   </si>
   <si>
-    <t>GamePropertyType_CantMove</t>
+    <t>GP_CantMove</t>
   </si>
   <si>
     <t>禁止移动</t>
   </si>
   <si>
-    <t>GamePropertyType_CantRotate</t>
+    <t>GP_CantRotate</t>
   </si>
   <si>
     <t>禁止转向</t>
   </si>
   <si>
-    <t>GamePropertyType_Hp</t>
+    <t>GP_Hp</t>
   </si>
   <si>
     <t>Hp</t>
@@ -401,7 +401,7 @@
     <t>生命值</t>
   </si>
   <si>
-    <t>GamePropertyType_MaxHp</t>
+    <t>GP_MaxHp</t>
   </si>
   <si>
     <t>MaxHp</t>
@@ -410,7 +410,7 @@
     <t>最大生命值</t>
   </si>
   <si>
-    <t>GamePropertyType_Mp</t>
+    <t>GP_Mp</t>
   </si>
   <si>
     <t>Mp</t>
@@ -419,7 +419,7 @@
     <t>魔法值</t>
   </si>
   <si>
-    <t>GamePropertyType_MaxMp</t>
+    <t>GP_MaxMp</t>
   </si>
   <si>
     <t>MaxMp</t>
@@ -428,7 +428,7 @@
     <t>最大魔法值</t>
   </si>
   <si>
-    <t>GamePropertyType_Atk</t>
+    <t>GP_Atk</t>
   </si>
   <si>
     <t>Atk</t>
@@ -437,7 +437,7 @@
     <t>攻击</t>
   </si>
   <si>
-    <t>GamePropertyType_Def</t>
+    <t>GP_Def</t>
   </si>
   <si>
     <t>Def</t>
@@ -446,7 +446,7 @@
     <t>防御</t>
   </si>
   <si>
-    <t>GamePropertyType_Hit</t>
+    <t>GP_Hit</t>
   </si>
   <si>
     <t>Hit</t>
@@ -455,7 +455,7 @@
     <t>命中</t>
   </si>
   <si>
-    <t>GamePropertyType_Crit</t>
+    <t>GP_Crit</t>
   </si>
   <si>
     <t>Crit</t>
@@ -2171,8 +2171,8 @@
   <sheetPr/>
   <dimension ref="A1:L186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2184,7 +2184,7 @@
     <col min="5" max="5" width="3.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="3" style="1" customWidth="1"/>
     <col min="7" max="7" width="4.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="42.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="41.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="28.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.25" style="2" customWidth="1"/>
     <col min="11" max="11" width="36.25" style="2" customWidth="1"/>
@@ -3099,7 +3099,7 @@
       <c r="B60" s="14"/>
       <c r="H60" s="2" t="str">
         <f>(_xlfn.CONCAT(H59,"Base"))</f>
-        <v>GamePropertyType_AtkBase</v>
+        <v>GP_AtkBase</v>
       </c>
       <c r="I60" s="2" t="str">
         <f>_xlfn.CONCAT(I59,"Base")</f>
@@ -3118,7 +3118,7 @@
       <c r="B61" s="14"/>
       <c r="H61" s="2" t="str">
         <f t="shared" ref="H61:H63" si="0">_xlfn.CONCAT(H59,"Add")</f>
-        <v>GamePropertyType_AtkAdd</v>
+        <v>GP_AtkAdd</v>
       </c>
       <c r="I61" s="2" t="str">
         <f>_xlfn.CONCAT(I59,"Add")</f>
@@ -3137,7 +3137,7 @@
       <c r="B62" s="14"/>
       <c r="H62" s="2" t="str">
         <f>_xlfn.CONCAT(H59,"Pct")</f>
-        <v>GamePropertyType_AtkPct</v>
+        <v>GP_AtkPct</v>
       </c>
       <c r="I62" s="2" t="str">
         <f>_xlfn.CONCAT(I59,"Pct")</f>
@@ -3156,7 +3156,7 @@
       <c r="B63" s="14"/>
       <c r="H63" s="2" t="str">
         <f>_xlfn.CONCAT(H59,"FinalAdd")</f>
-        <v>GamePropertyType_AtkFinalAdd</v>
+        <v>GP_AtkFinalAdd</v>
       </c>
       <c r="I63" s="2" t="str">
         <f>_xlfn.CONCAT(I59,"FinalAdd")</f>
@@ -3175,7 +3175,7 @@
       <c r="B64" s="14"/>
       <c r="H64" s="2" t="str">
         <f>_xlfn.CONCAT(H59,"FinalPct")</f>
-        <v>GamePropertyType_AtkFinalPct</v>
+        <v>GP_AtkFinalPct</v>
       </c>
       <c r="I64" s="2" t="str">
         <f>_xlfn.CONCAT(I59,"FinalPct")</f>
@@ -3209,7 +3209,7 @@
       <c r="B66" s="14"/>
       <c r="H66" s="2" t="str">
         <f>(_xlfn.CONCAT(H65,"Base"))</f>
-        <v>GamePropertyType_DefBase</v>
+        <v>GP_DefBase</v>
       </c>
       <c r="I66" s="2" t="str">
         <f>_xlfn.CONCAT(I65,"Base")</f>
@@ -3228,7 +3228,7 @@
       <c r="B67" s="14"/>
       <c r="H67" s="2" t="str">
         <f>_xlfn.CONCAT(H65,"Add")</f>
-        <v>GamePropertyType_DefAdd</v>
+        <v>GP_DefAdd</v>
       </c>
       <c r="I67" s="2" t="str">
         <f>_xlfn.CONCAT(I65,"Add")</f>
@@ -3247,7 +3247,7 @@
       <c r="B68" s="14"/>
       <c r="H68" s="2" t="str">
         <f>_xlfn.CONCAT(H65,"Pct")</f>
-        <v>GamePropertyType_DefPct</v>
+        <v>GP_DefPct</v>
       </c>
       <c r="I68" s="2" t="str">
         <f>_xlfn.CONCAT(I65,"Pct")</f>
@@ -3266,7 +3266,7 @@
       <c r="B69" s="14"/>
       <c r="H69" s="2" t="str">
         <f>_xlfn.CONCAT(H65,"FinalAdd")</f>
-        <v>GamePropertyType_DefFinalAdd</v>
+        <v>GP_DefFinalAdd</v>
       </c>
       <c r="I69" s="2" t="str">
         <f>_xlfn.CONCAT(I65,"FinalAdd")</f>
@@ -3285,7 +3285,7 @@
       <c r="B70" s="14"/>
       <c r="H70" s="2" t="str">
         <f>_xlfn.CONCAT(H65,"FinalPct")</f>
-        <v>GamePropertyType_DefFinalPct</v>
+        <v>GP_DefFinalPct</v>
       </c>
       <c r="I70" s="2" t="str">
         <f>_xlfn.CONCAT(I65,"FinalPct")</f>
@@ -3319,7 +3319,7 @@
       <c r="B72" s="14"/>
       <c r="H72" s="2" t="str">
         <f>(_xlfn.CONCAT(H71,"Base"))</f>
-        <v>GamePropertyType_HitBase</v>
+        <v>GP_HitBase</v>
       </c>
       <c r="I72" s="2" t="str">
         <f>_xlfn.CONCAT(I71,"Base")</f>
@@ -3338,7 +3338,7 @@
       <c r="B73" s="14"/>
       <c r="H73" s="2" t="str">
         <f>_xlfn.CONCAT(H71,"Add")</f>
-        <v>GamePropertyType_HitAdd</v>
+        <v>GP_HitAdd</v>
       </c>
       <c r="I73" s="2" t="str">
         <f>_xlfn.CONCAT(I71,"Add")</f>
@@ -3357,7 +3357,7 @@
       <c r="B74" s="14"/>
       <c r="H74" s="2" t="str">
         <f>_xlfn.CONCAT(H71,"Pct")</f>
-        <v>GamePropertyType_HitPct</v>
+        <v>GP_HitPct</v>
       </c>
       <c r="I74" s="2" t="str">
         <f>_xlfn.CONCAT(I71,"Pct")</f>
@@ -3376,7 +3376,7 @@
       <c r="B75" s="14"/>
       <c r="H75" s="2" t="str">
         <f>_xlfn.CONCAT(H71,"FinalAdd")</f>
-        <v>GamePropertyType_HitFinalAdd</v>
+        <v>GP_HitFinalAdd</v>
       </c>
       <c r="I75" s="2" t="str">
         <f>_xlfn.CONCAT(I71,"FinalAdd")</f>
@@ -3395,7 +3395,7 @@
       <c r="B76" s="14"/>
       <c r="H76" s="2" t="str">
         <f>_xlfn.CONCAT(H71,"FinalPct")</f>
-        <v>GamePropertyType_HitFinalPct</v>
+        <v>GP_HitFinalPct</v>
       </c>
       <c r="I76" s="2" t="str">
         <f>_xlfn.CONCAT(I71,"FinalPct")</f>
@@ -3429,7 +3429,7 @@
       <c r="B78" s="14"/>
       <c r="H78" s="2" t="str">
         <f>(_xlfn.CONCAT(H77,"Base"))</f>
-        <v>GamePropertyType_CritBase</v>
+        <v>GP_CritBase</v>
       </c>
       <c r="I78" s="2" t="str">
         <f>_xlfn.CONCAT(I77,"Base")</f>
@@ -3448,7 +3448,7 @@
       <c r="B79" s="14"/>
       <c r="H79" s="2" t="str">
         <f>_xlfn.CONCAT(H77,"Add")</f>
-        <v>GamePropertyType_CritAdd</v>
+        <v>GP_CritAdd</v>
       </c>
       <c r="I79" s="2" t="str">
         <f>_xlfn.CONCAT(I77,"Add")</f>
@@ -3467,7 +3467,7 @@
       <c r="B80" s="14"/>
       <c r="H80" s="2" t="str">
         <f>_xlfn.CONCAT(H77,"Pct")</f>
-        <v>GamePropertyType_CritPct</v>
+        <v>GP_CritPct</v>
       </c>
       <c r="I80" s="2" t="str">
         <f>_xlfn.CONCAT(I77,"Pct")</f>
@@ -3486,7 +3486,7 @@
       <c r="B81" s="14"/>
       <c r="H81" s="2" t="str">
         <f>_xlfn.CONCAT(H77,"FinalAdd")</f>
-        <v>GamePropertyType_CritFinalAdd</v>
+        <v>GP_CritFinalAdd</v>
       </c>
       <c r="I81" s="2" t="str">
         <f>_xlfn.CONCAT(I77,"FinalAdd")</f>
@@ -3510,7 +3510,7 @@
       <c r="G82" s="11"/>
       <c r="H82" s="12" t="str">
         <f>_xlfn.CONCAT(H77,"FinalPct")</f>
-        <v>GamePropertyType_CritFinalPct</v>
+        <v>GP_CritFinalPct</v>
       </c>
       <c r="I82" s="12" t="str">
         <f>_xlfn.CONCAT(I77,"FinalPct")</f>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="23265" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="343">
   <si>
     <t>##var</t>
   </si>
@@ -146,6 +146,12 @@
     <t>子弹</t>
   </si>
   <si>
+    <t>UnitType_Trap</t>
+  </si>
+  <si>
+    <t>陷阱</t>
+  </si>
+  <si>
     <t>CurrencyType</t>
   </si>
   <si>
@@ -911,25 +917,46 @@
     <t>神话</t>
   </si>
   <si>
+    <t>CastTargetType</t>
+  </si>
+  <si>
+    <t>CastTargetType_SelfCamp</t>
+  </si>
+  <si>
+    <t>友方</t>
+  </si>
+  <si>
+    <t>CastTargetType_EnemyCamp</t>
+  </si>
+  <si>
+    <t>敌方</t>
+  </si>
+  <si>
     <t>SelectTargetType</t>
   </si>
   <si>
-    <t>SelectTargetType_Single</t>
+    <t>SelectTargetType_SelectSingle</t>
   </si>
   <si>
     <t>单体</t>
   </si>
   <si>
-    <t>SelectTargetType_Cycle</t>
-  </si>
-  <si>
-    <t>自身周围圆形</t>
+    <t>SelectTargetType_AroundCycle</t>
+  </si>
+  <si>
+    <t>自身圆形范围</t>
   </si>
   <si>
     <t>SelectTargetType_ForwardRect</t>
   </si>
   <si>
-    <t>自身前方矩形</t>
+    <t>前方矩形范围</t>
+  </si>
+  <si>
+    <t>SelectTargetType_SelectCycle</t>
+  </si>
+  <si>
+    <t>指定圆形范围</t>
   </si>
   <si>
     <t>ActionType</t>
@@ -975,6 +1002,12 @@
   </si>
   <si>
     <t>击飞行为</t>
+  </si>
+  <si>
+    <t>ActionType_CastTrap</t>
+  </si>
+  <si>
+    <t>陷阱行为</t>
   </si>
   <si>
     <t>MessageNotifyType</t>
@@ -1756,7 +1789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1802,14 +1835,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1832,6 +1889,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1840,15 +1900,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2169,17 +2220,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L186"/>
+  <dimension ref="A1:L193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="H184" sqref="H184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="3.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="3" style="1" customWidth="1"/>
@@ -2298,7 +2349,7 @@
       <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2310,7 +2361,7 @@
       <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="27" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2322,7 +2373,7 @@
       <c r="J6" s="2">
         <v>3</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="28" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2334,7 +2385,7 @@
       <c r="J7" s="2">
         <v>4</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2352,7 +2403,7 @@
       <c r="J8" s="12">
         <v>99</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2376,2446 +2427,2454 @@
       <c r="J10" s="8">
         <v>1</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14"/>
-      <c r="H11" s="2" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="16">
         <v>2</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14"/>
-      <c r="H12" s="2" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="16">
         <v>3</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="15"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="18">
         <v>4</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="13" t="s">
+    <row r="14" spans="2:11">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="b">
+      <c r="I14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="21">
+        <v>5</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="22"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="8">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="8">
         <v>1</v>
       </c>
-      <c r="K15" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="14"/>
-      <c r="H16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="K17" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="2">
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="24"/>
+      <c r="H18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="2">
         <v>2</v>
       </c>
-      <c r="K16" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="14"/>
-      <c r="H17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="K18" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="2">
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="24"/>
+      <c r="H19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="2">
         <v>3</v>
       </c>
-      <c r="K17" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="15"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="24"/>
+      <c r="K19" s="31" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="b">
+      <c r="B20" s="25"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="8">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="8">
         <v>1</v>
       </c>
-      <c r="K20" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="14"/>
-      <c r="H21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="K22" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="2">
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="24"/>
+      <c r="H23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="2">
         <v>2</v>
       </c>
-      <c r="K21" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="14"/>
-      <c r="H22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="K23" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="2">
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="24"/>
+      <c r="H24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="2">
         <v>3</v>
       </c>
-      <c r="K22" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="14"/>
-      <c r="H23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="K24" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="2">
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="24"/>
+      <c r="H25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="2">
         <v>4</v>
       </c>
-      <c r="K23" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="15"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="12" t="s">
+      <c r="K25" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="12">
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="25"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="12">
         <v>5</v>
       </c>
-      <c r="K24" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8" t="s">
+      <c r="K26" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="8" t="s">
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="8">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="8">
         <v>1</v>
       </c>
-      <c r="K26" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="14"/>
-      <c r="H27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="K28" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="2">
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="24"/>
+      <c r="H29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="2">
         <v>2</v>
       </c>
-      <c r="K27" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="15"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="12" t="s">
+      <c r="K29" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="12">
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="25"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="12">
         <v>3</v>
       </c>
-      <c r="K28" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="b">
+      <c r="K30" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="8">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="8">
         <v>1</v>
       </c>
-      <c r="K30" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="14"/>
-      <c r="H31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="K32" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="J31" s="2">
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="24"/>
+      <c r="H33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" s="2">
         <v>2</v>
       </c>
-      <c r="K31" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="14"/>
-      <c r="H32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="K33" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="2">
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="24"/>
+      <c r="H34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" s="2">
         <v>3</v>
       </c>
-      <c r="K32" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="14"/>
-      <c r="H33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="K34" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="2">
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="24"/>
+      <c r="H35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J35" s="2">
         <v>4</v>
       </c>
-      <c r="K33" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="14"/>
-      <c r="H34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="K35" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="2">
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="24"/>
+      <c r="H36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="2">
         <v>5</v>
       </c>
-      <c r="K34" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="14"/>
-      <c r="H35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="K36" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="J35" s="2">
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="24"/>
+      <c r="H37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" s="2">
         <v>6</v>
       </c>
-      <c r="K35" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="15"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" s="12" t="s">
+      <c r="K37" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="J36" s="12">
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="25"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" s="12">
         <v>7</v>
       </c>
-      <c r="K36" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8" t="s">
+      <c r="K38" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="I38" s="8" t="s">
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="J38" s="8">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" s="8">
         <v>1</v>
       </c>
-      <c r="K38" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="14"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I39" s="17" t="s">
+      <c r="K40" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="J39" s="17">
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="24"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J41" s="18">
         <v>2</v>
       </c>
-      <c r="K39" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="14"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="I40" s="17" t="s">
+      <c r="K41" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="17">
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="24"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J42" s="18">
         <v>3</v>
       </c>
-      <c r="K40" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="14"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I41" s="17" t="s">
+      <c r="K42" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="J41" s="17">
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="24"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J43" s="18">
         <v>4</v>
       </c>
-      <c r="K41" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="14"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I42" s="17" t="s">
+      <c r="K43" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="J42" s="17">
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="24"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J44" s="18">
         <v>5</v>
       </c>
-      <c r="K42" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="15"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I43" s="12" t="s">
+      <c r="K44" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="J43" s="12">
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="25"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J45" s="12">
         <v>6</v>
       </c>
-      <c r="K43" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="8" t="s">
+      <c r="K45" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="I45" s="8" t="s">
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="J45" s="8">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J47" s="8">
         <v>1001</v>
       </c>
-      <c r="K45" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="14"/>
-      <c r="H46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I46" s="2" t="s">
+      <c r="K47" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="J46" s="2">
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="24"/>
+      <c r="H48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" s="2">
         <v>1002</v>
       </c>
-      <c r="K46" s="23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="14"/>
-      <c r="H47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I47" s="2" t="s">
+      <c r="K48" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="J47" s="2">
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="24"/>
+      <c r="H49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J49" s="2">
         <v>1003</v>
       </c>
-      <c r="K47" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="14"/>
-      <c r="H48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I48" s="2" t="s">
+      <c r="K49" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="J48" s="2">
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="24"/>
+      <c r="H50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J50" s="2">
         <v>1004</v>
       </c>
-      <c r="K48" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="14"/>
-      <c r="H49" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I49" s="2" t="s">
+      <c r="K50" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="J49" s="2">
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="24"/>
+      <c r="H51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J51" s="2">
         <v>1005</v>
       </c>
-      <c r="K49" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="14"/>
-      <c r="H50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I50" s="2" t="s">
+      <c r="K51" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="J50" s="2">
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="24"/>
+      <c r="H52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J52" s="2">
         <v>1006</v>
       </c>
-      <c r="K50" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="14"/>
-      <c r="H51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I51" s="2" t="s">
+      <c r="K52" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="J51" s="2">
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="24"/>
+      <c r="H53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J53" s="2">
         <v>1007</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="14"/>
-      <c r="H52" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I52" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J52" s="2">
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="24"/>
+      <c r="H54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J54" s="2">
         <v>1008</v>
       </c>
-      <c r="K52" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="14"/>
-      <c r="K53" s="23"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="14"/>
-      <c r="K54" s="23"/>
+      <c r="K54" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="14"/>
-      <c r="H55" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J55" s="2">
+      <c r="B55" s="24"/>
+      <c r="K55" s="31"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="24"/>
+      <c r="K56" s="31"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="24"/>
+      <c r="H57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J57" s="2">
         <v>1101</v>
       </c>
-      <c r="K55" s="23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="14"/>
-      <c r="H56" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I56" s="2" t="s">
+      <c r="K57" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="J56" s="2">
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="24"/>
+      <c r="H58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J58" s="2">
         <v>1102</v>
       </c>
-      <c r="K56" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="14"/>
-      <c r="H57" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I57" s="2" t="s">
+      <c r="K58" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J57" s="2">
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="24"/>
+      <c r="H59" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J59" s="2">
         <v>1103</v>
       </c>
-      <c r="K57" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="14"/>
-      <c r="H58" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I58" s="2" t="s">
+      <c r="K59" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="J58" s="2">
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="24"/>
+      <c r="H60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J60" s="2">
         <v>1104</v>
       </c>
-      <c r="K58" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="14"/>
-      <c r="H59" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I59" s="2" t="s">
+      <c r="K60" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="J59" s="2">
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="24"/>
+      <c r="H61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J61" s="2">
         <v>1105</v>
       </c>
-      <c r="K59" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="B60" s="14"/>
-      <c r="H60" s="2" t="str">
-        <f>(_xlfn.CONCAT(H59,"Base"))</f>
+      <c r="K61" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="24"/>
+      <c r="H62" s="2" t="str">
+        <f>(_xlfn.CONCAT(H61,"Base"))</f>
         <v>GP_AtkBase</v>
       </c>
-      <c r="I60" s="2" t="str">
-        <f>_xlfn.CONCAT(I59,"Base")</f>
+      <c r="I62" s="2" t="str">
+        <f>_xlfn.CONCAT(I61,"Base")</f>
         <v>AtkBase</v>
       </c>
-      <c r="J60" s="2">
-        <f>J59*10+1</f>
+      <c r="J62" s="2">
+        <f>J61*10+1</f>
         <v>11051</v>
       </c>
-      <c r="K60" s="23" t="str">
-        <f>_xlfn.CONCAT(K59,"基础值")</f>
+      <c r="K62" s="31" t="str">
+        <f>_xlfn.CONCAT(K61,"基础值")</f>
         <v>攻击基础值</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
-      <c r="B61" s="14"/>
-      <c r="H61" s="2" t="str">
-        <f t="shared" ref="H61:H63" si="0">_xlfn.CONCAT(H59,"Add")</f>
+    <row r="63" spans="2:11">
+      <c r="B63" s="24"/>
+      <c r="H63" s="2" t="str">
+        <f t="shared" ref="H63:H65" si="0">_xlfn.CONCAT(H61,"Add")</f>
         <v>GP_AtkAdd</v>
       </c>
-      <c r="I61" s="2" t="str">
-        <f>_xlfn.CONCAT(I59,"Add")</f>
+      <c r="I63" s="2" t="str">
+        <f>_xlfn.CONCAT(I61,"Add")</f>
         <v>AtkAdd</v>
       </c>
-      <c r="J61" s="2">
-        <f>J59*10+2</f>
+      <c r="J63" s="2">
+        <f>J61*10+2</f>
         <v>11052</v>
       </c>
-      <c r="K61" s="23" t="str">
-        <f>_xlfn.CONCAT(K59,"附加值")</f>
+      <c r="K63" s="31" t="str">
+        <f>_xlfn.CONCAT(K61,"附加值")</f>
         <v>攻击附加值</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
-      <c r="B62" s="14"/>
-      <c r="H62" s="2" t="str">
-        <f>_xlfn.CONCAT(H59,"Pct")</f>
+    <row r="64" spans="2:11">
+      <c r="B64" s="24"/>
+      <c r="H64" s="2" t="str">
+        <f>_xlfn.CONCAT(H61,"Pct")</f>
         <v>GP_AtkPct</v>
       </c>
-      <c r="I62" s="2" t="str">
-        <f>_xlfn.CONCAT(I59,"Pct")</f>
+      <c r="I64" s="2" t="str">
+        <f>_xlfn.CONCAT(I61,"Pct")</f>
         <v>AtkPct</v>
       </c>
-      <c r="J62" s="2">
-        <f>J59*10+3</f>
+      <c r="J64" s="2">
+        <f>J61*10+3</f>
         <v>11053</v>
       </c>
-      <c r="K62" s="23" t="str">
-        <f>_xlfn.CONCAT(K59,"百分比")</f>
+      <c r="K64" s="31" t="str">
+        <f>_xlfn.CONCAT(K61,"百分比")</f>
         <v>攻击百分比</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
-      <c r="B63" s="14"/>
-      <c r="H63" s="2" t="str">
-        <f>_xlfn.CONCAT(H59,"FinalAdd")</f>
+    <row r="65" spans="2:11">
+      <c r="B65" s="24"/>
+      <c r="H65" s="2" t="str">
+        <f>_xlfn.CONCAT(H61,"FinalAdd")</f>
         <v>GP_AtkFinalAdd</v>
       </c>
-      <c r="I63" s="2" t="str">
-        <f>_xlfn.CONCAT(I59,"FinalAdd")</f>
+      <c r="I65" s="2" t="str">
+        <f>_xlfn.CONCAT(I61,"FinalAdd")</f>
         <v>AtkFinalAdd</v>
       </c>
-      <c r="J63" s="2">
-        <f>J59*10+4</f>
+      <c r="J65" s="2">
+        <f>J61*10+4</f>
         <v>11054</v>
       </c>
-      <c r="K63" s="23" t="str">
-        <f>_xlfn.CONCAT(K59,"最终附加值")</f>
+      <c r="K65" s="31" t="str">
+        <f>_xlfn.CONCAT(K61,"最终附加值")</f>
         <v>攻击最终附加值</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
-      <c r="B64" s="14"/>
-      <c r="H64" s="2" t="str">
-        <f>_xlfn.CONCAT(H59,"FinalPct")</f>
+    <row r="66" spans="2:11">
+      <c r="B66" s="24"/>
+      <c r="H66" s="2" t="str">
+        <f>_xlfn.CONCAT(H61,"FinalPct")</f>
         <v>GP_AtkFinalPct</v>
       </c>
-      <c r="I64" s="2" t="str">
-        <f>_xlfn.CONCAT(I59,"FinalPct")</f>
+      <c r="I66" s="2" t="str">
+        <f>_xlfn.CONCAT(I61,"FinalPct")</f>
         <v>AtkFinalPct</v>
       </c>
-      <c r="J64" s="2">
-        <f>J59*10+5</f>
+      <c r="J66" s="2">
+        <f>J61*10+5</f>
         <v>11055</v>
       </c>
-      <c r="K64" s="23" t="str">
-        <f>_xlfn.CONCAT(K59,"最终百分比")</f>
+      <c r="K66" s="31" t="str">
+        <f>_xlfn.CONCAT(K61,"最终百分比")</f>
         <v>攻击最终百分比</v>
       </c>
     </row>
-    <row r="65" spans="2:11">
-      <c r="B65" s="14"/>
-      <c r="H65" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J65" s="2">
+    <row r="67" spans="2:11">
+      <c r="B67" s="24"/>
+      <c r="H67" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J67" s="2">
         <v>1106</v>
       </c>
-      <c r="K65" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="B66" s="14"/>
-      <c r="H66" s="2" t="str">
-        <f>(_xlfn.CONCAT(H65,"Base"))</f>
+      <c r="K67" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" s="24"/>
+      <c r="H68" s="2" t="str">
+        <f>(_xlfn.CONCAT(H67,"Base"))</f>
         <v>GP_DefBase</v>
       </c>
-      <c r="I66" s="2" t="str">
-        <f>_xlfn.CONCAT(I65,"Base")</f>
+      <c r="I68" s="2" t="str">
+        <f>_xlfn.CONCAT(I67,"Base")</f>
         <v>DefBase</v>
       </c>
-      <c r="J66" s="2">
-        <f>J65*10+1</f>
+      <c r="J68" s="2">
+        <f>J67*10+1</f>
         <v>11061</v>
       </c>
-      <c r="K66" s="23" t="str">
-        <f>_xlfn.CONCAT(K65,"基础值")</f>
+      <c r="K68" s="31" t="str">
+        <f>_xlfn.CONCAT(K67,"基础值")</f>
         <v>防御基础值</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
-      <c r="B67" s="14"/>
-      <c r="H67" s="2" t="str">
-        <f>_xlfn.CONCAT(H65,"Add")</f>
+    <row r="69" spans="2:11">
+      <c r="B69" s="24"/>
+      <c r="H69" s="2" t="str">
+        <f>_xlfn.CONCAT(H67,"Add")</f>
         <v>GP_DefAdd</v>
       </c>
-      <c r="I67" s="2" t="str">
-        <f>_xlfn.CONCAT(I65,"Add")</f>
+      <c r="I69" s="2" t="str">
+        <f>_xlfn.CONCAT(I67,"Add")</f>
         <v>DefAdd</v>
       </c>
-      <c r="J67" s="2">
-        <f>J65*10+2</f>
+      <c r="J69" s="2">
+        <f>J67*10+2</f>
         <v>11062</v>
       </c>
-      <c r="K67" s="23" t="str">
-        <f>_xlfn.CONCAT(K65,"附加值")</f>
+      <c r="K69" s="31" t="str">
+        <f>_xlfn.CONCAT(K67,"附加值")</f>
         <v>防御附加值</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
-      <c r="B68" s="14"/>
-      <c r="H68" s="2" t="str">
-        <f>_xlfn.CONCAT(H65,"Pct")</f>
+    <row r="70" spans="2:11">
+      <c r="B70" s="24"/>
+      <c r="H70" s="2" t="str">
+        <f>_xlfn.CONCAT(H67,"Pct")</f>
         <v>GP_DefPct</v>
       </c>
-      <c r="I68" s="2" t="str">
-        <f>_xlfn.CONCAT(I65,"Pct")</f>
+      <c r="I70" s="2" t="str">
+        <f>_xlfn.CONCAT(I67,"Pct")</f>
         <v>DefPct</v>
       </c>
-      <c r="J68" s="2">
-        <f>J65*10+3</f>
+      <c r="J70" s="2">
+        <f>J67*10+3</f>
         <v>11063</v>
       </c>
-      <c r="K68" s="23" t="str">
-        <f>_xlfn.CONCAT(K65,"百分比")</f>
+      <c r="K70" s="31" t="str">
+        <f>_xlfn.CONCAT(K67,"百分比")</f>
         <v>防御百分比</v>
       </c>
     </row>
-    <row r="69" spans="2:11">
-      <c r="B69" s="14"/>
-      <c r="H69" s="2" t="str">
-        <f>_xlfn.CONCAT(H65,"FinalAdd")</f>
+    <row r="71" spans="2:11">
+      <c r="B71" s="24"/>
+      <c r="H71" s="2" t="str">
+        <f>_xlfn.CONCAT(H67,"FinalAdd")</f>
         <v>GP_DefFinalAdd</v>
       </c>
-      <c r="I69" s="2" t="str">
-        <f>_xlfn.CONCAT(I65,"FinalAdd")</f>
+      <c r="I71" s="2" t="str">
+        <f>_xlfn.CONCAT(I67,"FinalAdd")</f>
         <v>DefFinalAdd</v>
       </c>
-      <c r="J69" s="2">
-        <f>J65*10+4</f>
+      <c r="J71" s="2">
+        <f>J67*10+4</f>
         <v>11064</v>
       </c>
-      <c r="K69" s="23" t="str">
-        <f>_xlfn.CONCAT(K65,"最终附加值")</f>
+      <c r="K71" s="31" t="str">
+        <f>_xlfn.CONCAT(K67,"最终附加值")</f>
         <v>防御最终附加值</v>
       </c>
     </row>
-    <row r="70" spans="2:11">
-      <c r="B70" s="14"/>
-      <c r="H70" s="2" t="str">
-        <f>_xlfn.CONCAT(H65,"FinalPct")</f>
+    <row r="72" spans="2:11">
+      <c r="B72" s="24"/>
+      <c r="H72" s="2" t="str">
+        <f>_xlfn.CONCAT(H67,"FinalPct")</f>
         <v>GP_DefFinalPct</v>
       </c>
-      <c r="I70" s="2" t="str">
-        <f>_xlfn.CONCAT(I65,"FinalPct")</f>
+      <c r="I72" s="2" t="str">
+        <f>_xlfn.CONCAT(I67,"FinalPct")</f>
         <v>DefFinalPct</v>
       </c>
-      <c r="J70" s="2">
-        <f>J65*10+5</f>
+      <c r="J72" s="2">
+        <f>J67*10+5</f>
         <v>11065</v>
       </c>
-      <c r="K70" s="23" t="str">
-        <f>_xlfn.CONCAT(K65,"最终百分比")</f>
+      <c r="K72" s="31" t="str">
+        <f>_xlfn.CONCAT(K67,"最终百分比")</f>
         <v>防御最终百分比</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
-      <c r="B71" s="14"/>
-      <c r="H71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J71" s="2">
+    <row r="73" spans="2:11">
+      <c r="B73" s="24"/>
+      <c r="H73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J73" s="2">
         <v>1107</v>
       </c>
-      <c r="K71" s="23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11">
-      <c r="B72" s="14"/>
-      <c r="H72" s="2" t="str">
-        <f>(_xlfn.CONCAT(H71,"Base"))</f>
+      <c r="K73" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74" s="24"/>
+      <c r="H74" s="2" t="str">
+        <f>(_xlfn.CONCAT(H73,"Base"))</f>
         <v>GP_HitBase</v>
       </c>
-      <c r="I72" s="2" t="str">
-        <f>_xlfn.CONCAT(I71,"Base")</f>
+      <c r="I74" s="2" t="str">
+        <f>_xlfn.CONCAT(I73,"Base")</f>
         <v>HitBase</v>
       </c>
-      <c r="J72" s="2">
-        <f>J71*10+1</f>
+      <c r="J74" s="2">
+        <f>J73*10+1</f>
         <v>11071</v>
       </c>
-      <c r="K72" s="23" t="str">
-        <f>_xlfn.CONCAT(K71,"基础值")</f>
+      <c r="K74" s="31" t="str">
+        <f>_xlfn.CONCAT(K73,"基础值")</f>
         <v>命中基础值</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
-      <c r="B73" s="14"/>
-      <c r="H73" s="2" t="str">
-        <f>_xlfn.CONCAT(H71,"Add")</f>
+    <row r="75" spans="2:11">
+      <c r="B75" s="24"/>
+      <c r="H75" s="2" t="str">
+        <f>_xlfn.CONCAT(H73,"Add")</f>
         <v>GP_HitAdd</v>
       </c>
-      <c r="I73" s="2" t="str">
-        <f>_xlfn.CONCAT(I71,"Add")</f>
+      <c r="I75" s="2" t="str">
+        <f>_xlfn.CONCAT(I73,"Add")</f>
         <v>HitAdd</v>
       </c>
-      <c r="J73" s="2">
-        <f>J71*10+2</f>
+      <c r="J75" s="2">
+        <f>J73*10+2</f>
         <v>11072</v>
       </c>
-      <c r="K73" s="23" t="str">
-        <f>_xlfn.CONCAT(K71,"附加值")</f>
+      <c r="K75" s="31" t="str">
+        <f>_xlfn.CONCAT(K73,"附加值")</f>
         <v>命中附加值</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
-      <c r="B74" s="14"/>
-      <c r="H74" s="2" t="str">
-        <f>_xlfn.CONCAT(H71,"Pct")</f>
+    <row r="76" spans="2:11">
+      <c r="B76" s="24"/>
+      <c r="H76" s="2" t="str">
+        <f>_xlfn.CONCAT(H73,"Pct")</f>
         <v>GP_HitPct</v>
       </c>
-      <c r="I74" s="2" t="str">
-        <f>_xlfn.CONCAT(I71,"Pct")</f>
+      <c r="I76" s="2" t="str">
+        <f>_xlfn.CONCAT(I73,"Pct")</f>
         <v>HitPct</v>
       </c>
-      <c r="J74" s="2">
-        <f>J71*10+3</f>
+      <c r="J76" s="2">
+        <f>J73*10+3</f>
         <v>11073</v>
       </c>
-      <c r="K74" s="23" t="str">
-        <f>_xlfn.CONCAT(K71,"百分比")</f>
+      <c r="K76" s="31" t="str">
+        <f>_xlfn.CONCAT(K73,"百分比")</f>
         <v>命中百分比</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
-      <c r="B75" s="14"/>
-      <c r="H75" s="2" t="str">
-        <f>_xlfn.CONCAT(H71,"FinalAdd")</f>
+    <row r="77" spans="2:11">
+      <c r="B77" s="24"/>
+      <c r="H77" s="2" t="str">
+        <f>_xlfn.CONCAT(H73,"FinalAdd")</f>
         <v>GP_HitFinalAdd</v>
       </c>
-      <c r="I75" s="2" t="str">
-        <f>_xlfn.CONCAT(I71,"FinalAdd")</f>
+      <c r="I77" s="2" t="str">
+        <f>_xlfn.CONCAT(I73,"FinalAdd")</f>
         <v>HitFinalAdd</v>
       </c>
-      <c r="J75" s="2">
-        <f>J71*10+4</f>
+      <c r="J77" s="2">
+        <f>J73*10+4</f>
         <v>11074</v>
       </c>
-      <c r="K75" s="23" t="str">
-        <f>_xlfn.CONCAT(K71,"最终附加值")</f>
+      <c r="K77" s="31" t="str">
+        <f>_xlfn.CONCAT(K73,"最终附加值")</f>
         <v>命中最终附加值</v>
       </c>
     </row>
-    <row r="76" spans="2:11">
-      <c r="B76" s="14"/>
-      <c r="H76" s="2" t="str">
-        <f>_xlfn.CONCAT(H71,"FinalPct")</f>
+    <row r="78" spans="2:11">
+      <c r="B78" s="24"/>
+      <c r="H78" s="2" t="str">
+        <f>_xlfn.CONCAT(H73,"FinalPct")</f>
         <v>GP_HitFinalPct</v>
       </c>
-      <c r="I76" s="2" t="str">
-        <f>_xlfn.CONCAT(I71,"FinalPct")</f>
+      <c r="I78" s="2" t="str">
+        <f>_xlfn.CONCAT(I73,"FinalPct")</f>
         <v>HitFinalPct</v>
       </c>
-      <c r="J76" s="2">
-        <f>J71*10+5</f>
+      <c r="J78" s="2">
+        <f>J73*10+5</f>
         <v>11075</v>
       </c>
-      <c r="K76" s="23" t="str">
-        <f>_xlfn.CONCAT(K71,"最终百分比")</f>
+      <c r="K78" s="31" t="str">
+        <f>_xlfn.CONCAT(K73,"最终百分比")</f>
         <v>命中最终百分比</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
-      <c r="B77" s="14"/>
-      <c r="H77" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J77" s="2">
+    <row r="79" spans="2:11">
+      <c r="B79" s="24"/>
+      <c r="H79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J79" s="2">
         <v>1108</v>
       </c>
-      <c r="K77" s="23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="B78" s="14"/>
-      <c r="H78" s="2" t="str">
-        <f>(_xlfn.CONCAT(H77,"Base"))</f>
+      <c r="K79" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" s="24"/>
+      <c r="H80" s="2" t="str">
+        <f>(_xlfn.CONCAT(H79,"Base"))</f>
         <v>GP_CritBase</v>
       </c>
-      <c r="I78" s="2" t="str">
-        <f>_xlfn.CONCAT(I77,"Base")</f>
+      <c r="I80" s="2" t="str">
+        <f>_xlfn.CONCAT(I79,"Base")</f>
         <v>CritBase</v>
       </c>
-      <c r="J78" s="2">
-        <f>J77*10+1</f>
+      <c r="J80" s="2">
+        <f>J79*10+1</f>
         <v>11081</v>
       </c>
-      <c r="K78" s="23" t="str">
-        <f>_xlfn.CONCAT(K77,"基础值")</f>
+      <c r="K80" s="31" t="str">
+        <f>_xlfn.CONCAT(K79,"基础值")</f>
         <v>暴击基础值</v>
       </c>
     </row>
-    <row r="79" spans="2:11">
-      <c r="B79" s="14"/>
-      <c r="H79" s="2" t="str">
-        <f>_xlfn.CONCAT(H77,"Add")</f>
+    <row r="81" spans="2:11">
+      <c r="B81" s="24"/>
+      <c r="H81" s="2" t="str">
+        <f>_xlfn.CONCAT(H79,"Add")</f>
         <v>GP_CritAdd</v>
       </c>
-      <c r="I79" s="2" t="str">
-        <f>_xlfn.CONCAT(I77,"Add")</f>
+      <c r="I81" s="2" t="str">
+        <f>_xlfn.CONCAT(I79,"Add")</f>
         <v>CritAdd</v>
       </c>
-      <c r="J79" s="2">
-        <f>J77*10+2</f>
+      <c r="J81" s="2">
+        <f>J79*10+2</f>
         <v>11082</v>
       </c>
-      <c r="K79" s="23" t="str">
-        <f>_xlfn.CONCAT(K77,"附加值")</f>
+      <c r="K81" s="31" t="str">
+        <f>_xlfn.CONCAT(K79,"附加值")</f>
         <v>暴击附加值</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
-      <c r="B80" s="14"/>
-      <c r="H80" s="2" t="str">
-        <f>_xlfn.CONCAT(H77,"Pct")</f>
+    <row r="82" spans="2:11">
+      <c r="B82" s="24"/>
+      <c r="H82" s="2" t="str">
+        <f>_xlfn.CONCAT(H79,"Pct")</f>
         <v>GP_CritPct</v>
       </c>
-      <c r="I80" s="2" t="str">
-        <f>_xlfn.CONCAT(I77,"Pct")</f>
+      <c r="I82" s="2" t="str">
+        <f>_xlfn.CONCAT(I79,"Pct")</f>
         <v>CritPct</v>
       </c>
-      <c r="J80" s="2">
-        <f>J77*10+3</f>
+      <c r="J82" s="2">
+        <f>J79*10+3</f>
         <v>11083</v>
       </c>
-      <c r="K80" s="23" t="str">
-        <f>_xlfn.CONCAT(K77,"百分比")</f>
+      <c r="K82" s="31" t="str">
+        <f>_xlfn.CONCAT(K79,"百分比")</f>
         <v>暴击百分比</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
-      <c r="B81" s="14"/>
-      <c r="H81" s="2" t="str">
-        <f>_xlfn.CONCAT(H77,"FinalAdd")</f>
+    <row r="83" spans="2:11">
+      <c r="B83" s="24"/>
+      <c r="H83" s="2" t="str">
+        <f>_xlfn.CONCAT(H79,"FinalAdd")</f>
         <v>GP_CritFinalAdd</v>
       </c>
-      <c r="I81" s="2" t="str">
-        <f>_xlfn.CONCAT(I77,"FinalAdd")</f>
+      <c r="I83" s="2" t="str">
+        <f>_xlfn.CONCAT(I79,"FinalAdd")</f>
         <v>CritFinalAdd</v>
       </c>
-      <c r="J81" s="2">
-        <f>J77*10+4</f>
+      <c r="J83" s="2">
+        <f>J79*10+4</f>
         <v>11084</v>
       </c>
-      <c r="K81" s="23" t="str">
-        <f>_xlfn.CONCAT(K77,"最终附加值")</f>
+      <c r="K83" s="31" t="str">
+        <f>_xlfn.CONCAT(K79,"最终附加值")</f>
         <v>暴击最终附加值</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
-      <c r="B82" s="15"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="12" t="str">
-        <f>_xlfn.CONCAT(H77,"FinalPct")</f>
+    <row r="84" spans="2:11">
+      <c r="B84" s="25"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="12" t="str">
+        <f>_xlfn.CONCAT(H79,"FinalPct")</f>
         <v>GP_CritFinalPct</v>
       </c>
-      <c r="I82" s="12" t="str">
-        <f>_xlfn.CONCAT(I77,"FinalPct")</f>
+      <c r="I84" s="12" t="str">
+        <f>_xlfn.CONCAT(I79,"FinalPct")</f>
         <v>CritFinalPct</v>
       </c>
-      <c r="J82" s="12">
-        <f>J77*10+5</f>
+      <c r="J84" s="12">
+        <f>J79*10+5</f>
         <v>11085</v>
       </c>
-      <c r="K82" s="24" t="str">
-        <f>_xlfn.CONCAT(K77,"最终百分比")</f>
+      <c r="K84" s="33" t="str">
+        <f>_xlfn.CONCAT(K79,"最终百分比")</f>
         <v>暴击最终百分比</v>
       </c>
     </row>
-    <row r="84" spans="2:11">
-      <c r="B84" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8">
+    <row r="86" spans="2:11">
+      <c r="B86" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8">
         <v>0</v>
       </c>
-      <c r="K84" s="22"/>
-    </row>
-    <row r="85" spans="2:11">
-      <c r="B85" s="14"/>
-      <c r="H85" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J85" s="2">
+      <c r="K86" s="30"/>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" s="24"/>
+      <c r="H87" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J87" s="2">
         <v>1</v>
       </c>
-      <c r="K85" s="23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11">
-      <c r="B86" s="14"/>
-      <c r="H86" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I86" s="2" t="s">
+      <c r="K87" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="J86" s="2">
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="24"/>
+      <c r="H88" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J88" s="2">
         <v>2</v>
       </c>
-      <c r="K86" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11">
-      <c r="B87" s="14"/>
-      <c r="H87" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I87" s="2" t="s">
+      <c r="K88" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="J87" s="2">
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" s="24"/>
+      <c r="H89" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J89" s="2">
         <v>3</v>
       </c>
-      <c r="K87" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11">
-      <c r="B88" s="14"/>
-      <c r="H88" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I88" s="2" t="s">
+      <c r="K89" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="J88" s="2">
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" s="24"/>
+      <c r="H90" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J90" s="2">
         <v>4</v>
       </c>
-      <c r="K88" s="23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11">
-      <c r="B89" s="14"/>
-      <c r="H89" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I89" s="2" t="s">
+      <c r="K90" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="J89" s="2">
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" s="24"/>
+      <c r="H91" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J91" s="2">
         <v>5</v>
       </c>
-      <c r="K89" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11">
-      <c r="B90" s="14"/>
-      <c r="H90" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I90" s="2" t="s">
+      <c r="K91" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="J90" s="2">
+    </row>
+    <row r="92" spans="2:11">
+      <c r="B92" s="24"/>
+      <c r="H92" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J92" s="2">
         <v>6</v>
       </c>
-      <c r="K90" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11">
-      <c r="B91" s="14"/>
-      <c r="H91" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I91" s="2" t="s">
+      <c r="K92" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="J91" s="2">
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="24"/>
+      <c r="H93" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J93" s="2">
         <v>7</v>
       </c>
-      <c r="K91" s="23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11">
-      <c r="B92" s="14"/>
-      <c r="H92" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I92" s="2" t="s">
+      <c r="K93" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="J92" s="2">
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" s="24"/>
+      <c r="H94" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J94" s="2">
         <v>8</v>
       </c>
-      <c r="K92" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93" s="15"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I93" s="12" t="s">
+      <c r="K94" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="J93" s="12">
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="25"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="J95" s="12">
         <v>9</v>
       </c>
-      <c r="K93" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11">
-      <c r="B95" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="8" t="s">
+      <c r="K95" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="I95" s="8" t="s">
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="J95" s="8">
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J97" s="8">
         <v>1</v>
       </c>
-      <c r="K95" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11">
-      <c r="B96" s="15"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="I96" s="12" t="s">
+      <c r="K97" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="J96" s="12">
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="25"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J98" s="12">
         <v>2</v>
       </c>
-      <c r="K96" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11">
-      <c r="B98" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="8" t="s">
+      <c r="K98" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="I98" s="8" t="s">
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="J98" s="8">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J100" s="8">
         <v>1</v>
       </c>
-      <c r="K98" s="22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11">
-      <c r="B99" s="14"/>
-      <c r="H99" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I99" s="2" t="s">
+      <c r="K100" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="J99" s="2">
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="24"/>
+      <c r="H101" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J101" s="2">
         <v>2</v>
       </c>
-      <c r="K99" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11">
-      <c r="B100" s="14"/>
-      <c r="H100" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I100" s="2" t="s">
+      <c r="K101" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="J100" s="2">
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="24"/>
+      <c r="H102" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J102" s="2">
         <v>3</v>
       </c>
-      <c r="K100" s="23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11">
-      <c r="B101" s="15"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="I101" s="12" t="s">
+      <c r="K102" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="J101" s="12">
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="25"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J103" s="12">
         <v>4</v>
       </c>
-      <c r="K101" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11">
-      <c r="B103" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7" t="s">
+      <c r="K103" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="I103" s="8" t="s">
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="J103" s="8">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J105" s="8">
         <v>1</v>
       </c>
-      <c r="K103" s="22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11">
-      <c r="B104" s="14"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="I104" s="17" t="s">
+      <c r="K105" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="J104" s="17">
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="24"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I106" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J106" s="18">
         <v>2</v>
       </c>
-      <c r="K104" s="23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11">
-      <c r="B105" s="14"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I105" s="17" t="s">
+      <c r="K106" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="J105" s="17">
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="24"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I107" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J107" s="18">
         <v>3</v>
       </c>
-      <c r="K105" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11">
-      <c r="B106" s="14"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="I106" s="17" t="s">
+      <c r="K107" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="J106" s="17">
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="24"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I108" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J108" s="18">
         <v>4</v>
       </c>
-      <c r="K106" s="23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11">
-      <c r="B107" s="15"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="I107" s="12" t="s">
+      <c r="K108" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="J107" s="12">
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="25"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="J109" s="12">
         <v>5</v>
       </c>
-      <c r="K107" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11">
-      <c r="B109" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="8" t="s">
+      <c r="K109" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="I109" s="8" t="s">
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="J109" s="8">
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J111" s="8">
         <v>1</v>
       </c>
-      <c r="K109" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11">
-      <c r="B110" s="14"/>
-      <c r="H110" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I110" s="2" t="s">
+      <c r="K111" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="J110" s="2">
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" s="24"/>
+      <c r="H112" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J112" s="2">
         <v>2</v>
       </c>
-      <c r="K110" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11">
-      <c r="B111" s="14"/>
-      <c r="H111" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I111" s="2" t="s">
+      <c r="K112" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="J111" s="2">
+    </row>
+    <row r="113" spans="2:11">
+      <c r="B113" s="24"/>
+      <c r="H113" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J113" s="2">
         <v>3</v>
       </c>
-      <c r="K111" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11">
-      <c r="B112" s="15"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="I112" s="12" t="s">
+      <c r="K113" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="J112" s="12">
+    </row>
+    <row r="114" spans="2:11">
+      <c r="B114" s="25"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="J114" s="12">
         <v>4</v>
       </c>
-      <c r="K112" s="24" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11">
-      <c r="B114" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="8" t="s">
+      <c r="K114" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="I114" s="8" t="s">
+    </row>
+    <row r="116" spans="2:11">
+      <c r="B116" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="J114" s="8">
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J116" s="8">
         <v>1</v>
       </c>
-      <c r="K114" s="22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11">
-      <c r="B115" s="14"/>
-      <c r="H115" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I115" s="2" t="s">
+      <c r="K116" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="J115" s="2">
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117" s="24"/>
+      <c r="H117" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J117" s="2">
         <v>2</v>
       </c>
-      <c r="K115" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11">
-      <c r="B116" s="15"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="I116" s="12" t="s">
+      <c r="K117" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="J116" s="12">
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="25"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="J118" s="12">
         <v>3</v>
       </c>
-      <c r="K116" s="24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11">
-      <c r="B118" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C118" s="7" t="b">
+      <c r="K118" s="33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11">
+      <c r="B120" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C120" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I118" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="J118" s="8">
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J120" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K118" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11">
-      <c r="B119" s="14"/>
-      <c r="H119" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I119" s="2" t="s">
+      <c r="K120" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="J119" s="2">
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="24"/>
+      <c r="H121" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J121" s="2">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K119" s="23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11">
-      <c r="B120" s="14"/>
-      <c r="H120" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I120" s="2" t="s">
+      <c r="K121" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="J120" s="2">
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="24"/>
+      <c r="H122" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J122" s="2">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K120" s="23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11">
-      <c r="B121" s="14"/>
-      <c r="H121" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I121" s="2" t="s">
+      <c r="K122" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="J121" s="2">
+    </row>
+    <row r="123" spans="2:11">
+      <c r="B123" s="24"/>
+      <c r="H123" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J123" s="2">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K121" s="23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11">
-      <c r="B122" s="14"/>
-      <c r="H122" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I122" s="2" t="s">
+      <c r="K123" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="J122" s="2">
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124" s="24"/>
+      <c r="H124" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J124" s="2">
         <f>POWER(2,4)</f>
         <v>16</v>
       </c>
-      <c r="K122" s="23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11">
-      <c r="B123" s="14"/>
-      <c r="H123" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I123" s="2" t="s">
+      <c r="K124" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="J123" s="2">
+    </row>
+    <row r="125" spans="2:11">
+      <c r="B125" s="24"/>
+      <c r="H125" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J125" s="2">
         <f>POWER(2,5)</f>
         <v>32</v>
       </c>
-      <c r="K123" s="23" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11">
-      <c r="B124" s="14"/>
-      <c r="H124" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I124" s="2" t="s">
+      <c r="K125" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="J124" s="2">
+    </row>
+    <row r="126" spans="2:11">
+      <c r="B126" s="24"/>
+      <c r="H126" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J126" s="2">
         <f>POWER(2,6)</f>
         <v>64</v>
       </c>
-      <c r="K124" s="23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11">
-      <c r="B125" s="14"/>
-      <c r="H125" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I125" s="2" t="s">
+      <c r="K126" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="J125" s="2">
+    </row>
+    <row r="127" spans="2:11">
+      <c r="B127" s="24"/>
+      <c r="H127" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J127" s="2">
         <f>POWER(2,7)</f>
         <v>128</v>
       </c>
-      <c r="K125" s="23" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11">
-      <c r="B126" s="14"/>
-      <c r="H126" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I126" s="2" t="s">
+      <c r="K127" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="J126" s="2">
+    </row>
+    <row r="128" spans="2:11">
+      <c r="B128" s="24"/>
+      <c r="H128" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J128" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K126" s="23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11">
-      <c r="B127" s="15"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="I127" s="12" t="s">
+      <c r="K128" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="J127" s="12">
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="25"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J129" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K127" s="24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="129" spans="2:11">
-      <c r="B129" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C129" s="7" t="b">
+      <c r="K129" s="33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="B131" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C131" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="I129" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="J129" s="8">
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="J131" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K129" s="22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11">
-      <c r="B130" s="14"/>
-      <c r="H130" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I130" s="2" t="s">
+      <c r="K131" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="J130" s="2">
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132" s="24"/>
+      <c r="H132" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J132" s="2">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K130" s="23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11">
-      <c r="B131" s="14"/>
-      <c r="H131" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I131" s="2" t="s">
+      <c r="K132" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="J131" s="2">
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="24"/>
+      <c r="H133" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J133" s="2">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K131" s="23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11">
-      <c r="B132" s="14"/>
-      <c r="H132" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I132" s="2" t="s">
+      <c r="K133" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="J132" s="2">
+    </row>
+    <row r="134" spans="2:11">
+      <c r="B134" s="24"/>
+      <c r="H134" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J134" s="2">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K132" s="23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="133" spans="2:11">
-      <c r="B133" s="14"/>
-      <c r="H133" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I133" s="2" t="s">
+      <c r="K134" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="J133" s="2">
+    </row>
+    <row r="135" spans="2:11">
+      <c r="B135" s="24"/>
+      <c r="H135" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J135" s="2">
         <f>POWER(2,4)</f>
         <v>16</v>
       </c>
-      <c r="K133" s="23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11">
-      <c r="B134" s="14"/>
-      <c r="H134" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I134" s="2" t="s">
+      <c r="K135" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="J134" s="2">
+    </row>
+    <row r="136" spans="2:11">
+      <c r="B136" s="24"/>
+      <c r="H136" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J136" s="2">
         <f>POWER(2,5)</f>
         <v>32</v>
       </c>
-      <c r="K134" s="23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11">
-      <c r="B135" s="14"/>
-      <c r="H135" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I135" s="2" t="s">
+      <c r="K136" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="J135" s="2">
+    </row>
+    <row r="137" spans="2:11">
+      <c r="B137" s="24"/>
+      <c r="H137" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J137" s="2">
         <f>POWER(2,6)</f>
         <v>64</v>
       </c>
-      <c r="K135" s="23" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11">
-      <c r="B136" s="14"/>
-      <c r="H136" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I136" s="2" t="s">
+      <c r="K137" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="J136" s="2">
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="24"/>
+      <c r="H138" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J138" s="2">
         <f>POWER(2,7)</f>
         <v>128</v>
       </c>
-      <c r="K136" s="23" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11">
-      <c r="B137" s="14"/>
-      <c r="H137" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I137" s="2" t="s">
+      <c r="K138" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="J137" s="2">
+    </row>
+    <row r="139" spans="2:11">
+      <c r="B139" s="24"/>
+      <c r="H139" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J139" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K137" s="23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="138" spans="2:11">
-      <c r="B138" s="15"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I138" s="12" t="s">
+      <c r="K139" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="J138" s="12">
+    </row>
+    <row r="140" spans="2:11">
+      <c r="B140" s="25"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="I140" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="J140" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K138" s="24" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="140" spans="2:11">
-      <c r="B140" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C140" s="7" t="b">
+      <c r="K140" s="33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C142" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="I140" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="J140" s="8">
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J142" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K140" s="22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11">
-      <c r="B141" s="14"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="I141" s="17" t="s">
+      <c r="K142" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="J141" s="17">
+    </row>
+    <row r="143" spans="2:11">
+      <c r="B143" s="24"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="I143" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="J143" s="18">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K141" s="23" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11">
-      <c r="B142" s="14"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="16"/>
-      <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="I142" s="17" t="s">
+      <c r="K143" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="J142" s="17">
+    </row>
+    <row r="144" spans="2:11">
+      <c r="B144" s="24"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="I144" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="J144" s="18">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K142" s="23" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11">
-      <c r="B143" s="15"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="I143" s="12" t="s">
+      <c r="K144" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="J143" s="12">
+    </row>
+    <row r="145" spans="2:11">
+      <c r="B145" s="25"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J145" s="12">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K143" s="24" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11">
-      <c r="B145" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C145" s="7" t="b">
+      <c r="K145" s="33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C147" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="I145" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="J145" s="8">
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J147" s="8">
         <v>1</v>
       </c>
-      <c r="K145" s="22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11">
-      <c r="B146" s="14"/>
-      <c r="H146" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I146" s="2" t="s">
+      <c r="K147" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="J146" s="2">
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" s="24"/>
+      <c r="H148" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J148" s="2">
         <v>2</v>
       </c>
-      <c r="K146" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11">
-      <c r="B147" s="14"/>
-      <c r="H147" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I147" s="2" t="s">
+      <c r="K148" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="J147" s="2">
+    </row>
+    <row r="149" spans="2:11">
+      <c r="B149" s="24"/>
+      <c r="H149" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J149" s="2">
         <v>3</v>
       </c>
-      <c r="K147" s="23" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11">
-      <c r="B148" s="15"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11"/>
-      <c r="F148" s="11"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="I148" s="12" t="s">
+      <c r="K149" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="J148" s="12">
+    </row>
+    <row r="150" spans="2:11">
+      <c r="B150" s="25"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="I150" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="J150" s="12">
         <v>4</v>
       </c>
-      <c r="K148" s="24" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11">
-      <c r="B150" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C150" s="7" t="b">
+      <c r="K150" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="B152" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C152" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="I150" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="J150" s="8">
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I152" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="J152" s="8">
         <v>1</v>
       </c>
-      <c r="K150" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11">
-      <c r="B151" s="15"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="I151" s="12" t="s">
+      <c r="K152" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="J151" s="12">
+    </row>
+    <row r="153" spans="2:11">
+      <c r="B153" s="25"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="J153" s="12">
         <v>2</v>
       </c>
-      <c r="K151" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11">
-      <c r="B153" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C153" s="7" t="b">
+      <c r="K153" s="33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11">
+      <c r="B155" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C155" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="I153" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="J153" s="8">
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J155" s="8">
         <v>1</v>
       </c>
-      <c r="K153" s="22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11">
-      <c r="B154" s="14"/>
-      <c r="H154" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I154" s="2" t="s">
+      <c r="K155" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="J154" s="2">
+    </row>
+    <row r="156" spans="2:11">
+      <c r="B156" s="24"/>
+      <c r="H156" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J156" s="2">
         <v>2</v>
       </c>
-      <c r="K154" s="23" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11">
-      <c r="B155" s="14"/>
-      <c r="H155" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I155" s="2" t="s">
+      <c r="K156" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="J155" s="2">
+    </row>
+    <row r="157" spans="2:11">
+      <c r="B157" s="24"/>
+      <c r="H157" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J157" s="2">
         <v>3</v>
       </c>
-      <c r="K155" s="23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11">
-      <c r="B156" s="15"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="I156" s="12" t="s">
+      <c r="K157" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="J156" s="12">
+    </row>
+    <row r="158" spans="2:11">
+      <c r="B158" s="25"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I158" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="J158" s="12">
         <v>4</v>
       </c>
-      <c r="K156" s="24" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="158" spans="2:11">
-      <c r="B158" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="C158" s="7" t="b">
+      <c r="K158" s="33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11">
+      <c r="B160" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C160" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="I158" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J158" s="8">
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="I160" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J160" s="8">
         <v>1</v>
       </c>
-      <c r="K158" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="159" spans="2:11">
-      <c r="B159" s="26"/>
-      <c r="H159" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="J159" s="2">
+      <c r="K160" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11">
+      <c r="B161" s="35"/>
+      <c r="H161" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J161" s="2">
         <v>2</v>
       </c>
-      <c r="K159" s="23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11">
-      <c r="B160" s="26"/>
-      <c r="H160" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I160" s="2" t="s">
+      <c r="K161" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="J160" s="2">
+    </row>
+    <row r="162" spans="2:11">
+      <c r="B162" s="35"/>
+      <c r="H162" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J162" s="2">
         <v>3</v>
       </c>
-      <c r="K160" s="23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="161" spans="2:11">
-      <c r="B161" s="26"/>
-      <c r="H161" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I161" s="2" t="s">
+      <c r="K162" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="J161" s="2">
+    </row>
+    <row r="163" spans="2:11">
+      <c r="B163" s="35"/>
+      <c r="H163" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J163" s="2">
         <v>4</v>
       </c>
-      <c r="K161" s="23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11">
-      <c r="B162" s="26"/>
-      <c r="H162" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I162" s="2" t="s">
+      <c r="K163" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="J162" s="2">
+    </row>
+    <row r="164" spans="2:11">
+      <c r="B164" s="35"/>
+      <c r="H164" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J164" s="2">
         <v>5</v>
       </c>
-      <c r="K162" s="23" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="163" spans="2:11">
-      <c r="B163" s="27"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="11"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="I163" s="12" t="s">
+      <c r="K164" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="J163" s="12">
+    </row>
+    <row r="165" spans="2:11">
+      <c r="B165" s="36"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I165" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="J165" s="12">
         <v>6</v>
       </c>
-      <c r="K163" s="24" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="165" spans="2:11">
-      <c r="B165" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="C165" s="7" t="b">
+      <c r="K165" s="33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11">
+      <c r="B167" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C167" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="I165" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="J165" s="8">
+      <c r="H167" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J167" s="2">
         <v>1</v>
       </c>
-      <c r="K165" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="166" spans="2:11">
-      <c r="B166" s="29"/>
-      <c r="H166" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I166" s="2" t="s">
+      <c r="K167" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="J166" s="2">
+    </row>
+    <row r="168" spans="8:11">
+      <c r="H168" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J168" s="2">
         <v>2</v>
       </c>
-      <c r="K166" s="23" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="167" spans="2:11">
-      <c r="B167" s="30"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
-      <c r="E167" s="11"/>
-      <c r="F167" s="11"/>
-      <c r="G167" s="11"/>
-      <c r="H167" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="I167" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="J167" s="12">
-        <v>3</v>
-      </c>
-      <c r="K167" s="24" t="s">
+      <c r="K168" s="2" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4881,128 +4940,131 @@
         <v>309</v>
       </c>
     </row>
-    <row r="174" spans="8:11">
-      <c r="H174" s="2" t="s">
+    <row r="176" spans="2:11">
+      <c r="B176" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I174" s="2" t="s">
+      <c r="C176" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="J174" s="2">
-        <v>5</v>
-      </c>
-      <c r="K174" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="175" spans="8:11">
-      <c r="H175" s="2" t="s">
+      <c r="I176" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="I175" s="2" t="s">
+      <c r="J176" s="2">
+        <v>1</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="177" spans="8:11">
+      <c r="H177" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="J175" s="2">
-        <v>6</v>
-      </c>
-      <c r="K175" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="176" spans="8:11">
-      <c r="H176" s="2" t="s">
+      <c r="I177" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="I176" s="2" t="s">
+      <c r="J177" s="2">
+        <v>2</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="178" spans="8:11">
+      <c r="H178" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="J176" s="2">
-        <v>7</v>
-      </c>
-      <c r="K176" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="178" spans="2:11">
-      <c r="B178" s="1" t="s">
+      <c r="I178" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C178" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I178" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="J178" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="8:11">
       <c r="H179" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J179" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="180" spans="8:11">
       <c r="H180" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J180" s="2">
+        <v>5</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="181" spans="8:11">
+      <c r="H181" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I180" s="2" t="s">
+      <c r="I181" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="J180" s="2">
-        <v>3</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J181" s="2">
+        <v>6</v>
+      </c>
+      <c r="K181" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="183" spans="2:11">
-      <c r="B183" s="1" t="s">
+    <row r="182" spans="8:11">
+      <c r="H182" s="2" t="s">
         <v>323</v>
       </c>
+      <c r="I182" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="J182" s="2">
+        <v>7</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="183" spans="8:11">
       <c r="H183" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J183" s="2">
+        <v>8</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11">
+      <c r="B185" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C185" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K183" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="184" spans="8:11">
-      <c r="H184" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="I184" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="J184" s="2">
-        <v>2</v>
-      </c>
-      <c r="K184" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="185" spans="8:11">
       <c r="H185" s="2" t="s">
         <v>328</v>
       </c>
@@ -5010,7 +5072,7 @@
         <v>329</v>
       </c>
       <c r="J185" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K185" s="2" t="s">
         <v>329</v>
@@ -5024,36 +5086,109 @@
         <v>331</v>
       </c>
       <c r="J186" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K186" s="2" t="s">
         <v>331</v>
+      </c>
+    </row>
+    <row r="187" spans="8:11">
+      <c r="H187" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J187" s="2">
+        <v>3</v>
+      </c>
+      <c r="K187" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11">
+      <c r="B190" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J190" s="2">
+        <v>1</v>
+      </c>
+      <c r="K190" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="191" spans="8:11">
+      <c r="H191" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J191" s="2">
+        <v>2</v>
+      </c>
+      <c r="K191" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="192" spans="8:11">
+      <c r="H192" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J192" s="2">
+        <v>3</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="193" spans="8:11">
+      <c r="H193" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J193" s="2">
+        <v>4</v>
+      </c>
+      <c r="K193" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="B45:B82"/>
-    <mergeCell ref="B84:B93"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B118:B127"/>
-    <mergeCell ref="B129:B138"/>
-    <mergeCell ref="B140:B143"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B47:B84"/>
+    <mergeCell ref="B86:B95"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B120:B129"/>
+    <mergeCell ref="B131:B140"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B160:B165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -362,76 +362,76 @@
     <t>最大经验值</t>
   </si>
   <si>
+    <t>GP_AOI</t>
+  </si>
+  <si>
+    <t>AOI</t>
+  </si>
+  <si>
+    <t>视野范围</t>
+  </si>
+  <si>
+    <t>GP_Silent</t>
+  </si>
+  <si>
+    <t>Silent</t>
+  </si>
+  <si>
+    <t>沉默</t>
+  </si>
+  <si>
+    <t>GP_CantMove</t>
+  </si>
+  <si>
+    <t>禁止移动</t>
+  </si>
+  <si>
+    <t>GP_CantRotate</t>
+  </si>
+  <si>
+    <t>禁止转向</t>
+  </si>
+  <si>
+    <t>GP_Hp</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>GP_MaxHp</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
+    <t>最大生命值</t>
+  </si>
+  <si>
+    <t>GP_Mp</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>魔法值</t>
+  </si>
+  <si>
+    <t>GP_MaxMp</t>
+  </si>
+  <si>
+    <t>MaxMp</t>
+  </si>
+  <si>
+    <t>最大魔法值</t>
+  </si>
+  <si>
     <t>GP_Speed</t>
   </si>
   <si>
     <t>移动速度</t>
-  </si>
-  <si>
-    <t>GP_AOI</t>
-  </si>
-  <si>
-    <t>AOI</t>
-  </si>
-  <si>
-    <t>视野范围</t>
-  </si>
-  <si>
-    <t>GP_Silent</t>
-  </si>
-  <si>
-    <t>Silent</t>
-  </si>
-  <si>
-    <t>沉默</t>
-  </si>
-  <si>
-    <t>GP_CantMove</t>
-  </si>
-  <si>
-    <t>禁止移动</t>
-  </si>
-  <si>
-    <t>GP_CantRotate</t>
-  </si>
-  <si>
-    <t>禁止转向</t>
-  </si>
-  <si>
-    <t>GP_Hp</t>
-  </si>
-  <si>
-    <t>Hp</t>
-  </si>
-  <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>GP_MaxHp</t>
-  </si>
-  <si>
-    <t>MaxHp</t>
-  </si>
-  <si>
-    <t>最大生命值</t>
-  </si>
-  <si>
-    <t>GP_Mp</t>
-  </si>
-  <si>
-    <t>Mp</t>
-  </si>
-  <si>
-    <t>魔法值</t>
-  </si>
-  <si>
-    <t>GP_MaxMp</t>
-  </si>
-  <si>
-    <t>MaxMp</t>
-  </si>
-  <si>
-    <t>最大魔法值</t>
   </si>
   <si>
     <t>GP_Atk</t>
@@ -1789,7 +1789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1841,33 +1841,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1884,9 +1863,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2220,10 +2196,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L193"/>
+  <dimension ref="A1:L198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="H184" sqref="H184"/>
+    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2349,7 +2325,7 @@
       <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2361,7 +2337,7 @@
       <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2373,7 +2349,7 @@
       <c r="J6" s="2">
         <v>3</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2385,7 +2361,7 @@
       <c r="J7" s="2">
         <v>4</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2403,7 +2379,7 @@
       <c r="J8" s="12">
         <v>99</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2427,7 +2403,7 @@
       <c r="J10" s="8">
         <v>1</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="23" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2447,7 +2423,7 @@
       <c r="J11" s="16">
         <v>2</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="24" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2467,55 +2443,55 @@
       <c r="J12" s="16">
         <v>3</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="16">
         <v>4</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="12">
         <v>5</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="22"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="7"/>
@@ -2534,12 +2510,12 @@
       <c r="J17" s="8">
         <v>1</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="24"/>
+      <c r="B18" s="14"/>
       <c r="H18" s="2" t="s">
         <v>44</v>
       </c>
@@ -2549,12 +2525,12 @@
       <c r="J18" s="2">
         <v>2</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="24"/>
+      <c r="B19" s="14"/>
       <c r="H19" s="2" t="s">
         <v>46</v>
       </c>
@@ -2564,12 +2540,12 @@
       <c r="J19" s="2">
         <v>3</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="25"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -2580,10 +2556,10 @@
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="33"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="7"/>
@@ -2602,12 +2578,12 @@
       <c r="J22" s="8">
         <v>1</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="24"/>
+      <c r="B23" s="14"/>
       <c r="H23" s="2" t="s">
         <v>52</v>
       </c>
@@ -2617,12 +2593,12 @@
       <c r="J23" s="2">
         <v>2</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="24"/>
+      <c r="B24" s="14"/>
       <c r="H24" s="2" t="s">
         <v>54</v>
       </c>
@@ -2632,12 +2608,12 @@
       <c r="J24" s="2">
         <v>3</v>
       </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="24"/>
+      <c r="B25" s="14"/>
       <c r="H25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2647,12 +2623,12 @@
       <c r="J25" s="2">
         <v>4</v>
       </c>
-      <c r="K25" s="31" t="s">
+      <c r="K25" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="25"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -2667,12 +2643,12 @@
       <c r="J26" s="12">
         <v>5</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="7"/>
@@ -2689,12 +2665,12 @@
       <c r="J28" s="8">
         <v>1</v>
       </c>
-      <c r="K28" s="30" t="s">
+      <c r="K28" s="23" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="24"/>
+      <c r="B29" s="14"/>
       <c r="H29" s="2" t="s">
         <v>63</v>
       </c>
@@ -2704,12 +2680,12 @@
       <c r="J29" s="2">
         <v>2</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="25"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -2724,12 +2700,12 @@
       <c r="J30" s="12">
         <v>3</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="K30" s="25" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="7"/>
@@ -2748,12 +2724,12 @@
       <c r="J32" s="8">
         <v>1</v>
       </c>
-      <c r="K32" s="30" t="s">
+      <c r="K32" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="24"/>
+      <c r="B33" s="14"/>
       <c r="H33" s="2" t="s">
         <v>70</v>
       </c>
@@ -2763,12 +2739,12 @@
       <c r="J33" s="2">
         <v>2</v>
       </c>
-      <c r="K33" s="31" t="s">
+      <c r="K33" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="24"/>
+      <c r="B34" s="14"/>
       <c r="H34" s="2" t="s">
         <v>72</v>
       </c>
@@ -2778,12 +2754,12 @@
       <c r="J34" s="2">
         <v>3</v>
       </c>
-      <c r="K34" s="31" t="s">
+      <c r="K34" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="24"/>
+      <c r="B35" s="14"/>
       <c r="H35" s="2" t="s">
         <v>74</v>
       </c>
@@ -2793,12 +2769,12 @@
       <c r="J35" s="2">
         <v>4</v>
       </c>
-      <c r="K35" s="31" t="s">
+      <c r="K35" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="24"/>
+      <c r="B36" s="14"/>
       <c r="H36" s="2" t="s">
         <v>76</v>
       </c>
@@ -2808,12 +2784,12 @@
       <c r="J36" s="2">
         <v>5</v>
       </c>
-      <c r="K36" s="31" t="s">
+      <c r="K36" s="24" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="24"/>
+      <c r="B37" s="14"/>
       <c r="H37" s="2" t="s">
         <v>78</v>
       </c>
@@ -2823,12 +2799,12 @@
       <c r="J37" s="2">
         <v>6</v>
       </c>
-      <c r="K37" s="31" t="s">
+      <c r="K37" s="24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="25"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -2843,12 +2819,12 @@
       <c r="J38" s="12">
         <v>7</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="K38" s="25" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="7"/>
@@ -2865,92 +2841,92 @@
       <c r="J40" s="8">
         <v>1</v>
       </c>
-      <c r="K40" s="30" t="s">
+      <c r="K40" s="23" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="24"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J41" s="16">
         <v>2</v>
       </c>
-      <c r="K41" s="31" t="s">
+      <c r="K41" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="24"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="16">
         <v>3</v>
       </c>
-      <c r="K42" s="31" t="s">
+      <c r="K42" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="24"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18" t="s">
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="I43" s="18" t="s">
+      <c r="I43" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="16">
         <v>4</v>
       </c>
-      <c r="K43" s="31" t="s">
+      <c r="K43" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="24"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J44" s="16">
         <v>5</v>
       </c>
-      <c r="K44" s="31" t="s">
+      <c r="K44" s="24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="25"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
@@ -2965,12 +2941,12 @@
       <c r="J45" s="12">
         <v>6</v>
       </c>
-      <c r="K45" s="33" t="s">
+      <c r="K45" s="25" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="13" t="s">
         <v>101</v>
       </c>
       <c r="C47" s="7"/>
@@ -2987,12 +2963,12 @@
       <c r="J47" s="8">
         <v>1001</v>
       </c>
-      <c r="K47" s="30" t="s">
+      <c r="K47" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="24"/>
+      <c r="B48" s="14"/>
       <c r="H48" s="2" t="s">
         <v>105</v>
       </c>
@@ -3002,12 +2978,12 @@
       <c r="J48" s="2">
         <v>1002</v>
       </c>
-      <c r="K48" s="31" t="s">
+      <c r="K48" s="24" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="24"/>
+      <c r="B49" s="14"/>
       <c r="H49" s="2" t="s">
         <v>108</v>
       </c>
@@ -3017,12 +2993,12 @@
       <c r="J49" s="2">
         <v>1003</v>
       </c>
-      <c r="K49" s="31" t="s">
+      <c r="K49" s="24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="24"/>
+      <c r="B50" s="14"/>
       <c r="H50" s="2" t="s">
         <v>111</v>
       </c>
@@ -3030,44 +3006,44 @@
         <v>112</v>
       </c>
       <c r="J50" s="2">
-        <v>1004</v>
-      </c>
-      <c r="K50" s="31" t="s">
-        <v>112</v>
+        <v>1005</v>
+      </c>
+      <c r="K50" s="24" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="24"/>
+      <c r="B51" s="14"/>
       <c r="H51" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J51" s="2">
-        <v>1005</v>
-      </c>
-      <c r="K51" s="31" t="s">
-        <v>115</v>
+        <v>1006</v>
+      </c>
+      <c r="K51" s="24" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="24"/>
+      <c r="B52" s="14"/>
       <c r="H52" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J52" s="2">
-        <v>1006</v>
-      </c>
-      <c r="K52" s="31" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="24"/>
+      <c r="B53" s="14"/>
       <c r="H53" s="2" t="s">
         <v>119</v>
       </c>
@@ -3075,989 +3051,1012 @@
         <v>120</v>
       </c>
       <c r="J53" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="24"/>
-      <c r="H54" s="2" t="s">
+      <c r="B54" s="14"/>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="14"/>
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="14"/>
+      <c r="H56" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J54" s="2">
-        <v>1008</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="24"/>
-      <c r="K55" s="31"/>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="24"/>
-      <c r="K56" s="31"/>
+      <c r="J56" s="2">
+        <v>1101</v>
+      </c>
+      <c r="K56" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="24"/>
+      <c r="B57" s="14"/>
       <c r="H57" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J57" s="2">
-        <v>1101</v>
-      </c>
-      <c r="K57" s="31" t="s">
-        <v>125</v>
+        <v>1102</v>
+      </c>
+      <c r="K57" s="24" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="24"/>
+      <c r="B58" s="14"/>
       <c r="H58" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J58" s="2">
-        <v>1102</v>
-      </c>
-      <c r="K58" s="31" t="s">
-        <v>128</v>
+        <v>1103</v>
+      </c>
+      <c r="K58" s="24" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="24"/>
+      <c r="B59" s="14"/>
       <c r="H59" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J59" s="2">
-        <v>1103</v>
-      </c>
-      <c r="K59" s="31" t="s">
-        <v>131</v>
+        <v>1104</v>
+      </c>
+      <c r="K59" s="24" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="24"/>
+      <c r="B60" s="14"/>
       <c r="H60" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J60" s="2">
-        <v>1104</v>
-      </c>
-      <c r="K60" s="31" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K60" s="24" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="24"/>
-      <c r="H61" s="2" t="s">
+      <c r="B61" s="14"/>
+      <c r="H61" s="2" t="str">
+        <f>(_xlfn.CONCAT(H60,"Base"))</f>
+        <v>GP_SpeedBase</v>
+      </c>
+      <c r="I61" s="2" t="str">
+        <f>_xlfn.CONCAT(I60,"Base")</f>
+        <v>移动速度Base</v>
+      </c>
+      <c r="J61" s="2">
+        <f>J60*10+1</f>
+        <v>10041</v>
+      </c>
+      <c r="K61" s="24" t="str">
+        <f>_xlfn.CONCAT(K60,"基础值")</f>
+        <v>移动速度基础值</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="14"/>
+      <c r="H62" s="2" t="str">
+        <f>_xlfn.CONCAT(H60,"Add")</f>
+        <v>GP_SpeedAdd</v>
+      </c>
+      <c r="I62" s="2" t="str">
+        <f>_xlfn.CONCAT(I60,"Add")</f>
+        <v>移动速度Add</v>
+      </c>
+      <c r="J62" s="2">
+        <f>J60*10+2</f>
+        <v>10042</v>
+      </c>
+      <c r="K62" s="24" t="str">
+        <f>_xlfn.CONCAT(K60,"附加值")</f>
+        <v>移动速度附加值</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="14"/>
+      <c r="H63" s="2" t="str">
+        <f>_xlfn.CONCAT(H60,"Pct")</f>
+        <v>GP_SpeedPct</v>
+      </c>
+      <c r="I63" s="2" t="str">
+        <f>_xlfn.CONCAT(I60,"Pct")</f>
+        <v>移动速度Pct</v>
+      </c>
+      <c r="J63" s="2">
+        <f>J60*10+3</f>
+        <v>10043</v>
+      </c>
+      <c r="K63" s="24" t="str">
+        <f>_xlfn.CONCAT(K60,"百分比")</f>
+        <v>移动速度百分比</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="14"/>
+      <c r="H64" s="2" t="str">
+        <f>_xlfn.CONCAT(H60,"FinalAdd")</f>
+        <v>GP_SpeedFinalAdd</v>
+      </c>
+      <c r="I64" s="2" t="str">
+        <f>_xlfn.CONCAT(I60,"FinalAdd")</f>
+        <v>移动速度FinalAdd</v>
+      </c>
+      <c r="J64" s="2">
+        <f>J60*10+4</f>
+        <v>10044</v>
+      </c>
+      <c r="K64" s="24" t="str">
+        <f>_xlfn.CONCAT(K60,"最终附加值")</f>
+        <v>移动速度最终附加值</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" s="14"/>
+      <c r="H65" s="2" t="str">
+        <f>_xlfn.CONCAT(H60,"FinalPct")</f>
+        <v>GP_SpeedFinalPct</v>
+      </c>
+      <c r="I65" s="2" t="str">
+        <f>_xlfn.CONCAT(I60,"FinalPct")</f>
+        <v>移动速度FinalPct</v>
+      </c>
+      <c r="J65" s="2">
+        <f>J60*10+5</f>
+        <v>10045</v>
+      </c>
+      <c r="K65" s="24" t="str">
+        <f>_xlfn.CONCAT(K60,"最终百分比")</f>
+        <v>移动速度最终百分比</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" s="14"/>
+      <c r="H66" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J66" s="2">
         <v>1105</v>
       </c>
-      <c r="K61" s="31" t="s">
+      <c r="K66" s="24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
-      <c r="B62" s="24"/>
-      <c r="H62" s="2" t="str">
-        <f>(_xlfn.CONCAT(H61,"Base"))</f>
+    <row r="67" spans="2:11">
+      <c r="B67" s="14"/>
+      <c r="H67" s="2" t="str">
+        <f>(_xlfn.CONCAT(H66,"Base"))</f>
         <v>GP_AtkBase</v>
       </c>
-      <c r="I62" s="2" t="str">
-        <f>_xlfn.CONCAT(I61,"Base")</f>
+      <c r="I67" s="2" t="str">
+        <f>_xlfn.CONCAT(I66,"Base")</f>
         <v>AtkBase</v>
       </c>
-      <c r="J62" s="2">
-        <f>J61*10+1</f>
+      <c r="J67" s="2">
+        <f>J66*10+1</f>
         <v>11051</v>
       </c>
-      <c r="K62" s="31" t="str">
-        <f>_xlfn.CONCAT(K61,"基础值")</f>
+      <c r="K67" s="24" t="str">
+        <f>_xlfn.CONCAT(K66,"基础值")</f>
         <v>攻击基础值</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
-      <c r="B63" s="24"/>
-      <c r="H63" s="2" t="str">
-        <f t="shared" ref="H63:H65" si="0">_xlfn.CONCAT(H61,"Add")</f>
+    <row r="68" spans="2:11">
+      <c r="B68" s="14"/>
+      <c r="H68" s="2" t="str">
+        <f t="shared" ref="H68:H70" si="0">_xlfn.CONCAT(H66,"Add")</f>
         <v>GP_AtkAdd</v>
       </c>
-      <c r="I63" s="2" t="str">
-        <f>_xlfn.CONCAT(I61,"Add")</f>
+      <c r="I68" s="2" t="str">
+        <f>_xlfn.CONCAT(I66,"Add")</f>
         <v>AtkAdd</v>
       </c>
-      <c r="J63" s="2">
-        <f>J61*10+2</f>
+      <c r="J68" s="2">
+        <f>J66*10+2</f>
         <v>11052</v>
       </c>
-      <c r="K63" s="31" t="str">
-        <f>_xlfn.CONCAT(K61,"附加值")</f>
+      <c r="K68" s="24" t="str">
+        <f>_xlfn.CONCAT(K66,"附加值")</f>
         <v>攻击附加值</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
-      <c r="B64" s="24"/>
-      <c r="H64" s="2" t="str">
-        <f>_xlfn.CONCAT(H61,"Pct")</f>
+    <row r="69" spans="2:11">
+      <c r="B69" s="14"/>
+      <c r="H69" s="2" t="str">
+        <f>_xlfn.CONCAT(H66,"Pct")</f>
         <v>GP_AtkPct</v>
       </c>
-      <c r="I64" s="2" t="str">
-        <f>_xlfn.CONCAT(I61,"Pct")</f>
+      <c r="I69" s="2" t="str">
+        <f>_xlfn.CONCAT(I66,"Pct")</f>
         <v>AtkPct</v>
       </c>
-      <c r="J64" s="2">
-        <f>J61*10+3</f>
+      <c r="J69" s="2">
+        <f>J66*10+3</f>
         <v>11053</v>
       </c>
-      <c r="K64" s="31" t="str">
-        <f>_xlfn.CONCAT(K61,"百分比")</f>
+      <c r="K69" s="24" t="str">
+        <f>_xlfn.CONCAT(K66,"百分比")</f>
         <v>攻击百分比</v>
       </c>
     </row>
-    <row r="65" spans="2:11">
-      <c r="B65" s="24"/>
-      <c r="H65" s="2" t="str">
-        <f>_xlfn.CONCAT(H61,"FinalAdd")</f>
+    <row r="70" spans="2:11">
+      <c r="B70" s="14"/>
+      <c r="H70" s="2" t="str">
+        <f>_xlfn.CONCAT(H66,"FinalAdd")</f>
         <v>GP_AtkFinalAdd</v>
       </c>
-      <c r="I65" s="2" t="str">
-        <f>_xlfn.CONCAT(I61,"FinalAdd")</f>
+      <c r="I70" s="2" t="str">
+        <f>_xlfn.CONCAT(I66,"FinalAdd")</f>
         <v>AtkFinalAdd</v>
       </c>
-      <c r="J65" s="2">
-        <f>J61*10+4</f>
+      <c r="J70" s="2">
+        <f>J66*10+4</f>
         <v>11054</v>
       </c>
-      <c r="K65" s="31" t="str">
-        <f>_xlfn.CONCAT(K61,"最终附加值")</f>
+      <c r="K70" s="24" t="str">
+        <f>_xlfn.CONCAT(K66,"最终附加值")</f>
         <v>攻击最终附加值</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
-      <c r="B66" s="24"/>
-      <c r="H66" s="2" t="str">
-        <f>_xlfn.CONCAT(H61,"FinalPct")</f>
+    <row r="71" spans="2:11">
+      <c r="B71" s="14"/>
+      <c r="H71" s="2" t="str">
+        <f>_xlfn.CONCAT(H66,"FinalPct")</f>
         <v>GP_AtkFinalPct</v>
       </c>
-      <c r="I66" s="2" t="str">
-        <f>_xlfn.CONCAT(I61,"FinalPct")</f>
+      <c r="I71" s="2" t="str">
+        <f>_xlfn.CONCAT(I66,"FinalPct")</f>
         <v>AtkFinalPct</v>
       </c>
-      <c r="J66" s="2">
-        <f>J61*10+5</f>
+      <c r="J71" s="2">
+        <f>J66*10+5</f>
         <v>11055</v>
       </c>
-      <c r="K66" s="31" t="str">
-        <f>_xlfn.CONCAT(K61,"最终百分比")</f>
+      <c r="K71" s="24" t="str">
+        <f>_xlfn.CONCAT(K66,"最终百分比")</f>
         <v>攻击最终百分比</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
-      <c r="B67" s="24"/>
-      <c r="H67" s="2" t="s">
+    <row r="72" spans="2:11">
+      <c r="B72" s="14"/>
+      <c r="H72" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J72" s="2">
         <v>1106</v>
       </c>
-      <c r="K67" s="31" t="s">
+      <c r="K72" s="24" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
-      <c r="B68" s="24"/>
-      <c r="H68" s="2" t="str">
-        <f>(_xlfn.CONCAT(H67,"Base"))</f>
+    <row r="73" spans="2:11">
+      <c r="B73" s="14"/>
+      <c r="H73" s="2" t="str">
+        <f>(_xlfn.CONCAT(H72,"Base"))</f>
         <v>GP_DefBase</v>
       </c>
-      <c r="I68" s="2" t="str">
-        <f>_xlfn.CONCAT(I67,"Base")</f>
+      <c r="I73" s="2" t="str">
+        <f>_xlfn.CONCAT(I72,"Base")</f>
         <v>DefBase</v>
       </c>
-      <c r="J68" s="2">
-        <f>J67*10+1</f>
+      <c r="J73" s="2">
+        <f>J72*10+1</f>
         <v>11061</v>
       </c>
-      <c r="K68" s="31" t="str">
-        <f>_xlfn.CONCAT(K67,"基础值")</f>
+      <c r="K73" s="24" t="str">
+        <f>_xlfn.CONCAT(K72,"基础值")</f>
         <v>防御基础值</v>
       </c>
     </row>
-    <row r="69" spans="2:11">
-      <c r="B69" s="24"/>
-      <c r="H69" s="2" t="str">
-        <f>_xlfn.CONCAT(H67,"Add")</f>
+    <row r="74" spans="2:11">
+      <c r="B74" s="14"/>
+      <c r="H74" s="2" t="str">
+        <f>_xlfn.CONCAT(H72,"Add")</f>
         <v>GP_DefAdd</v>
       </c>
-      <c r="I69" s="2" t="str">
-        <f>_xlfn.CONCAT(I67,"Add")</f>
+      <c r="I74" s="2" t="str">
+        <f>_xlfn.CONCAT(I72,"Add")</f>
         <v>DefAdd</v>
       </c>
-      <c r="J69" s="2">
-        <f>J67*10+2</f>
+      <c r="J74" s="2">
+        <f>J72*10+2</f>
         <v>11062</v>
       </c>
-      <c r="K69" s="31" t="str">
-        <f>_xlfn.CONCAT(K67,"附加值")</f>
+      <c r="K74" s="24" t="str">
+        <f>_xlfn.CONCAT(K72,"附加值")</f>
         <v>防御附加值</v>
       </c>
     </row>
-    <row r="70" spans="2:11">
-      <c r="B70" s="24"/>
-      <c r="H70" s="2" t="str">
-        <f>_xlfn.CONCAT(H67,"Pct")</f>
+    <row r="75" spans="2:11">
+      <c r="B75" s="14"/>
+      <c r="H75" s="2" t="str">
+        <f>_xlfn.CONCAT(H72,"Pct")</f>
         <v>GP_DefPct</v>
       </c>
-      <c r="I70" s="2" t="str">
-        <f>_xlfn.CONCAT(I67,"Pct")</f>
+      <c r="I75" s="2" t="str">
+        <f>_xlfn.CONCAT(I72,"Pct")</f>
         <v>DefPct</v>
       </c>
-      <c r="J70" s="2">
-        <f>J67*10+3</f>
+      <c r="J75" s="2">
+        <f>J72*10+3</f>
         <v>11063</v>
       </c>
-      <c r="K70" s="31" t="str">
-        <f>_xlfn.CONCAT(K67,"百分比")</f>
+      <c r="K75" s="24" t="str">
+        <f>_xlfn.CONCAT(K72,"百分比")</f>
         <v>防御百分比</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
-      <c r="B71" s="24"/>
-      <c r="H71" s="2" t="str">
-        <f>_xlfn.CONCAT(H67,"FinalAdd")</f>
+    <row r="76" spans="2:11">
+      <c r="B76" s="14"/>
+      <c r="H76" s="2" t="str">
+        <f>_xlfn.CONCAT(H72,"FinalAdd")</f>
         <v>GP_DefFinalAdd</v>
       </c>
-      <c r="I71" s="2" t="str">
-        <f>_xlfn.CONCAT(I67,"FinalAdd")</f>
+      <c r="I76" s="2" t="str">
+        <f>_xlfn.CONCAT(I72,"FinalAdd")</f>
         <v>DefFinalAdd</v>
       </c>
-      <c r="J71" s="2">
-        <f>J67*10+4</f>
+      <c r="J76" s="2">
+        <f>J72*10+4</f>
         <v>11064</v>
       </c>
-      <c r="K71" s="31" t="str">
-        <f>_xlfn.CONCAT(K67,"最终附加值")</f>
+      <c r="K76" s="24" t="str">
+        <f>_xlfn.CONCAT(K72,"最终附加值")</f>
         <v>防御最终附加值</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
-      <c r="B72" s="24"/>
-      <c r="H72" s="2" t="str">
-        <f>_xlfn.CONCAT(H67,"FinalPct")</f>
+    <row r="77" spans="2:11">
+      <c r="B77" s="14"/>
+      <c r="H77" s="2" t="str">
+        <f>_xlfn.CONCAT(H72,"FinalPct")</f>
         <v>GP_DefFinalPct</v>
       </c>
-      <c r="I72" s="2" t="str">
-        <f>_xlfn.CONCAT(I67,"FinalPct")</f>
+      <c r="I77" s="2" t="str">
+        <f>_xlfn.CONCAT(I72,"FinalPct")</f>
         <v>DefFinalPct</v>
       </c>
-      <c r="J72" s="2">
-        <f>J67*10+5</f>
+      <c r="J77" s="2">
+        <f>J72*10+5</f>
         <v>11065</v>
       </c>
-      <c r="K72" s="31" t="str">
-        <f>_xlfn.CONCAT(K67,"最终百分比")</f>
+      <c r="K77" s="24" t="str">
+        <f>_xlfn.CONCAT(K72,"最终百分比")</f>
         <v>防御最终百分比</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
-      <c r="B73" s="24"/>
-      <c r="H73" s="2" t="s">
+    <row r="78" spans="2:11">
+      <c r="B78" s="14"/>
+      <c r="H78" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J78" s="2">
         <v>1107</v>
       </c>
-      <c r="K73" s="31" t="s">
+      <c r="K78" s="24" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
-      <c r="B74" s="24"/>
-      <c r="H74" s="2" t="str">
-        <f>(_xlfn.CONCAT(H73,"Base"))</f>
+    <row r="79" spans="2:11">
+      <c r="B79" s="14"/>
+      <c r="H79" s="2" t="str">
+        <f>(_xlfn.CONCAT(H78,"Base"))</f>
         <v>GP_HitBase</v>
       </c>
-      <c r="I74" s="2" t="str">
-        <f>_xlfn.CONCAT(I73,"Base")</f>
+      <c r="I79" s="2" t="str">
+        <f>_xlfn.CONCAT(I78,"Base")</f>
         <v>HitBase</v>
       </c>
-      <c r="J74" s="2">
-        <f>J73*10+1</f>
+      <c r="J79" s="2">
+        <f>J78*10+1</f>
         <v>11071</v>
       </c>
-      <c r="K74" s="31" t="str">
-        <f>_xlfn.CONCAT(K73,"基础值")</f>
+      <c r="K79" s="24" t="str">
+        <f>_xlfn.CONCAT(K78,"基础值")</f>
         <v>命中基础值</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
-      <c r="B75" s="24"/>
-      <c r="H75" s="2" t="str">
-        <f>_xlfn.CONCAT(H73,"Add")</f>
+    <row r="80" spans="2:11">
+      <c r="B80" s="14"/>
+      <c r="H80" s="2" t="str">
+        <f>_xlfn.CONCAT(H78,"Add")</f>
         <v>GP_HitAdd</v>
       </c>
-      <c r="I75" s="2" t="str">
-        <f>_xlfn.CONCAT(I73,"Add")</f>
+      <c r="I80" s="2" t="str">
+        <f>_xlfn.CONCAT(I78,"Add")</f>
         <v>HitAdd</v>
       </c>
-      <c r="J75" s="2">
-        <f>J73*10+2</f>
+      <c r="J80" s="2">
+        <f>J78*10+2</f>
         <v>11072</v>
       </c>
-      <c r="K75" s="31" t="str">
-        <f>_xlfn.CONCAT(K73,"附加值")</f>
+      <c r="K80" s="24" t="str">
+        <f>_xlfn.CONCAT(K78,"附加值")</f>
         <v>命中附加值</v>
       </c>
     </row>
-    <row r="76" spans="2:11">
-      <c r="B76" s="24"/>
-      <c r="H76" s="2" t="str">
-        <f>_xlfn.CONCAT(H73,"Pct")</f>
+    <row r="81" spans="2:11">
+      <c r="B81" s="14"/>
+      <c r="H81" s="2" t="str">
+        <f>_xlfn.CONCAT(H78,"Pct")</f>
         <v>GP_HitPct</v>
       </c>
-      <c r="I76" s="2" t="str">
-        <f>_xlfn.CONCAT(I73,"Pct")</f>
+      <c r="I81" s="2" t="str">
+        <f>_xlfn.CONCAT(I78,"Pct")</f>
         <v>HitPct</v>
       </c>
-      <c r="J76" s="2">
-        <f>J73*10+3</f>
+      <c r="J81" s="2">
+        <f>J78*10+3</f>
         <v>11073</v>
       </c>
-      <c r="K76" s="31" t="str">
-        <f>_xlfn.CONCAT(K73,"百分比")</f>
+      <c r="K81" s="24" t="str">
+        <f>_xlfn.CONCAT(K78,"百分比")</f>
         <v>命中百分比</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
-      <c r="B77" s="24"/>
-      <c r="H77" s="2" t="str">
-        <f>_xlfn.CONCAT(H73,"FinalAdd")</f>
+    <row r="82" spans="2:11">
+      <c r="B82" s="14"/>
+      <c r="H82" s="2" t="str">
+        <f>_xlfn.CONCAT(H78,"FinalAdd")</f>
         <v>GP_HitFinalAdd</v>
       </c>
-      <c r="I77" s="2" t="str">
-        <f>_xlfn.CONCAT(I73,"FinalAdd")</f>
+      <c r="I82" s="2" t="str">
+        <f>_xlfn.CONCAT(I78,"FinalAdd")</f>
         <v>HitFinalAdd</v>
       </c>
-      <c r="J77" s="2">
-        <f>J73*10+4</f>
+      <c r="J82" s="2">
+        <f>J78*10+4</f>
         <v>11074</v>
       </c>
-      <c r="K77" s="31" t="str">
-        <f>_xlfn.CONCAT(K73,"最终附加值")</f>
+      <c r="K82" s="24" t="str">
+        <f>_xlfn.CONCAT(K78,"最终附加值")</f>
         <v>命中最终附加值</v>
       </c>
     </row>
-    <row r="78" spans="2:11">
-      <c r="B78" s="24"/>
-      <c r="H78" s="2" t="str">
-        <f>_xlfn.CONCAT(H73,"FinalPct")</f>
+    <row r="83" spans="2:11">
+      <c r="B83" s="14"/>
+      <c r="H83" s="2" t="str">
+        <f>_xlfn.CONCAT(H78,"FinalPct")</f>
         <v>GP_HitFinalPct</v>
       </c>
-      <c r="I78" s="2" t="str">
-        <f>_xlfn.CONCAT(I73,"FinalPct")</f>
+      <c r="I83" s="2" t="str">
+        <f>_xlfn.CONCAT(I78,"FinalPct")</f>
         <v>HitFinalPct</v>
       </c>
-      <c r="J78" s="2">
-        <f>J73*10+5</f>
+      <c r="J83" s="2">
+        <f>J78*10+5</f>
         <v>11075</v>
       </c>
-      <c r="K78" s="31" t="str">
-        <f>_xlfn.CONCAT(K73,"最终百分比")</f>
+      <c r="K83" s="24" t="str">
+        <f>_xlfn.CONCAT(K78,"最终百分比")</f>
         <v>命中最终百分比</v>
       </c>
     </row>
-    <row r="79" spans="2:11">
-      <c r="B79" s="24"/>
-      <c r="H79" s="2" t="s">
+    <row r="84" spans="2:11">
+      <c r="B84" s="14"/>
+      <c r="H84" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J84" s="2">
         <v>1108</v>
       </c>
-      <c r="K79" s="31" t="s">
+      <c r="K84" s="24" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
-      <c r="B80" s="24"/>
-      <c r="H80" s="2" t="str">
-        <f>(_xlfn.CONCAT(H79,"Base"))</f>
+    <row r="85" spans="2:11">
+      <c r="B85" s="14"/>
+      <c r="H85" s="2" t="str">
+        <f>(_xlfn.CONCAT(H84,"Base"))</f>
         <v>GP_CritBase</v>
       </c>
-      <c r="I80" s="2" t="str">
-        <f>_xlfn.CONCAT(I79,"Base")</f>
+      <c r="I85" s="2" t="str">
+        <f>_xlfn.CONCAT(I84,"Base")</f>
         <v>CritBase</v>
       </c>
-      <c r="J80" s="2">
-        <f>J79*10+1</f>
+      <c r="J85" s="2">
+        <f>J84*10+1</f>
         <v>11081</v>
       </c>
-      <c r="K80" s="31" t="str">
-        <f>_xlfn.CONCAT(K79,"基础值")</f>
+      <c r="K85" s="24" t="str">
+        <f>_xlfn.CONCAT(K84,"基础值")</f>
         <v>暴击基础值</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
-      <c r="B81" s="24"/>
-      <c r="H81" s="2" t="str">
-        <f>_xlfn.CONCAT(H79,"Add")</f>
+    <row r="86" spans="2:11">
+      <c r="B86" s="14"/>
+      <c r="H86" s="2" t="str">
+        <f>_xlfn.CONCAT(H84,"Add")</f>
         <v>GP_CritAdd</v>
       </c>
-      <c r="I81" s="2" t="str">
-        <f>_xlfn.CONCAT(I79,"Add")</f>
+      <c r="I86" s="2" t="str">
+        <f>_xlfn.CONCAT(I84,"Add")</f>
         <v>CritAdd</v>
       </c>
-      <c r="J81" s="2">
-        <f>J79*10+2</f>
+      <c r="J86" s="2">
+        <f>J84*10+2</f>
         <v>11082</v>
       </c>
-      <c r="K81" s="31" t="str">
-        <f>_xlfn.CONCAT(K79,"附加值")</f>
+      <c r="K86" s="24" t="str">
+        <f>_xlfn.CONCAT(K84,"附加值")</f>
         <v>暴击附加值</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
-      <c r="B82" s="24"/>
-      <c r="H82" s="2" t="str">
-        <f>_xlfn.CONCAT(H79,"Pct")</f>
+    <row r="87" spans="2:11">
+      <c r="B87" s="14"/>
+      <c r="H87" s="2" t="str">
+        <f>_xlfn.CONCAT(H84,"Pct")</f>
         <v>GP_CritPct</v>
       </c>
-      <c r="I82" s="2" t="str">
-        <f>_xlfn.CONCAT(I79,"Pct")</f>
+      <c r="I87" s="2" t="str">
+        <f>_xlfn.CONCAT(I84,"Pct")</f>
         <v>CritPct</v>
       </c>
-      <c r="J82" s="2">
-        <f>J79*10+3</f>
+      <c r="J87" s="2">
+        <f>J84*10+3</f>
         <v>11083</v>
       </c>
-      <c r="K82" s="31" t="str">
-        <f>_xlfn.CONCAT(K79,"百分比")</f>
+      <c r="K87" s="24" t="str">
+        <f>_xlfn.CONCAT(K84,"百分比")</f>
         <v>暴击百分比</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
-      <c r="B83" s="24"/>
-      <c r="H83" s="2" t="str">
-        <f>_xlfn.CONCAT(H79,"FinalAdd")</f>
+    <row r="88" spans="2:11">
+      <c r="B88" s="14"/>
+      <c r="H88" s="2" t="str">
+        <f>_xlfn.CONCAT(H84,"FinalAdd")</f>
         <v>GP_CritFinalAdd</v>
       </c>
-      <c r="I83" s="2" t="str">
-        <f>_xlfn.CONCAT(I79,"FinalAdd")</f>
+      <c r="I88" s="2" t="str">
+        <f>_xlfn.CONCAT(I84,"FinalAdd")</f>
         <v>CritFinalAdd</v>
       </c>
-      <c r="J83" s="2">
-        <f>J79*10+4</f>
+      <c r="J88" s="2">
+        <f>J84*10+4</f>
         <v>11084</v>
       </c>
-      <c r="K83" s="31" t="str">
-        <f>_xlfn.CONCAT(K79,"最终附加值")</f>
+      <c r="K88" s="24" t="str">
+        <f>_xlfn.CONCAT(K84,"最终附加值")</f>
         <v>暴击最终附加值</v>
       </c>
     </row>
-    <row r="84" spans="2:11">
-      <c r="B84" s="25"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="12" t="str">
-        <f>_xlfn.CONCAT(H79,"FinalPct")</f>
+    <row r="89" spans="2:11">
+      <c r="B89" s="17"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="12" t="str">
+        <f>_xlfn.CONCAT(H84,"FinalPct")</f>
         <v>GP_CritFinalPct</v>
       </c>
-      <c r="I84" s="12" t="str">
-        <f>_xlfn.CONCAT(I79,"FinalPct")</f>
+      <c r="I89" s="12" t="str">
+        <f>_xlfn.CONCAT(I84,"FinalPct")</f>
         <v>CritFinalPct</v>
       </c>
-      <c r="J84" s="12">
-        <f>J79*10+5</f>
+      <c r="J89" s="12">
+        <f>J84*10+5</f>
         <v>11085</v>
       </c>
-      <c r="K84" s="33" t="str">
-        <f>_xlfn.CONCAT(K79,"最终百分比")</f>
+      <c r="K89" s="25" t="str">
+        <f>_xlfn.CONCAT(K84,"最终百分比")</f>
         <v>暴击最终百分比</v>
       </c>
     </row>
-    <row r="86" spans="2:11">
-      <c r="B86" s="23" t="s">
+    <row r="91" spans="2:11">
+      <c r="B91" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="8" t="s">
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8">
+      <c r="I91" s="8"/>
+      <c r="J91" s="8">
         <v>0</v>
       </c>
-      <c r="K86" s="30"/>
-    </row>
-    <row r="87" spans="2:11">
-      <c r="B87" s="24"/>
-      <c r="H87" s="2" t="s">
+      <c r="K91" s="23"/>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="B92" s="14"/>
+      <c r="H92" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J92" s="2">
         <v>1</v>
       </c>
-      <c r="K87" s="31" t="s">
+      <c r="K92" s="24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="2:11">
-      <c r="B88" s="24"/>
-      <c r="H88" s="2" t="s">
+    <row r="93" spans="2:11">
+      <c r="B93" s="14"/>
+      <c r="H93" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J93" s="2">
         <v>2</v>
       </c>
-      <c r="K88" s="31" t="s">
+      <c r="K93" s="24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="2:11">
-      <c r="B89" s="24"/>
-      <c r="H89" s="2" t="s">
+    <row r="94" spans="2:11">
+      <c r="B94" s="14"/>
+      <c r="H94" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J94" s="2">
         <v>3</v>
       </c>
-      <c r="K89" s="31" t="s">
+      <c r="K94" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="2:11">
-      <c r="B90" s="24"/>
-      <c r="H90" s="2" t="s">
+    <row r="95" spans="2:11">
+      <c r="B95" s="14"/>
+      <c r="H95" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J95" s="2">
         <v>4</v>
       </c>
-      <c r="K90" s="31" t="s">
+      <c r="K95" s="24" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="2:11">
-      <c r="B91" s="24"/>
-      <c r="H91" s="2" t="s">
+    <row r="96" spans="2:11">
+      <c r="B96" s="14"/>
+      <c r="H96" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J91" s="2">
+      <c r="J96" s="2">
         <v>5</v>
       </c>
-      <c r="K91" s="31" t="s">
+      <c r="K96" s="24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="2:11">
-      <c r="B92" s="24"/>
-      <c r="H92" s="2" t="s">
+    <row r="97" spans="2:11">
+      <c r="B97" s="14"/>
+      <c r="H97" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J92" s="2">
+      <c r="J97" s="2">
         <v>6</v>
       </c>
-      <c r="K92" s="31" t="s">
+      <c r="K97" s="24" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="2:11">
-      <c r="B93" s="24"/>
-      <c r="H93" s="2" t="s">
+    <row r="98" spans="2:11">
+      <c r="B98" s="14"/>
+      <c r="H98" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J98" s="2">
         <v>7</v>
       </c>
-      <c r="K93" s="31" t="s">
+      <c r="K98" s="24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="2:11">
-      <c r="B94" s="24"/>
-      <c r="H94" s="2" t="s">
+    <row r="99" spans="2:11">
+      <c r="B99" s="14"/>
+      <c r="H99" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="I99" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J99" s="2">
         <v>8</v>
       </c>
-      <c r="K94" s="31" t="s">
+      <c r="K99" s="24" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="2:11">
-      <c r="B95" s="25"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="12" t="s">
+    <row r="100" spans="2:11">
+      <c r="B100" s="17"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="I95" s="12" t="s">
+      <c r="I100" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="J95" s="12">
+      <c r="J100" s="12">
         <v>9</v>
       </c>
-      <c r="K95" s="33" t="s">
+      <c r="K100" s="25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="2:11">
-      <c r="B97" s="23" t="s">
+    <row r="102" spans="2:11">
+      <c r="B102" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="8" t="s">
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I97" s="8" t="s">
+      <c r="I102" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="J97" s="8">
+      <c r="J102" s="8">
         <v>1</v>
       </c>
-      <c r="K97" s="30" t="s">
+      <c r="K102" s="23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
-      <c r="B98" s="25"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I98" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="J98" s="12">
-        <v>2</v>
-      </c>
-      <c r="K98" s="33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11">
-      <c r="B100" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="I100" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="J100" s="8">
-        <v>1</v>
-      </c>
-      <c r="K100" s="30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11">
-      <c r="B101" s="24"/>
-      <c r="H101" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J101" s="2">
-        <v>2</v>
-      </c>
-      <c r="K101" s="31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11">
-      <c r="B102" s="24"/>
-      <c r="H102" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J102" s="2">
-        <v>3</v>
-      </c>
-      <c r="K102" s="31" t="s">
-        <v>179</v>
-      </c>
-    </row>
     <row r="103" spans="2:11">
-      <c r="B103" s="25"/>
+      <c r="B103" s="17"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
       <c r="H103" s="12" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J103" s="12">
-        <v>4</v>
-      </c>
-      <c r="K103" s="33" t="s">
-        <v>182</v>
+        <v>2</v>
+      </c>
+      <c r="K103" s="25" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="2:11">
-      <c r="B105" s="23" t="s">
-        <v>183</v>
+      <c r="B105" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
-      <c r="H105" s="7" t="s">
-        <v>184</v>
+      <c r="H105" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="J105" s="8">
         <v>1</v>
       </c>
-      <c r="K105" s="30" t="s">
+      <c r="K105" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="14"/>
+      <c r="H106" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J106" s="2">
+        <v>2</v>
+      </c>
+      <c r="K106" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="14"/>
+      <c r="H107" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J107" s="2">
+        <v>3</v>
+      </c>
+      <c r="K107" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="17"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J108" s="12">
+        <v>4</v>
+      </c>
+      <c r="K108" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I110" s="8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="106" spans="2:11">
-      <c r="B106" s="24"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17" t="s">
+      <c r="J110" s="8">
+        <v>1</v>
+      </c>
+      <c r="K110" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="14"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="I106" s="18" t="s">
+      <c r="I111" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="J106" s="18">
+      <c r="J111" s="16">
         <v>2</v>
       </c>
-      <c r="K106" s="31" t="s">
+      <c r="K111" s="24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
-      <c r="B107" s="24"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17" t="s">
+    <row r="112" spans="2:11">
+      <c r="B112" s="14"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="I107" s="18" t="s">
+      <c r="I112" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="J107" s="18">
+      <c r="J112" s="16">
         <v>3</v>
       </c>
-      <c r="K107" s="31" t="s">
+      <c r="K112" s="24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
-      <c r="B108" s="24"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17" t="s">
+    <row r="113" spans="2:11">
+      <c r="B113" s="14"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="I108" s="18" t="s">
+      <c r="I113" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="J108" s="18">
+      <c r="J113" s="16">
         <v>4</v>
       </c>
-      <c r="K108" s="31" t="s">
+      <c r="K113" s="24" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
-      <c r="B109" s="25"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="I109" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="J109" s="12">
-        <v>5</v>
-      </c>
-      <c r="K109" s="33" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11">
-      <c r="B111" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="I111" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="J111" s="8">
-        <v>1</v>
-      </c>
-      <c r="K111" s="30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11">
-      <c r="B112" s="24"/>
-      <c r="H112" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J112" s="2">
-        <v>2</v>
-      </c>
-      <c r="K112" s="31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11">
-      <c r="B113" s="24"/>
-      <c r="H113" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="J113" s="2">
-        <v>3</v>
-      </c>
-      <c r="K113" s="31" t="s">
-        <v>200</v>
-      </c>
-    </row>
     <row r="114" spans="2:11">
-      <c r="B114" s="25"/>
+      <c r="B114" s="17"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
       <c r="H114" s="12" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="I114" s="12" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="J114" s="12">
-        <v>4</v>
-      </c>
-      <c r="K114" s="33" t="s">
-        <v>202</v>
+        <v>5</v>
+      </c>
+      <c r="K114" s="25" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="2:11">
-      <c r="B116" s="23" t="s">
-        <v>203</v>
+      <c r="B116" s="13" t="s">
+        <v>194</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4065,492 +4064,476 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="8" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J116" s="8">
         <v>1</v>
       </c>
-      <c r="K116" s="30" t="s">
-        <v>205</v>
+      <c r="K116" s="23" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="2:11">
-      <c r="B117" s="24"/>
+      <c r="B117" s="14"/>
       <c r="H117" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="J117" s="2">
         <v>2</v>
       </c>
-      <c r="K117" s="31" t="s">
+      <c r="K117" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="14"/>
+      <c r="H118" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J118" s="2">
+        <v>3</v>
+      </c>
+      <c r="K118" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119" s="17"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="J119" s="12">
+        <v>4</v>
+      </c>
+      <c r="K119" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J121" s="8">
+        <v>1</v>
+      </c>
+      <c r="K121" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="14"/>
+      <c r="H122" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I122" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="118" spans="2:11">
-      <c r="B118" s="25"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="12" t="s">
+      <c r="J122" s="2">
+        <v>2</v>
+      </c>
+      <c r="K122" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11">
+      <c r="B123" s="17"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="I118" s="12" t="s">
+      <c r="I123" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="J118" s="12">
+      <c r="J123" s="12">
         <v>3</v>
       </c>
-      <c r="K118" s="33" t="s">
+      <c r="K123" s="25" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="120" spans="2:11">
-      <c r="B120" s="23" t="s">
+    <row r="125" spans="2:11">
+      <c r="B125" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C120" s="7" t="b">
+      <c r="C125" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="8" t="s">
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="I120" s="8" t="s">
+      <c r="I125" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="J120" s="8">
+      <c r="J125" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K120" s="30" t="s">
+      <c r="K125" s="23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="121" spans="2:11">
-      <c r="B121" s="24"/>
-      <c r="H121" s="2" t="s">
+    <row r="126" spans="2:11">
+      <c r="B126" s="14"/>
+      <c r="H126" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J121" s="2">
+      <c r="J126" s="2">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K121" s="31" t="s">
+      <c r="K126" s="24" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="122" spans="2:11">
-      <c r="B122" s="24"/>
-      <c r="H122" s="2" t="s">
+    <row r="127" spans="2:11">
+      <c r="B127" s="14"/>
+      <c r="H127" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="J122" s="2">
+      <c r="J127" s="2">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K122" s="31" t="s">
+      <c r="K127" s="24" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="123" spans="2:11">
-      <c r="B123" s="24"/>
-      <c r="H123" s="2" t="s">
+    <row r="128" spans="2:11">
+      <c r="B128" s="14"/>
+      <c r="H128" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="I128" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J123" s="2">
+      <c r="J128" s="2">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K123" s="31" t="s">
+      <c r="K128" s="24" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="124" spans="2:11">
-      <c r="B124" s="24"/>
-      <c r="H124" s="2" t="s">
+    <row r="129" spans="2:11">
+      <c r="B129" s="14"/>
+      <c r="H129" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="I129" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J124" s="2">
+      <c r="J129" s="2">
         <f>POWER(2,4)</f>
         <v>16</v>
       </c>
-      <c r="K124" s="31" t="s">
+      <c r="K129" s="24" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="125" spans="2:11">
-      <c r="B125" s="24"/>
-      <c r="H125" s="2" t="s">
+    <row r="130" spans="2:11">
+      <c r="B130" s="14"/>
+      <c r="H130" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="J125" s="2">
+      <c r="J130" s="2">
         <f>POWER(2,5)</f>
         <v>32</v>
       </c>
-      <c r="K125" s="31" t="s">
+      <c r="K130" s="24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="126" spans="2:11">
-      <c r="B126" s="24"/>
-      <c r="H126" s="2" t="s">
+    <row r="131" spans="2:11">
+      <c r="B131" s="14"/>
+      <c r="H131" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="I126" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J126" s="2">
+      <c r="J131" s="2">
         <f>POWER(2,6)</f>
         <v>64</v>
       </c>
-      <c r="K126" s="31" t="s">
+      <c r="K131" s="24" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="127" spans="2:11">
-      <c r="B127" s="24"/>
-      <c r="H127" s="2" t="s">
+    <row r="132" spans="2:11">
+      <c r="B132" s="14"/>
+      <c r="H132" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I127" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J127" s="2">
+      <c r="J132" s="2">
         <f>POWER(2,7)</f>
         <v>128</v>
       </c>
-      <c r="K127" s="31" t="s">
+      <c r="K132" s="24" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="128" spans="2:11">
-      <c r="B128" s="24"/>
-      <c r="H128" s="2" t="s">
+    <row r="133" spans="2:11">
+      <c r="B133" s="14"/>
+      <c r="H133" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="I133" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="J128" s="2">
+      <c r="J133" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K128" s="31" t="s">
+      <c r="K133" s="24" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="129" spans="2:11">
-      <c r="B129" s="25"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="12" t="s">
+    <row r="134" spans="2:11">
+      <c r="B134" s="17"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="I129" s="12" t="s">
+      <c r="I134" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="J129" s="12">
+      <c r="J134" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K129" s="33" t="s">
+      <c r="K134" s="25" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="2:11">
-      <c r="B131" s="23" t="s">
+    <row r="136" spans="2:11">
+      <c r="B136" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C131" s="7" t="b">
+      <c r="C136" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="8" t="s">
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="I131" s="8" t="s">
+      <c r="I136" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="J131" s="8">
+      <c r="J136" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K131" s="30" t="s">
+      <c r="K136" s="23" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="132" spans="2:11">
-      <c r="B132" s="24"/>
-      <c r="H132" s="2" t="s">
+    <row r="137" spans="2:11">
+      <c r="B137" s="14"/>
+      <c r="H137" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="I132" s="2" t="s">
+      <c r="I137" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J132" s="2">
+      <c r="J137" s="2">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K132" s="31" t="s">
+      <c r="K137" s="24" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="2:11">
-      <c r="B133" s="24"/>
-      <c r="H133" s="2" t="s">
+    <row r="138" spans="2:11">
+      <c r="B138" s="14"/>
+      <c r="H138" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="I133" s="2" t="s">
+      <c r="I138" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="J133" s="2">
+      <c r="J138" s="2">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K133" s="31" t="s">
+      <c r="K138" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="134" spans="2:11">
-      <c r="B134" s="24"/>
-      <c r="H134" s="2" t="s">
+    <row r="139" spans="2:11">
+      <c r="B139" s="14"/>
+      <c r="H139" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I134" s="2" t="s">
+      <c r="I139" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="J134" s="2">
+      <c r="J139" s="2">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K134" s="31" t="s">
+      <c r="K139" s="24" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="135" spans="2:11">
-      <c r="B135" s="24"/>
-      <c r="H135" s="2" t="s">
+    <row r="140" spans="2:11">
+      <c r="B140" s="14"/>
+      <c r="H140" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I135" s="2" t="s">
+      <c r="I140" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="J135" s="2">
+      <c r="J140" s="2">
         <f>POWER(2,4)</f>
         <v>16</v>
       </c>
-      <c r="K135" s="31" t="s">
+      <c r="K140" s="24" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="136" spans="2:11">
-      <c r="B136" s="24"/>
-      <c r="H136" s="2" t="s">
+    <row r="141" spans="2:11">
+      <c r="B141" s="14"/>
+      <c r="H141" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="I141" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J136" s="2">
+      <c r="J141" s="2">
         <f>POWER(2,5)</f>
         <v>32</v>
       </c>
-      <c r="K136" s="31" t="s">
+      <c r="K141" s="24" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="137" spans="2:11">
-      <c r="B137" s="24"/>
-      <c r="H137" s="2" t="s">
+    <row r="142" spans="2:11">
+      <c r="B142" s="14"/>
+      <c r="H142" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I137" s="2" t="s">
+      <c r="I142" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="J137" s="2">
+      <c r="J142" s="2">
         <f>POWER(2,6)</f>
         <v>64</v>
       </c>
-      <c r="K137" s="31" t="s">
+      <c r="K142" s="24" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="138" spans="2:11">
-      <c r="B138" s="24"/>
-      <c r="H138" s="2" t="s">
+    <row r="143" spans="2:11">
+      <c r="B143" s="14"/>
+      <c r="H143" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="I138" s="2" t="s">
+      <c r="I143" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J138" s="2">
+      <c r="J143" s="2">
         <f>POWER(2,7)</f>
         <v>128</v>
       </c>
-      <c r="K138" s="31" t="s">
+      <c r="K143" s="24" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="139" spans="2:11">
-      <c r="B139" s="24"/>
-      <c r="H139" s="2" t="s">
+    <row r="144" spans="2:11">
+      <c r="B144" s="14"/>
+      <c r="H144" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I139" s="2" t="s">
+      <c r="I144" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J139" s="2">
+      <c r="J144" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K139" s="31" t="s">
+      <c r="K144" s="24" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="2:11">
-      <c r="B140" s="25"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="I140" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="J140" s="12">
-        <f>POWER(2,9)</f>
-        <v>512</v>
-      </c>
-      <c r="K140" s="33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11">
-      <c r="B142" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="C142" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="I142" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="J142" s="8">
-        <f>POWER(2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K142" s="30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11">
-      <c r="B143" s="24"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="I143" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="J143" s="18">
-        <f>POWER(2,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K143" s="31" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11">
-      <c r="B144" s="24"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="I144" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="J144" s="18">
-        <f>POWER(2,2)</f>
-        <v>4</v>
-      </c>
-      <c r="K144" s="31" t="s">
-        <v>258</v>
-      </c>
-    </row>
     <row r="145" spans="2:11">
-      <c r="B145" s="25"/>
+      <c r="B145" s="17"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
       <c r="H145" s="12" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J145" s="12">
-        <f>POWER(2,3)</f>
-        <v>8</v>
-      </c>
-      <c r="K145" s="33" t="s">
-        <v>260</v>
+        <f>POWER(2,9)</f>
+        <v>512</v>
+      </c>
+      <c r="K145" s="25" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="147" spans="2:11">
-      <c r="B147" s="23" t="s">
-        <v>261</v>
+      <c r="B147" s="13" t="s">
+        <v>252</v>
       </c>
       <c r="C147" s="7" t="b">
         <v>1</v>
@@ -4560,71 +4543,85 @@
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="8" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="J147" s="8">
+        <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K147" s="30" t="s">
-        <v>263</v>
+      <c r="K147" s="23" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="148" spans="2:11">
-      <c r="B148" s="24"/>
-      <c r="H148" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="J148" s="2">
+      <c r="B148" s="14"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="I148" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="J148" s="16">
+        <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K148" s="31" t="s">
-        <v>265</v>
+      <c r="K148" s="24" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="149" spans="2:11">
-      <c r="B149" s="24"/>
-      <c r="H149" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="J149" s="2">
-        <v>3</v>
-      </c>
-      <c r="K149" s="31" t="s">
-        <v>267</v>
+      <c r="B149" s="14"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="I149" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="J149" s="16">
+        <f>POWER(2,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K149" s="24" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="150" spans="2:11">
-      <c r="B150" s="25"/>
+      <c r="B150" s="17"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
       <c r="H150" s="12" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="I150" s="12" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="J150" s="12">
-        <v>4</v>
-      </c>
-      <c r="K150" s="33" t="s">
-        <v>269</v>
+        <f>POWER(2,3)</f>
+        <v>8</v>
+      </c>
+      <c r="K150" s="25" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="152" spans="2:11">
-      <c r="B152" s="23" t="s">
-        <v>270</v>
+      <c r="B152" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="C152" s="7" t="b">
         <v>1</v>
@@ -4634,115 +4631,115 @@
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="8" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="J152" s="8">
         <v>1</v>
       </c>
-      <c r="K152" s="30" t="s">
+      <c r="K152" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11">
+      <c r="B153" s="14"/>
+      <c r="H153" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J153" s="2">
+        <v>2</v>
+      </c>
+      <c r="K153" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11">
+      <c r="B154" s="14"/>
+      <c r="H154" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J154" s="2">
+        <v>3</v>
+      </c>
+      <c r="K154" s="24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11">
+      <c r="B155" s="17"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="J155" s="12">
+        <v>4</v>
+      </c>
+      <c r="K155" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11">
+      <c r="B157" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C157" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I157" s="8" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="153" spans="2:11">
-      <c r="B153" s="25"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="I153" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="J153" s="12">
-        <v>2</v>
-      </c>
-      <c r="K153" s="33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11">
-      <c r="B155" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="C155" s="7" t="b">
+      <c r="J157" s="8">
         <v>1</v>
       </c>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="I155" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="J155" s="8">
-        <v>1</v>
-      </c>
-      <c r="K155" s="30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11">
-      <c r="B156" s="24"/>
-      <c r="H156" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="J156" s="2">
-        <v>2</v>
-      </c>
-      <c r="K156" s="31" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="157" spans="2:11">
-      <c r="B157" s="24"/>
-      <c r="H157" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="J157" s="2">
-        <v>3</v>
-      </c>
-      <c r="K157" s="31" t="s">
-        <v>281</v>
+      <c r="K157" s="23" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="158" spans="2:11">
-      <c r="B158" s="25"/>
+      <c r="B158" s="17"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
       <c r="H158" s="12" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="J158" s="12">
-        <v>4</v>
-      </c>
-      <c r="K158" s="33" t="s">
-        <v>283</v>
+        <v>2</v>
+      </c>
+      <c r="K158" s="25" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="160" spans="2:11">
-      <c r="B160" s="34" t="s">
-        <v>284</v>
+      <c r="B160" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="C160" s="7" t="b">
         <v>1</v>
@@ -4752,416 +4749,490 @@
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="8" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>69</v>
+        <v>277</v>
       </c>
       <c r="J160" s="8">
         <v>1</v>
       </c>
-      <c r="K160" s="30" t="s">
-        <v>69</v>
+      <c r="K160" s="23" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="161" spans="2:11">
-      <c r="B161" s="35"/>
+      <c r="B161" s="14"/>
       <c r="H161" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="J161" s="2">
         <v>2</v>
       </c>
-      <c r="K161" s="31" t="s">
-        <v>287</v>
+      <c r="K161" s="24" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="162" spans="2:11">
-      <c r="B162" s="35"/>
+      <c r="B162" s="14"/>
       <c r="H162" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J162" s="2">
         <v>3</v>
       </c>
-      <c r="K162" s="31" t="s">
+      <c r="K162" s="24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11">
+      <c r="B163" s="17"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="J163" s="12">
+        <v>4</v>
+      </c>
+      <c r="K163" s="25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11">
+      <c r="B165" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C165" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J165" s="8">
+        <v>1</v>
+      </c>
+      <c r="K165" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11">
+      <c r="B166" s="27"/>
+      <c r="H166" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J166" s="2">
+        <v>2</v>
+      </c>
+      <c r="K166" s="24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11">
+      <c r="B167" s="27"/>
+      <c r="H167" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I167" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="163" spans="2:11">
-      <c r="B163" s="35"/>
-      <c r="H163" s="2" t="s">
+      <c r="J167" s="2">
+        <v>3</v>
+      </c>
+      <c r="K167" s="24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11">
+      <c r="B168" s="27"/>
+      <c r="H168" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="I163" s="2" t="s">
+      <c r="I168" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="J163" s="2">
+      <c r="J168" s="2">
         <v>4</v>
       </c>
-      <c r="K163" s="31" t="s">
+      <c r="K168" s="24" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="164" spans="2:11">
-      <c r="B164" s="35"/>
-      <c r="H164" s="2" t="s">
+    <row r="169" spans="2:11">
+      <c r="B169" s="27"/>
+      <c r="H169" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="I164" s="2" t="s">
+      <c r="I169" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="J164" s="2">
+      <c r="J169" s="2">
         <v>5</v>
       </c>
-      <c r="K164" s="31" t="s">
+      <c r="K169" s="24" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="165" spans="2:11">
-      <c r="B165" s="36"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="12" t="s">
+    <row r="170" spans="2:11">
+      <c r="B170" s="28"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="I165" s="12" t="s">
+      <c r="I170" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="J165" s="12">
+      <c r="J170" s="12">
         <v>6</v>
       </c>
-      <c r="K165" s="33" t="s">
+      <c r="K170" s="25" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="167" spans="2:11">
-      <c r="B167" s="1" t="s">
+    <row r="172" spans="2:11">
+      <c r="B172" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C167" s="1" t="b">
+      <c r="C172" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H167" s="2" t="s">
+      <c r="H172" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I167" s="2" t="s">
+      <c r="I172" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="J167" s="2">
+      <c r="J172" s="2">
         <v>1</v>
       </c>
-      <c r="K167" s="2" t="s">
+      <c r="K172" s="2" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="168" spans="8:11">
-      <c r="H168" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J168" s="2">
-        <v>2</v>
-      </c>
-      <c r="K168" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="170" spans="2:11">
-      <c r="B170" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C170" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J170" s="2">
-        <v>1</v>
-      </c>
-      <c r="K170" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="171" spans="8:11">
-      <c r="H171" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="I171" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="J171" s="2">
-        <v>2</v>
-      </c>
-      <c r="K171" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="172" spans="8:11">
-      <c r="H172" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="J172" s="2">
-        <v>3</v>
-      </c>
-      <c r="K172" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="173" spans="8:11">
       <c r="H173" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J173" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="176" spans="2:11">
-      <c r="B176" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C176" s="1" t="b">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11">
+      <c r="B175" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C175" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="H175" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J175" s="2">
+        <v>1</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="176" spans="8:11">
       <c r="H176" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="J176" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="177" spans="8:11">
       <c r="H177" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="J177" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="178" spans="8:11">
       <c r="H178" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="J178" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="179" spans="8:11">
-      <c r="H179" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="J179" s="2">
-        <v>4</v>
-      </c>
-      <c r="K179" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="180" spans="8:11">
-      <c r="H180" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I180" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="J180" s="2">
-        <v>5</v>
-      </c>
-      <c r="K180" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="181" spans="8:11">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11">
+      <c r="B181" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C181" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="H181" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="J181" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="182" spans="8:11">
       <c r="H182" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="J182" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="8:11">
       <c r="H183" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="J183" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="185" spans="2:11">
-      <c r="B185" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C185" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="184" spans="8:11">
+      <c r="H184" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="J184" s="2">
+        <v>4</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="185" spans="8:11">
       <c r="H185" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="J185" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="186" spans="8:11">
       <c r="H186" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="J186" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="187" spans="8:11">
       <c r="H187" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="J187" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="188" spans="8:11">
+      <c r="H188" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J188" s="2">
+        <v>8</v>
+      </c>
+      <c r="K188" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="190" spans="2:11">
       <c r="B190" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
+      </c>
+      <c r="C190" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="J190" s="2">
         <v>1</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="191" spans="8:11">
       <c r="H191" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="J191" s="2">
         <v>2</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="192" spans="8:11">
       <c r="H192" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="J192" s="2">
         <v>3</v>
       </c>
       <c r="K192" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11">
+      <c r="B195" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J195" s="2">
+        <v>1</v>
+      </c>
+      <c r="K195" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="196" spans="8:11">
+      <c r="H196" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J196" s="2">
+        <v>2</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="197" spans="8:11">
+      <c r="H197" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I197" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="193" spans="8:11">
-      <c r="H193" s="2" t="s">
+      <c r="J197" s="2">
+        <v>3</v>
+      </c>
+      <c r="K197" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="198" spans="8:11">
+      <c r="H198" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="I193" s="2" t="s">
+      <c r="I198" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="J193" s="2">
+      <c r="J198" s="2">
         <v>4</v>
       </c>
-      <c r="K193" s="2" t="s">
+      <c r="K198" s="2" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5175,20 +5246,20 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B32:B38"/>
     <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B47:B84"/>
-    <mergeCell ref="B86:B95"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B120:B129"/>
-    <mergeCell ref="B131:B140"/>
-    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="B47:B89"/>
+    <mergeCell ref="B91:B100"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="B125:B134"/>
+    <mergeCell ref="B136:B145"/>
     <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B160:B165"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="B165:B170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="349">
   <si>
     <t>##var</t>
   </si>
@@ -1008,6 +1008,24 @@
   </si>
   <si>
     <t>陷阱行为</t>
+  </si>
+  <si>
+    <t>ActionType_Treatment</t>
+  </si>
+  <si>
+    <t>治疗行为</t>
+  </si>
+  <si>
+    <t>ActionType_Relive</t>
+  </si>
+  <si>
+    <t>复活行为</t>
+  </si>
+  <si>
+    <t>ActionType_Disperse</t>
+  </si>
+  <si>
+    <t>驱散行为</t>
   </si>
   <si>
     <t>MessageNotifyType</t>
@@ -2196,10 +2214,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L198"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="B174" workbookViewId="0">
+      <selection activeCell="H191" sqref="H191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5129,100 +5147,100 @@
         <v>326</v>
       </c>
     </row>
-    <row r="190" spans="2:11">
-      <c r="B190" s="1" t="s">
+    <row r="189" spans="8:11">
+      <c r="H189" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C190" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="I189" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J189" s="2">
+        <v>9</v>
+      </c>
+      <c r="K189" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="190" spans="8:11">
       <c r="H190" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J190" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="191" spans="8:11">
       <c r="H191" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J191" s="2">
+        <v>11</v>
+      </c>
+      <c r="K191" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11">
+      <c r="B193" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C193" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J193" s="2">
+        <v>1</v>
+      </c>
+      <c r="K193" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="194" spans="8:11">
+      <c r="H194" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J194" s="2">
         <v>2</v>
       </c>
-      <c r="K191" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="192" spans="8:11">
-      <c r="H192" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="I192" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="J192" s="2">
+      <c r="K194" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="195" spans="8:11">
+      <c r="H195" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J195" s="2">
         <v>3</v>
       </c>
-      <c r="K192" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="195" spans="2:11">
-      <c r="B195" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H195" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="I195" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="J195" s="2">
-        <v>1</v>
-      </c>
       <c r="K195" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="196" spans="8:11">
-      <c r="H196" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="I196" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="J196" s="2">
-        <v>2</v>
-      </c>
-      <c r="K196" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="197" spans="8:11">
-      <c r="H197" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I197" s="2" t="s">
+    </row>
+    <row r="198" spans="2:11">
+      <c r="B198" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="J197" s="2">
-        <v>3</v>
-      </c>
-      <c r="K197" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="198" spans="8:11">
       <c r="H198" s="2" t="s">
         <v>341</v>
       </c>
@@ -5230,10 +5248,52 @@
         <v>342</v>
       </c>
       <c r="J198" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K198" s="2" t="s">
         <v>342</v>
+      </c>
+    </row>
+    <row r="199" spans="8:11">
+      <c r="H199" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J199" s="2">
+        <v>2</v>
+      </c>
+      <c r="K199" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="200" spans="8:11">
+      <c r="H200" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J200" s="2">
+        <v>3</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="201" spans="8:11">
+      <c r="H201" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J201" s="2">
+        <v>4</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="356">
   <si>
     <t>##var</t>
   </si>
@@ -1074,6 +1074,27 @@
   </si>
   <si>
     <t>自动任务</t>
+  </si>
+  <si>
+    <t>BuffProperty</t>
+  </si>
+  <si>
+    <t>BuffProperty_Magic</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>BuffProperty_Disease</t>
+  </si>
+  <si>
+    <t>疾病</t>
+  </si>
+  <si>
+    <t>BuffProperty_Curse</t>
+  </si>
+  <si>
+    <t>诅咒</t>
   </si>
 </sst>
 </file>
@@ -2214,10 +2235,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:L205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B174" workbookViewId="0">
-      <selection activeCell="H191" sqref="H191"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="I207" sqref="I207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5294,6 +5315,51 @@
       </c>
       <c r="K201" s="2" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11">
+      <c r="B203" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J203" s="2">
+        <v>1</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="204" spans="8:11">
+      <c r="H204" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J204" s="2">
+        <v>2</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="205" spans="8:11">
+      <c r="H205" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J205" s="2">
+        <v>3</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23265" windowHeight="10455"/>
+    <workbookView windowWidth="26205" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="358">
   <si>
     <t>##var</t>
   </si>
@@ -957,6 +957,12 @@
   </si>
   <si>
     <t>指定圆形范围</t>
+  </si>
+  <si>
+    <t>SelectTargetType_ForwardSector180</t>
+  </si>
+  <si>
+    <t>自身前方180度扇形</t>
   </si>
   <si>
     <t>ActionType</t>
@@ -2235,10 +2241,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L205"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="I207" sqref="I207"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="I181" sqref="I181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5050,27 +5056,27 @@
         <v>309</v>
       </c>
     </row>
-    <row r="181" spans="2:11">
-      <c r="B181" s="1" t="s">
+    <row r="179" spans="8:11">
+      <c r="H179" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C181" s="1" t="b">
+      <c r="I179" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J179" s="2">
+        <v>5</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11">
+      <c r="B182" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C182" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H181" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="I181" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="J181" s="2">
-        <v>1</v>
-      </c>
-      <c r="K181" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="182" spans="8:11">
       <c r="H182" s="2" t="s">
         <v>313</v>
       </c>
@@ -5078,7 +5084,7 @@
         <v>314</v>
       </c>
       <c r="J182" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K182" s="2" t="s">
         <v>314</v>
@@ -5092,7 +5098,7 @@
         <v>316</v>
       </c>
       <c r="J183" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K183" s="2" t="s">
         <v>316</v>
@@ -5106,7 +5112,7 @@
         <v>318</v>
       </c>
       <c r="J184" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K184" s="2" t="s">
         <v>318</v>
@@ -5120,7 +5126,7 @@
         <v>320</v>
       </c>
       <c r="J185" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K185" s="2" t="s">
         <v>320</v>
@@ -5134,7 +5140,7 @@
         <v>322</v>
       </c>
       <c r="J186" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K186" s="2" t="s">
         <v>322</v>
@@ -5148,7 +5154,7 @@
         <v>324</v>
       </c>
       <c r="J187" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K187" s="2" t="s">
         <v>324</v>
@@ -5162,7 +5168,7 @@
         <v>326</v>
       </c>
       <c r="J188" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K188" s="2" t="s">
         <v>326</v>
@@ -5176,7 +5182,7 @@
         <v>328</v>
       </c>
       <c r="J189" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K189" s="2" t="s">
         <v>328</v>
@@ -5190,7 +5196,7 @@
         <v>330</v>
       </c>
       <c r="J190" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K190" s="2" t="s">
         <v>330</v>
@@ -5204,33 +5210,33 @@
         <v>332</v>
       </c>
       <c r="J191" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K191" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="193" spans="2:11">
-      <c r="B193" s="1" t="s">
+    <row r="192" spans="8:11">
+      <c r="H192" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C193" s="1" t="b">
+      <c r="I192" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J192" s="2">
+        <v>11</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11">
+      <c r="B194" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C194" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H193" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="I193" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J193" s="2">
-        <v>1</v>
-      </c>
-      <c r="K193" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="194" spans="8:11">
       <c r="H194" s="2" t="s">
         <v>336</v>
       </c>
@@ -5238,7 +5244,7 @@
         <v>337</v>
       </c>
       <c r="J194" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K194" s="2" t="s">
         <v>337</v>
@@ -5252,30 +5258,30 @@
         <v>339</v>
       </c>
       <c r="J195" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K195" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="198" spans="2:11">
-      <c r="B198" s="1" t="s">
+    <row r="196" spans="8:11">
+      <c r="H196" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="H198" s="2" t="s">
+      <c r="I196" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="I198" s="2" t="s">
+      <c r="J196" s="2">
+        <v>3</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11">
+      <c r="B199" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="J198" s="2">
-        <v>1</v>
-      </c>
-      <c r="K198" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="199" spans="8:11">
       <c r="H199" s="2" t="s">
         <v>343</v>
       </c>
@@ -5283,7 +5289,7 @@
         <v>344</v>
       </c>
       <c r="J199" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K199" s="2" t="s">
         <v>344</v>
@@ -5297,7 +5303,7 @@
         <v>346</v>
       </c>
       <c r="J200" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K200" s="2" t="s">
         <v>346</v>
@@ -5311,30 +5317,30 @@
         <v>348</v>
       </c>
       <c r="J201" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K201" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="203" spans="2:11">
-      <c r="B203" s="1" t="s">
+    <row r="202" spans="8:11">
+      <c r="H202" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H203" s="2" t="s">
+      <c r="I202" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="I203" s="2" t="s">
+      <c r="J202" s="2">
+        <v>4</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11">
+      <c r="B204" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="J203" s="2">
-        <v>1</v>
-      </c>
-      <c r="K203" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="204" spans="8:11">
       <c r="H204" s="2" t="s">
         <v>352</v>
       </c>
@@ -5342,7 +5348,7 @@
         <v>353</v>
       </c>
       <c r="J204" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K204" s="2" t="s">
         <v>353</v>
@@ -5356,10 +5362,24 @@
         <v>355</v>
       </c>
       <c r="J205" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K205" s="2" t="s">
         <v>355</v>
+      </c>
+    </row>
+    <row r="206" spans="8:11">
+      <c r="H206" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J206" s="2">
+        <v>3</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26205" windowHeight="10455"/>
+    <workbookView windowWidth="25350" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="358">
   <si>
     <t>##var</t>
   </si>
@@ -374,9 +374,6 @@
     <t>GP_Silent</t>
   </si>
   <si>
-    <t>Silent</t>
-  </si>
-  <si>
     <t>沉默</t>
   </si>
   <si>
@@ -1101,6 +1098,9 @@
   </si>
   <si>
     <t>诅咒</t>
+  </si>
+  <si>
+    <t>BuffProperty_Normal</t>
   </si>
 </sst>
 </file>
@@ -2241,10 +2241,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L206"/>
+  <dimension ref="A1:L207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="I181" sqref="I181"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3069,37 +3069,37 @@
         <v>1006</v>
       </c>
       <c r="K51" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="14"/>
       <c r="H52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="J52" s="2">
         <v>1007</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="14"/>
       <c r="H53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="J53" s="2">
         <v>1008</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -3113,76 +3113,76 @@
     <row r="56" spans="2:11">
       <c r="B56" s="14"/>
       <c r="H56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="J56" s="2">
         <v>1101</v>
       </c>
       <c r="K56" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="14"/>
       <c r="H57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="J57" s="2">
         <v>1102</v>
       </c>
       <c r="K57" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="14"/>
       <c r="H58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="J58" s="2">
         <v>1103</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="14"/>
       <c r="H59" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="J59" s="2">
         <v>1104</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="14"/>
       <c r="H60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="J60" s="2">
         <v>1004</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="2:11">
@@ -3283,16 +3283,16 @@
     <row r="66" spans="2:11">
       <c r="B66" s="14"/>
       <c r="H66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="J66" s="2">
         <v>1105</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -3393,16 +3393,16 @@
     <row r="72" spans="2:11">
       <c r="B72" s="14"/>
       <c r="H72" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="J72" s="2">
         <v>1106</v>
       </c>
       <c r="K72" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -3503,16 +3503,16 @@
     <row r="78" spans="2:11">
       <c r="B78" s="14"/>
       <c r="H78" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="J78" s="2">
         <v>1107</v>
       </c>
       <c r="K78" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="2:11">
@@ -3613,16 +3613,16 @@
     <row r="84" spans="2:11">
       <c r="B84" s="14"/>
       <c r="H84" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I84" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="J84" s="2">
         <v>1108</v>
       </c>
       <c r="K84" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="2:11">
@@ -3727,7 +3727,7 @@
     </row>
     <row r="91" spans="2:11">
       <c r="B91" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3735,7 +3735,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8">
@@ -3746,121 +3746,121 @@
     <row r="92" spans="2:11">
       <c r="B92" s="14"/>
       <c r="H92" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="J92" s="2">
         <v>1</v>
       </c>
       <c r="K92" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="2:11">
       <c r="B93" s="14"/>
       <c r="H93" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I93" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="J93" s="2">
         <v>2</v>
       </c>
       <c r="K93" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="2:11">
       <c r="B94" s="14"/>
       <c r="H94" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I94" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="J94" s="2">
         <v>3</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="14"/>
       <c r="H95" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="J95" s="2">
         <v>4</v>
       </c>
       <c r="K95" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="2:11">
       <c r="B96" s="14"/>
       <c r="H96" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I96" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="J96" s="2">
         <v>5</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="14"/>
       <c r="H97" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I97" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="J97" s="2">
         <v>6</v>
       </c>
       <c r="K97" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="14"/>
       <c r="H98" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I98" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="J98" s="2">
         <v>7</v>
       </c>
       <c r="K98" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="14"/>
       <c r="H99" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="J99" s="2">
         <v>8</v>
       </c>
       <c r="K99" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="2:11">
@@ -3871,21 +3871,21 @@
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
       <c r="H100" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I100" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="J100" s="12">
         <v>9</v>
       </c>
       <c r="K100" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="2:11">
       <c r="B102" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3893,16 +3893,16 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I102" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="J102" s="8">
         <v>1</v>
       </c>
       <c r="K102" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="2:11">
@@ -3913,21 +3913,21 @@
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
       <c r="H103" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I103" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="I103" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="J103" s="12">
         <v>2</v>
       </c>
       <c r="K103" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="2:11">
       <c r="B105" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3935,46 +3935,46 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I105" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="J105" s="8">
         <v>1</v>
       </c>
       <c r="K105" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="2:11">
       <c r="B106" s="14"/>
       <c r="H106" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="J106" s="2">
         <v>2</v>
       </c>
       <c r="K106" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="107" spans="2:11">
       <c r="B107" s="14"/>
       <c r="H107" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I107" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="J107" s="2">
         <v>3</v>
       </c>
       <c r="K107" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="108" spans="2:11">
@@ -3985,21 +3985,21 @@
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
       <c r="H108" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="I108" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="I108" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="J108" s="12">
         <v>4</v>
       </c>
       <c r="K108" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="2:11">
       <c r="B110" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -4007,16 +4007,16 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I110" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="I110" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="J110" s="8">
         <v>1</v>
       </c>
       <c r="K110" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111" spans="2:11">
@@ -4027,16 +4027,16 @@
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
       <c r="H111" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I111" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="I111" s="16" t="s">
-        <v>187</v>
       </c>
       <c r="J111" s="16">
         <v>2</v>
       </c>
       <c r="K111" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="2:11">
@@ -4047,16 +4047,16 @@
       <c r="F112" s="15"/>
       <c r="G112" s="15"/>
       <c r="H112" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="I112" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="I112" s="16" t="s">
-        <v>189</v>
       </c>
       <c r="J112" s="16">
         <v>3</v>
       </c>
       <c r="K112" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113" spans="2:11">
@@ -4067,16 +4067,16 @@
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
       <c r="H113" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="I113" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="I113" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="J113" s="16">
         <v>4</v>
       </c>
       <c r="K113" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="2:11">
@@ -4087,21 +4087,21 @@
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
       <c r="H114" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="I114" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="I114" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="J114" s="12">
         <v>5</v>
       </c>
       <c r="K114" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="2:11">
       <c r="B116" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4109,46 +4109,46 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I116" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="I116" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="J116" s="8">
         <v>1</v>
       </c>
       <c r="K116" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="117" spans="2:11">
       <c r="B117" s="14"/>
       <c r="H117" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I117" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="J117" s="2">
         <v>2</v>
       </c>
       <c r="K117" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="118" spans="2:11">
       <c r="B118" s="14"/>
       <c r="H118" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="J118" s="2">
         <v>3</v>
       </c>
       <c r="K118" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="2:11">
@@ -4159,21 +4159,21 @@
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
       <c r="H119" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I119" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="I119" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="J119" s="12">
         <v>4</v>
       </c>
       <c r="K119" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="2:11">
       <c r="B121" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4181,31 +4181,31 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I121" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="I121" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="J121" s="8">
         <v>1</v>
       </c>
       <c r="K121" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="122" spans="2:11">
       <c r="B122" s="14"/>
       <c r="H122" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I122" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="J122" s="2">
         <v>2</v>
       </c>
       <c r="K122" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="2:11">
@@ -4216,21 +4216,21 @@
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
       <c r="H123" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="I123" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="I123" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="J123" s="12">
         <v>3</v>
       </c>
       <c r="K123" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="125" spans="2:11">
       <c r="B125" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C125" s="7" t="b">
         <v>1</v>
@@ -4240,145 +4240,145 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I125" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="I125" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="J125" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
       <c r="K125" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="2:11">
       <c r="B126" s="14"/>
       <c r="H126" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I126" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="J126" s="2">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
       <c r="K126" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="127" spans="2:11">
       <c r="B127" s="14"/>
       <c r="H127" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I127" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="J127" s="2">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
       <c r="K127" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="128" spans="2:11">
       <c r="B128" s="14"/>
       <c r="H128" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I128" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J128" s="2">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
       <c r="K128" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="129" spans="2:11">
       <c r="B129" s="14"/>
       <c r="H129" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I129" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="J129" s="2">
         <f>POWER(2,4)</f>
         <v>16</v>
       </c>
       <c r="K129" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="130" spans="2:11">
       <c r="B130" s="14"/>
       <c r="H130" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I130" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="J130" s="2">
         <f>POWER(2,5)</f>
         <v>32</v>
       </c>
       <c r="K130" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="131" spans="2:11">
       <c r="B131" s="14"/>
       <c r="H131" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I131" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="J131" s="2">
         <f>POWER(2,6)</f>
         <v>64</v>
       </c>
       <c r="K131" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="132" spans="2:11">
       <c r="B132" s="14"/>
       <c r="H132" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I132" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="J132" s="2">
         <f>POWER(2,7)</f>
         <v>128</v>
       </c>
       <c r="K132" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="133" spans="2:11">
       <c r="B133" s="14"/>
       <c r="H133" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="J133" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
       <c r="K133" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="134" spans="2:11">
@@ -4389,22 +4389,22 @@
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
       <c r="H134" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I134" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="I134" s="12" t="s">
-        <v>230</v>
       </c>
       <c r="J134" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
       <c r="K134" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C136" s="7" t="b">
         <v>1</v>
@@ -4414,145 +4414,145 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="I136" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="I136" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="J136" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
       <c r="K136" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="137" spans="2:11">
       <c r="B137" s="14"/>
       <c r="H137" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I137" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="J137" s="2">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
       <c r="K137" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="138" spans="2:11">
       <c r="B138" s="14"/>
       <c r="H138" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I138" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="J138" s="2">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
       <c r="K138" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="139" spans="2:11">
       <c r="B139" s="14"/>
       <c r="H139" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I139" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="J139" s="2">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
       <c r="K139" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="2:11">
       <c r="B140" s="14"/>
       <c r="H140" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I140" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="J140" s="2">
         <f>POWER(2,4)</f>
         <v>16</v>
       </c>
       <c r="K140" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="141" spans="2:11">
       <c r="B141" s="14"/>
       <c r="H141" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I141" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="J141" s="2">
         <f>POWER(2,5)</f>
         <v>32</v>
       </c>
       <c r="K141" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142" spans="2:11">
       <c r="B142" s="14"/>
       <c r="H142" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I142" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="J142" s="2">
         <f>POWER(2,6)</f>
         <v>64</v>
       </c>
       <c r="K142" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="143" spans="2:11">
       <c r="B143" s="14"/>
       <c r="H143" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="J143" s="2">
         <f>POWER(2,7)</f>
         <v>128</v>
       </c>
       <c r="K143" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="144" spans="2:11">
       <c r="B144" s="14"/>
       <c r="H144" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="J144" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
       <c r="K144" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="145" spans="2:11">
@@ -4563,22 +4563,22 @@
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
       <c r="H145" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I145" s="12" t="s">
         <v>250</v>
-      </c>
-      <c r="I145" s="12" t="s">
-        <v>251</v>
       </c>
       <c r="J145" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
       <c r="K145" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="147" spans="2:11">
       <c r="B147" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C147" s="7" t="b">
         <v>1</v>
@@ -4588,17 +4588,17 @@
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="I147" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="I147" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="J147" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
       <c r="K147" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="148" spans="2:11">
@@ -4609,17 +4609,17 @@
       <c r="F148" s="15"/>
       <c r="G148" s="15"/>
       <c r="H148" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="I148" s="16" t="s">
         <v>255</v>
-      </c>
-      <c r="I148" s="16" t="s">
-        <v>256</v>
       </c>
       <c r="J148" s="16">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
       <c r="K148" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="149" spans="2:11">
@@ -4630,17 +4630,17 @@
       <c r="F149" s="15"/>
       <c r="G149" s="15"/>
       <c r="H149" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="I149" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="I149" s="16" t="s">
-        <v>258</v>
       </c>
       <c r="J149" s="16">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
       <c r="K149" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="150" spans="2:11">
@@ -4651,22 +4651,22 @@
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
       <c r="H150" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="I150" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="I150" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="J150" s="12">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
       <c r="K150" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="152" spans="2:11">
       <c r="B152" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C152" s="7" t="b">
         <v>1</v>
@@ -4676,46 +4676,46 @@
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I152" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="I152" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="J152" s="8">
         <v>1</v>
       </c>
       <c r="K152" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="2:11">
       <c r="B153" s="14"/>
       <c r="H153" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I153" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="J153" s="2">
         <v>2</v>
       </c>
       <c r="K153" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="2:11">
       <c r="B154" s="14"/>
       <c r="H154" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I154" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="J154" s="2">
         <v>3</v>
       </c>
       <c r="K154" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" spans="2:11">
@@ -4726,21 +4726,21 @@
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
       <c r="H155" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="I155" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="I155" s="12" t="s">
-        <v>269</v>
       </c>
       <c r="J155" s="12">
         <v>4</v>
       </c>
       <c r="K155" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="157" spans="2:11">
       <c r="B157" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C157" s="7" t="b">
         <v>1</v>
@@ -4750,16 +4750,16 @@
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I157" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="I157" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="J157" s="8">
         <v>1</v>
       </c>
       <c r="K157" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="158" spans="2:11">
@@ -4770,21 +4770,21 @@
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
       <c r="H158" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I158" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="I158" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="J158" s="12">
         <v>2</v>
       </c>
       <c r="K158" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="160" spans="2:11">
       <c r="B160" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C160" s="7" t="b">
         <v>1</v>
@@ -4794,46 +4794,46 @@
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I160" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="I160" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="J160" s="8">
         <v>1</v>
       </c>
       <c r="K160" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="161" spans="2:11">
       <c r="B161" s="14"/>
       <c r="H161" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I161" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="J161" s="2">
         <v>2</v>
       </c>
       <c r="K161" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="162" spans="2:11">
       <c r="B162" s="14"/>
       <c r="H162" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I162" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="J162" s="2">
         <v>3</v>
       </c>
       <c r="K162" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="163" spans="2:11">
@@ -4844,21 +4844,21 @@
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
       <c r="H163" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="I163" s="12" t="s">
         <v>282</v>
-      </c>
-      <c r="I163" s="12" t="s">
-        <v>283</v>
       </c>
       <c r="J163" s="12">
         <v>4</v>
       </c>
       <c r="K163" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="165" spans="2:11">
       <c r="B165" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C165" s="7" t="b">
         <v>1</v>
@@ -4868,7 +4868,7 @@
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c r="H165" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I165" s="8" t="s">
         <v>69</v>
@@ -4883,61 +4883,61 @@
     <row r="166" spans="2:11">
       <c r="B166" s="27"/>
       <c r="H166" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I166" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="J166" s="2">
         <v>2</v>
       </c>
       <c r="K166" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="167" spans="2:11">
       <c r="B167" s="27"/>
       <c r="H167" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I167" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="I167" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="J167" s="2">
         <v>3</v>
       </c>
       <c r="K167" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="168" spans="2:11">
       <c r="B168" s="27"/>
       <c r="H168" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I168" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="J168" s="2">
         <v>4</v>
       </c>
       <c r="K168" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="169" spans="2:11">
       <c r="B169" s="27"/>
       <c r="H169" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I169" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="I169" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="J169" s="2">
         <v>5</v>
       </c>
       <c r="K169" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="170" spans="2:11">
@@ -4948,438 +4948,452 @@
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
       <c r="H170" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="I170" s="12" t="s">
         <v>294</v>
-      </c>
-      <c r="I170" s="12" t="s">
-        <v>295</v>
       </c>
       <c r="J170" s="12">
         <v>6</v>
       </c>
       <c r="K170" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="172" spans="2:11">
       <c r="B172" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C172" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H172" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I172" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="J172" s="2">
         <v>1</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="173" spans="8:11">
       <c r="H173" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I173" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="J173" s="2">
         <v>2</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="175" spans="2:11">
       <c r="B175" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C175" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H175" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I175" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="I175" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="J175" s="2">
         <v>1</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="176" spans="8:11">
       <c r="H176" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I176" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="I176" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="J176" s="2">
         <v>2</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="177" spans="8:11">
       <c r="H177" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I177" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="I177" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="J177" s="2">
         <v>3</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="178" spans="8:11">
       <c r="H178" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I178" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="I178" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="J178" s="2">
         <v>4</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="179" spans="8:11">
       <c r="H179" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I179" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="J179" s="2">
         <v>5</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="182" spans="2:11">
       <c r="B182" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C182" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H182" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I182" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="I182" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="J182" s="2">
         <v>1</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="183" spans="8:11">
       <c r="H183" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I183" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="I183" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="J183" s="2">
         <v>2</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="184" spans="8:11">
       <c r="H184" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I184" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="I184" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="J184" s="2">
         <v>3</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="185" spans="8:11">
       <c r="H185" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I185" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="I185" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="J185" s="2">
         <v>4</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="186" spans="8:11">
       <c r="H186" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I186" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="I186" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="J186" s="2">
         <v>5</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="187" spans="8:11">
       <c r="H187" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I187" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="I187" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="J187" s="2">
         <v>6</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="188" spans="8:11">
       <c r="H188" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I188" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="I188" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="J188" s="2">
         <v>7</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="189" spans="8:11">
       <c r="H189" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I189" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="I189" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="J189" s="2">
         <v>8</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="190" spans="8:11">
       <c r="H190" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I190" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="I190" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="J190" s="2">
         <v>9</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="191" spans="8:11">
       <c r="H191" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I191" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="I191" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="J191" s="2">
         <v>10</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="192" spans="8:11">
       <c r="H192" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I192" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="I192" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="J192" s="2">
         <v>11</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="194" spans="2:11">
       <c r="B194" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C194" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H194" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I194" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="J194" s="2">
         <v>1</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="195" spans="8:11">
       <c r="H195" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I195" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="I195" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="J195" s="2">
         <v>2</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="196" spans="8:11">
       <c r="H196" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I196" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="I196" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="J196" s="2">
         <v>3</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="199" spans="2:11">
       <c r="B199" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H199" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H199" s="2" t="s">
+      <c r="I199" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="I199" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="J199" s="2">
         <v>1</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="200" spans="8:11">
       <c r="H200" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I200" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="I200" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="J200" s="2">
         <v>2</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="201" spans="8:11">
       <c r="H201" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I201" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="I201" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="J201" s="2">
         <v>3</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="202" spans="8:11">
       <c r="H202" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I202" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="I202" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="J202" s="2">
         <v>4</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="204" spans="2:11">
       <c r="B204" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H204" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="H204" s="2" t="s">
+      <c r="I204" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="J204" s="2">
         <v>1</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="205" spans="8:11">
       <c r="H205" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I205" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="I205" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="J205" s="2">
         <v>2</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="206" spans="8:11">
       <c r="H206" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I206" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="I206" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="J206" s="2">
         <v>3</v>
       </c>
       <c r="K206" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="207" spans="8:11">
+      <c r="H207" s="2" t="s">
         <v>357</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J207" s="2">
+        <v>4</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="381">
   <si>
     <t>##var</t>
   </si>
@@ -1101,6 +1101,75 @@
   </si>
   <si>
     <t>BuffProperty_Normal</t>
+  </si>
+  <si>
+    <t>ModelBindPoint</t>
+  </si>
+  <si>
+    <t>ModelHead</t>
+  </si>
+  <si>
+    <t>头绑点</t>
+  </si>
+  <si>
+    <t>ModelNeck</t>
+  </si>
+  <si>
+    <t>脖子绑点</t>
+  </si>
+  <si>
+    <t>脖子</t>
+  </si>
+  <si>
+    <t>ModelShoulder</t>
+  </si>
+  <si>
+    <t>肩膀绑点</t>
+  </si>
+  <si>
+    <t>ModelChest</t>
+  </si>
+  <si>
+    <t>胸部绑点</t>
+  </si>
+  <si>
+    <t>胸部</t>
+  </si>
+  <si>
+    <t>ModelLeftLeg</t>
+  </si>
+  <si>
+    <t>左腿绑点</t>
+  </si>
+  <si>
+    <t>左腿</t>
+  </si>
+  <si>
+    <t>ModelRightLeg</t>
+  </si>
+  <si>
+    <t>右腿绑点</t>
+  </si>
+  <si>
+    <t>右腿</t>
+  </si>
+  <si>
+    <t>ModelLeftFoot</t>
+  </si>
+  <si>
+    <t>左脚绑点</t>
+  </si>
+  <si>
+    <t>左脚</t>
+  </si>
+  <si>
+    <t>ModelRightFoot</t>
+  </si>
+  <si>
+    <t>右角绑点</t>
+  </si>
+  <si>
+    <t>右角</t>
   </si>
 </sst>
 </file>
@@ -2241,10 +2310,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L207"/>
+  <dimension ref="A1:L216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5394,6 +5463,121 @@
       </c>
       <c r="K207" s="2" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11">
+      <c r="B209" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J209" s="2">
+        <v>1</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="210" spans="8:11">
+      <c r="H210" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J210" s="2">
+        <v>2</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="211" spans="8:11">
+      <c r="H211" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J211" s="2">
+        <v>3</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="212" spans="8:11">
+      <c r="H212" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J212" s="2">
+        <v>4</v>
+      </c>
+      <c r="K212" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="213" spans="8:11">
+      <c r="H213" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J213" s="2">
+        <v>5</v>
+      </c>
+      <c r="K213" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="214" spans="8:11">
+      <c r="H214" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J214" s="2">
+        <v>6</v>
+      </c>
+      <c r="K214" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="215" spans="8:11">
+      <c r="H215" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J215" s="2">
+        <v>7</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="216" spans="8:11">
+      <c r="H216" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="J216" s="2">
+        <v>8</v>
+      </c>
+      <c r="K216" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25350" windowHeight="10455"/>
+    <workbookView windowWidth="25590" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="389">
   <si>
     <t>##var</t>
   </si>
@@ -389,6 +389,24 @@
     <t>禁止转向</t>
   </si>
   <si>
+    <t>GP_CantBeSelected</t>
+  </si>
+  <si>
+    <t>禁止选择</t>
+  </si>
+  <si>
+    <t>GP_Shield</t>
+  </si>
+  <si>
+    <t>护盾</t>
+  </si>
+  <si>
+    <t>GP_CastSpeed</t>
+  </si>
+  <si>
+    <t>施法速度</t>
+  </si>
+  <si>
     <t>GP_Hp</t>
   </si>
   <si>
@@ -1077,6 +1095,12 @@
   </si>
   <si>
     <t>自动任务</t>
+  </si>
+  <si>
+    <t>AIType_Patrol</t>
+  </si>
+  <si>
+    <t>巡逻1</t>
   </si>
   <si>
     <t>BuffProperty</t>
@@ -2310,10 +2334,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L216"/>
+  <dimension ref="A1:L219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="K206" sqref="K206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3173,41 +3197,52 @@
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="14"/>
-      <c r="K54" s="24"/>
+      <c r="H54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1009</v>
+      </c>
+      <c r="K54" s="24" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="14"/>
-      <c r="K55" s="24"/>
+      <c r="H55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1010</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="14"/>
       <c r="H56" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J56" s="2">
-        <v>1101</v>
-      </c>
-      <c r="K56" s="24" t="s">
-        <v>122</v>
+        <v>1011</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="14"/>
-      <c r="H57" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J57" s="2">
-        <v>1102</v>
-      </c>
-      <c r="K57" s="24" t="s">
-        <v>125</v>
-      </c>
+      <c r="K57" s="24"/>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="14"/>
@@ -3218,7 +3253,7 @@
         <v>127</v>
       </c>
       <c r="J58" s="2">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="K58" s="24" t="s">
         <v>128</v>
@@ -3233,7 +3268,7 @@
         <v>130</v>
       </c>
       <c r="J59" s="2">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="K59" s="24" t="s">
         <v>131</v>
@@ -3248,884 +3283,874 @@
         <v>133</v>
       </c>
       <c r="J60" s="2">
-        <v>1004</v>
+        <v>1103</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="14"/>
-      <c r="H61" s="2" t="str">
-        <f>(_xlfn.CONCAT(H60,"Base"))</f>
-        <v>GP_SpeedBase</v>
-      </c>
-      <c r="I61" s="2" t="str">
-        <f>_xlfn.CONCAT(I60,"Base")</f>
-        <v>移动速度Base</v>
+      <c r="H61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="J61" s="2">
-        <f>J60*10+1</f>
-        <v>10041</v>
-      </c>
-      <c r="K61" s="24" t="str">
-        <f>_xlfn.CONCAT(K60,"基础值")</f>
-        <v>移动速度基础值</v>
+        <v>1104</v>
+      </c>
+      <c r="K61" s="24" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="14"/>
-      <c r="H62" s="2" t="str">
-        <f>_xlfn.CONCAT(H60,"Add")</f>
-        <v>GP_SpeedAdd</v>
-      </c>
-      <c r="I62" s="2" t="str">
-        <f>_xlfn.CONCAT(I60,"Add")</f>
-        <v>移动速度Add</v>
+      <c r="H62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="J62" s="2">
-        <f>J60*10+2</f>
-        <v>10042</v>
-      </c>
-      <c r="K62" s="24" t="str">
-        <f>_xlfn.CONCAT(K60,"附加值")</f>
-        <v>移动速度附加值</v>
+        <v>1004</v>
+      </c>
+      <c r="K62" s="24" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="14"/>
       <c r="H63" s="2" t="str">
-        <f>_xlfn.CONCAT(H60,"Pct")</f>
-        <v>GP_SpeedPct</v>
+        <f>(_xlfn.CONCAT(H62,"Base"))</f>
+        <v>GP_SpeedBase</v>
       </c>
       <c r="I63" s="2" t="str">
-        <f>_xlfn.CONCAT(I60,"Pct")</f>
-        <v>移动速度Pct</v>
+        <f>_xlfn.CONCAT(I62,"Base")</f>
+        <v>移动速度Base</v>
       </c>
       <c r="J63" s="2">
-        <f>J60*10+3</f>
-        <v>10043</v>
+        <f>J62*10+1</f>
+        <v>10041</v>
       </c>
       <c r="K63" s="24" t="str">
-        <f>_xlfn.CONCAT(K60,"百分比")</f>
-        <v>移动速度百分比</v>
+        <f>_xlfn.CONCAT(K62,"基础值")</f>
+        <v>移动速度基础值</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="14"/>
       <c r="H64" s="2" t="str">
-        <f>_xlfn.CONCAT(H60,"FinalAdd")</f>
-        <v>GP_SpeedFinalAdd</v>
+        <f>_xlfn.CONCAT(H62,"Add")</f>
+        <v>GP_SpeedAdd</v>
       </c>
       <c r="I64" s="2" t="str">
-        <f>_xlfn.CONCAT(I60,"FinalAdd")</f>
-        <v>移动速度FinalAdd</v>
+        <f>_xlfn.CONCAT(I62,"Add")</f>
+        <v>移动速度Add</v>
       </c>
       <c r="J64" s="2">
-        <f>J60*10+4</f>
-        <v>10044</v>
+        <f>J62*10+2</f>
+        <v>10042</v>
       </c>
       <c r="K64" s="24" t="str">
-        <f>_xlfn.CONCAT(K60,"最终附加值")</f>
-        <v>移动速度最终附加值</v>
+        <f>_xlfn.CONCAT(K62,"附加值")</f>
+        <v>移动速度附加值</v>
       </c>
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="14"/>
       <c r="H65" s="2" t="str">
-        <f>_xlfn.CONCAT(H60,"FinalPct")</f>
-        <v>GP_SpeedFinalPct</v>
+        <f>_xlfn.CONCAT(H62,"Pct")</f>
+        <v>GP_SpeedPct</v>
       </c>
       <c r="I65" s="2" t="str">
-        <f>_xlfn.CONCAT(I60,"FinalPct")</f>
-        <v>移动速度FinalPct</v>
+        <f>_xlfn.CONCAT(I62,"Pct")</f>
+        <v>移动速度Pct</v>
       </c>
       <c r="J65" s="2">
-        <f>J60*10+5</f>
-        <v>10045</v>
+        <f>J62*10+3</f>
+        <v>10043</v>
       </c>
       <c r="K65" s="24" t="str">
-        <f>_xlfn.CONCAT(K60,"最终百分比")</f>
-        <v>移动速度最终百分比</v>
+        <f>_xlfn.CONCAT(K62,"百分比")</f>
+        <v>移动速度百分比</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="14"/>
-      <c r="H66" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>135</v>
+      <c r="H66" s="2" t="str">
+        <f>_xlfn.CONCAT(H62,"FinalAdd")</f>
+        <v>GP_SpeedFinalAdd</v>
+      </c>
+      <c r="I66" s="2" t="str">
+        <f>_xlfn.CONCAT(I62,"FinalAdd")</f>
+        <v>移动速度FinalAdd</v>
       </c>
       <c r="J66" s="2">
-        <v>1105</v>
-      </c>
-      <c r="K66" s="24" t="s">
-        <v>136</v>
+        <f>J62*10+4</f>
+        <v>10044</v>
+      </c>
+      <c r="K66" s="24" t="str">
+        <f>_xlfn.CONCAT(K62,"最终附加值")</f>
+        <v>移动速度最终附加值</v>
       </c>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="14"/>
       <c r="H67" s="2" t="str">
-        <f>(_xlfn.CONCAT(H66,"Base"))</f>
-        <v>GP_AtkBase</v>
+        <f>_xlfn.CONCAT(H62,"FinalPct")</f>
+        <v>GP_SpeedFinalPct</v>
       </c>
       <c r="I67" s="2" t="str">
-        <f>_xlfn.CONCAT(I66,"Base")</f>
-        <v>AtkBase</v>
+        <f>_xlfn.CONCAT(I62,"FinalPct")</f>
+        <v>移动速度FinalPct</v>
       </c>
       <c r="J67" s="2">
-        <f>J66*10+1</f>
-        <v>11051</v>
+        <f>J62*10+5</f>
+        <v>10045</v>
       </c>
       <c r="K67" s="24" t="str">
-        <f>_xlfn.CONCAT(K66,"基础值")</f>
-        <v>攻击基础值</v>
+        <f>_xlfn.CONCAT(K62,"最终百分比")</f>
+        <v>移动速度最终百分比</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="14"/>
-      <c r="H68" s="2" t="str">
-        <f t="shared" ref="H68:H70" si="0">_xlfn.CONCAT(H66,"Add")</f>
-        <v>GP_AtkAdd</v>
-      </c>
-      <c r="I68" s="2" t="str">
-        <f>_xlfn.CONCAT(I66,"Add")</f>
-        <v>AtkAdd</v>
+      <c r="H68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="J68" s="2">
-        <f>J66*10+2</f>
-        <v>11052</v>
-      </c>
-      <c r="K68" s="24" t="str">
-        <f>_xlfn.CONCAT(K66,"附加值")</f>
-        <v>攻击附加值</v>
+        <v>1105</v>
+      </c>
+      <c r="K68" s="24" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="14"/>
       <c r="H69" s="2" t="str">
-        <f>_xlfn.CONCAT(H66,"Pct")</f>
-        <v>GP_AtkPct</v>
+        <f>(_xlfn.CONCAT(H68,"Base"))</f>
+        <v>GP_AtkBase</v>
       </c>
       <c r="I69" s="2" t="str">
-        <f>_xlfn.CONCAT(I66,"Pct")</f>
-        <v>AtkPct</v>
+        <f>_xlfn.CONCAT(I68,"Base")</f>
+        <v>AtkBase</v>
       </c>
       <c r="J69" s="2">
-        <f>J66*10+3</f>
-        <v>11053</v>
+        <f>J68*10+1</f>
+        <v>11051</v>
       </c>
       <c r="K69" s="24" t="str">
-        <f>_xlfn.CONCAT(K66,"百分比")</f>
-        <v>攻击百分比</v>
+        <f>_xlfn.CONCAT(K68,"基础值")</f>
+        <v>攻击基础值</v>
       </c>
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="14"/>
       <c r="H70" s="2" t="str">
-        <f>_xlfn.CONCAT(H66,"FinalAdd")</f>
-        <v>GP_AtkFinalAdd</v>
+        <f t="shared" ref="H70:H72" si="0">_xlfn.CONCAT(H68,"Add")</f>
+        <v>GP_AtkAdd</v>
       </c>
       <c r="I70" s="2" t="str">
-        <f>_xlfn.CONCAT(I66,"FinalAdd")</f>
-        <v>AtkFinalAdd</v>
+        <f>_xlfn.CONCAT(I68,"Add")</f>
+        <v>AtkAdd</v>
       </c>
       <c r="J70" s="2">
-        <f>J66*10+4</f>
-        <v>11054</v>
+        <f>J68*10+2</f>
+        <v>11052</v>
       </c>
       <c r="K70" s="24" t="str">
-        <f>_xlfn.CONCAT(K66,"最终附加值")</f>
-        <v>攻击最终附加值</v>
+        <f>_xlfn.CONCAT(K68,"附加值")</f>
+        <v>攻击附加值</v>
       </c>
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="14"/>
       <c r="H71" s="2" t="str">
-        <f>_xlfn.CONCAT(H66,"FinalPct")</f>
-        <v>GP_AtkFinalPct</v>
+        <f>_xlfn.CONCAT(H68,"Pct")</f>
+        <v>GP_AtkPct</v>
       </c>
       <c r="I71" s="2" t="str">
-        <f>_xlfn.CONCAT(I66,"FinalPct")</f>
-        <v>AtkFinalPct</v>
+        <f>_xlfn.CONCAT(I68,"Pct")</f>
+        <v>AtkPct</v>
       </c>
       <c r="J71" s="2">
-        <f>J66*10+5</f>
-        <v>11055</v>
+        <f>J68*10+3</f>
+        <v>11053</v>
       </c>
       <c r="K71" s="24" t="str">
-        <f>_xlfn.CONCAT(K66,"最终百分比")</f>
-        <v>攻击最终百分比</v>
+        <f>_xlfn.CONCAT(K68,"百分比")</f>
+        <v>攻击百分比</v>
       </c>
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="14"/>
-      <c r="H72" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>138</v>
+      <c r="H72" s="2" t="str">
+        <f>_xlfn.CONCAT(H68,"FinalAdd")</f>
+        <v>GP_AtkFinalAdd</v>
+      </c>
+      <c r="I72" s="2" t="str">
+        <f>_xlfn.CONCAT(I68,"FinalAdd")</f>
+        <v>AtkFinalAdd</v>
       </c>
       <c r="J72" s="2">
-        <v>1106</v>
-      </c>
-      <c r="K72" s="24" t="s">
-        <v>139</v>
+        <f>J68*10+4</f>
+        <v>11054</v>
+      </c>
+      <c r="K72" s="24" t="str">
+        <f>_xlfn.CONCAT(K68,"最终附加值")</f>
+        <v>攻击最终附加值</v>
       </c>
     </row>
     <row r="73" spans="2:11">
       <c r="B73" s="14"/>
       <c r="H73" s="2" t="str">
-        <f>(_xlfn.CONCAT(H72,"Base"))</f>
-        <v>GP_DefBase</v>
+        <f>_xlfn.CONCAT(H68,"FinalPct")</f>
+        <v>GP_AtkFinalPct</v>
       </c>
       <c r="I73" s="2" t="str">
-        <f>_xlfn.CONCAT(I72,"Base")</f>
-        <v>DefBase</v>
+        <f>_xlfn.CONCAT(I68,"FinalPct")</f>
+        <v>AtkFinalPct</v>
       </c>
       <c r="J73" s="2">
-        <f>J72*10+1</f>
-        <v>11061</v>
+        <f>J68*10+5</f>
+        <v>11055</v>
       </c>
       <c r="K73" s="24" t="str">
-        <f>_xlfn.CONCAT(K72,"基础值")</f>
-        <v>防御基础值</v>
+        <f>_xlfn.CONCAT(K68,"最终百分比")</f>
+        <v>攻击最终百分比</v>
       </c>
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="14"/>
-      <c r="H74" s="2" t="str">
-        <f>_xlfn.CONCAT(H72,"Add")</f>
-        <v>GP_DefAdd</v>
-      </c>
-      <c r="I74" s="2" t="str">
-        <f>_xlfn.CONCAT(I72,"Add")</f>
-        <v>DefAdd</v>
+      <c r="H74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="J74" s="2">
-        <f>J72*10+2</f>
-        <v>11062</v>
-      </c>
-      <c r="K74" s="24" t="str">
-        <f>_xlfn.CONCAT(K72,"附加值")</f>
-        <v>防御附加值</v>
+        <v>1106</v>
+      </c>
+      <c r="K74" s="24" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="14"/>
       <c r="H75" s="2" t="str">
-        <f>_xlfn.CONCAT(H72,"Pct")</f>
-        <v>GP_DefPct</v>
+        <f>(_xlfn.CONCAT(H74,"Base"))</f>
+        <v>GP_DefBase</v>
       </c>
       <c r="I75" s="2" t="str">
-        <f>_xlfn.CONCAT(I72,"Pct")</f>
-        <v>DefPct</v>
+        <f>_xlfn.CONCAT(I74,"Base")</f>
+        <v>DefBase</v>
       </c>
       <c r="J75" s="2">
-        <f>J72*10+3</f>
-        <v>11063</v>
+        <f>J74*10+1</f>
+        <v>11061</v>
       </c>
       <c r="K75" s="24" t="str">
-        <f>_xlfn.CONCAT(K72,"百分比")</f>
-        <v>防御百分比</v>
+        <f>_xlfn.CONCAT(K74,"基础值")</f>
+        <v>防御基础值</v>
       </c>
     </row>
     <row r="76" spans="2:11">
       <c r="B76" s="14"/>
       <c r="H76" s="2" t="str">
-        <f>_xlfn.CONCAT(H72,"FinalAdd")</f>
-        <v>GP_DefFinalAdd</v>
+        <f>_xlfn.CONCAT(H74,"Add")</f>
+        <v>GP_DefAdd</v>
       </c>
       <c r="I76" s="2" t="str">
-        <f>_xlfn.CONCAT(I72,"FinalAdd")</f>
-        <v>DefFinalAdd</v>
+        <f>_xlfn.CONCAT(I74,"Add")</f>
+        <v>DefAdd</v>
       </c>
       <c r="J76" s="2">
-        <f>J72*10+4</f>
-        <v>11064</v>
+        <f>J74*10+2</f>
+        <v>11062</v>
       </c>
       <c r="K76" s="24" t="str">
-        <f>_xlfn.CONCAT(K72,"最终附加值")</f>
-        <v>防御最终附加值</v>
+        <f>_xlfn.CONCAT(K74,"附加值")</f>
+        <v>防御附加值</v>
       </c>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="14"/>
       <c r="H77" s="2" t="str">
-        <f>_xlfn.CONCAT(H72,"FinalPct")</f>
-        <v>GP_DefFinalPct</v>
+        <f>_xlfn.CONCAT(H74,"Pct")</f>
+        <v>GP_DefPct</v>
       </c>
       <c r="I77" s="2" t="str">
-        <f>_xlfn.CONCAT(I72,"FinalPct")</f>
-        <v>DefFinalPct</v>
+        <f>_xlfn.CONCAT(I74,"Pct")</f>
+        <v>DefPct</v>
       </c>
       <c r="J77" s="2">
-        <f>J72*10+5</f>
-        <v>11065</v>
+        <f>J74*10+3</f>
+        <v>11063</v>
       </c>
       <c r="K77" s="24" t="str">
-        <f>_xlfn.CONCAT(K72,"最终百分比")</f>
-        <v>防御最终百分比</v>
+        <f>_xlfn.CONCAT(K74,"百分比")</f>
+        <v>防御百分比</v>
       </c>
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="14"/>
-      <c r="H78" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>141</v>
+      <c r="H78" s="2" t="str">
+        <f>_xlfn.CONCAT(H74,"FinalAdd")</f>
+        <v>GP_DefFinalAdd</v>
+      </c>
+      <c r="I78" s="2" t="str">
+        <f>_xlfn.CONCAT(I74,"FinalAdd")</f>
+        <v>DefFinalAdd</v>
       </c>
       <c r="J78" s="2">
-        <v>1107</v>
-      </c>
-      <c r="K78" s="24" t="s">
-        <v>142</v>
+        <f>J74*10+4</f>
+        <v>11064</v>
+      </c>
+      <c r="K78" s="24" t="str">
+        <f>_xlfn.CONCAT(K74,"最终附加值")</f>
+        <v>防御最终附加值</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="14"/>
       <c r="H79" s="2" t="str">
-        <f>(_xlfn.CONCAT(H78,"Base"))</f>
-        <v>GP_HitBase</v>
+        <f>_xlfn.CONCAT(H74,"FinalPct")</f>
+        <v>GP_DefFinalPct</v>
       </c>
       <c r="I79" s="2" t="str">
-        <f>_xlfn.CONCAT(I78,"Base")</f>
-        <v>HitBase</v>
+        <f>_xlfn.CONCAT(I74,"FinalPct")</f>
+        <v>DefFinalPct</v>
       </c>
       <c r="J79" s="2">
-        <f>J78*10+1</f>
-        <v>11071</v>
+        <f>J74*10+5</f>
+        <v>11065</v>
       </c>
       <c r="K79" s="24" t="str">
-        <f>_xlfn.CONCAT(K78,"基础值")</f>
-        <v>命中基础值</v>
+        <f>_xlfn.CONCAT(K74,"最终百分比")</f>
+        <v>防御最终百分比</v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="14"/>
-      <c r="H80" s="2" t="str">
-        <f>_xlfn.CONCAT(H78,"Add")</f>
-        <v>GP_HitAdd</v>
-      </c>
-      <c r="I80" s="2" t="str">
-        <f>_xlfn.CONCAT(I78,"Add")</f>
-        <v>HitAdd</v>
+      <c r="H80" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="J80" s="2">
-        <f>J78*10+2</f>
-        <v>11072</v>
-      </c>
-      <c r="K80" s="24" t="str">
-        <f>_xlfn.CONCAT(K78,"附加值")</f>
-        <v>命中附加值</v>
+        <v>1107</v>
+      </c>
+      <c r="K80" s="24" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" s="14"/>
       <c r="H81" s="2" t="str">
-        <f>_xlfn.CONCAT(H78,"Pct")</f>
-        <v>GP_HitPct</v>
+        <f>(_xlfn.CONCAT(H80,"Base"))</f>
+        <v>GP_HitBase</v>
       </c>
       <c r="I81" s="2" t="str">
-        <f>_xlfn.CONCAT(I78,"Pct")</f>
-        <v>HitPct</v>
+        <f>_xlfn.CONCAT(I80,"Base")</f>
+        <v>HitBase</v>
       </c>
       <c r="J81" s="2">
-        <f>J78*10+3</f>
-        <v>11073</v>
+        <f>J80*10+1</f>
+        <v>11071</v>
       </c>
       <c r="K81" s="24" t="str">
-        <f>_xlfn.CONCAT(K78,"百分比")</f>
-        <v>命中百分比</v>
+        <f>_xlfn.CONCAT(K80,"基础值")</f>
+        <v>命中基础值</v>
       </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" s="14"/>
       <c r="H82" s="2" t="str">
-        <f>_xlfn.CONCAT(H78,"FinalAdd")</f>
-        <v>GP_HitFinalAdd</v>
+        <f>_xlfn.CONCAT(H80,"Add")</f>
+        <v>GP_HitAdd</v>
       </c>
       <c r="I82" s="2" t="str">
-        <f>_xlfn.CONCAT(I78,"FinalAdd")</f>
-        <v>HitFinalAdd</v>
+        <f>_xlfn.CONCAT(I80,"Add")</f>
+        <v>HitAdd</v>
       </c>
       <c r="J82" s="2">
-        <f>J78*10+4</f>
-        <v>11074</v>
+        <f>J80*10+2</f>
+        <v>11072</v>
       </c>
       <c r="K82" s="24" t="str">
-        <f>_xlfn.CONCAT(K78,"最终附加值")</f>
-        <v>命中最终附加值</v>
+        <f>_xlfn.CONCAT(K80,"附加值")</f>
+        <v>命中附加值</v>
       </c>
     </row>
     <row r="83" spans="2:11">
       <c r="B83" s="14"/>
       <c r="H83" s="2" t="str">
-        <f>_xlfn.CONCAT(H78,"FinalPct")</f>
-        <v>GP_HitFinalPct</v>
+        <f>_xlfn.CONCAT(H80,"Pct")</f>
+        <v>GP_HitPct</v>
       </c>
       <c r="I83" s="2" t="str">
-        <f>_xlfn.CONCAT(I78,"FinalPct")</f>
-        <v>HitFinalPct</v>
+        <f>_xlfn.CONCAT(I80,"Pct")</f>
+        <v>HitPct</v>
       </c>
       <c r="J83" s="2">
-        <f>J78*10+5</f>
-        <v>11075</v>
+        <f>J80*10+3</f>
+        <v>11073</v>
       </c>
       <c r="K83" s="24" t="str">
-        <f>_xlfn.CONCAT(K78,"最终百分比")</f>
-        <v>命中最终百分比</v>
+        <f>_xlfn.CONCAT(K80,"百分比")</f>
+        <v>命中百分比</v>
       </c>
     </row>
     <row r="84" spans="2:11">
       <c r="B84" s="14"/>
-      <c r="H84" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>144</v>
+      <c r="H84" s="2" t="str">
+        <f>_xlfn.CONCAT(H80,"FinalAdd")</f>
+        <v>GP_HitFinalAdd</v>
+      </c>
+      <c r="I84" s="2" t="str">
+        <f>_xlfn.CONCAT(I80,"FinalAdd")</f>
+        <v>HitFinalAdd</v>
       </c>
       <c r="J84" s="2">
-        <v>1108</v>
-      </c>
-      <c r="K84" s="24" t="s">
-        <v>145</v>
+        <f>J80*10+4</f>
+        <v>11074</v>
+      </c>
+      <c r="K84" s="24" t="str">
+        <f>_xlfn.CONCAT(K80,"最终附加值")</f>
+        <v>命中最终附加值</v>
       </c>
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="14"/>
       <c r="H85" s="2" t="str">
-        <f>(_xlfn.CONCAT(H84,"Base"))</f>
-        <v>GP_CritBase</v>
+        <f>_xlfn.CONCAT(H80,"FinalPct")</f>
+        <v>GP_HitFinalPct</v>
       </c>
       <c r="I85" s="2" t="str">
-        <f>_xlfn.CONCAT(I84,"Base")</f>
-        <v>CritBase</v>
+        <f>_xlfn.CONCAT(I80,"FinalPct")</f>
+        <v>HitFinalPct</v>
       </c>
       <c r="J85" s="2">
-        <f>J84*10+1</f>
-        <v>11081</v>
+        <f>J80*10+5</f>
+        <v>11075</v>
       </c>
       <c r="K85" s="24" t="str">
-        <f>_xlfn.CONCAT(K84,"基础值")</f>
-        <v>暴击基础值</v>
+        <f>_xlfn.CONCAT(K80,"最终百分比")</f>
+        <v>命中最终百分比</v>
       </c>
     </row>
     <row r="86" spans="2:11">
       <c r="B86" s="14"/>
-      <c r="H86" s="2" t="str">
-        <f>_xlfn.CONCAT(H84,"Add")</f>
-        <v>GP_CritAdd</v>
-      </c>
-      <c r="I86" s="2" t="str">
-        <f>_xlfn.CONCAT(I84,"Add")</f>
-        <v>CritAdd</v>
+      <c r="H86" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="J86" s="2">
-        <f>J84*10+2</f>
-        <v>11082</v>
-      </c>
-      <c r="K86" s="24" t="str">
-        <f>_xlfn.CONCAT(K84,"附加值")</f>
-        <v>暴击附加值</v>
+        <v>1108</v>
+      </c>
+      <c r="K86" s="24" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="2:11">
       <c r="B87" s="14"/>
       <c r="H87" s="2" t="str">
-        <f>_xlfn.CONCAT(H84,"Pct")</f>
-        <v>GP_CritPct</v>
+        <f>(_xlfn.CONCAT(H86,"Base"))</f>
+        <v>GP_CritBase</v>
       </c>
       <c r="I87" s="2" t="str">
-        <f>_xlfn.CONCAT(I84,"Pct")</f>
-        <v>CritPct</v>
+        <f>_xlfn.CONCAT(I86,"Base")</f>
+        <v>CritBase</v>
       </c>
       <c r="J87" s="2">
-        <f>J84*10+3</f>
-        <v>11083</v>
+        <f>J86*10+1</f>
+        <v>11081</v>
       </c>
       <c r="K87" s="24" t="str">
-        <f>_xlfn.CONCAT(K84,"百分比")</f>
-        <v>暴击百分比</v>
+        <f>_xlfn.CONCAT(K86,"基础值")</f>
+        <v>暴击基础值</v>
       </c>
     </row>
     <row r="88" spans="2:11">
       <c r="B88" s="14"/>
       <c r="H88" s="2" t="str">
-        <f>_xlfn.CONCAT(H84,"FinalAdd")</f>
+        <f>_xlfn.CONCAT(H86,"Add")</f>
+        <v>GP_CritAdd</v>
+      </c>
+      <c r="I88" s="2" t="str">
+        <f>_xlfn.CONCAT(I86,"Add")</f>
+        <v>CritAdd</v>
+      </c>
+      <c r="J88" s="2">
+        <f>J86*10+2</f>
+        <v>11082</v>
+      </c>
+      <c r="K88" s="24" t="str">
+        <f>_xlfn.CONCAT(K86,"附加值")</f>
+        <v>暴击附加值</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" s="14"/>
+      <c r="H89" s="2" t="str">
+        <f>_xlfn.CONCAT(H86,"Pct")</f>
+        <v>GP_CritPct</v>
+      </c>
+      <c r="I89" s="2" t="str">
+        <f>_xlfn.CONCAT(I86,"Pct")</f>
+        <v>CritPct</v>
+      </c>
+      <c r="J89" s="2">
+        <f>J86*10+3</f>
+        <v>11083</v>
+      </c>
+      <c r="K89" s="24" t="str">
+        <f>_xlfn.CONCAT(K86,"百分比")</f>
+        <v>暴击百分比</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" s="14"/>
+      <c r="H90" s="2" t="str">
+        <f>_xlfn.CONCAT(H86,"FinalAdd")</f>
         <v>GP_CritFinalAdd</v>
       </c>
-      <c r="I88" s="2" t="str">
-        <f>_xlfn.CONCAT(I84,"FinalAdd")</f>
+      <c r="I90" s="2" t="str">
+        <f>_xlfn.CONCAT(I86,"FinalAdd")</f>
         <v>CritFinalAdd</v>
       </c>
-      <c r="J88" s="2">
-        <f>J84*10+4</f>
+      <c r="J90" s="2">
+        <f>J86*10+4</f>
         <v>11084</v>
       </c>
-      <c r="K88" s="24" t="str">
-        <f>_xlfn.CONCAT(K84,"最终附加值")</f>
+      <c r="K90" s="24" t="str">
+        <f>_xlfn.CONCAT(K86,"最终附加值")</f>
         <v>暴击最终附加值</v>
       </c>
     </row>
-    <row r="89" spans="2:11">
-      <c r="B89" s="17"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="12" t="str">
-        <f>_xlfn.CONCAT(H84,"FinalPct")</f>
+    <row r="91" spans="2:11">
+      <c r="B91" s="17"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="12" t="str">
+        <f>_xlfn.CONCAT(H86,"FinalPct")</f>
         <v>GP_CritFinalPct</v>
       </c>
-      <c r="I89" s="12" t="str">
-        <f>_xlfn.CONCAT(I84,"FinalPct")</f>
+      <c r="I91" s="12" t="str">
+        <f>_xlfn.CONCAT(I86,"FinalPct")</f>
         <v>CritFinalPct</v>
       </c>
-      <c r="J89" s="12">
-        <f>J84*10+5</f>
+      <c r="J91" s="12">
+        <f>J86*10+5</f>
         <v>11085</v>
       </c>
-      <c r="K89" s="25" t="str">
-        <f>_xlfn.CONCAT(K84,"最终百分比")</f>
+      <c r="K91" s="25" t="str">
+        <f>_xlfn.CONCAT(K86,"最终百分比")</f>
         <v>暴击最终百分比</v>
       </c>
     </row>
-    <row r="91" spans="2:11">
-      <c r="B91" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8">
+    <row r="93" spans="2:11">
+      <c r="B93" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8">
         <v>0</v>
       </c>
-      <c r="K91" s="23"/>
-    </row>
-    <row r="92" spans="2:11">
-      <c r="B92" s="14"/>
-      <c r="H92" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J92" s="2">
-        <v>1</v>
-      </c>
-      <c r="K92" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93" s="14"/>
-      <c r="H93" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J93" s="2">
-        <v>2</v>
-      </c>
-      <c r="K93" s="24" t="s">
-        <v>152</v>
-      </c>
+      <c r="K93" s="23"/>
     </row>
     <row r="94" spans="2:11">
       <c r="B94" s="14"/>
       <c r="H94" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J94" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="14"/>
       <c r="H95" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J95" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K95" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="2:11">
       <c r="B96" s="14"/>
       <c r="H96" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J96" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="14"/>
       <c r="H97" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J97" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K97" s="24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="14"/>
       <c r="H98" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J98" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K98" s="24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="14"/>
       <c r="H99" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J99" s="2">
+        <v>6</v>
+      </c>
+      <c r="K99" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="14"/>
+      <c r="H100" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J100" s="2">
+        <v>7</v>
+      </c>
+      <c r="K100" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="14"/>
+      <c r="H101" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J101" s="2">
         <v>8</v>
       </c>
-      <c r="K99" s="24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11">
-      <c r="B100" s="17"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="J100" s="12">
+      <c r="K101" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="17"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J102" s="12">
         <v>9</v>
       </c>
-      <c r="K100" s="25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11">
-      <c r="B102" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="J102" s="8">
+      <c r="K102" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J104" s="8">
         <v>1</v>
       </c>
-      <c r="K102" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11">
-      <c r="B103" s="17"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="I103" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="J103" s="12">
+      <c r="K104" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="17"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J105" s="12">
         <v>2</v>
       </c>
-      <c r="K103" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11">
-      <c r="B105" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="J105" s="8">
+      <c r="K105" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J107" s="8">
         <v>1</v>
       </c>
-      <c r="K105" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11">
-      <c r="B106" s="14"/>
-      <c r="H106" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J106" s="2">
+      <c r="K107" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="14"/>
+      <c r="H108" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J108" s="2">
         <v>2</v>
       </c>
-      <c r="K106" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11">
-      <c r="B107" s="14"/>
-      <c r="H107" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J107" s="2">
+      <c r="K108" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="14"/>
+      <c r="H109" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J109" s="2">
         <v>3</v>
       </c>
-      <c r="K107" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11">
-      <c r="B108" s="17"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="I108" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="J108" s="12">
+      <c r="K109" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="17"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J110" s="12">
         <v>4</v>
       </c>
-      <c r="K108" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11">
-      <c r="B110" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="I110" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="J110" s="8">
+      <c r="K110" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J112" s="8">
         <v>1</v>
       </c>
-      <c r="K110" s="23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11">
-      <c r="B111" s="14"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="I111" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J111" s="16">
-        <v>2</v>
-      </c>
-      <c r="K111" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11">
-      <c r="B112" s="14"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="I112" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="J112" s="16">
-        <v>3</v>
-      </c>
-      <c r="K112" s="24" t="s">
-        <v>188</v>
+      <c r="K112" s="23" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="2:11">
@@ -4136,1392 +4161,1404 @@
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
       <c r="H113" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I113" s="16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J113" s="16">
+        <v>2</v>
+      </c>
+      <c r="K113" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11">
+      <c r="B114" s="14"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I114" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="J114" s="16">
+        <v>3</v>
+      </c>
+      <c r="K114" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115" s="14"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="I115" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="J115" s="16">
         <v>4</v>
       </c>
-      <c r="K113" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11">
-      <c r="B114" s="17"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="I114" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="J114" s="12">
+      <c r="K115" s="24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11">
+      <c r="B116" s="17"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I116" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="J116" s="12">
         <v>5</v>
       </c>
-      <c r="K114" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11">
-      <c r="B116" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I116" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="J116" s="8">
+      <c r="K116" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="J118" s="8">
         <v>1</v>
       </c>
-      <c r="K116" s="23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11">
-      <c r="B117" s="14"/>
-      <c r="H117" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J117" s="2">
+      <c r="K118" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119" s="14"/>
+      <c r="H119" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J119" s="2">
         <v>2</v>
       </c>
-      <c r="K117" s="24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11">
-      <c r="B118" s="14"/>
-      <c r="H118" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J118" s="2">
+      <c r="K119" s="24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11">
+      <c r="B120" s="14"/>
+      <c r="H120" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J120" s="2">
         <v>3</v>
       </c>
-      <c r="K118" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11">
-      <c r="B119" s="17"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I119" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="J119" s="12">
+      <c r="K120" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="17"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="J121" s="12">
         <v>4</v>
       </c>
-      <c r="K119" s="25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11">
-      <c r="B121" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="I121" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J121" s="8">
+      <c r="K121" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11">
+      <c r="B123" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J123" s="8">
         <v>1</v>
       </c>
-      <c r="K121" s="23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11">
-      <c r="B122" s="14"/>
-      <c r="H122" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J122" s="2">
+      <c r="K123" s="23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124" s="14"/>
+      <c r="H124" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J124" s="2">
         <v>2</v>
       </c>
-      <c r="K122" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11">
-      <c r="B123" s="17"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I123" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="J123" s="12">
+      <c r="K124" s="24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11">
+      <c r="B125" s="17"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J125" s="12">
         <v>3</v>
       </c>
-      <c r="K123" s="25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11">
-      <c r="B125" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C125" s="7" t="b">
+      <c r="K125" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11">
+      <c r="B127" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C127" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="I125" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="J125" s="8">
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="J127" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K125" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11">
-      <c r="B126" s="14"/>
-      <c r="H126" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J126" s="2">
-        <f>POWER(2,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K126" s="24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11">
-      <c r="B127" s="14"/>
-      <c r="H127" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J127" s="2">
-        <f>POWER(2,2)</f>
-        <v>4</v>
-      </c>
-      <c r="K127" s="24" t="s">
-        <v>215</v>
+      <c r="K127" s="23" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="2:11">
       <c r="B128" s="14"/>
       <c r="H128" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J128" s="2">
-        <f>POWER(2,3)</f>
-        <v>8</v>
+        <f>POWER(2,1)</f>
+        <v>2</v>
       </c>
       <c r="K128" s="24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="129" spans="2:11">
       <c r="B129" s="14"/>
       <c r="H129" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J129" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
+        <f>POWER(2,2)</f>
+        <v>4</v>
       </c>
       <c r="K129" s="24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130" spans="2:11">
       <c r="B130" s="14"/>
       <c r="H130" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J130" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
+        <f>POWER(2,3)</f>
+        <v>8</v>
       </c>
       <c r="K130" s="24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="131" spans="2:11">
       <c r="B131" s="14"/>
       <c r="H131" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J131" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
+        <f>POWER(2,4)</f>
+        <v>16</v>
       </c>
       <c r="K131" s="24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132" spans="2:11">
       <c r="B132" s="14"/>
       <c r="H132" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J132" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
+        <f>POWER(2,5)</f>
+        <v>32</v>
       </c>
       <c r="K132" s="24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133" spans="2:11">
       <c r="B133" s="14"/>
       <c r="H133" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J133" s="2">
+        <f>POWER(2,6)</f>
+        <v>64</v>
+      </c>
+      <c r="K133" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11">
+      <c r="B134" s="14"/>
+      <c r="H134" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J134" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K134" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11">
+      <c r="B135" s="14"/>
+      <c r="H135" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J135" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K133" s="24" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11">
-      <c r="B134" s="17"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="I134" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="J134" s="12">
+      <c r="K135" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11">
+      <c r="B136" s="17"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J136" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K134" s="25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11">
-      <c r="B136" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C136" s="7" t="b">
+      <c r="K136" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C138" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="I136" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="J136" s="8">
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="J138" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K136" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11">
-      <c r="B137" s="14"/>
-      <c r="H137" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J137" s="2">
-        <f>POWER(2,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K137" s="24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="138" spans="2:11">
-      <c r="B138" s="14"/>
-      <c r="H138" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J138" s="2">
-        <f>POWER(2,2)</f>
-        <v>4</v>
-      </c>
-      <c r="K138" s="24" t="s">
-        <v>236</v>
+      <c r="K138" s="23" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="2:11">
       <c r="B139" s="14"/>
       <c r="H139" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J139" s="2">
-        <f>POWER(2,3)</f>
-        <v>8</v>
+        <f>POWER(2,1)</f>
+        <v>2</v>
       </c>
       <c r="K139" s="24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="2:11">
       <c r="B140" s="14"/>
       <c r="H140" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J140" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
+        <f>POWER(2,2)</f>
+        <v>4</v>
       </c>
       <c r="K140" s="24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="2:11">
       <c r="B141" s="14"/>
       <c r="H141" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J141" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
+        <f>POWER(2,3)</f>
+        <v>8</v>
       </c>
       <c r="K141" s="24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="142" spans="2:11">
       <c r="B142" s="14"/>
       <c r="H142" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J142" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
+        <f>POWER(2,4)</f>
+        <v>16</v>
       </c>
       <c r="K142" s="24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="143" spans="2:11">
       <c r="B143" s="14"/>
       <c r="H143" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J143" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
+        <f>POWER(2,5)</f>
+        <v>32</v>
       </c>
       <c r="K143" s="24" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="144" spans="2:11">
       <c r="B144" s="14"/>
       <c r="H144" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J144" s="2">
+        <f>POWER(2,6)</f>
+        <v>64</v>
+      </c>
+      <c r="K144" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11">
+      <c r="B145" s="14"/>
+      <c r="H145" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J145" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K145" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11">
+      <c r="B146" s="14"/>
+      <c r="H146" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J146" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K144" s="24" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11">
-      <c r="B145" s="17"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="I145" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="J145" s="12">
+      <c r="K146" s="24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="17"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J147" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K145" s="25" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11">
-      <c r="B147" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C147" s="7" t="b">
+      <c r="K147" s="25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11">
+      <c r="B149" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C149" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="I147" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="J147" s="8">
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="J149" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K147" s="23" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11">
-      <c r="B148" s="14"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="I148" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="J148" s="16">
+      <c r="K149" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="B150" s="14"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="I150" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="J150" s="16">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K148" s="24" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11">
-      <c r="B149" s="14"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="I149" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="J149" s="16">
+      <c r="K150" s="24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11">
+      <c r="B151" s="14"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="I151" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="J151" s="16">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K149" s="24" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11">
-      <c r="B150" s="17"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="I150" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="J150" s="12">
+      <c r="K151" s="24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="B152" s="17"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="I152" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J152" s="12">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K150" s="25" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11">
-      <c r="B152" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C152" s="7" t="b">
+      <c r="K152" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11">
+      <c r="B154" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C154" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="I152" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="J152" s="8">
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I154" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="J154" s="8">
         <v>1</v>
       </c>
-      <c r="K152" s="23" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11">
-      <c r="B153" s="14"/>
-      <c r="H153" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="J153" s="2">
+      <c r="K154" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11">
+      <c r="B155" s="14"/>
+      <c r="H155" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J155" s="2">
         <v>2</v>
       </c>
-      <c r="K153" s="24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11">
-      <c r="B154" s="14"/>
-      <c r="H154" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J154" s="2">
+      <c r="K155" s="24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11">
+      <c r="B156" s="14"/>
+      <c r="H156" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J156" s="2">
         <v>3</v>
       </c>
-      <c r="K154" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11">
-      <c r="B155" s="17"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="11"/>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="I155" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="J155" s="12">
+      <c r="K156" s="24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11">
+      <c r="B157" s="17"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="I157" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="J157" s="12">
         <v>4</v>
       </c>
-      <c r="K155" s="25" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="157" spans="2:11">
-      <c r="B157" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C157" s="7" t="b">
+      <c r="K157" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11">
+      <c r="B159" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C159" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="I157" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="J157" s="8">
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J159" s="8">
         <v>1</v>
       </c>
-      <c r="K157" s="23" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="158" spans="2:11">
-      <c r="B158" s="17"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="I158" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="J158" s="12">
+      <c r="K159" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11">
+      <c r="B160" s="17"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J160" s="12">
         <v>2</v>
       </c>
-      <c r="K158" s="25" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11">
-      <c r="B160" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C160" s="7" t="b">
+      <c r="K160" s="25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11">
+      <c r="B162" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C162" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="I160" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="J160" s="8">
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I162" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J162" s="8">
         <v>1</v>
       </c>
-      <c r="K160" s="23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="161" spans="2:11">
-      <c r="B161" s="14"/>
-      <c r="H161" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="J161" s="2">
+      <c r="K162" s="23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11">
+      <c r="B163" s="14"/>
+      <c r="H163" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J163" s="2">
         <v>2</v>
       </c>
-      <c r="K161" s="24" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11">
-      <c r="B162" s="14"/>
-      <c r="H162" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J162" s="2">
+      <c r="K163" s="24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11">
+      <c r="B164" s="14"/>
+      <c r="H164" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J164" s="2">
         <v>3</v>
       </c>
-      <c r="K162" s="24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="163" spans="2:11">
-      <c r="B163" s="17"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="11"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="I163" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="J163" s="12">
+      <c r="K164" s="24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11">
+      <c r="B165" s="17"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I165" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J165" s="12">
         <v>4</v>
       </c>
-      <c r="K163" s="25" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="165" spans="2:11">
-      <c r="B165" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="C165" s="7" t="b">
+      <c r="K165" s="25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11">
+      <c r="B167" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C167" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="I165" s="8" t="s">
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I167" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J165" s="8">
+      <c r="J167" s="8">
         <v>1</v>
       </c>
-      <c r="K165" s="23" t="s">
+      <c r="K167" s="23" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="166" spans="2:11">
-      <c r="B166" s="27"/>
-      <c r="H166" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="J166" s="2">
-        <v>2</v>
-      </c>
-      <c r="K166" s="24" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="167" spans="2:11">
-      <c r="B167" s="27"/>
-      <c r="H167" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="I167" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J167" s="2">
-        <v>3</v>
-      </c>
-      <c r="K167" s="24" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="168" spans="2:11">
       <c r="B168" s="27"/>
       <c r="H168" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J168" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K168" s="24" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="169" spans="2:11">
       <c r="B169" s="27"/>
       <c r="H169" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J169" s="2">
+        <v>3</v>
+      </c>
+      <c r="K169" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11">
+      <c r="B170" s="27"/>
+      <c r="H170" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J170" s="2">
+        <v>4</v>
+      </c>
+      <c r="K170" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11">
+      <c r="B171" s="27"/>
+      <c r="H171" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J171" s="2">
         <v>5</v>
       </c>
-      <c r="K169" s="24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="170" spans="2:11">
-      <c r="B170" s="28"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11"/>
-      <c r="F170" s="11"/>
-      <c r="G170" s="11"/>
-      <c r="H170" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="I170" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="J170" s="12">
+      <c r="K171" s="24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11">
+      <c r="B172" s="28"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I172" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="J172" s="12">
         <v>6</v>
       </c>
-      <c r="K170" s="25" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="172" spans="2:11">
-      <c r="B172" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C172" s="1" t="b">
+      <c r="K172" s="25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11">
+      <c r="B174" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C174" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H172" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="J172" s="2">
+      <c r="H174" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J174" s="2">
         <v>1</v>
       </c>
-      <c r="K172" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="173" spans="8:11">
-      <c r="H173" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J173" s="2">
+      <c r="K174" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="175" spans="8:11">
+      <c r="H175" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J175" s="2">
         <v>2</v>
       </c>
-      <c r="K173" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="175" spans="2:11">
-      <c r="B175" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C175" s="1" t="b">
+      <c r="K175" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11">
+      <c r="B177" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C177" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H175" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="I175" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="J175" s="2">
+      <c r="H177" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J177" s="2">
         <v>1</v>
       </c>
-      <c r="K175" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="176" spans="8:11">
-      <c r="H176" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I176" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J176" s="2">
-        <v>2</v>
-      </c>
-      <c r="K176" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="177" spans="8:11">
-      <c r="H177" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I177" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="J177" s="2">
-        <v>3</v>
-      </c>
       <c r="K177" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178" spans="8:11">
       <c r="H178" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J178" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="179" spans="8:11">
       <c r="H179" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J179" s="2">
+        <v>3</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="180" spans="8:11">
+      <c r="H180" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J180" s="2">
+        <v>4</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="181" spans="8:11">
+      <c r="H181" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J181" s="2">
         <v>5</v>
       </c>
-      <c r="K179" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="182" spans="2:11">
-      <c r="B182" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C182" s="1" t="b">
+      <c r="K181" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11">
+      <c r="B184" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C184" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H182" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="I182" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="J182" s="2">
+      <c r="H184" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J184" s="2">
         <v>1</v>
       </c>
-      <c r="K182" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="183" spans="8:11">
-      <c r="H183" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="I183" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J183" s="2">
-        <v>2</v>
-      </c>
-      <c r="K183" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="184" spans="8:11">
-      <c r="H184" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="I184" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="J184" s="2">
-        <v>3</v>
-      </c>
       <c r="K184" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="185" spans="8:11">
       <c r="H185" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J185" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="186" spans="8:11">
       <c r="H186" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J186" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="187" spans="8:11">
       <c r="H187" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J187" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="188" spans="8:11">
       <c r="H188" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J188" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="189" spans="8:11">
       <c r="H189" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J189" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="190" spans="8:11">
       <c r="H190" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J190" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="191" spans="8:11">
       <c r="H191" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J191" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="192" spans="8:11">
       <c r="H192" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J192" s="2">
+        <v>9</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="193" spans="8:11">
+      <c r="H193" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J193" s="2">
+        <v>10</v>
+      </c>
+      <c r="K193" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="194" spans="8:11">
+      <c r="H194" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J194" s="2">
         <v>11</v>
       </c>
-      <c r="K192" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="194" spans="2:11">
-      <c r="B194" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C194" s="1" t="b">
+      <c r="K194" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11">
+      <c r="B196" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C196" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H194" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="J194" s="2">
+      <c r="H196" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J196" s="2">
         <v>1</v>
       </c>
-      <c r="K194" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="195" spans="8:11">
-      <c r="H195" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="I195" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="J195" s="2">
+      <c r="K196" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="197" spans="8:11">
+      <c r="H197" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J197" s="2">
         <v>2</v>
       </c>
-      <c r="K195" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="196" spans="8:11">
-      <c r="H196" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="I196" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="J196" s="2">
+      <c r="K197" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="198" spans="8:11">
+      <c r="H198" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J198" s="2">
         <v>3</v>
       </c>
-      <c r="K196" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="199" spans="2:11">
-      <c r="B199" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H199" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="I199" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="J199" s="2">
+      <c r="K198" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11">
+      <c r="B201" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J201" s="2">
         <v>1</v>
       </c>
-      <c r="K199" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="200" spans="8:11">
-      <c r="H200" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="I200" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="J200" s="2">
-        <v>2</v>
-      </c>
-      <c r="K200" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="201" spans="8:11">
-      <c r="H201" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="I201" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="J201" s="2">
-        <v>3</v>
-      </c>
       <c r="K201" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="202" spans="8:11">
       <c r="H202" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J202" s="2">
+        <v>2</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="203" spans="8:11">
+      <c r="H203" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J203" s="2">
+        <v>3</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="204" spans="8:11">
+      <c r="H204" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J204" s="2">
         <v>4</v>
       </c>
-      <c r="K202" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="204" spans="2:11">
-      <c r="B204" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="J204" s="2">
-        <v>1</v>
-      </c>
       <c r="K204" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="205" spans="8:11">
       <c r="H205" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J205" s="2">
+        <v>5</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="207" spans="2:11">
+      <c r="B207" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J207" s="2">
+        <v>1</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="208" spans="8:11">
+      <c r="H208" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J208" s="2">
         <v>2</v>
       </c>
-      <c r="K205" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="206" spans="8:11">
-      <c r="H206" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I206" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="J206" s="2">
+      <c r="K208" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="209" spans="8:11">
+      <c r="H209" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J209" s="2">
         <v>3</v>
       </c>
-      <c r="K206" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="207" spans="8:11">
-      <c r="H207" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I207" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J207" s="2">
-        <v>4</v>
-      </c>
-      <c r="K207" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="209" spans="2:11">
-      <c r="B209" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="I209" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="J209" s="2">
-        <v>1</v>
-      </c>
       <c r="K209" s="2" t="s">
-        <v>149</v>
+        <v>364</v>
       </c>
     </row>
     <row r="210" spans="8:11">
       <c r="H210" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>362</v>
+        <v>69</v>
       </c>
       <c r="J210" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="211" spans="8:11">
-      <c r="H211" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="I211" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="J211" s="2">
-        <v>3</v>
-      </c>
-      <c r="K211" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="212" spans="8:11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="212" spans="2:11">
+      <c r="B212" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="H212" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J212" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K212" s="2" t="s">
-        <v>368</v>
+        <v>155</v>
       </c>
     </row>
     <row r="213" spans="8:11">
@@ -5532,7 +5569,7 @@
         <v>370</v>
       </c>
       <c r="J213" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K213" s="2" t="s">
         <v>371</v>
@@ -5546,38 +5583,80 @@
         <v>373</v>
       </c>
       <c r="J214" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K214" s="2" t="s">
-        <v>374</v>
+        <v>160</v>
       </c>
     </row>
     <row r="215" spans="8:11">
       <c r="H215" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I215" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I215" s="2" t="s">
+      <c r="J215" s="2">
+        <v>4</v>
+      </c>
+      <c r="K215" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="J215" s="2">
-        <v>7</v>
-      </c>
-      <c r="K215" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="216" spans="8:11">
       <c r="H216" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="I216" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="I216" s="2" t="s">
+      <c r="J216" s="2">
+        <v>5</v>
+      </c>
+      <c r="K216" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="J216" s="2">
+    </row>
+    <row r="217" spans="8:11">
+      <c r="H217" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J217" s="2">
+        <v>6</v>
+      </c>
+      <c r="K217" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="218" spans="8:11">
+      <c r="H218" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J218" s="2">
+        <v>7</v>
+      </c>
+      <c r="K218" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="219" spans="8:11">
+      <c r="H219" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J219" s="2">
         <v>8</v>
       </c>
-      <c r="K216" s="2" t="s">
-        <v>380</v>
+      <c r="K219" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -5590,20 +5669,20 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B32:B38"/>
     <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B47:B89"/>
-    <mergeCell ref="B91:B100"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="B125:B134"/>
-    <mergeCell ref="B136:B145"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B160:B163"/>
-    <mergeCell ref="B165:B170"/>
+    <mergeCell ref="B47:B91"/>
+    <mergeCell ref="B93:B102"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B127:B136"/>
+    <mergeCell ref="B138:B147"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="B167:B172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="391">
   <si>
     <t>##var</t>
   </si>
@@ -1101,6 +1101,12 @@
   </si>
   <si>
     <t>巡逻1</t>
+  </si>
+  <si>
+    <t>AIType_Cast</t>
+  </si>
+  <si>
+    <t>释放技能</t>
   </si>
   <si>
     <t>BuffProperty</t>
@@ -2334,10 +2340,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L219"/>
+  <dimension ref="A1:L222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="K206" sqref="K206"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5416,6 +5422,9 @@
       <c r="B201" s="1" t="s">
         <v>347</v>
       </c>
+      <c r="C201" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="H201" s="2" t="s">
         <v>348</v>
       </c>
@@ -5485,178 +5494,192 @@
         <v>357</v>
       </c>
     </row>
-    <row r="207" spans="2:11">
-      <c r="B207" s="1" t="s">
+    <row r="206" spans="8:11">
+      <c r="H206" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H207" s="2" t="s">
+      <c r="I206" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="I207" s="2" t="s">
+      <c r="J206" s="2">
+        <v>6</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11">
+      <c r="B210" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="J207" s="2">
+      <c r="H210" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J210" s="2">
         <v>1</v>
       </c>
-      <c r="K207" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="208" spans="8:11">
-      <c r="H208" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="I208" s="2" t="s">
+      <c r="K210" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="J208" s="2">
+    </row>
+    <row r="211" spans="8:11">
+      <c r="H211" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J211" s="2">
         <v>2</v>
       </c>
-      <c r="K208" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="209" spans="8:11">
-      <c r="H209" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I209" s="2" t="s">
+      <c r="K211" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="J209" s="2">
+    </row>
+    <row r="212" spans="8:11">
+      <c r="H212" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J212" s="2">
         <v>3</v>
       </c>
-      <c r="K209" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="210" spans="8:11">
-      <c r="H210" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J210" s="2">
-        <v>4</v>
-      </c>
-      <c r="K210" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="212" spans="2:11">
-      <c r="B212" s="1" t="s">
+      <c r="K212" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="H212" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I212" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="J212" s="2">
-        <v>1</v>
-      </c>
-      <c r="K212" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="213" spans="8:11">
       <c r="H213" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J213" s="2">
+        <v>4</v>
+      </c>
+      <c r="K213" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11">
+      <c r="B215" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H215" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I213" s="2" t="s">
+      <c r="I215" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="J213" s="2">
-        <v>2</v>
-      </c>
-      <c r="K213" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="214" spans="8:11">
-      <c r="H214" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J214" s="2">
-        <v>3</v>
-      </c>
-      <c r="K214" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="215" spans="8:11">
-      <c r="H215" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I215" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="J215" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K215" s="2" t="s">
-        <v>376</v>
+        <v>155</v>
       </c>
     </row>
     <row r="216" spans="8:11">
       <c r="H216" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J216" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K216" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="217" spans="8:11">
       <c r="H217" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J217" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K217" s="2" t="s">
-        <v>382</v>
+        <v>160</v>
       </c>
     </row>
     <row r="218" spans="8:11">
       <c r="H218" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="J218" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K218" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="219" spans="8:11">
       <c r="H219" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J219" s="2">
+        <v>5</v>
+      </c>
+      <c r="K219" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="220" spans="8:11">
+      <c r="H220" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I220" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J220" s="2">
+        <v>6</v>
+      </c>
+      <c r="K220" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="221" spans="8:11">
+      <c r="H221" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I221" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="I219" s="2" t="s">
+      <c r="J221" s="2">
+        <v>7</v>
+      </c>
+      <c r="K221" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="J219" s="2">
+    </row>
+    <row r="222" spans="8:11">
+      <c r="H222" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I222" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J222" s="2">
         <v>8</v>
       </c>
-      <c r="K219" s="2" t="s">
-        <v>388</v>
+      <c r="K222" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="393">
   <si>
     <t>##var</t>
   </si>
@@ -1047,6 +1047,12 @@
   </si>
   <si>
     <t>驱散行为</t>
+  </si>
+  <si>
+    <t>ActionType_Taunt</t>
+  </si>
+  <si>
+    <t>嘲讽行为</t>
   </si>
   <si>
     <t>MessageNotifyType</t>
@@ -2340,10 +2346,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L222"/>
+  <dimension ref="A1:L224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+      <selection activeCell="H196" sqref="H196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5370,316 +5376,330 @@
         <v>339</v>
       </c>
     </row>
-    <row r="196" spans="2:11">
-      <c r="B196" s="1" t="s">
+    <row r="195" spans="8:11">
+      <c r="H195" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C196" s="1" t="b">
+      <c r="I195" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J195" s="2">
+        <v>12</v>
+      </c>
+      <c r="K195" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11">
+      <c r="B198" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C198" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H196" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="I196" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="J196" s="2">
+      <c r="H198" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J198" s="2">
         <v>1</v>
       </c>
-      <c r="K196" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="197" spans="8:11">
-      <c r="H197" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I197" s="2" t="s">
+      <c r="K198" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="J197" s="2">
+    </row>
+    <row r="199" spans="8:11">
+      <c r="H199" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J199" s="2">
         <v>2</v>
       </c>
-      <c r="K197" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="198" spans="8:11">
-      <c r="H198" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I198" s="2" t="s">
+      <c r="K199" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="J198" s="2">
+    </row>
+    <row r="200" spans="8:11">
+      <c r="H200" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J200" s="2">
         <v>3</v>
       </c>
-      <c r="K198" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="201" spans="2:11">
-      <c r="B201" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C201" s="1" t="b">
+      <c r="K200" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11">
+      <c r="B203" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C203" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H201" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I201" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="J201" s="2">
+      <c r="H203" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J203" s="2">
         <v>1</v>
       </c>
-      <c r="K201" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="202" spans="8:11">
-      <c r="H202" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="I202" s="2" t="s">
+      <c r="K203" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="J202" s="2">
-        <v>2</v>
-      </c>
-      <c r="K202" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="203" spans="8:11">
-      <c r="H203" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="I203" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="J203" s="2">
-        <v>3</v>
-      </c>
-      <c r="K203" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="204" spans="8:11">
       <c r="H204" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J204" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="205" spans="8:11">
       <c r="H205" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J205" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="206" spans="8:11">
       <c r="H206" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J206" s="2">
+        <v>4</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="207" spans="8:11">
+      <c r="H207" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I206" s="2" t="s">
+      <c r="I207" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="J206" s="2">
+      <c r="J207" s="2">
+        <v>5</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="208" spans="8:11">
+      <c r="H208" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J208" s="2">
         <v>6</v>
       </c>
-      <c r="K206" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="210" spans="2:11">
-      <c r="B210" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H210" s="2" t="s">
+      <c r="K208" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="I210" s="2" t="s">
+    </row>
+    <row r="212" spans="2:11">
+      <c r="B212" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J210" s="2">
+      <c r="H212" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J212" s="2">
         <v>1</v>
       </c>
-      <c r="K210" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="211" spans="8:11">
-      <c r="H211" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I211" s="2" t="s">
+      <c r="K212" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="J211" s="2">
-        <v>2</v>
-      </c>
-      <c r="K211" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="212" spans="8:11">
-      <c r="H212" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="I212" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="J212" s="2">
-        <v>3</v>
-      </c>
-      <c r="K212" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="213" spans="8:11">
       <c r="H213" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J213" s="2">
+        <v>2</v>
+      </c>
+      <c r="K213" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="214" spans="8:11">
+      <c r="H214" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="I213" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J213" s="2">
-        <v>4</v>
-      </c>
-      <c r="K213" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="215" spans="2:11">
-      <c r="B215" s="1" t="s">
+      <c r="I214" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="J214" s="2">
+        <v>3</v>
+      </c>
+      <c r="K214" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="215" spans="8:11">
       <c r="H215" s="2" t="s">
         <v>369</v>
       </c>
       <c r="I215" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J215" s="2">
+        <v>4</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="217" spans="2:11">
+      <c r="B217" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="J215" s="2">
+      <c r="H217" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J217" s="2">
         <v>1</v>
       </c>
-      <c r="K215" s="2" t="s">
+      <c r="K217" s="2" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="216" spans="8:11">
-      <c r="H216" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I216" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="J216" s="2">
-        <v>2</v>
-      </c>
-      <c r="K216" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="217" spans="8:11">
-      <c r="H217" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I217" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J217" s="2">
-        <v>3</v>
-      </c>
-      <c r="K217" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="218" spans="8:11">
       <c r="H218" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J218" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K218" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="219" spans="8:11">
       <c r="H219" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J219" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>381</v>
+        <v>160</v>
       </c>
     </row>
     <row r="220" spans="8:11">
       <c r="H220" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J220" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K220" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="221" spans="8:11">
       <c r="H221" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J221" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K221" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="222" spans="8:11">
       <c r="H222" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I222" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J222" s="2">
+        <v>6</v>
+      </c>
+      <c r="K222" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="223" spans="8:11">
+      <c r="H223" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I223" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="I222" s="2" t="s">
+      <c r="J223" s="2">
+        <v>7</v>
+      </c>
+      <c r="K223" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="J222" s="2">
+    </row>
+    <row r="224" spans="8:11">
+      <c r="H224" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="J224" s="2">
         <v>8</v>
       </c>
-      <c r="K222" s="2" t="s">
-        <v>390</v>
+      <c r="K224" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="395">
   <si>
     <t>##var</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>钻石</t>
+  </si>
+  <si>
+    <t>CurrencyType_SoulExp</t>
+  </si>
+  <si>
+    <t>灵蕴</t>
   </si>
   <si>
     <t>CurrencyType_Max</t>
@@ -1939,7 +1945,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1995,6 +2001,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2346,10 +2355,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L224"/>
+  <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="H196" sqref="H196"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2475,7 +2484,7 @@
       <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2487,7 +2496,7 @@
       <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2499,7 +2508,7 @@
       <c r="J6" s="2">
         <v>3</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="22" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2511,7 +2520,7 @@
       <c r="J7" s="2">
         <v>4</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2529,7 +2538,7 @@
       <c r="J8" s="12">
         <v>99</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="23" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2553,7 +2562,7 @@
       <c r="J10" s="8">
         <v>1</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2573,7 +2582,7 @@
       <c r="J11" s="16">
         <v>2</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="25" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2593,7 +2602,7 @@
       <c r="J12" s="16">
         <v>3</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2613,7 +2622,7 @@
       <c r="J13" s="16">
         <v>4</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="25" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2633,7 +2642,7 @@
       <c r="J14" s="12">
         <v>5</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2660,7 +2669,7 @@
       <c r="J17" s="8">
         <v>1</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2675,7 +2684,7 @@
       <c r="J18" s="2">
         <v>2</v>
       </c>
-      <c r="K18" s="24" t="s">
+      <c r="K18" s="25" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2690,58 +2699,58 @@
       <c r="J19" s="2">
         <v>3</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="17"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12" t="s">
+      <c r="B20" s="19"/>
+      <c r="H20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="13" t="s">
+      <c r="I20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="b">
+      <c r="J20" s="2">
+        <v>4</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="17"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" s="8">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="8">
         <v>1</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="14"/>
-      <c r="H23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="2">
-        <v>2</v>
       </c>
       <c r="K23" s="24" t="s">
         <v>53</v>
@@ -2756,9 +2765,9 @@
         <v>55</v>
       </c>
       <c r="J24" s="2">
-        <v>3</v>
-      </c>
-      <c r="K24" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="25" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2771,123 +2780,123 @@
         <v>57</v>
       </c>
       <c r="J25" s="2">
+        <v>3</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="14"/>
+      <c r="H26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="2">
         <v>4</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="17"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" s="12">
-        <v>5</v>
       </c>
       <c r="K26" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="13" t="s">
+    <row r="27" spans="2:11">
+      <c r="B27" s="17"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8" t="s">
+      <c r="I27" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="J27" s="12">
+        <v>5</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J28" s="8">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="8">
         <v>1</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="14"/>
-      <c r="H29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J29" s="2">
-        <v>2</v>
       </c>
       <c r="K29" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="17"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12" t="s">
+      <c r="B30" s="14"/>
+      <c r="H30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J30" s="12">
-        <v>3</v>
+      <c r="J30" s="2">
+        <v>2</v>
       </c>
       <c r="K30" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="13" t="s">
+    <row r="31" spans="2:11">
+      <c r="B31" s="17"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="b">
+      <c r="I31" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="12">
+        <v>3</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J32" s="8">
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" s="8">
         <v>1</v>
-      </c>
-      <c r="K32" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="14"/>
-      <c r="H33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J33" s="2">
-        <v>2</v>
       </c>
       <c r="K33" s="24" t="s">
         <v>71</v>
@@ -2902,9 +2911,9 @@
         <v>73</v>
       </c>
       <c r="J34" s="2">
-        <v>3</v>
-      </c>
-      <c r="K34" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2917,9 +2926,9 @@
         <v>75</v>
       </c>
       <c r="J35" s="2">
-        <v>4</v>
-      </c>
-      <c r="K35" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="25" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2932,9 +2941,9 @@
         <v>77</v>
       </c>
       <c r="J36" s="2">
-        <v>5</v>
-      </c>
-      <c r="K36" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="25" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2947,72 +2956,67 @@
         <v>79</v>
       </c>
       <c r="J37" s="2">
+        <v>5</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="14"/>
+      <c r="H38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" s="2">
         <v>6</v>
-      </c>
-      <c r="K37" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="17"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J38" s="12">
-        <v>7</v>
       </c>
       <c r="K38" s="25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="13" t="s">
+    <row r="39" spans="2:11">
+      <c r="B39" s="17"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8" t="s">
+      <c r="I39" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="J39" s="12">
+        <v>7</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J40" s="8">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" s="8">
         <v>1</v>
       </c>
-      <c r="K40" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I41" s="16" t="s">
+      <c r="K41" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="J41" s="16">
-        <v>2</v>
-      </c>
-      <c r="K41" s="24" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:11">
@@ -3023,16 +3027,16 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I42" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I42" s="16" t="s">
+      <c r="J42" s="16">
+        <v>2</v>
+      </c>
+      <c r="K42" s="25" t="s">
         <v>90</v>
-      </c>
-      <c r="J42" s="16">
-        <v>3</v>
-      </c>
-      <c r="K42" s="24" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -3043,16 +3047,16 @@
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I43" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="J43" s="16">
+        <v>3</v>
+      </c>
+      <c r="K43" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="J43" s="16">
-        <v>4</v>
-      </c>
-      <c r="K43" s="24" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -3063,117 +3067,122 @@
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
       <c r="H44" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="J44" s="16">
+        <v>4</v>
+      </c>
+      <c r="K44" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="J44" s="16">
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45" s="16">
         <v>5</v>
       </c>
-      <c r="K44" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="17"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I45" s="12" t="s">
+      <c r="K45" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="J45" s="12">
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="17"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J46" s="12">
         <v>6</v>
       </c>
-      <c r="K45" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="8" t="s">
+      <c r="K46" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="I47" s="8" t="s">
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J47" s="8">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J48" s="8">
         <v>1001</v>
       </c>
-      <c r="K47" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="14"/>
-      <c r="H48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I48" s="2" t="s">
+      <c r="K48" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="J48" s="2">
-        <v>1002</v>
-      </c>
-      <c r="K48" s="24" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="14"/>
       <c r="H49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2">
+        <v>1002</v>
+      </c>
+      <c r="K49" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="J49" s="2">
-        <v>1003</v>
-      </c>
-      <c r="K49" s="24" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="14"/>
       <c r="H50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="J50" s="2">
+        <v>1003</v>
+      </c>
+      <c r="K50" s="25" t="s">
         <v>112</v>
-      </c>
-      <c r="J50" s="2">
-        <v>1005</v>
-      </c>
-      <c r="K50" s="24" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="14"/>
       <c r="H51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="J51" s="2">
-        <v>1006</v>
-      </c>
-      <c r="K51" s="24" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K51" s="25" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3186,9 +3195,9 @@
         <v>117</v>
       </c>
       <c r="J52" s="2">
-        <v>1007</v>
-      </c>
-      <c r="K52" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K52" s="25" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3201,7 +3210,7 @@
         <v>119</v>
       </c>
       <c r="J53" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>119</v>
@@ -3216,9 +3225,9 @@
         <v>121</v>
       </c>
       <c r="J54" s="2">
-        <v>1009</v>
-      </c>
-      <c r="K54" s="24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3231,9 +3240,9 @@
         <v>123</v>
       </c>
       <c r="J55" s="2">
-        <v>1010</v>
-      </c>
-      <c r="K55" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K55" s="25" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3246,7 +3255,7 @@
         <v>125</v>
       </c>
       <c r="J56" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>125</v>
@@ -3254,668 +3263,668 @@
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="14"/>
-      <c r="K57" s="24"/>
+      <c r="H57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1011</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="14"/>
-      <c r="H58" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J58" s="2">
-        <v>1101</v>
-      </c>
-      <c r="K58" s="24" t="s">
-        <v>128</v>
-      </c>
+      <c r="K58" s="25"/>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="14"/>
       <c r="H59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2">
+        <v>1101</v>
+      </c>
+      <c r="K59" s="25" t="s">
         <v>130</v>
-      </c>
-      <c r="J59" s="2">
-        <v>1102</v>
-      </c>
-      <c r="K59" s="24" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="14"/>
       <c r="H60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="J60" s="2">
+        <v>1102</v>
+      </c>
+      <c r="K60" s="25" t="s">
         <v>133</v>
-      </c>
-      <c r="J60" s="2">
-        <v>1103</v>
-      </c>
-      <c r="K60" s="24" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="14"/>
       <c r="H61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="J61" s="2">
+        <v>1103</v>
+      </c>
+      <c r="K61" s="25" t="s">
         <v>136</v>
-      </c>
-      <c r="J61" s="2">
-        <v>1104</v>
-      </c>
-      <c r="K61" s="24" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="14"/>
       <c r="H62" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="J62" s="2">
-        <v>1004</v>
-      </c>
-      <c r="K62" s="24" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K62" s="25" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="14"/>
-      <c r="H63" s="2" t="str">
-        <f>(_xlfn.CONCAT(H62,"Base"))</f>
-        <v>GP_SpeedBase</v>
-      </c>
-      <c r="I63" s="2" t="str">
-        <f>_xlfn.CONCAT(I62,"Base")</f>
-        <v>移动速度Base</v>
+      <c r="H63" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="J63" s="2">
-        <f>J62*10+1</f>
-        <v>10041</v>
-      </c>
-      <c r="K63" s="24" t="str">
-        <f>_xlfn.CONCAT(K62,"基础值")</f>
-        <v>移动速度基础值</v>
+        <v>1004</v>
+      </c>
+      <c r="K63" s="25" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="14"/>
       <c r="H64" s="2" t="str">
-        <f>_xlfn.CONCAT(H62,"Add")</f>
-        <v>GP_SpeedAdd</v>
+        <f>(_xlfn.CONCAT(H63,"Base"))</f>
+        <v>GP_SpeedBase</v>
       </c>
       <c r="I64" s="2" t="str">
-        <f>_xlfn.CONCAT(I62,"Add")</f>
-        <v>移动速度Add</v>
+        <f>_xlfn.CONCAT(I63,"Base")</f>
+        <v>移动速度Base</v>
       </c>
       <c r="J64" s="2">
-        <f>J62*10+2</f>
-        <v>10042</v>
-      </c>
-      <c r="K64" s="24" t="str">
-        <f>_xlfn.CONCAT(K62,"附加值")</f>
-        <v>移动速度附加值</v>
+        <f>J63*10+1</f>
+        <v>10041</v>
+      </c>
+      <c r="K64" s="25" t="str">
+        <f>_xlfn.CONCAT(K63,"基础值")</f>
+        <v>移动速度基础值</v>
       </c>
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="14"/>
       <c r="H65" s="2" t="str">
-        <f>_xlfn.CONCAT(H62,"Pct")</f>
-        <v>GP_SpeedPct</v>
+        <f>_xlfn.CONCAT(H63,"Add")</f>
+        <v>GP_SpeedAdd</v>
       </c>
       <c r="I65" s="2" t="str">
-        <f>_xlfn.CONCAT(I62,"Pct")</f>
-        <v>移动速度Pct</v>
+        <f>_xlfn.CONCAT(I63,"Add")</f>
+        <v>移动速度Add</v>
       </c>
       <c r="J65" s="2">
-        <f>J62*10+3</f>
-        <v>10043</v>
-      </c>
-      <c r="K65" s="24" t="str">
-        <f>_xlfn.CONCAT(K62,"百分比")</f>
-        <v>移动速度百分比</v>
+        <f>J63*10+2</f>
+        <v>10042</v>
+      </c>
+      <c r="K65" s="25" t="str">
+        <f>_xlfn.CONCAT(K63,"附加值")</f>
+        <v>移动速度附加值</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="14"/>
       <c r="H66" s="2" t="str">
-        <f>_xlfn.CONCAT(H62,"FinalAdd")</f>
-        <v>GP_SpeedFinalAdd</v>
+        <f>_xlfn.CONCAT(H63,"Pct")</f>
+        <v>GP_SpeedPct</v>
       </c>
       <c r="I66" s="2" t="str">
-        <f>_xlfn.CONCAT(I62,"FinalAdd")</f>
-        <v>移动速度FinalAdd</v>
+        <f>_xlfn.CONCAT(I63,"Pct")</f>
+        <v>移动速度Pct</v>
       </c>
       <c r="J66" s="2">
-        <f>J62*10+4</f>
-        <v>10044</v>
-      </c>
-      <c r="K66" s="24" t="str">
-        <f>_xlfn.CONCAT(K62,"最终附加值")</f>
-        <v>移动速度最终附加值</v>
+        <f>J63*10+3</f>
+        <v>10043</v>
+      </c>
+      <c r="K66" s="25" t="str">
+        <f>_xlfn.CONCAT(K63,"百分比")</f>
+        <v>移动速度百分比</v>
       </c>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="14"/>
       <c r="H67" s="2" t="str">
-        <f>_xlfn.CONCAT(H62,"FinalPct")</f>
-        <v>GP_SpeedFinalPct</v>
+        <f>_xlfn.CONCAT(H63,"FinalAdd")</f>
+        <v>GP_SpeedFinalAdd</v>
       </c>
       <c r="I67" s="2" t="str">
-        <f>_xlfn.CONCAT(I62,"FinalPct")</f>
-        <v>移动速度FinalPct</v>
+        <f>_xlfn.CONCAT(I63,"FinalAdd")</f>
+        <v>移动速度FinalAdd</v>
       </c>
       <c r="J67" s="2">
-        <f>J62*10+5</f>
-        <v>10045</v>
-      </c>
-      <c r="K67" s="24" t="str">
-        <f>_xlfn.CONCAT(K62,"最终百分比")</f>
-        <v>移动速度最终百分比</v>
+        <f>J63*10+4</f>
+        <v>10044</v>
+      </c>
+      <c r="K67" s="25" t="str">
+        <f>_xlfn.CONCAT(K63,"最终附加值")</f>
+        <v>移动速度最终附加值</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="14"/>
-      <c r="H68" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>141</v>
+      <c r="H68" s="2" t="str">
+        <f>_xlfn.CONCAT(H63,"FinalPct")</f>
+        <v>GP_SpeedFinalPct</v>
+      </c>
+      <c r="I68" s="2" t="str">
+        <f>_xlfn.CONCAT(I63,"FinalPct")</f>
+        <v>移动速度FinalPct</v>
       </c>
       <c r="J68" s="2">
-        <v>1105</v>
-      </c>
-      <c r="K68" s="24" t="s">
-        <v>142</v>
+        <f>J63*10+5</f>
+        <v>10045</v>
+      </c>
+      <c r="K68" s="25" t="str">
+        <f>_xlfn.CONCAT(K63,"最终百分比")</f>
+        <v>移动速度最终百分比</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="14"/>
-      <c r="H69" s="2" t="str">
-        <f>(_xlfn.CONCAT(H68,"Base"))</f>
-        <v>GP_AtkBase</v>
-      </c>
-      <c r="I69" s="2" t="str">
-        <f>_xlfn.CONCAT(I68,"Base")</f>
-        <v>AtkBase</v>
+      <c r="H69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="J69" s="2">
-        <f>J68*10+1</f>
-        <v>11051</v>
-      </c>
-      <c r="K69" s="24" t="str">
-        <f>_xlfn.CONCAT(K68,"基础值")</f>
-        <v>攻击基础值</v>
+        <v>1105</v>
+      </c>
+      <c r="K69" s="25" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="14"/>
       <c r="H70" s="2" t="str">
-        <f t="shared" ref="H70:H72" si="0">_xlfn.CONCAT(H68,"Add")</f>
-        <v>GP_AtkAdd</v>
+        <f>(_xlfn.CONCAT(H69,"Base"))</f>
+        <v>GP_AtkBase</v>
       </c>
       <c r="I70" s="2" t="str">
-        <f>_xlfn.CONCAT(I68,"Add")</f>
-        <v>AtkAdd</v>
+        <f>_xlfn.CONCAT(I69,"Base")</f>
+        <v>AtkBase</v>
       </c>
       <c r="J70" s="2">
-        <f>J68*10+2</f>
-        <v>11052</v>
-      </c>
-      <c r="K70" s="24" t="str">
-        <f>_xlfn.CONCAT(K68,"附加值")</f>
-        <v>攻击附加值</v>
+        <f>J69*10+1</f>
+        <v>11051</v>
+      </c>
+      <c r="K70" s="25" t="str">
+        <f>_xlfn.CONCAT(K69,"基础值")</f>
+        <v>攻击基础值</v>
       </c>
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="14"/>
       <c r="H71" s="2" t="str">
-        <f>_xlfn.CONCAT(H68,"Pct")</f>
-        <v>GP_AtkPct</v>
+        <f t="shared" ref="H71:H73" si="0">_xlfn.CONCAT(H69,"Add")</f>
+        <v>GP_AtkAdd</v>
       </c>
       <c r="I71" s="2" t="str">
-        <f>_xlfn.CONCAT(I68,"Pct")</f>
-        <v>AtkPct</v>
+        <f>_xlfn.CONCAT(I69,"Add")</f>
+        <v>AtkAdd</v>
       </c>
       <c r="J71" s="2">
-        <f>J68*10+3</f>
-        <v>11053</v>
-      </c>
-      <c r="K71" s="24" t="str">
-        <f>_xlfn.CONCAT(K68,"百分比")</f>
-        <v>攻击百分比</v>
+        <f>J69*10+2</f>
+        <v>11052</v>
+      </c>
+      <c r="K71" s="25" t="str">
+        <f>_xlfn.CONCAT(K69,"附加值")</f>
+        <v>攻击附加值</v>
       </c>
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="14"/>
       <c r="H72" s="2" t="str">
-        <f>_xlfn.CONCAT(H68,"FinalAdd")</f>
-        <v>GP_AtkFinalAdd</v>
+        <f>_xlfn.CONCAT(H69,"Pct")</f>
+        <v>GP_AtkPct</v>
       </c>
       <c r="I72" s="2" t="str">
-        <f>_xlfn.CONCAT(I68,"FinalAdd")</f>
-        <v>AtkFinalAdd</v>
+        <f>_xlfn.CONCAT(I69,"Pct")</f>
+        <v>AtkPct</v>
       </c>
       <c r="J72" s="2">
-        <f>J68*10+4</f>
-        <v>11054</v>
-      </c>
-      <c r="K72" s="24" t="str">
-        <f>_xlfn.CONCAT(K68,"最终附加值")</f>
-        <v>攻击最终附加值</v>
+        <f>J69*10+3</f>
+        <v>11053</v>
+      </c>
+      <c r="K72" s="25" t="str">
+        <f>_xlfn.CONCAT(K69,"百分比")</f>
+        <v>攻击百分比</v>
       </c>
     </row>
     <row r="73" spans="2:11">
       <c r="B73" s="14"/>
       <c r="H73" s="2" t="str">
-        <f>_xlfn.CONCAT(H68,"FinalPct")</f>
-        <v>GP_AtkFinalPct</v>
+        <f>_xlfn.CONCAT(H69,"FinalAdd")</f>
+        <v>GP_AtkFinalAdd</v>
       </c>
       <c r="I73" s="2" t="str">
-        <f>_xlfn.CONCAT(I68,"FinalPct")</f>
-        <v>AtkFinalPct</v>
+        <f>_xlfn.CONCAT(I69,"FinalAdd")</f>
+        <v>AtkFinalAdd</v>
       </c>
       <c r="J73" s="2">
-        <f>J68*10+5</f>
-        <v>11055</v>
-      </c>
-      <c r="K73" s="24" t="str">
-        <f>_xlfn.CONCAT(K68,"最终百分比")</f>
-        <v>攻击最终百分比</v>
+        <f>J69*10+4</f>
+        <v>11054</v>
+      </c>
+      <c r="K73" s="25" t="str">
+        <f>_xlfn.CONCAT(K69,"最终附加值")</f>
+        <v>攻击最终附加值</v>
       </c>
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="14"/>
-      <c r="H74" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>144</v>
+      <c r="H74" s="2" t="str">
+        <f>_xlfn.CONCAT(H69,"FinalPct")</f>
+        <v>GP_AtkFinalPct</v>
+      </c>
+      <c r="I74" s="2" t="str">
+        <f>_xlfn.CONCAT(I69,"FinalPct")</f>
+        <v>AtkFinalPct</v>
       </c>
       <c r="J74" s="2">
-        <v>1106</v>
-      </c>
-      <c r="K74" s="24" t="s">
-        <v>145</v>
+        <f>J69*10+5</f>
+        <v>11055</v>
+      </c>
+      <c r="K74" s="25" t="str">
+        <f>_xlfn.CONCAT(K69,"最终百分比")</f>
+        <v>攻击最终百分比</v>
       </c>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="14"/>
-      <c r="H75" s="2" t="str">
-        <f>(_xlfn.CONCAT(H74,"Base"))</f>
-        <v>GP_DefBase</v>
-      </c>
-      <c r="I75" s="2" t="str">
-        <f>_xlfn.CONCAT(I74,"Base")</f>
-        <v>DefBase</v>
+      <c r="H75" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="J75" s="2">
-        <f>J74*10+1</f>
-        <v>11061</v>
-      </c>
-      <c r="K75" s="24" t="str">
-        <f>_xlfn.CONCAT(K74,"基础值")</f>
-        <v>防御基础值</v>
+        <v>1106</v>
+      </c>
+      <c r="K75" s="25" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="2:11">
       <c r="B76" s="14"/>
       <c r="H76" s="2" t="str">
-        <f>_xlfn.CONCAT(H74,"Add")</f>
-        <v>GP_DefAdd</v>
+        <f>(_xlfn.CONCAT(H75,"Base"))</f>
+        <v>GP_DefBase</v>
       </c>
       <c r="I76" s="2" t="str">
-        <f>_xlfn.CONCAT(I74,"Add")</f>
-        <v>DefAdd</v>
+        <f>_xlfn.CONCAT(I75,"Base")</f>
+        <v>DefBase</v>
       </c>
       <c r="J76" s="2">
-        <f>J74*10+2</f>
-        <v>11062</v>
-      </c>
-      <c r="K76" s="24" t="str">
-        <f>_xlfn.CONCAT(K74,"附加值")</f>
-        <v>防御附加值</v>
+        <f>J75*10+1</f>
+        <v>11061</v>
+      </c>
+      <c r="K76" s="25" t="str">
+        <f>_xlfn.CONCAT(K75,"基础值")</f>
+        <v>防御基础值</v>
       </c>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="14"/>
       <c r="H77" s="2" t="str">
-        <f>_xlfn.CONCAT(H74,"Pct")</f>
-        <v>GP_DefPct</v>
+        <f>_xlfn.CONCAT(H75,"Add")</f>
+        <v>GP_DefAdd</v>
       </c>
       <c r="I77" s="2" t="str">
-        <f>_xlfn.CONCAT(I74,"Pct")</f>
-        <v>DefPct</v>
+        <f>_xlfn.CONCAT(I75,"Add")</f>
+        <v>DefAdd</v>
       </c>
       <c r="J77" s="2">
-        <f>J74*10+3</f>
-        <v>11063</v>
-      </c>
-      <c r="K77" s="24" t="str">
-        <f>_xlfn.CONCAT(K74,"百分比")</f>
-        <v>防御百分比</v>
+        <f>J75*10+2</f>
+        <v>11062</v>
+      </c>
+      <c r="K77" s="25" t="str">
+        <f>_xlfn.CONCAT(K75,"附加值")</f>
+        <v>防御附加值</v>
       </c>
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="14"/>
       <c r="H78" s="2" t="str">
-        <f>_xlfn.CONCAT(H74,"FinalAdd")</f>
-        <v>GP_DefFinalAdd</v>
+        <f>_xlfn.CONCAT(H75,"Pct")</f>
+        <v>GP_DefPct</v>
       </c>
       <c r="I78" s="2" t="str">
-        <f>_xlfn.CONCAT(I74,"FinalAdd")</f>
-        <v>DefFinalAdd</v>
+        <f>_xlfn.CONCAT(I75,"Pct")</f>
+        <v>DefPct</v>
       </c>
       <c r="J78" s="2">
-        <f>J74*10+4</f>
-        <v>11064</v>
-      </c>
-      <c r="K78" s="24" t="str">
-        <f>_xlfn.CONCAT(K74,"最终附加值")</f>
-        <v>防御最终附加值</v>
+        <f>J75*10+3</f>
+        <v>11063</v>
+      </c>
+      <c r="K78" s="25" t="str">
+        <f>_xlfn.CONCAT(K75,"百分比")</f>
+        <v>防御百分比</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="14"/>
       <c r="H79" s="2" t="str">
-        <f>_xlfn.CONCAT(H74,"FinalPct")</f>
-        <v>GP_DefFinalPct</v>
+        <f>_xlfn.CONCAT(H75,"FinalAdd")</f>
+        <v>GP_DefFinalAdd</v>
       </c>
       <c r="I79" s="2" t="str">
-        <f>_xlfn.CONCAT(I74,"FinalPct")</f>
-        <v>DefFinalPct</v>
+        <f>_xlfn.CONCAT(I75,"FinalAdd")</f>
+        <v>DefFinalAdd</v>
       </c>
       <c r="J79" s="2">
-        <f>J74*10+5</f>
-        <v>11065</v>
-      </c>
-      <c r="K79" s="24" t="str">
-        <f>_xlfn.CONCAT(K74,"最终百分比")</f>
-        <v>防御最终百分比</v>
+        <f>J75*10+4</f>
+        <v>11064</v>
+      </c>
+      <c r="K79" s="25" t="str">
+        <f>_xlfn.CONCAT(K75,"最终附加值")</f>
+        <v>防御最终附加值</v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="14"/>
-      <c r="H80" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>147</v>
+      <c r="H80" s="2" t="str">
+        <f>_xlfn.CONCAT(H75,"FinalPct")</f>
+        <v>GP_DefFinalPct</v>
+      </c>
+      <c r="I80" s="2" t="str">
+        <f>_xlfn.CONCAT(I75,"FinalPct")</f>
+        <v>DefFinalPct</v>
       </c>
       <c r="J80" s="2">
-        <v>1107</v>
-      </c>
-      <c r="K80" s="24" t="s">
-        <v>148</v>
+        <f>J75*10+5</f>
+        <v>11065</v>
+      </c>
+      <c r="K80" s="25" t="str">
+        <f>_xlfn.CONCAT(K75,"最终百分比")</f>
+        <v>防御最终百分比</v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" s="14"/>
-      <c r="H81" s="2" t="str">
-        <f>(_xlfn.CONCAT(H80,"Base"))</f>
-        <v>GP_HitBase</v>
-      </c>
-      <c r="I81" s="2" t="str">
-        <f>_xlfn.CONCAT(I80,"Base")</f>
-        <v>HitBase</v>
+      <c r="H81" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="J81" s="2">
-        <f>J80*10+1</f>
-        <v>11071</v>
-      </c>
-      <c r="K81" s="24" t="str">
-        <f>_xlfn.CONCAT(K80,"基础值")</f>
-        <v>命中基础值</v>
+        <v>1107</v>
+      </c>
+      <c r="K81" s="25" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" s="14"/>
       <c r="H82" s="2" t="str">
-        <f>_xlfn.CONCAT(H80,"Add")</f>
-        <v>GP_HitAdd</v>
+        <f>(_xlfn.CONCAT(H81,"Base"))</f>
+        <v>GP_HitBase</v>
       </c>
       <c r="I82" s="2" t="str">
-        <f>_xlfn.CONCAT(I80,"Add")</f>
-        <v>HitAdd</v>
+        <f>_xlfn.CONCAT(I81,"Base")</f>
+        <v>HitBase</v>
       </c>
       <c r="J82" s="2">
-        <f>J80*10+2</f>
-        <v>11072</v>
-      </c>
-      <c r="K82" s="24" t="str">
-        <f>_xlfn.CONCAT(K80,"附加值")</f>
-        <v>命中附加值</v>
+        <f>J81*10+1</f>
+        <v>11071</v>
+      </c>
+      <c r="K82" s="25" t="str">
+        <f>_xlfn.CONCAT(K81,"基础值")</f>
+        <v>命中基础值</v>
       </c>
     </row>
     <row r="83" spans="2:11">
       <c r="B83" s="14"/>
       <c r="H83" s="2" t="str">
-        <f>_xlfn.CONCAT(H80,"Pct")</f>
-        <v>GP_HitPct</v>
+        <f>_xlfn.CONCAT(H81,"Add")</f>
+        <v>GP_HitAdd</v>
       </c>
       <c r="I83" s="2" t="str">
-        <f>_xlfn.CONCAT(I80,"Pct")</f>
-        <v>HitPct</v>
+        <f>_xlfn.CONCAT(I81,"Add")</f>
+        <v>HitAdd</v>
       </c>
       <c r="J83" s="2">
-        <f>J80*10+3</f>
-        <v>11073</v>
-      </c>
-      <c r="K83" s="24" t="str">
-        <f>_xlfn.CONCAT(K80,"百分比")</f>
-        <v>命中百分比</v>
+        <f>J81*10+2</f>
+        <v>11072</v>
+      </c>
+      <c r="K83" s="25" t="str">
+        <f>_xlfn.CONCAT(K81,"附加值")</f>
+        <v>命中附加值</v>
       </c>
     </row>
     <row r="84" spans="2:11">
       <c r="B84" s="14"/>
       <c r="H84" s="2" t="str">
-        <f>_xlfn.CONCAT(H80,"FinalAdd")</f>
-        <v>GP_HitFinalAdd</v>
+        <f>_xlfn.CONCAT(H81,"Pct")</f>
+        <v>GP_HitPct</v>
       </c>
       <c r="I84" s="2" t="str">
-        <f>_xlfn.CONCAT(I80,"FinalAdd")</f>
-        <v>HitFinalAdd</v>
+        <f>_xlfn.CONCAT(I81,"Pct")</f>
+        <v>HitPct</v>
       </c>
       <c r="J84" s="2">
-        <f>J80*10+4</f>
-        <v>11074</v>
-      </c>
-      <c r="K84" s="24" t="str">
-        <f>_xlfn.CONCAT(K80,"最终附加值")</f>
-        <v>命中最终附加值</v>
+        <f>J81*10+3</f>
+        <v>11073</v>
+      </c>
+      <c r="K84" s="25" t="str">
+        <f>_xlfn.CONCAT(K81,"百分比")</f>
+        <v>命中百分比</v>
       </c>
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="14"/>
       <c r="H85" s="2" t="str">
-        <f>_xlfn.CONCAT(H80,"FinalPct")</f>
-        <v>GP_HitFinalPct</v>
+        <f>_xlfn.CONCAT(H81,"FinalAdd")</f>
+        <v>GP_HitFinalAdd</v>
       </c>
       <c r="I85" s="2" t="str">
-        <f>_xlfn.CONCAT(I80,"FinalPct")</f>
-        <v>HitFinalPct</v>
+        <f>_xlfn.CONCAT(I81,"FinalAdd")</f>
+        <v>HitFinalAdd</v>
       </c>
       <c r="J85" s="2">
-        <f>J80*10+5</f>
-        <v>11075</v>
-      </c>
-      <c r="K85" s="24" t="str">
-        <f>_xlfn.CONCAT(K80,"最终百分比")</f>
-        <v>命中最终百分比</v>
+        <f>J81*10+4</f>
+        <v>11074</v>
+      </c>
+      <c r="K85" s="25" t="str">
+        <f>_xlfn.CONCAT(K81,"最终附加值")</f>
+        <v>命中最终附加值</v>
       </c>
     </row>
     <row r="86" spans="2:11">
       <c r="B86" s="14"/>
-      <c r="H86" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>150</v>
+      <c r="H86" s="2" t="str">
+        <f>_xlfn.CONCAT(H81,"FinalPct")</f>
+        <v>GP_HitFinalPct</v>
+      </c>
+      <c r="I86" s="2" t="str">
+        <f>_xlfn.CONCAT(I81,"FinalPct")</f>
+        <v>HitFinalPct</v>
       </c>
       <c r="J86" s="2">
-        <v>1108</v>
-      </c>
-      <c r="K86" s="24" t="s">
-        <v>151</v>
+        <f>J81*10+5</f>
+        <v>11075</v>
+      </c>
+      <c r="K86" s="25" t="str">
+        <f>_xlfn.CONCAT(K81,"最终百分比")</f>
+        <v>命中最终百分比</v>
       </c>
     </row>
     <row r="87" spans="2:11">
       <c r="B87" s="14"/>
-      <c r="H87" s="2" t="str">
-        <f>(_xlfn.CONCAT(H86,"Base"))</f>
-        <v>GP_CritBase</v>
-      </c>
-      <c r="I87" s="2" t="str">
-        <f>_xlfn.CONCAT(I86,"Base")</f>
-        <v>CritBase</v>
+      <c r="H87" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="J87" s="2">
-        <f>J86*10+1</f>
-        <v>11081</v>
-      </c>
-      <c r="K87" s="24" t="str">
-        <f>_xlfn.CONCAT(K86,"基础值")</f>
-        <v>暴击基础值</v>
+        <v>1108</v>
+      </c>
+      <c r="K87" s="25" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="2:11">
       <c r="B88" s="14"/>
       <c r="H88" s="2" t="str">
-        <f>_xlfn.CONCAT(H86,"Add")</f>
-        <v>GP_CritAdd</v>
+        <f>(_xlfn.CONCAT(H87,"Base"))</f>
+        <v>GP_CritBase</v>
       </c>
       <c r="I88" s="2" t="str">
-        <f>_xlfn.CONCAT(I86,"Add")</f>
-        <v>CritAdd</v>
+        <f>_xlfn.CONCAT(I87,"Base")</f>
+        <v>CritBase</v>
       </c>
       <c r="J88" s="2">
-        <f>J86*10+2</f>
-        <v>11082</v>
-      </c>
-      <c r="K88" s="24" t="str">
-        <f>_xlfn.CONCAT(K86,"附加值")</f>
-        <v>暴击附加值</v>
+        <f>J87*10+1</f>
+        <v>11081</v>
+      </c>
+      <c r="K88" s="25" t="str">
+        <f>_xlfn.CONCAT(K87,"基础值")</f>
+        <v>暴击基础值</v>
       </c>
     </row>
     <row r="89" spans="2:11">
       <c r="B89" s="14"/>
       <c r="H89" s="2" t="str">
-        <f>_xlfn.CONCAT(H86,"Pct")</f>
-        <v>GP_CritPct</v>
+        <f>_xlfn.CONCAT(H87,"Add")</f>
+        <v>GP_CritAdd</v>
       </c>
       <c r="I89" s="2" t="str">
-        <f>_xlfn.CONCAT(I86,"Pct")</f>
-        <v>CritPct</v>
+        <f>_xlfn.CONCAT(I87,"Add")</f>
+        <v>CritAdd</v>
       </c>
       <c r="J89" s="2">
-        <f>J86*10+3</f>
-        <v>11083</v>
-      </c>
-      <c r="K89" s="24" t="str">
-        <f>_xlfn.CONCAT(K86,"百分比")</f>
-        <v>暴击百分比</v>
+        <f>J87*10+2</f>
+        <v>11082</v>
+      </c>
+      <c r="K89" s="25" t="str">
+        <f>_xlfn.CONCAT(K87,"附加值")</f>
+        <v>暴击附加值</v>
       </c>
     </row>
     <row r="90" spans="2:11">
       <c r="B90" s="14"/>
       <c r="H90" s="2" t="str">
-        <f>_xlfn.CONCAT(H86,"FinalAdd")</f>
+        <f>_xlfn.CONCAT(H87,"Pct")</f>
+        <v>GP_CritPct</v>
+      </c>
+      <c r="I90" s="2" t="str">
+        <f>_xlfn.CONCAT(I87,"Pct")</f>
+        <v>CritPct</v>
+      </c>
+      <c r="J90" s="2">
+        <f>J87*10+3</f>
+        <v>11083</v>
+      </c>
+      <c r="K90" s="25" t="str">
+        <f>_xlfn.CONCAT(K87,"百分比")</f>
+        <v>暴击百分比</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" s="14"/>
+      <c r="H91" s="2" t="str">
+        <f>_xlfn.CONCAT(H87,"FinalAdd")</f>
         <v>GP_CritFinalAdd</v>
       </c>
-      <c r="I90" s="2" t="str">
-        <f>_xlfn.CONCAT(I86,"FinalAdd")</f>
+      <c r="I91" s="2" t="str">
+        <f>_xlfn.CONCAT(I87,"FinalAdd")</f>
         <v>CritFinalAdd</v>
       </c>
-      <c r="J90" s="2">
-        <f>J86*10+4</f>
+      <c r="J91" s="2">
+        <f>J87*10+4</f>
         <v>11084</v>
       </c>
-      <c r="K90" s="24" t="str">
-        <f>_xlfn.CONCAT(K86,"最终附加值")</f>
+      <c r="K91" s="25" t="str">
+        <f>_xlfn.CONCAT(K87,"最终附加值")</f>
         <v>暴击最终附加值</v>
       </c>
     </row>
-    <row r="91" spans="2:11">
-      <c r="B91" s="17"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="12" t="str">
-        <f>_xlfn.CONCAT(H86,"FinalPct")</f>
+    <row r="92" spans="2:11">
+      <c r="B92" s="17"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="12" t="str">
+        <f>_xlfn.CONCAT(H87,"FinalPct")</f>
         <v>GP_CritFinalPct</v>
       </c>
-      <c r="I91" s="12" t="str">
-        <f>_xlfn.CONCAT(I86,"FinalPct")</f>
+      <c r="I92" s="12" t="str">
+        <f>_xlfn.CONCAT(I87,"FinalPct")</f>
         <v>CritFinalPct</v>
       </c>
-      <c r="J91" s="12">
-        <f>J86*10+5</f>
+      <c r="J92" s="12">
+        <f>J87*10+5</f>
         <v>11085</v>
       </c>
-      <c r="K91" s="25" t="str">
-        <f>_xlfn.CONCAT(K86,"最终百分比")</f>
+      <c r="K92" s="26" t="str">
+        <f>_xlfn.CONCAT(K87,"最终百分比")</f>
         <v>暴击最终百分比</v>
       </c>
     </row>
-    <row r="93" spans="2:11">
-      <c r="B93" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8">
+    <row r="94" spans="2:11">
+      <c r="B94" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8">
         <v>0</v>
       </c>
-      <c r="K93" s="23"/>
-    </row>
-    <row r="94" spans="2:11">
-      <c r="B94" s="14"/>
-      <c r="H94" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J94" s="2">
-        <v>1</v>
-      </c>
-      <c r="K94" s="24" t="s">
-        <v>156</v>
-      </c>
+      <c r="K94" s="24"/>
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="14"/>
       <c r="H95" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I95" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="J95" s="2">
-        <v>2</v>
-      </c>
-      <c r="K95" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K95" s="25" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3928,9 +3937,9 @@
         <v>160</v>
       </c>
       <c r="J96" s="2">
-        <v>3</v>
-      </c>
-      <c r="K96" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K96" s="25" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3943,9 +3952,9 @@
         <v>162</v>
       </c>
       <c r="J97" s="2">
-        <v>4</v>
-      </c>
-      <c r="K97" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K97" s="25" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3958,9 +3967,9 @@
         <v>164</v>
       </c>
       <c r="J98" s="2">
-        <v>5</v>
-      </c>
-      <c r="K98" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K98" s="25" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3973,9 +3982,9 @@
         <v>166</v>
       </c>
       <c r="J99" s="2">
-        <v>6</v>
-      </c>
-      <c r="K99" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K99" s="25" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3988,9 +3997,9 @@
         <v>168</v>
       </c>
       <c r="J100" s="2">
-        <v>7</v>
-      </c>
-      <c r="K100" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K100" s="25" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4003,106 +4012,106 @@
         <v>170</v>
       </c>
       <c r="J101" s="2">
+        <v>7</v>
+      </c>
+      <c r="K101" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="14"/>
+      <c r="H102" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J102" s="2">
         <v>8</v>
-      </c>
-      <c r="K101" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11">
-      <c r="B102" s="17"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I102" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="J102" s="12">
-        <v>9</v>
       </c>
       <c r="K102" s="25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="104" spans="2:11">
-      <c r="B104" s="13" t="s">
+    <row r="103" spans="2:11">
+      <c r="B103" s="17"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="8" t="s">
+      <c r="I103" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="I104" s="8" t="s">
+      <c r="J103" s="12">
+        <v>9</v>
+      </c>
+      <c r="K103" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J104" s="8">
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J105" s="8">
         <v>1</v>
       </c>
-      <c r="K104" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11">
-      <c r="B105" s="17"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="I105" s="12" t="s">
+      <c r="K105" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="J105" s="12">
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="17"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I106" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J106" s="12">
         <v>2</v>
       </c>
-      <c r="K105" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11">
-      <c r="B107" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="8" t="s">
+      <c r="K106" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="I107" s="8" t="s">
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="J107" s="8">
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J108" s="8">
         <v>1</v>
-      </c>
-      <c r="K107" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11">
-      <c r="B108" s="14"/>
-      <c r="H108" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J108" s="2">
-        <v>2</v>
       </c>
       <c r="K108" s="24" t="s">
         <v>182</v>
@@ -4117,69 +4126,64 @@
         <v>184</v>
       </c>
       <c r="J109" s="2">
+        <v>2</v>
+      </c>
+      <c r="K109" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="14"/>
+      <c r="H110" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J110" s="2">
         <v>3</v>
       </c>
-      <c r="K109" s="24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11">
-      <c r="B110" s="17"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="I110" s="12" t="s">
+      <c r="K110" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="J110" s="12">
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="17"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="J111" s="12">
         <v>4</v>
       </c>
-      <c r="K110" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11">
-      <c r="B112" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7" t="s">
+      <c r="K111" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="I112" s="8" t="s">
+    </row>
+    <row r="113" spans="2:11">
+      <c r="B113" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="J112" s="8">
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J113" s="8">
         <v>1</v>
-      </c>
-      <c r="K112" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11">
-      <c r="B113" s="14"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="I113" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="J113" s="16">
-        <v>2</v>
       </c>
       <c r="K113" s="24" t="s">
         <v>192</v>
@@ -4199,9 +4203,9 @@
         <v>194</v>
       </c>
       <c r="J114" s="16">
-        <v>3</v>
-      </c>
-      <c r="K114" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K114" s="25" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4219,64 +4223,69 @@
         <v>196</v>
       </c>
       <c r="J115" s="16">
+        <v>3</v>
+      </c>
+      <c r="K115" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11">
+      <c r="B116" s="14"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I116" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="J116" s="16">
         <v>4</v>
-      </c>
-      <c r="K115" s="24" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11">
-      <c r="B116" s="17"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="I116" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="J116" s="12">
-        <v>5</v>
       </c>
       <c r="K116" s="25" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="118" spans="2:11">
-      <c r="B118" s="13" t="s">
+    <row r="117" spans="2:11">
+      <c r="B117" s="17"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="8" t="s">
+      <c r="I117" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="I118" s="8" t="s">
+      <c r="J117" s="12">
+        <v>5</v>
+      </c>
+      <c r="K117" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="J118" s="8">
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="J119" s="8">
         <v>1</v>
-      </c>
-      <c r="K118" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11">
-      <c r="B119" s="14"/>
-      <c r="H119" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J119" s="2">
-        <v>2</v>
       </c>
       <c r="K119" s="24" t="s">
         <v>203</v>
@@ -4291,125 +4300,124 @@
         <v>205</v>
       </c>
       <c r="J120" s="2">
+        <v>2</v>
+      </c>
+      <c r="K120" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="14"/>
+      <c r="H121" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J121" s="2">
         <v>3</v>
-      </c>
-      <c r="K120" s="24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11">
-      <c r="B121" s="17"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="I121" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="J121" s="12">
-        <v>4</v>
       </c>
       <c r="K121" s="25" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="123" spans="2:11">
-      <c r="B123" s="13" t="s">
+    <row r="122" spans="2:11">
+      <c r="B122" s="17"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="8" t="s">
+      <c r="I122" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="I123" s="8" t="s">
+      <c r="J122" s="12">
+        <v>4</v>
+      </c>
+      <c r="K122" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="J123" s="8">
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J124" s="8">
         <v>1</v>
-      </c>
-      <c r="K123" s="23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11">
-      <c r="B124" s="14"/>
-      <c r="H124" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J124" s="2">
-        <v>2</v>
       </c>
       <c r="K124" s="24" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="125" spans="2:11">
-      <c r="B125" s="17"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="12" t="s">
+      <c r="B125" s="14"/>
+      <c r="H125" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I125" s="12" t="s">
+      <c r="I125" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J125" s="12">
-        <v>3</v>
+      <c r="J125" s="2">
+        <v>2</v>
       </c>
       <c r="K125" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="127" spans="2:11">
-      <c r="B127" s="13" t="s">
+    <row r="126" spans="2:11">
+      <c r="B126" s="17"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C127" s="7" t="b">
+      <c r="I126" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J126" s="12">
+        <v>3</v>
+      </c>
+      <c r="K126" s="26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11">
+      <c r="B128" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C128" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I127" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="J127" s="8">
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="J128" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
-      </c>
-      <c r="K127" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11">
-      <c r="B128" s="14"/>
-      <c r="H128" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J128" s="2">
-        <f>POWER(2,1)</f>
-        <v>2</v>
       </c>
       <c r="K128" s="24" t="s">
         <v>219</v>
@@ -4424,10 +4432,10 @@
         <v>221</v>
       </c>
       <c r="J129" s="2">
-        <f>POWER(2,2)</f>
-        <v>4</v>
-      </c>
-      <c r="K129" s="24" t="s">
+        <f>POWER(2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K129" s="25" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4440,10 +4448,10 @@
         <v>223</v>
       </c>
       <c r="J130" s="2">
-        <f>POWER(2,3)</f>
-        <v>8</v>
-      </c>
-      <c r="K130" s="24" t="s">
+        <f>POWER(2,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K130" s="25" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4456,10 +4464,10 @@
         <v>225</v>
       </c>
       <c r="J131" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
-      </c>
-      <c r="K131" s="24" t="s">
+        <f>POWER(2,3)</f>
+        <v>8</v>
+      </c>
+      <c r="K131" s="25" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4472,10 +4480,10 @@
         <v>227</v>
       </c>
       <c r="J132" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
-      </c>
-      <c r="K132" s="24" t="s">
+        <f>POWER(2,4)</f>
+        <v>16</v>
+      </c>
+      <c r="K132" s="25" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4488,10 +4496,10 @@
         <v>229</v>
       </c>
       <c r="J133" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
-      </c>
-      <c r="K133" s="24" t="s">
+        <f>POWER(2,5)</f>
+        <v>32</v>
+      </c>
+      <c r="K133" s="25" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4504,10 +4512,10 @@
         <v>231</v>
       </c>
       <c r="J134" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
-      </c>
-      <c r="K134" s="24" t="s">
+        <f>POWER(2,6)</f>
+        <v>64</v>
+      </c>
+      <c r="K134" s="25" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4520,70 +4528,70 @@
         <v>233</v>
       </c>
       <c r="J135" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K135" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11">
+      <c r="B136" s="14"/>
+      <c r="H136" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J136" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K135" s="24" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11">
-      <c r="B136" s="17"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="I136" s="12" t="s">
+      <c r="K136" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="J136" s="12">
+    </row>
+    <row r="137" spans="2:11">
+      <c r="B137" s="17"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="J137" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K136" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="138" spans="2:11">
-      <c r="B138" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C138" s="7" t="b">
+      <c r="K137" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11">
+      <c r="B139" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C139" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I138" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="J138" s="8">
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J139" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
-      </c>
-      <c r="K138" s="23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11">
-      <c r="B139" s="14"/>
-      <c r="H139" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J139" s="2">
-        <f>POWER(2,1)</f>
-        <v>2</v>
       </c>
       <c r="K139" s="24" t="s">
         <v>240</v>
@@ -4598,10 +4606,10 @@
         <v>242</v>
       </c>
       <c r="J140" s="2">
-        <f>POWER(2,2)</f>
-        <v>4</v>
-      </c>
-      <c r="K140" s="24" t="s">
+        <f>POWER(2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K140" s="25" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4614,10 +4622,10 @@
         <v>244</v>
       </c>
       <c r="J141" s="2">
-        <f>POWER(2,3)</f>
-        <v>8</v>
-      </c>
-      <c r="K141" s="24" t="s">
+        <f>POWER(2,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K141" s="25" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4630,10 +4638,10 @@
         <v>246</v>
       </c>
       <c r="J142" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
-      </c>
-      <c r="K142" s="24" t="s">
+        <f>POWER(2,3)</f>
+        <v>8</v>
+      </c>
+      <c r="K142" s="25" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4646,10 +4654,10 @@
         <v>248</v>
       </c>
       <c r="J143" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
-      </c>
-      <c r="K143" s="24" t="s">
+        <f>POWER(2,4)</f>
+        <v>16</v>
+      </c>
+      <c r="K143" s="25" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4662,10 +4670,10 @@
         <v>250</v>
       </c>
       <c r="J144" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
-      </c>
-      <c r="K144" s="24" t="s">
+        <f>POWER(2,5)</f>
+        <v>32</v>
+      </c>
+      <c r="K144" s="25" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4678,10 +4686,10 @@
         <v>252</v>
       </c>
       <c r="J145" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
-      </c>
-      <c r="K145" s="24" t="s">
+        <f>POWER(2,6)</f>
+        <v>64</v>
+      </c>
+      <c r="K145" s="25" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4694,75 +4702,70 @@
         <v>254</v>
       </c>
       <c r="J146" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K146" s="25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="14"/>
+      <c r="H147" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J147" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K146" s="24" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11">
-      <c r="B147" s="17"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="I147" s="12" t="s">
+      <c r="K147" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="J147" s="12">
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" s="17"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I148" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J148" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K147" s="25" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11">
-      <c r="B149" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C149" s="7" t="b">
+      <c r="K148" s="26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="B150" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C150" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="I149" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="J149" s="8">
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="I150" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="J150" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
-      </c>
-      <c r="K149" s="23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11">
-      <c r="B150" s="14"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="I150" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="J150" s="16">
-        <f>POWER(2,1)</f>
-        <v>2</v>
       </c>
       <c r="K150" s="24" t="s">
         <v>261</v>
@@ -4782,68 +4785,74 @@
         <v>263</v>
       </c>
       <c r="J151" s="16">
+        <f>POWER(2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K151" s="25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="B152" s="14"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="I152" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="J152" s="16">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K151" s="24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11">
-      <c r="B152" s="17"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="I152" s="12" t="s">
+      <c r="K152" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="J152" s="12">
+    </row>
+    <row r="153" spans="2:11">
+      <c r="B153" s="17"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="J153" s="12">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K152" s="25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11">
-      <c r="B154" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C154" s="7" t="b">
+      <c r="K153" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11">
+      <c r="B155" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C155" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="I154" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="J154" s="8">
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J155" s="8">
         <v>1</v>
-      </c>
-      <c r="K154" s="23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11">
-      <c r="B155" s="14"/>
-      <c r="H155" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J155" s="2">
-        <v>2</v>
       </c>
       <c r="K155" s="24" t="s">
         <v>270</v>
@@ -4858,110 +4867,110 @@
         <v>272</v>
       </c>
       <c r="J156" s="2">
+        <v>2</v>
+      </c>
+      <c r="K156" s="25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11">
+      <c r="B157" s="14"/>
+      <c r="H157" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J157" s="2">
         <v>3</v>
-      </c>
-      <c r="K156" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="157" spans="2:11">
-      <c r="B157" s="17"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="11"/>
-      <c r="E157" s="11"/>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="I157" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="J157" s="12">
-        <v>4</v>
       </c>
       <c r="K157" s="25" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="2:11">
-      <c r="B159" s="13" t="s">
+    <row r="158" spans="2:11">
+      <c r="B158" s="17"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C159" s="7" t="b">
+      <c r="I158" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="J158" s="12">
+        <v>4</v>
+      </c>
+      <c r="K158" s="26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11">
+      <c r="B160" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C160" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="I159" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="J159" s="8">
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I160" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J160" s="8">
         <v>1</v>
       </c>
-      <c r="K159" s="23" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11">
-      <c r="B160" s="17"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="I160" s="12" t="s">
+      <c r="K160" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="J160" s="12">
+    </row>
+    <row r="161" spans="2:11">
+      <c r="B161" s="17"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="I161" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J161" s="12">
         <v>2</v>
       </c>
-      <c r="K160" s="25" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11">
-      <c r="B162" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="C162" s="7" t="b">
+      <c r="K161" s="26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11">
+      <c r="B163" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C163" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="I162" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="J162" s="8">
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="I163" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="J163" s="8">
         <v>1</v>
-      </c>
-      <c r="K162" s="23" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="163" spans="2:11">
-      <c r="B163" s="14"/>
-      <c r="H163" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="I163" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J163" s="2">
-        <v>2</v>
       </c>
       <c r="K163" s="24" t="s">
         <v>284</v>
@@ -4976,73 +4985,73 @@
         <v>286</v>
       </c>
       <c r="J164" s="2">
+        <v>2</v>
+      </c>
+      <c r="K164" s="25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11">
+      <c r="B165" s="14"/>
+      <c r="H165" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J165" s="2">
         <v>3</v>
-      </c>
-      <c r="K164" s="24" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="165" spans="2:11">
-      <c r="B165" s="17"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="I165" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="J165" s="12">
-        <v>4</v>
       </c>
       <c r="K165" s="25" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="167" spans="2:11">
-      <c r="B167" s="26" t="s">
+    <row r="166" spans="2:11">
+      <c r="B166" s="17"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="C167" s="7" t="b">
+      <c r="I166" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="J166" s="12">
+        <v>4</v>
+      </c>
+      <c r="K166" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11">
+      <c r="B168" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C168" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="I167" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J167" s="8">
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I168" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J168" s="8">
         <v>1</v>
       </c>
-      <c r="K167" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="168" spans="2:11">
-      <c r="B168" s="27"/>
-      <c r="H168" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J168" s="2">
-        <v>2</v>
-      </c>
       <c r="K168" s="24" t="s">
-        <v>292</v>
+        <v>71</v>
       </c>
     </row>
     <row r="169" spans="2:11">
-      <c r="B169" s="27"/>
+      <c r="B169" s="28"/>
       <c r="H169" s="2" t="s">
         <v>293</v>
       </c>
@@ -5050,14 +5059,14 @@
         <v>294</v>
       </c>
       <c r="J169" s="2">
-        <v>3</v>
-      </c>
-      <c r="K169" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K169" s="25" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="170" spans="2:11">
-      <c r="B170" s="27"/>
+      <c r="B170" s="28"/>
       <c r="H170" s="2" t="s">
         <v>295</v>
       </c>
@@ -5065,14 +5074,14 @@
         <v>296</v>
       </c>
       <c r="J170" s="2">
-        <v>4</v>
-      </c>
-      <c r="K170" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K170" s="25" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="171" spans="2:11">
-      <c r="B171" s="27"/>
+      <c r="B171" s="28"/>
       <c r="H171" s="2" t="s">
         <v>297</v>
       </c>
@@ -5080,53 +5089,54 @@
         <v>298</v>
       </c>
       <c r="J171" s="2">
-        <v>5</v>
-      </c>
-      <c r="K171" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K171" s="25" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="172" spans="2:11">
       <c r="B172" s="28"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
-      <c r="E172" s="11"/>
-      <c r="F172" s="11"/>
-      <c r="G172" s="11"/>
-      <c r="H172" s="12" t="s">
+      <c r="H172" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="I172" s="12" t="s">
+      <c r="I172" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="J172" s="12">
-        <v>6</v>
+      <c r="J172" s="2">
+        <v>5</v>
       </c>
       <c r="K172" s="25" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="174" spans="2:11">
-      <c r="B174" s="1" t="s">
+    <row r="173" spans="2:11">
+      <c r="B173" s="29"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="C174" s="1" t="b">
+      <c r="I173" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="J173" s="12">
+        <v>6</v>
+      </c>
+      <c r="K173" s="26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11">
+      <c r="B175" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C175" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H174" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J174" s="2">
-        <v>1</v>
-      </c>
-      <c r="K174" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="175" spans="8:11">
       <c r="H175" s="2" t="s">
         <v>304</v>
       </c>
@@ -5134,33 +5144,33 @@
         <v>305</v>
       </c>
       <c r="J175" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="177" spans="2:11">
-      <c r="B177" s="1" t="s">
+    <row r="176" spans="8:11">
+      <c r="H176" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C177" s="1" t="b">
+      <c r="I176" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J176" s="2">
+        <v>2</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11">
+      <c r="B178" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C178" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H177" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="I177" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="J177" s="2">
-        <v>1</v>
-      </c>
-      <c r="K177" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="178" spans="8:11">
       <c r="H178" s="2" t="s">
         <v>309</v>
       </c>
@@ -5168,7 +5178,7 @@
         <v>310</v>
       </c>
       <c r="J178" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K178" s="2" t="s">
         <v>310</v>
@@ -5182,7 +5192,7 @@
         <v>312</v>
       </c>
       <c r="J179" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K179" s="2" t="s">
         <v>312</v>
@@ -5196,7 +5206,7 @@
         <v>314</v>
       </c>
       <c r="J180" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K180" s="2" t="s">
         <v>314</v>
@@ -5210,33 +5220,33 @@
         <v>316</v>
       </c>
       <c r="J181" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K181" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="184" spans="2:11">
-      <c r="B184" s="1" t="s">
+    <row r="182" spans="8:11">
+      <c r="H182" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C184" s="1" t="b">
+      <c r="I182" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="J182" s="2">
+        <v>5</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11">
+      <c r="B185" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C185" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H184" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="I184" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="J184" s="2">
-        <v>1</v>
-      </c>
-      <c r="K184" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="185" spans="8:11">
       <c r="H185" s="2" t="s">
         <v>320</v>
       </c>
@@ -5244,7 +5254,7 @@
         <v>321</v>
       </c>
       <c r="J185" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K185" s="2" t="s">
         <v>321</v>
@@ -5258,7 +5268,7 @@
         <v>323</v>
       </c>
       <c r="J186" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K186" s="2" t="s">
         <v>323</v>
@@ -5272,7 +5282,7 @@
         <v>325</v>
       </c>
       <c r="J187" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K187" s="2" t="s">
         <v>325</v>
@@ -5286,7 +5296,7 @@
         <v>327</v>
       </c>
       <c r="J188" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K188" s="2" t="s">
         <v>327</v>
@@ -5300,7 +5310,7 @@
         <v>329</v>
       </c>
       <c r="J189" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K189" s="2" t="s">
         <v>329</v>
@@ -5314,7 +5324,7 @@
         <v>331</v>
       </c>
       <c r="J190" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K190" s="2" t="s">
         <v>331</v>
@@ -5328,7 +5338,7 @@
         <v>333</v>
       </c>
       <c r="J191" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K191" s="2" t="s">
         <v>333</v>
@@ -5342,7 +5352,7 @@
         <v>335</v>
       </c>
       <c r="J192" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K192" s="2" t="s">
         <v>335</v>
@@ -5356,7 +5366,7 @@
         <v>337</v>
       </c>
       <c r="J193" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K193" s="2" t="s">
         <v>337</v>
@@ -5370,7 +5380,7 @@
         <v>339</v>
       </c>
       <c r="J194" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K194" s="2" t="s">
         <v>339</v>
@@ -5384,33 +5394,33 @@
         <v>341</v>
       </c>
       <c r="J195" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K195" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="198" spans="2:11">
-      <c r="B198" s="1" t="s">
+    <row r="196" spans="8:11">
+      <c r="H196" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C198" s="1" t="b">
+      <c r="I196" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J196" s="2">
+        <v>12</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11">
+      <c r="B199" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C199" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H198" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I198" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J198" s="2">
-        <v>1</v>
-      </c>
-      <c r="K198" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="199" spans="8:11">
       <c r="H199" s="2" t="s">
         <v>345</v>
       </c>
@@ -5418,7 +5428,7 @@
         <v>346</v>
       </c>
       <c r="J199" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K199" s="2" t="s">
         <v>346</v>
@@ -5432,33 +5442,33 @@
         <v>348</v>
       </c>
       <c r="J200" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K200" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="203" spans="2:11">
-      <c r="B203" s="1" t="s">
+    <row r="201" spans="8:11">
+      <c r="H201" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C203" s="1" t="b">
+      <c r="I201" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J201" s="2">
+        <v>3</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11">
+      <c r="B204" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C204" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H203" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="I203" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="J203" s="2">
-        <v>1</v>
-      </c>
-      <c r="K203" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="204" spans="8:11">
       <c r="H204" s="2" t="s">
         <v>352</v>
       </c>
@@ -5466,7 +5476,7 @@
         <v>353</v>
       </c>
       <c r="J204" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K204" s="2" t="s">
         <v>353</v>
@@ -5480,7 +5490,7 @@
         <v>355</v>
       </c>
       <c r="J205" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K205" s="2" t="s">
         <v>355</v>
@@ -5494,7 +5504,7 @@
         <v>357</v>
       </c>
       <c r="J206" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K206" s="2" t="s">
         <v>357</v>
@@ -5508,7 +5518,7 @@
         <v>359</v>
       </c>
       <c r="J207" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K207" s="2" t="s">
         <v>359</v>
@@ -5522,30 +5532,30 @@
         <v>361</v>
       </c>
       <c r="J208" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K208" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="212" spans="2:11">
-      <c r="B212" s="1" t="s">
+    <row r="209" spans="8:11">
+      <c r="H209" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="H212" s="2" t="s">
+      <c r="I209" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I212" s="2" t="s">
+      <c r="J209" s="2">
+        <v>6</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="213" spans="2:11">
+      <c r="B213" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J212" s="2">
-        <v>1</v>
-      </c>
-      <c r="K212" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="213" spans="8:11">
       <c r="H213" s="2" t="s">
         <v>365</v>
       </c>
@@ -5553,7 +5563,7 @@
         <v>366</v>
       </c>
       <c r="J213" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K213" s="2" t="s">
         <v>366</v>
@@ -5567,7 +5577,7 @@
         <v>368</v>
       </c>
       <c r="J214" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K214" s="2" t="s">
         <v>368</v>
@@ -5578,33 +5588,33 @@
         <v>369</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>69</v>
+        <v>370</v>
       </c>
       <c r="J215" s="2">
+        <v>3</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="216" spans="8:11">
+      <c r="H216" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J216" s="2">
         <v>4</v>
       </c>
-      <c r="K215" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="217" spans="2:11">
-      <c r="B217" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="H217" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I217" s="2" t="s">
+      <c r="K216" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="218" spans="2:11">
+      <c r="B218" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J217" s="2">
-        <v>1</v>
-      </c>
-      <c r="K217" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="218" spans="8:11">
       <c r="H218" s="2" t="s">
         <v>373</v>
       </c>
@@ -5612,24 +5622,24 @@
         <v>374</v>
       </c>
       <c r="J218" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K218" s="2" t="s">
-        <v>375</v>
+        <v>157</v>
       </c>
     </row>
     <row r="219" spans="8:11">
       <c r="H219" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I219" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="I219" s="2" t="s">
+      <c r="J219" s="2">
+        <v>2</v>
+      </c>
+      <c r="K219" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="J219" s="2">
-        <v>3</v>
-      </c>
-      <c r="K219" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="220" spans="8:11">
@@ -5640,66 +5650,80 @@
         <v>379</v>
       </c>
       <c r="J220" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K220" s="2" t="s">
-        <v>380</v>
+        <v>162</v>
       </c>
     </row>
     <row r="221" spans="8:11">
       <c r="H221" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I221" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="I221" s="2" t="s">
+      <c r="J221" s="2">
+        <v>4</v>
+      </c>
+      <c r="K221" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="J221" s="2">
-        <v>5</v>
-      </c>
-      <c r="K221" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="222" spans="8:11">
       <c r="H222" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I222" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="I222" s="2" t="s">
+      <c r="J222" s="2">
+        <v>5</v>
+      </c>
+      <c r="K222" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="J222" s="2">
-        <v>6</v>
-      </c>
-      <c r="K222" s="2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="223" spans="8:11">
       <c r="H223" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I223" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="I223" s="2" t="s">
+      <c r="J223" s="2">
+        <v>6</v>
+      </c>
+      <c r="K223" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="J223" s="2">
-        <v>7</v>
-      </c>
-      <c r="K223" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="224" spans="8:11">
       <c r="H224" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I224" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="I224" s="2" t="s">
+      <c r="J224" s="2">
+        <v>7</v>
+      </c>
+      <c r="K224" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="J224" s="2">
+    </row>
+    <row r="225" spans="8:11">
+      <c r="H225" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J225" s="2">
         <v>8</v>
       </c>
-      <c r="K224" s="2" t="s">
-        <v>392</v>
+      <c r="K225" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -5707,25 +5731,25 @@
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="B47:B91"/>
-    <mergeCell ref="B93:B102"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B127:B136"/>
-    <mergeCell ref="B138:B147"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="B167:B172"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="B48:B92"/>
+    <mergeCell ref="B94:B103"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="B113:B117"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B128:B137"/>
+    <mergeCell ref="B139:B148"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B168:B173"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="10740"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="402">
   <si>
     <t>##var</t>
   </si>
@@ -336,6 +336,27 @@
   </si>
   <si>
     <t>红色品质</t>
+  </si>
+  <si>
+    <t>GameItemUseType</t>
+  </si>
+  <si>
+    <t>GameItemUseType_Currency</t>
+  </si>
+  <si>
+    <t>获得货币</t>
+  </si>
+  <si>
+    <t>GameItemUseType_Task</t>
+  </si>
+  <si>
+    <t>接取任务</t>
+  </si>
+  <si>
+    <t>GameItemUseType_Buff</t>
+  </si>
+  <si>
+    <t>获得增益</t>
   </si>
   <si>
     <t>GamePropertyType</t>
@@ -1945,7 +1966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2003,9 +2024,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2017,6 +2056,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2355,10 +2403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L225"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2484,7 +2532,7 @@
       <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="26" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2496,7 +2544,7 @@
       <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="27" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2508,7 +2556,7 @@
       <c r="J6" s="2">
         <v>3</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="28" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2520,7 +2568,7 @@
       <c r="J7" s="2">
         <v>4</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2538,7 +2586,7 @@
       <c r="J8" s="12">
         <v>99</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2562,7 +2610,7 @@
       <c r="J10" s="8">
         <v>1</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="30" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2582,7 +2630,7 @@
       <c r="J11" s="16">
         <v>2</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="31" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2602,7 +2650,7 @@
       <c r="J12" s="16">
         <v>3</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="31" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2622,7 +2670,7 @@
       <c r="J13" s="16">
         <v>4</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="31" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2642,7 +2690,7 @@
       <c r="J14" s="12">
         <v>5</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="32" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2669,7 +2717,7 @@
       <c r="J17" s="8">
         <v>1</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="30" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2684,7 +2732,7 @@
       <c r="J18" s="2">
         <v>2</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2699,12 +2747,12 @@
       <c r="J19" s="2">
         <v>3</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="19"/>
+      <c r="B20" s="14"/>
       <c r="H20" s="2" t="s">
         <v>48</v>
       </c>
@@ -2730,7 +2778,7 @@
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="26"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="13" t="s">
@@ -2752,7 +2800,7 @@
       <c r="J23" s="8">
         <v>1</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2767,7 +2815,7 @@
       <c r="J24" s="2">
         <v>2</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="31" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2782,7 +2830,7 @@
       <c r="J25" s="2">
         <v>3</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="31" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2797,7 +2845,7 @@
       <c r="J26" s="2">
         <v>4</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K26" s="31" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2817,7 +2865,7 @@
       <c r="J27" s="12">
         <v>5</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="32" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2839,7 +2887,7 @@
       <c r="J29" s="8">
         <v>1</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K29" s="30" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2854,7 +2902,7 @@
       <c r="J30" s="2">
         <v>2</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2874,7 +2922,7 @@
       <c r="J31" s="12">
         <v>3</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="32" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2898,7 +2946,7 @@
       <c r="J33" s="8">
         <v>1</v>
       </c>
-      <c r="K33" s="24" t="s">
+      <c r="K33" s="30" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2913,7 +2961,7 @@
       <c r="J34" s="2">
         <v>2</v>
       </c>
-      <c r="K34" s="25" t="s">
+      <c r="K34" s="31" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2928,7 +2976,7 @@
       <c r="J35" s="2">
         <v>3</v>
       </c>
-      <c r="K35" s="25" t="s">
+      <c r="K35" s="31" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2943,7 +2991,7 @@
       <c r="J36" s="2">
         <v>4</v>
       </c>
-      <c r="K36" s="25" t="s">
+      <c r="K36" s="31" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2958,7 +3006,7 @@
       <c r="J37" s="2">
         <v>5</v>
       </c>
-      <c r="K37" s="25" t="s">
+      <c r="K37" s="31" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2973,7 +3021,7 @@
       <c r="J38" s="2">
         <v>6</v>
       </c>
-      <c r="K38" s="25" t="s">
+      <c r="K38" s="31" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2993,7 +3041,7 @@
       <c r="J39" s="12">
         <v>7</v>
       </c>
-      <c r="K39" s="26" t="s">
+      <c r="K39" s="32" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3015,7 +3063,7 @@
       <c r="J41" s="8">
         <v>1</v>
       </c>
-      <c r="K41" s="24" t="s">
+      <c r="K41" s="30" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3035,7 +3083,7 @@
       <c r="J42" s="16">
         <v>2</v>
       </c>
-      <c r="K42" s="25" t="s">
+      <c r="K42" s="31" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3055,7 +3103,7 @@
       <c r="J43" s="16">
         <v>3</v>
       </c>
-      <c r="K43" s="25" t="s">
+      <c r="K43" s="31" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3075,7 +3123,7 @@
       <c r="J44" s="16">
         <v>4</v>
       </c>
-      <c r="K44" s="25" t="s">
+      <c r="K44" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3095,7 +3143,7 @@
       <c r="J45" s="16">
         <v>5</v>
       </c>
-      <c r="K45" s="25" t="s">
+      <c r="K45" s="31" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3115,183 +3163,194 @@
       <c r="J46" s="12">
         <v>6</v>
       </c>
-      <c r="K46" s="26" t="s">
+      <c r="K46" s="32" t="s">
         <v>102</v>
       </c>
     </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="18"/>
+    </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8" t="s">
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="21">
+        <v>1</v>
+      </c>
+      <c r="K48" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="22"/>
+      <c r="H49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J49" s="2">
+        <v>2</v>
+      </c>
+      <c r="K49" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J50" s="25">
+        <v>3</v>
+      </c>
+      <c r="K50" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J52" s="8">
         <v>1001</v>
       </c>
-      <c r="K48" s="24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="14"/>
-      <c r="H49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J49" s="2">
-        <v>1002</v>
-      </c>
-      <c r="K49" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="14"/>
-      <c r="H50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J50" s="2">
-        <v>1003</v>
-      </c>
-      <c r="K50" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="14"/>
-      <c r="H51" s="2" t="s">
+      <c r="K52" s="30" t="s">
         <v>113</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J51" s="2">
-        <v>1005</v>
-      </c>
-      <c r="K51" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="14"/>
-      <c r="H52" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J52" s="2">
-        <v>1006</v>
-      </c>
-      <c r="K52" s="25" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="14"/>
       <c r="H53" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J53" s="2">
-        <v>1007</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>119</v>
+        <v>1002</v>
+      </c>
+      <c r="K53" s="31" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="14"/>
       <c r="H54" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J54" s="2">
-        <v>1008</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>121</v>
+        <v>1003</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="14"/>
       <c r="H55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1005</v>
+      </c>
+      <c r="K55" s="31" t="s">
         <v>122</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J55" s="2">
-        <v>1009</v>
-      </c>
-      <c r="K55" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="14"/>
       <c r="H56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="J56" s="2">
-        <v>1010</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>125</v>
+        <v>1006</v>
+      </c>
+      <c r="K56" s="31" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="14"/>
       <c r="H57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="J57" s="2">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="14"/>
-      <c r="K58" s="25"/>
+      <c r="H58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1008</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="14"/>
       <c r="H59" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J59" s="2">
-        <v>1101</v>
-      </c>
-      <c r="K59" s="25" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K59" s="31" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3304,1062 +3363,1054 @@
         <v>132</v>
       </c>
       <c r="J60" s="2">
-        <v>1102</v>
-      </c>
-      <c r="K60" s="25" t="s">
-        <v>133</v>
+        <v>1010</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="14"/>
       <c r="H61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="J61" s="2">
-        <v>1103</v>
-      </c>
-      <c r="K61" s="25" t="s">
-        <v>136</v>
+        <v>1011</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="14"/>
-      <c r="H62" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J62" s="2">
-        <v>1104</v>
-      </c>
-      <c r="K62" s="25" t="s">
-        <v>139</v>
-      </c>
+      <c r="K62" s="31"/>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="14"/>
       <c r="H63" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J63" s="2">
-        <v>1004</v>
-      </c>
-      <c r="K63" s="25" t="s">
-        <v>141</v>
+        <v>1101</v>
+      </c>
+      <c r="K63" s="31" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="14"/>
-      <c r="H64" s="2" t="str">
-        <f>(_xlfn.CONCAT(H63,"Base"))</f>
-        <v>GP_SpeedBase</v>
-      </c>
-      <c r="I64" s="2" t="str">
-        <f>_xlfn.CONCAT(I63,"Base")</f>
-        <v>移动速度Base</v>
+      <c r="H64" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="J64" s="2">
-        <f>J63*10+1</f>
-        <v>10041</v>
-      </c>
-      <c r="K64" s="25" t="str">
-        <f>_xlfn.CONCAT(K63,"基础值")</f>
-        <v>移动速度基础值</v>
+        <v>1102</v>
+      </c>
+      <c r="K64" s="31" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="14"/>
-      <c r="H65" s="2" t="str">
-        <f>_xlfn.CONCAT(H63,"Add")</f>
-        <v>GP_SpeedAdd</v>
-      </c>
-      <c r="I65" s="2" t="str">
-        <f>_xlfn.CONCAT(I63,"Add")</f>
-        <v>移动速度Add</v>
+      <c r="H65" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="J65" s="2">
-        <f>J63*10+2</f>
-        <v>10042</v>
-      </c>
-      <c r="K65" s="25" t="str">
-        <f>_xlfn.CONCAT(K63,"附加值")</f>
-        <v>移动速度附加值</v>
+        <v>1103</v>
+      </c>
+      <c r="K65" s="31" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="14"/>
-      <c r="H66" s="2" t="str">
-        <f>_xlfn.CONCAT(H63,"Pct")</f>
-        <v>GP_SpeedPct</v>
-      </c>
-      <c r="I66" s="2" t="str">
-        <f>_xlfn.CONCAT(I63,"Pct")</f>
-        <v>移动速度Pct</v>
+      <c r="H66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="J66" s="2">
-        <f>J63*10+3</f>
-        <v>10043</v>
-      </c>
-      <c r="K66" s="25" t="str">
-        <f>_xlfn.CONCAT(K63,"百分比")</f>
-        <v>移动速度百分比</v>
+        <v>1104</v>
+      </c>
+      <c r="K66" s="31" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="14"/>
-      <c r="H67" s="2" t="str">
-        <f>_xlfn.CONCAT(H63,"FinalAdd")</f>
-        <v>GP_SpeedFinalAdd</v>
-      </c>
-      <c r="I67" s="2" t="str">
-        <f>_xlfn.CONCAT(I63,"FinalAdd")</f>
-        <v>移动速度FinalAdd</v>
+      <c r="H67" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="J67" s="2">
-        <f>J63*10+4</f>
-        <v>10044</v>
-      </c>
-      <c r="K67" s="25" t="str">
-        <f>_xlfn.CONCAT(K63,"最终附加值")</f>
-        <v>移动速度最终附加值</v>
+        <v>1004</v>
+      </c>
+      <c r="K67" s="31" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="14"/>
       <c r="H68" s="2" t="str">
-        <f>_xlfn.CONCAT(H63,"FinalPct")</f>
-        <v>GP_SpeedFinalPct</v>
+        <f>(_xlfn.CONCAT(H67,"Base"))</f>
+        <v>GP_SpeedBase</v>
       </c>
       <c r="I68" s="2" t="str">
-        <f>_xlfn.CONCAT(I63,"FinalPct")</f>
-        <v>移动速度FinalPct</v>
+        <f>_xlfn.CONCAT(I67,"Base")</f>
+        <v>移动速度Base</v>
       </c>
       <c r="J68" s="2">
-        <f>J63*10+5</f>
-        <v>10045</v>
-      </c>
-      <c r="K68" s="25" t="str">
-        <f>_xlfn.CONCAT(K63,"最终百分比")</f>
-        <v>移动速度最终百分比</v>
+        <f>J67*10+1</f>
+        <v>10041</v>
+      </c>
+      <c r="K68" s="31" t="str">
+        <f>_xlfn.CONCAT(K67,"基础值")</f>
+        <v>移动速度基础值</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="14"/>
-      <c r="H69" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>143</v>
+      <c r="H69" s="2" t="str">
+        <f>_xlfn.CONCAT(H67,"Add")</f>
+        <v>GP_SpeedAdd</v>
+      </c>
+      <c r="I69" s="2" t="str">
+        <f>_xlfn.CONCAT(I67,"Add")</f>
+        <v>移动速度Add</v>
       </c>
       <c r="J69" s="2">
-        <v>1105</v>
-      </c>
-      <c r="K69" s="25" t="s">
-        <v>144</v>
+        <f>J67*10+2</f>
+        <v>10042</v>
+      </c>
+      <c r="K69" s="31" t="str">
+        <f>_xlfn.CONCAT(K67,"附加值")</f>
+        <v>移动速度附加值</v>
       </c>
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="14"/>
       <c r="H70" s="2" t="str">
-        <f>(_xlfn.CONCAT(H69,"Base"))</f>
-        <v>GP_AtkBase</v>
+        <f>_xlfn.CONCAT(H67,"Pct")</f>
+        <v>GP_SpeedPct</v>
       </c>
       <c r="I70" s="2" t="str">
-        <f>_xlfn.CONCAT(I69,"Base")</f>
-        <v>AtkBase</v>
+        <f>_xlfn.CONCAT(I67,"Pct")</f>
+        <v>移动速度Pct</v>
       </c>
       <c r="J70" s="2">
-        <f>J69*10+1</f>
-        <v>11051</v>
-      </c>
-      <c r="K70" s="25" t="str">
-        <f>_xlfn.CONCAT(K69,"基础值")</f>
-        <v>攻击基础值</v>
+        <f>J67*10+3</f>
+        <v>10043</v>
+      </c>
+      <c r="K70" s="31" t="str">
+        <f>_xlfn.CONCAT(K67,"百分比")</f>
+        <v>移动速度百分比</v>
       </c>
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="14"/>
       <c r="H71" s="2" t="str">
-        <f t="shared" ref="H71:H73" si="0">_xlfn.CONCAT(H69,"Add")</f>
-        <v>GP_AtkAdd</v>
+        <f>_xlfn.CONCAT(H67,"FinalAdd")</f>
+        <v>GP_SpeedFinalAdd</v>
       </c>
       <c r="I71" s="2" t="str">
-        <f>_xlfn.CONCAT(I69,"Add")</f>
-        <v>AtkAdd</v>
+        <f>_xlfn.CONCAT(I67,"FinalAdd")</f>
+        <v>移动速度FinalAdd</v>
       </c>
       <c r="J71" s="2">
-        <f>J69*10+2</f>
-        <v>11052</v>
-      </c>
-      <c r="K71" s="25" t="str">
-        <f>_xlfn.CONCAT(K69,"附加值")</f>
-        <v>攻击附加值</v>
+        <f>J67*10+4</f>
+        <v>10044</v>
+      </c>
+      <c r="K71" s="31" t="str">
+        <f>_xlfn.CONCAT(K67,"最终附加值")</f>
+        <v>移动速度最终附加值</v>
       </c>
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="14"/>
       <c r="H72" s="2" t="str">
-        <f>_xlfn.CONCAT(H69,"Pct")</f>
-        <v>GP_AtkPct</v>
+        <f>_xlfn.CONCAT(H67,"FinalPct")</f>
+        <v>GP_SpeedFinalPct</v>
       </c>
       <c r="I72" s="2" t="str">
-        <f>_xlfn.CONCAT(I69,"Pct")</f>
-        <v>AtkPct</v>
+        <f>_xlfn.CONCAT(I67,"FinalPct")</f>
+        <v>移动速度FinalPct</v>
       </c>
       <c r="J72" s="2">
-        <f>J69*10+3</f>
-        <v>11053</v>
-      </c>
-      <c r="K72" s="25" t="str">
-        <f>_xlfn.CONCAT(K69,"百分比")</f>
-        <v>攻击百分比</v>
+        <f>J67*10+5</f>
+        <v>10045</v>
+      </c>
+      <c r="K72" s="31" t="str">
+        <f>_xlfn.CONCAT(K67,"最终百分比")</f>
+        <v>移动速度最终百分比</v>
       </c>
     </row>
     <row r="73" spans="2:11">
       <c r="B73" s="14"/>
-      <c r="H73" s="2" t="str">
-        <f>_xlfn.CONCAT(H69,"FinalAdd")</f>
-        <v>GP_AtkFinalAdd</v>
-      </c>
-      <c r="I73" s="2" t="str">
-        <f>_xlfn.CONCAT(I69,"FinalAdd")</f>
-        <v>AtkFinalAdd</v>
+      <c r="H73" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="J73" s="2">
-        <f>J69*10+4</f>
-        <v>11054</v>
-      </c>
-      <c r="K73" s="25" t="str">
-        <f>_xlfn.CONCAT(K69,"最终附加值")</f>
-        <v>攻击最终附加值</v>
+        <v>1105</v>
+      </c>
+      <c r="K73" s="31" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="14"/>
       <c r="H74" s="2" t="str">
-        <f>_xlfn.CONCAT(H69,"FinalPct")</f>
-        <v>GP_AtkFinalPct</v>
+        <f>(_xlfn.CONCAT(H73,"Base"))</f>
+        <v>GP_AtkBase</v>
       </c>
       <c r="I74" s="2" t="str">
-        <f>_xlfn.CONCAT(I69,"FinalPct")</f>
-        <v>AtkFinalPct</v>
+        <f>_xlfn.CONCAT(I73,"Base")</f>
+        <v>AtkBase</v>
       </c>
       <c r="J74" s="2">
-        <f>J69*10+5</f>
-        <v>11055</v>
-      </c>
-      <c r="K74" s="25" t="str">
-        <f>_xlfn.CONCAT(K69,"最终百分比")</f>
-        <v>攻击最终百分比</v>
+        <f>J73*10+1</f>
+        <v>11051</v>
+      </c>
+      <c r="K74" s="31" t="str">
+        <f>_xlfn.CONCAT(K73,"基础值")</f>
+        <v>攻击基础值</v>
       </c>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="14"/>
-      <c r="H75" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>146</v>
+      <c r="H75" s="2" t="str">
+        <f t="shared" ref="H75:H77" si="0">_xlfn.CONCAT(H73,"Add")</f>
+        <v>GP_AtkAdd</v>
+      </c>
+      <c r="I75" s="2" t="str">
+        <f>_xlfn.CONCAT(I73,"Add")</f>
+        <v>AtkAdd</v>
       </c>
       <c r="J75" s="2">
-        <v>1106</v>
-      </c>
-      <c r="K75" s="25" t="s">
-        <v>147</v>
+        <f>J73*10+2</f>
+        <v>11052</v>
+      </c>
+      <c r="K75" s="31" t="str">
+        <f>_xlfn.CONCAT(K73,"附加值")</f>
+        <v>攻击附加值</v>
       </c>
     </row>
     <row r="76" spans="2:11">
       <c r="B76" s="14"/>
       <c r="H76" s="2" t="str">
-        <f>(_xlfn.CONCAT(H75,"Base"))</f>
-        <v>GP_DefBase</v>
+        <f>_xlfn.CONCAT(H73,"Pct")</f>
+        <v>GP_AtkPct</v>
       </c>
       <c r="I76" s="2" t="str">
-        <f>_xlfn.CONCAT(I75,"Base")</f>
-        <v>DefBase</v>
+        <f>_xlfn.CONCAT(I73,"Pct")</f>
+        <v>AtkPct</v>
       </c>
       <c r="J76" s="2">
-        <f>J75*10+1</f>
-        <v>11061</v>
-      </c>
-      <c r="K76" s="25" t="str">
-        <f>_xlfn.CONCAT(K75,"基础值")</f>
-        <v>防御基础值</v>
+        <f>J73*10+3</f>
+        <v>11053</v>
+      </c>
+      <c r="K76" s="31" t="str">
+        <f>_xlfn.CONCAT(K73,"百分比")</f>
+        <v>攻击百分比</v>
       </c>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="14"/>
       <c r="H77" s="2" t="str">
-        <f>_xlfn.CONCAT(H75,"Add")</f>
-        <v>GP_DefAdd</v>
+        <f>_xlfn.CONCAT(H73,"FinalAdd")</f>
+        <v>GP_AtkFinalAdd</v>
       </c>
       <c r="I77" s="2" t="str">
-        <f>_xlfn.CONCAT(I75,"Add")</f>
-        <v>DefAdd</v>
+        <f>_xlfn.CONCAT(I73,"FinalAdd")</f>
+        <v>AtkFinalAdd</v>
       </c>
       <c r="J77" s="2">
-        <f>J75*10+2</f>
-        <v>11062</v>
-      </c>
-      <c r="K77" s="25" t="str">
-        <f>_xlfn.CONCAT(K75,"附加值")</f>
-        <v>防御附加值</v>
+        <f>J73*10+4</f>
+        <v>11054</v>
+      </c>
+      <c r="K77" s="31" t="str">
+        <f>_xlfn.CONCAT(K73,"最终附加值")</f>
+        <v>攻击最终附加值</v>
       </c>
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="14"/>
       <c r="H78" s="2" t="str">
-        <f>_xlfn.CONCAT(H75,"Pct")</f>
-        <v>GP_DefPct</v>
+        <f>_xlfn.CONCAT(H73,"FinalPct")</f>
+        <v>GP_AtkFinalPct</v>
       </c>
       <c r="I78" s="2" t="str">
-        <f>_xlfn.CONCAT(I75,"Pct")</f>
-        <v>DefPct</v>
+        <f>_xlfn.CONCAT(I73,"FinalPct")</f>
+        <v>AtkFinalPct</v>
       </c>
       <c r="J78" s="2">
-        <f>J75*10+3</f>
-        <v>11063</v>
-      </c>
-      <c r="K78" s="25" t="str">
-        <f>_xlfn.CONCAT(K75,"百分比")</f>
-        <v>防御百分比</v>
+        <f>J73*10+5</f>
+        <v>11055</v>
+      </c>
+      <c r="K78" s="31" t="str">
+        <f>_xlfn.CONCAT(K73,"最终百分比")</f>
+        <v>攻击最终百分比</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="14"/>
-      <c r="H79" s="2" t="str">
-        <f>_xlfn.CONCAT(H75,"FinalAdd")</f>
-        <v>GP_DefFinalAdd</v>
-      </c>
-      <c r="I79" s="2" t="str">
-        <f>_xlfn.CONCAT(I75,"FinalAdd")</f>
-        <v>DefFinalAdd</v>
+      <c r="H79" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="J79" s="2">
-        <f>J75*10+4</f>
-        <v>11064</v>
-      </c>
-      <c r="K79" s="25" t="str">
-        <f>_xlfn.CONCAT(K75,"最终附加值")</f>
-        <v>防御最终附加值</v>
+        <v>1106</v>
+      </c>
+      <c r="K79" s="31" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="14"/>
       <c r="H80" s="2" t="str">
-        <f>_xlfn.CONCAT(H75,"FinalPct")</f>
-        <v>GP_DefFinalPct</v>
+        <f>(_xlfn.CONCAT(H79,"Base"))</f>
+        <v>GP_DefBase</v>
       </c>
       <c r="I80" s="2" t="str">
-        <f>_xlfn.CONCAT(I75,"FinalPct")</f>
-        <v>DefFinalPct</v>
+        <f>_xlfn.CONCAT(I79,"Base")</f>
+        <v>DefBase</v>
       </c>
       <c r="J80" s="2">
-        <f>J75*10+5</f>
-        <v>11065</v>
-      </c>
-      <c r="K80" s="25" t="str">
-        <f>_xlfn.CONCAT(K75,"最终百分比")</f>
-        <v>防御最终百分比</v>
+        <f>J79*10+1</f>
+        <v>11061</v>
+      </c>
+      <c r="K80" s="31" t="str">
+        <f>_xlfn.CONCAT(K79,"基础值")</f>
+        <v>防御基础值</v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" s="14"/>
-      <c r="H81" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>149</v>
+      <c r="H81" s="2" t="str">
+        <f>_xlfn.CONCAT(H79,"Add")</f>
+        <v>GP_DefAdd</v>
+      </c>
+      <c r="I81" s="2" t="str">
+        <f>_xlfn.CONCAT(I79,"Add")</f>
+        <v>DefAdd</v>
       </c>
       <c r="J81" s="2">
-        <v>1107</v>
-      </c>
-      <c r="K81" s="25" t="s">
-        <v>150</v>
+        <f>J79*10+2</f>
+        <v>11062</v>
+      </c>
+      <c r="K81" s="31" t="str">
+        <f>_xlfn.CONCAT(K79,"附加值")</f>
+        <v>防御附加值</v>
       </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" s="14"/>
       <c r="H82" s="2" t="str">
-        <f>(_xlfn.CONCAT(H81,"Base"))</f>
-        <v>GP_HitBase</v>
+        <f>_xlfn.CONCAT(H79,"Pct")</f>
+        <v>GP_DefPct</v>
       </c>
       <c r="I82" s="2" t="str">
-        <f>_xlfn.CONCAT(I81,"Base")</f>
-        <v>HitBase</v>
+        <f>_xlfn.CONCAT(I79,"Pct")</f>
+        <v>DefPct</v>
       </c>
       <c r="J82" s="2">
-        <f>J81*10+1</f>
-        <v>11071</v>
-      </c>
-      <c r="K82" s="25" t="str">
-        <f>_xlfn.CONCAT(K81,"基础值")</f>
-        <v>命中基础值</v>
+        <f>J79*10+3</f>
+        <v>11063</v>
+      </c>
+      <c r="K82" s="31" t="str">
+        <f>_xlfn.CONCAT(K79,"百分比")</f>
+        <v>防御百分比</v>
       </c>
     </row>
     <row r="83" spans="2:11">
       <c r="B83" s="14"/>
       <c r="H83" s="2" t="str">
-        <f>_xlfn.CONCAT(H81,"Add")</f>
-        <v>GP_HitAdd</v>
+        <f>_xlfn.CONCAT(H79,"FinalAdd")</f>
+        <v>GP_DefFinalAdd</v>
       </c>
       <c r="I83" s="2" t="str">
-        <f>_xlfn.CONCAT(I81,"Add")</f>
-        <v>HitAdd</v>
+        <f>_xlfn.CONCAT(I79,"FinalAdd")</f>
+        <v>DefFinalAdd</v>
       </c>
       <c r="J83" s="2">
-        <f>J81*10+2</f>
-        <v>11072</v>
-      </c>
-      <c r="K83" s="25" t="str">
-        <f>_xlfn.CONCAT(K81,"附加值")</f>
-        <v>命中附加值</v>
+        <f>J79*10+4</f>
+        <v>11064</v>
+      </c>
+      <c r="K83" s="31" t="str">
+        <f>_xlfn.CONCAT(K79,"最终附加值")</f>
+        <v>防御最终附加值</v>
       </c>
     </row>
     <row r="84" spans="2:11">
       <c r="B84" s="14"/>
       <c r="H84" s="2" t="str">
-        <f>_xlfn.CONCAT(H81,"Pct")</f>
-        <v>GP_HitPct</v>
+        <f>_xlfn.CONCAT(H79,"FinalPct")</f>
+        <v>GP_DefFinalPct</v>
       </c>
       <c r="I84" s="2" t="str">
-        <f>_xlfn.CONCAT(I81,"Pct")</f>
-        <v>HitPct</v>
+        <f>_xlfn.CONCAT(I79,"FinalPct")</f>
+        <v>DefFinalPct</v>
       </c>
       <c r="J84" s="2">
-        <f>J81*10+3</f>
-        <v>11073</v>
-      </c>
-      <c r="K84" s="25" t="str">
-        <f>_xlfn.CONCAT(K81,"百分比")</f>
-        <v>命中百分比</v>
+        <f>J79*10+5</f>
+        <v>11065</v>
+      </c>
+      <c r="K84" s="31" t="str">
+        <f>_xlfn.CONCAT(K79,"最终百分比")</f>
+        <v>防御最终百分比</v>
       </c>
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="14"/>
-      <c r="H85" s="2" t="str">
-        <f>_xlfn.CONCAT(H81,"FinalAdd")</f>
-        <v>GP_HitFinalAdd</v>
-      </c>
-      <c r="I85" s="2" t="str">
-        <f>_xlfn.CONCAT(I81,"FinalAdd")</f>
-        <v>HitFinalAdd</v>
+      <c r="H85" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="J85" s="2">
-        <f>J81*10+4</f>
-        <v>11074</v>
-      </c>
-      <c r="K85" s="25" t="str">
-        <f>_xlfn.CONCAT(K81,"最终附加值")</f>
-        <v>命中最终附加值</v>
+        <v>1107</v>
+      </c>
+      <c r="K85" s="31" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="2:11">
       <c r="B86" s="14"/>
       <c r="H86" s="2" t="str">
-        <f>_xlfn.CONCAT(H81,"FinalPct")</f>
-        <v>GP_HitFinalPct</v>
+        <f>(_xlfn.CONCAT(H85,"Base"))</f>
+        <v>GP_HitBase</v>
       </c>
       <c r="I86" s="2" t="str">
-        <f>_xlfn.CONCAT(I81,"FinalPct")</f>
-        <v>HitFinalPct</v>
+        <f>_xlfn.CONCAT(I85,"Base")</f>
+        <v>HitBase</v>
       </c>
       <c r="J86" s="2">
-        <f>J81*10+5</f>
-        <v>11075</v>
-      </c>
-      <c r="K86" s="25" t="str">
-        <f>_xlfn.CONCAT(K81,"最终百分比")</f>
-        <v>命中最终百分比</v>
+        <f>J85*10+1</f>
+        <v>11071</v>
+      </c>
+      <c r="K86" s="31" t="str">
+        <f>_xlfn.CONCAT(K85,"基础值")</f>
+        <v>命中基础值</v>
       </c>
     </row>
     <row r="87" spans="2:11">
       <c r="B87" s="14"/>
-      <c r="H87" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>152</v>
+      <c r="H87" s="2" t="str">
+        <f>_xlfn.CONCAT(H85,"Add")</f>
+        <v>GP_HitAdd</v>
+      </c>
+      <c r="I87" s="2" t="str">
+        <f>_xlfn.CONCAT(I85,"Add")</f>
+        <v>HitAdd</v>
       </c>
       <c r="J87" s="2">
-        <v>1108</v>
-      </c>
-      <c r="K87" s="25" t="s">
-        <v>153</v>
+        <f>J85*10+2</f>
+        <v>11072</v>
+      </c>
+      <c r="K87" s="31" t="str">
+        <f>_xlfn.CONCAT(K85,"附加值")</f>
+        <v>命中附加值</v>
       </c>
     </row>
     <row r="88" spans="2:11">
       <c r="B88" s="14"/>
       <c r="H88" s="2" t="str">
-        <f>(_xlfn.CONCAT(H87,"Base"))</f>
-        <v>GP_CritBase</v>
+        <f>_xlfn.CONCAT(H85,"Pct")</f>
+        <v>GP_HitPct</v>
       </c>
       <c r="I88" s="2" t="str">
-        <f>_xlfn.CONCAT(I87,"Base")</f>
-        <v>CritBase</v>
+        <f>_xlfn.CONCAT(I85,"Pct")</f>
+        <v>HitPct</v>
       </c>
       <c r="J88" s="2">
-        <f>J87*10+1</f>
-        <v>11081</v>
-      </c>
-      <c r="K88" s="25" t="str">
-        <f>_xlfn.CONCAT(K87,"基础值")</f>
-        <v>暴击基础值</v>
+        <f>J85*10+3</f>
+        <v>11073</v>
+      </c>
+      <c r="K88" s="31" t="str">
+        <f>_xlfn.CONCAT(K85,"百分比")</f>
+        <v>命中百分比</v>
       </c>
     </row>
     <row r="89" spans="2:11">
       <c r="B89" s="14"/>
       <c r="H89" s="2" t="str">
-        <f>_xlfn.CONCAT(H87,"Add")</f>
-        <v>GP_CritAdd</v>
+        <f>_xlfn.CONCAT(H85,"FinalAdd")</f>
+        <v>GP_HitFinalAdd</v>
       </c>
       <c r="I89" s="2" t="str">
-        <f>_xlfn.CONCAT(I87,"Add")</f>
-        <v>CritAdd</v>
+        <f>_xlfn.CONCAT(I85,"FinalAdd")</f>
+        <v>HitFinalAdd</v>
       </c>
       <c r="J89" s="2">
-        <f>J87*10+2</f>
-        <v>11082</v>
-      </c>
-      <c r="K89" s="25" t="str">
-        <f>_xlfn.CONCAT(K87,"附加值")</f>
-        <v>暴击附加值</v>
+        <f>J85*10+4</f>
+        <v>11074</v>
+      </c>
+      <c r="K89" s="31" t="str">
+        <f>_xlfn.CONCAT(K85,"最终附加值")</f>
+        <v>命中最终附加值</v>
       </c>
     </row>
     <row r="90" spans="2:11">
       <c r="B90" s="14"/>
       <c r="H90" s="2" t="str">
-        <f>_xlfn.CONCAT(H87,"Pct")</f>
-        <v>GP_CritPct</v>
+        <f>_xlfn.CONCAT(H85,"FinalPct")</f>
+        <v>GP_HitFinalPct</v>
       </c>
       <c r="I90" s="2" t="str">
-        <f>_xlfn.CONCAT(I87,"Pct")</f>
-        <v>CritPct</v>
+        <f>_xlfn.CONCAT(I85,"FinalPct")</f>
+        <v>HitFinalPct</v>
       </c>
       <c r="J90" s="2">
-        <f>J87*10+3</f>
-        <v>11083</v>
-      </c>
-      <c r="K90" s="25" t="str">
-        <f>_xlfn.CONCAT(K87,"百分比")</f>
-        <v>暴击百分比</v>
+        <f>J85*10+5</f>
+        <v>11075</v>
+      </c>
+      <c r="K90" s="31" t="str">
+        <f>_xlfn.CONCAT(K85,"最终百分比")</f>
+        <v>命中最终百分比</v>
       </c>
     </row>
     <row r="91" spans="2:11">
       <c r="B91" s="14"/>
-      <c r="H91" s="2" t="str">
-        <f>_xlfn.CONCAT(H87,"FinalAdd")</f>
-        <v>GP_CritFinalAdd</v>
-      </c>
-      <c r="I91" s="2" t="str">
-        <f>_xlfn.CONCAT(I87,"FinalAdd")</f>
-        <v>CritFinalAdd</v>
+      <c r="H91" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="J91" s="2">
-        <f>J87*10+4</f>
-        <v>11084</v>
-      </c>
-      <c r="K91" s="25" t="str">
-        <f>_xlfn.CONCAT(K87,"最终附加值")</f>
-        <v>暴击最终附加值</v>
+        <v>1108</v>
+      </c>
+      <c r="K91" s="31" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" s="17"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="12" t="str">
-        <f>_xlfn.CONCAT(H87,"FinalPct")</f>
-        <v>GP_CritFinalPct</v>
-      </c>
-      <c r="I92" s="12" t="str">
-        <f>_xlfn.CONCAT(I87,"FinalPct")</f>
-        <v>CritFinalPct</v>
-      </c>
-      <c r="J92" s="12">
-        <f>J87*10+5</f>
-        <v>11085</v>
-      </c>
-      <c r="K92" s="26" t="str">
-        <f>_xlfn.CONCAT(K87,"最终百分比")</f>
-        <v>暴击最终百分比</v>
+      <c r="B92" s="14"/>
+      <c r="H92" s="2" t="str">
+        <f>(_xlfn.CONCAT(H91,"Base"))</f>
+        <v>GP_CritBase</v>
+      </c>
+      <c r="I92" s="2" t="str">
+        <f>_xlfn.CONCAT(I91,"Base")</f>
+        <v>CritBase</v>
+      </c>
+      <c r="J92" s="2">
+        <f>J91*10+1</f>
+        <v>11081</v>
+      </c>
+      <c r="K92" s="31" t="str">
+        <f>_xlfn.CONCAT(K91,"基础值")</f>
+        <v>暴击基础值</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="14"/>
+      <c r="H93" s="2" t="str">
+        <f>_xlfn.CONCAT(H91,"Add")</f>
+        <v>GP_CritAdd</v>
+      </c>
+      <c r="I93" s="2" t="str">
+        <f>_xlfn.CONCAT(I91,"Add")</f>
+        <v>CritAdd</v>
+      </c>
+      <c r="J93" s="2">
+        <f>J91*10+2</f>
+        <v>11082</v>
+      </c>
+      <c r="K93" s="31" t="str">
+        <f>_xlfn.CONCAT(K91,"附加值")</f>
+        <v>暴击附加值</v>
       </c>
     </row>
     <row r="94" spans="2:11">
-      <c r="B94" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8">
-        <v>0</v>
-      </c>
-      <c r="K94" s="24"/>
+      <c r="B94" s="14"/>
+      <c r="H94" s="2" t="str">
+        <f>_xlfn.CONCAT(H91,"Pct")</f>
+        <v>GP_CritPct</v>
+      </c>
+      <c r="I94" s="2" t="str">
+        <f>_xlfn.CONCAT(I91,"Pct")</f>
+        <v>CritPct</v>
+      </c>
+      <c r="J94" s="2">
+        <f>J91*10+3</f>
+        <v>11083</v>
+      </c>
+      <c r="K94" s="31" t="str">
+        <f>_xlfn.CONCAT(K91,"百分比")</f>
+        <v>暴击百分比</v>
+      </c>
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="14"/>
-      <c r="H95" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>157</v>
+      <c r="H95" s="2" t="str">
+        <f>_xlfn.CONCAT(H91,"FinalAdd")</f>
+        <v>GP_CritFinalAdd</v>
+      </c>
+      <c r="I95" s="2" t="str">
+        <f>_xlfn.CONCAT(I91,"FinalAdd")</f>
+        <v>CritFinalAdd</v>
       </c>
       <c r="J95" s="2">
-        <v>1</v>
-      </c>
-      <c r="K95" s="25" t="s">
-        <v>158</v>
+        <f>J91*10+4</f>
+        <v>11084</v>
+      </c>
+      <c r="K95" s="31" t="str">
+        <f>_xlfn.CONCAT(K91,"最终附加值")</f>
+        <v>暴击最终附加值</v>
       </c>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="14"/>
-      <c r="H96" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J96" s="2">
-        <v>2</v>
-      </c>
-      <c r="K96" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11">
-      <c r="B97" s="14"/>
-      <c r="H97" s="2" t="s">
+      <c r="B96" s="17"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="12" t="str">
+        <f>_xlfn.CONCAT(H91,"FinalPct")</f>
+        <v>GP_CritFinalPct</v>
+      </c>
+      <c r="I96" s="12" t="str">
+        <f>_xlfn.CONCAT(I91,"FinalPct")</f>
+        <v>CritFinalPct</v>
+      </c>
+      <c r="J96" s="12">
+        <f>J91*10+5</f>
+        <v>11085</v>
+      </c>
+      <c r="K96" s="32" t="str">
+        <f>_xlfn.CONCAT(K91,"最终百分比")</f>
+        <v>暴击最终百分比</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="J97" s="2">
-        <v>3</v>
-      </c>
-      <c r="K97" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11">
-      <c r="B98" s="14"/>
-      <c r="H98" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J98" s="2">
-        <v>4</v>
-      </c>
-      <c r="K98" s="25" t="s">
-        <v>164</v>
-      </c>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8">
+        <v>0</v>
+      </c>
+      <c r="K98" s="30"/>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" s="14"/>
       <c r="H99" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J99" s="2">
+        <v>1</v>
+      </c>
+      <c r="K99" s="31" t="s">
         <v>165</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J99" s="2">
-        <v>5</v>
-      </c>
-      <c r="K99" s="25" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" s="14"/>
       <c r="H100" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I100" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I100" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="J100" s="2">
-        <v>6</v>
-      </c>
-      <c r="K100" s="25" t="s">
-        <v>168</v>
+        <v>2</v>
+      </c>
+      <c r="K100" s="31" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="2:11">
       <c r="B101" s="14"/>
       <c r="H101" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I101" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I101" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="J101" s="2">
-        <v>7</v>
-      </c>
-      <c r="K101" s="25" t="s">
-        <v>170</v>
+        <v>3</v>
+      </c>
+      <c r="K101" s="31" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="2:11">
       <c r="B102" s="14"/>
       <c r="H102" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I102" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="J102" s="2">
+        <v>4</v>
+      </c>
+      <c r="K102" s="31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="14"/>
+      <c r="H103" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="J102" s="2">
+      <c r="I103" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J103" s="2">
+        <v>5</v>
+      </c>
+      <c r="K103" s="31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" s="14"/>
+      <c r="H104" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J104" s="2">
+        <v>6</v>
+      </c>
+      <c r="K104" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="14"/>
+      <c r="H105" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J105" s="2">
+        <v>7</v>
+      </c>
+      <c r="K105" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="14"/>
+      <c r="H106" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J106" s="2">
         <v>8</v>
       </c>
-      <c r="K102" s="25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11">
-      <c r="B103" s="17"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="I103" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="J103" s="12">
+      <c r="K106" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="17"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="J107" s="12">
         <v>9</v>
       </c>
-      <c r="K103" s="26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11">
-      <c r="B105" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="J105" s="8">
+      <c r="K107" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J109" s="8">
         <v>1</v>
       </c>
-      <c r="K105" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11">
-      <c r="B106" s="17"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="I106" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="J106" s="12">
+      <c r="K109" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="17"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J110" s="12">
         <v>2</v>
       </c>
-      <c r="K106" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11">
-      <c r="B108" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="I108" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="J108" s="8">
+      <c r="K110" s="32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J112" s="8">
         <v>1</v>
       </c>
-      <c r="K108" s="24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11">
-      <c r="B109" s="14"/>
-      <c r="H109" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J109" s="2">
+      <c r="K112" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11">
+      <c r="B113" s="14"/>
+      <c r="H113" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J113" s="2">
         <v>2</v>
       </c>
-      <c r="K109" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11">
-      <c r="B110" s="14"/>
-      <c r="H110" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J110" s="2">
-        <v>3</v>
-      </c>
-      <c r="K110" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11">
-      <c r="B111" s="17"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="I111" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="J111" s="12">
-        <v>4</v>
-      </c>
-      <c r="K111" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11">
-      <c r="B113" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7" t="s">
+      <c r="K113" s="31" t="s">
         <v>191</v>
-      </c>
-      <c r="I113" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="J113" s="8">
-        <v>1</v>
-      </c>
-      <c r="K113" s="24" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="114" spans="2:11">
       <c r="B114" s="14"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15" t="s">
+      <c r="H114" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I114" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I114" s="16" t="s">
+      <c r="J114" s="2">
+        <v>3</v>
+      </c>
+      <c r="K114" s="31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115" s="17"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="J114" s="16">
+      <c r="I115" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="J115" s="12">
+        <v>4</v>
+      </c>
+      <c r="K115" s="32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J117" s="8">
+        <v>1</v>
+      </c>
+      <c r="K117" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="14"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I118" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="J118" s="16">
         <v>2</v>
       </c>
-      <c r="K114" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11">
-      <c r="B115" s="14"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I115" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="J115" s="16">
+      <c r="K118" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119" s="14"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="I119" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="J119" s="16">
         <v>3</v>
       </c>
-      <c r="K115" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11">
-      <c r="B116" s="14"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="I116" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="J116" s="16">
-        <v>4</v>
-      </c>
-      <c r="K116" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11">
-      <c r="B117" s="17"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="I117" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="J117" s="12">
-        <v>5</v>
-      </c>
-      <c r="K117" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11">
-      <c r="B119" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="I119" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="J119" s="8">
-        <v>1</v>
-      </c>
-      <c r="K119" s="24" t="s">
+      <c r="K119" s="31" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="120" spans="2:11">
       <c r="B120" s="14"/>
-      <c r="H120" s="2" t="s">
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="I120" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="J120" s="2">
+      <c r="J120" s="16">
+        <v>4</v>
+      </c>
+      <c r="K120" s="31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="17"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="J121" s="12">
+        <v>5</v>
+      </c>
+      <c r="K121" s="32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11">
+      <c r="B123" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J123" s="8">
+        <v>1</v>
+      </c>
+      <c r="K123" s="30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124" s="14"/>
+      <c r="H124" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J124" s="2">
         <v>2</v>
       </c>
-      <c r="K120" s="25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11">
-      <c r="B121" s="14"/>
-      <c r="H121" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J121" s="2">
-        <v>3</v>
-      </c>
-      <c r="K121" s="25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11">
-      <c r="B122" s="17"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="I122" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="J122" s="12">
-        <v>4</v>
-      </c>
-      <c r="K122" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11">
-      <c r="B124" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I124" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="J124" s="8">
-        <v>1</v>
-      </c>
-      <c r="K124" s="24" t="s">
+      <c r="K124" s="31" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4372,9 +4423,9 @@
         <v>214</v>
       </c>
       <c r="J125" s="2">
-        <v>2</v>
-      </c>
-      <c r="K125" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K125" s="31" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4392,9 +4443,9 @@
         <v>216</v>
       </c>
       <c r="J126" s="12">
-        <v>3</v>
-      </c>
-      <c r="K126" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K126" s="32" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4402,9 +4453,7 @@
       <c r="B128" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C128" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -4416,10 +4465,9 @@
         <v>219</v>
       </c>
       <c r="J128" s="8">
-        <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K128" s="24" t="s">
+      <c r="K128" s="30" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4432,168 +4480,166 @@
         <v>221</v>
       </c>
       <c r="J129" s="2">
-        <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K129" s="25" t="s">
+      <c r="K129" s="31" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="130" spans="2:11">
-      <c r="B130" s="14"/>
-      <c r="H130" s="2" t="s">
+      <c r="B130" s="17"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="I130" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="J130" s="2">
-        <f>POWER(2,2)</f>
-        <v>4</v>
-      </c>
-      <c r="K130" s="25" t="s">
+      <c r="J130" s="12">
+        <v>3</v>
+      </c>
+      <c r="K130" s="32" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="131" spans="2:11">
-      <c r="B131" s="14"/>
-      <c r="H131" s="2" t="s">
+    <row r="132" spans="2:11">
+      <c r="B132" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="C132" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="J131" s="2">
-        <f>POWER(2,3)</f>
-        <v>8</v>
-      </c>
-      <c r="K131" s="25" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11">
-      <c r="B132" s="14"/>
-      <c r="H132" s="2" t="s">
+      <c r="I132" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="I132" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J132" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
-      </c>
-      <c r="K132" s="25" t="s">
-        <v>227</v>
+      <c r="J132" s="8">
+        <f>POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K132" s="30" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="133" spans="2:11">
       <c r="B133" s="14"/>
       <c r="H133" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I133" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="J133" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
-      </c>
-      <c r="K133" s="25" t="s">
-        <v>229</v>
+        <f>POWER(2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K133" s="31" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="134" spans="2:11">
       <c r="B134" s="14"/>
       <c r="H134" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I134" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I134" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="J134" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
-      </c>
-      <c r="K134" s="25" t="s">
-        <v>231</v>
+        <f>POWER(2,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K134" s="31" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="2:11">
       <c r="B135" s="14"/>
       <c r="H135" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I135" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="I135" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="J135" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
-      </c>
-      <c r="K135" s="25" t="s">
-        <v>233</v>
+        <f>POWER(2,3)</f>
+        <v>8</v>
+      </c>
+      <c r="K135" s="31" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="14"/>
       <c r="H136" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I136" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="J136" s="2">
+        <f>POWER(2,4)</f>
+        <v>16</v>
+      </c>
+      <c r="K136" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11">
+      <c r="B137" s="14"/>
+      <c r="H137" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J136" s="2">
-        <f>POWER(2,8)</f>
-        <v>256</v>
-      </c>
-      <c r="K136" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11">
-      <c r="B137" s="17"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="12" t="s">
+      <c r="I137" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="I137" s="12" t="s">
+      <c r="J137" s="2">
+        <f>POWER(2,5)</f>
+        <v>32</v>
+      </c>
+      <c r="K137" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="14"/>
+      <c r="H138" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="J137" s="12">
-        <f>POWER(2,9)</f>
-        <v>512</v>
-      </c>
-      <c r="K137" s="26" t="s">
-        <v>237</v>
+      <c r="I138" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J138" s="2">
+        <f>POWER(2,6)</f>
+        <v>64</v>
+      </c>
+      <c r="K138" s="31" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="2:11">
-      <c r="B139" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C139" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="8" t="s">
+      <c r="B139" s="14"/>
+      <c r="H139" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I139" s="8" t="s">
+      <c r="I139" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J139" s="8">
-        <f>POWER(2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K139" s="24" t="s">
+      <c r="J139" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K139" s="31" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4606,537 +4652,544 @@
         <v>242</v>
       </c>
       <c r="J140" s="2">
-        <f>POWER(2,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K140" s="25" t="s">
+        <f>POWER(2,8)</f>
+        <v>256</v>
+      </c>
+      <c r="K140" s="31" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="141" spans="2:11">
-      <c r="B141" s="14"/>
-      <c r="H141" s="2" t="s">
+      <c r="B141" s="17"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="I141" s="2" t="s">
+      <c r="I141" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="J141" s="2">
-        <f>POWER(2,2)</f>
-        <v>4</v>
-      </c>
-      <c r="K141" s="25" t="s">
+      <c r="J141" s="12">
+        <f>POWER(2,9)</f>
+        <v>512</v>
+      </c>
+      <c r="K141" s="32" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="142" spans="2:11">
-      <c r="B142" s="14"/>
-      <c r="H142" s="2" t="s">
+    <row r="143" spans="2:11">
+      <c r="B143" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="I142" s="2" t="s">
+      <c r="C143" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="J142" s="2">
-        <f>POWER(2,3)</f>
-        <v>8</v>
-      </c>
-      <c r="K142" s="25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11">
-      <c r="B143" s="14"/>
-      <c r="H143" s="2" t="s">
+      <c r="I143" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="I143" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J143" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
-      </c>
-      <c r="K143" s="25" t="s">
-        <v>248</v>
+      <c r="J143" s="8">
+        <f>POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K143" s="30" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="144" spans="2:11">
       <c r="B144" s="14"/>
       <c r="H144" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I144" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="J144" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
-      </c>
-      <c r="K144" s="25" t="s">
-        <v>250</v>
+        <f>POWER(2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K144" s="31" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="145" spans="2:11">
       <c r="B145" s="14"/>
       <c r="H145" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I145" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I145" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="J145" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
-      </c>
-      <c r="K145" s="25" t="s">
-        <v>252</v>
+        <f>POWER(2,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K145" s="31" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="146" spans="2:11">
       <c r="B146" s="14"/>
       <c r="H146" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I146" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I146" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="J146" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
-      </c>
-      <c r="K146" s="25" t="s">
-        <v>254</v>
+        <f>POWER(2,3)</f>
+        <v>8</v>
+      </c>
+      <c r="K146" s="31" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="147" spans="2:11">
       <c r="B147" s="14"/>
       <c r="H147" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I147" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I147" s="2" t="s">
+      <c r="J147" s="2">
+        <f>POWER(2,4)</f>
+        <v>16</v>
+      </c>
+      <c r="K147" s="31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" s="14"/>
+      <c r="H148" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J147" s="2">
+      <c r="I148" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J148" s="2">
+        <f>POWER(2,5)</f>
+        <v>32</v>
+      </c>
+      <c r="K148" s="31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11">
+      <c r="B149" s="14"/>
+      <c r="H149" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J149" s="2">
+        <f>POWER(2,6)</f>
+        <v>64</v>
+      </c>
+      <c r="K149" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="B150" s="14"/>
+      <c r="H150" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J150" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K150" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11">
+      <c r="B151" s="14"/>
+      <c r="H151" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J151" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K147" s="25" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11">
-      <c r="B148" s="17"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11"/>
-      <c r="F148" s="11"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="I148" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="J148" s="12">
+      <c r="K151" s="31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="B152" s="17"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="I152" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J152" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K148" s="26" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11">
-      <c r="B150" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C150" s="7" t="b">
+      <c r="K152" s="32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11">
+      <c r="B154" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C154" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="I150" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="J150" s="8">
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I154" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="J154" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K150" s="24" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11">
-      <c r="B151" s="14"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="I151" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="J151" s="16">
+      <c r="K154" s="30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11">
+      <c r="B155" s="14"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="I155" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="J155" s="16">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K151" s="25" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11">
-      <c r="B152" s="14"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="I152" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="J152" s="16">
+      <c r="K155" s="31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11">
+      <c r="B156" s="14"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="I156" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="J156" s="16">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K152" s="25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11">
-      <c r="B153" s="17"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="I153" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="J153" s="12">
+      <c r="K156" s="31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11">
+      <c r="B157" s="17"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="I157" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="J157" s="12">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K153" s="26" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11">
-      <c r="B155" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="C155" s="7" t="b">
+      <c r="K157" s="32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11">
+      <c r="B159" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C159" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="I155" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="J155" s="8">
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J159" s="8">
         <v>1</v>
       </c>
-      <c r="K155" s="24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11">
-      <c r="B156" s="14"/>
-      <c r="H156" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="J156" s="2">
+      <c r="K159" s="30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11">
+      <c r="B160" s="14"/>
+      <c r="H160" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J160" s="2">
         <v>2</v>
       </c>
-      <c r="K156" s="25" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="157" spans="2:11">
-      <c r="B157" s="14"/>
-      <c r="H157" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="J157" s="2">
+      <c r="K160" s="31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11">
+      <c r="B161" s="14"/>
+      <c r="H161" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J161" s="2">
         <v>3</v>
       </c>
-      <c r="K157" s="25" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="158" spans="2:11">
-      <c r="B158" s="17"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="I158" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="J158" s="12">
+      <c r="K161" s="31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11">
+      <c r="B162" s="17"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="J162" s="12">
         <v>4</v>
       </c>
-      <c r="K158" s="26" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11">
-      <c r="B160" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C160" s="7" t="b">
+      <c r="K162" s="32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11">
+      <c r="B164" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C164" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="I160" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="J160" s="8">
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="I164" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="J164" s="8">
         <v>1</v>
       </c>
-      <c r="K160" s="24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="161" spans="2:11">
-      <c r="B161" s="17"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
-      <c r="E161" s="11"/>
-      <c r="F161" s="11"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="I161" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="J161" s="12">
+      <c r="K164" s="30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11">
+      <c r="B165" s="17"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I165" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J165" s="12">
         <v>2</v>
       </c>
-      <c r="K161" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="163" spans="2:11">
-      <c r="B163" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C163" s="7" t="b">
+      <c r="K165" s="32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11">
+      <c r="B167" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C167" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="I163" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="J163" s="8">
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J167" s="8">
         <v>1</v>
       </c>
-      <c r="K163" s="24" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="164" spans="2:11">
-      <c r="B164" s="14"/>
-      <c r="H164" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I164" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="J164" s="2">
+      <c r="K167" s="30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11">
+      <c r="B168" s="14"/>
+      <c r="H168" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J168" s="2">
         <v>2</v>
       </c>
-      <c r="K164" s="25" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="165" spans="2:11">
-      <c r="B165" s="14"/>
-      <c r="H165" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="I165" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J165" s="2">
+      <c r="K168" s="31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11">
+      <c r="B169" s="14"/>
+      <c r="H169" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J169" s="2">
         <v>3</v>
       </c>
-      <c r="K165" s="25" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="166" spans="2:11">
-      <c r="B166" s="17"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
-      <c r="E166" s="11"/>
-      <c r="F166" s="11"/>
-      <c r="G166" s="11"/>
-      <c r="H166" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="I166" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="J166" s="12">
+      <c r="K169" s="31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11">
+      <c r="B170" s="17"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="J170" s="12">
         <v>4</v>
       </c>
-      <c r="K166" s="26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="168" spans="2:11">
-      <c r="B168" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="C168" s="7" t="b">
+      <c r="K170" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11">
+      <c r="B172" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C172" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I168" s="8" t="s">
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I172" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J168" s="8">
+      <c r="J172" s="8">
         <v>1</v>
       </c>
-      <c r="K168" s="24" t="s">
+      <c r="K172" s="30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="169" spans="2:11">
-      <c r="B169" s="28"/>
-      <c r="H169" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="I169" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="J169" s="2">
+    <row r="173" spans="2:11">
+      <c r="B173" s="37"/>
+      <c r="H173" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J173" s="2">
         <v>2</v>
       </c>
-      <c r="K169" s="25" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="170" spans="2:11">
-      <c r="B170" s="28"/>
-      <c r="H170" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="J170" s="2">
+      <c r="K173" s="31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11">
+      <c r="B174" s="37"/>
+      <c r="H174" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J174" s="2">
         <v>3</v>
       </c>
-      <c r="K170" s="25" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="171" spans="2:11">
-      <c r="B171" s="28"/>
-      <c r="H171" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I171" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J171" s="2">
-        <v>4</v>
-      </c>
-      <c r="K171" s="25" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="172" spans="2:11">
-      <c r="B172" s="28"/>
-      <c r="H172" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="J172" s="2">
-        <v>5</v>
-      </c>
-      <c r="K172" s="25" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="173" spans="2:11">
-      <c r="B173" s="29"/>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
-      <c r="H173" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I173" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="J173" s="12">
-        <v>6</v>
-      </c>
-      <c r="K173" s="26" t="s">
-        <v>302</v>
+      <c r="K174" s="31" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="175" spans="2:11">
-      <c r="B175" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C175" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="B175" s="37"/>
       <c r="H175" s="2" t="s">
         <v>304</v>
       </c>
@@ -5144,13 +5197,14 @@
         <v>305</v>
       </c>
       <c r="J175" s="2">
-        <v>1</v>
-      </c>
-      <c r="K175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K175" s="31" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="176" spans="8:11">
+    <row r="176" spans="2:11">
+      <c r="B176" s="37"/>
       <c r="H176" s="2" t="s">
         <v>306</v>
       </c>
@@ -5158,33 +5212,39 @@
         <v>307</v>
       </c>
       <c r="J176" s="2">
-        <v>2</v>
-      </c>
-      <c r="K176" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K176" s="31" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="178" spans="2:11">
-      <c r="B178" s="1" t="s">
+    <row r="177" spans="2:11">
+      <c r="B177" s="38"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="C178" s="1" t="b">
+      <c r="I177" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="J177" s="12">
+        <v>6</v>
+      </c>
+      <c r="K177" s="32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11">
+      <c r="B179" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C179" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H178" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="I178" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J178" s="2">
-        <v>1</v>
-      </c>
-      <c r="K178" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="179" spans="8:11">
       <c r="H179" s="2" t="s">
         <v>311</v>
       </c>
@@ -5192,7 +5252,7 @@
         <v>312</v>
       </c>
       <c r="J179" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K179" s="2" t="s">
         <v>312</v>
@@ -5206,437 +5266,440 @@
         <v>314</v>
       </c>
       <c r="J180" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K180" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="181" spans="8:11">
-      <c r="H181" s="2" t="s">
+    <row r="182" spans="2:11">
+      <c r="B182" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I181" s="2" t="s">
+      <c r="C182" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="J181" s="2">
+      <c r="I182" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="J182" s="2">
+        <v>1</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="183" spans="8:11">
+      <c r="H183" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J183" s="2">
+        <v>2</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="184" spans="8:11">
+      <c r="H184" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="J184" s="2">
+        <v>3</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="185" spans="8:11">
+      <c r="H185" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J185" s="2">
         <v>4</v>
       </c>
-      <c r="K181" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="182" spans="8:11">
-      <c r="H182" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="I182" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="J182" s="2">
-        <v>5</v>
-      </c>
-      <c r="K182" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="185" spans="2:11">
-      <c r="B185" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C185" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="I185" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="J185" s="2">
-        <v>1</v>
-      </c>
       <c r="K185" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="186" spans="8:11">
       <c r="H186" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J186" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="187" spans="8:11">
-      <c r="H187" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="I187" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="J187" s="2">
-        <v>3</v>
-      </c>
-      <c r="K187" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="188" spans="8:11">
-      <c r="H188" s="2" t="s">
+    </row>
+    <row r="189" spans="2:11">
+      <c r="B189" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I188" s="2" t="s">
+      <c r="C189" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="J188" s="2">
-        <v>4</v>
-      </c>
-      <c r="K188" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="189" spans="8:11">
-      <c r="H189" s="2" t="s">
+      <c r="I189" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="I189" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="J189" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="190" spans="8:11">
       <c r="H190" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="I190" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="I190" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="J190" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="191" spans="8:11">
       <c r="H191" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I191" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="I191" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="J191" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="192" spans="8:11">
       <c r="H192" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I192" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="I192" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="J192" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="193" spans="8:11">
       <c r="H193" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I193" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="I193" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="J193" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="194" spans="8:11">
       <c r="H194" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I194" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="I194" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="J194" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="195" spans="8:11">
       <c r="H195" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I195" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="I195" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="J195" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="196" spans="8:11">
       <c r="H196" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I196" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I196" s="2" t="s">
+      <c r="J196" s="2">
+        <v>8</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="197" spans="8:11">
+      <c r="H197" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J196" s="2">
-        <v>12</v>
-      </c>
-      <c r="K196" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="199" spans="2:11">
-      <c r="B199" s="1" t="s">
+      <c r="I197" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C199" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="J197" s="2">
+        <v>9</v>
+      </c>
+      <c r="K197" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="198" spans="8:11">
+      <c r="H198" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J198" s="2">
+        <v>10</v>
+      </c>
+      <c r="K198" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="199" spans="8:11">
       <c r="H199" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J199" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="200" spans="8:11">
       <c r="H200" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J200" s="2">
+        <v>12</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11">
+      <c r="B203" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C203" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J203" s="2">
+        <v>1</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="204" spans="8:11">
+      <c r="H204" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J204" s="2">
         <v>2</v>
       </c>
-      <c r="K200" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="201" spans="8:11">
-      <c r="H201" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="I201" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="J201" s="2">
-        <v>3</v>
-      </c>
-      <c r="K201" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="204" spans="2:11">
-      <c r="B204" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C204" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="J204" s="2">
-        <v>1</v>
-      </c>
       <c r="K204" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="205" spans="8:11">
       <c r="H205" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J205" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="206" spans="8:11">
-      <c r="H206" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I206" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="J206" s="2">
-        <v>3</v>
-      </c>
-      <c r="K206" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="207" spans="8:11">
-      <c r="H207" s="2" t="s">
+    </row>
+    <row r="208" spans="2:11">
+      <c r="B208" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="I207" s="2" t="s">
+      <c r="C208" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="J207" s="2">
-        <v>4</v>
-      </c>
-      <c r="K207" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="208" spans="8:11">
-      <c r="H208" s="2" t="s">
+      <c r="I208" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="I208" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="J208" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="209" spans="8:11">
       <c r="H209" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I209" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="I209" s="2" t="s">
+      <c r="J209" s="2">
+        <v>2</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="210" spans="8:11">
+      <c r="H210" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="J209" s="2">
+      <c r="I210" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J210" s="2">
+        <v>3</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="211" spans="8:11">
+      <c r="H211" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J211" s="2">
+        <v>4</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="212" spans="8:11">
+      <c r="H212" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J212" s="2">
+        <v>5</v>
+      </c>
+      <c r="K212" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="213" spans="8:11">
+      <c r="H213" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J213" s="2">
         <v>6</v>
       </c>
-      <c r="K209" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="213" spans="2:11">
-      <c r="B213" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H213" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="I213" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="J213" s="2">
+      <c r="K213" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="217" spans="2:11">
+      <c r="B217" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J217" s="2">
         <v>1</v>
       </c>
-      <c r="K213" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="214" spans="8:11">
-      <c r="H214" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="J214" s="2">
+      <c r="K217" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="218" spans="8:11">
+      <c r="H218" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J218" s="2">
         <v>2</v>
       </c>
-      <c r="K214" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="215" spans="8:11">
-      <c r="H215" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I215" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="J215" s="2">
-        <v>3</v>
-      </c>
-      <c r="K215" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="216" spans="8:11">
-      <c r="H216" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I216" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J216" s="2">
-        <v>4</v>
-      </c>
-      <c r="K216" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="218" spans="2:11">
-      <c r="B218" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="H218" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="I218" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J218" s="2">
-        <v>1</v>
-      </c>
       <c r="K218" s="2" t="s">
-        <v>157</v>
+        <v>375</v>
       </c>
     </row>
     <row r="219" spans="8:11">
       <c r="H219" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J219" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K219" s="2" t="s">
         <v>377</v>
@@ -5647,83 +5710,128 @@
         <v>378</v>
       </c>
       <c r="I220" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J220" s="2">
+        <v>4</v>
+      </c>
+      <c r="K220" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="222" spans="2:11">
+      <c r="B222" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="J220" s="2">
-        <v>3</v>
-      </c>
-      <c r="K220" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="221" spans="8:11">
-      <c r="H221" s="2" t="s">
+      <c r="H222" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="I221" s="2" t="s">
+      <c r="I222" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="J221" s="2">
-        <v>4</v>
-      </c>
-      <c r="K221" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="222" spans="8:11">
-      <c r="H222" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="I222" s="2" t="s">
-        <v>384</v>
-      </c>
       <c r="J222" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K222" s="2" t="s">
-        <v>385</v>
+        <v>164</v>
       </c>
     </row>
     <row r="223" spans="8:11">
       <c r="H223" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J223" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K223" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="224" spans="8:11">
       <c r="H224" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J224" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>391</v>
+        <v>169</v>
       </c>
     </row>
     <row r="225" spans="8:11">
       <c r="H225" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J225" s="2">
+        <v>4</v>
+      </c>
+      <c r="K225" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="226" spans="8:11">
+      <c r="H226" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I226" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="J226" s="2">
+        <v>5</v>
+      </c>
+      <c r="K226" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="I225" s="2" t="s">
+    </row>
+    <row r="227" spans="8:11">
+      <c r="H227" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="J225" s="2">
+      <c r="I227" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J227" s="2">
+        <v>6</v>
+      </c>
+      <c r="K227" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="228" spans="8:11">
+      <c r="H228" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="J228" s="2">
+        <v>7</v>
+      </c>
+      <c r="K228" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="229" spans="8:11">
+      <c r="H229" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J229" s="2">
         <v>8</v>
       </c>
-      <c r="K225" s="2" t="s">
-        <v>394</v>
+      <c r="K229" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -5736,20 +5844,20 @@
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B33:B39"/>
     <mergeCell ref="B41:B46"/>
-    <mergeCell ref="B48:B92"/>
-    <mergeCell ref="B94:B103"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="B113:B117"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B128:B137"/>
-    <mergeCell ref="B139:B148"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="B168:B173"/>
+    <mergeCell ref="B52:B96"/>
+    <mergeCell ref="B98:B107"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="B143:B152"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B172:B177"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="26310" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="449">
   <si>
     <t>##var</t>
   </si>
@@ -512,6 +512,15 @@
     <t>暴击</t>
   </si>
   <si>
+    <t>GP_BattleSpeed</t>
+  </si>
+  <si>
+    <t>BattleSpeed</t>
+  </si>
+  <si>
+    <t>战场速度</t>
+  </si>
+  <si>
     <t>EquipmentType</t>
   </si>
   <si>
@@ -1233,6 +1242,138 @@
   </si>
   <si>
     <t>右角</t>
+  </si>
+  <si>
+    <t>BattleAttribute</t>
+  </si>
+  <si>
+    <t>BattleAttribute_Fire</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>BattleAttribute_Water</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>BattleAttribute_Wood</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>BattleAttribute_Light</t>
+  </si>
+  <si>
+    <t>光</t>
+  </si>
+  <si>
+    <t>BattleAttribute_Dark</t>
+  </si>
+  <si>
+    <t>暗</t>
+  </si>
+  <si>
+    <t>BattlePosition</t>
+  </si>
+  <si>
+    <t>BattlePosition_LeftTop</t>
+  </si>
+  <si>
+    <t>左上</t>
+  </si>
+  <si>
+    <t>BattlePosition_LeftMiddle</t>
+  </si>
+  <si>
+    <t>左中</t>
+  </si>
+  <si>
+    <t>BattlePosition_LeftBottom</t>
+  </si>
+  <si>
+    <t>左下</t>
+  </si>
+  <si>
+    <t>BattlePosition_TopMiddle</t>
+  </si>
+  <si>
+    <t>中上</t>
+  </si>
+  <si>
+    <t>BattlePosition_Middle</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>BattlePosition_BottomMiddle</t>
+  </si>
+  <si>
+    <t>中下</t>
+  </si>
+  <si>
+    <t>BattlePosition_RightTop</t>
+  </si>
+  <si>
+    <t>右上</t>
+  </si>
+  <si>
+    <t>BattlePosition_RightMiddle</t>
+  </si>
+  <si>
+    <t>右中</t>
+  </si>
+  <si>
+    <t>BattlePosition_RightBottom</t>
+  </si>
+  <si>
+    <t>右下</t>
+  </si>
+  <si>
+    <t>RoundBattleStage</t>
+  </si>
+  <si>
+    <t>RoundBattleStage_RoundBegin</t>
+  </si>
+  <si>
+    <t>回合开始</t>
+  </si>
+  <si>
+    <t>RoundBattleStage_RoundEnd</t>
+  </si>
+  <si>
+    <t>回合结束</t>
+  </si>
+  <si>
+    <t>RoundBattleStage_SoulCastBegin</t>
+  </si>
+  <si>
+    <t>灵出手开始</t>
+  </si>
+  <si>
+    <t>RoundBattleStage_SoulCastEnd</t>
+  </si>
+  <si>
+    <t>灵出手结束</t>
+  </si>
+  <si>
+    <t>SoulActionType</t>
+  </si>
+  <si>
+    <t>SoulActionType_ModifyProperty</t>
+  </si>
+  <si>
+    <t>灵修改属性行为</t>
+  </si>
+  <si>
+    <t>SoulActionType_Damage</t>
+  </si>
+  <si>
+    <t>灵伤害行为</t>
   </si>
 </sst>
 </file>
@@ -1966,7 +2107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2024,55 +2165,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2403,10 +2535,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L229"/>
+  <dimension ref="A1:L259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="K259" sqref="K259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2532,7 +2664,7 @@
       <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2544,7 +2676,7 @@
       <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2556,7 +2688,7 @@
       <c r="J6" s="2">
         <v>3</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="23" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2568,7 +2700,7 @@
       <c r="J7" s="2">
         <v>4</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="23" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2586,7 +2718,7 @@
       <c r="J8" s="12">
         <v>99</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2610,7 +2742,7 @@
       <c r="J10" s="8">
         <v>1</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="25" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2630,7 +2762,7 @@
       <c r="J11" s="16">
         <v>2</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="26" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2650,7 +2782,7 @@
       <c r="J12" s="16">
         <v>3</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2670,7 +2802,7 @@
       <c r="J13" s="16">
         <v>4</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="26" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2690,7 +2822,7 @@
       <c r="J14" s="12">
         <v>5</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="27" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2717,7 +2849,7 @@
       <c r="J17" s="8">
         <v>1</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2732,7 +2864,7 @@
       <c r="J18" s="2">
         <v>2</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2747,7 +2879,7 @@
       <c r="J19" s="2">
         <v>3</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="26" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2778,7 +2910,7 @@
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="32"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="13" t="s">
@@ -2800,7 +2932,7 @@
       <c r="J23" s="8">
         <v>1</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="25" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2815,7 +2947,7 @@
       <c r="J24" s="2">
         <v>2</v>
       </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="26" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2830,7 +2962,7 @@
       <c r="J25" s="2">
         <v>3</v>
       </c>
-      <c r="K25" s="31" t="s">
+      <c r="K25" s="26" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2845,7 +2977,7 @@
       <c r="J26" s="2">
         <v>4</v>
       </c>
-      <c r="K26" s="31" t="s">
+      <c r="K26" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2865,7 +2997,7 @@
       <c r="J27" s="12">
         <v>5</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="27" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2887,7 +3019,7 @@
       <c r="J29" s="8">
         <v>1</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="K29" s="25" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2902,7 +3034,7 @@
       <c r="J30" s="2">
         <v>2</v>
       </c>
-      <c r="K30" s="31" t="s">
+      <c r="K30" s="26" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2922,7 +3054,7 @@
       <c r="J31" s="12">
         <v>3</v>
       </c>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="27" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2946,7 +3078,7 @@
       <c r="J33" s="8">
         <v>1</v>
       </c>
-      <c r="K33" s="30" t="s">
+      <c r="K33" s="25" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2961,7 +3093,7 @@
       <c r="J34" s="2">
         <v>2</v>
       </c>
-      <c r="K34" s="31" t="s">
+      <c r="K34" s="26" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2976,7 +3108,7 @@
       <c r="J35" s="2">
         <v>3</v>
       </c>
-      <c r="K35" s="31" t="s">
+      <c r="K35" s="26" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2991,7 +3123,7 @@
       <c r="J36" s="2">
         <v>4</v>
       </c>
-      <c r="K36" s="31" t="s">
+      <c r="K36" s="26" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3006,7 +3138,7 @@
       <c r="J37" s="2">
         <v>5</v>
       </c>
-      <c r="K37" s="31" t="s">
+      <c r="K37" s="26" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3021,7 +3153,7 @@
       <c r="J38" s="2">
         <v>6</v>
       </c>
-      <c r="K38" s="31" t="s">
+      <c r="K38" s="26" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3041,7 +3173,7 @@
       <c r="J39" s="12">
         <v>7</v>
       </c>
-      <c r="K39" s="32" t="s">
+      <c r="K39" s="27" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3063,7 +3195,7 @@
       <c r="J41" s="8">
         <v>1</v>
       </c>
-      <c r="K41" s="30" t="s">
+      <c r="K41" s="25" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3083,7 +3215,7 @@
       <c r="J42" s="16">
         <v>2</v>
       </c>
-      <c r="K42" s="31" t="s">
+      <c r="K42" s="26" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3103,7 +3235,7 @@
       <c r="J43" s="16">
         <v>3</v>
       </c>
-      <c r="K43" s="31" t="s">
+      <c r="K43" s="26" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3123,7 +3255,7 @@
       <c r="J44" s="16">
         <v>4</v>
       </c>
-      <c r="K44" s="31" t="s">
+      <c r="K44" s="26" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3143,7 +3275,7 @@
       <c r="J45" s="16">
         <v>5</v>
       </c>
-      <c r="K45" s="31" t="s">
+      <c r="K45" s="26" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3163,7 +3295,7 @@
       <c r="J46" s="12">
         <v>6</v>
       </c>
-      <c r="K46" s="32" t="s">
+      <c r="K46" s="27" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3171,29 +3303,29 @@
       <c r="B47" s="18"/>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="I48" s="21" t="s">
+      <c r="I48" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="J48" s="21">
+      <c r="J48" s="8">
         <v>1</v>
       </c>
-      <c r="K48" s="33" t="s">
+      <c r="K48" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="22"/>
+      <c r="B49" s="14"/>
       <c r="H49" s="2" t="s">
         <v>106</v>
       </c>
@@ -3203,27 +3335,27 @@
       <c r="J49" s="2">
         <v>2</v>
       </c>
-      <c r="K49" s="34" t="s">
+      <c r="K49" s="26" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="25" t="s">
+      <c r="B50" s="17"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I50" s="25" t="s">
+      <c r="I50" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="J50" s="25">
+      <c r="J50" s="12">
         <v>3</v>
       </c>
-      <c r="K50" s="35" t="s">
+      <c r="K50" s="27" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3245,1116 +3377,1376 @@
       <c r="J52" s="8">
         <v>1001</v>
       </c>
-      <c r="K52" s="30" t="s">
+      <c r="K52" s="25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="14"/>
-      <c r="H53" s="2" t="s">
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="20">
         <v>1002</v>
       </c>
-      <c r="K53" s="31" t="s">
+      <c r="K53" s="26" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="14"/>
-      <c r="H54" s="2" t="s">
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="20">
         <v>1003</v>
       </c>
-      <c r="K54" s="31" t="s">
+      <c r="K54" s="26" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="14"/>
-      <c r="H55" s="2" t="s">
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="20">
         <v>1005</v>
       </c>
-      <c r="K55" s="31" t="s">
+      <c r="K55" s="26" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="14"/>
-      <c r="H56" s="2" t="s">
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="20">
         <v>1006</v>
       </c>
-      <c r="K56" s="31" t="s">
+      <c r="K56" s="26" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="14"/>
-      <c r="H57" s="2" t="s">
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="20">
         <v>1007</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" s="28" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="14"/>
-      <c r="H58" s="2" t="s">
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="20">
         <v>1008</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" s="28" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="14"/>
-      <c r="H59" s="2" t="s">
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="20">
         <v>1009</v>
       </c>
-      <c r="K59" s="31" t="s">
+      <c r="K59" s="26" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="14"/>
-      <c r="H60" s="2" t="s">
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="20">
         <v>1010</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K60" s="28" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="14"/>
-      <c r="H61" s="2" t="s">
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="20">
         <v>1011</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="K61" s="28" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="14"/>
-      <c r="K62" s="31"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="26"/>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="14"/>
-      <c r="H63" s="2" t="s">
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="I63" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="20">
         <v>1101</v>
       </c>
-      <c r="K63" s="31" t="s">
+      <c r="K63" s="26" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="14"/>
-      <c r="H64" s="2" t="s">
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="20">
         <v>1102</v>
       </c>
-      <c r="K64" s="31" t="s">
+      <c r="K64" s="26" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="14"/>
-      <c r="H65" s="2" t="s">
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I65" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="20">
         <v>1103</v>
       </c>
-      <c r="K65" s="31" t="s">
+      <c r="K65" s="26" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="14"/>
-      <c r="H66" s="2" t="s">
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="20">
         <v>1104</v>
       </c>
-      <c r="K66" s="31" t="s">
+      <c r="K66" s="26" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="14"/>
-      <c r="H67" s="2" t="s">
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="20">
         <v>1004</v>
       </c>
-      <c r="K67" s="31" t="s">
+      <c r="K67" s="26" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="14"/>
-      <c r="H68" s="2" t="str">
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="20" t="str">
         <f>(_xlfn.CONCAT(H67,"Base"))</f>
         <v>GP_SpeedBase</v>
       </c>
-      <c r="I68" s="2" t="str">
+      <c r="I68" s="20" t="str">
         <f>_xlfn.CONCAT(I67,"Base")</f>
         <v>移动速度Base</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="20">
         <f>J67*10+1</f>
         <v>10041</v>
       </c>
-      <c r="K68" s="31" t="str">
+      <c r="K68" s="26" t="str">
         <f>_xlfn.CONCAT(K67,"基础值")</f>
         <v>移动速度基础值</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="14"/>
-      <c r="H69" s="2" t="str">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="20" t="str">
         <f>_xlfn.CONCAT(H67,"Add")</f>
         <v>GP_SpeedAdd</v>
       </c>
-      <c r="I69" s="2" t="str">
+      <c r="I69" s="20" t="str">
         <f>_xlfn.CONCAT(I67,"Add")</f>
         <v>移动速度Add</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="20">
         <f>J67*10+2</f>
         <v>10042</v>
       </c>
-      <c r="K69" s="31" t="str">
+      <c r="K69" s="26" t="str">
         <f>_xlfn.CONCAT(K67,"附加值")</f>
         <v>移动速度附加值</v>
       </c>
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="14"/>
-      <c r="H70" s="2" t="str">
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="20" t="str">
         <f>_xlfn.CONCAT(H67,"Pct")</f>
         <v>GP_SpeedPct</v>
       </c>
-      <c r="I70" s="2" t="str">
+      <c r="I70" s="20" t="str">
         <f>_xlfn.CONCAT(I67,"Pct")</f>
         <v>移动速度Pct</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="20">
         <f>J67*10+3</f>
         <v>10043</v>
       </c>
-      <c r="K70" s="31" t="str">
+      <c r="K70" s="26" t="str">
         <f>_xlfn.CONCAT(K67,"百分比")</f>
         <v>移动速度百分比</v>
       </c>
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="14"/>
-      <c r="H71" s="2" t="str">
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="20" t="str">
         <f>_xlfn.CONCAT(H67,"FinalAdd")</f>
         <v>GP_SpeedFinalAdd</v>
       </c>
-      <c r="I71" s="2" t="str">
+      <c r="I71" s="20" t="str">
         <f>_xlfn.CONCAT(I67,"FinalAdd")</f>
         <v>移动速度FinalAdd</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="20">
         <f>J67*10+4</f>
         <v>10044</v>
       </c>
-      <c r="K71" s="31" t="str">
+      <c r="K71" s="26" t="str">
         <f>_xlfn.CONCAT(K67,"最终附加值")</f>
         <v>移动速度最终附加值</v>
       </c>
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="14"/>
-      <c r="H72" s="2" t="str">
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="20" t="str">
         <f>_xlfn.CONCAT(H67,"FinalPct")</f>
         <v>GP_SpeedFinalPct</v>
       </c>
-      <c r="I72" s="2" t="str">
+      <c r="I72" s="20" t="str">
         <f>_xlfn.CONCAT(I67,"FinalPct")</f>
         <v>移动速度FinalPct</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="20">
         <f>J67*10+5</f>
         <v>10045</v>
       </c>
-      <c r="K72" s="31" t="str">
+      <c r="K72" s="26" t="str">
         <f>_xlfn.CONCAT(K67,"最终百分比")</f>
         <v>移动速度最终百分比</v>
       </c>
     </row>
     <row r="73" spans="2:11">
       <c r="B73" s="14"/>
-      <c r="H73" s="2" t="s">
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I73" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="20">
         <v>1105</v>
       </c>
-      <c r="K73" s="31" t="s">
+      <c r="K73" s="26" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="14"/>
-      <c r="H74" s="2" t="str">
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="20" t="str">
         <f>(_xlfn.CONCAT(H73,"Base"))</f>
         <v>GP_AtkBase</v>
       </c>
-      <c r="I74" s="2" t="str">
+      <c r="I74" s="20" t="str">
         <f>_xlfn.CONCAT(I73,"Base")</f>
         <v>AtkBase</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="20">
         <f>J73*10+1</f>
         <v>11051</v>
       </c>
-      <c r="K74" s="31" t="str">
+      <c r="K74" s="26" t="str">
         <f>_xlfn.CONCAT(K73,"基础值")</f>
         <v>攻击基础值</v>
       </c>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="14"/>
-      <c r="H75" s="2" t="str">
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="20" t="str">
         <f t="shared" ref="H75:H77" si="0">_xlfn.CONCAT(H73,"Add")</f>
         <v>GP_AtkAdd</v>
       </c>
-      <c r="I75" s="2" t="str">
+      <c r="I75" s="20" t="str">
         <f>_xlfn.CONCAT(I73,"Add")</f>
         <v>AtkAdd</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="20">
         <f>J73*10+2</f>
         <v>11052</v>
       </c>
-      <c r="K75" s="31" t="str">
+      <c r="K75" s="26" t="str">
         <f>_xlfn.CONCAT(K73,"附加值")</f>
         <v>攻击附加值</v>
       </c>
     </row>
     <row r="76" spans="2:11">
       <c r="B76" s="14"/>
-      <c r="H76" s="2" t="str">
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="20" t="str">
         <f>_xlfn.CONCAT(H73,"Pct")</f>
         <v>GP_AtkPct</v>
       </c>
-      <c r="I76" s="2" t="str">
+      <c r="I76" s="20" t="str">
         <f>_xlfn.CONCAT(I73,"Pct")</f>
         <v>AtkPct</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76" s="20">
         <f>J73*10+3</f>
         <v>11053</v>
       </c>
-      <c r="K76" s="31" t="str">
+      <c r="K76" s="26" t="str">
         <f>_xlfn.CONCAT(K73,"百分比")</f>
         <v>攻击百分比</v>
       </c>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" s="14"/>
-      <c r="H77" s="2" t="str">
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="20" t="str">
         <f>_xlfn.CONCAT(H73,"FinalAdd")</f>
         <v>GP_AtkFinalAdd</v>
       </c>
-      <c r="I77" s="2" t="str">
+      <c r="I77" s="20" t="str">
         <f>_xlfn.CONCAT(I73,"FinalAdd")</f>
         <v>AtkFinalAdd</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="20">
         <f>J73*10+4</f>
         <v>11054</v>
       </c>
-      <c r="K77" s="31" t="str">
+      <c r="K77" s="26" t="str">
         <f>_xlfn.CONCAT(K73,"最终附加值")</f>
         <v>攻击最终附加值</v>
       </c>
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="14"/>
-      <c r="H78" s="2" t="str">
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="20" t="str">
         <f>_xlfn.CONCAT(H73,"FinalPct")</f>
         <v>GP_AtkFinalPct</v>
       </c>
-      <c r="I78" s="2" t="str">
+      <c r="I78" s="20" t="str">
         <f>_xlfn.CONCAT(I73,"FinalPct")</f>
         <v>AtkFinalPct</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="20">
         <f>J73*10+5</f>
         <v>11055</v>
       </c>
-      <c r="K78" s="31" t="str">
+      <c r="K78" s="26" t="str">
         <f>_xlfn.CONCAT(K73,"最终百分比")</f>
         <v>攻击最终百分比</v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="14"/>
-      <c r="H79" s="2" t="s">
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I79" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="20">
         <v>1106</v>
       </c>
-      <c r="K79" s="31" t="s">
+      <c r="K79" s="26" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="14"/>
-      <c r="H80" s="2" t="str">
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="20" t="str">
         <f>(_xlfn.CONCAT(H79,"Base"))</f>
         <v>GP_DefBase</v>
       </c>
-      <c r="I80" s="2" t="str">
+      <c r="I80" s="20" t="str">
         <f>_xlfn.CONCAT(I79,"Base")</f>
         <v>DefBase</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="20">
         <f>J79*10+1</f>
         <v>11061</v>
       </c>
-      <c r="K80" s="31" t="str">
+      <c r="K80" s="26" t="str">
         <f>_xlfn.CONCAT(K79,"基础值")</f>
         <v>防御基础值</v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" s="14"/>
-      <c r="H81" s="2" t="str">
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="20" t="str">
         <f>_xlfn.CONCAT(H79,"Add")</f>
         <v>GP_DefAdd</v>
       </c>
-      <c r="I81" s="2" t="str">
+      <c r="I81" s="20" t="str">
         <f>_xlfn.CONCAT(I79,"Add")</f>
         <v>DefAdd</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J81" s="20">
         <f>J79*10+2</f>
         <v>11062</v>
       </c>
-      <c r="K81" s="31" t="str">
+      <c r="K81" s="26" t="str">
         <f>_xlfn.CONCAT(K79,"附加值")</f>
         <v>防御附加值</v>
       </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" s="14"/>
-      <c r="H82" s="2" t="str">
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="20" t="str">
         <f>_xlfn.CONCAT(H79,"Pct")</f>
         <v>GP_DefPct</v>
       </c>
-      <c r="I82" s="2" t="str">
+      <c r="I82" s="20" t="str">
         <f>_xlfn.CONCAT(I79,"Pct")</f>
         <v>DefPct</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82" s="20">
         <f>J79*10+3</f>
         <v>11063</v>
       </c>
-      <c r="K82" s="31" t="str">
+      <c r="K82" s="26" t="str">
         <f>_xlfn.CONCAT(K79,"百分比")</f>
         <v>防御百分比</v>
       </c>
     </row>
     <row r="83" spans="2:11">
       <c r="B83" s="14"/>
-      <c r="H83" s="2" t="str">
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="20" t="str">
         <f>_xlfn.CONCAT(H79,"FinalAdd")</f>
         <v>GP_DefFinalAdd</v>
       </c>
-      <c r="I83" s="2" t="str">
+      <c r="I83" s="20" t="str">
         <f>_xlfn.CONCAT(I79,"FinalAdd")</f>
         <v>DefFinalAdd</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83" s="20">
         <f>J79*10+4</f>
         <v>11064</v>
       </c>
-      <c r="K83" s="31" t="str">
+      <c r="K83" s="26" t="str">
         <f>_xlfn.CONCAT(K79,"最终附加值")</f>
         <v>防御最终附加值</v>
       </c>
     </row>
     <row r="84" spans="2:11">
       <c r="B84" s="14"/>
-      <c r="H84" s="2" t="str">
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="20" t="str">
         <f>_xlfn.CONCAT(H79,"FinalPct")</f>
         <v>GP_DefFinalPct</v>
       </c>
-      <c r="I84" s="2" t="str">
+      <c r="I84" s="20" t="str">
         <f>_xlfn.CONCAT(I79,"FinalPct")</f>
         <v>DefFinalPct</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84" s="20">
         <f>J79*10+5</f>
         <v>11065</v>
       </c>
-      <c r="K84" s="31" t="str">
+      <c r="K84" s="26" t="str">
         <f>_xlfn.CONCAT(K79,"最终百分比")</f>
         <v>防御最终百分比</v>
       </c>
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="14"/>
-      <c r="H85" s="2" t="s">
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I85" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="20">
         <v>1107</v>
       </c>
-      <c r="K85" s="31" t="s">
+      <c r="K85" s="26" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="86" spans="2:11">
       <c r="B86" s="14"/>
-      <c r="H86" s="2" t="str">
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="20" t="str">
         <f>(_xlfn.CONCAT(H85,"Base"))</f>
         <v>GP_HitBase</v>
       </c>
-      <c r="I86" s="2" t="str">
+      <c r="I86" s="20" t="str">
         <f>_xlfn.CONCAT(I85,"Base")</f>
         <v>HitBase</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J86" s="20">
         <f>J85*10+1</f>
         <v>11071</v>
       </c>
-      <c r="K86" s="31" t="str">
+      <c r="K86" s="26" t="str">
         <f>_xlfn.CONCAT(K85,"基础值")</f>
         <v>命中基础值</v>
       </c>
     </row>
     <row r="87" spans="2:11">
       <c r="B87" s="14"/>
-      <c r="H87" s="2" t="str">
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="20" t="str">
         <f>_xlfn.CONCAT(H85,"Add")</f>
         <v>GP_HitAdd</v>
       </c>
-      <c r="I87" s="2" t="str">
+      <c r="I87" s="20" t="str">
         <f>_xlfn.CONCAT(I85,"Add")</f>
         <v>HitAdd</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J87" s="20">
         <f>J85*10+2</f>
         <v>11072</v>
       </c>
-      <c r="K87" s="31" t="str">
+      <c r="K87" s="26" t="str">
         <f>_xlfn.CONCAT(K85,"附加值")</f>
         <v>命中附加值</v>
       </c>
     </row>
     <row r="88" spans="2:11">
       <c r="B88" s="14"/>
-      <c r="H88" s="2" t="str">
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="20" t="str">
         <f>_xlfn.CONCAT(H85,"Pct")</f>
         <v>GP_HitPct</v>
       </c>
-      <c r="I88" s="2" t="str">
+      <c r="I88" s="20" t="str">
         <f>_xlfn.CONCAT(I85,"Pct")</f>
         <v>HitPct</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J88" s="20">
         <f>J85*10+3</f>
         <v>11073</v>
       </c>
-      <c r="K88" s="31" t="str">
+      <c r="K88" s="26" t="str">
         <f>_xlfn.CONCAT(K85,"百分比")</f>
         <v>命中百分比</v>
       </c>
     </row>
     <row r="89" spans="2:11">
       <c r="B89" s="14"/>
-      <c r="H89" s="2" t="str">
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="20" t="str">
         <f>_xlfn.CONCAT(H85,"FinalAdd")</f>
         <v>GP_HitFinalAdd</v>
       </c>
-      <c r="I89" s="2" t="str">
+      <c r="I89" s="20" t="str">
         <f>_xlfn.CONCAT(I85,"FinalAdd")</f>
         <v>HitFinalAdd</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J89" s="20">
         <f>J85*10+4</f>
         <v>11074</v>
       </c>
-      <c r="K89" s="31" t="str">
+      <c r="K89" s="26" t="str">
         <f>_xlfn.CONCAT(K85,"最终附加值")</f>
         <v>命中最终附加值</v>
       </c>
     </row>
     <row r="90" spans="2:11">
       <c r="B90" s="14"/>
-      <c r="H90" s="2" t="str">
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="20" t="str">
         <f>_xlfn.CONCAT(H85,"FinalPct")</f>
         <v>GP_HitFinalPct</v>
       </c>
-      <c r="I90" s="2" t="str">
+      <c r="I90" s="20" t="str">
         <f>_xlfn.CONCAT(I85,"FinalPct")</f>
         <v>HitFinalPct</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J90" s="20">
         <f>J85*10+5</f>
         <v>11075</v>
       </c>
-      <c r="K90" s="31" t="str">
+      <c r="K90" s="26" t="str">
         <f>_xlfn.CONCAT(K85,"最终百分比")</f>
         <v>命中最终百分比</v>
       </c>
     </row>
     <row r="91" spans="2:11">
       <c r="B91" s="14"/>
-      <c r="H91" s="2" t="s">
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="I91" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="J91" s="2">
+      <c r="J91" s="20">
         <v>1108</v>
       </c>
-      <c r="K91" s="31" t="s">
+      <c r="K91" s="26" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="92" spans="2:11">
       <c r="B92" s="14"/>
-      <c r="H92" s="2" t="str">
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="20" t="str">
         <f>(_xlfn.CONCAT(H91,"Base"))</f>
         <v>GP_CritBase</v>
       </c>
-      <c r="I92" s="2" t="str">
+      <c r="I92" s="20" t="str">
         <f>_xlfn.CONCAT(I91,"Base")</f>
         <v>CritBase</v>
       </c>
-      <c r="J92" s="2">
+      <c r="J92" s="20">
         <f>J91*10+1</f>
         <v>11081</v>
       </c>
-      <c r="K92" s="31" t="str">
+      <c r="K92" s="26" t="str">
         <f>_xlfn.CONCAT(K91,"基础值")</f>
         <v>暴击基础值</v>
       </c>
     </row>
     <row r="93" spans="2:11">
       <c r="B93" s="14"/>
-      <c r="H93" s="2" t="str">
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="20" t="str">
         <f>_xlfn.CONCAT(H91,"Add")</f>
         <v>GP_CritAdd</v>
       </c>
-      <c r="I93" s="2" t="str">
+      <c r="I93" s="20" t="str">
         <f>_xlfn.CONCAT(I91,"Add")</f>
         <v>CritAdd</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J93" s="20">
         <f>J91*10+2</f>
         <v>11082</v>
       </c>
-      <c r="K93" s="31" t="str">
+      <c r="K93" s="26" t="str">
         <f>_xlfn.CONCAT(K91,"附加值")</f>
         <v>暴击附加值</v>
       </c>
     </row>
     <row r="94" spans="2:11">
       <c r="B94" s="14"/>
-      <c r="H94" s="2" t="str">
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="20" t="str">
         <f>_xlfn.CONCAT(H91,"Pct")</f>
         <v>GP_CritPct</v>
       </c>
-      <c r="I94" s="2" t="str">
+      <c r="I94" s="20" t="str">
         <f>_xlfn.CONCAT(I91,"Pct")</f>
         <v>CritPct</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J94" s="20">
         <f>J91*10+3</f>
         <v>11083</v>
       </c>
-      <c r="K94" s="31" t="str">
+      <c r="K94" s="26" t="str">
         <f>_xlfn.CONCAT(K91,"百分比")</f>
         <v>暴击百分比</v>
       </c>
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="14"/>
-      <c r="H95" s="2" t="str">
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="20" t="str">
         <f>_xlfn.CONCAT(H91,"FinalAdd")</f>
         <v>GP_CritFinalAdd</v>
       </c>
-      <c r="I95" s="2" t="str">
+      <c r="I95" s="20" t="str">
         <f>_xlfn.CONCAT(I91,"FinalAdd")</f>
         <v>CritFinalAdd</v>
       </c>
-      <c r="J95" s="2">
+      <c r="J95" s="20">
         <f>J91*10+4</f>
         <v>11084</v>
       </c>
-      <c r="K95" s="31" t="str">
+      <c r="K95" s="26" t="str">
         <f>_xlfn.CONCAT(K91,"最终附加值")</f>
         <v>暴击最终附加值</v>
       </c>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="17"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="12" t="str">
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="16" t="str">
         <f>_xlfn.CONCAT(H91,"FinalPct")</f>
         <v>GP_CritFinalPct</v>
       </c>
-      <c r="I96" s="12" t="str">
+      <c r="I96" s="16" t="str">
         <f>_xlfn.CONCAT(I91,"FinalPct")</f>
         <v>CritFinalPct</v>
       </c>
-      <c r="J96" s="12">
+      <c r="J96" s="16">
         <f>J91*10+5</f>
         <v>11085</v>
       </c>
-      <c r="K96" s="32" t="str">
+      <c r="K96" s="26" t="str">
         <f>_xlfn.CONCAT(K91,"最终百分比")</f>
         <v>暴击最终百分比</v>
       </c>
     </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="29"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I97" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J97" s="20">
+        <v>1109</v>
+      </c>
+      <c r="K97" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
     <row r="98" spans="2:11">
-      <c r="B98" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8">
+      <c r="B98" s="29"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="20" t="str">
+        <f>(_xlfn.CONCAT(H97,"Base"))</f>
+        <v>GP_BattleSpeedBase</v>
+      </c>
+      <c r="I98" s="20" t="str">
+        <f>_xlfn.CONCAT(I97,"Base")</f>
+        <v>BattleSpeedBase</v>
+      </c>
+      <c r="J98" s="20">
+        <f>J97*10+1</f>
+        <v>11091</v>
+      </c>
+      <c r="K98" s="26" t="str">
+        <f>_xlfn.CONCAT(K97,"基础值")</f>
+        <v>战场速度基础值</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="29"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="20" t="str">
+        <f>_xlfn.CONCAT(H97,"Add")</f>
+        <v>GP_BattleSpeedAdd</v>
+      </c>
+      <c r="I99" s="20" t="str">
+        <f>_xlfn.CONCAT(I97,"Add")</f>
+        <v>BattleSpeedAdd</v>
+      </c>
+      <c r="J99" s="20">
+        <f>J97*10+2</f>
+        <v>11092</v>
+      </c>
+      <c r="K99" s="26" t="str">
+        <f>_xlfn.CONCAT(K97,"附加值")</f>
+        <v>战场速度附加值</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="29"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="20" t="str">
+        <f>_xlfn.CONCAT(H97,"Pct")</f>
+        <v>GP_BattleSpeedPct</v>
+      </c>
+      <c r="I100" s="20" t="str">
+        <f>_xlfn.CONCAT(I97,"Pct")</f>
+        <v>BattleSpeedPct</v>
+      </c>
+      <c r="J100" s="20">
+        <f>J97*10+3</f>
+        <v>11093</v>
+      </c>
+      <c r="K100" s="26" t="str">
+        <f>_xlfn.CONCAT(K97,"百分比")</f>
+        <v>战场速度百分比</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="29"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="20" t="str">
+        <f>_xlfn.CONCAT(H97,"FinalAdd")</f>
+        <v>GP_BattleSpeedFinalAdd</v>
+      </c>
+      <c r="I101" s="20" t="str">
+        <f>_xlfn.CONCAT(I97,"FinalAdd")</f>
+        <v>BattleSpeedFinalAdd</v>
+      </c>
+      <c r="J101" s="20">
+        <f>J97*10+4</f>
+        <v>11094</v>
+      </c>
+      <c r="K101" s="26" t="str">
+        <f>_xlfn.CONCAT(K97,"最终附加值")</f>
+        <v>战场速度最终附加值</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="30"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="12" t="str">
+        <f>_xlfn.CONCAT(H97,"FinalPct")</f>
+        <v>GP_BattleSpeedFinalPct</v>
+      </c>
+      <c r="I102" s="12" t="str">
+        <f>_xlfn.CONCAT(I97,"FinalPct")</f>
+        <v>BattleSpeedFinalPct</v>
+      </c>
+      <c r="J102" s="12">
+        <f>J97*10+5</f>
+        <v>11095</v>
+      </c>
+      <c r="K102" s="27" t="str">
+        <f>_xlfn.CONCAT(K97,"最终百分比")</f>
+        <v>战场速度最终百分比</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="18"/>
+      <c r="H103" s="32"/>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8">
         <v>0</v>
       </c>
-      <c r="K98" s="30"/>
-    </row>
-    <row r="99" spans="2:11">
-      <c r="B99" s="14"/>
-      <c r="H99" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J99" s="2">
-        <v>1</v>
-      </c>
-      <c r="K99" s="31" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11">
-      <c r="B100" s="14"/>
-      <c r="H100" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J100" s="2">
-        <v>2</v>
-      </c>
-      <c r="K100" s="31" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11">
-      <c r="B101" s="14"/>
-      <c r="H101" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J101" s="2">
-        <v>3</v>
-      </c>
-      <c r="K101" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11">
-      <c r="B102" s="14"/>
-      <c r="H102" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J102" s="2">
-        <v>4</v>
-      </c>
-      <c r="K102" s="31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11">
-      <c r="B103" s="14"/>
-      <c r="H103" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J103" s="2">
-        <v>5</v>
-      </c>
-      <c r="K103" s="31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11">
-      <c r="B104" s="14"/>
-      <c r="H104" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J104" s="2">
-        <v>6</v>
-      </c>
-      <c r="K104" s="31" t="s">
-        <v>175</v>
-      </c>
+      <c r="K104" s="25"/>
     </row>
     <row r="105" spans="2:11">
       <c r="B105" s="14"/>
       <c r="H105" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J105" s="2">
-        <v>7</v>
-      </c>
-      <c r="K105" s="31" t="s">
-        <v>177</v>
+        <v>1</v>
+      </c>
+      <c r="K105" s="26" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="2:11">
       <c r="B106" s="14"/>
       <c r="H106" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J106" s="2">
+        <v>2</v>
+      </c>
+      <c r="K106" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="14"/>
+      <c r="H107" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J107" s="2">
+        <v>3</v>
+      </c>
+      <c r="K107" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="14"/>
+      <c r="H108" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J108" s="2">
+        <v>4</v>
+      </c>
+      <c r="K108" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="14"/>
+      <c r="H109" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J109" s="2">
+        <v>5</v>
+      </c>
+      <c r="K109" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="14"/>
+      <c r="H110" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I110" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="J110" s="2">
+        <v>6</v>
+      </c>
+      <c r="K110" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="14"/>
+      <c r="H111" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J106" s="2">
+      <c r="I111" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J111" s="2">
+        <v>7</v>
+      </c>
+      <c r="K111" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" s="14"/>
+      <c r="H112" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J112" s="2">
         <v>8</v>
       </c>
-      <c r="K106" s="31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11">
-      <c r="B107" s="17"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="I107" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="J107" s="12">
+      <c r="K112" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11">
+      <c r="B113" s="17"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J113" s="12">
         <v>9</v>
       </c>
-      <c r="K107" s="32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11">
-      <c r="B109" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="I109" s="8" t="s">
+      <c r="K113" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="J109" s="8">
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J115" s="8">
         <v>1</v>
       </c>
-      <c r="K109" s="30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11">
-      <c r="B110" s="17"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="I110" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="J110" s="12">
+      <c r="K115" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11">
+      <c r="B116" s="17"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="I116" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="J116" s="12">
         <v>2</v>
       </c>
-      <c r="K110" s="32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11">
-      <c r="B112" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="I112" s="8" t="s">
+      <c r="K116" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="J112" s="8">
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J118" s="8">
         <v>1</v>
       </c>
-      <c r="K112" s="30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11">
-      <c r="B113" s="14"/>
-      <c r="H113" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J113" s="2">
-        <v>2</v>
-      </c>
-      <c r="K113" s="31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11">
-      <c r="B114" s="14"/>
-      <c r="H114" s="2" t="s">
+      <c r="K118" s="25" t="s">
         <v>192</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J114" s="2">
-        <v>3</v>
-      </c>
-      <c r="K114" s="31" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11">
-      <c r="B115" s="17"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="I115" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="J115" s="12">
-        <v>4</v>
-      </c>
-      <c r="K115" s="32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11">
-      <c r="B117" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I117" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="J117" s="8">
-        <v>1</v>
-      </c>
-      <c r="K117" s="30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11">
-      <c r="B118" s="14"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="I118" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="J118" s="16">
-        <v>2</v>
-      </c>
-      <c r="K118" s="31" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="119" spans="2:11">
       <c r="B119" s="14"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="I119" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="J119" s="16">
-        <v>3</v>
-      </c>
-      <c r="K119" s="31" t="s">
-        <v>203</v>
+      <c r="H119" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J119" s="2">
+        <v>2</v>
+      </c>
+      <c r="K119" s="26" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="2:11">
       <c r="B120" s="14"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="I120" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="J120" s="16">
-        <v>4</v>
-      </c>
-      <c r="K120" s="31" t="s">
-        <v>205</v>
+      <c r="H120" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J120" s="2">
+        <v>3</v>
+      </c>
+      <c r="K120" s="26" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="121" spans="2:11">
@@ -4365,1473 +4757,1870 @@
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
       <c r="H121" s="12" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="J121" s="12">
-        <v>5</v>
-      </c>
-      <c r="K121" s="32" t="s">
-        <v>207</v>
+        <v>4</v>
+      </c>
+      <c r="K121" s="27" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="2:11">
       <c r="B123" s="13" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
-      <c r="H123" s="8" t="s">
-        <v>209</v>
+      <c r="H123" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="J123" s="8">
         <v>1</v>
       </c>
-      <c r="K123" s="30" t="s">
-        <v>210</v>
+      <c r="K123" s="25" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="124" spans="2:11">
       <c r="B124" s="14"/>
-      <c r="H124" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J124" s="2">
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I124" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="J124" s="16">
         <v>2</v>
       </c>
-      <c r="K124" s="31" t="s">
-        <v>212</v>
+      <c r="K124" s="26" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="125" spans="2:11">
       <c r="B125" s="14"/>
-      <c r="H125" s="2" t="s">
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I125" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="J125" s="16">
+        <v>3</v>
+      </c>
+      <c r="K125" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11">
+      <c r="B126" s="14"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I126" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="J126" s="16">
+        <v>4</v>
+      </c>
+      <c r="K126" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11">
+      <c r="B127" s="17"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="J127" s="12">
+        <v>5</v>
+      </c>
+      <c r="K127" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="I129" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="J129" s="8">
+        <v>1</v>
+      </c>
+      <c r="K129" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11">
+      <c r="B130" s="14"/>
+      <c r="H130" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J125" s="2">
+      <c r="I130" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J130" s="2">
+        <v>2</v>
+      </c>
+      <c r="K130" s="26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="B131" s="14"/>
+      <c r="H131" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J131" s="2">
         <v>3</v>
       </c>
-      <c r="K125" s="31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11">
-      <c r="B126" s="17"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="I126" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="J126" s="12">
+      <c r="K131" s="26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132" s="17"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="J132" s="12">
         <v>4</v>
       </c>
-      <c r="K126" s="32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11">
-      <c r="B128" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I128" s="8" t="s">
+      <c r="K132" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="J128" s="8">
+    </row>
+    <row r="134" spans="2:11">
+      <c r="B134" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J134" s="8">
         <v>1</v>
       </c>
-      <c r="K128" s="30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="129" spans="2:11">
-      <c r="B129" s="14"/>
-      <c r="H129" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J129" s="2">
-        <v>2</v>
-      </c>
-      <c r="K129" s="31" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11">
-      <c r="B130" s="17"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="12" t="s">
+      <c r="K134" s="25" t="s">
         <v>222</v>
-      </c>
-      <c r="I130" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="J130" s="12">
-        <v>3</v>
-      </c>
-      <c r="K130" s="32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11">
-      <c r="B132" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C132" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="J132" s="8">
-        <f>POWER(2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K132" s="30" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="133" spans="2:11">
-      <c r="B133" s="14"/>
-      <c r="H133" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J133" s="2">
-        <f>POWER(2,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K133" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11">
-      <c r="B134" s="14"/>
-      <c r="H134" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J134" s="2">
-        <f>POWER(2,2)</f>
-        <v>4</v>
-      </c>
-      <c r="K134" s="31" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="135" spans="2:11">
       <c r="B135" s="14"/>
       <c r="H135" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="J135" s="2">
-        <f>POWER(2,3)</f>
-        <v>8</v>
-      </c>
-      <c r="K135" s="31" t="s">
-        <v>232</v>
+        <v>2</v>
+      </c>
+      <c r="K135" s="26" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="2:11">
-      <c r="B136" s="14"/>
-      <c r="H136" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J136" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
-      </c>
-      <c r="K136" s="31" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11">
-      <c r="B137" s="14"/>
-      <c r="H137" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J137" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
-      </c>
-      <c r="K137" s="31" t="s">
-        <v>236</v>
+      <c r="B136" s="17"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="J136" s="12">
+        <v>3</v>
+      </c>
+      <c r="K136" s="27" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="2:11">
-      <c r="B138" s="14"/>
-      <c r="H138" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J138" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
-      </c>
-      <c r="K138" s="31" t="s">
-        <v>238</v>
+      <c r="B138" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C138" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J138" s="8">
+        <f>POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K138" s="25" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="139" spans="2:11">
       <c r="B139" s="14"/>
       <c r="H139" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J139" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
-      </c>
-      <c r="K139" s="31" t="s">
-        <v>240</v>
+        <f>POWER(2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K139" s="26" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="140" spans="2:11">
       <c r="B140" s="14"/>
       <c r="H140" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="J140" s="2">
-        <f>POWER(2,8)</f>
-        <v>256</v>
-      </c>
-      <c r="K140" s="31" t="s">
-        <v>242</v>
+        <f>POWER(2,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K140" s="26" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="141" spans="2:11">
-      <c r="B141" s="17"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="I141" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="J141" s="12">
-        <f>POWER(2,9)</f>
-        <v>512</v>
-      </c>
-      <c r="K141" s="32" t="s">
-        <v>244</v>
+      <c r="B141" s="14"/>
+      <c r="H141" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J141" s="2">
+        <f>POWER(2,3)</f>
+        <v>8</v>
+      </c>
+      <c r="K141" s="26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" s="14"/>
+      <c r="H142" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J142" s="2">
+        <f>POWER(2,4)</f>
+        <v>16</v>
+      </c>
+      <c r="K142" s="26" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="143" spans="2:11">
-      <c r="B143" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C143" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="I143" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="J143" s="8">
-        <f>POWER(2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="K143" s="30" t="s">
-        <v>247</v>
+      <c r="B143" s="14"/>
+      <c r="H143" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J143" s="2">
+        <f>POWER(2,5)</f>
+        <v>32</v>
+      </c>
+      <c r="K143" s="26" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="144" spans="2:11">
       <c r="B144" s="14"/>
       <c r="H144" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="J144" s="2">
-        <f>POWER(2,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K144" s="31" t="s">
-        <v>249</v>
+        <f>POWER(2,6)</f>
+        <v>64</v>
+      </c>
+      <c r="K144" s="26" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="145" spans="2:11">
       <c r="B145" s="14"/>
       <c r="H145" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J145" s="2">
-        <f>POWER(2,2)</f>
-        <v>4</v>
-      </c>
-      <c r="K145" s="31" t="s">
-        <v>251</v>
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K145" s="26" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="146" spans="2:11">
       <c r="B146" s="14"/>
       <c r="H146" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="J146" s="2">
-        <f>POWER(2,3)</f>
-        <v>8</v>
-      </c>
-      <c r="K146" s="31" t="s">
-        <v>253</v>
+        <f>POWER(2,8)</f>
+        <v>256</v>
+      </c>
+      <c r="K146" s="26" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="147" spans="2:11">
-      <c r="B147" s="14"/>
-      <c r="H147" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J147" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
-      </c>
-      <c r="K147" s="31" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11">
-      <c r="B148" s="14"/>
-      <c r="H148" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="J148" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
-      </c>
-      <c r="K148" s="31" t="s">
-        <v>257</v>
+      <c r="B147" s="17"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J147" s="12">
+        <f>POWER(2,9)</f>
+        <v>512</v>
+      </c>
+      <c r="K147" s="27" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="149" spans="2:11">
-      <c r="B149" s="14"/>
-      <c r="H149" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="J149" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
-      </c>
-      <c r="K149" s="31" t="s">
-        <v>259</v>
+      <c r="B149" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C149" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="J149" s="8">
+        <f>POWER(2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K149" s="25" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="150" spans="2:11">
       <c r="B150" s="14"/>
       <c r="H150" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="J150" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
-      </c>
-      <c r="K150" s="31" t="s">
-        <v>261</v>
+        <f>POWER(2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K150" s="26" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="151" spans="2:11">
       <c r="B151" s="14"/>
       <c r="H151" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J151" s="2">
+        <f>POWER(2,2)</f>
+        <v>4</v>
+      </c>
+      <c r="K151" s="26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="B152" s="14"/>
+      <c r="H152" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J152" s="2">
+        <f>POWER(2,3)</f>
+        <v>8</v>
+      </c>
+      <c r="K152" s="26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11">
+      <c r="B153" s="14"/>
+      <c r="H153" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J153" s="2">
+        <f>POWER(2,4)</f>
+        <v>16</v>
+      </c>
+      <c r="K153" s="26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11">
+      <c r="B154" s="14"/>
+      <c r="H154" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J154" s="2">
+        <f>POWER(2,5)</f>
+        <v>32</v>
+      </c>
+      <c r="K154" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11">
+      <c r="B155" s="14"/>
+      <c r="H155" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I155" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I151" s="2" t="s">
+      <c r="J155" s="2">
+        <f>POWER(2,6)</f>
+        <v>64</v>
+      </c>
+      <c r="K155" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11">
+      <c r="B156" s="14"/>
+      <c r="H156" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="J151" s="2">
+      <c r="I156" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J156" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K156" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11">
+      <c r="B157" s="14"/>
+      <c r="H157" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J157" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K151" s="31" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11">
-      <c r="B152" s="17"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="I152" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="J152" s="12">
+      <c r="K157" s="26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11">
+      <c r="B158" s="17"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="I158" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="J158" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K152" s="32" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11">
-      <c r="B154" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C154" s="7" t="b">
+      <c r="K158" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11">
+      <c r="B160" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C160" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="I154" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="J154" s="8">
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I160" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="J160" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K154" s="30" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11">
-      <c r="B155" s="14"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="I155" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="J155" s="16">
+      <c r="K160" s="25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11">
+      <c r="B161" s="14"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="I161" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="J161" s="16">
         <f>POWER(2,1)</f>
         <v>2</v>
       </c>
-      <c r="K155" s="31" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11">
-      <c r="B156" s="14"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="I156" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="J156" s="16">
+      <c r="K161" s="26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11">
+      <c r="B162" s="14"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="I162" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="J162" s="16">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K156" s="31" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="157" spans="2:11">
-      <c r="B157" s="17"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="11"/>
-      <c r="E157" s="11"/>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="I157" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="J157" s="12">
+      <c r="K162" s="26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11">
+      <c r="B163" s="17"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="J163" s="12">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K157" s="32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="159" spans="2:11">
-      <c r="B159" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C159" s="7" t="b">
+      <c r="K163" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11">
+      <c r="B165" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C165" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="I159" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="J159" s="8">
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J165" s="8">
         <v>1</v>
       </c>
-      <c r="K159" s="30" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11">
-      <c r="B160" s="14"/>
-      <c r="H160" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="J160" s="2">
+      <c r="K165" s="25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11">
+      <c r="B166" s="14"/>
+      <c r="H166" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J166" s="2">
         <v>2</v>
       </c>
-      <c r="K160" s="31" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="161" spans="2:11">
-      <c r="B161" s="14"/>
-      <c r="H161" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="J161" s="2">
+      <c r="K166" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11">
+      <c r="B167" s="14"/>
+      <c r="H167" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J167" s="2">
         <v>3</v>
       </c>
-      <c r="K161" s="31" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11">
-      <c r="B162" s="17"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
-      <c r="E162" s="11"/>
-      <c r="F162" s="11"/>
-      <c r="G162" s="11"/>
-      <c r="H162" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="I162" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="J162" s="12">
+      <c r="K167" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11">
+      <c r="B168" s="17"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I168" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J168" s="12">
         <v>4</v>
       </c>
-      <c r="K162" s="32" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="164" spans="2:11">
-      <c r="B164" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C164" s="7" t="b">
+      <c r="K168" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11">
+      <c r="B170" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C170" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="I164" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="J164" s="8">
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="I170" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="J170" s="8">
         <v>1</v>
       </c>
-      <c r="K164" s="30" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="165" spans="2:11">
-      <c r="B165" s="17"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="I165" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="J165" s="12">
+      <c r="K170" s="25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11">
+      <c r="B171" s="17"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="I171" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="J171" s="12">
         <v>2</v>
       </c>
-      <c r="K165" s="32" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="167" spans="2:11">
-      <c r="B167" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="C167" s="7" t="b">
+      <c r="K171" s="27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11">
+      <c r="B173" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C173" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="I167" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="J167" s="8">
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I173" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="J173" s="8">
         <v>1</v>
       </c>
-      <c r="K167" s="30" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="168" spans="2:11">
-      <c r="B168" s="14"/>
-      <c r="H168" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="J168" s="2">
+      <c r="K173" s="25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11">
+      <c r="B174" s="14"/>
+      <c r="H174" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J174" s="2">
         <v>2</v>
       </c>
-      <c r="K168" s="31" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="169" spans="2:11">
-      <c r="B169" s="14"/>
-      <c r="H169" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="I169" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="J169" s="2">
+      <c r="K174" s="26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11">
+      <c r="B175" s="14"/>
+      <c r="H175" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J175" s="2">
         <v>3</v>
       </c>
-      <c r="K169" s="31" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="170" spans="2:11">
-      <c r="B170" s="17"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11"/>
-      <c r="F170" s="11"/>
-      <c r="G170" s="11"/>
-      <c r="H170" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="I170" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="J170" s="12">
+      <c r="K175" s="26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11">
+      <c r="B176" s="17"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I176" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="J176" s="12">
         <v>4</v>
       </c>
-      <c r="K170" s="32" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="172" spans="2:11">
-      <c r="B172" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="C172" s="7" t="b">
+      <c r="K176" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11">
+      <c r="B178" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C178" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="I172" s="8" t="s">
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I178" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J172" s="8">
+      <c r="J178" s="8">
         <v>1</v>
       </c>
-      <c r="K172" s="30" t="s">
+      <c r="K178" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="173" spans="2:11">
-      <c r="B173" s="37"/>
-      <c r="H173" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="J173" s="2">
+    <row r="179" spans="2:11">
+      <c r="B179" s="34"/>
+      <c r="H179" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J179" s="2">
         <v>2</v>
       </c>
-      <c r="K173" s="31" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="174" spans="2:11">
-      <c r="B174" s="37"/>
-      <c r="H174" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J174" s="2">
+      <c r="K179" s="26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11">
+      <c r="B180" s="34"/>
+      <c r="H180" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J180" s="2">
         <v>3</v>
       </c>
-      <c r="K174" s="31" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="175" spans="2:11">
-      <c r="B175" s="37"/>
-      <c r="H175" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="I175" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="J175" s="2">
+      <c r="K180" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11">
+      <c r="B181" s="34"/>
+      <c r="H181" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J181" s="2">
         <v>4</v>
       </c>
-      <c r="K175" s="31" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="176" spans="2:11">
-      <c r="B176" s="37"/>
-      <c r="H176" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="I176" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="J176" s="2">
+      <c r="K181" s="26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11">
+      <c r="B182" s="34"/>
+      <c r="H182" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J182" s="2">
         <v>5</v>
       </c>
-      <c r="K176" s="31" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="177" spans="2:11">
-      <c r="B177" s="38"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="11"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="11"/>
-      <c r="H177" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="I177" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="J177" s="12">
+      <c r="K182" s="26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11">
+      <c r="B183" s="35"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="I183" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="J183" s="12">
         <v>6</v>
       </c>
-      <c r="K177" s="32" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="179" spans="2:11">
-      <c r="B179" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C179" s="1" t="b">
+      <c r="K183" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11">
+      <c r="B185" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C185" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H179" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="J179" s="2">
+      <c r="H185" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J185" s="2">
         <v>1</v>
       </c>
-      <c r="K179" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="180" spans="8:11">
-      <c r="H180" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="I180" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="J180" s="2">
-        <v>2</v>
-      </c>
-      <c r="K180" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="182" spans="2:11">
-      <c r="B182" s="1" t="s">
+      <c r="K185" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C182" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="I182" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="J182" s="2">
-        <v>1</v>
-      </c>
-      <c r="K182" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="183" spans="8:11">
-      <c r="H183" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="I183" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="J183" s="2">
-        <v>2</v>
-      </c>
-      <c r="K183" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="184" spans="8:11">
-      <c r="H184" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="I184" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="J184" s="2">
-        <v>3</v>
-      </c>
-      <c r="K184" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="185" spans="8:11">
-      <c r="H185" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I185" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="J185" s="2">
-        <v>4</v>
-      </c>
-      <c r="K185" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="186" spans="8:11">
       <c r="H186" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="J186" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="189" spans="2:11">
-      <c r="B189" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C189" s="1" t="b">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11">
+      <c r="B188" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C188" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="H188" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J188" s="2">
+        <v>1</v>
+      </c>
+      <c r="K188" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="189" spans="8:11">
       <c r="H189" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J189" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="190" spans="8:11">
       <c r="H190" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="J190" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="191" spans="8:11">
       <c r="H191" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="J191" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="192" spans="8:11">
       <c r="H192" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J192" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="193" spans="8:11">
-      <c r="H193" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="I193" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="J193" s="2">
-        <v>5</v>
-      </c>
-      <c r="K193" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="194" spans="8:11">
-      <c r="H194" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="I194" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="J194" s="2">
-        <v>6</v>
-      </c>
-      <c r="K194" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="195" spans="8:11">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11">
+      <c r="B195" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C195" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="H195" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="J195" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="196" spans="8:11">
       <c r="H196" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="J196" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="197" spans="8:11">
       <c r="H197" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="J197" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="198" spans="8:11">
       <c r="H198" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="J198" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="199" spans="8:11">
       <c r="H199" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J199" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="200" spans="8:11">
       <c r="H200" s="2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="J200" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="203" spans="2:11">
-      <c r="B203" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C203" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="201" spans="8:11">
+      <c r="H201" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J201" s="2">
+        <v>7</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="202" spans="8:11">
+      <c r="H202" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J202" s="2">
+        <v>8</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="203" spans="8:11">
       <c r="H203" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J203" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="204" spans="8:11">
       <c r="H204" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="J204" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="205" spans="8:11">
       <c r="H205" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J205" s="2">
+        <v>11</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="206" spans="8:11">
+      <c r="H206" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J206" s="2">
+        <v>12</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11">
+      <c r="B209" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C209" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I209" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="I205" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="J205" s="2">
-        <v>3</v>
-      </c>
-      <c r="K205" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="208" spans="2:11">
-      <c r="B208" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C208" s="1" t="b">
+      <c r="J209" s="2">
         <v>1</v>
       </c>
-      <c r="H208" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="I208" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="J208" s="2">
-        <v>1</v>
-      </c>
-      <c r="K208" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="209" spans="8:11">
-      <c r="H209" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="I209" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="J209" s="2">
-        <v>2</v>
-      </c>
       <c r="K209" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="210" spans="8:11">
       <c r="H210" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J210" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="211" spans="8:11">
       <c r="H211" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J211" s="2">
+        <v>3</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="214" spans="2:11">
+      <c r="B214" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C214" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J214" s="2">
+        <v>1</v>
+      </c>
+      <c r="K214" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="215" spans="8:11">
+      <c r="H215" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I215" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I211" s="2" t="s">
+      <c r="J215" s="2">
+        <v>2</v>
+      </c>
+      <c r="K215" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="216" spans="8:11">
+      <c r="H216" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="J211" s="2">
+      <c r="I216" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J216" s="2">
+        <v>3</v>
+      </c>
+      <c r="K216" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="217" spans="8:11">
+      <c r="H217" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J217" s="2">
         <v>4</v>
       </c>
-      <c r="K211" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="212" spans="8:11">
-      <c r="H212" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I212" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="J212" s="2">
-        <v>5</v>
-      </c>
-      <c r="K212" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="213" spans="8:11">
-      <c r="H213" s="2" t="s">
+      <c r="K217" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="I213" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="J213" s="2">
-        <v>6</v>
-      </c>
-      <c r="K213" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="217" spans="2:11">
-      <c r="B217" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H217" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I217" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J217" s="2">
-        <v>1</v>
-      </c>
-      <c r="K217" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="218" spans="8:11">
       <c r="H218" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J218" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K218" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="219" spans="8:11">
       <c r="H219" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J219" s="2">
+        <v>6</v>
+      </c>
+      <c r="K219" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="223" spans="2:11">
+      <c r="B223" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I223" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="I219" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="J219" s="2">
-        <v>3</v>
-      </c>
-      <c r="K219" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="220" spans="8:11">
-      <c r="H220" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="I220" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J220" s="2">
-        <v>4</v>
-      </c>
-      <c r="K220" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="222" spans="2:11">
-      <c r="B222" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H222" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="I222" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="J222" s="2">
+      <c r="J223" s="2">
         <v>1</v>
       </c>
-      <c r="K222" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="223" spans="8:11">
-      <c r="H223" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="I223" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="J223" s="2">
-        <v>2</v>
-      </c>
       <c r="K223" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="224" spans="8:11">
       <c r="H224" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="J224" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>169</v>
+        <v>378</v>
       </c>
     </row>
     <row r="225" spans="8:11">
       <c r="H225" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="J225" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="226" spans="8:11">
       <c r="H226" s="2" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>391</v>
+        <v>71</v>
       </c>
       <c r="J226" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K226" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="227" spans="8:11">
-      <c r="H227" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="I227" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="J227" s="2">
-        <v>6</v>
-      </c>
-      <c r="K227" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="228" spans="8:11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="228" spans="2:11">
+      <c r="B228" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="H228" s="2" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="J228" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K228" s="2" t="s">
-        <v>398</v>
+        <v>167</v>
       </c>
     </row>
     <row r="229" spans="8:11">
       <c r="H229" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="J229" s="2">
+        <v>2</v>
+      </c>
+      <c r="K229" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="230" spans="8:11">
+      <c r="H230" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J230" s="2">
+        <v>3</v>
+      </c>
+      <c r="K230" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="231" spans="8:11">
+      <c r="H231" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I231" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="J231" s="2">
+        <v>4</v>
+      </c>
+      <c r="K231" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="232" spans="8:11">
+      <c r="H232" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="I232" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J232" s="2">
+        <v>5</v>
+      </c>
+      <c r="K232" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="233" spans="8:11">
+      <c r="H233" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="J233" s="2">
+        <v>6</v>
+      </c>
+      <c r="K233" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="234" spans="8:11">
+      <c r="H234" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="I229" s="2" t="s">
+      <c r="I234" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="J229" s="2">
+      <c r="J234" s="2">
+        <v>7</v>
+      </c>
+      <c r="K234" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="235" spans="8:11">
+      <c r="H235" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J235" s="2">
         <v>8</v>
       </c>
-      <c r="K229" s="2" t="s">
-        <v>401</v>
+      <c r="K235" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="237" spans="2:11">
+      <c r="B237" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H237" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I237" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J237" s="2">
+        <v>1</v>
+      </c>
+      <c r="K237" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="238" spans="8:11">
+      <c r="H238" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="I238" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J238" s="2">
+        <v>2</v>
+      </c>
+      <c r="K238" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="239" spans="8:11">
+      <c r="H239" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J239" s="2">
+        <v>3</v>
+      </c>
+      <c r="K239" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="240" spans="8:11">
+      <c r="H240" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I240" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J240" s="2">
+        <v>4</v>
+      </c>
+      <c r="K240" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="241" spans="8:11">
+      <c r="H241" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I241" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J241" s="2">
+        <v>5</v>
+      </c>
+      <c r="K241" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="243" spans="2:11">
+      <c r="B243" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J243" s="2">
+        <v>1</v>
+      </c>
+      <c r="K243" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="244" spans="8:11">
+      <c r="H244" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I244" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J244" s="2">
+        <v>2</v>
+      </c>
+      <c r="K244" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="245" spans="8:11">
+      <c r="H245" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="I245" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J245" s="2">
+        <v>3</v>
+      </c>
+      <c r="K245" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="246" spans="8:11">
+      <c r="H246" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I246" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="J246" s="2">
+        <v>4</v>
+      </c>
+      <c r="K246" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="247" spans="8:11">
+      <c r="H247" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="I247" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="J247" s="2">
+        <v>5</v>
+      </c>
+      <c r="K247" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="248" spans="8:11">
+      <c r="H248" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I248" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="J248" s="2">
+        <v>6</v>
+      </c>
+      <c r="K248" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="249" spans="8:11">
+      <c r="H249" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I249" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="J249" s="2">
+        <v>7</v>
+      </c>
+      <c r="K249" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="250" spans="8:11">
+      <c r="H250" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I250" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J250" s="2">
+        <v>8</v>
+      </c>
+      <c r="K250" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="251" spans="8:11">
+      <c r="H251" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J251" s="2">
+        <v>9</v>
+      </c>
+      <c r="K251" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="253" spans="2:11">
+      <c r="B253" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H253" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="J253" s="2">
+        <v>1</v>
+      </c>
+      <c r="K253" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="254" spans="8:11">
+      <c r="H254" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="J254" s="2">
+        <v>2</v>
+      </c>
+      <c r="K254" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="255" spans="8:11">
+      <c r="H255" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I255" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J255" s="2">
+        <v>3</v>
+      </c>
+      <c r="K255" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="256" spans="8:11">
+      <c r="H256" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I256" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J256" s="2">
+        <v>4</v>
+      </c>
+      <c r="K256" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="258" spans="2:11">
+      <c r="B258" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C258" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I258" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J258" s="2">
+        <v>1</v>
+      </c>
+      <c r="K258" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="259" spans="8:11">
+      <c r="H259" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I259" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="J259" s="2">
+        <v>2</v>
+      </c>
+      <c r="K259" s="2" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -5845,19 +6634,19 @@
     <mergeCell ref="B33:B39"/>
     <mergeCell ref="B41:B46"/>
     <mergeCell ref="B52:B96"/>
-    <mergeCell ref="B98:B107"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="B143:B152"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="B172:B177"/>
+    <mergeCell ref="B104:B113"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B123:B127"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B138:B147"/>
+    <mergeCell ref="B149:B158"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="B178:B183"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="451">
   <si>
     <t>##var</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>施法速度</t>
+  </si>
+  <si>
+    <t>GP_Dead</t>
+  </si>
+  <si>
+    <t>死亡</t>
   </si>
   <si>
     <t>GP_Hp</t>
@@ -2535,10 +2541,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L259"/>
+  <dimension ref="A1:L260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="K259" sqref="K259"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3568,10 +3574,18 @@
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="26"/>
+      <c r="H62" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J62" s="20">
+        <v>1012</v>
+      </c>
+      <c r="K62" s="20" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="14"/>
@@ -3580,18 +3594,10 @@
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="I63" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="J63" s="20">
-        <v>1101</v>
-      </c>
-      <c r="K63" s="26" t="s">
-        <v>137</v>
-      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="26"/>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="14"/>
@@ -3601,16 +3607,16 @@
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="I64" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="I64" s="20" t="s">
+      <c r="J64" s="20">
+        <v>1101</v>
+      </c>
+      <c r="K64" s="26" t="s">
         <v>139</v>
-      </c>
-      <c r="J64" s="20">
-        <v>1102</v>
-      </c>
-      <c r="K64" s="26" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -3621,16 +3627,16 @@
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="H65" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I65" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="I65" s="20" t="s">
+      <c r="J65" s="20">
+        <v>1102</v>
+      </c>
+      <c r="K65" s="26" t="s">
         <v>142</v>
-      </c>
-      <c r="J65" s="20">
-        <v>1103</v>
-      </c>
-      <c r="K65" s="26" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="66" spans="2:11">
@@ -3641,16 +3647,16 @@
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="I66" s="20" t="s">
+      <c r="J66" s="20">
+        <v>1103</v>
+      </c>
+      <c r="K66" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="J66" s="20">
-        <v>1104</v>
-      </c>
-      <c r="K66" s="26" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -3661,13 +3667,13 @@
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
       <c r="H67" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I67" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I67" s="20" t="s">
-        <v>148</v>
-      </c>
       <c r="J67" s="20">
-        <v>1004</v>
+        <v>1104</v>
       </c>
       <c r="K67" s="26" t="s">
         <v>148</v>
@@ -3680,21 +3686,17 @@
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
-      <c r="H68" s="20" t="str">
-        <f>(_xlfn.CONCAT(H67,"Base"))</f>
-        <v>GP_SpeedBase</v>
-      </c>
-      <c r="I68" s="20" t="str">
-        <f>_xlfn.CONCAT(I67,"Base")</f>
-        <v>移动速度Base</v>
+      <c r="H68" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I68" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="J68" s="20">
-        <f>J67*10+1</f>
-        <v>10041</v>
-      </c>
-      <c r="K68" s="26" t="str">
-        <f>_xlfn.CONCAT(K67,"基础值")</f>
-        <v>移动速度基础值</v>
+        <v>1004</v>
+      </c>
+      <c r="K68" s="26" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -3705,20 +3707,20 @@
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
       <c r="H69" s="20" t="str">
-        <f>_xlfn.CONCAT(H67,"Add")</f>
-        <v>GP_SpeedAdd</v>
+        <f>(_xlfn.CONCAT(H68,"Base"))</f>
+        <v>GP_SpeedBase</v>
       </c>
       <c r="I69" s="20" t="str">
-        <f>_xlfn.CONCAT(I67,"Add")</f>
-        <v>移动速度Add</v>
+        <f>_xlfn.CONCAT(I68,"Base")</f>
+        <v>移动速度Base</v>
       </c>
       <c r="J69" s="20">
-        <f>J67*10+2</f>
-        <v>10042</v>
+        <f>J68*10+1</f>
+        <v>10041</v>
       </c>
       <c r="K69" s="26" t="str">
-        <f>_xlfn.CONCAT(K67,"附加值")</f>
-        <v>移动速度附加值</v>
+        <f>_xlfn.CONCAT(K68,"基础值")</f>
+        <v>移动速度基础值</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -3729,20 +3731,20 @@
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
       <c r="H70" s="20" t="str">
-        <f>_xlfn.CONCAT(H67,"Pct")</f>
-        <v>GP_SpeedPct</v>
+        <f>_xlfn.CONCAT(H68,"Add")</f>
+        <v>GP_SpeedAdd</v>
       </c>
       <c r="I70" s="20" t="str">
-        <f>_xlfn.CONCAT(I67,"Pct")</f>
-        <v>移动速度Pct</v>
+        <f>_xlfn.CONCAT(I68,"Add")</f>
+        <v>移动速度Add</v>
       </c>
       <c r="J70" s="20">
-        <f>J67*10+3</f>
-        <v>10043</v>
+        <f>J68*10+2</f>
+        <v>10042</v>
       </c>
       <c r="K70" s="26" t="str">
-        <f>_xlfn.CONCAT(K67,"百分比")</f>
-        <v>移动速度百分比</v>
+        <f>_xlfn.CONCAT(K68,"附加值")</f>
+        <v>移动速度附加值</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -3753,20 +3755,20 @@
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
       <c r="H71" s="20" t="str">
-        <f>_xlfn.CONCAT(H67,"FinalAdd")</f>
-        <v>GP_SpeedFinalAdd</v>
+        <f>_xlfn.CONCAT(H68,"Pct")</f>
+        <v>GP_SpeedPct</v>
       </c>
       <c r="I71" s="20" t="str">
-        <f>_xlfn.CONCAT(I67,"FinalAdd")</f>
-        <v>移动速度FinalAdd</v>
+        <f>_xlfn.CONCAT(I68,"Pct")</f>
+        <v>移动速度Pct</v>
       </c>
       <c r="J71" s="20">
-        <f>J67*10+4</f>
-        <v>10044</v>
+        <f>J68*10+3</f>
+        <v>10043</v>
       </c>
       <c r="K71" s="26" t="str">
-        <f>_xlfn.CONCAT(K67,"最终附加值")</f>
-        <v>移动速度最终附加值</v>
+        <f>_xlfn.CONCAT(K68,"百分比")</f>
+        <v>移动速度百分比</v>
       </c>
     </row>
     <row r="72" spans="2:11">
@@ -3777,20 +3779,20 @@
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
       <c r="H72" s="20" t="str">
-        <f>_xlfn.CONCAT(H67,"FinalPct")</f>
-        <v>GP_SpeedFinalPct</v>
+        <f>_xlfn.CONCAT(H68,"FinalAdd")</f>
+        <v>GP_SpeedFinalAdd</v>
       </c>
       <c r="I72" s="20" t="str">
-        <f>_xlfn.CONCAT(I67,"FinalPct")</f>
-        <v>移动速度FinalPct</v>
+        <f>_xlfn.CONCAT(I68,"FinalAdd")</f>
+        <v>移动速度FinalAdd</v>
       </c>
       <c r="J72" s="20">
-        <f>J67*10+5</f>
-        <v>10045</v>
+        <f>J68*10+4</f>
+        <v>10044</v>
       </c>
       <c r="K72" s="26" t="str">
-        <f>_xlfn.CONCAT(K67,"最终百分比")</f>
-        <v>移动速度最终百分比</v>
+        <f>_xlfn.CONCAT(K68,"最终附加值")</f>
+        <v>移动速度最终附加值</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -3800,17 +3802,21 @@
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
-      <c r="H73" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="I73" s="20" t="s">
-        <v>150</v>
+      <c r="H73" s="20" t="str">
+        <f>_xlfn.CONCAT(H68,"FinalPct")</f>
+        <v>GP_SpeedFinalPct</v>
+      </c>
+      <c r="I73" s="20" t="str">
+        <f>_xlfn.CONCAT(I68,"FinalPct")</f>
+        <v>移动速度FinalPct</v>
       </c>
       <c r="J73" s="20">
-        <v>1105</v>
-      </c>
-      <c r="K73" s="26" t="s">
-        <v>151</v>
+        <f>J68*10+5</f>
+        <v>10045</v>
+      </c>
+      <c r="K73" s="26" t="str">
+        <f>_xlfn.CONCAT(K68,"最终百分比")</f>
+        <v>移动速度最终百分比</v>
       </c>
     </row>
     <row r="74" spans="2:11">
@@ -3820,21 +3826,17 @@
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
-      <c r="H74" s="20" t="str">
-        <f>(_xlfn.CONCAT(H73,"Base"))</f>
-        <v>GP_AtkBase</v>
-      </c>
-      <c r="I74" s="20" t="str">
-        <f>_xlfn.CONCAT(I73,"Base")</f>
-        <v>AtkBase</v>
+      <c r="H74" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I74" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="J74" s="20">
-        <f>J73*10+1</f>
-        <v>11051</v>
-      </c>
-      <c r="K74" s="26" t="str">
-        <f>_xlfn.CONCAT(K73,"基础值")</f>
-        <v>攻击基础值</v>
+        <v>1105</v>
+      </c>
+      <c r="K74" s="26" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="2:11">
@@ -3845,20 +3847,20 @@
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
       <c r="H75" s="20" t="str">
-        <f t="shared" ref="H75:H77" si="0">_xlfn.CONCAT(H73,"Add")</f>
-        <v>GP_AtkAdd</v>
+        <f>(_xlfn.CONCAT(H74,"Base"))</f>
+        <v>GP_AtkBase</v>
       </c>
       <c r="I75" s="20" t="str">
-        <f>_xlfn.CONCAT(I73,"Add")</f>
-        <v>AtkAdd</v>
+        <f>_xlfn.CONCAT(I74,"Base")</f>
+        <v>AtkBase</v>
       </c>
       <c r="J75" s="20">
-        <f>J73*10+2</f>
-        <v>11052</v>
+        <f>J74*10+1</f>
+        <v>11051</v>
       </c>
       <c r="K75" s="26" t="str">
-        <f>_xlfn.CONCAT(K73,"附加值")</f>
-        <v>攻击附加值</v>
+        <f>_xlfn.CONCAT(K74,"基础值")</f>
+        <v>攻击基础值</v>
       </c>
     </row>
     <row r="76" spans="2:11">
@@ -3869,20 +3871,20 @@
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="H76" s="20" t="str">
-        <f>_xlfn.CONCAT(H73,"Pct")</f>
-        <v>GP_AtkPct</v>
+        <f t="shared" ref="H76:H78" si="0">_xlfn.CONCAT(H74,"Add")</f>
+        <v>GP_AtkAdd</v>
       </c>
       <c r="I76" s="20" t="str">
-        <f>_xlfn.CONCAT(I73,"Pct")</f>
-        <v>AtkPct</v>
+        <f>_xlfn.CONCAT(I74,"Add")</f>
+        <v>AtkAdd</v>
       </c>
       <c r="J76" s="20">
-        <f>J73*10+3</f>
-        <v>11053</v>
+        <f>J74*10+2</f>
+        <v>11052</v>
       </c>
       <c r="K76" s="26" t="str">
-        <f>_xlfn.CONCAT(K73,"百分比")</f>
-        <v>攻击百分比</v>
+        <f>_xlfn.CONCAT(K74,"附加值")</f>
+        <v>攻击附加值</v>
       </c>
     </row>
     <row r="77" spans="2:11">
@@ -3893,20 +3895,20 @@
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
       <c r="H77" s="20" t="str">
-        <f>_xlfn.CONCAT(H73,"FinalAdd")</f>
-        <v>GP_AtkFinalAdd</v>
+        <f>_xlfn.CONCAT(H74,"Pct")</f>
+        <v>GP_AtkPct</v>
       </c>
       <c r="I77" s="20" t="str">
-        <f>_xlfn.CONCAT(I73,"FinalAdd")</f>
-        <v>AtkFinalAdd</v>
+        <f>_xlfn.CONCAT(I74,"Pct")</f>
+        <v>AtkPct</v>
       </c>
       <c r="J77" s="20">
-        <f>J73*10+4</f>
-        <v>11054</v>
+        <f>J74*10+3</f>
+        <v>11053</v>
       </c>
       <c r="K77" s="26" t="str">
-        <f>_xlfn.CONCAT(K73,"最终附加值")</f>
-        <v>攻击最终附加值</v>
+        <f>_xlfn.CONCAT(K74,"百分比")</f>
+        <v>攻击百分比</v>
       </c>
     </row>
     <row r="78" spans="2:11">
@@ -3917,20 +3919,20 @@
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
       <c r="H78" s="20" t="str">
-        <f>_xlfn.CONCAT(H73,"FinalPct")</f>
-        <v>GP_AtkFinalPct</v>
+        <f>_xlfn.CONCAT(H74,"FinalAdd")</f>
+        <v>GP_AtkFinalAdd</v>
       </c>
       <c r="I78" s="20" t="str">
-        <f>_xlfn.CONCAT(I73,"FinalPct")</f>
-        <v>AtkFinalPct</v>
+        <f>_xlfn.CONCAT(I74,"FinalAdd")</f>
+        <v>AtkFinalAdd</v>
       </c>
       <c r="J78" s="20">
-        <f>J73*10+5</f>
-        <v>11055</v>
+        <f>J74*10+4</f>
+        <v>11054</v>
       </c>
       <c r="K78" s="26" t="str">
-        <f>_xlfn.CONCAT(K73,"最终百分比")</f>
-        <v>攻击最终百分比</v>
+        <f>_xlfn.CONCAT(K74,"最终附加值")</f>
+        <v>攻击最终附加值</v>
       </c>
     </row>
     <row r="79" spans="2:11">
@@ -3940,17 +3942,21 @@
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
-      <c r="H79" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="I79" s="20" t="s">
-        <v>153</v>
+      <c r="H79" s="20" t="str">
+        <f>_xlfn.CONCAT(H74,"FinalPct")</f>
+        <v>GP_AtkFinalPct</v>
+      </c>
+      <c r="I79" s="20" t="str">
+        <f>_xlfn.CONCAT(I74,"FinalPct")</f>
+        <v>AtkFinalPct</v>
       </c>
       <c r="J79" s="20">
-        <v>1106</v>
-      </c>
-      <c r="K79" s="26" t="s">
-        <v>154</v>
+        <f>J74*10+5</f>
+        <v>11055</v>
+      </c>
+      <c r="K79" s="26" t="str">
+        <f>_xlfn.CONCAT(K74,"最终百分比")</f>
+        <v>攻击最终百分比</v>
       </c>
     </row>
     <row r="80" spans="2:11">
@@ -3960,21 +3966,17 @@
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
-      <c r="H80" s="20" t="str">
-        <f>(_xlfn.CONCAT(H79,"Base"))</f>
-        <v>GP_DefBase</v>
-      </c>
-      <c r="I80" s="20" t="str">
-        <f>_xlfn.CONCAT(I79,"Base")</f>
-        <v>DefBase</v>
+      <c r="H80" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I80" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="J80" s="20">
-        <f>J79*10+1</f>
-        <v>11061</v>
-      </c>
-      <c r="K80" s="26" t="str">
-        <f>_xlfn.CONCAT(K79,"基础值")</f>
-        <v>防御基础值</v>
+        <v>1106</v>
+      </c>
+      <c r="K80" s="26" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="2:11">
@@ -3985,20 +3987,20 @@
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
       <c r="H81" s="20" t="str">
-        <f>_xlfn.CONCAT(H79,"Add")</f>
-        <v>GP_DefAdd</v>
+        <f>(_xlfn.CONCAT(H80,"Base"))</f>
+        <v>GP_DefBase</v>
       </c>
       <c r="I81" s="20" t="str">
-        <f>_xlfn.CONCAT(I79,"Add")</f>
-        <v>DefAdd</v>
+        <f>_xlfn.CONCAT(I80,"Base")</f>
+        <v>DefBase</v>
       </c>
       <c r="J81" s="20">
-        <f>J79*10+2</f>
-        <v>11062</v>
+        <f>J80*10+1</f>
+        <v>11061</v>
       </c>
       <c r="K81" s="26" t="str">
-        <f>_xlfn.CONCAT(K79,"附加值")</f>
-        <v>防御附加值</v>
+        <f>_xlfn.CONCAT(K80,"基础值")</f>
+        <v>防御基础值</v>
       </c>
     </row>
     <row r="82" spans="2:11">
@@ -4009,20 +4011,20 @@
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
       <c r="H82" s="20" t="str">
-        <f>_xlfn.CONCAT(H79,"Pct")</f>
-        <v>GP_DefPct</v>
+        <f>_xlfn.CONCAT(H80,"Add")</f>
+        <v>GP_DefAdd</v>
       </c>
       <c r="I82" s="20" t="str">
-        <f>_xlfn.CONCAT(I79,"Pct")</f>
-        <v>DefPct</v>
+        <f>_xlfn.CONCAT(I80,"Add")</f>
+        <v>DefAdd</v>
       </c>
       <c r="J82" s="20">
-        <f>J79*10+3</f>
-        <v>11063</v>
+        <f>J80*10+2</f>
+        <v>11062</v>
       </c>
       <c r="K82" s="26" t="str">
-        <f>_xlfn.CONCAT(K79,"百分比")</f>
-        <v>防御百分比</v>
+        <f>_xlfn.CONCAT(K80,"附加值")</f>
+        <v>防御附加值</v>
       </c>
     </row>
     <row r="83" spans="2:11">
@@ -4033,20 +4035,20 @@
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
       <c r="H83" s="20" t="str">
-        <f>_xlfn.CONCAT(H79,"FinalAdd")</f>
-        <v>GP_DefFinalAdd</v>
+        <f>_xlfn.CONCAT(H80,"Pct")</f>
+        <v>GP_DefPct</v>
       </c>
       <c r="I83" s="20" t="str">
-        <f>_xlfn.CONCAT(I79,"FinalAdd")</f>
-        <v>DefFinalAdd</v>
+        <f>_xlfn.CONCAT(I80,"Pct")</f>
+        <v>DefPct</v>
       </c>
       <c r="J83" s="20">
-        <f>J79*10+4</f>
-        <v>11064</v>
+        <f>J80*10+3</f>
+        <v>11063</v>
       </c>
       <c r="K83" s="26" t="str">
-        <f>_xlfn.CONCAT(K79,"最终附加值")</f>
-        <v>防御最终附加值</v>
+        <f>_xlfn.CONCAT(K80,"百分比")</f>
+        <v>防御百分比</v>
       </c>
     </row>
     <row r="84" spans="2:11">
@@ -4057,20 +4059,20 @@
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
       <c r="H84" s="20" t="str">
-        <f>_xlfn.CONCAT(H79,"FinalPct")</f>
-        <v>GP_DefFinalPct</v>
+        <f>_xlfn.CONCAT(H80,"FinalAdd")</f>
+        <v>GP_DefFinalAdd</v>
       </c>
       <c r="I84" s="20" t="str">
-        <f>_xlfn.CONCAT(I79,"FinalPct")</f>
-        <v>DefFinalPct</v>
+        <f>_xlfn.CONCAT(I80,"FinalAdd")</f>
+        <v>DefFinalAdd</v>
       </c>
       <c r="J84" s="20">
-        <f>J79*10+5</f>
-        <v>11065</v>
+        <f>J80*10+4</f>
+        <v>11064</v>
       </c>
       <c r="K84" s="26" t="str">
-        <f>_xlfn.CONCAT(K79,"最终百分比")</f>
-        <v>防御最终百分比</v>
+        <f>_xlfn.CONCAT(K80,"最终附加值")</f>
+        <v>防御最终附加值</v>
       </c>
     </row>
     <row r="85" spans="2:11">
@@ -4080,17 +4082,21 @@
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
-      <c r="H85" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="I85" s="20" t="s">
-        <v>156</v>
+      <c r="H85" s="20" t="str">
+        <f>_xlfn.CONCAT(H80,"FinalPct")</f>
+        <v>GP_DefFinalPct</v>
+      </c>
+      <c r="I85" s="20" t="str">
+        <f>_xlfn.CONCAT(I80,"FinalPct")</f>
+        <v>DefFinalPct</v>
       </c>
       <c r="J85" s="20">
-        <v>1107</v>
-      </c>
-      <c r="K85" s="26" t="s">
-        <v>157</v>
+        <f>J80*10+5</f>
+        <v>11065</v>
+      </c>
+      <c r="K85" s="26" t="str">
+        <f>_xlfn.CONCAT(K80,"最终百分比")</f>
+        <v>防御最终百分比</v>
       </c>
     </row>
     <row r="86" spans="2:11">
@@ -4100,21 +4106,17 @@
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
       <c r="G86" s="19"/>
-      <c r="H86" s="20" t="str">
-        <f>(_xlfn.CONCAT(H85,"Base"))</f>
-        <v>GP_HitBase</v>
-      </c>
-      <c r="I86" s="20" t="str">
-        <f>_xlfn.CONCAT(I85,"Base")</f>
-        <v>HitBase</v>
+      <c r="H86" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I86" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="J86" s="20">
-        <f>J85*10+1</f>
-        <v>11071</v>
-      </c>
-      <c r="K86" s="26" t="str">
-        <f>_xlfn.CONCAT(K85,"基础值")</f>
-        <v>命中基础值</v>
+        <v>1107</v>
+      </c>
+      <c r="K86" s="26" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="2:11">
@@ -4125,20 +4127,20 @@
       <c r="F87" s="19"/>
       <c r="G87" s="19"/>
       <c r="H87" s="20" t="str">
-        <f>_xlfn.CONCAT(H85,"Add")</f>
-        <v>GP_HitAdd</v>
+        <f>(_xlfn.CONCAT(H86,"Base"))</f>
+        <v>GP_HitBase</v>
       </c>
       <c r="I87" s="20" t="str">
-        <f>_xlfn.CONCAT(I85,"Add")</f>
-        <v>HitAdd</v>
+        <f>_xlfn.CONCAT(I86,"Base")</f>
+        <v>HitBase</v>
       </c>
       <c r="J87" s="20">
-        <f>J85*10+2</f>
-        <v>11072</v>
+        <f>J86*10+1</f>
+        <v>11071</v>
       </c>
       <c r="K87" s="26" t="str">
-        <f>_xlfn.CONCAT(K85,"附加值")</f>
-        <v>命中附加值</v>
+        <f>_xlfn.CONCAT(K86,"基础值")</f>
+        <v>命中基础值</v>
       </c>
     </row>
     <row r="88" spans="2:11">
@@ -4149,20 +4151,20 @@
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
       <c r="H88" s="20" t="str">
-        <f>_xlfn.CONCAT(H85,"Pct")</f>
-        <v>GP_HitPct</v>
+        <f>_xlfn.CONCAT(H86,"Add")</f>
+        <v>GP_HitAdd</v>
       </c>
       <c r="I88" s="20" t="str">
-        <f>_xlfn.CONCAT(I85,"Pct")</f>
-        <v>HitPct</v>
+        <f>_xlfn.CONCAT(I86,"Add")</f>
+        <v>HitAdd</v>
       </c>
       <c r="J88" s="20">
-        <f>J85*10+3</f>
-        <v>11073</v>
+        <f>J86*10+2</f>
+        <v>11072</v>
       </c>
       <c r="K88" s="26" t="str">
-        <f>_xlfn.CONCAT(K85,"百分比")</f>
-        <v>命中百分比</v>
+        <f>_xlfn.CONCAT(K86,"附加值")</f>
+        <v>命中附加值</v>
       </c>
     </row>
     <row r="89" spans="2:11">
@@ -4173,20 +4175,20 @@
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
       <c r="H89" s="20" t="str">
-        <f>_xlfn.CONCAT(H85,"FinalAdd")</f>
-        <v>GP_HitFinalAdd</v>
+        <f>_xlfn.CONCAT(H86,"Pct")</f>
+        <v>GP_HitPct</v>
       </c>
       <c r="I89" s="20" t="str">
-        <f>_xlfn.CONCAT(I85,"FinalAdd")</f>
-        <v>HitFinalAdd</v>
+        <f>_xlfn.CONCAT(I86,"Pct")</f>
+        <v>HitPct</v>
       </c>
       <c r="J89" s="20">
-        <f>J85*10+4</f>
-        <v>11074</v>
+        <f>J86*10+3</f>
+        <v>11073</v>
       </c>
       <c r="K89" s="26" t="str">
-        <f>_xlfn.CONCAT(K85,"最终附加值")</f>
-        <v>命中最终附加值</v>
+        <f>_xlfn.CONCAT(K86,"百分比")</f>
+        <v>命中百分比</v>
       </c>
     </row>
     <row r="90" spans="2:11">
@@ -4197,20 +4199,20 @@
       <c r="F90" s="19"/>
       <c r="G90" s="19"/>
       <c r="H90" s="20" t="str">
-        <f>_xlfn.CONCAT(H85,"FinalPct")</f>
-        <v>GP_HitFinalPct</v>
+        <f>_xlfn.CONCAT(H86,"FinalAdd")</f>
+        <v>GP_HitFinalAdd</v>
       </c>
       <c r="I90" s="20" t="str">
-        <f>_xlfn.CONCAT(I85,"FinalPct")</f>
-        <v>HitFinalPct</v>
+        <f>_xlfn.CONCAT(I86,"FinalAdd")</f>
+        <v>HitFinalAdd</v>
       </c>
       <c r="J90" s="20">
-        <f>J85*10+5</f>
-        <v>11075</v>
+        <f>J86*10+4</f>
+        <v>11074</v>
       </c>
       <c r="K90" s="26" t="str">
-        <f>_xlfn.CONCAT(K85,"最终百分比")</f>
-        <v>命中最终百分比</v>
+        <f>_xlfn.CONCAT(K86,"最终附加值")</f>
+        <v>命中最终附加值</v>
       </c>
     </row>
     <row r="91" spans="2:11">
@@ -4220,17 +4222,21 @@
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
-      <c r="H91" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="I91" s="20" t="s">
-        <v>159</v>
+      <c r="H91" s="20" t="str">
+        <f>_xlfn.CONCAT(H86,"FinalPct")</f>
+        <v>GP_HitFinalPct</v>
+      </c>
+      <c r="I91" s="20" t="str">
+        <f>_xlfn.CONCAT(I86,"FinalPct")</f>
+        <v>HitFinalPct</v>
       </c>
       <c r="J91" s="20">
-        <v>1108</v>
-      </c>
-      <c r="K91" s="26" t="s">
-        <v>160</v>
+        <f>J86*10+5</f>
+        <v>11075</v>
+      </c>
+      <c r="K91" s="26" t="str">
+        <f>_xlfn.CONCAT(K86,"最终百分比")</f>
+        <v>命中最终百分比</v>
       </c>
     </row>
     <row r="92" spans="2:11">
@@ -4240,21 +4246,17 @@
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
-      <c r="H92" s="20" t="str">
-        <f>(_xlfn.CONCAT(H91,"Base"))</f>
-        <v>GP_CritBase</v>
-      </c>
-      <c r="I92" s="20" t="str">
-        <f>_xlfn.CONCAT(I91,"Base")</f>
-        <v>CritBase</v>
+      <c r="H92" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I92" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="J92" s="20">
-        <f>J91*10+1</f>
-        <v>11081</v>
-      </c>
-      <c r="K92" s="26" t="str">
-        <f>_xlfn.CONCAT(K91,"基础值")</f>
-        <v>暴击基础值</v>
+        <v>1108</v>
+      </c>
+      <c r="K92" s="26" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="2:11">
@@ -4265,20 +4267,20 @@
       <c r="F93" s="19"/>
       <c r="G93" s="19"/>
       <c r="H93" s="20" t="str">
-        <f>_xlfn.CONCAT(H91,"Add")</f>
-        <v>GP_CritAdd</v>
+        <f>(_xlfn.CONCAT(H92,"Base"))</f>
+        <v>GP_CritBase</v>
       </c>
       <c r="I93" s="20" t="str">
-        <f>_xlfn.CONCAT(I91,"Add")</f>
-        <v>CritAdd</v>
+        <f>_xlfn.CONCAT(I92,"Base")</f>
+        <v>CritBase</v>
       </c>
       <c r="J93" s="20">
-        <f>J91*10+2</f>
-        <v>11082</v>
+        <f>J92*10+1</f>
+        <v>11081</v>
       </c>
       <c r="K93" s="26" t="str">
-        <f>_xlfn.CONCAT(K91,"附加值")</f>
-        <v>暴击附加值</v>
+        <f>_xlfn.CONCAT(K92,"基础值")</f>
+        <v>暴击基础值</v>
       </c>
     </row>
     <row r="94" spans="2:11">
@@ -4289,20 +4291,20 @@
       <c r="F94" s="19"/>
       <c r="G94" s="19"/>
       <c r="H94" s="20" t="str">
-        <f>_xlfn.CONCAT(H91,"Pct")</f>
-        <v>GP_CritPct</v>
+        <f>_xlfn.CONCAT(H92,"Add")</f>
+        <v>GP_CritAdd</v>
       </c>
       <c r="I94" s="20" t="str">
-        <f>_xlfn.CONCAT(I91,"Pct")</f>
-        <v>CritPct</v>
+        <f>_xlfn.CONCAT(I92,"Add")</f>
+        <v>CritAdd</v>
       </c>
       <c r="J94" s="20">
-        <f>J91*10+3</f>
-        <v>11083</v>
+        <f>J92*10+2</f>
+        <v>11082</v>
       </c>
       <c r="K94" s="26" t="str">
-        <f>_xlfn.CONCAT(K91,"百分比")</f>
-        <v>暴击百分比</v>
+        <f>_xlfn.CONCAT(K92,"附加值")</f>
+        <v>暴击附加值</v>
       </c>
     </row>
     <row r="95" spans="2:11">
@@ -4313,64 +4315,68 @@
       <c r="F95" s="19"/>
       <c r="G95" s="19"/>
       <c r="H95" s="20" t="str">
-        <f>_xlfn.CONCAT(H91,"FinalAdd")</f>
-        <v>GP_CritFinalAdd</v>
+        <f>_xlfn.CONCAT(H92,"Pct")</f>
+        <v>GP_CritPct</v>
       </c>
       <c r="I95" s="20" t="str">
-        <f>_xlfn.CONCAT(I91,"FinalAdd")</f>
-        <v>CritFinalAdd</v>
+        <f>_xlfn.CONCAT(I92,"Pct")</f>
+        <v>CritPct</v>
       </c>
       <c r="J95" s="20">
-        <f>J91*10+4</f>
-        <v>11084</v>
+        <f>J92*10+3</f>
+        <v>11083</v>
       </c>
       <c r="K95" s="26" t="str">
-        <f>_xlfn.CONCAT(K91,"最终附加值")</f>
-        <v>暴击最终附加值</v>
+        <f>_xlfn.CONCAT(K92,"百分比")</f>
+        <v>暴击百分比</v>
       </c>
     </row>
     <row r="96" spans="2:11">
       <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="16" t="str">
-        <f>_xlfn.CONCAT(H91,"FinalPct")</f>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="20" t="str">
+        <f>_xlfn.CONCAT(H92,"FinalAdd")</f>
+        <v>GP_CritFinalAdd</v>
+      </c>
+      <c r="I96" s="20" t="str">
+        <f>_xlfn.CONCAT(I92,"FinalAdd")</f>
+        <v>CritFinalAdd</v>
+      </c>
+      <c r="J96" s="20">
+        <f>J92*10+4</f>
+        <v>11084</v>
+      </c>
+      <c r="K96" s="26" t="str">
+        <f>_xlfn.CONCAT(K92,"最终附加值")</f>
+        <v>暴击最终附加值</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="16" t="str">
+        <f>_xlfn.CONCAT(H92,"FinalPct")</f>
         <v>GP_CritFinalPct</v>
       </c>
-      <c r="I96" s="16" t="str">
-        <f>_xlfn.CONCAT(I91,"FinalPct")</f>
+      <c r="I97" s="16" t="str">
+        <f>_xlfn.CONCAT(I92,"FinalPct")</f>
         <v>CritFinalPct</v>
       </c>
-      <c r="J96" s="16">
-        <f>J91*10+5</f>
+      <c r="J97" s="16">
+        <f>J92*10+5</f>
         <v>11085</v>
       </c>
-      <c r="K96" s="26" t="str">
-        <f>_xlfn.CONCAT(K91,"最终百分比")</f>
+      <c r="K97" s="26" t="str">
+        <f>_xlfn.CONCAT(K92,"最终百分比")</f>
         <v>暴击最终百分比</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11">
-      <c r="B97" s="29"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="I97" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="J97" s="20">
-        <v>1109</v>
-      </c>
-      <c r="K97" s="28" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="98" spans="2:11">
@@ -4380,21 +4386,17 @@
       <c r="E98" s="19"/>
       <c r="F98" s="19"/>
       <c r="G98" s="19"/>
-      <c r="H98" s="20" t="str">
-        <f>(_xlfn.CONCAT(H97,"Base"))</f>
-        <v>GP_BattleSpeedBase</v>
-      </c>
-      <c r="I98" s="20" t="str">
-        <f>_xlfn.CONCAT(I97,"Base")</f>
-        <v>BattleSpeedBase</v>
+      <c r="H98" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I98" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="J98" s="20">
-        <f>J97*10+1</f>
-        <v>11091</v>
-      </c>
-      <c r="K98" s="26" t="str">
-        <f>_xlfn.CONCAT(K97,"基础值")</f>
-        <v>战场速度基础值</v>
+        <v>1109</v>
+      </c>
+      <c r="K98" s="28" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="2:11">
@@ -4405,20 +4407,20 @@
       <c r="F99" s="19"/>
       <c r="G99" s="19"/>
       <c r="H99" s="20" t="str">
-        <f>_xlfn.CONCAT(H97,"Add")</f>
-        <v>GP_BattleSpeedAdd</v>
+        <f>(_xlfn.CONCAT(H98,"Base"))</f>
+        <v>GP_BattleSpeedBase</v>
       </c>
       <c r="I99" s="20" t="str">
-        <f>_xlfn.CONCAT(I97,"Add")</f>
-        <v>BattleSpeedAdd</v>
+        <f>_xlfn.CONCAT(I98,"Base")</f>
+        <v>BattleSpeedBase</v>
       </c>
       <c r="J99" s="20">
-        <f>J97*10+2</f>
-        <v>11092</v>
+        <f>J98*10+1</f>
+        <v>11091</v>
       </c>
       <c r="K99" s="26" t="str">
-        <f>_xlfn.CONCAT(K97,"附加值")</f>
-        <v>战场速度附加值</v>
+        <f>_xlfn.CONCAT(K98,"基础值")</f>
+        <v>战场速度基础值</v>
       </c>
     </row>
     <row r="100" spans="2:11">
@@ -4429,20 +4431,20 @@
       <c r="F100" s="19"/>
       <c r="G100" s="19"/>
       <c r="H100" s="20" t="str">
-        <f>_xlfn.CONCAT(H97,"Pct")</f>
-        <v>GP_BattleSpeedPct</v>
+        <f>_xlfn.CONCAT(H98,"Add")</f>
+        <v>GP_BattleSpeedAdd</v>
       </c>
       <c r="I100" s="20" t="str">
-        <f>_xlfn.CONCAT(I97,"Pct")</f>
-        <v>BattleSpeedPct</v>
+        <f>_xlfn.CONCAT(I98,"Add")</f>
+        <v>BattleSpeedAdd</v>
       </c>
       <c r="J100" s="20">
-        <f>J97*10+3</f>
-        <v>11093</v>
+        <f>J98*10+2</f>
+        <v>11092</v>
       </c>
       <c r="K100" s="26" t="str">
-        <f>_xlfn.CONCAT(K97,"百分比")</f>
-        <v>战场速度百分比</v>
+        <f>_xlfn.CONCAT(K98,"附加值")</f>
+        <v>战场速度附加值</v>
       </c>
     </row>
     <row r="101" spans="2:11">
@@ -4453,93 +4455,102 @@
       <c r="F101" s="19"/>
       <c r="G101" s="19"/>
       <c r="H101" s="20" t="str">
-        <f>_xlfn.CONCAT(H97,"FinalAdd")</f>
+        <f>_xlfn.CONCAT(H98,"Pct")</f>
+        <v>GP_BattleSpeedPct</v>
+      </c>
+      <c r="I101" s="20" t="str">
+        <f>_xlfn.CONCAT(I98,"Pct")</f>
+        <v>BattleSpeedPct</v>
+      </c>
+      <c r="J101" s="20">
+        <f>J98*10+3</f>
+        <v>11093</v>
+      </c>
+      <c r="K101" s="26" t="str">
+        <f>_xlfn.CONCAT(K98,"百分比")</f>
+        <v>战场速度百分比</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="29"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="20" t="str">
+        <f>_xlfn.CONCAT(H98,"FinalAdd")</f>
         <v>GP_BattleSpeedFinalAdd</v>
       </c>
-      <c r="I101" s="20" t="str">
-        <f>_xlfn.CONCAT(I97,"FinalAdd")</f>
+      <c r="I102" s="20" t="str">
+        <f>_xlfn.CONCAT(I98,"FinalAdd")</f>
         <v>BattleSpeedFinalAdd</v>
       </c>
-      <c r="J101" s="20">
-        <f>J97*10+4</f>
+      <c r="J102" s="20">
+        <f>J98*10+4</f>
         <v>11094</v>
       </c>
-      <c r="K101" s="26" t="str">
-        <f>_xlfn.CONCAT(K97,"最终附加值")</f>
+      <c r="K102" s="26" t="str">
+        <f>_xlfn.CONCAT(K98,"最终附加值")</f>
         <v>战场速度最终附加值</v>
       </c>
     </row>
-    <row r="102" spans="2:11">
-      <c r="B102" s="30"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="12" t="str">
-        <f>_xlfn.CONCAT(H97,"FinalPct")</f>
+    <row r="103" spans="2:11">
+      <c r="B103" s="30"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="12" t="str">
+        <f>_xlfn.CONCAT(H98,"FinalPct")</f>
         <v>GP_BattleSpeedFinalPct</v>
       </c>
-      <c r="I102" s="12" t="str">
-        <f>_xlfn.CONCAT(I97,"FinalPct")</f>
+      <c r="I103" s="12" t="str">
+        <f>_xlfn.CONCAT(I98,"FinalPct")</f>
         <v>BattleSpeedFinalPct</v>
       </c>
-      <c r="J102" s="12">
-        <f>J97*10+5</f>
+      <c r="J103" s="12">
+        <f>J98*10+5</f>
         <v>11095</v>
       </c>
-      <c r="K102" s="27" t="str">
-        <f>_xlfn.CONCAT(K97,"最终百分比")</f>
+      <c r="K103" s="27" t="str">
+        <f>_xlfn.CONCAT(K98,"最终百分比")</f>
         <v>战场速度最终百分比</v>
       </c>
     </row>
-    <row r="103" spans="2:8">
-      <c r="B103" s="18"/>
-      <c r="H103" s="32"/>
-    </row>
-    <row r="104" spans="2:11">
-      <c r="B104" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8">
+    <row r="104" spans="2:8">
+      <c r="B104" s="18"/>
+      <c r="H104" s="32"/>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8">
         <v>0</v>
       </c>
-      <c r="K104" s="25"/>
-    </row>
-    <row r="105" spans="2:11">
-      <c r="B105" s="14"/>
-      <c r="H105" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J105" s="2">
-        <v>1</v>
-      </c>
-      <c r="K105" s="26" t="s">
-        <v>168</v>
-      </c>
+      <c r="K105" s="25"/>
     </row>
     <row r="106" spans="2:11">
       <c r="B106" s="14"/>
       <c r="H106" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I106" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="J106" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K106" s="26" t="s">
         <v>170</v>
@@ -4554,7 +4565,7 @@
         <v>172</v>
       </c>
       <c r="J107" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K107" s="26" t="s">
         <v>172</v>
@@ -4569,7 +4580,7 @@
         <v>174</v>
       </c>
       <c r="J108" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K108" s="26" t="s">
         <v>174</v>
@@ -4584,7 +4595,7 @@
         <v>176</v>
       </c>
       <c r="J109" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K109" s="26" t="s">
         <v>176</v>
@@ -4599,7 +4610,7 @@
         <v>178</v>
       </c>
       <c r="J110" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K110" s="26" t="s">
         <v>178</v>
@@ -4614,7 +4625,7 @@
         <v>180</v>
       </c>
       <c r="J111" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K111" s="26" t="s">
         <v>180</v>
@@ -4629,108 +4640,108 @@
         <v>182</v>
       </c>
       <c r="J112" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K112" s="26" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="113" spans="2:11">
-      <c r="B113" s="17"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="12" t="s">
+      <c r="B113" s="14"/>
+      <c r="H113" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I113" s="12" t="s">
+      <c r="I113" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J113" s="12">
+      <c r="J113" s="2">
+        <v>8</v>
+      </c>
+      <c r="K113" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11">
+      <c r="B114" s="17"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J114" s="12">
         <v>9</v>
       </c>
-      <c r="K113" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11">
-      <c r="B115" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="8" t="s">
+      <c r="K114" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="I115" s="8" t="s">
+    </row>
+    <row r="116" spans="2:11">
+      <c r="B116" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="J115" s="8">
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J116" s="8">
         <v>1</v>
       </c>
-      <c r="K115" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11">
-      <c r="B116" s="17"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="I116" s="12" t="s">
+      <c r="K116" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="J116" s="12">
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117" s="17"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J117" s="12">
         <v>2</v>
       </c>
-      <c r="K116" s="27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11">
-      <c r="B118" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="8" t="s">
+      <c r="K117" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="I118" s="8" t="s">
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="J118" s="8">
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="J119" s="8">
         <v>1</v>
       </c>
-      <c r="K118" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11">
-      <c r="B119" s="14"/>
-      <c r="H119" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J119" s="2">
-        <v>2</v>
-      </c>
-      <c r="K119" s="26" t="s">
+      <c r="K119" s="25" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4743,71 +4754,66 @@
         <v>196</v>
       </c>
       <c r="J120" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K120" s="26" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="121" spans="2:11">
-      <c r="B121" s="17"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="12" t="s">
+      <c r="B121" s="14"/>
+      <c r="H121" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I121" s="12" t="s">
+      <c r="I121" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="J121" s="12">
+      <c r="J121" s="2">
+        <v>3</v>
+      </c>
+      <c r="K121" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="17"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="J122" s="12">
         <v>4</v>
       </c>
-      <c r="K121" s="27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11">
-      <c r="B123" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7" t="s">
+      <c r="K122" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="I123" s="8" t="s">
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="J123" s="8">
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J124" s="8">
         <v>1</v>
       </c>
-      <c r="K123" s="25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11">
-      <c r="B124" s="14"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="I124" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="J124" s="16">
-        <v>2</v>
-      </c>
-      <c r="K124" s="26" t="s">
+      <c r="K124" s="25" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4825,7 +4831,7 @@
         <v>206</v>
       </c>
       <c r="J125" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K125" s="26" t="s">
         <v>206</v>
@@ -4845,66 +4851,71 @@
         <v>208</v>
       </c>
       <c r="J126" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K126" s="26" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="127" spans="2:11">
-      <c r="B127" s="17"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="12" t="s">
+      <c r="B127" s="14"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="I127" s="12" t="s">
+      <c r="I127" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="J127" s="12">
+      <c r="J127" s="16">
+        <v>4</v>
+      </c>
+      <c r="K127" s="26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11">
+      <c r="B128" s="17"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J128" s="12">
         <v>5</v>
       </c>
-      <c r="K127" s="27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="129" spans="2:11">
-      <c r="B129" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="8" t="s">
+      <c r="K128" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="I129" s="8" t="s">
+    </row>
+    <row r="130" spans="2:11">
+      <c r="B130" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="J129" s="8">
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="J130" s="8">
         <v>1</v>
       </c>
-      <c r="K129" s="25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11">
-      <c r="B130" s="14"/>
-      <c r="H130" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J130" s="2">
-        <v>2</v>
-      </c>
-      <c r="K130" s="26" t="s">
+      <c r="K130" s="25" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4917,127 +4928,126 @@
         <v>217</v>
       </c>
       <c r="J131" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K131" s="26" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="132" spans="2:11">
-      <c r="B132" s="17"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="12" t="s">
+      <c r="B132" s="14"/>
+      <c r="H132" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I132" s="12" t="s">
+      <c r="I132" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J132" s="12">
+      <c r="J132" s="2">
+        <v>3</v>
+      </c>
+      <c r="K132" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="17"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="J133" s="12">
         <v>4</v>
       </c>
-      <c r="K132" s="27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11">
-      <c r="B134" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="8" t="s">
+      <c r="K133" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="I134" s="8" t="s">
+    </row>
+    <row r="135" spans="2:11">
+      <c r="B135" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="J134" s="8">
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J135" s="8">
         <v>1</v>
       </c>
-      <c r="K134" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11">
-      <c r="B135" s="14"/>
-      <c r="H135" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I135" s="2" t="s">
+      <c r="K135" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="J135" s="2">
+    </row>
+    <row r="136" spans="2:11">
+      <c r="B136" s="14"/>
+      <c r="H136" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J136" s="2">
         <v>2</v>
       </c>
-      <c r="K135" s="26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11">
-      <c r="B136" s="17"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="I136" s="12" t="s">
+      <c r="K136" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="J136" s="12">
+    </row>
+    <row r="137" spans="2:11">
+      <c r="B137" s="17"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="J137" s="12">
         <v>3</v>
       </c>
-      <c r="K136" s="27" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="138" spans="2:11">
-      <c r="B138" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C138" s="7" t="b">
+      <c r="K137" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11">
+      <c r="B139" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C139" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="I138" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="J138" s="8">
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="J139" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K138" s="25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11">
-      <c r="B139" s="14"/>
-      <c r="H139" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J139" s="2">
-        <f>POWER(2,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K139" s="26" t="s">
+      <c r="K139" s="25" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5050,8 +5060,8 @@
         <v>233</v>
       </c>
       <c r="J140" s="2">
-        <f>POWER(2,2)</f>
-        <v>4</v>
+        <f>POWER(2,1)</f>
+        <v>2</v>
       </c>
       <c r="K140" s="26" t="s">
         <v>233</v>
@@ -5066,8 +5076,8 @@
         <v>235</v>
       </c>
       <c r="J141" s="2">
-        <f>POWER(2,3)</f>
-        <v>8</v>
+        <f>POWER(2,2)</f>
+        <v>4</v>
       </c>
       <c r="K141" s="26" t="s">
         <v>235</v>
@@ -5082,8 +5092,8 @@
         <v>237</v>
       </c>
       <c r="J142" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
+        <f>POWER(2,3)</f>
+        <v>8</v>
       </c>
       <c r="K142" s="26" t="s">
         <v>237</v>
@@ -5098,8 +5108,8 @@
         <v>239</v>
       </c>
       <c r="J143" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
+        <f>POWER(2,4)</f>
+        <v>16</v>
       </c>
       <c r="K143" s="26" t="s">
         <v>239</v>
@@ -5114,8 +5124,8 @@
         <v>241</v>
       </c>
       <c r="J144" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
+        <f>POWER(2,5)</f>
+        <v>32</v>
       </c>
       <c r="K144" s="26" t="s">
         <v>241</v>
@@ -5130,8 +5140,8 @@
         <v>243</v>
       </c>
       <c r="J145" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
+        <f>POWER(2,6)</f>
+        <v>64</v>
       </c>
       <c r="K145" s="26" t="s">
         <v>243</v>
@@ -5146,72 +5156,72 @@
         <v>245</v>
       </c>
       <c r="J146" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K146" s="26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="14"/>
+      <c r="H147" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J147" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K146" s="26" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11">
-      <c r="B147" s="17"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="I147" s="12" t="s">
+      <c r="K147" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="J147" s="12">
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" s="17"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I148" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="J148" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K147" s="27" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11">
-      <c r="B149" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C149" s="7" t="b">
+      <c r="K148" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="B150" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C150" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I149" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="J149" s="8">
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="I150" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J150" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K149" s="25" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11">
-      <c r="B150" s="14"/>
-      <c r="H150" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J150" s="2">
-        <f>POWER(2,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K150" s="26" t="s">
+      <c r="K150" s="25" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5224,8 +5234,8 @@
         <v>254</v>
       </c>
       <c r="J151" s="2">
-        <f>POWER(2,2)</f>
-        <v>4</v>
+        <f>POWER(2,1)</f>
+        <v>2</v>
       </c>
       <c r="K151" s="26" t="s">
         <v>254</v>
@@ -5240,8 +5250,8 @@
         <v>256</v>
       </c>
       <c r="J152" s="2">
-        <f>POWER(2,3)</f>
-        <v>8</v>
+        <f>POWER(2,2)</f>
+        <v>4</v>
       </c>
       <c r="K152" s="26" t="s">
         <v>256</v>
@@ -5256,8 +5266,8 @@
         <v>258</v>
       </c>
       <c r="J153" s="2">
-        <f>POWER(2,4)</f>
-        <v>16</v>
+        <f>POWER(2,3)</f>
+        <v>8</v>
       </c>
       <c r="K153" s="26" t="s">
         <v>258</v>
@@ -5272,8 +5282,8 @@
         <v>260</v>
       </c>
       <c r="J154" s="2">
-        <f>POWER(2,5)</f>
-        <v>32</v>
+        <f>POWER(2,4)</f>
+        <v>16</v>
       </c>
       <c r="K154" s="26" t="s">
         <v>260</v>
@@ -5288,8 +5298,8 @@
         <v>262</v>
       </c>
       <c r="J155" s="2">
-        <f>POWER(2,6)</f>
-        <v>64</v>
+        <f>POWER(2,5)</f>
+        <v>32</v>
       </c>
       <c r="K155" s="26" t="s">
         <v>262</v>
@@ -5304,8 +5314,8 @@
         <v>264</v>
       </c>
       <c r="J156" s="2">
-        <f>POWER(2,7)</f>
-        <v>128</v>
+        <f>POWER(2,6)</f>
+        <v>64</v>
       </c>
       <c r="K156" s="26" t="s">
         <v>264</v>
@@ -5320,77 +5330,72 @@
         <v>266</v>
       </c>
       <c r="J157" s="2">
+        <f>POWER(2,7)</f>
+        <v>128</v>
+      </c>
+      <c r="K157" s="26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11">
+      <c r="B158" s="14"/>
+      <c r="H158" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J158" s="2">
         <f>POWER(2,8)</f>
         <v>256</v>
       </c>
-      <c r="K157" s="26" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="158" spans="2:11">
-      <c r="B158" s="17"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="I158" s="12" t="s">
+      <c r="K158" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="J158" s="12">
+    </row>
+    <row r="159" spans="2:11">
+      <c r="B159" s="17"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="J159" s="12">
         <f>POWER(2,9)</f>
         <v>512</v>
       </c>
-      <c r="K158" s="27" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11">
-      <c r="B160" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C160" s="7" t="b">
+      <c r="K159" s="27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11">
+      <c r="B161" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C161" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="I160" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="J160" s="8">
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I161" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J161" s="8">
         <f>POWER(2,0)</f>
         <v>1</v>
       </c>
-      <c r="K160" s="25" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="161" spans="2:11">
-      <c r="B161" s="14"/>
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="I161" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="J161" s="16">
-        <f>POWER(2,1)</f>
-        <v>2</v>
-      </c>
-      <c r="K161" s="26" t="s">
+      <c r="K161" s="25" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5408,70 +5413,76 @@
         <v>275</v>
       </c>
       <c r="J162" s="16">
+        <f>POWER(2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K162" s="26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11">
+      <c r="B163" s="14"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="I163" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="J163" s="16">
         <f>POWER(2,2)</f>
         <v>4</v>
       </c>
-      <c r="K162" s="26" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="163" spans="2:11">
-      <c r="B163" s="17"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="11"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="I163" s="12" t="s">
+      <c r="K163" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="J163" s="12">
+    </row>
+    <row r="164" spans="2:11">
+      <c r="B164" s="17"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J164" s="12">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="K163" s="27" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="165" spans="2:11">
-      <c r="B165" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C165" s="7" t="b">
+      <c r="K164" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11">
+      <c r="B166" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C166" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="I165" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J165" s="8">
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I166" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J166" s="8">
         <v>1</v>
       </c>
-      <c r="K165" s="25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="166" spans="2:11">
-      <c r="B166" s="14"/>
-      <c r="H166" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J166" s="2">
-        <v>2</v>
-      </c>
-      <c r="K166" s="26" t="s">
+      <c r="K166" s="25" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5484,112 +5495,112 @@
         <v>284</v>
       </c>
       <c r="J167" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K167" s="26" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="168" spans="2:11">
-      <c r="B168" s="17"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
-      <c r="E168" s="11"/>
-      <c r="F168" s="11"/>
-      <c r="G168" s="11"/>
-      <c r="H168" s="12" t="s">
+      <c r="B168" s="14"/>
+      <c r="H168" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="I168" s="12" t="s">
+      <c r="I168" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="J168" s="12">
+      <c r="J168" s="2">
+        <v>3</v>
+      </c>
+      <c r="K168" s="26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11">
+      <c r="B169" s="17"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J169" s="12">
         <v>4</v>
       </c>
-      <c r="K168" s="27" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="170" spans="2:11">
-      <c r="B170" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C170" s="7" t="b">
+      <c r="K169" s="27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11">
+      <c r="B171" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C171" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="I170" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="J170" s="8">
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I171" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J171" s="8">
         <v>1</v>
       </c>
-      <c r="K170" s="25" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="171" spans="2:11">
-      <c r="B171" s="17"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="11"/>
-      <c r="F171" s="11"/>
-      <c r="G171" s="11"/>
-      <c r="H171" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="I171" s="12" t="s">
+      <c r="K171" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="J171" s="12">
+    </row>
+    <row r="172" spans="2:11">
+      <c r="B172" s="17"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="I172" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="J172" s="12">
         <v>2</v>
       </c>
-      <c r="K171" s="27" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="173" spans="2:11">
-      <c r="B173" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C173" s="7" t="b">
+      <c r="K172" s="27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11">
+      <c r="B174" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C174" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D173" s="7"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="I173" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="J173" s="8">
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I174" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="J174" s="8">
         <v>1</v>
       </c>
-      <c r="K173" s="25" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="174" spans="2:11">
-      <c r="B174" s="14"/>
-      <c r="H174" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="J174" s="2">
-        <v>2</v>
-      </c>
-      <c r="K174" s="26" t="s">
+      <c r="K174" s="25" t="s">
         <v>296</v>
       </c>
     </row>
@@ -5602,69 +5613,69 @@
         <v>298</v>
       </c>
       <c r="J175" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K175" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="176" spans="2:11">
-      <c r="B176" s="17"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
-      <c r="F176" s="11"/>
-      <c r="G176" s="11"/>
-      <c r="H176" s="12" t="s">
+      <c r="B176" s="14"/>
+      <c r="H176" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="I176" s="12" t="s">
+      <c r="I176" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="J176" s="12">
+      <c r="J176" s="2">
+        <v>3</v>
+      </c>
+      <c r="K176" s="26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11">
+      <c r="B177" s="17"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I177" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="J177" s="12">
         <v>4</v>
       </c>
-      <c r="K176" s="27" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="178" spans="2:11">
-      <c r="B178" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="C178" s="7" t="b">
+      <c r="K177" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11">
+      <c r="B179" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="C179" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D178" s="7"/>
-      <c r="E178" s="7"/>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="I178" s="8" t="s">
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="I179" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J178" s="8">
+      <c r="J179" s="8">
         <v>1</v>
       </c>
-      <c r="K178" s="25" t="s">
+      <c r="K179" s="25" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="179" spans="2:11">
-      <c r="B179" s="34"/>
-      <c r="H179" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J179" s="2">
-        <v>2</v>
-      </c>
-      <c r="K179" s="26" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="180" spans="2:11">
@@ -5676,7 +5687,7 @@
         <v>306</v>
       </c>
       <c r="J180" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K180" s="26" t="s">
         <v>306</v>
@@ -5691,7 +5702,7 @@
         <v>308</v>
       </c>
       <c r="J181" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K181" s="26" t="s">
         <v>308</v>
@@ -5706,53 +5717,54 @@
         <v>310</v>
       </c>
       <c r="J182" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K182" s="26" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="183" spans="2:11">
-      <c r="B183" s="35"/>
-      <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="11"/>
-      <c r="F183" s="11"/>
-      <c r="G183" s="11"/>
-      <c r="H183" s="12" t="s">
+      <c r="B183" s="34"/>
+      <c r="H183" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="I183" s="12" t="s">
+      <c r="I183" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="J183" s="12">
+      <c r="J183" s="2">
+        <v>5</v>
+      </c>
+      <c r="K183" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11">
+      <c r="B184" s="35"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="I184" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="J184" s="12">
         <v>6</v>
       </c>
-      <c r="K183" s="27" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="185" spans="2:11">
-      <c r="B185" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C185" s="1" t="b">
+      <c r="K184" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11">
+      <c r="B186" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C186" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H185" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="I185" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J185" s="2">
-        <v>1</v>
-      </c>
-      <c r="K185" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="186" spans="8:11">
       <c r="H186" s="2" t="s">
         <v>316</v>
       </c>
@@ -5760,33 +5772,33 @@
         <v>317</v>
       </c>
       <c r="J186" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K186" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="188" spans="2:11">
-      <c r="B188" s="1" t="s">
+    <row r="187" spans="8:11">
+      <c r="H187" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C188" s="1" t="b">
+      <c r="I187" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J187" s="2">
+        <v>2</v>
+      </c>
+      <c r="K187" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11">
+      <c r="B189" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C189" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H188" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I188" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="J188" s="2">
-        <v>1</v>
-      </c>
-      <c r="K188" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="189" spans="8:11">
       <c r="H189" s="2" t="s">
         <v>321</v>
       </c>
@@ -5794,7 +5806,7 @@
         <v>322</v>
       </c>
       <c r="J189" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K189" s="2" t="s">
         <v>322</v>
@@ -5808,7 +5820,7 @@
         <v>324</v>
       </c>
       <c r="J190" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K190" s="2" t="s">
         <v>324</v>
@@ -5822,7 +5834,7 @@
         <v>326</v>
       </c>
       <c r="J191" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K191" s="2" t="s">
         <v>326</v>
@@ -5836,33 +5848,33 @@
         <v>328</v>
       </c>
       <c r="J192" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K192" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="195" spans="2:11">
-      <c r="B195" s="1" t="s">
+    <row r="193" spans="8:11">
+      <c r="H193" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C195" s="1" t="b">
+      <c r="I193" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J193" s="2">
+        <v>5</v>
+      </c>
+      <c r="K193" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11">
+      <c r="B196" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C196" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H195" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I195" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="J195" s="2">
-        <v>1</v>
-      </c>
-      <c r="K195" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="196" spans="8:11">
       <c r="H196" s="2" t="s">
         <v>332</v>
       </c>
@@ -5870,7 +5882,7 @@
         <v>333</v>
       </c>
       <c r="J196" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K196" s="2" t="s">
         <v>333</v>
@@ -5884,7 +5896,7 @@
         <v>335</v>
       </c>
       <c r="J197" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K197" s="2" t="s">
         <v>335</v>
@@ -5898,7 +5910,7 @@
         <v>337</v>
       </c>
       <c r="J198" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K198" s="2" t="s">
         <v>337</v>
@@ -5912,7 +5924,7 @@
         <v>339</v>
       </c>
       <c r="J199" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K199" s="2" t="s">
         <v>339</v>
@@ -5926,7 +5938,7 @@
         <v>341</v>
       </c>
       <c r="J200" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K200" s="2" t="s">
         <v>341</v>
@@ -5940,7 +5952,7 @@
         <v>343</v>
       </c>
       <c r="J201" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K201" s="2" t="s">
         <v>343</v>
@@ -5954,7 +5966,7 @@
         <v>345</v>
       </c>
       <c r="J202" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K202" s="2" t="s">
         <v>345</v>
@@ -5968,7 +5980,7 @@
         <v>347</v>
       </c>
       <c r="J203" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K203" s="2" t="s">
         <v>347</v>
@@ -5982,7 +5994,7 @@
         <v>349</v>
       </c>
       <c r="J204" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K204" s="2" t="s">
         <v>349</v>
@@ -5996,7 +6008,7 @@
         <v>351</v>
       </c>
       <c r="J205" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K205" s="2" t="s">
         <v>351</v>
@@ -6010,33 +6022,33 @@
         <v>353</v>
       </c>
       <c r="J206" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K206" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="209" spans="2:11">
-      <c r="B209" s="1" t="s">
+    <row r="207" spans="8:11">
+      <c r="H207" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C209" s="1" t="b">
+      <c r="I207" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J207" s="2">
+        <v>12</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11">
+      <c r="B210" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C210" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H209" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I209" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="J209" s="2">
-        <v>1</v>
-      </c>
-      <c r="K209" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="210" spans="8:11">
       <c r="H210" s="2" t="s">
         <v>357</v>
       </c>
@@ -6044,7 +6056,7 @@
         <v>358</v>
       </c>
       <c r="J210" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K210" s="2" t="s">
         <v>358</v>
@@ -6058,33 +6070,33 @@
         <v>360</v>
       </c>
       <c r="J211" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K211" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="214" spans="2:11">
-      <c r="B214" s="1" t="s">
+    <row r="212" spans="8:11">
+      <c r="H212" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C214" s="1" t="b">
+      <c r="I212" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J212" s="2">
+        <v>3</v>
+      </c>
+      <c r="K212" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11">
+      <c r="B215" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C215" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H214" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="I214" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="J214" s="2">
-        <v>1</v>
-      </c>
-      <c r="K214" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="215" spans="8:11">
       <c r="H215" s="2" t="s">
         <v>364</v>
       </c>
@@ -6092,7 +6104,7 @@
         <v>365</v>
       </c>
       <c r="J215" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K215" s="2" t="s">
         <v>365</v>
@@ -6106,7 +6118,7 @@
         <v>367</v>
       </c>
       <c r="J216" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K216" s="2" t="s">
         <v>367</v>
@@ -6120,7 +6132,7 @@
         <v>369</v>
       </c>
       <c r="J217" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K217" s="2" t="s">
         <v>369</v>
@@ -6134,7 +6146,7 @@
         <v>371</v>
       </c>
       <c r="J218" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K218" s="2" t="s">
         <v>371</v>
@@ -6148,30 +6160,30 @@
         <v>373</v>
       </c>
       <c r="J219" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K219" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="223" spans="2:11">
-      <c r="B223" s="1" t="s">
+    <row r="220" spans="8:11">
+      <c r="H220" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H223" s="2" t="s">
+      <c r="I220" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I223" s="2" t="s">
+      <c r="J220" s="2">
+        <v>6</v>
+      </c>
+      <c r="K220" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="224" spans="2:11">
+      <c r="B224" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="J223" s="2">
-        <v>1</v>
-      </c>
-      <c r="K223" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="224" spans="8:11">
       <c r="H224" s="2" t="s">
         <v>377</v>
       </c>
@@ -6179,7 +6191,7 @@
         <v>378</v>
       </c>
       <c r="J224" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K224" s="2" t="s">
         <v>378</v>
@@ -6193,7 +6205,7 @@
         <v>380</v>
       </c>
       <c r="J225" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K225" s="2" t="s">
         <v>380</v>
@@ -6204,33 +6216,33 @@
         <v>381</v>
       </c>
       <c r="I226" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J226" s="2">
+        <v>3</v>
+      </c>
+      <c r="K226" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="227" spans="8:11">
+      <c r="H227" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I227" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J226" s="2">
+      <c r="J227" s="2">
         <v>4</v>
       </c>
-      <c r="K226" s="2" t="s">
+      <c r="K227" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="228" spans="2:11">
-      <c r="B228" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="I228" s="2" t="s">
+    <row r="229" spans="2:11">
+      <c r="B229" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="J228" s="2">
-        <v>1</v>
-      </c>
-      <c r="K228" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="229" spans="8:11">
       <c r="H229" s="2" t="s">
         <v>385</v>
       </c>
@@ -6238,24 +6250,24 @@
         <v>386</v>
       </c>
       <c r="J229" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>387</v>
+        <v>169</v>
       </c>
     </row>
     <row r="230" spans="8:11">
       <c r="H230" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I230" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="I230" s="2" t="s">
+      <c r="J230" s="2">
+        <v>2</v>
+      </c>
+      <c r="K230" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="J230" s="2">
-        <v>3</v>
-      </c>
-      <c r="K230" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="231" spans="8:11">
@@ -6266,86 +6278,86 @@
         <v>391</v>
       </c>
       <c r="J231" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>392</v>
+        <v>174</v>
       </c>
     </row>
     <row r="232" spans="8:11">
       <c r="H232" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I232" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I232" s="2" t="s">
+      <c r="J232" s="2">
+        <v>4</v>
+      </c>
+      <c r="K232" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="J232" s="2">
-        <v>5</v>
-      </c>
-      <c r="K232" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="233" spans="8:11">
       <c r="H233" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I233" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="I233" s="2" t="s">
+      <c r="J233" s="2">
+        <v>5</v>
+      </c>
+      <c r="K233" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="J233" s="2">
-        <v>6</v>
-      </c>
-      <c r="K233" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="234" spans="8:11">
       <c r="H234" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I234" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="I234" s="2" t="s">
+      <c r="J234" s="2">
+        <v>6</v>
+      </c>
+      <c r="K234" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="J234" s="2">
-        <v>7</v>
-      </c>
-      <c r="K234" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="235" spans="8:11">
       <c r="H235" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I235" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I235" s="2" t="s">
+      <c r="J235" s="2">
+        <v>7</v>
+      </c>
+      <c r="K235" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="J235" s="2">
+    </row>
+    <row r="236" spans="8:11">
+      <c r="H236" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I236" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J236" s="2">
         <v>8</v>
       </c>
-      <c r="K235" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="237" spans="2:11">
-      <c r="B237" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="H237" s="2" t="s">
+      <c r="K236" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="I237" s="2" t="s">
+    </row>
+    <row r="238" spans="2:11">
+      <c r="B238" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="J237" s="2">
-        <v>1</v>
-      </c>
-      <c r="K237" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="238" spans="8:11">
       <c r="H238" s="2" t="s">
         <v>408</v>
       </c>
@@ -6353,7 +6365,7 @@
         <v>409</v>
       </c>
       <c r="J238" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K238" s="2" t="s">
         <v>409</v>
@@ -6367,7 +6379,7 @@
         <v>411</v>
       </c>
       <c r="J239" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K239" s="2" t="s">
         <v>411</v>
@@ -6381,7 +6393,7 @@
         <v>413</v>
       </c>
       <c r="J240" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K240" s="2" t="s">
         <v>413</v>
@@ -6395,30 +6407,30 @@
         <v>415</v>
       </c>
       <c r="J241" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K241" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="243" spans="2:11">
-      <c r="B243" s="1" t="s">
+    <row r="242" spans="8:11">
+      <c r="H242" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="H243" s="2" t="s">
+      <c r="I242" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="I243" s="2" t="s">
+      <c r="J242" s="2">
+        <v>5</v>
+      </c>
+      <c r="K242" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="244" spans="2:11">
+      <c r="B244" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="J243" s="2">
-        <v>1</v>
-      </c>
-      <c r="K243" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="244" spans="8:11">
       <c r="H244" s="2" t="s">
         <v>419</v>
       </c>
@@ -6426,7 +6438,7 @@
         <v>420</v>
       </c>
       <c r="J244" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K244" s="2" t="s">
         <v>420</v>
@@ -6440,7 +6452,7 @@
         <v>422</v>
       </c>
       <c r="J245" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K245" s="2" t="s">
         <v>422</v>
@@ -6454,7 +6466,7 @@
         <v>424</v>
       </c>
       <c r="J246" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K246" s="2" t="s">
         <v>424</v>
@@ -6468,7 +6480,7 @@
         <v>426</v>
       </c>
       <c r="J247" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K247" s="2" t="s">
         <v>426</v>
@@ -6482,7 +6494,7 @@
         <v>428</v>
       </c>
       <c r="J248" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K248" s="2" t="s">
         <v>428</v>
@@ -6496,7 +6508,7 @@
         <v>430</v>
       </c>
       <c r="J249" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K249" s="2" t="s">
         <v>430</v>
@@ -6510,7 +6522,7 @@
         <v>432</v>
       </c>
       <c r="J250" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K250" s="2" t="s">
         <v>432</v>
@@ -6524,30 +6536,30 @@
         <v>434</v>
       </c>
       <c r="J251" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K251" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="253" spans="2:11">
-      <c r="B253" s="1" t="s">
+    <row r="252" spans="8:11">
+      <c r="H252" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="H253" s="2" t="s">
+      <c r="I252" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="I253" s="2" t="s">
+      <c r="J252" s="2">
+        <v>9</v>
+      </c>
+      <c r="K252" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="254" spans="2:11">
+      <c r="B254" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="J253" s="2">
-        <v>1</v>
-      </c>
-      <c r="K253" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="254" spans="8:11">
       <c r="H254" s="2" t="s">
         <v>438</v>
       </c>
@@ -6555,7 +6567,7 @@
         <v>439</v>
       </c>
       <c r="J254" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K254" s="2" t="s">
         <v>439</v>
@@ -6569,7 +6581,7 @@
         <v>441</v>
       </c>
       <c r="J255" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K255" s="2" t="s">
         <v>441</v>
@@ -6583,33 +6595,33 @@
         <v>443</v>
       </c>
       <c r="J256" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K256" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="258" spans="2:11">
-      <c r="B258" s="1" t="s">
+    <row r="257" spans="8:11">
+      <c r="H257" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C258" s="1" t="b">
+      <c r="I257" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J257" s="2">
+        <v>4</v>
+      </c>
+      <c r="K257" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="259" spans="2:11">
+      <c r="B259" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C259" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H258" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="I258" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J258" s="2">
-        <v>1</v>
-      </c>
-      <c r="K258" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="259" spans="8:11">
       <c r="H259" s="2" t="s">
         <v>447</v>
       </c>
@@ -6617,10 +6629,24 @@
         <v>448</v>
       </c>
       <c r="J259" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K259" s="2" t="s">
         <v>448</v>
+      </c>
+    </row>
+    <row r="260" spans="8:11">
+      <c r="H260" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="I260" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J260" s="2">
+        <v>2</v>
+      </c>
+      <c r="K260" s="2" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -6633,20 +6659,20 @@
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B33:B39"/>
     <mergeCell ref="B41:B46"/>
-    <mergeCell ref="B52:B96"/>
-    <mergeCell ref="B104:B113"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B138:B147"/>
-    <mergeCell ref="B149:B158"/>
-    <mergeCell ref="B160:B163"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B52:B97"/>
+    <mergeCell ref="B105:B114"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B139:B148"/>
+    <mergeCell ref="B150:B159"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="B179:B184"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
